--- a/Bases_de_Dados_(2022-2024)/Europe UEFA Champions League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Europe UEFA Champions League_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="121">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -253,6 +253,18 @@
     <t>Astana</t>
   </si>
   <si>
+    <t>HJK</t>
+  </si>
+  <si>
+    <t>Häcken</t>
+  </si>
+  <si>
+    <t>SSC Farul</t>
+  </si>
+  <si>
+    <t>Slovan Bratislava</t>
+  </si>
+  <si>
     <t>Breidablik</t>
   </si>
   <si>
@@ -286,6 +298,18 @@
     <t>Dinamo Tbilisi</t>
   </si>
   <si>
+    <t>Larne</t>
+  </si>
+  <si>
+    <t>The New Saints</t>
+  </si>
+  <si>
+    <t>Sheriff</t>
+  </si>
+  <si>
+    <t>Swift Hesperange</t>
+  </si>
+  <si>
     <t>[]</t>
   </si>
   <si>
@@ -310,6 +334,15 @@
     <t>['11']</t>
   </si>
   <si>
+    <t>['3']</t>
+  </si>
+  <si>
+    <t>['7', '13', '36']</t>
+  </si>
+  <si>
+    <t>['56']</t>
+  </si>
+  <si>
     <t>['13', '21', '60']</t>
   </si>
   <si>
@@ -338,6 +371,12 @@
   </si>
   <si>
     <t>['57']</t>
+  </si>
+  <si>
+    <t>['32']</t>
+  </si>
+  <si>
+    <t>['22']</t>
   </si>
 </sst>
 </file>
@@ -699,7 +738,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK15"/>
+  <dimension ref="A1:BK19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -940,10 +979,10 @@
         <v>3</v>
       </c>
       <c r="O2" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="P2" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="Q2">
         <v>2</v>
@@ -1110,7 +1149,7 @@
         <v>66</v>
       </c>
       <c r="H3" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -1131,10 +1170,10 @@
         <v>8</v>
       </c>
       <c r="O3" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="P3" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -1301,7 +1340,7 @@
         <v>67</v>
       </c>
       <c r="H4" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -1322,10 +1361,10 @@
         <v>5</v>
       </c>
       <c r="O4" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="P4" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="Q4">
         <v>-1</v>
@@ -1492,7 +1531,7 @@
         <v>68</v>
       </c>
       <c r="H5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -1513,10 +1552,10 @@
         <v>1</v>
       </c>
       <c r="O5" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="P5" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="Q5">
         <v>2</v>
@@ -1642,22 +1681,22 @@
         <v>3.4</v>
       </c>
       <c r="BF5">
+        <v>3</v>
+      </c>
+      <c r="BG5">
         <v>4</v>
       </c>
-      <c r="BG5">
-        <v>2</v>
-      </c>
       <c r="BH5">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BI5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BJ5">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BK5">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:63">
@@ -1683,7 +1722,7 @@
         <v>69</v>
       </c>
       <c r="H6" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -1704,10 +1743,10 @@
         <v>3</v>
       </c>
       <c r="O6" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="P6" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="Q6">
         <v>1</v>
@@ -1833,22 +1872,22 @@
         <v>3.5</v>
       </c>
       <c r="BF6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BG6">
+        <v>6</v>
+      </c>
+      <c r="BH6">
+        <v>1</v>
+      </c>
+      <c r="BI6">
         <v>4</v>
       </c>
-      <c r="BH6">
-        <v>0</v>
-      </c>
-      <c r="BI6">
-        <v>3</v>
-      </c>
       <c r="BJ6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BK6">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:63">
@@ -1874,7 +1913,7 @@
         <v>70</v>
       </c>
       <c r="H7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -1895,10 +1934,10 @@
         <v>0</v>
       </c>
       <c r="O7" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="P7" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="Q7">
         <v>8</v>
@@ -2024,19 +2063,19 @@
         <v>3.7</v>
       </c>
       <c r="BF7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BG7">
         <v>3</v>
       </c>
       <c r="BH7">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BI7">
         <v>3</v>
       </c>
       <c r="BJ7">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BK7">
         <v>6</v>
@@ -2065,7 +2104,7 @@
         <v>71</v>
       </c>
       <c r="H8" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -2086,10 +2125,10 @@
         <v>3</v>
       </c>
       <c r="O8" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="P8" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="Q8">
         <v>5</v>
@@ -2256,7 +2295,7 @@
         <v>72</v>
       </c>
       <c r="H9" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -2277,10 +2316,10 @@
         <v>1</v>
       </c>
       <c r="O9" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="P9" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="Q9">
         <v>11</v>
@@ -2447,7 +2486,7 @@
         <v>73</v>
       </c>
       <c r="H10" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -2468,10 +2507,10 @@
         <v>4</v>
       </c>
       <c r="O10" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="Q10">
         <v>4</v>
@@ -2638,7 +2677,7 @@
         <v>74</v>
       </c>
       <c r="H11" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -2659,10 +2698,10 @@
         <v>0</v>
       </c>
       <c r="O11" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="P11" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="Q11">
         <v>5</v>
@@ -2829,7 +2868,7 @@
         <v>75</v>
       </c>
       <c r="H12" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -2850,10 +2889,10 @@
         <v>2</v>
       </c>
       <c r="O12" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="P12" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="Q12">
         <v>6</v>
@@ -3020,7 +3059,7 @@
         <v>76</v>
       </c>
       <c r="H13" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -3041,10 +3080,10 @@
         <v>2</v>
       </c>
       <c r="O13" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="P13" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="Q13">
         <v>6</v>
@@ -3211,7 +3250,7 @@
         <v>77</v>
       </c>
       <c r="H14" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -3232,10 +3271,10 @@
         <v>1</v>
       </c>
       <c r="O14" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="P14" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="Q14">
         <v>3</v>
@@ -3402,7 +3441,7 @@
         <v>78</v>
       </c>
       <c r="H15" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -3423,19 +3462,19 @@
         <v>2</v>
       </c>
       <c r="O15" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="P15" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="Q15">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="R15">
         <v>1</v>
       </c>
       <c r="S15">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="T15">
         <v>2.3</v>
@@ -3552,22 +3591,786 @@
         <v>3.2</v>
       </c>
       <c r="BF15">
+        <v>7</v>
+      </c>
+      <c r="BG15">
+        <v>6</v>
+      </c>
+      <c r="BH15">
+        <v>8</v>
+      </c>
+      <c r="BI15">
+        <v>4</v>
+      </c>
+      <c r="BJ15">
+        <v>15</v>
+      </c>
+      <c r="BK15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:63">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>6527471</v>
+      </c>
+      <c r="C16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" s="2">
+        <v>45119.54166666666</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16" t="s">
+        <v>79</v>
+      </c>
+      <c r="H16" t="s">
+        <v>94</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16" t="s">
+        <v>106</v>
+      </c>
+      <c r="P16" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q16">
+        <v>4</v>
+      </c>
+      <c r="R16">
+        <v>4</v>
+      </c>
+      <c r="S16">
+        <v>8</v>
+      </c>
+      <c r="T16">
+        <v>1.68</v>
+      </c>
+      <c r="U16">
+        <v>2.55</v>
+      </c>
+      <c r="V16">
+        <v>7.25</v>
+      </c>
+      <c r="W16">
+        <v>1.28</v>
+      </c>
+      <c r="X16">
+        <v>3.3</v>
+      </c>
+      <c r="Y16">
+        <v>2.35</v>
+      </c>
+      <c r="Z16">
+        <v>1.52</v>
+      </c>
+      <c r="AA16">
+        <v>5.5</v>
+      </c>
+      <c r="AB16">
+        <v>1.13</v>
+      </c>
+      <c r="AC16">
+        <v>1.17</v>
+      </c>
+      <c r="AD16">
+        <v>7.6</v>
+      </c>
+      <c r="AE16">
+        <v>15</v>
+      </c>
+      <c r="AF16">
+        <v>1.03</v>
+      </c>
+      <c r="AG16">
+        <v>11</v>
+      </c>
+      <c r="AH16">
+        <v>1.2</v>
+      </c>
+      <c r="AI16">
+        <v>4.33</v>
+      </c>
+      <c r="AJ16">
+        <v>1.54</v>
+      </c>
+      <c r="AK16">
+        <v>2.35</v>
+      </c>
+      <c r="AL16">
+        <v>2.15</v>
+      </c>
+      <c r="AM16">
+        <v>1.6</v>
+      </c>
+      <c r="AN16">
+        <v>1.06</v>
+      </c>
+      <c r="AO16">
+        <v>1.14</v>
+      </c>
+      <c r="AP16">
+        <v>3.5</v>
+      </c>
+      <c r="AQ16">
+        <v>0</v>
+      </c>
+      <c r="AR16">
+        <v>0</v>
+      </c>
+      <c r="AS16">
+        <v>3</v>
+      </c>
+      <c r="AT16">
+        <v>0</v>
+      </c>
+      <c r="AU16">
+        <v>0</v>
+      </c>
+      <c r="AV16">
+        <v>0</v>
+      </c>
+      <c r="AW16">
+        <v>0</v>
+      </c>
+      <c r="AX16">
+        <v>1.13</v>
+      </c>
+      <c r="AY16">
+        <v>11</v>
+      </c>
+      <c r="AZ16">
+        <v>9.1</v>
+      </c>
+      <c r="BA16">
+        <v>1.25</v>
+      </c>
+      <c r="BB16">
+        <v>1.39</v>
+      </c>
+      <c r="BC16">
+        <v>1.7</v>
+      </c>
+      <c r="BD16">
+        <v>2.15</v>
+      </c>
+      <c r="BE16">
+        <v>2.85</v>
+      </c>
+      <c r="BF16">
+        <v>4</v>
+      </c>
+      <c r="BG16">
+        <v>0</v>
+      </c>
+      <c r="BH16">
+        <v>2</v>
+      </c>
+      <c r="BI16">
+        <v>4</v>
+      </c>
+      <c r="BJ16">
+        <v>6</v>
+      </c>
+      <c r="BK16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:63">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>6527466</v>
+      </c>
+      <c r="C17" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="2">
+        <v>45119.58333333334</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17" t="s">
+        <v>80</v>
+      </c>
+      <c r="H17" t="s">
+        <v>95</v>
+      </c>
+      <c r="I17">
+        <v>3</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>4</v>
+      </c>
+      <c r="L17">
+        <v>3</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="N17">
+        <v>4</v>
+      </c>
+      <c r="O17" t="s">
+        <v>107</v>
+      </c>
+      <c r="P17" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q17">
+        <v>10</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>10</v>
+      </c>
+      <c r="T17">
+        <v>1.49</v>
+      </c>
+      <c r="U17">
+        <v>2.87</v>
+      </c>
+      <c r="V17">
+        <v>11</v>
+      </c>
+      <c r="W17">
+        <v>1.25</v>
+      </c>
+      <c r="X17">
+        <v>3.6</v>
+      </c>
+      <c r="Y17">
+        <v>2.15</v>
+      </c>
+      <c r="Z17">
+        <v>1.6</v>
+      </c>
+      <c r="AA17">
+        <v>4.8</v>
+      </c>
+      <c r="AB17">
+        <v>1.16</v>
+      </c>
+      <c r="AC17">
+        <v>1.14</v>
+      </c>
+      <c r="AD17">
+        <v>7.5</v>
+      </c>
+      <c r="AE17">
+        <v>16</v>
+      </c>
+      <c r="AF17">
+        <v>1.02</v>
+      </c>
+      <c r="AG17">
+        <v>13</v>
+      </c>
+      <c r="AH17">
+        <v>1.15</v>
+      </c>
+      <c r="AI17">
+        <v>4.75</v>
+      </c>
+      <c r="AJ17">
+        <v>1.45</v>
+      </c>
+      <c r="AK17">
+        <v>2.42</v>
+      </c>
+      <c r="AL17">
+        <v>2.55</v>
+      </c>
+      <c r="AM17">
+        <v>1.46</v>
+      </c>
+      <c r="AN17">
+        <v>1.02</v>
+      </c>
+      <c r="AO17">
+        <v>1.08</v>
+      </c>
+      <c r="AP17">
+        <v>5.5</v>
+      </c>
+      <c r="AQ17">
+        <v>0</v>
+      </c>
+      <c r="AR17">
+        <v>0</v>
+      </c>
+      <c r="AS17">
+        <v>3</v>
+      </c>
+      <c r="AT17">
+        <v>0</v>
+      </c>
+      <c r="AU17">
+        <v>0</v>
+      </c>
+      <c r="AV17">
+        <v>0</v>
+      </c>
+      <c r="AW17">
+        <v>0</v>
+      </c>
+      <c r="AX17">
+        <v>1.06</v>
+      </c>
+      <c r="AY17">
+        <v>16</v>
+      </c>
+      <c r="AZ17">
+        <v>15</v>
+      </c>
+      <c r="BA17">
+        <v>1.13</v>
+      </c>
+      <c r="BB17">
+        <v>1.23</v>
+      </c>
+      <c r="BC17">
+        <v>1.4</v>
+      </c>
+      <c r="BD17">
+        <v>1.65</v>
+      </c>
+      <c r="BE17">
+        <v>2</v>
+      </c>
+      <c r="BF17">
+        <v>14</v>
+      </c>
+      <c r="BG17">
+        <v>3</v>
+      </c>
+      <c r="BH17">
+        <v>8</v>
+      </c>
+      <c r="BI17">
+        <v>2</v>
+      </c>
+      <c r="BJ17">
+        <v>22</v>
+      </c>
+      <c r="BK17">
         <v>5</v>
       </c>
-      <c r="BG15">
+    </row>
+    <row r="18" spans="1:63">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>6527475</v>
+      </c>
+      <c r="C18" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="2">
+        <v>45119.60416666666</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18" t="s">
+        <v>81</v>
+      </c>
+      <c r="H18" t="s">
+        <v>96</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18" t="s">
+        <v>108</v>
+      </c>
+      <c r="P18" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q18">
+        <v>3</v>
+      </c>
+      <c r="R18">
+        <v>10</v>
+      </c>
+      <c r="S18">
+        <v>13</v>
+      </c>
+      <c r="T18">
+        <v>2.7</v>
+      </c>
+      <c r="U18">
+        <v>2.05</v>
+      </c>
+      <c r="V18">
+        <v>3.9</v>
+      </c>
+      <c r="W18">
+        <v>1.44</v>
+      </c>
+      <c r="X18">
+        <v>2.55</v>
+      </c>
+      <c r="Y18">
+        <v>3.1</v>
+      </c>
+      <c r="Z18">
+        <v>1.32</v>
+      </c>
+      <c r="AA18">
+        <v>8.5</v>
+      </c>
+      <c r="AB18">
+        <v>1.06</v>
+      </c>
+      <c r="AC18">
+        <v>2.36</v>
+      </c>
+      <c r="AD18">
+        <v>3</v>
+      </c>
+      <c r="AE18">
+        <v>3.3</v>
+      </c>
+      <c r="AF18">
+        <v>1.08</v>
+      </c>
+      <c r="AG18">
+        <v>7</v>
+      </c>
+      <c r="AH18">
+        <v>1.59</v>
+      </c>
+      <c r="AI18">
+        <v>2.39</v>
+      </c>
+      <c r="AJ18">
+        <v>2.2</v>
+      </c>
+      <c r="AK18">
+        <v>1.6</v>
+      </c>
+      <c r="AL18">
+        <v>1.95</v>
+      </c>
+      <c r="AM18">
+        <v>1.75</v>
+      </c>
+      <c r="AN18">
+        <v>1.29</v>
+      </c>
+      <c r="AO18">
+        <v>1.31</v>
+      </c>
+      <c r="AP18">
+        <v>1.71</v>
+      </c>
+      <c r="AQ18">
+        <v>0</v>
+      </c>
+      <c r="AR18">
+        <v>0</v>
+      </c>
+      <c r="AS18">
+        <v>3</v>
+      </c>
+      <c r="AT18">
+        <v>0</v>
+      </c>
+      <c r="AU18">
+        <v>0</v>
+      </c>
+      <c r="AV18">
+        <v>0</v>
+      </c>
+      <c r="AW18">
+        <v>0</v>
+      </c>
+      <c r="AX18">
+        <v>1.77</v>
+      </c>
+      <c r="AY18">
+        <v>6.8</v>
+      </c>
+      <c r="AZ18">
+        <v>2.71</v>
+      </c>
+      <c r="BA18">
+        <v>1.37</v>
+      </c>
+      <c r="BB18">
+        <v>1.65</v>
+      </c>
+      <c r="BC18">
+        <v>2.05</v>
+      </c>
+      <c r="BD18">
+        <v>2.7</v>
+      </c>
+      <c r="BE18">
+        <v>3.7</v>
+      </c>
+      <c r="BF18">
+        <v>5</v>
+      </c>
+      <c r="BG18">
+        <v>5</v>
+      </c>
+      <c r="BH18">
+        <v>3</v>
+      </c>
+      <c r="BI18">
+        <v>10</v>
+      </c>
+      <c r="BJ18">
+        <v>8</v>
+      </c>
+      <c r="BK18">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:63">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>6527474</v>
+      </c>
+      <c r="C19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" t="s">
+        <v>64</v>
+      </c>
+      <c r="E19" s="2">
+        <v>45119.64583333334</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19" t="s">
+        <v>82</v>
+      </c>
+      <c r="H19" t="s">
+        <v>97</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="N19">
+        <v>2</v>
+      </c>
+      <c r="O19" t="s">
+        <v>100</v>
+      </c>
+      <c r="P19" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q19">
+        <v>5</v>
+      </c>
+      <c r="R19">
+        <v>7</v>
+      </c>
+      <c r="S19">
+        <v>12</v>
+      </c>
+      <c r="T19">
+        <v>1.65</v>
+      </c>
+      <c r="U19">
+        <v>2.65</v>
+      </c>
+      <c r="V19">
+        <v>7.75</v>
+      </c>
+      <c r="W19">
+        <v>1.26</v>
+      </c>
+      <c r="X19">
+        <v>3.5</v>
+      </c>
+      <c r="Y19">
+        <v>2.2</v>
+      </c>
+      <c r="Z19">
+        <v>1.58</v>
+      </c>
+      <c r="AA19">
+        <v>5</v>
+      </c>
+      <c r="AB19">
+        <v>1.15</v>
+      </c>
+      <c r="AC19">
+        <v>1.22</v>
+      </c>
+      <c r="AD19">
+        <v>6.5</v>
+      </c>
+      <c r="AE19">
+        <v>12</v>
+      </c>
+      <c r="AF19">
+        <v>1.02</v>
+      </c>
+      <c r="AG19">
+        <v>12</v>
+      </c>
+      <c r="AH19">
+        <v>1.17</v>
+      </c>
+      <c r="AI19">
+        <v>4.6</v>
+      </c>
+      <c r="AJ19">
+        <v>1.5</v>
+      </c>
+      <c r="AK19">
+        <v>2.31</v>
+      </c>
+      <c r="AL19">
+        <v>2.05</v>
+      </c>
+      <c r="AM19">
+        <v>1.66</v>
+      </c>
+      <c r="AN19">
+        <v>1.05</v>
+      </c>
+      <c r="AO19">
+        <v>1.12</v>
+      </c>
+      <c r="AP19">
+        <v>3.8</v>
+      </c>
+      <c r="AQ19">
+        <v>0</v>
+      </c>
+      <c r="AR19">
+        <v>0</v>
+      </c>
+      <c r="AS19">
+        <v>1</v>
+      </c>
+      <c r="AT19">
+        <v>1</v>
+      </c>
+      <c r="AU19">
+        <v>0</v>
+      </c>
+      <c r="AV19">
+        <v>0</v>
+      </c>
+      <c r="AW19">
+        <v>0</v>
+      </c>
+      <c r="AX19">
+        <v>1.11</v>
+      </c>
+      <c r="AY19">
+        <v>12</v>
+      </c>
+      <c r="AZ19">
+        <v>10.7</v>
+      </c>
+      <c r="BA19">
+        <v>1.27</v>
+      </c>
+      <c r="BB19">
+        <v>1.48</v>
+      </c>
+      <c r="BC19">
+        <v>1.8</v>
+      </c>
+      <c r="BD19">
+        <v>2.25</v>
+      </c>
+      <c r="BE19">
+        <v>3</v>
+      </c>
+      <c r="BF19">
+        <v>3</v>
+      </c>
+      <c r="BG19">
+        <v>5</v>
+      </c>
+      <c r="BH19">
         <v>4</v>
       </c>
-      <c r="BH15">
-        <v>3</v>
-      </c>
-      <c r="BI15">
-        <v>2</v>
-      </c>
-      <c r="BJ15">
-        <v>8</v>
-      </c>
-      <c r="BK15">
-        <v>6</v>
+      <c r="BI19">
+        <v>4</v>
+      </c>
+      <c r="BJ19">
+        <v>7</v>
+      </c>
+      <c r="BK19">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Europe UEFA Champions League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Europe UEFA Champions League_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="128">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -265,6 +265,24 @@
     <t>Slovan Bratislava</t>
   </si>
   <si>
+    <t>Struga</t>
+  </si>
+  <si>
+    <t>Maccabi Haifa</t>
+  </si>
+  <si>
+    <t>Tallinna FC Flora</t>
+  </si>
+  <si>
+    <t>Sheriff</t>
+  </si>
+  <si>
+    <t>The New Saints</t>
+  </si>
+  <si>
+    <t>BATE</t>
+  </si>
+  <si>
     <t>Breidablik</t>
   </si>
   <si>
@@ -274,39 +292,21 @@
     <t>Qarabağ</t>
   </si>
   <si>
-    <t>Struga</t>
-  </si>
-  <si>
     <t>Valmiera / BSS</t>
   </si>
   <si>
-    <t>Tallinna FC Flora</t>
-  </si>
-  <si>
-    <t>Maccabi Haifa</t>
-  </si>
-  <si>
     <t>Ferencváros</t>
   </si>
   <si>
     <t>Ludogorets</t>
   </si>
   <si>
-    <t>BATE</t>
-  </si>
-  <si>
     <t>Dinamo Tbilisi</t>
   </si>
   <si>
     <t>Larne</t>
   </si>
   <si>
-    <t>The New Saints</t>
-  </si>
-  <si>
-    <t>Sheriff</t>
-  </si>
-  <si>
     <t>Swift Hesperange</t>
   </si>
   <si>
@@ -343,6 +343,18 @@
     <t>['56']</t>
   </si>
   <si>
+    <t>['75']</t>
+  </si>
+  <si>
+    <t>['69', '84']</t>
+  </si>
+  <si>
+    <t>['45+1', '99', '105+1']</t>
+  </si>
+  <si>
+    <t>['71', '90+12']</t>
+  </si>
+  <si>
     <t>['13', '21', '60']</t>
   </si>
   <si>
@@ -377,6 +389,15 @@
   </si>
   <si>
     <t>['22']</t>
+  </si>
+  <si>
+    <t>['78', '83']</t>
+  </si>
+  <si>
+    <t>['47', '59', '85']</t>
+  </si>
+  <si>
+    <t>['19', '90+1']</t>
   </si>
 </sst>
 </file>
@@ -738,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK19"/>
+  <dimension ref="A1:BK25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -982,7 +1003,7 @@
         <v>98</v>
       </c>
       <c r="P2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="Q2">
         <v>2</v>
@@ -1149,7 +1170,7 @@
         <v>66</v>
       </c>
       <c r="H3" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -1173,7 +1194,7 @@
         <v>99</v>
       </c>
       <c r="P3" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -1340,7 +1361,7 @@
         <v>67</v>
       </c>
       <c r="H4" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -1364,7 +1385,7 @@
         <v>98</v>
       </c>
       <c r="P4" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="Q4">
         <v>-1</v>
@@ -1531,7 +1552,7 @@
         <v>68</v>
       </c>
       <c r="H5" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -1555,7 +1576,7 @@
         <v>98</v>
       </c>
       <c r="P5" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="Q5">
         <v>2</v>
@@ -1722,7 +1743,7 @@
         <v>69</v>
       </c>
       <c r="H6" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -1746,7 +1767,7 @@
         <v>100</v>
       </c>
       <c r="P6" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="Q6">
         <v>1</v>
@@ -1913,7 +1934,7 @@
         <v>70</v>
       </c>
       <c r="H7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -2024,10 +2045,10 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2104,7 +2125,7 @@
         <v>71</v>
       </c>
       <c r="H8" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -2128,7 +2149,7 @@
         <v>101</v>
       </c>
       <c r="P8" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="Q8">
         <v>5</v>
@@ -2295,7 +2316,7 @@
         <v>72</v>
       </c>
       <c r="H9" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -2486,7 +2507,7 @@
         <v>73</v>
       </c>
       <c r="H10" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -2510,7 +2531,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="Q10">
         <v>4</v>
@@ -2677,7 +2698,7 @@
         <v>74</v>
       </c>
       <c r="H11" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -2868,7 +2889,7 @@
         <v>75</v>
       </c>
       <c r="H12" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -3059,7 +3080,7 @@
         <v>76</v>
       </c>
       <c r="H13" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -3083,7 +3104,7 @@
         <v>104</v>
       </c>
       <c r="P13" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="Q13">
         <v>6</v>
@@ -3170,10 +3191,10 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AT13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3250,7 +3271,7 @@
         <v>77</v>
       </c>
       <c r="H14" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -3274,7 +3295,7 @@
         <v>98</v>
       </c>
       <c r="P14" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="Q14">
         <v>3</v>
@@ -3441,7 +3462,7 @@
         <v>78</v>
       </c>
       <c r="H15" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -3465,7 +3486,7 @@
         <v>105</v>
       </c>
       <c r="P15" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="Q15">
         <v>6</v>
@@ -3632,7 +3653,7 @@
         <v>79</v>
       </c>
       <c r="H16" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -3823,7 +3844,7 @@
         <v>80</v>
       </c>
       <c r="H17" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="I17">
         <v>3</v>
@@ -3847,7 +3868,7 @@
         <v>107</v>
       </c>
       <c r="P17" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="Q17">
         <v>10</v>
@@ -4014,7 +4035,7 @@
         <v>81</v>
       </c>
       <c r="H18" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -4125,10 +4146,10 @@
         <v>0</v>
       </c>
       <c r="AS18">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AT18">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AU18">
         <v>0</v>
@@ -4229,7 +4250,7 @@
         <v>100</v>
       </c>
       <c r="P19" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="Q19">
         <v>5</v>
@@ -4371,6 +4392,1152 @@
       </c>
       <c r="BK19">
         <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:63">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>6527482</v>
+      </c>
+      <c r="C20" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" s="2">
+        <v>45125.5</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20" t="s">
+        <v>83</v>
+      </c>
+      <c r="H20" t="s">
+        <v>70</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>2</v>
+      </c>
+      <c r="N20">
+        <v>3</v>
+      </c>
+      <c r="O20" t="s">
+        <v>109</v>
+      </c>
+      <c r="P20" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q20">
+        <v>1</v>
+      </c>
+      <c r="R20">
+        <v>1</v>
+      </c>
+      <c r="S20">
+        <v>2</v>
+      </c>
+      <c r="T20">
+        <v>4.25</v>
+      </c>
+      <c r="U20">
+        <v>1.89</v>
+      </c>
+      <c r="V20">
+        <v>3.05</v>
+      </c>
+      <c r="W20">
+        <v>1.59</v>
+      </c>
+      <c r="X20">
+        <v>2.28</v>
+      </c>
+      <c r="Y20">
+        <v>3.82</v>
+      </c>
+      <c r="Z20">
+        <v>1.24</v>
+      </c>
+      <c r="AA20">
+        <v>10.75</v>
+      </c>
+      <c r="AB20">
+        <v>1.03</v>
+      </c>
+      <c r="AC20">
+        <v>2.9</v>
+      </c>
+      <c r="AD20">
+        <v>3.1</v>
+      </c>
+      <c r="AE20">
+        <v>2.5</v>
+      </c>
+      <c r="AF20">
+        <v>1.08</v>
+      </c>
+      <c r="AG20">
+        <v>6.05</v>
+      </c>
+      <c r="AH20">
+        <v>1.5</v>
+      </c>
+      <c r="AI20">
+        <v>2.45</v>
+      </c>
+      <c r="AJ20">
+        <v>2.45</v>
+      </c>
+      <c r="AK20">
+        <v>1.52</v>
+      </c>
+      <c r="AL20">
+        <v>2.19</v>
+      </c>
+      <c r="AM20">
+        <v>1.63</v>
+      </c>
+      <c r="AN20">
+        <v>1.6</v>
+      </c>
+      <c r="AO20">
+        <v>1.37</v>
+      </c>
+      <c r="AP20">
+        <v>1.33</v>
+      </c>
+      <c r="AQ20">
+        <v>1</v>
+      </c>
+      <c r="AR20">
+        <v>1</v>
+      </c>
+      <c r="AS20">
+        <v>0.5</v>
+      </c>
+      <c r="AT20">
+        <v>2</v>
+      </c>
+      <c r="AU20">
+        <v>0</v>
+      </c>
+      <c r="AV20">
+        <v>0</v>
+      </c>
+      <c r="AW20">
+        <v>0</v>
+      </c>
+      <c r="AX20">
+        <v>4.97</v>
+      </c>
+      <c r="AY20">
+        <v>11</v>
+      </c>
+      <c r="AZ20">
+        <v>1.25</v>
+      </c>
+      <c r="BA20">
+        <v>1.16</v>
+      </c>
+      <c r="BB20">
+        <v>1.31</v>
+      </c>
+      <c r="BC20">
+        <v>1.53</v>
+      </c>
+      <c r="BD20">
+        <v>1.87</v>
+      </c>
+      <c r="BE20">
+        <v>2.37</v>
+      </c>
+      <c r="BF20">
+        <v>5</v>
+      </c>
+      <c r="BG20">
+        <v>5</v>
+      </c>
+      <c r="BH20">
+        <v>3</v>
+      </c>
+      <c r="BI20">
+        <v>5</v>
+      </c>
+      <c r="BJ20">
+        <v>8</v>
+      </c>
+      <c r="BK20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:63">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>6527490</v>
+      </c>
+      <c r="C21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" t="s">
+        <v>64</v>
+      </c>
+      <c r="E21" s="2">
+        <v>45125.58333333334</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21" t="s">
+        <v>84</v>
+      </c>
+      <c r="H21" t="s">
+        <v>73</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>2</v>
+      </c>
+      <c r="M21">
+        <v>1</v>
+      </c>
+      <c r="N21">
+        <v>3</v>
+      </c>
+      <c r="O21" t="s">
+        <v>110</v>
+      </c>
+      <c r="P21" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q21">
+        <v>1</v>
+      </c>
+      <c r="R21">
+        <v>1</v>
+      </c>
+      <c r="S21">
+        <v>2</v>
+      </c>
+      <c r="T21">
+        <v>1.45</v>
+      </c>
+      <c r="U21">
+        <v>3.1</v>
+      </c>
+      <c r="V21">
+        <v>13.5</v>
+      </c>
+      <c r="W21">
+        <v>1.25</v>
+      </c>
+      <c r="X21">
+        <v>3.72</v>
+      </c>
+      <c r="Y21">
+        <v>2.18</v>
+      </c>
+      <c r="Z21">
+        <v>1.64</v>
+      </c>
+      <c r="AA21">
+        <v>4.75</v>
+      </c>
+      <c r="AB21">
+        <v>1.17</v>
+      </c>
+      <c r="AC21">
+        <v>1.1</v>
+      </c>
+      <c r="AD21">
+        <v>9</v>
+      </c>
+      <c r="AE21">
+        <v>21</v>
+      </c>
+      <c r="AF21">
+        <v>1.02</v>
+      </c>
+      <c r="AG21">
+        <v>13</v>
+      </c>
+      <c r="AH21">
+        <v>1.12</v>
+      </c>
+      <c r="AI21">
+        <v>5</v>
+      </c>
+      <c r="AJ21">
+        <v>1.44</v>
+      </c>
+      <c r="AK21">
+        <v>2.65</v>
+      </c>
+      <c r="AL21">
+        <v>2.7</v>
+      </c>
+      <c r="AM21">
+        <v>1.44</v>
+      </c>
+      <c r="AN21">
+        <v>1.01</v>
+      </c>
+      <c r="AO21">
+        <v>1.06</v>
+      </c>
+      <c r="AP21">
+        <v>6.35</v>
+      </c>
+      <c r="AQ21">
+        <v>3</v>
+      </c>
+      <c r="AR21">
+        <v>0</v>
+      </c>
+      <c r="AS21">
+        <v>3</v>
+      </c>
+      <c r="AT21">
+        <v>0</v>
+      </c>
+      <c r="AU21">
+        <v>0</v>
+      </c>
+      <c r="AV21">
+        <v>0</v>
+      </c>
+      <c r="AW21">
+        <v>0</v>
+      </c>
+      <c r="AX21">
+        <v>1.27</v>
+      </c>
+      <c r="AY21">
+        <v>8.9</v>
+      </c>
+      <c r="AZ21">
+        <v>5.27</v>
+      </c>
+      <c r="BA21">
+        <v>1.28</v>
+      </c>
+      <c r="BB21">
+        <v>1.5</v>
+      </c>
+      <c r="BC21">
+        <v>1.87</v>
+      </c>
+      <c r="BD21">
+        <v>2.3</v>
+      </c>
+      <c r="BE21">
+        <v>3.05</v>
+      </c>
+      <c r="BF21">
+        <v>5</v>
+      </c>
+      <c r="BG21">
+        <v>2</v>
+      </c>
+      <c r="BH21">
+        <v>2</v>
+      </c>
+      <c r="BI21">
+        <v>2</v>
+      </c>
+      <c r="BJ21">
+        <v>7</v>
+      </c>
+      <c r="BK21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:63">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>6527487</v>
+      </c>
+      <c r="C22" t="s">
+        <v>63</v>
+      </c>
+      <c r="D22" t="s">
+        <v>64</v>
+      </c>
+      <c r="E22" s="2">
+        <v>45125.58333333334</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22" t="s">
+        <v>85</v>
+      </c>
+      <c r="H22" t="s">
+        <v>72</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>3</v>
+      </c>
+      <c r="N22">
+        <v>3</v>
+      </c>
+      <c r="O22" t="s">
+        <v>98</v>
+      </c>
+      <c r="P22" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q22">
+        <v>1</v>
+      </c>
+      <c r="R22">
+        <v>7</v>
+      </c>
+      <c r="S22">
+        <v>8</v>
+      </c>
+      <c r="T22">
+        <v>4.75</v>
+      </c>
+      <c r="U22">
+        <v>2.25</v>
+      </c>
+      <c r="V22">
+        <v>2.15</v>
+      </c>
+      <c r="W22">
+        <v>1.4</v>
+      </c>
+      <c r="X22">
+        <v>2.75</v>
+      </c>
+      <c r="Y22">
+        <v>2.75</v>
+      </c>
+      <c r="Z22">
+        <v>1.4</v>
+      </c>
+      <c r="AA22">
+        <v>6.5</v>
+      </c>
+      <c r="AB22">
+        <v>1.1</v>
+      </c>
+      <c r="AC22">
+        <v>5</v>
+      </c>
+      <c r="AD22">
+        <v>3.6</v>
+      </c>
+      <c r="AE22">
+        <v>1.62</v>
+      </c>
+      <c r="AF22">
+        <v>1.06</v>
+      </c>
+      <c r="AG22">
+        <v>8</v>
+      </c>
+      <c r="AH22">
+        <v>1.3</v>
+      </c>
+      <c r="AI22">
+        <v>3.4</v>
+      </c>
+      <c r="AJ22">
+        <v>1.85</v>
+      </c>
+      <c r="AK22">
+        <v>1.85</v>
+      </c>
+      <c r="AL22">
+        <v>1.85</v>
+      </c>
+      <c r="AM22">
+        <v>1.85</v>
+      </c>
+      <c r="AN22">
+        <v>2.1</v>
+      </c>
+      <c r="AO22">
+        <v>1.25</v>
+      </c>
+      <c r="AP22">
+        <v>1.17</v>
+      </c>
+      <c r="AQ22">
+        <v>0</v>
+      </c>
+      <c r="AR22">
+        <v>3</v>
+      </c>
+      <c r="AS22">
+        <v>0</v>
+      </c>
+      <c r="AT22">
+        <v>3</v>
+      </c>
+      <c r="AU22">
+        <v>0</v>
+      </c>
+      <c r="AV22">
+        <v>0</v>
+      </c>
+      <c r="AW22">
+        <v>0</v>
+      </c>
+      <c r="AX22">
+        <v>2</v>
+      </c>
+      <c r="AY22">
+        <v>6.6</v>
+      </c>
+      <c r="AZ22">
+        <v>2.24</v>
+      </c>
+      <c r="BA22">
+        <v>1.32</v>
+      </c>
+      <c r="BB22">
+        <v>1.6</v>
+      </c>
+      <c r="BC22">
+        <v>1.97</v>
+      </c>
+      <c r="BD22">
+        <v>2.5</v>
+      </c>
+      <c r="BE22">
+        <v>3.35</v>
+      </c>
+      <c r="BF22">
+        <v>2</v>
+      </c>
+      <c r="BG22">
+        <v>8</v>
+      </c>
+      <c r="BH22">
+        <v>2</v>
+      </c>
+      <c r="BI22">
+        <v>2</v>
+      </c>
+      <c r="BJ22">
+        <v>4</v>
+      </c>
+      <c r="BK22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:63">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>6527489</v>
+      </c>
+      <c r="C23" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23" t="s">
+        <v>64</v>
+      </c>
+      <c r="E23" s="2">
+        <v>45125.58333333334</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23" t="s">
+        <v>86</v>
+      </c>
+      <c r="H23" t="s">
+        <v>81</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>3</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>3</v>
+      </c>
+      <c r="O23" t="s">
+        <v>111</v>
+      </c>
+      <c r="P23" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q23">
+        <v>10</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>10</v>
+      </c>
+      <c r="T23">
+        <v>2.58</v>
+      </c>
+      <c r="U23">
+        <v>1.97</v>
+      </c>
+      <c r="V23">
+        <v>5.28</v>
+      </c>
+      <c r="W23">
+        <v>1.53</v>
+      </c>
+      <c r="X23">
+        <v>2.41</v>
+      </c>
+      <c r="Y23">
+        <v>3.48</v>
+      </c>
+      <c r="Z23">
+        <v>1.28</v>
+      </c>
+      <c r="AA23">
+        <v>9.6</v>
+      </c>
+      <c r="AB23">
+        <v>1.04</v>
+      </c>
+      <c r="AC23">
+        <v>1.9</v>
+      </c>
+      <c r="AD23">
+        <v>3.3</v>
+      </c>
+      <c r="AE23">
+        <v>4.2</v>
+      </c>
+      <c r="AF23">
+        <v>1.06</v>
+      </c>
+      <c r="AG23">
+        <v>6.7</v>
+      </c>
+      <c r="AH23">
+        <v>1.44</v>
+      </c>
+      <c r="AI23">
+        <v>2.53</v>
+      </c>
+      <c r="AJ23">
+        <v>2.3</v>
+      </c>
+      <c r="AK23">
+        <v>1.57</v>
+      </c>
+      <c r="AL23">
+        <v>2.16</v>
+      </c>
+      <c r="AM23">
+        <v>1.66</v>
+      </c>
+      <c r="AN23">
+        <v>1.21</v>
+      </c>
+      <c r="AO23">
+        <v>1.33</v>
+      </c>
+      <c r="AP23">
+        <v>1.89</v>
+      </c>
+      <c r="AQ23">
+        <v>0</v>
+      </c>
+      <c r="AR23">
+        <v>3</v>
+      </c>
+      <c r="AS23">
+        <v>1.5</v>
+      </c>
+      <c r="AT23">
+        <v>1.5</v>
+      </c>
+      <c r="AU23">
+        <v>0</v>
+      </c>
+      <c r="AV23">
+        <v>0</v>
+      </c>
+      <c r="AW23">
+        <v>0</v>
+      </c>
+      <c r="AX23">
+        <v>2.15</v>
+      </c>
+      <c r="AY23">
+        <v>7</v>
+      </c>
+      <c r="AZ23">
+        <v>2.15</v>
+      </c>
+      <c r="BA23">
+        <v>1.28</v>
+      </c>
+      <c r="BB23">
+        <v>1.5</v>
+      </c>
+      <c r="BC23">
+        <v>1.5</v>
+      </c>
+      <c r="BD23">
+        <v>1.87</v>
+      </c>
+      <c r="BE23">
+        <v>2.5</v>
+      </c>
+      <c r="BF23">
+        <v>5</v>
+      </c>
+      <c r="BG23">
+        <v>4</v>
+      </c>
+      <c r="BH23">
+        <v>6</v>
+      </c>
+      <c r="BI23">
+        <v>1</v>
+      </c>
+      <c r="BJ23">
+        <v>11</v>
+      </c>
+      <c r="BK23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:63">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>6527480</v>
+      </c>
+      <c r="C24" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" t="s">
+        <v>64</v>
+      </c>
+      <c r="E24" s="2">
+        <v>45125.625</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24" t="s">
+        <v>87</v>
+      </c>
+      <c r="H24" t="s">
+        <v>80</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>2</v>
+      </c>
+      <c r="N24">
+        <v>2</v>
+      </c>
+      <c r="O24" t="s">
+        <v>98</v>
+      </c>
+      <c r="P24" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q24">
+        <v>1</v>
+      </c>
+      <c r="R24">
+        <v>1</v>
+      </c>
+      <c r="S24">
+        <v>2</v>
+      </c>
+      <c r="T24">
+        <v>5.65</v>
+      </c>
+      <c r="U24">
+        <v>2.38</v>
+      </c>
+      <c r="V24">
+        <v>2.05</v>
+      </c>
+      <c r="W24">
+        <v>1.32</v>
+      </c>
+      <c r="X24">
+        <v>3.22</v>
+      </c>
+      <c r="Y24">
+        <v>2.52</v>
+      </c>
+      <c r="Z24">
+        <v>1.49</v>
+      </c>
+      <c r="AA24">
+        <v>6</v>
+      </c>
+      <c r="AB24">
+        <v>1.11</v>
+      </c>
+      <c r="AC24">
+        <v>5.7</v>
+      </c>
+      <c r="AD24">
+        <v>4.1</v>
+      </c>
+      <c r="AE24">
+        <v>1.55</v>
+      </c>
+      <c r="AF24">
+        <v>1.01</v>
+      </c>
+      <c r="AG24">
+        <v>10</v>
+      </c>
+      <c r="AH24">
+        <v>1.2</v>
+      </c>
+      <c r="AI24">
+        <v>3.95</v>
+      </c>
+      <c r="AJ24">
+        <v>1.73</v>
+      </c>
+      <c r="AK24">
+        <v>2.13</v>
+      </c>
+      <c r="AL24">
+        <v>1.8</v>
+      </c>
+      <c r="AM24">
+        <v>1.96</v>
+      </c>
+      <c r="AN24">
+        <v>2.48</v>
+      </c>
+      <c r="AO24">
+        <v>1.22</v>
+      </c>
+      <c r="AP24">
+        <v>1.13</v>
+      </c>
+      <c r="AQ24">
+        <v>0</v>
+      </c>
+      <c r="AR24">
+        <v>3</v>
+      </c>
+      <c r="AS24">
+        <v>0</v>
+      </c>
+      <c r="AT24">
+        <v>3</v>
+      </c>
+      <c r="AU24">
+        <v>0</v>
+      </c>
+      <c r="AV24">
+        <v>0</v>
+      </c>
+      <c r="AW24">
+        <v>0</v>
+      </c>
+      <c r="AX24">
+        <v>4.04</v>
+      </c>
+      <c r="AY24">
+        <v>11</v>
+      </c>
+      <c r="AZ24">
+        <v>1.34</v>
+      </c>
+      <c r="BA24">
+        <v>1.15</v>
+      </c>
+      <c r="BB24">
+        <v>1.27</v>
+      </c>
+      <c r="BC24">
+        <v>1.5</v>
+      </c>
+      <c r="BD24">
+        <v>1.95</v>
+      </c>
+      <c r="BE24">
+        <v>2.34</v>
+      </c>
+      <c r="BF24">
+        <v>0</v>
+      </c>
+      <c r="BG24">
+        <v>4</v>
+      </c>
+      <c r="BH24">
+        <v>2</v>
+      </c>
+      <c r="BI24">
+        <v>1</v>
+      </c>
+      <c r="BJ24">
+        <v>2</v>
+      </c>
+      <c r="BK24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:63">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>6527492</v>
+      </c>
+      <c r="C25" t="s">
+        <v>63</v>
+      </c>
+      <c r="D25" t="s">
+        <v>64</v>
+      </c>
+      <c r="E25" s="2">
+        <v>45125.625</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25" t="s">
+        <v>88</v>
+      </c>
+      <c r="H25" t="s">
+        <v>76</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>2</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>2</v>
+      </c>
+      <c r="O25" t="s">
+        <v>112</v>
+      </c>
+      <c r="P25" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q25">
+        <v>2</v>
+      </c>
+      <c r="R25">
+        <v>7</v>
+      </c>
+      <c r="S25">
+        <v>9</v>
+      </c>
+      <c r="T25">
+        <v>3.1</v>
+      </c>
+      <c r="U25">
+        <v>2</v>
+      </c>
+      <c r="V25">
+        <v>3.5</v>
+      </c>
+      <c r="W25">
+        <v>1.47</v>
+      </c>
+      <c r="X25">
+        <v>2.5</v>
+      </c>
+      <c r="Y25">
+        <v>3.25</v>
+      </c>
+      <c r="Z25">
+        <v>1.3</v>
+      </c>
+      <c r="AA25">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="AB25">
+        <v>1.04</v>
+      </c>
+      <c r="AC25">
+        <v>2.4</v>
+      </c>
+      <c r="AD25">
+        <v>2.95</v>
+      </c>
+      <c r="AE25">
+        <v>3</v>
+      </c>
+      <c r="AF25">
+        <v>1.1</v>
+      </c>
+      <c r="AG25">
+        <v>6.5</v>
+      </c>
+      <c r="AH25">
+        <v>1.4</v>
+      </c>
+      <c r="AI25">
+        <v>2.8</v>
+      </c>
+      <c r="AJ25">
+        <v>2.33</v>
+      </c>
+      <c r="AK25">
+        <v>1.55</v>
+      </c>
+      <c r="AL25">
+        <v>1.9</v>
+      </c>
+      <c r="AM25">
+        <v>1.83</v>
+      </c>
+      <c r="AN25">
+        <v>1.36</v>
+      </c>
+      <c r="AO25">
+        <v>1.25</v>
+      </c>
+      <c r="AP25">
+        <v>1.53</v>
+      </c>
+      <c r="AQ25">
+        <v>1</v>
+      </c>
+      <c r="AR25">
+        <v>1</v>
+      </c>
+      <c r="AS25">
+        <v>2</v>
+      </c>
+      <c r="AT25">
+        <v>0.5</v>
+      </c>
+      <c r="AU25">
+        <v>0</v>
+      </c>
+      <c r="AV25">
+        <v>0</v>
+      </c>
+      <c r="AW25">
+        <v>0</v>
+      </c>
+      <c r="AX25">
+        <v>1.84</v>
+      </c>
+      <c r="AY25">
+        <v>8.9</v>
+      </c>
+      <c r="AZ25">
+        <v>2.33</v>
+      </c>
+      <c r="BA25">
+        <v>1.27</v>
+      </c>
+      <c r="BB25">
+        <v>1.52</v>
+      </c>
+      <c r="BC25">
+        <v>2</v>
+      </c>
+      <c r="BD25">
+        <v>2.46</v>
+      </c>
+      <c r="BE25">
+        <v>3.34</v>
+      </c>
+      <c r="BF25">
+        <v>0</v>
+      </c>
+      <c r="BG25">
+        <v>5</v>
+      </c>
+      <c r="BH25">
+        <v>3</v>
+      </c>
+      <c r="BI25">
+        <v>8</v>
+      </c>
+      <c r="BJ25">
+        <v>3</v>
+      </c>
+      <c r="BK25">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Europe UEFA Champions League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Europe UEFA Champions League_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="141">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -238,18 +238,18 @@
     <t>Hamrun Spartans</t>
   </si>
   <si>
+    <t>Ballkani</t>
+  </si>
+  <si>
     <t>KÍ</t>
   </si>
   <si>
-    <t>Ballkani</t>
+    <t>Shamrock Rovers</t>
   </si>
   <si>
     <t>Partizani Tirana</t>
   </si>
   <si>
-    <t>Shamrock Rovers</t>
-  </si>
-  <si>
     <t>Astana</t>
   </si>
   <si>
@@ -271,45 +271,45 @@
     <t>Maccabi Haifa</t>
   </si>
   <si>
+    <t>Sheriff</t>
+  </si>
+  <si>
     <t>Tallinna FC Flora</t>
   </si>
   <si>
-    <t>Sheriff</t>
+    <t>Zrinjski</t>
+  </si>
+  <si>
+    <t>BATE</t>
   </si>
   <si>
     <t>The New Saints</t>
   </si>
   <si>
-    <t>BATE</t>
-  </si>
-  <si>
     <t>Breidablik</t>
   </si>
   <si>
-    <t>Zrinjski</t>
+    <t>Valmiera / BSS</t>
+  </si>
+  <si>
+    <t>Ferencváros</t>
+  </si>
+  <si>
+    <t>Dinamo Tbilisi</t>
   </si>
   <si>
     <t>Qarabağ</t>
   </si>
   <si>
-    <t>Valmiera / BSS</t>
-  </si>
-  <si>
-    <t>Ferencváros</t>
+    <t>Swift Hesperange</t>
   </si>
   <si>
     <t>Ludogorets</t>
   </si>
   <si>
-    <t>Dinamo Tbilisi</t>
-  </si>
-  <si>
     <t>Larne</t>
   </si>
   <si>
-    <t>Swift Hesperange</t>
-  </si>
-  <si>
     <t>[]</t>
   </si>
   <si>
@@ -352,9 +352,30 @@
     <t>['45+1', '99', '105+1']</t>
   </si>
   <si>
+    <t>['27', '94']</t>
+  </si>
+  <si>
     <t>['71', '90+12']</t>
   </si>
   <si>
+    <t>['16', '57']</t>
+  </si>
+  <si>
+    <t>['82']</t>
+  </si>
+  <si>
+    <t>['22']</t>
+  </si>
+  <si>
+    <t>['7', '45+1', '49', '62']</t>
+  </si>
+  <si>
+    <t>['4', '45', '49', '78']</t>
+  </si>
+  <si>
+    <t>['65', '87']</t>
+  </si>
+  <si>
     <t>['13', '21', '60']</t>
   </si>
   <si>
@@ -376,28 +397,46 @@
     <t>['41', '45+3', '58', '80']</t>
   </si>
   <si>
+    <t>['39']</t>
+  </si>
+  <si>
     <t>['58']</t>
   </si>
   <si>
-    <t>['39']</t>
-  </si>
-  <si>
     <t>['57']</t>
   </si>
   <si>
     <t>['32']</t>
   </si>
   <si>
-    <t>['22']</t>
-  </si>
-  <si>
     <t>['78', '83']</t>
   </si>
   <si>
     <t>['47', '59', '85']</t>
   </si>
   <si>
+    <t>['74', '90+1', '105+3']</t>
+  </si>
+  <si>
     <t>['19', '90+1']</t>
+  </si>
+  <si>
+    <t>['65']</t>
+  </si>
+  <si>
+    <t>['33', '64']</t>
+  </si>
+  <si>
+    <t>['8', '32', '45+1']</t>
+  </si>
+  <si>
+    <t>['50', '51']</t>
+  </si>
+  <si>
+    <t>['55', '62']</t>
+  </si>
+  <si>
+    <t>['26', '96']</t>
   </si>
 </sst>
 </file>
@@ -759,7 +798,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK25"/>
+  <dimension ref="A1:BK34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1003,7 +1042,7 @@
         <v>98</v>
       </c>
       <c r="P2" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="Q2">
         <v>2</v>
@@ -1170,7 +1209,7 @@
         <v>66</v>
       </c>
       <c r="H3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -1194,7 +1233,7 @@
         <v>99</v>
       </c>
       <c r="P3" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -1361,7 +1400,7 @@
         <v>67</v>
       </c>
       <c r="H4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -1385,7 +1424,7 @@
         <v>98</v>
       </c>
       <c r="P4" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="Q4">
         <v>-1</v>
@@ -1552,7 +1591,7 @@
         <v>68</v>
       </c>
       <c r="H5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -1576,7 +1615,7 @@
         <v>98</v>
       </c>
       <c r="P5" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="Q5">
         <v>2</v>
@@ -1663,10 +1702,10 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AT5">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -1743,7 +1782,7 @@
         <v>69</v>
       </c>
       <c r="H6" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -1767,7 +1806,7 @@
         <v>100</v>
       </c>
       <c r="P6" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="Q6">
         <v>1</v>
@@ -2125,7 +2164,7 @@
         <v>71</v>
       </c>
       <c r="H8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -2149,7 +2188,7 @@
         <v>101</v>
       </c>
       <c r="P8" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="Q8">
         <v>5</v>
@@ -2316,7 +2355,7 @@
         <v>72</v>
       </c>
       <c r="H9" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -2531,7 +2570,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="Q10">
         <v>4</v>
@@ -2680,7 +2719,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>6527469</v>
+        <v>6527467</v>
       </c>
       <c r="C11" t="s">
         <v>63</v>
@@ -2698,172 +2737,172 @@
         <v>74</v>
       </c>
       <c r="H11" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O11" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="P11" t="s">
         <v>98</v>
       </c>
       <c r="Q11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S11">
+        <v>10</v>
+      </c>
+      <c r="T11">
+        <v>4.5</v>
+      </c>
+      <c r="U11">
+        <v>2</v>
+      </c>
+      <c r="V11">
+        <v>2.55</v>
+      </c>
+      <c r="W11">
+        <v>1.48</v>
+      </c>
+      <c r="X11">
+        <v>2.5</v>
+      </c>
+      <c r="Y11">
+        <v>3.2</v>
+      </c>
+      <c r="Z11">
+        <v>1.31</v>
+      </c>
+      <c r="AA11">
         <v>8</v>
       </c>
-      <c r="T11">
+      <c r="AB11">
+        <v>1.05</v>
+      </c>
+      <c r="AC11">
+        <v>3.75</v>
+      </c>
+      <c r="AD11">
+        <v>3.1</v>
+      </c>
+      <c r="AE11">
+        <v>1.91</v>
+      </c>
+      <c r="AF11">
+        <v>1.08</v>
+      </c>
+      <c r="AG11">
+        <v>7</v>
+      </c>
+      <c r="AH11">
+        <v>1.4</v>
+      </c>
+      <c r="AI11">
+        <v>2.8</v>
+      </c>
+      <c r="AJ11">
+        <v>2.1</v>
+      </c>
+      <c r="AK11">
+        <v>1.74</v>
+      </c>
+      <c r="AL11">
+        <v>2</v>
+      </c>
+      <c r="AM11">
+        <v>1.75</v>
+      </c>
+      <c r="AN11">
+        <v>1.87</v>
+      </c>
+      <c r="AO11">
+        <v>1.25</v>
+      </c>
+      <c r="AP11">
+        <v>1.18</v>
+      </c>
+      <c r="AQ11">
+        <v>0</v>
+      </c>
+      <c r="AR11">
+        <v>0</v>
+      </c>
+      <c r="AS11">
+        <v>1.5</v>
+      </c>
+      <c r="AT11">
+        <v>1.5</v>
+      </c>
+      <c r="AU11">
+        <v>0</v>
+      </c>
+      <c r="AV11">
+        <v>0</v>
+      </c>
+      <c r="AW11">
+        <v>0</v>
+      </c>
+      <c r="AX11">
+        <v>3.01</v>
+      </c>
+      <c r="AY11">
+        <v>7.1</v>
+      </c>
+      <c r="AZ11">
+        <v>1.62</v>
+      </c>
+      <c r="BA11">
+        <v>1.25</v>
+      </c>
+      <c r="BB11">
+        <v>1.53</v>
+      </c>
+      <c r="BC11">
+        <v>1.75</v>
+      </c>
+      <c r="BD11">
+        <v>2.2</v>
+      </c>
+      <c r="BE11">
+        <v>2.9</v>
+      </c>
+      <c r="BF11">
         <v>6</v>
       </c>
-      <c r="U11">
-        <v>2.4</v>
-      </c>
-      <c r="V11">
-        <v>1.9</v>
-      </c>
-      <c r="W11">
-        <v>1.33</v>
-      </c>
-      <c r="X11">
-        <v>3.05</v>
-      </c>
-      <c r="Y11">
-        <v>2.5</v>
-      </c>
-      <c r="Z11">
-        <v>1.47</v>
-      </c>
-      <c r="AA11">
-        <v>5.95</v>
-      </c>
-      <c r="AB11">
-        <v>1.1</v>
-      </c>
-      <c r="AC11">
-        <v>5.5</v>
-      </c>
-      <c r="AD11">
-        <v>4.2</v>
-      </c>
-      <c r="AE11">
-        <v>1.44</v>
-      </c>
-      <c r="AF11">
-        <v>1.04</v>
-      </c>
-      <c r="AG11">
-        <v>10</v>
-      </c>
-      <c r="AH11">
-        <v>1.22</v>
-      </c>
-      <c r="AI11">
-        <v>4</v>
-      </c>
-      <c r="AJ11">
-        <v>1.71</v>
-      </c>
-      <c r="AK11">
-        <v>2.05</v>
-      </c>
-      <c r="AL11">
-        <v>1.9</v>
-      </c>
-      <c r="AM11">
-        <v>1.83</v>
-      </c>
-      <c r="AN11">
-        <v>2.8</v>
-      </c>
-      <c r="AO11">
-        <v>1.15</v>
-      </c>
-      <c r="AP11">
-        <v>1.06</v>
-      </c>
-      <c r="AQ11">
-        <v>0</v>
-      </c>
-      <c r="AR11">
-        <v>0</v>
-      </c>
-      <c r="AS11">
-        <v>1</v>
-      </c>
-      <c r="AT11">
-        <v>1</v>
-      </c>
-      <c r="AU11">
-        <v>0</v>
-      </c>
-      <c r="AV11">
-        <v>0</v>
-      </c>
-      <c r="AW11">
-        <v>0</v>
-      </c>
-      <c r="AX11">
-        <v>5.27</v>
-      </c>
-      <c r="AY11">
-        <v>8.4</v>
-      </c>
-      <c r="AZ11">
-        <v>1.28</v>
-      </c>
-      <c r="BA11">
-        <v>1.29</v>
-      </c>
-      <c r="BB11">
-        <v>1.54</v>
-      </c>
-      <c r="BC11">
-        <v>1.9</v>
-      </c>
-      <c r="BD11">
-        <v>2.37</v>
-      </c>
-      <c r="BE11">
-        <v>3.2</v>
-      </c>
-      <c r="BF11">
-        <v>4</v>
-      </c>
       <c r="BG11">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BH11">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BI11">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BJ11">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="BK11">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:63">
@@ -2871,7 +2910,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>6527467</v>
+        <v>6527469</v>
       </c>
       <c r="C12" t="s">
         <v>63</v>
@@ -2889,172 +2928,172 @@
         <v>75</v>
       </c>
       <c r="H12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O12" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="P12" t="s">
         <v>98</v>
       </c>
       <c r="Q12">
+        <v>5</v>
+      </c>
+      <c r="R12">
+        <v>3</v>
+      </c>
+      <c r="S12">
+        <v>8</v>
+      </c>
+      <c r="T12">
         <v>6</v>
       </c>
-      <c r="R12">
+      <c r="U12">
+        <v>2.4</v>
+      </c>
+      <c r="V12">
+        <v>1.9</v>
+      </c>
+      <c r="W12">
+        <v>1.33</v>
+      </c>
+      <c r="X12">
+        <v>3.05</v>
+      </c>
+      <c r="Y12">
+        <v>2.5</v>
+      </c>
+      <c r="Z12">
+        <v>1.47</v>
+      </c>
+      <c r="AA12">
+        <v>5.95</v>
+      </c>
+      <c r="AB12">
+        <v>1.1</v>
+      </c>
+      <c r="AC12">
+        <v>5.5</v>
+      </c>
+      <c r="AD12">
+        <v>4.2</v>
+      </c>
+      <c r="AE12">
+        <v>1.44</v>
+      </c>
+      <c r="AF12">
+        <v>1.04</v>
+      </c>
+      <c r="AG12">
+        <v>10</v>
+      </c>
+      <c r="AH12">
+        <v>1.22</v>
+      </c>
+      <c r="AI12">
         <v>4</v>
       </c>
-      <c r="S12">
+      <c r="AJ12">
+        <v>1.71</v>
+      </c>
+      <c r="AK12">
+        <v>2.05</v>
+      </c>
+      <c r="AL12">
+        <v>1.9</v>
+      </c>
+      <c r="AM12">
+        <v>1.83</v>
+      </c>
+      <c r="AN12">
+        <v>2.8</v>
+      </c>
+      <c r="AO12">
+        <v>1.15</v>
+      </c>
+      <c r="AP12">
+        <v>1.06</v>
+      </c>
+      <c r="AQ12">
+        <v>0</v>
+      </c>
+      <c r="AR12">
+        <v>0</v>
+      </c>
+      <c r="AS12">
+        <v>2</v>
+      </c>
+      <c r="AT12">
+        <v>0.5</v>
+      </c>
+      <c r="AU12">
+        <v>0</v>
+      </c>
+      <c r="AV12">
+        <v>0</v>
+      </c>
+      <c r="AW12">
+        <v>0</v>
+      </c>
+      <c r="AX12">
+        <v>5.27</v>
+      </c>
+      <c r="AY12">
+        <v>8.4</v>
+      </c>
+      <c r="AZ12">
+        <v>1.28</v>
+      </c>
+      <c r="BA12">
+        <v>1.29</v>
+      </c>
+      <c r="BB12">
+        <v>1.54</v>
+      </c>
+      <c r="BC12">
+        <v>1.9</v>
+      </c>
+      <c r="BD12">
+        <v>2.37</v>
+      </c>
+      <c r="BE12">
+        <v>3.2</v>
+      </c>
+      <c r="BF12">
+        <v>4</v>
+      </c>
+      <c r="BG12">
+        <v>4</v>
+      </c>
+      <c r="BH12">
+        <v>5</v>
+      </c>
+      <c r="BI12">
+        <v>6</v>
+      </c>
+      <c r="BJ12">
+        <v>9</v>
+      </c>
+      <c r="BK12">
         <v>10</v>
-      </c>
-      <c r="T12">
-        <v>4.5</v>
-      </c>
-      <c r="U12">
-        <v>2</v>
-      </c>
-      <c r="V12">
-        <v>2.55</v>
-      </c>
-      <c r="W12">
-        <v>1.48</v>
-      </c>
-      <c r="X12">
-        <v>2.5</v>
-      </c>
-      <c r="Y12">
-        <v>3.2</v>
-      </c>
-      <c r="Z12">
-        <v>1.31</v>
-      </c>
-      <c r="AA12">
-        <v>8</v>
-      </c>
-      <c r="AB12">
-        <v>1.05</v>
-      </c>
-      <c r="AC12">
-        <v>3.75</v>
-      </c>
-      <c r="AD12">
-        <v>3.1</v>
-      </c>
-      <c r="AE12">
-        <v>1.91</v>
-      </c>
-      <c r="AF12">
-        <v>1.08</v>
-      </c>
-      <c r="AG12">
-        <v>7</v>
-      </c>
-      <c r="AH12">
-        <v>1.4</v>
-      </c>
-      <c r="AI12">
-        <v>2.8</v>
-      </c>
-      <c r="AJ12">
-        <v>2.1</v>
-      </c>
-      <c r="AK12">
-        <v>1.74</v>
-      </c>
-      <c r="AL12">
-        <v>2</v>
-      </c>
-      <c r="AM12">
-        <v>1.75</v>
-      </c>
-      <c r="AN12">
-        <v>1.87</v>
-      </c>
-      <c r="AO12">
-        <v>1.25</v>
-      </c>
-      <c r="AP12">
-        <v>1.18</v>
-      </c>
-      <c r="AQ12">
-        <v>0</v>
-      </c>
-      <c r="AR12">
-        <v>0</v>
-      </c>
-      <c r="AS12">
-        <v>3</v>
-      </c>
-      <c r="AT12">
-        <v>0</v>
-      </c>
-      <c r="AU12">
-        <v>0</v>
-      </c>
-      <c r="AV12">
-        <v>0</v>
-      </c>
-      <c r="AW12">
-        <v>0</v>
-      </c>
-      <c r="AX12">
-        <v>3.01</v>
-      </c>
-      <c r="AY12">
-        <v>7.1</v>
-      </c>
-      <c r="AZ12">
-        <v>1.62</v>
-      </c>
-      <c r="BA12">
-        <v>1.25</v>
-      </c>
-      <c r="BB12">
-        <v>1.53</v>
-      </c>
-      <c r="BC12">
-        <v>1.75</v>
-      </c>
-      <c r="BD12">
-        <v>2.2</v>
-      </c>
-      <c r="BE12">
-        <v>2.9</v>
-      </c>
-      <c r="BF12">
-        <v>6</v>
-      </c>
-      <c r="BG12">
-        <v>6</v>
-      </c>
-      <c r="BH12">
-        <v>8</v>
-      </c>
-      <c r="BI12">
-        <v>9</v>
-      </c>
-      <c r="BJ12">
-        <v>14</v>
-      </c>
-      <c r="BK12">
-        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:63">
@@ -3062,7 +3101,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>6527478</v>
+        <v>6671490</v>
       </c>
       <c r="C13" t="s">
         <v>63</v>
@@ -3080,172 +3119,172 @@
         <v>76</v>
       </c>
       <c r="H13" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>1</v>
       </c>
       <c r="N13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O13" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="P13" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="Q13">
+        <v>3</v>
+      </c>
+      <c r="R13">
+        <v>10</v>
+      </c>
+      <c r="S13">
+        <v>13</v>
+      </c>
+      <c r="T13">
+        <v>2.2</v>
+      </c>
+      <c r="U13">
+        <v>2.2</v>
+      </c>
+      <c r="V13">
+        <v>5</v>
+      </c>
+      <c r="W13">
+        <v>1.36</v>
+      </c>
+      <c r="X13">
+        <v>3</v>
+      </c>
+      <c r="Y13">
+        <v>2.75</v>
+      </c>
+      <c r="Z13">
+        <v>1.4</v>
+      </c>
+      <c r="AA13">
+        <v>6.5</v>
+      </c>
+      <c r="AB13">
+        <v>1.1</v>
+      </c>
+      <c r="AC13">
+        <v>1.3</v>
+      </c>
+      <c r="AD13">
+        <v>4.75</v>
+      </c>
+      <c r="AE13">
+        <v>8</v>
+      </c>
+      <c r="AF13">
+        <v>1.05</v>
+      </c>
+      <c r="AG13">
+        <v>9</v>
+      </c>
+      <c r="AH13">
+        <v>1.29</v>
+      </c>
+      <c r="AI13">
+        <v>3.4</v>
+      </c>
+      <c r="AJ13">
+        <v>1.85</v>
+      </c>
+      <c r="AK13">
+        <v>1.88</v>
+      </c>
+      <c r="AL13">
+        <v>1.83</v>
+      </c>
+      <c r="AM13">
+        <v>1.83</v>
+      </c>
+      <c r="AN13">
+        <v>1.15</v>
+      </c>
+      <c r="AO13">
+        <v>1.2</v>
+      </c>
+      <c r="AP13">
+        <v>2</v>
+      </c>
+      <c r="AQ13">
+        <v>0</v>
+      </c>
+      <c r="AR13">
+        <v>3</v>
+      </c>
+      <c r="AS13">
+        <v>0</v>
+      </c>
+      <c r="AT13">
+        <v>3</v>
+      </c>
+      <c r="AU13">
+        <v>0</v>
+      </c>
+      <c r="AV13">
+        <v>2.96</v>
+      </c>
+      <c r="AW13">
+        <v>2.96</v>
+      </c>
+      <c r="AX13">
+        <v>1.44</v>
+      </c>
+      <c r="AY13">
+        <v>10</v>
+      </c>
+      <c r="AZ13">
+        <v>3.34</v>
+      </c>
+      <c r="BA13">
+        <v>1.22</v>
+      </c>
+      <c r="BB13">
+        <v>1.34</v>
+      </c>
+      <c r="BC13">
+        <v>1.62</v>
+      </c>
+      <c r="BD13">
+        <v>2.05</v>
+      </c>
+      <c r="BE13">
+        <v>2.65</v>
+      </c>
+      <c r="BF13">
         <v>6</v>
-      </c>
-      <c r="R13">
-        <v>2</v>
-      </c>
-      <c r="S13">
-        <v>8</v>
-      </c>
-      <c r="T13">
-        <v>3.5</v>
-      </c>
-      <c r="U13">
-        <v>2.05</v>
-      </c>
-      <c r="V13">
-        <v>2.95</v>
-      </c>
-      <c r="W13">
-        <v>1.41</v>
-      </c>
-      <c r="X13">
-        <v>2.7</v>
-      </c>
-      <c r="Y13">
-        <v>2.85</v>
-      </c>
-      <c r="Z13">
-        <v>1.37</v>
-      </c>
-      <c r="AA13">
-        <v>6.95</v>
-      </c>
-      <c r="AB13">
-        <v>1.07</v>
-      </c>
-      <c r="AC13">
-        <v>5</v>
-      </c>
-      <c r="AD13">
-        <v>3.9</v>
-      </c>
-      <c r="AE13">
-        <v>1.53</v>
-      </c>
-      <c r="AF13">
-        <v>1.03</v>
-      </c>
-      <c r="AG13">
-        <v>8.4</v>
-      </c>
-      <c r="AH13">
-        <v>1.3</v>
-      </c>
-      <c r="AI13">
-        <v>3.3</v>
-      </c>
-      <c r="AJ13">
-        <v>1.81</v>
-      </c>
-      <c r="AK13">
-        <v>2</v>
-      </c>
-      <c r="AL13">
-        <v>1.75</v>
-      </c>
-      <c r="AM13">
-        <v>2</v>
-      </c>
-      <c r="AN13">
-        <v>1.57</v>
-      </c>
-      <c r="AO13">
-        <v>1.28</v>
-      </c>
-      <c r="AP13">
-        <v>1.38</v>
-      </c>
-      <c r="AQ13">
-        <v>0</v>
-      </c>
-      <c r="AR13">
-        <v>0</v>
-      </c>
-      <c r="AS13">
-        <v>0.5</v>
-      </c>
-      <c r="AT13">
-        <v>2</v>
-      </c>
-      <c r="AU13">
-        <v>0</v>
-      </c>
-      <c r="AV13">
-        <v>0</v>
-      </c>
-      <c r="AW13">
-        <v>0</v>
-      </c>
-      <c r="AX13">
-        <v>1.93</v>
-      </c>
-      <c r="AY13">
-        <v>6.9</v>
-      </c>
-      <c r="AZ13">
-        <v>2.3</v>
-      </c>
-      <c r="BA13">
-        <v>1.31</v>
-      </c>
-      <c r="BB13">
-        <v>1.56</v>
-      </c>
-      <c r="BC13">
-        <v>1.93</v>
-      </c>
-      <c r="BD13">
-        <v>2.41</v>
-      </c>
-      <c r="BE13">
-        <v>3.4</v>
-      </c>
-      <c r="BF13">
-        <v>5</v>
       </c>
       <c r="BG13">
         <v>5</v>
       </c>
       <c r="BH13">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="BI13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BJ13">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="BK13">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:63">
@@ -3253,7 +3292,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>6671490</v>
+        <v>6527478</v>
       </c>
       <c r="C14" t="s">
         <v>63</v>
@@ -3271,172 +3310,172 @@
         <v>77</v>
       </c>
       <c r="H14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14">
         <v>1</v>
       </c>
       <c r="N14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O14" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="P14" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="Q14">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="R14">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="S14">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="T14">
-        <v>2.2</v>
+        <v>3.5</v>
       </c>
       <c r="U14">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="V14">
+        <v>2.95</v>
+      </c>
+      <c r="W14">
+        <v>1.41</v>
+      </c>
+      <c r="X14">
+        <v>2.7</v>
+      </c>
+      <c r="Y14">
+        <v>2.85</v>
+      </c>
+      <c r="Z14">
+        <v>1.37</v>
+      </c>
+      <c r="AA14">
+        <v>6.95</v>
+      </c>
+      <c r="AB14">
+        <v>1.07</v>
+      </c>
+      <c r="AC14">
         <v>5</v>
       </c>
-      <c r="W14">
-        <v>1.36</v>
-      </c>
-      <c r="X14">
-        <v>3</v>
-      </c>
-      <c r="Y14">
-        <v>2.75</v>
-      </c>
-      <c r="Z14">
-        <v>1.4</v>
-      </c>
-      <c r="AA14">
-        <v>6.5</v>
-      </c>
-      <c r="AB14">
-        <v>1.1</v>
-      </c>
-      <c r="AC14">
+      <c r="AD14">
+        <v>3.9</v>
+      </c>
+      <c r="AE14">
+        <v>1.53</v>
+      </c>
+      <c r="AF14">
+        <v>1.03</v>
+      </c>
+      <c r="AG14">
+        <v>8.4</v>
+      </c>
+      <c r="AH14">
         <v>1.3</v>
       </c>
-      <c r="AD14">
-        <v>4.75</v>
-      </c>
-      <c r="AE14">
-        <v>8</v>
-      </c>
-      <c r="AF14">
-        <v>1.05</v>
-      </c>
-      <c r="AG14">
-        <v>9</v>
-      </c>
-      <c r="AH14">
-        <v>1.29</v>
-      </c>
       <c r="AI14">
+        <v>3.3</v>
+      </c>
+      <c r="AJ14">
+        <v>1.81</v>
+      </c>
+      <c r="AK14">
+        <v>2</v>
+      </c>
+      <c r="AL14">
+        <v>1.75</v>
+      </c>
+      <c r="AM14">
+        <v>2</v>
+      </c>
+      <c r="AN14">
+        <v>1.57</v>
+      </c>
+      <c r="AO14">
+        <v>1.28</v>
+      </c>
+      <c r="AP14">
+        <v>1.38</v>
+      </c>
+      <c r="AQ14">
+        <v>0</v>
+      </c>
+      <c r="AR14">
+        <v>0</v>
+      </c>
+      <c r="AS14">
+        <v>0.5</v>
+      </c>
+      <c r="AT14">
+        <v>2</v>
+      </c>
+      <c r="AU14">
+        <v>0</v>
+      </c>
+      <c r="AV14">
+        <v>0</v>
+      </c>
+      <c r="AW14">
+        <v>0</v>
+      </c>
+      <c r="AX14">
+        <v>1.93</v>
+      </c>
+      <c r="AY14">
+        <v>6.9</v>
+      </c>
+      <c r="AZ14">
+        <v>2.3</v>
+      </c>
+      <c r="BA14">
+        <v>1.31</v>
+      </c>
+      <c r="BB14">
+        <v>1.56</v>
+      </c>
+      <c r="BC14">
+        <v>1.93</v>
+      </c>
+      <c r="BD14">
+        <v>2.41</v>
+      </c>
+      <c r="BE14">
         <v>3.4</v>
       </c>
-      <c r="AJ14">
-        <v>1.85</v>
-      </c>
-      <c r="AK14">
-        <v>1.88</v>
-      </c>
-      <c r="AL14">
-        <v>1.83</v>
-      </c>
-      <c r="AM14">
-        <v>1.83</v>
-      </c>
-      <c r="AN14">
-        <v>1.15</v>
-      </c>
-      <c r="AO14">
-        <v>1.2</v>
-      </c>
-      <c r="AP14">
-        <v>2</v>
-      </c>
-      <c r="AQ14">
-        <v>0</v>
-      </c>
-      <c r="AR14">
-        <v>3</v>
-      </c>
-      <c r="AS14">
-        <v>0</v>
-      </c>
-      <c r="AT14">
-        <v>3</v>
-      </c>
-      <c r="AU14">
-        <v>0</v>
-      </c>
-      <c r="AV14">
-        <v>2.96</v>
-      </c>
-      <c r="AW14">
-        <v>2.96</v>
-      </c>
-      <c r="AX14">
-        <v>1.44</v>
-      </c>
-      <c r="AY14">
-        <v>10</v>
-      </c>
-      <c r="AZ14">
-        <v>3.34</v>
-      </c>
-      <c r="BA14">
-        <v>1.22</v>
-      </c>
-      <c r="BB14">
-        <v>1.34</v>
-      </c>
-      <c r="BC14">
-        <v>1.62</v>
-      </c>
-      <c r="BD14">
-        <v>2.05</v>
-      </c>
-      <c r="BE14">
-        <v>2.65</v>
-      </c>
       <c r="BF14">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BG14">
         <v>5</v>
       </c>
       <c r="BH14">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="BI14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BJ14">
+        <v>20</v>
+      </c>
+      <c r="BK14">
         <v>10</v>
-      </c>
-      <c r="BK14">
-        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:63">
@@ -3462,7 +3501,7 @@
         <v>78</v>
       </c>
       <c r="H15" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -3486,7 +3525,7 @@
         <v>105</v>
       </c>
       <c r="P15" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="Q15">
         <v>6</v>
@@ -3573,10 +3612,10 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT15">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -3653,7 +3692,7 @@
         <v>79</v>
       </c>
       <c r="H16" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -3764,10 +3803,10 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT16">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -3844,7 +3883,7 @@
         <v>80</v>
       </c>
       <c r="H17" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I17">
         <v>3</v>
@@ -3868,7 +3907,7 @@
         <v>107</v>
       </c>
       <c r="P17" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="Q17">
         <v>10</v>
@@ -4035,7 +4074,7 @@
         <v>81</v>
       </c>
       <c r="H18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -4226,7 +4265,7 @@
         <v>82</v>
       </c>
       <c r="H19" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I19">
         <v>1</v>
@@ -4250,7 +4289,7 @@
         <v>100</v>
       </c>
       <c r="P19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="Q19">
         <v>5</v>
@@ -4337,10 +4376,10 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT19">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AU19">
         <v>0</v>
@@ -4441,16 +4480,16 @@
         <v>109</v>
       </c>
       <c r="P20" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="Q20">
         <v>1</v>
       </c>
       <c r="R20">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S20">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T20">
         <v>4.25</v>
@@ -4567,22 +4606,22 @@
         <v>2.37</v>
       </c>
       <c r="BF20">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BG20">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BH20">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="BI20">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="BJ20">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="BK20">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:63">
@@ -4635,13 +4674,13 @@
         <v>99</v>
       </c>
       <c r="Q21">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S21">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="T21">
         <v>1.45</v>
@@ -4758,22 +4797,22 @@
         <v>3.05</v>
       </c>
       <c r="BF21">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BG21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BH21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BI21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BJ21">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="BK21">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:63">
@@ -4781,7 +4820,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>6527487</v>
+        <v>6527489</v>
       </c>
       <c r="C22" t="s">
         <v>63</v>
@@ -4799,109 +4838,109 @@
         <v>85</v>
       </c>
       <c r="H22" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M22">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N22">
         <v>3</v>
       </c>
       <c r="O22" t="s">
+        <v>111</v>
+      </c>
+      <c r="P22" t="s">
         <v>98</v>
       </c>
-      <c r="P22" t="s">
-        <v>126</v>
-      </c>
       <c r="Q22">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R22">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="S22">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="T22">
-        <v>4.75</v>
+        <v>2.58</v>
       </c>
       <c r="U22">
-        <v>2.25</v>
+        <v>1.97</v>
       </c>
       <c r="V22">
-        <v>2.15</v>
+        <v>5.28</v>
       </c>
       <c r="W22">
-        <v>1.4</v>
+        <v>1.53</v>
       </c>
       <c r="X22">
-        <v>2.75</v>
+        <v>2.41</v>
       </c>
       <c r="Y22">
-        <v>2.75</v>
+        <v>3.48</v>
       </c>
       <c r="Z22">
-        <v>1.4</v>
+        <v>1.28</v>
       </c>
       <c r="AA22">
-        <v>6.5</v>
+        <v>9.6</v>
       </c>
       <c r="AB22">
-        <v>1.1</v>
+        <v>1.04</v>
       </c>
       <c r="AC22">
-        <v>5</v>
+        <v>1.9</v>
       </c>
       <c r="AD22">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="AE22">
-        <v>1.62</v>
+        <v>4.2</v>
       </c>
       <c r="AF22">
         <v>1.06</v>
       </c>
       <c r="AG22">
-        <v>8</v>
+        <v>6.7</v>
       </c>
       <c r="AH22">
-        <v>1.3</v>
+        <v>1.44</v>
       </c>
       <c r="AI22">
-        <v>3.4</v>
+        <v>2.53</v>
       </c>
       <c r="AJ22">
-        <v>1.85</v>
+        <v>2.3</v>
       </c>
       <c r="AK22">
-        <v>1.85</v>
+        <v>1.57</v>
       </c>
       <c r="AL22">
-        <v>1.85</v>
+        <v>2.16</v>
       </c>
       <c r="AM22">
-        <v>1.85</v>
+        <v>1.66</v>
       </c>
       <c r="AN22">
-        <v>2.1</v>
+        <v>1.21</v>
       </c>
       <c r="AO22">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="AP22">
-        <v>1.17</v>
+        <v>1.89</v>
       </c>
       <c r="AQ22">
         <v>0</v>
@@ -4910,10 +4949,10 @@
         <v>3</v>
       </c>
       <c r="AS22">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AT22">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AU22">
         <v>0</v>
@@ -4925,46 +4964,46 @@
         <v>0</v>
       </c>
       <c r="AX22">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="AY22">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="AZ22">
-        <v>2.24</v>
+        <v>2.15</v>
       </c>
       <c r="BA22">
-        <v>1.32</v>
+        <v>1.28</v>
       </c>
       <c r="BB22">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="BC22">
-        <v>1.97</v>
+        <v>1.5</v>
       </c>
       <c r="BD22">
+        <v>1.87</v>
+      </c>
+      <c r="BE22">
         <v>2.5</v>
       </c>
-      <c r="BE22">
-        <v>3.35</v>
-      </c>
       <c r="BF22">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BG22">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="BH22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BI22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BJ22">
         <v>4</v>
       </c>
       <c r="BK22">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:63">
@@ -4972,7 +5011,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>6527489</v>
+        <v>6527487</v>
       </c>
       <c r="C23" t="s">
         <v>63</v>
@@ -4990,109 +5029,109 @@
         <v>86</v>
       </c>
       <c r="H23" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="I23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N23">
         <v>3</v>
       </c>
       <c r="O23" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="P23" t="s">
-        <v>98</v>
+        <v>132</v>
       </c>
       <c r="Q23">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="R23">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="S23">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="T23">
-        <v>2.58</v>
+        <v>4.75</v>
       </c>
       <c r="U23">
-        <v>1.97</v>
+        <v>2.25</v>
       </c>
       <c r="V23">
-        <v>5.28</v>
+        <v>2.15</v>
       </c>
       <c r="W23">
-        <v>1.53</v>
+        <v>1.4</v>
       </c>
       <c r="X23">
-        <v>2.41</v>
+        <v>2.75</v>
       </c>
       <c r="Y23">
-        <v>3.48</v>
+        <v>2.75</v>
       </c>
       <c r="Z23">
-        <v>1.28</v>
+        <v>1.4</v>
       </c>
       <c r="AA23">
-        <v>9.6</v>
+        <v>6.5</v>
       </c>
       <c r="AB23">
-        <v>1.04</v>
+        <v>1.1</v>
       </c>
       <c r="AC23">
-        <v>1.9</v>
+        <v>5</v>
       </c>
       <c r="AD23">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="AE23">
-        <v>4.2</v>
+        <v>1.62</v>
       </c>
       <c r="AF23">
         <v>1.06</v>
       </c>
       <c r="AG23">
-        <v>6.7</v>
+        <v>8</v>
       </c>
       <c r="AH23">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AI23">
-        <v>2.53</v>
+        <v>3.4</v>
       </c>
       <c r="AJ23">
-        <v>2.3</v>
+        <v>1.85</v>
       </c>
       <c r="AK23">
-        <v>1.57</v>
+        <v>1.85</v>
       </c>
       <c r="AL23">
-        <v>2.16</v>
+        <v>1.85</v>
       </c>
       <c r="AM23">
-        <v>1.66</v>
+        <v>1.85</v>
       </c>
       <c r="AN23">
-        <v>1.21</v>
+        <v>2.1</v>
       </c>
       <c r="AO23">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AP23">
-        <v>1.89</v>
+        <v>1.17</v>
       </c>
       <c r="AQ23">
         <v>0</v>
@@ -5101,10 +5140,10 @@
         <v>3</v>
       </c>
       <c r="AS23">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AT23">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="AU23">
         <v>0</v>
@@ -5116,46 +5155,46 @@
         <v>0</v>
       </c>
       <c r="AX23">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="AY23">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="AZ23">
-        <v>2.15</v>
+        <v>2.24</v>
       </c>
       <c r="BA23">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
       <c r="BB23">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="BC23">
-        <v>1.5</v>
+        <v>1.97</v>
       </c>
       <c r="BD23">
-        <v>1.87</v>
+        <v>2.5</v>
       </c>
       <c r="BE23">
-        <v>2.5</v>
+        <v>3.35</v>
       </c>
       <c r="BF23">
         <v>5</v>
       </c>
       <c r="BG23">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="BH23">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BI23">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="BJ23">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BK23">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:63">
@@ -5163,7 +5202,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>6527480</v>
+        <v>6527491</v>
       </c>
       <c r="C24" t="s">
         <v>63</v>
@@ -5181,121 +5220,121 @@
         <v>87</v>
       </c>
       <c r="H24" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K24">
         <v>1</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N24">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O24" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="P24" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="Q24">
         <v>1</v>
       </c>
       <c r="R24">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="S24">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="T24">
-        <v>5.65</v>
+        <v>2.1</v>
       </c>
       <c r="U24">
-        <v>2.38</v>
+        <v>2.16</v>
       </c>
       <c r="V24">
-        <v>2.05</v>
+        <v>6.5</v>
       </c>
       <c r="W24">
-        <v>1.32</v>
+        <v>1.44</v>
       </c>
       <c r="X24">
-        <v>3.22</v>
+        <v>2.68</v>
       </c>
       <c r="Y24">
-        <v>2.52</v>
+        <v>3.05</v>
       </c>
       <c r="Z24">
-        <v>1.49</v>
+        <v>1.35</v>
       </c>
       <c r="AA24">
-        <v>6</v>
+        <v>8.1</v>
       </c>
       <c r="AB24">
-        <v>1.11</v>
+        <v>1.06</v>
       </c>
       <c r="AC24">
-        <v>5.7</v>
+        <v>1.48</v>
       </c>
       <c r="AD24">
-        <v>4.1</v>
+        <v>3.85</v>
       </c>
       <c r="AE24">
-        <v>1.55</v>
+        <v>6.5</v>
       </c>
       <c r="AF24">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="AG24">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AH24">
-        <v>1.2</v>
+        <v>1.34</v>
       </c>
       <c r="AI24">
-        <v>3.95</v>
+        <v>2.93</v>
       </c>
       <c r="AJ24">
-        <v>1.73</v>
+        <v>2.15</v>
       </c>
       <c r="AK24">
-        <v>2.13</v>
+        <v>1.65</v>
       </c>
       <c r="AL24">
-        <v>1.8</v>
+        <v>2.21</v>
       </c>
       <c r="AM24">
-        <v>1.96</v>
+        <v>1.62</v>
       </c>
       <c r="AN24">
-        <v>2.48</v>
+        <v>1.1</v>
       </c>
       <c r="AO24">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="AP24">
-        <v>1.13</v>
+        <v>2.51</v>
       </c>
       <c r="AQ24">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AR24">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AS24">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AT24">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AU24">
         <v>0</v>
@@ -5307,46 +5346,46 @@
         <v>0</v>
       </c>
       <c r="AX24">
-        <v>4.04</v>
+        <v>1.59</v>
       </c>
       <c r="AY24">
-        <v>11</v>
+        <v>7.2</v>
       </c>
       <c r="AZ24">
-        <v>1.34</v>
+        <v>3.11</v>
       </c>
       <c r="BA24">
-        <v>1.15</v>
+        <v>1.3</v>
       </c>
       <c r="BB24">
-        <v>1.27</v>
+        <v>1.5</v>
       </c>
       <c r="BC24">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="BD24">
-        <v>1.95</v>
+        <v>2.35</v>
       </c>
       <c r="BE24">
-        <v>2.34</v>
+        <v>3.15</v>
       </c>
       <c r="BF24">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="BG24">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BH24">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="BI24">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="BJ24">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="BK24">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:63">
@@ -5372,7 +5411,7 @@
         <v>88</v>
       </c>
       <c r="H25" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -5393,7 +5432,7 @@
         <v>2</v>
       </c>
       <c r="O25" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P25" t="s">
         <v>98</v>
@@ -5522,22 +5561,1741 @@
         <v>3.34</v>
       </c>
       <c r="BF25">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BG25">
+        <v>2</v>
+      </c>
+      <c r="BH25">
+        <v>2</v>
+      </c>
+      <c r="BI25">
+        <v>16</v>
+      </c>
+      <c r="BJ25">
         <v>5</v>
       </c>
-      <c r="BH25">
-        <v>3</v>
-      </c>
-      <c r="BI25">
+      <c r="BK25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:63">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>6527480</v>
+      </c>
+      <c r="C26" t="s">
+        <v>63</v>
+      </c>
+      <c r="D26" t="s">
+        <v>64</v>
+      </c>
+      <c r="E26" s="2">
+        <v>45125.625</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26" t="s">
+        <v>89</v>
+      </c>
+      <c r="H26" t="s">
+        <v>80</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>2</v>
+      </c>
+      <c r="N26">
+        <v>2</v>
+      </c>
+      <c r="O26" t="s">
+        <v>98</v>
+      </c>
+      <c r="P26" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <v>1</v>
+      </c>
+      <c r="S26">
+        <v>1</v>
+      </c>
+      <c r="T26">
+        <v>5.65</v>
+      </c>
+      <c r="U26">
+        <v>2.38</v>
+      </c>
+      <c r="V26">
+        <v>2.05</v>
+      </c>
+      <c r="W26">
+        <v>1.32</v>
+      </c>
+      <c r="X26">
+        <v>3.22</v>
+      </c>
+      <c r="Y26">
+        <v>2.52</v>
+      </c>
+      <c r="Z26">
+        <v>1.49</v>
+      </c>
+      <c r="AA26">
+        <v>6</v>
+      </c>
+      <c r="AB26">
+        <v>1.11</v>
+      </c>
+      <c r="AC26">
+        <v>5.7</v>
+      </c>
+      <c r="AD26">
+        <v>4.1</v>
+      </c>
+      <c r="AE26">
+        <v>1.55</v>
+      </c>
+      <c r="AF26">
+        <v>1.01</v>
+      </c>
+      <c r="AG26">
+        <v>10</v>
+      </c>
+      <c r="AH26">
+        <v>1.2</v>
+      </c>
+      <c r="AI26">
+        <v>3.95</v>
+      </c>
+      <c r="AJ26">
+        <v>1.73</v>
+      </c>
+      <c r="AK26">
+        <v>2.13</v>
+      </c>
+      <c r="AL26">
+        <v>1.8</v>
+      </c>
+      <c r="AM26">
+        <v>1.96</v>
+      </c>
+      <c r="AN26">
+        <v>2.48</v>
+      </c>
+      <c r="AO26">
+        <v>1.22</v>
+      </c>
+      <c r="AP26">
+        <v>1.13</v>
+      </c>
+      <c r="AQ26">
+        <v>0</v>
+      </c>
+      <c r="AR26">
+        <v>3</v>
+      </c>
+      <c r="AS26">
+        <v>0</v>
+      </c>
+      <c r="AT26">
+        <v>3</v>
+      </c>
+      <c r="AU26">
+        <v>0</v>
+      </c>
+      <c r="AV26">
+        <v>0</v>
+      </c>
+      <c r="AW26">
+        <v>0</v>
+      </c>
+      <c r="AX26">
+        <v>4.04</v>
+      </c>
+      <c r="AY26">
+        <v>11</v>
+      </c>
+      <c r="AZ26">
+        <v>1.34</v>
+      </c>
+      <c r="BA26">
+        <v>1.15</v>
+      </c>
+      <c r="BB26">
+        <v>1.27</v>
+      </c>
+      <c r="BC26">
+        <v>1.5</v>
+      </c>
+      <c r="BD26">
+        <v>1.95</v>
+      </c>
+      <c r="BE26">
+        <v>2.34</v>
+      </c>
+      <c r="BF26">
+        <v>2</v>
+      </c>
+      <c r="BG26">
+        <v>5</v>
+      </c>
+      <c r="BH26">
+        <v>4</v>
+      </c>
+      <c r="BI26">
+        <v>6</v>
+      </c>
+      <c r="BJ26">
+        <v>6</v>
+      </c>
+      <c r="BK26">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:63">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>6671491</v>
+      </c>
+      <c r="C27" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27" t="s">
+        <v>64</v>
+      </c>
+      <c r="E27" s="2">
+        <v>45125.67708333334</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27" t="s">
+        <v>90</v>
+      </c>
+      <c r="H27" t="s">
+        <v>76</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>2</v>
+      </c>
+      <c r="M27">
+        <v>1</v>
+      </c>
+      <c r="N27">
+        <v>3</v>
+      </c>
+      <c r="O27" t="s">
+        <v>114</v>
+      </c>
+      <c r="P27" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q27">
+        <v>4</v>
+      </c>
+      <c r="R27">
+        <v>7</v>
+      </c>
+      <c r="S27">
+        <v>11</v>
+      </c>
+      <c r="T27">
+        <v>2.85</v>
+      </c>
+      <c r="U27">
+        <v>2.1</v>
+      </c>
+      <c r="V27">
+        <v>3.5</v>
+      </c>
+      <c r="W27">
+        <v>1.4</v>
+      </c>
+      <c r="X27">
+        <v>2.75</v>
+      </c>
+      <c r="Y27">
+        <v>2.9</v>
+      </c>
+      <c r="Z27">
+        <v>1.36</v>
+      </c>
+      <c r="AA27">
+        <v>7.4</v>
+      </c>
+      <c r="AB27">
+        <v>1.06</v>
+      </c>
+      <c r="AC27">
+        <v>2.3</v>
+      </c>
+      <c r="AD27">
+        <v>3.35</v>
+      </c>
+      <c r="AE27">
+        <v>2.95</v>
+      </c>
+      <c r="AF27">
+        <v>1.06</v>
+      </c>
+      <c r="AG27">
         <v>8</v>
       </c>
-      <c r="BJ25">
-        <v>3</v>
-      </c>
-      <c r="BK25">
+      <c r="AH27">
+        <v>1.33</v>
+      </c>
+      <c r="AI27">
+        <v>3.2</v>
+      </c>
+      <c r="AJ27">
+        <v>1.97</v>
+      </c>
+      <c r="AK27">
+        <v>1.77</v>
+      </c>
+      <c r="AL27">
+        <v>1.8</v>
+      </c>
+      <c r="AM27">
+        <v>1.95</v>
+      </c>
+      <c r="AN27">
+        <v>1.33</v>
+      </c>
+      <c r="AO27">
+        <v>1.25</v>
+      </c>
+      <c r="AP27">
+        <v>1.62</v>
+      </c>
+      <c r="AQ27">
+        <v>3</v>
+      </c>
+      <c r="AR27">
+        <v>0</v>
+      </c>
+      <c r="AS27">
+        <v>3</v>
+      </c>
+      <c r="AT27">
+        <v>0</v>
+      </c>
+      <c r="AU27">
+        <v>0</v>
+      </c>
+      <c r="AV27">
+        <v>0</v>
+      </c>
+      <c r="AW27">
+        <v>0</v>
+      </c>
+      <c r="AX27">
+        <v>1.9</v>
+      </c>
+      <c r="AY27">
+        <v>7.3</v>
+      </c>
+      <c r="AZ27">
+        <v>2.35</v>
+      </c>
+      <c r="BA27">
+        <v>1.21</v>
+      </c>
+      <c r="BB27">
+        <v>1.39</v>
+      </c>
+      <c r="BC27">
+        <v>1.65</v>
+      </c>
+      <c r="BD27">
+        <v>2.06</v>
+      </c>
+      <c r="BE27">
+        <v>2.65</v>
+      </c>
+      <c r="BF27">
+        <v>5</v>
+      </c>
+      <c r="BG27">
+        <v>4</v>
+      </c>
+      <c r="BH27">
+        <v>2</v>
+      </c>
+      <c r="BI27">
+        <v>6</v>
+      </c>
+      <c r="BJ27">
+        <v>7</v>
+      </c>
+      <c r="BK27">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:63">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>6527484</v>
+      </c>
+      <c r="C28" t="s">
+        <v>63</v>
+      </c>
+      <c r="D28" t="s">
+        <v>64</v>
+      </c>
+      <c r="E28" s="2">
+        <v>45126.5</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28" t="s">
+        <v>91</v>
+      </c>
+      <c r="H28" t="s">
+        <v>71</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>2</v>
+      </c>
+      <c r="N28">
+        <v>3</v>
+      </c>
+      <c r="O28" t="s">
+        <v>115</v>
+      </c>
+      <c r="P28" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q28">
+        <v>1</v>
+      </c>
+      <c r="R28">
+        <v>5</v>
+      </c>
+      <c r="S28">
+        <v>6</v>
+      </c>
+      <c r="T28">
+        <v>4.4</v>
+      </c>
+      <c r="U28">
+        <v>2.2</v>
+      </c>
+      <c r="V28">
+        <v>2.25</v>
+      </c>
+      <c r="W28">
+        <v>1.34</v>
+      </c>
+      <c r="X28">
+        <v>2.95</v>
+      </c>
+      <c r="Y28">
+        <v>2.6</v>
+      </c>
+      <c r="Z28">
+        <v>1.44</v>
+      </c>
+      <c r="AA28">
+        <v>6.5</v>
+      </c>
+      <c r="AB28">
+        <v>1.1</v>
+      </c>
+      <c r="AC28">
+        <v>4.75</v>
+      </c>
+      <c r="AD28">
+        <v>4.1</v>
+      </c>
+      <c r="AE28">
+        <v>1.55</v>
+      </c>
+      <c r="AF28">
+        <v>1.04</v>
+      </c>
+      <c r="AG28">
+        <v>13.75</v>
+      </c>
+      <c r="AH28">
+        <v>1.26</v>
+      </c>
+      <c r="AI28">
+        <v>3.9</v>
+      </c>
+      <c r="AJ28">
+        <v>1.75</v>
+      </c>
+      <c r="AK28">
+        <v>2</v>
+      </c>
+      <c r="AL28">
+        <v>1.8</v>
+      </c>
+      <c r="AM28">
+        <v>2</v>
+      </c>
+      <c r="AN28">
+        <v>2.05</v>
+      </c>
+      <c r="AO28">
+        <v>1.24</v>
+      </c>
+      <c r="AP28">
+        <v>1.2</v>
+      </c>
+      <c r="AQ28">
+        <v>0</v>
+      </c>
+      <c r="AR28">
+        <v>3</v>
+      </c>
+      <c r="AS28">
+        <v>0</v>
+      </c>
+      <c r="AT28">
+        <v>3</v>
+      </c>
+      <c r="AU28">
+        <v>0</v>
+      </c>
+      <c r="AV28">
+        <v>0</v>
+      </c>
+      <c r="AW28">
+        <v>0</v>
+      </c>
+      <c r="AX28">
+        <v>3.53</v>
+      </c>
+      <c r="AY28">
+        <v>9.5</v>
+      </c>
+      <c r="AZ28">
+        <v>1.44</v>
+      </c>
+      <c r="BA28">
+        <v>1.21</v>
+      </c>
+      <c r="BB28">
+        <v>1.4</v>
+      </c>
+      <c r="BC28">
+        <v>1.71</v>
+      </c>
+      <c r="BD28">
+        <v>2.2</v>
+      </c>
+      <c r="BE28">
+        <v>3</v>
+      </c>
+      <c r="BF28">
+        <v>9</v>
+      </c>
+      <c r="BG28">
+        <v>8</v>
+      </c>
+      <c r="BH28">
+        <v>4</v>
+      </c>
+      <c r="BI28">
+        <v>12</v>
+      </c>
+      <c r="BJ28">
         <v>13</v>
+      </c>
+      <c r="BK28">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:63">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>6527483</v>
+      </c>
+      <c r="C29" t="s">
+        <v>63</v>
+      </c>
+      <c r="D29" t="s">
+        <v>64</v>
+      </c>
+      <c r="E29" s="2">
+        <v>45126.54166666666</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29" t="s">
+        <v>92</v>
+      </c>
+      <c r="H29" t="s">
+        <v>75</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>3</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>3</v>
+      </c>
+      <c r="N29">
+        <v>3</v>
+      </c>
+      <c r="O29" t="s">
+        <v>98</v>
+      </c>
+      <c r="P29" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q29">
+        <v>12</v>
+      </c>
+      <c r="R29">
+        <v>3</v>
+      </c>
+      <c r="S29">
+        <v>15</v>
+      </c>
+      <c r="T29">
+        <v>1.65</v>
+      </c>
+      <c r="U29">
+        <v>2.5</v>
+      </c>
+      <c r="V29">
+        <v>9.5</v>
+      </c>
+      <c r="W29">
+        <v>1.33</v>
+      </c>
+      <c r="X29">
+        <v>3.05</v>
+      </c>
+      <c r="Y29">
+        <v>2.55</v>
+      </c>
+      <c r="Z29">
+        <v>1.45</v>
+      </c>
+      <c r="AA29">
+        <v>6</v>
+      </c>
+      <c r="AB29">
+        <v>1.1</v>
+      </c>
+      <c r="AC29">
+        <v>1.2</v>
+      </c>
+      <c r="AD29">
+        <v>5.6</v>
+      </c>
+      <c r="AE29">
+        <v>11</v>
+      </c>
+      <c r="AF29">
+        <v>1.05</v>
+      </c>
+      <c r="AG29">
+        <v>9</v>
+      </c>
+      <c r="AH29">
+        <v>1.25</v>
+      </c>
+      <c r="AI29">
+        <v>3.75</v>
+      </c>
+      <c r="AJ29">
+        <v>1.68</v>
+      </c>
+      <c r="AK29">
+        <v>2.1</v>
+      </c>
+      <c r="AL29">
+        <v>2.55</v>
+      </c>
+      <c r="AM29">
+        <v>1.46</v>
+      </c>
+      <c r="AN29">
+        <v>1.04</v>
+      </c>
+      <c r="AO29">
+        <v>1.09</v>
+      </c>
+      <c r="AP29">
+        <v>3.6</v>
+      </c>
+      <c r="AQ29">
+        <v>1</v>
+      </c>
+      <c r="AR29">
+        <v>1</v>
+      </c>
+      <c r="AS29">
+        <v>0.5</v>
+      </c>
+      <c r="AT29">
+        <v>2</v>
+      </c>
+      <c r="AU29">
+        <v>0</v>
+      </c>
+      <c r="AV29">
+        <v>0</v>
+      </c>
+      <c r="AW29">
+        <v>0</v>
+      </c>
+      <c r="AX29">
+        <v>1.13</v>
+      </c>
+      <c r="AY29">
+        <v>16</v>
+      </c>
+      <c r="AZ29">
+        <v>7.2</v>
+      </c>
+      <c r="BA29">
+        <v>1.26</v>
+      </c>
+      <c r="BB29">
+        <v>1.5</v>
+      </c>
+      <c r="BC29">
+        <v>1.98</v>
+      </c>
+      <c r="BD29">
+        <v>2.5</v>
+      </c>
+      <c r="BE29">
+        <v>3.5</v>
+      </c>
+      <c r="BF29">
+        <v>4</v>
+      </c>
+      <c r="BG29">
+        <v>8</v>
+      </c>
+      <c r="BH29">
+        <v>14</v>
+      </c>
+      <c r="BI29">
+        <v>2</v>
+      </c>
+      <c r="BJ29">
+        <v>18</v>
+      </c>
+      <c r="BK29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:63">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>6527493</v>
+      </c>
+      <c r="C30" t="s">
+        <v>63</v>
+      </c>
+      <c r="D30" t="s">
+        <v>64</v>
+      </c>
+      <c r="E30" s="2">
+        <v>45126.54166666666</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30" t="s">
+        <v>93</v>
+      </c>
+      <c r="H30" t="s">
+        <v>78</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>2</v>
+      </c>
+      <c r="N30">
+        <v>3</v>
+      </c>
+      <c r="O30" t="s">
+        <v>116</v>
+      </c>
+      <c r="P30" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q30">
+        <v>6</v>
+      </c>
+      <c r="R30">
+        <v>5</v>
+      </c>
+      <c r="S30">
+        <v>11</v>
+      </c>
+      <c r="T30">
+        <v>3</v>
+      </c>
+      <c r="U30">
+        <v>2</v>
+      </c>
+      <c r="V30">
+        <v>3.6</v>
+      </c>
+      <c r="W30">
+        <v>1.47</v>
+      </c>
+      <c r="X30">
+        <v>2.45</v>
+      </c>
+      <c r="Y30">
+        <v>3.25</v>
+      </c>
+      <c r="Z30">
+        <v>1.3</v>
+      </c>
+      <c r="AA30">
+        <v>9</v>
+      </c>
+      <c r="AB30">
+        <v>1.06</v>
+      </c>
+      <c r="AC30">
+        <v>2.4</v>
+      </c>
+      <c r="AD30">
+        <v>3.1</v>
+      </c>
+      <c r="AE30">
+        <v>3</v>
+      </c>
+      <c r="AF30">
+        <v>1.07</v>
+      </c>
+      <c r="AG30">
+        <v>7.5</v>
+      </c>
+      <c r="AH30">
+        <v>1.4</v>
+      </c>
+      <c r="AI30">
+        <v>2.85</v>
+      </c>
+      <c r="AJ30">
+        <v>2.3</v>
+      </c>
+      <c r="AK30">
+        <v>1.57</v>
+      </c>
+      <c r="AL30">
+        <v>1.95</v>
+      </c>
+      <c r="AM30">
+        <v>1.8</v>
+      </c>
+      <c r="AN30">
+        <v>1.3</v>
+      </c>
+      <c r="AO30">
+        <v>1.28</v>
+      </c>
+      <c r="AP30">
+        <v>1.57</v>
+      </c>
+      <c r="AQ30">
+        <v>1</v>
+      </c>
+      <c r="AR30">
+        <v>1</v>
+      </c>
+      <c r="AS30">
+        <v>0.5</v>
+      </c>
+      <c r="AT30">
+        <v>2</v>
+      </c>
+      <c r="AU30">
+        <v>0</v>
+      </c>
+      <c r="AV30">
+        <v>0</v>
+      </c>
+      <c r="AW30">
+        <v>0</v>
+      </c>
+      <c r="AX30">
+        <v>1.79</v>
+      </c>
+      <c r="AY30">
+        <v>7.7</v>
+      </c>
+      <c r="AZ30">
+        <v>2.51</v>
+      </c>
+      <c r="BA30">
+        <v>1.23</v>
+      </c>
+      <c r="BB30">
+        <v>1.44</v>
+      </c>
+      <c r="BC30">
+        <v>1.95</v>
+      </c>
+      <c r="BD30">
+        <v>2.35</v>
+      </c>
+      <c r="BE30">
+        <v>3.25</v>
+      </c>
+      <c r="BF30">
+        <v>9</v>
+      </c>
+      <c r="BG30">
+        <v>8</v>
+      </c>
+      <c r="BH30">
+        <v>12</v>
+      </c>
+      <c r="BI30">
+        <v>5</v>
+      </c>
+      <c r="BJ30">
+        <v>21</v>
+      </c>
+      <c r="BK30">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:63">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>6527486</v>
+      </c>
+      <c r="C31" t="s">
+        <v>63</v>
+      </c>
+      <c r="D31" t="s">
+        <v>64</v>
+      </c>
+      <c r="E31" s="2">
+        <v>45126.54166666666</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31" t="s">
+        <v>94</v>
+      </c>
+      <c r="H31" t="s">
+        <v>69</v>
+      </c>
+      <c r="I31">
+        <v>2</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>4</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>4</v>
+      </c>
+      <c r="O31" t="s">
+        <v>117</v>
+      </c>
+      <c r="P31" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q31">
+        <v>11</v>
+      </c>
+      <c r="R31">
+        <v>1</v>
+      </c>
+      <c r="S31">
+        <v>12</v>
+      </c>
+      <c r="T31">
+        <v>1.46</v>
+      </c>
+      <c r="U31">
+        <v>3</v>
+      </c>
+      <c r="V31">
+        <v>10.5</v>
+      </c>
+      <c r="W31">
+        <v>1.23</v>
+      </c>
+      <c r="X31">
+        <v>3.8</v>
+      </c>
+      <c r="Y31">
+        <v>2.1</v>
+      </c>
+      <c r="Z31">
+        <v>1.62</v>
+      </c>
+      <c r="AA31">
+        <v>4.75</v>
+      </c>
+      <c r="AB31">
+        <v>1.16</v>
+      </c>
+      <c r="AC31">
+        <v>1.11</v>
+      </c>
+      <c r="AD31">
+        <v>7.5</v>
+      </c>
+      <c r="AE31">
+        <v>15.5</v>
+      </c>
+      <c r="AF31">
+        <v>1.02</v>
+      </c>
+      <c r="AG31">
+        <v>13</v>
+      </c>
+      <c r="AH31">
+        <v>1.15</v>
+      </c>
+      <c r="AI31">
+        <v>4.75</v>
+      </c>
+      <c r="AJ31">
+        <v>1.44</v>
+      </c>
+      <c r="AK31">
+        <v>2.65</v>
+      </c>
+      <c r="AL31">
+        <v>2.55</v>
+      </c>
+      <c r="AM31">
+        <v>1.44</v>
+      </c>
+      <c r="AN31">
+        <v>1.02</v>
+      </c>
+      <c r="AO31">
+        <v>1.06</v>
+      </c>
+      <c r="AP31">
+        <v>6</v>
+      </c>
+      <c r="AQ31">
+        <v>3</v>
+      </c>
+      <c r="AR31">
+        <v>0</v>
+      </c>
+      <c r="AS31">
+        <v>3</v>
+      </c>
+      <c r="AT31">
+        <v>0</v>
+      </c>
+      <c r="AU31">
+        <v>0</v>
+      </c>
+      <c r="AV31">
+        <v>0</v>
+      </c>
+      <c r="AW31">
+        <v>0</v>
+      </c>
+      <c r="AX31">
+        <v>1.09</v>
+      </c>
+      <c r="AY31">
+        <v>15</v>
+      </c>
+      <c r="AZ31">
+        <v>9.9</v>
+      </c>
+      <c r="BA31">
+        <v>1.26</v>
+      </c>
+      <c r="BB31">
+        <v>1.5</v>
+      </c>
+      <c r="BC31">
+        <v>2</v>
+      </c>
+      <c r="BD31">
+        <v>2.5</v>
+      </c>
+      <c r="BE31">
+        <v>3.5</v>
+      </c>
+      <c r="BF31">
+        <v>13</v>
+      </c>
+      <c r="BG31">
+        <v>0</v>
+      </c>
+      <c r="BH31">
+        <v>6</v>
+      </c>
+      <c r="BI31">
+        <v>4</v>
+      </c>
+      <c r="BJ31">
+        <v>19</v>
+      </c>
+      <c r="BK31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:63">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>6527488</v>
+      </c>
+      <c r="C32" t="s">
+        <v>63</v>
+      </c>
+      <c r="D32" t="s">
+        <v>64</v>
+      </c>
+      <c r="E32" s="2">
+        <v>45126.625</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32" t="s">
+        <v>95</v>
+      </c>
+      <c r="H32" t="s">
+        <v>82</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>2</v>
+      </c>
+      <c r="N32">
+        <v>2</v>
+      </c>
+      <c r="O32" t="s">
+        <v>98</v>
+      </c>
+      <c r="P32" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q32">
+        <v>8</v>
+      </c>
+      <c r="R32">
+        <v>0</v>
+      </c>
+      <c r="S32">
+        <v>8</v>
+      </c>
+      <c r="T32">
+        <v>4.64</v>
+      </c>
+      <c r="U32">
+        <v>2.24</v>
+      </c>
+      <c r="V32">
+        <v>2.37</v>
+      </c>
+      <c r="W32">
+        <v>1.35</v>
+      </c>
+      <c r="X32">
+        <v>3.05</v>
+      </c>
+      <c r="Y32">
+        <v>2.64</v>
+      </c>
+      <c r="Z32">
+        <v>1.45</v>
+      </c>
+      <c r="AA32">
+        <v>6.4</v>
+      </c>
+      <c r="AB32">
+        <v>1.1</v>
+      </c>
+      <c r="AC32">
+        <v>4.25</v>
+      </c>
+      <c r="AD32">
+        <v>3.75</v>
+      </c>
+      <c r="AE32">
+        <v>1.75</v>
+      </c>
+      <c r="AF32">
+        <v>1.01</v>
+      </c>
+      <c r="AG32">
+        <v>10</v>
+      </c>
+      <c r="AH32">
+        <v>1.23</v>
+      </c>
+      <c r="AI32">
+        <v>3.64</v>
+      </c>
+      <c r="AJ32">
+        <v>1.71</v>
+      </c>
+      <c r="AK32">
+        <v>2.04</v>
+      </c>
+      <c r="AL32">
+        <v>1.72</v>
+      </c>
+      <c r="AM32">
+        <v>2.07</v>
+      </c>
+      <c r="AN32">
+        <v>1.98</v>
+      </c>
+      <c r="AO32">
+        <v>1.27</v>
+      </c>
+      <c r="AP32">
+        <v>1.23</v>
+      </c>
+      <c r="AQ32">
+        <v>1</v>
+      </c>
+      <c r="AR32">
+        <v>1</v>
+      </c>
+      <c r="AS32">
+        <v>0.5</v>
+      </c>
+      <c r="AT32">
+        <v>2</v>
+      </c>
+      <c r="AU32">
+        <v>0</v>
+      </c>
+      <c r="AV32">
+        <v>0</v>
+      </c>
+      <c r="AW32">
+        <v>0</v>
+      </c>
+      <c r="AX32">
+        <v>2.79</v>
+      </c>
+      <c r="AY32">
+        <v>9.4</v>
+      </c>
+      <c r="AZ32">
+        <v>1.59</v>
+      </c>
+      <c r="BA32">
+        <v>1.23</v>
+      </c>
+      <c r="BB32">
+        <v>1.44</v>
+      </c>
+      <c r="BC32">
+        <v>1.83</v>
+      </c>
+      <c r="BD32">
+        <v>2.35</v>
+      </c>
+      <c r="BE32">
+        <v>3.25</v>
+      </c>
+      <c r="BF32">
+        <v>9</v>
+      </c>
+      <c r="BG32">
+        <v>3</v>
+      </c>
+      <c r="BH32">
+        <v>3</v>
+      </c>
+      <c r="BI32">
+        <v>1</v>
+      </c>
+      <c r="BJ32">
+        <v>12</v>
+      </c>
+      <c r="BK32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:63">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>6527481</v>
+      </c>
+      <c r="C33" t="s">
+        <v>63</v>
+      </c>
+      <c r="D33" t="s">
+        <v>64</v>
+      </c>
+      <c r="E33" s="2">
+        <v>45126.625</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33" t="s">
+        <v>96</v>
+      </c>
+      <c r="H33" t="s">
+        <v>74</v>
+      </c>
+      <c r="I33">
+        <v>2</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>2</v>
+      </c>
+      <c r="L33">
+        <v>4</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>4</v>
+      </c>
+      <c r="O33" t="s">
+        <v>118</v>
+      </c>
+      <c r="P33" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q33">
+        <v>8</v>
+      </c>
+      <c r="R33">
+        <v>0</v>
+      </c>
+      <c r="S33">
+        <v>8</v>
+      </c>
+      <c r="T33">
+        <v>1.66</v>
+      </c>
+      <c r="U33">
+        <v>2.5</v>
+      </c>
+      <c r="V33">
+        <v>8.5</v>
+      </c>
+      <c r="W33">
+        <v>1.31</v>
+      </c>
+      <c r="X33">
+        <v>3.1</v>
+      </c>
+      <c r="Y33">
+        <v>2.45</v>
+      </c>
+      <c r="Z33">
+        <v>1.49</v>
+      </c>
+      <c r="AA33">
+        <v>5.75</v>
+      </c>
+      <c r="AB33">
+        <v>1.11</v>
+      </c>
+      <c r="AC33">
+        <v>1.28</v>
+      </c>
+      <c r="AD33">
+        <v>5.5</v>
+      </c>
+      <c r="AE33">
+        <v>9</v>
+      </c>
+      <c r="AF33">
+        <v>1.04</v>
+      </c>
+      <c r="AG33">
+        <v>10</v>
+      </c>
+      <c r="AH33">
+        <v>1.22</v>
+      </c>
+      <c r="AI33">
+        <v>4</v>
+      </c>
+      <c r="AJ33">
+        <v>1.7</v>
+      </c>
+      <c r="AK33">
+        <v>2.04</v>
+      </c>
+      <c r="AL33">
+        <v>2.35</v>
+      </c>
+      <c r="AM33">
+        <v>1.52</v>
+      </c>
+      <c r="AN33">
+        <v>1.05</v>
+      </c>
+      <c r="AO33">
+        <v>1.13</v>
+      </c>
+      <c r="AP33">
+        <v>3.8</v>
+      </c>
+      <c r="AQ33">
+        <v>0</v>
+      </c>
+      <c r="AR33">
+        <v>3</v>
+      </c>
+      <c r="AS33">
+        <v>1.5</v>
+      </c>
+      <c r="AT33">
+        <v>1.5</v>
+      </c>
+      <c r="AU33">
+        <v>0</v>
+      </c>
+      <c r="AV33">
+        <v>0</v>
+      </c>
+      <c r="AW33">
+        <v>0</v>
+      </c>
+      <c r="AX33">
+        <v>1.17</v>
+      </c>
+      <c r="AY33">
+        <v>13.25</v>
+      </c>
+      <c r="AZ33">
+        <v>6.25</v>
+      </c>
+      <c r="BA33">
+        <v>1.21</v>
+      </c>
+      <c r="BB33">
+        <v>1.4</v>
+      </c>
+      <c r="BC33">
+        <v>1.75</v>
+      </c>
+      <c r="BD33">
+        <v>2.2</v>
+      </c>
+      <c r="BE33">
+        <v>3</v>
+      </c>
+      <c r="BF33">
+        <v>9</v>
+      </c>
+      <c r="BG33">
+        <v>5</v>
+      </c>
+      <c r="BH33">
+        <v>9</v>
+      </c>
+      <c r="BI33">
+        <v>4</v>
+      </c>
+      <c r="BJ33">
+        <v>18</v>
+      </c>
+      <c r="BK33">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:63">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>6527485</v>
+      </c>
+      <c r="C34" t="s">
+        <v>63</v>
+      </c>
+      <c r="D34" t="s">
+        <v>64</v>
+      </c>
+      <c r="E34" s="2">
+        <v>45126.64583333334</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34" t="s">
+        <v>97</v>
+      </c>
+      <c r="H34" t="s">
+        <v>79</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>1</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <v>2</v>
+      </c>
+      <c r="M34">
+        <v>2</v>
+      </c>
+      <c r="N34">
+        <v>4</v>
+      </c>
+      <c r="O34" t="s">
+        <v>119</v>
+      </c>
+      <c r="P34" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q34">
+        <v>8</v>
+      </c>
+      <c r="R34">
+        <v>2</v>
+      </c>
+      <c r="S34">
+        <v>10</v>
+      </c>
+      <c r="T34">
+        <v>3.8</v>
+      </c>
+      <c r="U34">
+        <v>1.98</v>
+      </c>
+      <c r="V34">
+        <v>2.85</v>
+      </c>
+      <c r="W34">
+        <v>1.52</v>
+      </c>
+      <c r="X34">
+        <v>2.4</v>
+      </c>
+      <c r="Y34">
+        <v>3.3</v>
+      </c>
+      <c r="Z34">
+        <v>1.28</v>
+      </c>
+      <c r="AA34">
+        <v>10.5</v>
+      </c>
+      <c r="AB34">
+        <v>1.05</v>
+      </c>
+      <c r="AC34">
+        <v>3.2</v>
+      </c>
+      <c r="AD34">
+        <v>3.1</v>
+      </c>
+      <c r="AE34">
+        <v>2.25</v>
+      </c>
+      <c r="AF34">
+        <v>1.09</v>
+      </c>
+      <c r="AG34">
+        <v>8.25</v>
+      </c>
+      <c r="AH34">
+        <v>1.45</v>
+      </c>
+      <c r="AI34">
+        <v>2.79</v>
+      </c>
+      <c r="AJ34">
+        <v>2.3</v>
+      </c>
+      <c r="AK34">
+        <v>1.56</v>
+      </c>
+      <c r="AL34">
+        <v>2</v>
+      </c>
+      <c r="AM34">
+        <v>1.78</v>
+      </c>
+      <c r="AN34">
+        <v>1.52</v>
+      </c>
+      <c r="AO34">
+        <v>1.37</v>
+      </c>
+      <c r="AP34">
+        <v>1.35</v>
+      </c>
+      <c r="AQ34">
+        <v>0</v>
+      </c>
+      <c r="AR34">
+        <v>3</v>
+      </c>
+      <c r="AS34">
+        <v>0.5</v>
+      </c>
+      <c r="AT34">
+        <v>2</v>
+      </c>
+      <c r="AU34">
+        <v>0</v>
+      </c>
+      <c r="AV34">
+        <v>0</v>
+      </c>
+      <c r="AW34">
+        <v>0</v>
+      </c>
+      <c r="AX34">
+        <v>2.46</v>
+      </c>
+      <c r="AY34">
+        <v>7.4</v>
+      </c>
+      <c r="AZ34">
+        <v>1.84</v>
+      </c>
+      <c r="BA34">
+        <v>1.23</v>
+      </c>
+      <c r="BB34">
+        <v>1.44</v>
+      </c>
+      <c r="BC34">
+        <v>1.95</v>
+      </c>
+      <c r="BD34">
+        <v>2.35</v>
+      </c>
+      <c r="BE34">
+        <v>3.25</v>
+      </c>
+      <c r="BF34">
+        <v>5</v>
+      </c>
+      <c r="BG34">
+        <v>5</v>
+      </c>
+      <c r="BH34">
+        <v>9</v>
+      </c>
+      <c r="BI34">
+        <v>5</v>
+      </c>
+      <c r="BJ34">
+        <v>14</v>
+      </c>
+      <c r="BK34">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Europe UEFA Champions League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Europe UEFA Champions League_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="166">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -232,24 +232,24 @@
     <t>Olimpija</t>
   </si>
   <si>
+    <t>Hamrun Spartans</t>
+  </si>
+  <si>
     <t>Raków Częstochowa</t>
   </si>
   <si>
-    <t>Hamrun Spartans</t>
+    <t>Partizani Tirana</t>
+  </si>
+  <si>
+    <t>Shamrock Rovers</t>
+  </si>
+  <si>
+    <t>KÍ</t>
   </si>
   <si>
     <t>Ballkani</t>
   </si>
   <si>
-    <t>KÍ</t>
-  </si>
-  <si>
-    <t>Shamrock Rovers</t>
-  </si>
-  <si>
-    <t>Partizani Tirana</t>
-  </si>
-  <si>
     <t>Astana</t>
   </si>
   <si>
@@ -277,30 +277,30 @@
     <t>Tallinna FC Flora</t>
   </si>
   <si>
+    <t>The New Saints</t>
+  </si>
+  <si>
     <t>Zrinjski</t>
   </si>
   <si>
     <t>BATE</t>
   </si>
   <si>
-    <t>The New Saints</t>
-  </si>
-  <si>
     <t>Breidablik</t>
   </si>
   <si>
     <t>Valmiera / BSS</t>
   </si>
   <si>
+    <t>Qarabağ</t>
+  </si>
+  <si>
     <t>Ferencváros</t>
   </si>
   <si>
     <t>Dinamo Tbilisi</t>
   </si>
   <si>
-    <t>Qarabağ</t>
-  </si>
-  <si>
     <t>Swift Hesperange</t>
   </si>
   <si>
@@ -310,6 +310,33 @@
     <t>Larne</t>
   </si>
   <si>
+    <t>Dinamo Zagreb</t>
+  </si>
+  <si>
+    <t>Dnipro-1</t>
+  </si>
+  <si>
+    <t>Servette</t>
+  </si>
+  <si>
+    <t>Aris</t>
+  </si>
+  <si>
+    <t>Molde</t>
+  </si>
+  <si>
+    <t>Galatasaray</t>
+  </si>
+  <si>
+    <t>Panathinaikos</t>
+  </si>
+  <si>
+    <t>KRC Genk</t>
+  </si>
+  <si>
+    <t>København</t>
+  </si>
+  <si>
     <t>[]</t>
   </si>
   <si>
@@ -325,12 +352,12 @@
     <t>['54']</t>
   </si>
   <si>
+    <t>['66']</t>
+  </si>
+  <si>
     <t>['45+1', '55']</t>
   </si>
   <si>
-    <t>['66']</t>
-  </si>
-  <si>
     <t>['11']</t>
   </si>
   <si>
@@ -364,18 +391,42 @@
     <t>['82']</t>
   </si>
   <si>
+    <t>['7', '45+1', '49', '62']</t>
+  </si>
+  <si>
     <t>['22']</t>
   </si>
   <si>
-    <t>['7', '45+1', '49', '62']</t>
-  </si>
-  <si>
     <t>['4', '45', '49', '78']</t>
   </si>
   <si>
     <t>['65', '87']</t>
   </si>
   <si>
+    <t>['47', '90+1']</t>
+  </si>
+  <si>
+    <t>['35', '41', '43', '56']</t>
+  </si>
+  <si>
+    <t>['90']</t>
+  </si>
+  <si>
+    <t>['77']</t>
+  </si>
+  <si>
+    <t>['28']</t>
+  </si>
+  <si>
+    <t>['17', '32', '39', '60', '83', '90+1']</t>
+  </si>
+  <si>
+    <t>['55', '71', '90+1']</t>
+  </si>
+  <si>
+    <t>['44']</t>
+  </si>
+  <si>
     <t>['13', '21', '60']</t>
   </si>
   <si>
@@ -397,12 +448,12 @@
     <t>['41', '45+3', '58', '80']</t>
   </si>
   <si>
+    <t>['58']</t>
+  </si>
+  <si>
     <t>['39']</t>
   </si>
   <si>
-    <t>['58']</t>
-  </si>
-  <si>
     <t>['57']</t>
   </si>
   <si>
@@ -415,12 +466,12 @@
     <t>['47', '59', '85']</t>
   </si>
   <si>
+    <t>['19', '90+1']</t>
+  </si>
+  <si>
     <t>['74', '90+1', '105+3']</t>
   </si>
   <si>
-    <t>['19', '90+1']</t>
-  </si>
-  <si>
     <t>['65']</t>
   </si>
   <si>
@@ -437,6 +488,30 @@
   </si>
   <si>
     <t>['26', '96']</t>
+  </si>
+  <si>
+    <t>['75', '78']</t>
+  </si>
+  <si>
+    <t>['10', '73', '84']</t>
+  </si>
+  <si>
+    <t>['21']</t>
+  </si>
+  <si>
+    <t>['53']</t>
+  </si>
+  <si>
+    <t>['1', '32']</t>
+  </si>
+  <si>
+    <t>['48', '65']</t>
+  </si>
+  <si>
+    <t>['73', '75']</t>
+  </si>
+  <si>
+    <t>['14']</t>
   </si>
 </sst>
 </file>
@@ -798,7 +873,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK34"/>
+  <dimension ref="A1:BK46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1039,10 +1114,10 @@
         <v>3</v>
       </c>
       <c r="O2" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="P2" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="Q2">
         <v>2</v>
@@ -1230,10 +1305,10 @@
         <v>8</v>
       </c>
       <c r="O3" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="P3" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -1323,7 +1398,7 @@
         <v>0</v>
       </c>
       <c r="AT3">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1421,10 +1496,10 @@
         <v>5</v>
       </c>
       <c r="O4" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="P4" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="Q4">
         <v>-1</v>
@@ -1514,7 +1589,7 @@
         <v>1.5</v>
       </c>
       <c r="AT4">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -1591,7 +1666,7 @@
         <v>68</v>
       </c>
       <c r="H5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -1612,10 +1687,10 @@
         <v>1</v>
       </c>
       <c r="O5" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="P5" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="Q5">
         <v>2</v>
@@ -1705,7 +1780,7 @@
         <v>1.5</v>
       </c>
       <c r="AT5">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -1782,7 +1857,7 @@
         <v>69</v>
       </c>
       <c r="H6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -1803,10 +1878,10 @@
         <v>3</v>
       </c>
       <c r="O6" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="P6" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
       <c r="Q6">
         <v>1</v>
@@ -1896,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="AT6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -1994,10 +2069,10 @@
         <v>0</v>
       </c>
       <c r="O7" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="P7" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="Q7">
         <v>8</v>
@@ -2084,7 +2159,7 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AT7">
         <v>0.5</v>
@@ -2185,10 +2260,10 @@
         <v>3</v>
       </c>
       <c r="O8" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="P8" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
       <c r="Q8">
         <v>5</v>
@@ -2275,7 +2350,7 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AT8">
         <v>0</v>
@@ -2337,7 +2412,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>6527473</v>
+        <v>6527476</v>
       </c>
       <c r="C9" t="s">
         <v>63</v>
@@ -2355,49 +2430,49 @@
         <v>72</v>
       </c>
       <c r="H9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O9" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="P9" t="s">
-        <v>98</v>
+        <v>143</v>
       </c>
       <c r="Q9">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="R9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S9">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="T9">
-        <v>1.63</v>
+        <v>6</v>
       </c>
       <c r="U9">
-        <v>2.55</v>
+        <v>2.4</v>
       </c>
       <c r="V9">
-        <v>9.5</v>
+        <v>1.9</v>
       </c>
       <c r="W9">
         <v>1.3</v>
@@ -2418,19 +2493,19 @@
         <v>1.12</v>
       </c>
       <c r="AC9">
-        <v>1.18</v>
+        <v>6.5</v>
       </c>
       <c r="AD9">
-        <v>5.5</v>
+        <v>4.33</v>
       </c>
       <c r="AE9">
-        <v>11</v>
+        <v>1.36</v>
       </c>
       <c r="AF9">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="AG9">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH9">
         <v>1.2</v>
@@ -2439,26 +2514,26 @@
         <v>4.2</v>
       </c>
       <c r="AJ9">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AK9">
-        <v>2.2</v>
+        <v>2.14</v>
       </c>
       <c r="AL9">
-        <v>2.35</v>
+        <v>1.83</v>
       </c>
       <c r="AM9">
-        <v>1.55</v>
+        <v>1.9</v>
       </c>
       <c r="AN9">
-        <v>1.01</v>
+        <v>2.55</v>
       </c>
       <c r="AO9">
+        <v>1.15</v>
+      </c>
+      <c r="AP9">
         <v>1.08</v>
       </c>
-      <c r="AP9">
-        <v>3.75</v>
-      </c>
       <c r="AQ9">
         <v>0</v>
       </c>
@@ -2466,10 +2541,10 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AT9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -2481,46 +2556,46 @@
         <v>0</v>
       </c>
       <c r="AX9">
-        <v>1.09</v>
+        <v>5.07</v>
       </c>
       <c r="AY9">
-        <v>14</v>
+        <v>8.5</v>
       </c>
       <c r="AZ9">
-        <v>9.9</v>
+        <v>1.29</v>
       </c>
       <c r="BA9">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="BB9">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="BC9">
-        <v>1.85</v>
+        <v>1.76</v>
       </c>
       <c r="BD9">
-        <v>2.37</v>
+        <v>2.25</v>
       </c>
       <c r="BE9">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="BF9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BG9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="BH9">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="BI9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BJ9">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="BK9">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:63">
@@ -2528,7 +2603,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>6527476</v>
+        <v>6527473</v>
       </c>
       <c r="C10" t="s">
         <v>63</v>
@@ -2546,49 +2621,49 @@
         <v>73</v>
       </c>
       <c r="H10" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O10" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="P10" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="Q10">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="R10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S10">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="T10">
-        <v>6</v>
+        <v>1.63</v>
       </c>
       <c r="U10">
-        <v>2.4</v>
+        <v>2.55</v>
       </c>
       <c r="V10">
-        <v>1.9</v>
+        <v>9.5</v>
       </c>
       <c r="W10">
         <v>1.3</v>
@@ -2609,19 +2684,19 @@
         <v>1.12</v>
       </c>
       <c r="AC10">
-        <v>6.5</v>
+        <v>1.18</v>
       </c>
       <c r="AD10">
-        <v>4.33</v>
+        <v>5.5</v>
       </c>
       <c r="AE10">
-        <v>1.36</v>
+        <v>11</v>
       </c>
       <c r="AF10">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="AG10">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH10">
         <v>1.2</v>
@@ -2630,25 +2705,25 @@
         <v>4.2</v>
       </c>
       <c r="AJ10">
-        <v>1.71</v>
+        <v>1.62</v>
       </c>
       <c r="AK10">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AL10">
-        <v>1.83</v>
+        <v>2.35</v>
       </c>
       <c r="AM10">
-        <v>1.9</v>
+        <v>1.55</v>
       </c>
       <c r="AN10">
-        <v>2.55</v>
+        <v>1.01</v>
       </c>
       <c r="AO10">
-        <v>1.15</v>
+        <v>1.08</v>
       </c>
       <c r="AP10">
-        <v>1.08</v>
+        <v>3.75</v>
       </c>
       <c r="AQ10">
         <v>0</v>
@@ -2657,10 +2732,10 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AT10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -2672,46 +2747,46 @@
         <v>0</v>
       </c>
       <c r="AX10">
-        <v>5.07</v>
+        <v>1.09</v>
       </c>
       <c r="AY10">
-        <v>8.5</v>
+        <v>14</v>
       </c>
       <c r="AZ10">
-        <v>1.29</v>
+        <v>9.9</v>
       </c>
       <c r="BA10">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="BB10">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="BC10">
-        <v>1.76</v>
+        <v>1.85</v>
       </c>
       <c r="BD10">
-        <v>2.25</v>
+        <v>2.37</v>
       </c>
       <c r="BE10">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="BF10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BG10">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="BH10">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="BI10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BJ10">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="BK10">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:63">
@@ -2719,7 +2794,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>6527467</v>
+        <v>6527478</v>
       </c>
       <c r="C11" t="s">
         <v>63</v>
@@ -2737,172 +2812,172 @@
         <v>74</v>
       </c>
       <c r="H11" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N11">
         <v>2</v>
       </c>
       <c r="O11" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="P11" t="s">
-        <v>98</v>
+        <v>144</v>
       </c>
       <c r="Q11">
         <v>6</v>
       </c>
       <c r="R11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S11">
+        <v>8</v>
+      </c>
+      <c r="T11">
+        <v>3.5</v>
+      </c>
+      <c r="U11">
+        <v>2.05</v>
+      </c>
+      <c r="V11">
+        <v>2.95</v>
+      </c>
+      <c r="W11">
+        <v>1.41</v>
+      </c>
+      <c r="X11">
+        <v>2.7</v>
+      </c>
+      <c r="Y11">
+        <v>2.85</v>
+      </c>
+      <c r="Z11">
+        <v>1.37</v>
+      </c>
+      <c r="AA11">
+        <v>6.95</v>
+      </c>
+      <c r="AB11">
+        <v>1.07</v>
+      </c>
+      <c r="AC11">
+        <v>5</v>
+      </c>
+      <c r="AD11">
+        <v>3.9</v>
+      </c>
+      <c r="AE11">
+        <v>1.53</v>
+      </c>
+      <c r="AF11">
+        <v>1.03</v>
+      </c>
+      <c r="AG11">
+        <v>8.4</v>
+      </c>
+      <c r="AH11">
+        <v>1.3</v>
+      </c>
+      <c r="AI11">
+        <v>3.3</v>
+      </c>
+      <c r="AJ11">
+        <v>1.81</v>
+      </c>
+      <c r="AK11">
+        <v>2</v>
+      </c>
+      <c r="AL11">
+        <v>1.75</v>
+      </c>
+      <c r="AM11">
+        <v>2</v>
+      </c>
+      <c r="AN11">
+        <v>1.57</v>
+      </c>
+      <c r="AO11">
+        <v>1.28</v>
+      </c>
+      <c r="AP11">
+        <v>1.38</v>
+      </c>
+      <c r="AQ11">
+        <v>0</v>
+      </c>
+      <c r="AR11">
+        <v>0</v>
+      </c>
+      <c r="AS11">
+        <v>0.5</v>
+      </c>
+      <c r="AT11">
+        <v>1.33</v>
+      </c>
+      <c r="AU11">
+        <v>0</v>
+      </c>
+      <c r="AV11">
+        <v>0</v>
+      </c>
+      <c r="AW11">
+        <v>0</v>
+      </c>
+      <c r="AX11">
+        <v>1.93</v>
+      </c>
+      <c r="AY11">
+        <v>6.9</v>
+      </c>
+      <c r="AZ11">
+        <v>2.3</v>
+      </c>
+      <c r="BA11">
+        <v>1.31</v>
+      </c>
+      <c r="BB11">
+        <v>1.56</v>
+      </c>
+      <c r="BC11">
+        <v>1.93</v>
+      </c>
+      <c r="BD11">
+        <v>2.41</v>
+      </c>
+      <c r="BE11">
+        <v>3.4</v>
+      </c>
+      <c r="BF11">
+        <v>5</v>
+      </c>
+      <c r="BG11">
+        <v>5</v>
+      </c>
+      <c r="BH11">
+        <v>15</v>
+      </c>
+      <c r="BI11">
+        <v>5</v>
+      </c>
+      <c r="BJ11">
+        <v>20</v>
+      </c>
+      <c r="BK11">
         <v>10</v>
-      </c>
-      <c r="T11">
-        <v>4.5</v>
-      </c>
-      <c r="U11">
-        <v>2</v>
-      </c>
-      <c r="V11">
-        <v>2.55</v>
-      </c>
-      <c r="W11">
-        <v>1.48</v>
-      </c>
-      <c r="X11">
-        <v>2.5</v>
-      </c>
-      <c r="Y11">
-        <v>3.2</v>
-      </c>
-      <c r="Z11">
-        <v>1.31</v>
-      </c>
-      <c r="AA11">
-        <v>8</v>
-      </c>
-      <c r="AB11">
-        <v>1.05</v>
-      </c>
-      <c r="AC11">
-        <v>3.75</v>
-      </c>
-      <c r="AD11">
-        <v>3.1</v>
-      </c>
-      <c r="AE11">
-        <v>1.91</v>
-      </c>
-      <c r="AF11">
-        <v>1.08</v>
-      </c>
-      <c r="AG11">
-        <v>7</v>
-      </c>
-      <c r="AH11">
-        <v>1.4</v>
-      </c>
-      <c r="AI11">
-        <v>2.8</v>
-      </c>
-      <c r="AJ11">
-        <v>2.1</v>
-      </c>
-      <c r="AK11">
-        <v>1.74</v>
-      </c>
-      <c r="AL11">
-        <v>2</v>
-      </c>
-      <c r="AM11">
-        <v>1.75</v>
-      </c>
-      <c r="AN11">
-        <v>1.87</v>
-      </c>
-      <c r="AO11">
-        <v>1.25</v>
-      </c>
-      <c r="AP11">
-        <v>1.18</v>
-      </c>
-      <c r="AQ11">
-        <v>0</v>
-      </c>
-      <c r="AR11">
-        <v>0</v>
-      </c>
-      <c r="AS11">
-        <v>1.5</v>
-      </c>
-      <c r="AT11">
-        <v>1.5</v>
-      </c>
-      <c r="AU11">
-        <v>0</v>
-      </c>
-      <c r="AV11">
-        <v>0</v>
-      </c>
-      <c r="AW11">
-        <v>0</v>
-      </c>
-      <c r="AX11">
-        <v>3.01</v>
-      </c>
-      <c r="AY11">
-        <v>7.1</v>
-      </c>
-      <c r="AZ11">
-        <v>1.62</v>
-      </c>
-      <c r="BA11">
-        <v>1.25</v>
-      </c>
-      <c r="BB11">
-        <v>1.53</v>
-      </c>
-      <c r="BC11">
-        <v>1.75</v>
-      </c>
-      <c r="BD11">
-        <v>2.2</v>
-      </c>
-      <c r="BE11">
-        <v>2.9</v>
-      </c>
-      <c r="BF11">
-        <v>6</v>
-      </c>
-      <c r="BG11">
-        <v>6</v>
-      </c>
-      <c r="BH11">
-        <v>8</v>
-      </c>
-      <c r="BI11">
-        <v>9</v>
-      </c>
-      <c r="BJ11">
-        <v>14</v>
-      </c>
-      <c r="BK11">
-        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:63">
@@ -2910,7 +2985,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>6527469</v>
+        <v>6671490</v>
       </c>
       <c r="C12" t="s">
         <v>63</v>
@@ -2928,172 +3003,172 @@
         <v>75</v>
       </c>
       <c r="H12" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O12" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="P12" t="s">
-        <v>98</v>
+        <v>145</v>
       </c>
       <c r="Q12">
+        <v>3</v>
+      </c>
+      <c r="R12">
+        <v>10</v>
+      </c>
+      <c r="S12">
+        <v>13</v>
+      </c>
+      <c r="T12">
+        <v>2.2</v>
+      </c>
+      <c r="U12">
+        <v>2.2</v>
+      </c>
+      <c r="V12">
         <v>5</v>
       </c>
-      <c r="R12">
-        <v>3</v>
-      </c>
-      <c r="S12">
-        <v>8</v>
-      </c>
-      <c r="T12">
-        <v>6</v>
-      </c>
-      <c r="U12">
-        <v>2.4</v>
-      </c>
-      <c r="V12">
-        <v>1.9</v>
-      </c>
       <c r="W12">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="X12">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="Y12">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="Z12">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="AA12">
-        <v>5.95</v>
+        <v>6.5</v>
       </c>
       <c r="AB12">
         <v>1.1</v>
       </c>
       <c r="AC12">
-        <v>5.5</v>
+        <v>1.3</v>
       </c>
       <c r="AD12">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="AE12">
-        <v>1.44</v>
+        <v>8</v>
       </c>
       <c r="AF12">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="AG12">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AH12">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="AI12">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="AJ12">
-        <v>1.71</v>
+        <v>1.85</v>
       </c>
       <c r="AK12">
-        <v>2.05</v>
+        <v>1.88</v>
       </c>
       <c r="AL12">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="AM12">
         <v>1.83</v>
       </c>
       <c r="AN12">
-        <v>2.8</v>
+        <v>1.15</v>
       </c>
       <c r="AO12">
-        <v>1.15</v>
+        <v>1.2</v>
       </c>
       <c r="AP12">
-        <v>1.06</v>
+        <v>2</v>
       </c>
       <c r="AQ12">
         <v>0</v>
       </c>
       <c r="AR12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AS12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AT12">
-        <v>0.5</v>
+        <v>2.4</v>
       </c>
       <c r="AU12">
         <v>0</v>
       </c>
       <c r="AV12">
-        <v>0</v>
+        <v>2.96</v>
       </c>
       <c r="AW12">
-        <v>0</v>
+        <v>2.96</v>
       </c>
       <c r="AX12">
-        <v>5.27</v>
+        <v>1.44</v>
       </c>
       <c r="AY12">
-        <v>8.4</v>
+        <v>10</v>
       </c>
       <c r="AZ12">
-        <v>1.28</v>
+        <v>3.34</v>
       </c>
       <c r="BA12">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="BB12">
-        <v>1.54</v>
+        <v>1.34</v>
       </c>
       <c r="BC12">
-        <v>1.9</v>
+        <v>1.62</v>
       </c>
       <c r="BD12">
-        <v>2.37</v>
+        <v>2.05</v>
       </c>
       <c r="BE12">
-        <v>3.2</v>
+        <v>2.65</v>
       </c>
       <c r="BF12">
+        <v>6</v>
+      </c>
+      <c r="BG12">
+        <v>5</v>
+      </c>
+      <c r="BH12">
         <v>4</v>
       </c>
-      <c r="BG12">
+      <c r="BI12">
         <v>4</v>
       </c>
-      <c r="BH12">
-        <v>5</v>
-      </c>
-      <c r="BI12">
-        <v>6</v>
-      </c>
       <c r="BJ12">
+        <v>10</v>
+      </c>
+      <c r="BK12">
         <v>9</v>
-      </c>
-      <c r="BK12">
-        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:63">
@@ -3101,7 +3176,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>6671490</v>
+        <v>6527469</v>
       </c>
       <c r="C13" t="s">
         <v>63</v>
@@ -3119,172 +3194,172 @@
         <v>76</v>
       </c>
       <c r="H13" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O13" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="P13" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="Q13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R13">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="S13">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="T13">
-        <v>2.2</v>
+        <v>6</v>
       </c>
       <c r="U13">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="V13">
-        <v>5</v>
+        <v>1.9</v>
       </c>
       <c r="W13">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="X13">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="Y13">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="Z13">
-        <v>1.4</v>
+        <v>1.47</v>
       </c>
       <c r="AA13">
-        <v>6.5</v>
+        <v>5.95</v>
       </c>
       <c r="AB13">
         <v>1.1</v>
       </c>
       <c r="AC13">
-        <v>1.3</v>
+        <v>5.5</v>
       </c>
       <c r="AD13">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="AE13">
-        <v>8</v>
+        <v>1.44</v>
       </c>
       <c r="AF13">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="AG13">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AH13">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AI13">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="AJ13">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AK13">
-        <v>1.88</v>
+        <v>2.05</v>
       </c>
       <c r="AL13">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="AM13">
         <v>1.83</v>
       </c>
       <c r="AN13">
+        <v>2.8</v>
+      </c>
+      <c r="AO13">
         <v>1.15</v>
       </c>
-      <c r="AO13">
-        <v>1.2</v>
-      </c>
       <c r="AP13">
-        <v>2</v>
+        <v>1.06</v>
       </c>
       <c r="AQ13">
         <v>0</v>
       </c>
       <c r="AR13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AS13">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AT13">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="AU13">
         <v>0</v>
       </c>
       <c r="AV13">
-        <v>2.96</v>
+        <v>0</v>
       </c>
       <c r="AW13">
-        <v>2.96</v>
+        <v>0</v>
       </c>
       <c r="AX13">
-        <v>1.44</v>
+        <v>5.27</v>
       </c>
       <c r="AY13">
+        <v>8.4</v>
+      </c>
+      <c r="AZ13">
+        <v>1.28</v>
+      </c>
+      <c r="BA13">
+        <v>1.29</v>
+      </c>
+      <c r="BB13">
+        <v>1.54</v>
+      </c>
+      <c r="BC13">
+        <v>1.9</v>
+      </c>
+      <c r="BD13">
+        <v>2.37</v>
+      </c>
+      <c r="BE13">
+        <v>3.2</v>
+      </c>
+      <c r="BF13">
+        <v>4</v>
+      </c>
+      <c r="BG13">
+        <v>4</v>
+      </c>
+      <c r="BH13">
+        <v>5</v>
+      </c>
+      <c r="BI13">
+        <v>6</v>
+      </c>
+      <c r="BJ13">
+        <v>9</v>
+      </c>
+      <c r="BK13">
         <v>10</v>
-      </c>
-      <c r="AZ13">
-        <v>3.34</v>
-      </c>
-      <c r="BA13">
-        <v>1.22</v>
-      </c>
-      <c r="BB13">
-        <v>1.34</v>
-      </c>
-      <c r="BC13">
-        <v>1.62</v>
-      </c>
-      <c r="BD13">
-        <v>2.05</v>
-      </c>
-      <c r="BE13">
-        <v>2.65</v>
-      </c>
-      <c r="BF13">
-        <v>6</v>
-      </c>
-      <c r="BG13">
-        <v>5</v>
-      </c>
-      <c r="BH13">
-        <v>4</v>
-      </c>
-      <c r="BI13">
-        <v>4</v>
-      </c>
-      <c r="BJ13">
-        <v>10</v>
-      </c>
-      <c r="BK13">
-        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:63">
@@ -3292,7 +3367,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>6527478</v>
+        <v>6527467</v>
       </c>
       <c r="C14" t="s">
         <v>63</v>
@@ -3310,172 +3385,172 @@
         <v>77</v>
       </c>
       <c r="H14" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N14">
         <v>2</v>
       </c>
       <c r="O14" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="P14" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="Q14">
         <v>6</v>
       </c>
       <c r="R14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S14">
+        <v>10</v>
+      </c>
+      <c r="T14">
+        <v>4.5</v>
+      </c>
+      <c r="U14">
+        <v>2</v>
+      </c>
+      <c r="V14">
+        <v>2.55</v>
+      </c>
+      <c r="W14">
+        <v>1.48</v>
+      </c>
+      <c r="X14">
+        <v>2.5</v>
+      </c>
+      <c r="Y14">
+        <v>3.2</v>
+      </c>
+      <c r="Z14">
+        <v>1.31</v>
+      </c>
+      <c r="AA14">
         <v>8</v>
       </c>
-      <c r="T14">
-        <v>3.5</v>
-      </c>
-      <c r="U14">
-        <v>2.05</v>
-      </c>
-      <c r="V14">
-        <v>2.95</v>
-      </c>
-      <c r="W14">
-        <v>1.41</v>
-      </c>
-      <c r="X14">
-        <v>2.7</v>
-      </c>
-      <c r="Y14">
-        <v>2.85</v>
-      </c>
-      <c r="Z14">
-        <v>1.37</v>
-      </c>
-      <c r="AA14">
-        <v>6.95</v>
-      </c>
       <c r="AB14">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="AC14">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="AD14">
-        <v>3.9</v>
+        <v>3.1</v>
       </c>
       <c r="AE14">
+        <v>1.91</v>
+      </c>
+      <c r="AF14">
+        <v>1.08</v>
+      </c>
+      <c r="AG14">
+        <v>7</v>
+      </c>
+      <c r="AH14">
+        <v>1.4</v>
+      </c>
+      <c r="AI14">
+        <v>2.8</v>
+      </c>
+      <c r="AJ14">
+        <v>2.1</v>
+      </c>
+      <c r="AK14">
+        <v>1.74</v>
+      </c>
+      <c r="AL14">
+        <v>2</v>
+      </c>
+      <c r="AM14">
+        <v>1.75</v>
+      </c>
+      <c r="AN14">
+        <v>1.87</v>
+      </c>
+      <c r="AO14">
+        <v>1.25</v>
+      </c>
+      <c r="AP14">
+        <v>1.18</v>
+      </c>
+      <c r="AQ14">
+        <v>0</v>
+      </c>
+      <c r="AR14">
+        <v>0</v>
+      </c>
+      <c r="AS14">
+        <v>1.5</v>
+      </c>
+      <c r="AT14">
+        <v>1.33</v>
+      </c>
+      <c r="AU14">
+        <v>0</v>
+      </c>
+      <c r="AV14">
+        <v>0</v>
+      </c>
+      <c r="AW14">
+        <v>0</v>
+      </c>
+      <c r="AX14">
+        <v>3.01</v>
+      </c>
+      <c r="AY14">
+        <v>7.1</v>
+      </c>
+      <c r="AZ14">
+        <v>1.62</v>
+      </c>
+      <c r="BA14">
+        <v>1.25</v>
+      </c>
+      <c r="BB14">
         <v>1.53</v>
       </c>
-      <c r="AF14">
-        <v>1.03</v>
-      </c>
-      <c r="AG14">
-        <v>8.4</v>
-      </c>
-      <c r="AH14">
-        <v>1.3</v>
-      </c>
-      <c r="AI14">
-        <v>3.3</v>
-      </c>
-      <c r="AJ14">
-        <v>1.81</v>
-      </c>
-      <c r="AK14">
-        <v>2</v>
-      </c>
-      <c r="AL14">
+      <c r="BC14">
         <v>1.75</v>
       </c>
-      <c r="AM14">
-        <v>2</v>
-      </c>
-      <c r="AN14">
-        <v>1.57</v>
-      </c>
-      <c r="AO14">
-        <v>1.28</v>
-      </c>
-      <c r="AP14">
-        <v>1.38</v>
-      </c>
-      <c r="AQ14">
-        <v>0</v>
-      </c>
-      <c r="AR14">
-        <v>0</v>
-      </c>
-      <c r="AS14">
-        <v>0.5</v>
-      </c>
-      <c r="AT14">
-        <v>2</v>
-      </c>
-      <c r="AU14">
-        <v>0</v>
-      </c>
-      <c r="AV14">
-        <v>0</v>
-      </c>
-      <c r="AW14">
-        <v>0</v>
-      </c>
-      <c r="AX14">
-        <v>1.93</v>
-      </c>
-      <c r="AY14">
-        <v>6.9</v>
-      </c>
-      <c r="AZ14">
-        <v>2.3</v>
-      </c>
-      <c r="BA14">
-        <v>1.31</v>
-      </c>
-      <c r="BB14">
-        <v>1.56</v>
-      </c>
-      <c r="BC14">
-        <v>1.93</v>
-      </c>
       <c r="BD14">
-        <v>2.41</v>
+        <v>2.2</v>
       </c>
       <c r="BE14">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="BF14">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BG14">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BH14">
+        <v>8</v>
+      </c>
+      <c r="BI14">
+        <v>9</v>
+      </c>
+      <c r="BJ14">
+        <v>14</v>
+      </c>
+      <c r="BK14">
         <v>15</v>
-      </c>
-      <c r="BI14">
-        <v>5</v>
-      </c>
-      <c r="BJ14">
-        <v>20</v>
-      </c>
-      <c r="BK14">
-        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:63">
@@ -3501,7 +3576,7 @@
         <v>78</v>
       </c>
       <c r="H15" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -3522,10 +3597,10 @@
         <v>2</v>
       </c>
       <c r="O15" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="P15" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="Q15">
         <v>6</v>
@@ -3612,7 +3687,7 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AT15">
         <v>0.5</v>
@@ -3713,10 +3788,10 @@
         <v>1</v>
       </c>
       <c r="O16" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="P16" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="Q16">
         <v>4</v>
@@ -3803,7 +3878,7 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AT16">
         <v>0.5</v>
@@ -3883,7 +3958,7 @@
         <v>80</v>
       </c>
       <c r="H17" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I17">
         <v>3</v>
@@ -3904,10 +3979,10 @@
         <v>4</v>
       </c>
       <c r="O17" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="P17" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="Q17">
         <v>10</v>
@@ -3994,7 +4069,7 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AT17">
         <v>0</v>
@@ -4095,10 +4170,10 @@
         <v>1</v>
       </c>
       <c r="O18" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="P18" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="Q18">
         <v>3</v>
@@ -4188,7 +4263,7 @@
         <v>1.5</v>
       </c>
       <c r="AT18">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AU18">
         <v>0</v>
@@ -4286,10 +4361,10 @@
         <v>2</v>
       </c>
       <c r="O19" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="P19" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="Q19">
         <v>5</v>
@@ -4376,7 +4451,7 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AT19">
         <v>0.5</v>
@@ -4477,10 +4552,10 @@
         <v>3</v>
       </c>
       <c r="O20" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="P20" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="Q20">
         <v>1</v>
@@ -4570,7 +4645,7 @@
         <v>0.5</v>
       </c>
       <c r="AT20">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AU20">
         <v>0</v>
@@ -4647,7 +4722,7 @@
         <v>84</v>
       </c>
       <c r="H21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -4668,10 +4743,10 @@
         <v>3</v>
       </c>
       <c r="O21" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="P21" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="Q21">
         <v>4</v>
@@ -4758,7 +4833,7 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT21">
         <v>0</v>
@@ -4859,10 +4934,10 @@
         <v>3</v>
       </c>
       <c r="O22" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="P22" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="Q22">
         <v>10</v>
@@ -4949,7 +5024,7 @@
         <v>3</v>
       </c>
       <c r="AS22">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AT22">
         <v>1.5</v>
@@ -5029,7 +5104,7 @@
         <v>86</v>
       </c>
       <c r="H23" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -5050,10 +5125,10 @@
         <v>3</v>
       </c>
       <c r="O23" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="P23" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="Q23">
         <v>3</v>
@@ -5202,7 +5277,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>6527491</v>
+        <v>6527480</v>
       </c>
       <c r="C24" t="s">
         <v>63</v>
@@ -5220,172 +5295,172 @@
         <v>87</v>
       </c>
       <c r="H24" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24">
         <v>1</v>
       </c>
       <c r="L24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N24">
+        <v>2</v>
+      </c>
+      <c r="O24" t="s">
+        <v>107</v>
+      </c>
+      <c r="P24" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>1</v>
+      </c>
+      <c r="S24">
+        <v>1</v>
+      </c>
+      <c r="T24">
+        <v>5.65</v>
+      </c>
+      <c r="U24">
+        <v>2.38</v>
+      </c>
+      <c r="V24">
+        <v>2.05</v>
+      </c>
+      <c r="W24">
+        <v>1.32</v>
+      </c>
+      <c r="X24">
+        <v>3.22</v>
+      </c>
+      <c r="Y24">
+        <v>2.52</v>
+      </c>
+      <c r="Z24">
+        <v>1.49</v>
+      </c>
+      <c r="AA24">
+        <v>6</v>
+      </c>
+      <c r="AB24">
+        <v>1.11</v>
+      </c>
+      <c r="AC24">
+        <v>5.7</v>
+      </c>
+      <c r="AD24">
+        <v>4.1</v>
+      </c>
+      <c r="AE24">
+        <v>1.55</v>
+      </c>
+      <c r="AF24">
+        <v>1.01</v>
+      </c>
+      <c r="AG24">
+        <v>10</v>
+      </c>
+      <c r="AH24">
+        <v>1.2</v>
+      </c>
+      <c r="AI24">
+        <v>3.95</v>
+      </c>
+      <c r="AJ24">
+        <v>1.73</v>
+      </c>
+      <c r="AK24">
+        <v>2.13</v>
+      </c>
+      <c r="AL24">
+        <v>1.8</v>
+      </c>
+      <c r="AM24">
+        <v>1.96</v>
+      </c>
+      <c r="AN24">
+        <v>2.48</v>
+      </c>
+      <c r="AO24">
+        <v>1.22</v>
+      </c>
+      <c r="AP24">
+        <v>1.13</v>
+      </c>
+      <c r="AQ24">
+        <v>0</v>
+      </c>
+      <c r="AR24">
+        <v>3</v>
+      </c>
+      <c r="AS24">
+        <v>0</v>
+      </c>
+      <c r="AT24">
+        <v>2.33</v>
+      </c>
+      <c r="AU24">
+        <v>0</v>
+      </c>
+      <c r="AV24">
+        <v>0</v>
+      </c>
+      <c r="AW24">
+        <v>0</v>
+      </c>
+      <c r="AX24">
+        <v>4.04</v>
+      </c>
+      <c r="AY24">
+        <v>11</v>
+      </c>
+      <c r="AZ24">
+        <v>1.34</v>
+      </c>
+      <c r="BA24">
+        <v>1.15</v>
+      </c>
+      <c r="BB24">
+        <v>1.27</v>
+      </c>
+      <c r="BC24">
+        <v>1.5</v>
+      </c>
+      <c r="BD24">
+        <v>1.95</v>
+      </c>
+      <c r="BE24">
+        <v>2.34</v>
+      </c>
+      <c r="BF24">
+        <v>2</v>
+      </c>
+      <c r="BG24">
         <v>5</v>
       </c>
-      <c r="O24" t="s">
-        <v>112</v>
-      </c>
-      <c r="P24" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q24">
-        <v>1</v>
-      </c>
-      <c r="R24">
+      <c r="BH24">
+        <v>4</v>
+      </c>
+      <c r="BI24">
         <v>6</v>
       </c>
-      <c r="S24">
-        <v>7</v>
-      </c>
-      <c r="T24">
-        <v>2.1</v>
-      </c>
-      <c r="U24">
-        <v>2.16</v>
-      </c>
-      <c r="V24">
-        <v>6.5</v>
-      </c>
-      <c r="W24">
-        <v>1.44</v>
-      </c>
-      <c r="X24">
-        <v>2.68</v>
-      </c>
-      <c r="Y24">
-        <v>3.05</v>
-      </c>
-      <c r="Z24">
-        <v>1.35</v>
-      </c>
-      <c r="AA24">
-        <v>8.1</v>
-      </c>
-      <c r="AB24">
-        <v>1.06</v>
-      </c>
-      <c r="AC24">
-        <v>1.48</v>
-      </c>
-      <c r="AD24">
-        <v>3.85</v>
-      </c>
-      <c r="AE24">
-        <v>6.5</v>
-      </c>
-      <c r="AF24">
-        <v>1.03</v>
-      </c>
-      <c r="AG24">
-        <v>8</v>
-      </c>
-      <c r="AH24">
-        <v>1.34</v>
-      </c>
-      <c r="AI24">
-        <v>2.93</v>
-      </c>
-      <c r="AJ24">
-        <v>2.15</v>
-      </c>
-      <c r="AK24">
-        <v>1.65</v>
-      </c>
-      <c r="AL24">
-        <v>2.21</v>
-      </c>
-      <c r="AM24">
-        <v>1.62</v>
-      </c>
-      <c r="AN24">
-        <v>1.1</v>
-      </c>
-      <c r="AO24">
-        <v>1.24</v>
-      </c>
-      <c r="AP24">
-        <v>2.51</v>
-      </c>
-      <c r="AQ24">
-        <v>3</v>
-      </c>
-      <c r="AR24">
-        <v>0</v>
-      </c>
-      <c r="AS24">
-        <v>1.5</v>
-      </c>
-      <c r="AT24">
-        <v>1.5</v>
-      </c>
-      <c r="AU24">
-        <v>0</v>
-      </c>
-      <c r="AV24">
-        <v>0</v>
-      </c>
-      <c r="AW24">
-        <v>0</v>
-      </c>
-      <c r="AX24">
-        <v>1.59</v>
-      </c>
-      <c r="AY24">
-        <v>7.2</v>
-      </c>
-      <c r="AZ24">
-        <v>3.11</v>
-      </c>
-      <c r="BA24">
-        <v>1.3</v>
-      </c>
-      <c r="BB24">
-        <v>1.5</v>
-      </c>
-      <c r="BC24">
-        <v>1.9</v>
-      </c>
-      <c r="BD24">
-        <v>2.35</v>
-      </c>
-      <c r="BE24">
-        <v>3.15</v>
-      </c>
-      <c r="BF24">
-        <v>7</v>
-      </c>
-      <c r="BG24">
-        <v>7</v>
-      </c>
-      <c r="BH24">
-        <v>8</v>
-      </c>
-      <c r="BI24">
-        <v>7</v>
-      </c>
       <c r="BJ24">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="BK24">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:63">
@@ -5393,7 +5468,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>6527492</v>
+        <v>6527491</v>
       </c>
       <c r="C25" t="s">
         <v>63</v>
@@ -5411,172 +5486,172 @@
         <v>88</v>
       </c>
       <c r="H25" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L25">
         <v>2</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N25">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O25" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="P25" t="s">
-        <v>98</v>
+        <v>151</v>
       </c>
       <c r="Q25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R25">
+        <v>6</v>
+      </c>
+      <c r="S25">
         <v>7</v>
       </c>
-      <c r="S25">
-        <v>9</v>
-      </c>
       <c r="T25">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="U25">
-        <v>2</v>
+        <v>2.16</v>
       </c>
       <c r="V25">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="W25">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="X25">
-        <v>2.5</v>
+        <v>2.68</v>
       </c>
       <c r="Y25">
-        <v>3.25</v>
+        <v>3.05</v>
       </c>
       <c r="Z25">
+        <v>1.35</v>
+      </c>
+      <c r="AA25">
+        <v>8.1</v>
+      </c>
+      <c r="AB25">
+        <v>1.06</v>
+      </c>
+      <c r="AC25">
+        <v>1.48</v>
+      </c>
+      <c r="AD25">
+        <v>3.85</v>
+      </c>
+      <c r="AE25">
+        <v>6.5</v>
+      </c>
+      <c r="AF25">
+        <v>1.03</v>
+      </c>
+      <c r="AG25">
+        <v>8</v>
+      </c>
+      <c r="AH25">
+        <v>1.34</v>
+      </c>
+      <c r="AI25">
+        <v>2.93</v>
+      </c>
+      <c r="AJ25">
+        <v>2.15</v>
+      </c>
+      <c r="AK25">
+        <v>1.65</v>
+      </c>
+      <c r="AL25">
+        <v>2.21</v>
+      </c>
+      <c r="AM25">
+        <v>1.62</v>
+      </c>
+      <c r="AN25">
+        <v>1.1</v>
+      </c>
+      <c r="AO25">
+        <v>1.24</v>
+      </c>
+      <c r="AP25">
+        <v>2.51</v>
+      </c>
+      <c r="AQ25">
+        <v>3</v>
+      </c>
+      <c r="AR25">
+        <v>0</v>
+      </c>
+      <c r="AS25">
+        <v>1</v>
+      </c>
+      <c r="AT25">
+        <v>1.5</v>
+      </c>
+      <c r="AU25">
+        <v>0</v>
+      </c>
+      <c r="AV25">
+        <v>0</v>
+      </c>
+      <c r="AW25">
+        <v>0</v>
+      </c>
+      <c r="AX25">
+        <v>1.59</v>
+      </c>
+      <c r="AY25">
+        <v>7.2</v>
+      </c>
+      <c r="AZ25">
+        <v>3.11</v>
+      </c>
+      <c r="BA25">
         <v>1.3</v>
       </c>
-      <c r="AA25">
-        <v>8.449999999999999</v>
-      </c>
-      <c r="AB25">
-        <v>1.04</v>
-      </c>
-      <c r="AC25">
-        <v>2.4</v>
-      </c>
-      <c r="AD25">
-        <v>2.95</v>
-      </c>
-      <c r="AE25">
-        <v>3</v>
-      </c>
-      <c r="AF25">
-        <v>1.1</v>
-      </c>
-      <c r="AG25">
-        <v>6.5</v>
-      </c>
-      <c r="AH25">
-        <v>1.4</v>
-      </c>
-      <c r="AI25">
-        <v>2.8</v>
-      </c>
-      <c r="AJ25">
-        <v>2.33</v>
-      </c>
-      <c r="AK25">
-        <v>1.55</v>
-      </c>
-      <c r="AL25">
+      <c r="BB25">
+        <v>1.5</v>
+      </c>
+      <c r="BC25">
         <v>1.9</v>
       </c>
-      <c r="AM25">
-        <v>1.83</v>
-      </c>
-      <c r="AN25">
-        <v>1.36</v>
-      </c>
-      <c r="AO25">
-        <v>1.25</v>
-      </c>
-      <c r="AP25">
-        <v>1.53</v>
-      </c>
-      <c r="AQ25">
-        <v>1</v>
-      </c>
-      <c r="AR25">
-        <v>1</v>
-      </c>
-      <c r="AS25">
-        <v>2</v>
-      </c>
-      <c r="AT25">
-        <v>0.5</v>
-      </c>
-      <c r="AU25">
-        <v>0</v>
-      </c>
-      <c r="AV25">
-        <v>0</v>
-      </c>
-      <c r="AW25">
-        <v>0</v>
-      </c>
-      <c r="AX25">
-        <v>1.84</v>
-      </c>
-      <c r="AY25">
-        <v>8.9</v>
-      </c>
-      <c r="AZ25">
-        <v>2.33</v>
-      </c>
-      <c r="BA25">
-        <v>1.27</v>
-      </c>
-      <c r="BB25">
-        <v>1.52</v>
-      </c>
-      <c r="BC25">
-        <v>2</v>
-      </c>
       <c r="BD25">
-        <v>2.46</v>
+        <v>2.35</v>
       </c>
       <c r="BE25">
-        <v>3.34</v>
+        <v>3.15</v>
       </c>
       <c r="BF25">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="BG25">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="BH25">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="BI25">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="BJ25">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="BK25">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:63">
@@ -5584,7 +5659,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>6527480</v>
+        <v>6527492</v>
       </c>
       <c r="C26" t="s">
         <v>63</v>
@@ -5602,121 +5677,121 @@
         <v>89</v>
       </c>
       <c r="H26" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="I26">
         <v>0</v>
       </c>
       <c r="J26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N26">
         <v>2</v>
       </c>
       <c r="O26" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="P26" t="s">
-        <v>134</v>
+        <v>107</v>
       </c>
       <c r="Q26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R26">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="S26">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="T26">
-        <v>5.65</v>
+        <v>3.1</v>
       </c>
       <c r="U26">
-        <v>2.38</v>
+        <v>2</v>
       </c>
       <c r="V26">
-        <v>2.05</v>
+        <v>3.5</v>
       </c>
       <c r="W26">
-        <v>1.32</v>
+        <v>1.47</v>
       </c>
       <c r="X26">
-        <v>3.22</v>
+        <v>2.5</v>
       </c>
       <c r="Y26">
-        <v>2.52</v>
+        <v>3.25</v>
       </c>
       <c r="Z26">
-        <v>1.49</v>
+        <v>1.3</v>
       </c>
       <c r="AA26">
-        <v>6</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="AB26">
-        <v>1.11</v>
+        <v>1.04</v>
       </c>
       <c r="AC26">
-        <v>5.7</v>
+        <v>2.4</v>
       </c>
       <c r="AD26">
-        <v>4.1</v>
+        <v>2.95</v>
       </c>
       <c r="AE26">
+        <v>3</v>
+      </c>
+      <c r="AF26">
+        <v>1.1</v>
+      </c>
+      <c r="AG26">
+        <v>6.5</v>
+      </c>
+      <c r="AH26">
+        <v>1.4</v>
+      </c>
+      <c r="AI26">
+        <v>2.8</v>
+      </c>
+      <c r="AJ26">
+        <v>2.33</v>
+      </c>
+      <c r="AK26">
         <v>1.55</v>
       </c>
-      <c r="AF26">
-        <v>1.01</v>
-      </c>
-      <c r="AG26">
-        <v>10</v>
-      </c>
-      <c r="AH26">
-        <v>1.2</v>
-      </c>
-      <c r="AI26">
-        <v>3.95</v>
-      </c>
-      <c r="AJ26">
-        <v>1.73</v>
-      </c>
-      <c r="AK26">
-        <v>2.13</v>
-      </c>
       <c r="AL26">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="AM26">
-        <v>1.96</v>
+        <v>1.83</v>
       </c>
       <c r="AN26">
-        <v>2.48</v>
+        <v>1.36</v>
       </c>
       <c r="AO26">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="AP26">
-        <v>1.13</v>
+        <v>1.53</v>
       </c>
       <c r="AQ26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AS26">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AT26">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="AU26">
         <v>0</v>
@@ -5728,46 +5803,46 @@
         <v>0</v>
       </c>
       <c r="AX26">
-        <v>4.04</v>
+        <v>1.84</v>
       </c>
       <c r="AY26">
-        <v>11</v>
+        <v>8.9</v>
       </c>
       <c r="AZ26">
-        <v>1.34</v>
+        <v>2.33</v>
       </c>
       <c r="BA26">
-        <v>1.15</v>
+        <v>1.27</v>
       </c>
       <c r="BB26">
-        <v>1.27</v>
+        <v>1.52</v>
       </c>
       <c r="BC26">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="BD26">
-        <v>1.95</v>
+        <v>2.46</v>
       </c>
       <c r="BE26">
-        <v>2.34</v>
+        <v>3.34</v>
       </c>
       <c r="BF26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BG26">
+        <v>2</v>
+      </c>
+      <c r="BH26">
+        <v>2</v>
+      </c>
+      <c r="BI26">
+        <v>16</v>
+      </c>
+      <c r="BJ26">
         <v>5</v>
       </c>
-      <c r="BH26">
-        <v>4</v>
-      </c>
-      <c r="BI26">
-        <v>6</v>
-      </c>
-      <c r="BJ26">
-        <v>6</v>
-      </c>
       <c r="BK26">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:63">
@@ -5793,7 +5868,7 @@
         <v>90</v>
       </c>
       <c r="H27" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I27">
         <v>1</v>
@@ -5814,10 +5889,10 @@
         <v>3</v>
       </c>
       <c r="O27" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="P27" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="Q27">
         <v>4</v>
@@ -5904,7 +5979,7 @@
         <v>0</v>
       </c>
       <c r="AS27">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="AT27">
         <v>0</v>
@@ -6005,10 +6080,10 @@
         <v>3</v>
       </c>
       <c r="O28" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="P28" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="Q28">
         <v>1</v>
@@ -6098,7 +6173,7 @@
         <v>0</v>
       </c>
       <c r="AT28">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AU28">
         <v>0</v>
@@ -6157,7 +6232,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>6527483</v>
+        <v>6527486</v>
       </c>
       <c r="C29" t="s">
         <v>63</v>
@@ -6175,139 +6250,139 @@
         <v>92</v>
       </c>
       <c r="H29" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J29">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L29">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M29">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N29">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O29" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="P29" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="Q29">
+        <v>11</v>
+      </c>
+      <c r="R29">
+        <v>1</v>
+      </c>
+      <c r="S29">
         <v>12</v>
       </c>
-      <c r="R29">
-        <v>3</v>
-      </c>
-      <c r="S29">
-        <v>15</v>
-      </c>
       <c r="T29">
-        <v>1.65</v>
+        <v>1.46</v>
       </c>
       <c r="U29">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="V29">
-        <v>9.5</v>
+        <v>10.5</v>
       </c>
       <c r="W29">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="X29">
-        <v>3.05</v>
+        <v>3.8</v>
       </c>
       <c r="Y29">
-        <v>2.55</v>
+        <v>2.1</v>
       </c>
       <c r="Z29">
-        <v>1.45</v>
+        <v>1.62</v>
       </c>
       <c r="AA29">
-        <v>6</v>
+        <v>4.75</v>
       </c>
       <c r="AB29">
-        <v>1.1</v>
+        <v>1.16</v>
       </c>
       <c r="AC29">
-        <v>1.2</v>
+        <v>1.11</v>
       </c>
       <c r="AD29">
-        <v>5.6</v>
+        <v>7.5</v>
       </c>
       <c r="AE29">
-        <v>11</v>
+        <v>15.5</v>
       </c>
       <c r="AF29">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="AG29">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AH29">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AI29">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="AJ29">
-        <v>1.68</v>
+        <v>1.44</v>
       </c>
       <c r="AK29">
-        <v>2.1</v>
+        <v>2.65</v>
       </c>
       <c r="AL29">
         <v>2.55</v>
       </c>
       <c r="AM29">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="AN29">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="AO29">
+        <v>1.06</v>
+      </c>
+      <c r="AP29">
+        <v>6</v>
+      </c>
+      <c r="AQ29">
+        <v>3</v>
+      </c>
+      <c r="AR29">
+        <v>0</v>
+      </c>
+      <c r="AS29">
+        <v>2</v>
+      </c>
+      <c r="AT29">
+        <v>0</v>
+      </c>
+      <c r="AU29">
+        <v>0</v>
+      </c>
+      <c r="AV29">
+        <v>0</v>
+      </c>
+      <c r="AW29">
+        <v>0</v>
+      </c>
+      <c r="AX29">
         <v>1.09</v>
       </c>
-      <c r="AP29">
-        <v>3.6</v>
-      </c>
-      <c r="AQ29">
-        <v>1</v>
-      </c>
-      <c r="AR29">
-        <v>1</v>
-      </c>
-      <c r="AS29">
-        <v>0.5</v>
-      </c>
-      <c r="AT29">
-        <v>2</v>
-      </c>
-      <c r="AU29">
-        <v>0</v>
-      </c>
-      <c r="AV29">
-        <v>0</v>
-      </c>
-      <c r="AW29">
-        <v>0</v>
-      </c>
-      <c r="AX29">
-        <v>1.13</v>
-      </c>
       <c r="AY29">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AZ29">
-        <v>7.2</v>
+        <v>9.9</v>
       </c>
       <c r="BA29">
         <v>1.26</v>
@@ -6316,7 +6391,7 @@
         <v>1.5</v>
       </c>
       <c r="BC29">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="BD29">
         <v>2.5</v>
@@ -6325,22 +6400,22 @@
         <v>3.5</v>
       </c>
       <c r="BF29">
+        <v>13</v>
+      </c>
+      <c r="BG29">
+        <v>0</v>
+      </c>
+      <c r="BH29">
+        <v>6</v>
+      </c>
+      <c r="BI29">
         <v>4</v>
       </c>
-      <c r="BG29">
-        <v>8</v>
-      </c>
-      <c r="BH29">
-        <v>14</v>
-      </c>
-      <c r="BI29">
-        <v>2</v>
-      </c>
       <c r="BJ29">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BK29">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:63">
@@ -6348,7 +6423,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>6527493</v>
+        <v>6527483</v>
       </c>
       <c r="C30" t="s">
         <v>63</v>
@@ -6366,109 +6441,109 @@
         <v>93</v>
       </c>
       <c r="H30" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N30">
         <v>3</v>
       </c>
       <c r="O30" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="P30" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="Q30">
+        <v>12</v>
+      </c>
+      <c r="R30">
+        <v>3</v>
+      </c>
+      <c r="S30">
+        <v>15</v>
+      </c>
+      <c r="T30">
+        <v>1.65</v>
+      </c>
+      <c r="U30">
+        <v>2.5</v>
+      </c>
+      <c r="V30">
+        <v>9.5</v>
+      </c>
+      <c r="W30">
+        <v>1.33</v>
+      </c>
+      <c r="X30">
+        <v>3.05</v>
+      </c>
+      <c r="Y30">
+        <v>2.55</v>
+      </c>
+      <c r="Z30">
+        <v>1.45</v>
+      </c>
+      <c r="AA30">
         <v>6</v>
       </c>
-      <c r="R30">
-        <v>5</v>
-      </c>
-      <c r="S30">
+      <c r="AB30">
+        <v>1.1</v>
+      </c>
+      <c r="AC30">
+        <v>1.2</v>
+      </c>
+      <c r="AD30">
+        <v>5.6</v>
+      </c>
+      <c r="AE30">
         <v>11</v>
       </c>
-      <c r="T30">
-        <v>3</v>
-      </c>
-      <c r="U30">
-        <v>2</v>
-      </c>
-      <c r="V30">
+      <c r="AF30">
+        <v>1.05</v>
+      </c>
+      <c r="AG30">
+        <v>9</v>
+      </c>
+      <c r="AH30">
+        <v>1.25</v>
+      </c>
+      <c r="AI30">
+        <v>3.75</v>
+      </c>
+      <c r="AJ30">
+        <v>1.68</v>
+      </c>
+      <c r="AK30">
+        <v>2.1</v>
+      </c>
+      <c r="AL30">
+        <v>2.55</v>
+      </c>
+      <c r="AM30">
+        <v>1.46</v>
+      </c>
+      <c r="AN30">
+        <v>1.04</v>
+      </c>
+      <c r="AO30">
+        <v>1.09</v>
+      </c>
+      <c r="AP30">
         <v>3.6</v>
-      </c>
-      <c r="W30">
-        <v>1.47</v>
-      </c>
-      <c r="X30">
-        <v>2.45</v>
-      </c>
-      <c r="Y30">
-        <v>3.25</v>
-      </c>
-      <c r="Z30">
-        <v>1.3</v>
-      </c>
-      <c r="AA30">
-        <v>9</v>
-      </c>
-      <c r="AB30">
-        <v>1.06</v>
-      </c>
-      <c r="AC30">
-        <v>2.4</v>
-      </c>
-      <c r="AD30">
-        <v>3.1</v>
-      </c>
-      <c r="AE30">
-        <v>3</v>
-      </c>
-      <c r="AF30">
-        <v>1.07</v>
-      </c>
-      <c r="AG30">
-        <v>7.5</v>
-      </c>
-      <c r="AH30">
-        <v>1.4</v>
-      </c>
-      <c r="AI30">
-        <v>2.85</v>
-      </c>
-      <c r="AJ30">
-        <v>2.3</v>
-      </c>
-      <c r="AK30">
-        <v>1.57</v>
-      </c>
-      <c r="AL30">
-        <v>1.95</v>
-      </c>
-      <c r="AM30">
-        <v>1.8</v>
-      </c>
-      <c r="AN30">
-        <v>1.3</v>
-      </c>
-      <c r="AO30">
-        <v>1.28</v>
-      </c>
-      <c r="AP30">
-        <v>1.57</v>
       </c>
       <c r="AQ30">
         <v>1</v>
@@ -6480,7 +6555,7 @@
         <v>0.5</v>
       </c>
       <c r="AT30">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AU30">
         <v>0</v>
@@ -6492,46 +6567,46 @@
         <v>0</v>
       </c>
       <c r="AX30">
-        <v>1.79</v>
+        <v>1.13</v>
       </c>
       <c r="AY30">
-        <v>7.7</v>
+        <v>16</v>
       </c>
       <c r="AZ30">
-        <v>2.51</v>
+        <v>7.2</v>
       </c>
       <c r="BA30">
-        <v>1.23</v>
+        <v>1.26</v>
       </c>
       <c r="BB30">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="BC30">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="BD30">
-        <v>2.35</v>
+        <v>2.5</v>
       </c>
       <c r="BE30">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="BF30">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="BG30">
         <v>8</v>
       </c>
       <c r="BH30">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BI30">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BJ30">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="BK30">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:63">
@@ -6539,7 +6614,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>6527486</v>
+        <v>6527493</v>
       </c>
       <c r="C31" t="s">
         <v>63</v>
@@ -6557,172 +6632,172 @@
         <v>94</v>
       </c>
       <c r="H31" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="I31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J31">
         <v>0</v>
       </c>
       <c r="K31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L31">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N31">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O31" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="P31" t="s">
-        <v>98</v>
+        <v>155</v>
       </c>
       <c r="Q31">
+        <v>6</v>
+      </c>
+      <c r="R31">
+        <v>5</v>
+      </c>
+      <c r="S31">
         <v>11</v>
       </c>
-      <c r="R31">
-        <v>1</v>
-      </c>
-      <c r="S31">
+      <c r="T31">
+        <v>3</v>
+      </c>
+      <c r="U31">
+        <v>2</v>
+      </c>
+      <c r="V31">
+        <v>3.6</v>
+      </c>
+      <c r="W31">
+        <v>1.47</v>
+      </c>
+      <c r="X31">
+        <v>2.45</v>
+      </c>
+      <c r="Y31">
+        <v>3.25</v>
+      </c>
+      <c r="Z31">
+        <v>1.3</v>
+      </c>
+      <c r="AA31">
+        <v>9</v>
+      </c>
+      <c r="AB31">
+        <v>1.06</v>
+      </c>
+      <c r="AC31">
+        <v>2.4</v>
+      </c>
+      <c r="AD31">
+        <v>3.1</v>
+      </c>
+      <c r="AE31">
+        <v>3</v>
+      </c>
+      <c r="AF31">
+        <v>1.07</v>
+      </c>
+      <c r="AG31">
+        <v>7.5</v>
+      </c>
+      <c r="AH31">
+        <v>1.4</v>
+      </c>
+      <c r="AI31">
+        <v>2.85</v>
+      </c>
+      <c r="AJ31">
+        <v>2.3</v>
+      </c>
+      <c r="AK31">
+        <v>1.57</v>
+      </c>
+      <c r="AL31">
+        <v>1.95</v>
+      </c>
+      <c r="AM31">
+        <v>1.8</v>
+      </c>
+      <c r="AN31">
+        <v>1.3</v>
+      </c>
+      <c r="AO31">
+        <v>1.28</v>
+      </c>
+      <c r="AP31">
+        <v>1.57</v>
+      </c>
+      <c r="AQ31">
+        <v>1</v>
+      </c>
+      <c r="AR31">
+        <v>1</v>
+      </c>
+      <c r="AS31">
+        <v>0.5</v>
+      </c>
+      <c r="AT31">
+        <v>1.33</v>
+      </c>
+      <c r="AU31">
+        <v>0</v>
+      </c>
+      <c r="AV31">
+        <v>0</v>
+      </c>
+      <c r="AW31">
+        <v>0</v>
+      </c>
+      <c r="AX31">
+        <v>1.79</v>
+      </c>
+      <c r="AY31">
+        <v>7.7</v>
+      </c>
+      <c r="AZ31">
+        <v>2.51</v>
+      </c>
+      <c r="BA31">
+        <v>1.23</v>
+      </c>
+      <c r="BB31">
+        <v>1.44</v>
+      </c>
+      <c r="BC31">
+        <v>1.95</v>
+      </c>
+      <c r="BD31">
+        <v>2.35</v>
+      </c>
+      <c r="BE31">
+        <v>3.25</v>
+      </c>
+      <c r="BF31">
+        <v>9</v>
+      </c>
+      <c r="BG31">
+        <v>8</v>
+      </c>
+      <c r="BH31">
         <v>12</v>
       </c>
-      <c r="T31">
-        <v>1.46</v>
-      </c>
-      <c r="U31">
-        <v>3</v>
-      </c>
-      <c r="V31">
-        <v>10.5</v>
-      </c>
-      <c r="W31">
-        <v>1.23</v>
-      </c>
-      <c r="X31">
-        <v>3.8</v>
-      </c>
-      <c r="Y31">
-        <v>2.1</v>
-      </c>
-      <c r="Z31">
-        <v>1.62</v>
-      </c>
-      <c r="AA31">
-        <v>4.75</v>
-      </c>
-      <c r="AB31">
-        <v>1.16</v>
-      </c>
-      <c r="AC31">
-        <v>1.11</v>
-      </c>
-      <c r="AD31">
-        <v>7.5</v>
-      </c>
-      <c r="AE31">
-        <v>15.5</v>
-      </c>
-      <c r="AF31">
-        <v>1.02</v>
-      </c>
-      <c r="AG31">
+      <c r="BI31">
+        <v>5</v>
+      </c>
+      <c r="BJ31">
+        <v>21</v>
+      </c>
+      <c r="BK31">
         <v>13</v>
-      </c>
-      <c r="AH31">
-        <v>1.15</v>
-      </c>
-      <c r="AI31">
-        <v>4.75</v>
-      </c>
-      <c r="AJ31">
-        <v>1.44</v>
-      </c>
-      <c r="AK31">
-        <v>2.65</v>
-      </c>
-      <c r="AL31">
-        <v>2.55</v>
-      </c>
-      <c r="AM31">
-        <v>1.44</v>
-      </c>
-      <c r="AN31">
-        <v>1.02</v>
-      </c>
-      <c r="AO31">
-        <v>1.06</v>
-      </c>
-      <c r="AP31">
-        <v>6</v>
-      </c>
-      <c r="AQ31">
-        <v>3</v>
-      </c>
-      <c r="AR31">
-        <v>0</v>
-      </c>
-      <c r="AS31">
-        <v>3</v>
-      </c>
-      <c r="AT31">
-        <v>0</v>
-      </c>
-      <c r="AU31">
-        <v>0</v>
-      </c>
-      <c r="AV31">
-        <v>0</v>
-      </c>
-      <c r="AW31">
-        <v>0</v>
-      </c>
-      <c r="AX31">
-        <v>1.09</v>
-      </c>
-      <c r="AY31">
-        <v>15</v>
-      </c>
-      <c r="AZ31">
-        <v>9.9</v>
-      </c>
-      <c r="BA31">
-        <v>1.26</v>
-      </c>
-      <c r="BB31">
-        <v>1.5</v>
-      </c>
-      <c r="BC31">
-        <v>2</v>
-      </c>
-      <c r="BD31">
-        <v>2.5</v>
-      </c>
-      <c r="BE31">
-        <v>3.5</v>
-      </c>
-      <c r="BF31">
-        <v>13</v>
-      </c>
-      <c r="BG31">
-        <v>0</v>
-      </c>
-      <c r="BH31">
-        <v>6</v>
-      </c>
-      <c r="BI31">
-        <v>4</v>
-      </c>
-      <c r="BJ31">
-        <v>19</v>
-      </c>
-      <c r="BK31">
-        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:63">
@@ -6769,10 +6844,10 @@
         <v>2</v>
       </c>
       <c r="O32" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="P32" t="s">
-        <v>139</v>
+        <v>156</v>
       </c>
       <c r="Q32">
         <v>8</v>
@@ -6862,7 +6937,7 @@
         <v>0.5</v>
       </c>
       <c r="AT32">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AU32">
         <v>0</v>
@@ -6939,7 +7014,7 @@
         <v>96</v>
       </c>
       <c r="H33" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I33">
         <v>2</v>
@@ -6960,10 +7035,10 @@
         <v>4</v>
       </c>
       <c r="O33" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="P33" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="Q33">
         <v>8</v>
@@ -7050,7 +7125,7 @@
         <v>3</v>
       </c>
       <c r="AS33">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT33">
         <v>1.5</v>
@@ -7151,10 +7226,10 @@
         <v>4</v>
       </c>
       <c r="O34" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="P34" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="Q34">
         <v>8</v>
@@ -7244,7 +7319,7 @@
         <v>0.5</v>
       </c>
       <c r="AT34">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AU34">
         <v>0</v>
@@ -7296,6 +7371,2298 @@
       </c>
       <c r="BK34">
         <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:63">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>6960585</v>
+      </c>
+      <c r="C35" t="s">
+        <v>63</v>
+      </c>
+      <c r="D35" t="s">
+        <v>64</v>
+      </c>
+      <c r="E35" s="2">
+        <v>45132.54166666666</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35" t="s">
+        <v>79</v>
+      </c>
+      <c r="H35" t="s">
+        <v>102</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35" t="s">
+        <v>109</v>
+      </c>
+      <c r="P35" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q35">
+        <v>2</v>
+      </c>
+      <c r="R35">
+        <v>7</v>
+      </c>
+      <c r="S35">
+        <v>9</v>
+      </c>
+      <c r="T35">
+        <v>4.2</v>
+      </c>
+      <c r="U35">
+        <v>2</v>
+      </c>
+      <c r="V35">
+        <v>2.65</v>
+      </c>
+      <c r="W35">
+        <v>1.47</v>
+      </c>
+      <c r="X35">
+        <v>2.5</v>
+      </c>
+      <c r="Y35">
+        <v>3.15</v>
+      </c>
+      <c r="Z35">
+        <v>1.32</v>
+      </c>
+      <c r="AA35">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="AB35">
+        <v>1.04</v>
+      </c>
+      <c r="AC35">
+        <v>4.5</v>
+      </c>
+      <c r="AD35">
+        <v>3.7</v>
+      </c>
+      <c r="AE35">
+        <v>1.77</v>
+      </c>
+      <c r="AF35">
+        <v>1.06</v>
+      </c>
+      <c r="AG35">
+        <v>8</v>
+      </c>
+      <c r="AH35">
+        <v>1.38</v>
+      </c>
+      <c r="AI35">
+        <v>2.9</v>
+      </c>
+      <c r="AJ35">
+        <v>2.06</v>
+      </c>
+      <c r="AK35">
+        <v>1.77</v>
+      </c>
+      <c r="AL35">
+        <v>1.95</v>
+      </c>
+      <c r="AM35">
+        <v>1.8</v>
+      </c>
+      <c r="AN35">
+        <v>1.78</v>
+      </c>
+      <c r="AO35">
+        <v>1.25</v>
+      </c>
+      <c r="AP35">
+        <v>1.25</v>
+      </c>
+      <c r="AQ35">
+        <v>2</v>
+      </c>
+      <c r="AR35">
+        <v>0</v>
+      </c>
+      <c r="AS35">
+        <v>2.33</v>
+      </c>
+      <c r="AT35">
+        <v>0</v>
+      </c>
+      <c r="AU35">
+        <v>1.26</v>
+      </c>
+      <c r="AV35">
+        <v>0</v>
+      </c>
+      <c r="AW35">
+        <v>1.26</v>
+      </c>
+      <c r="AX35">
+        <v>3.5</v>
+      </c>
+      <c r="AY35">
+        <v>8</v>
+      </c>
+      <c r="AZ35">
+        <v>1.45</v>
+      </c>
+      <c r="BA35">
+        <v>1.18</v>
+      </c>
+      <c r="BB35">
+        <v>1.29</v>
+      </c>
+      <c r="BC35">
+        <v>1.53</v>
+      </c>
+      <c r="BD35">
+        <v>1.94</v>
+      </c>
+      <c r="BE35">
+        <v>2.5</v>
+      </c>
+      <c r="BF35">
+        <v>5</v>
+      </c>
+      <c r="BG35">
+        <v>6</v>
+      </c>
+      <c r="BH35">
+        <v>3</v>
+      </c>
+      <c r="BI35">
+        <v>5</v>
+      </c>
+      <c r="BJ35">
+        <v>8</v>
+      </c>
+      <c r="BK35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:63">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>6948867</v>
+      </c>
+      <c r="C36" t="s">
+        <v>63</v>
+      </c>
+      <c r="D36" t="s">
+        <v>64</v>
+      </c>
+      <c r="E36" s="2">
+        <v>45132.54166666666</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36" t="s">
+        <v>70</v>
+      </c>
+      <c r="H36" t="s">
+        <v>103</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>2</v>
+      </c>
+      <c r="M36">
+        <v>2</v>
+      </c>
+      <c r="N36">
+        <v>4</v>
+      </c>
+      <c r="O36" t="s">
+        <v>129</v>
+      </c>
+      <c r="P36" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q36">
+        <v>3</v>
+      </c>
+      <c r="R36">
+        <v>8</v>
+      </c>
+      <c r="S36">
+        <v>11</v>
+      </c>
+      <c r="T36">
+        <v>5.6</v>
+      </c>
+      <c r="U36">
+        <v>2.31</v>
+      </c>
+      <c r="V36">
+        <v>2.11</v>
+      </c>
+      <c r="W36">
+        <v>1.35</v>
+      </c>
+      <c r="X36">
+        <v>3.05</v>
+      </c>
+      <c r="Y36">
+        <v>2.61</v>
+      </c>
+      <c r="Z36">
+        <v>1.46</v>
+      </c>
+      <c r="AA36">
+        <v>6.4</v>
+      </c>
+      <c r="AB36">
+        <v>1.1</v>
+      </c>
+      <c r="AC36">
+        <v>5</v>
+      </c>
+      <c r="AD36">
+        <v>4</v>
+      </c>
+      <c r="AE36">
+        <v>1.63</v>
+      </c>
+      <c r="AF36">
+        <v>1.05</v>
+      </c>
+      <c r="AG36">
+        <v>9.75</v>
+      </c>
+      <c r="AH36">
+        <v>1.28</v>
+      </c>
+      <c r="AI36">
+        <v>3.4</v>
+      </c>
+      <c r="AJ36">
+        <v>1.93</v>
+      </c>
+      <c r="AK36">
+        <v>1.88</v>
+      </c>
+      <c r="AL36">
+        <v>1.85</v>
+      </c>
+      <c r="AM36">
+        <v>1.91</v>
+      </c>
+      <c r="AN36">
+        <v>2.41</v>
+      </c>
+      <c r="AO36">
+        <v>1.22</v>
+      </c>
+      <c r="AP36">
+        <v>1.14</v>
+      </c>
+      <c r="AQ36">
+        <v>2</v>
+      </c>
+      <c r="AR36">
+        <v>0</v>
+      </c>
+      <c r="AS36">
+        <v>1.67</v>
+      </c>
+      <c r="AT36">
+        <v>1</v>
+      </c>
+      <c r="AU36">
+        <v>1.51</v>
+      </c>
+      <c r="AV36">
+        <v>0</v>
+      </c>
+      <c r="AW36">
+        <v>1.51</v>
+      </c>
+      <c r="AX36">
+        <v>4</v>
+      </c>
+      <c r="AY36">
+        <v>8</v>
+      </c>
+      <c r="AZ36">
+        <v>1.38</v>
+      </c>
+      <c r="BA36">
+        <v>1.18</v>
+      </c>
+      <c r="BB36">
+        <v>1.32</v>
+      </c>
+      <c r="BC36">
+        <v>1.57</v>
+      </c>
+      <c r="BD36">
+        <v>2.03</v>
+      </c>
+      <c r="BE36">
+        <v>2.62</v>
+      </c>
+      <c r="BF36">
+        <v>7</v>
+      </c>
+      <c r="BG36">
+        <v>8</v>
+      </c>
+      <c r="BH36">
+        <v>6</v>
+      </c>
+      <c r="BI36">
+        <v>16</v>
+      </c>
+      <c r="BJ36">
+        <v>13</v>
+      </c>
+      <c r="BK36">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="37" spans="1:63">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>6960586</v>
+      </c>
+      <c r="C37" t="s">
+        <v>63</v>
+      </c>
+      <c r="D37" t="s">
+        <v>64</v>
+      </c>
+      <c r="E37" s="2">
+        <v>45132.625</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37" t="s">
+        <v>98</v>
+      </c>
+      <c r="H37" t="s">
+        <v>78</v>
+      </c>
+      <c r="I37">
+        <v>3</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>4</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>4</v>
+      </c>
+      <c r="O37" t="s">
+        <v>130</v>
+      </c>
+      <c r="P37" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q37">
+        <v>15</v>
+      </c>
+      <c r="R37">
+        <v>3</v>
+      </c>
+      <c r="S37">
+        <v>18</v>
+      </c>
+      <c r="T37">
+        <v>2.1</v>
+      </c>
+      <c r="U37">
+        <v>2.28</v>
+      </c>
+      <c r="V37">
+        <v>5.86</v>
+      </c>
+      <c r="W37">
+        <v>1.37</v>
+      </c>
+      <c r="X37">
+        <v>2.96</v>
+      </c>
+      <c r="Y37">
+        <v>2.71</v>
+      </c>
+      <c r="Z37">
+        <v>1.43</v>
+      </c>
+      <c r="AA37">
+        <v>6.75</v>
+      </c>
+      <c r="AB37">
+        <v>1.09</v>
+      </c>
+      <c r="AC37">
+        <v>1.42</v>
+      </c>
+      <c r="AD37">
+        <v>4.33</v>
+      </c>
+      <c r="AE37">
+        <v>7.5</v>
+      </c>
+      <c r="AF37">
+        <v>1.05</v>
+      </c>
+      <c r="AG37">
+        <v>9.75</v>
+      </c>
+      <c r="AH37">
+        <v>1.28</v>
+      </c>
+      <c r="AI37">
+        <v>3.4</v>
+      </c>
+      <c r="AJ37">
+        <v>1.9</v>
+      </c>
+      <c r="AK37">
+        <v>1.85</v>
+      </c>
+      <c r="AL37">
+        <v>1.92</v>
+      </c>
+      <c r="AM37">
+        <v>1.84</v>
+      </c>
+      <c r="AN37">
+        <v>1.12</v>
+      </c>
+      <c r="AO37">
+        <v>1.23</v>
+      </c>
+      <c r="AP37">
+        <v>2.46</v>
+      </c>
+      <c r="AQ37">
+        <v>0</v>
+      </c>
+      <c r="AR37">
+        <v>2</v>
+      </c>
+      <c r="AS37">
+        <v>3</v>
+      </c>
+      <c r="AT37">
+        <v>1.33</v>
+      </c>
+      <c r="AU37">
+        <v>0</v>
+      </c>
+      <c r="AV37">
+        <v>1.86</v>
+      </c>
+      <c r="AW37">
+        <v>1.86</v>
+      </c>
+      <c r="AX37">
+        <v>1.3</v>
+      </c>
+      <c r="AY37">
+        <v>8</v>
+      </c>
+      <c r="AZ37">
+        <v>4.75</v>
+      </c>
+      <c r="BA37">
+        <v>1.44</v>
+      </c>
+      <c r="BB37">
+        <v>1.9</v>
+      </c>
+      <c r="BC37">
+        <v>2.45</v>
+      </c>
+      <c r="BD37">
+        <v>3.4</v>
+      </c>
+      <c r="BE37">
+        <v>4.8</v>
+      </c>
+      <c r="BF37">
+        <v>10</v>
+      </c>
+      <c r="BG37">
+        <v>0</v>
+      </c>
+      <c r="BH37">
+        <v>5</v>
+      </c>
+      <c r="BI37">
+        <v>6</v>
+      </c>
+      <c r="BJ37">
+        <v>15</v>
+      </c>
+      <c r="BK37">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:63">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>6534690</v>
+      </c>
+      <c r="C38" t="s">
+        <v>63</v>
+      </c>
+      <c r="D38" t="s">
+        <v>64</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45132.625</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38" t="s">
+        <v>99</v>
+      </c>
+      <c r="H38" t="s">
+        <v>104</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>1</v>
+      </c>
+      <c r="K38">
+        <v>1</v>
+      </c>
+      <c r="L38">
+        <v>1</v>
+      </c>
+      <c r="M38">
+        <v>3</v>
+      </c>
+      <c r="N38">
+        <v>4</v>
+      </c>
+      <c r="O38" t="s">
+        <v>131</v>
+      </c>
+      <c r="P38" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q38">
+        <v>4</v>
+      </c>
+      <c r="R38">
+        <v>2</v>
+      </c>
+      <c r="S38">
+        <v>6</v>
+      </c>
+      <c r="T38">
+        <v>3.65</v>
+      </c>
+      <c r="U38">
+        <v>1.98</v>
+      </c>
+      <c r="V38">
+        <v>3.15</v>
+      </c>
+      <c r="W38">
+        <v>1.43</v>
+      </c>
+      <c r="X38">
+        <v>2.6</v>
+      </c>
+      <c r="Y38">
+        <v>3.3</v>
+      </c>
+      <c r="Z38">
+        <v>1.28</v>
+      </c>
+      <c r="AA38">
+        <v>9.5</v>
+      </c>
+      <c r="AB38">
+        <v>1.04</v>
+      </c>
+      <c r="AC38">
+        <v>3.4</v>
+      </c>
+      <c r="AD38">
+        <v>3.1</v>
+      </c>
+      <c r="AE38">
+        <v>2.1</v>
+      </c>
+      <c r="AF38">
+        <v>1.07</v>
+      </c>
+      <c r="AG38">
+        <v>8</v>
+      </c>
+      <c r="AH38">
+        <v>1.36</v>
+      </c>
+      <c r="AI38">
+        <v>2.95</v>
+      </c>
+      <c r="AJ38">
+        <v>2.1</v>
+      </c>
+      <c r="AK38">
+        <v>1.68</v>
+      </c>
+      <c r="AL38">
+        <v>1.87</v>
+      </c>
+      <c r="AM38">
+        <v>1.85</v>
+      </c>
+      <c r="AN38">
+        <v>1.5</v>
+      </c>
+      <c r="AO38">
+        <v>1.33</v>
+      </c>
+      <c r="AP38">
+        <v>1.35</v>
+      </c>
+      <c r="AQ38">
+        <v>0</v>
+      </c>
+      <c r="AR38">
+        <v>0</v>
+      </c>
+      <c r="AS38">
+        <v>0</v>
+      </c>
+      <c r="AT38">
+        <v>3</v>
+      </c>
+      <c r="AU38">
+        <v>0</v>
+      </c>
+      <c r="AV38">
+        <v>0</v>
+      </c>
+      <c r="AW38">
+        <v>0</v>
+      </c>
+      <c r="AX38">
+        <v>2.4</v>
+      </c>
+      <c r="AY38">
+        <v>7</v>
+      </c>
+      <c r="AZ38">
+        <v>1.85</v>
+      </c>
+      <c r="BA38">
+        <v>1.32</v>
+      </c>
+      <c r="BB38">
+        <v>1.6</v>
+      </c>
+      <c r="BC38">
+        <v>2.05</v>
+      </c>
+      <c r="BD38">
+        <v>2.8</v>
+      </c>
+      <c r="BE38">
+        <v>4</v>
+      </c>
+      <c r="BF38">
+        <v>4</v>
+      </c>
+      <c r="BG38">
+        <v>4</v>
+      </c>
+      <c r="BH38">
+        <v>7</v>
+      </c>
+      <c r="BI38">
+        <v>4</v>
+      </c>
+      <c r="BJ38">
+        <v>11</v>
+      </c>
+      <c r="BK38">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:63">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>6534691</v>
+      </c>
+      <c r="C39" t="s">
+        <v>63</v>
+      </c>
+      <c r="D39" t="s">
+        <v>64</v>
+      </c>
+      <c r="E39" s="2">
+        <v>45132.64583333334</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39" t="s">
+        <v>100</v>
+      </c>
+      <c r="H39" t="s">
+        <v>105</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>1</v>
+      </c>
+      <c r="K39">
+        <v>1</v>
+      </c>
+      <c r="L39">
+        <v>1</v>
+      </c>
+      <c r="M39">
+        <v>1</v>
+      </c>
+      <c r="N39">
+        <v>2</v>
+      </c>
+      <c r="O39" t="s">
+        <v>132</v>
+      </c>
+      <c r="P39" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q39">
+        <v>5</v>
+      </c>
+      <c r="R39">
+        <v>6</v>
+      </c>
+      <c r="S39">
+        <v>11</v>
+      </c>
+      <c r="T39">
+        <v>3.5</v>
+      </c>
+      <c r="U39">
+        <v>2.1</v>
+      </c>
+      <c r="V39">
+        <v>2.75</v>
+      </c>
+      <c r="W39">
+        <v>1.36</v>
+      </c>
+      <c r="X39">
+        <v>3</v>
+      </c>
+      <c r="Y39">
+        <v>2.75</v>
+      </c>
+      <c r="Z39">
+        <v>1.4</v>
+      </c>
+      <c r="AA39">
+        <v>6</v>
+      </c>
+      <c r="AB39">
+        <v>1.11</v>
+      </c>
+      <c r="AC39">
+        <v>2.75</v>
+      </c>
+      <c r="AD39">
+        <v>3.45</v>
+      </c>
+      <c r="AE39">
+        <v>2.25</v>
+      </c>
+      <c r="AF39">
+        <v>1.05</v>
+      </c>
+      <c r="AG39">
+        <v>9</v>
+      </c>
+      <c r="AH39">
+        <v>1.29</v>
+      </c>
+      <c r="AI39">
+        <v>3.5</v>
+      </c>
+      <c r="AJ39">
+        <v>1.86</v>
+      </c>
+      <c r="AK39">
+        <v>1.86</v>
+      </c>
+      <c r="AL39">
+        <v>1.73</v>
+      </c>
+      <c r="AM39">
+        <v>2</v>
+      </c>
+      <c r="AN39">
+        <v>1.6</v>
+      </c>
+      <c r="AO39">
+        <v>1.29</v>
+      </c>
+      <c r="AP39">
+        <v>1.4</v>
+      </c>
+      <c r="AQ39">
+        <v>0</v>
+      </c>
+      <c r="AR39">
+        <v>0</v>
+      </c>
+      <c r="AS39">
+        <v>1</v>
+      </c>
+      <c r="AT39">
+        <v>1</v>
+      </c>
+      <c r="AU39">
+        <v>0</v>
+      </c>
+      <c r="AV39">
+        <v>0</v>
+      </c>
+      <c r="AW39">
+        <v>0</v>
+      </c>
+      <c r="AX39">
+        <v>1.88</v>
+      </c>
+      <c r="AY39">
+        <v>7.5</v>
+      </c>
+      <c r="AZ39">
+        <v>2.3</v>
+      </c>
+      <c r="BA39">
+        <v>1.18</v>
+      </c>
+      <c r="BB39">
+        <v>1.35</v>
+      </c>
+      <c r="BC39">
+        <v>1.63</v>
+      </c>
+      <c r="BD39">
+        <v>2.1</v>
+      </c>
+      <c r="BE39">
+        <v>2.8</v>
+      </c>
+      <c r="BF39">
+        <v>8</v>
+      </c>
+      <c r="BG39">
+        <v>6</v>
+      </c>
+      <c r="BH39">
+        <v>7</v>
+      </c>
+      <c r="BI39">
+        <v>3</v>
+      </c>
+      <c r="BJ39">
+        <v>15</v>
+      </c>
+      <c r="BK39">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:63">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>6960587</v>
+      </c>
+      <c r="C40" t="s">
+        <v>63</v>
+      </c>
+      <c r="D40" t="s">
+        <v>64</v>
+      </c>
+      <c r="E40" s="2">
+        <v>45132.66666666666</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40" t="s">
+        <v>88</v>
+      </c>
+      <c r="H40" t="s">
+        <v>82</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <v>1</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40" t="s">
+        <v>107</v>
+      </c>
+      <c r="P40" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q40">
+        <v>6</v>
+      </c>
+      <c r="R40">
+        <v>3</v>
+      </c>
+      <c r="S40">
+        <v>9</v>
+      </c>
+      <c r="T40">
+        <v>3.18</v>
+      </c>
+      <c r="U40">
+        <v>2.03</v>
+      </c>
+      <c r="V40">
+        <v>3.5</v>
+      </c>
+      <c r="W40">
+        <v>1.46</v>
+      </c>
+      <c r="X40">
+        <v>2.61</v>
+      </c>
+      <c r="Y40">
+        <v>3.16</v>
+      </c>
+      <c r="Z40">
+        <v>1.33</v>
+      </c>
+      <c r="AA40">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AB40">
+        <v>1.06</v>
+      </c>
+      <c r="AC40">
+        <v>2.6</v>
+      </c>
+      <c r="AD40">
+        <v>2.98</v>
+      </c>
+      <c r="AE40">
+        <v>2.5</v>
+      </c>
+      <c r="AF40">
+        <v>1.07</v>
+      </c>
+      <c r="AG40">
+        <v>8</v>
+      </c>
+      <c r="AH40">
+        <v>1.36</v>
+      </c>
+      <c r="AI40">
+        <v>2.9</v>
+      </c>
+      <c r="AJ40">
+        <v>2.1</v>
+      </c>
+      <c r="AK40">
+        <v>1.68</v>
+      </c>
+      <c r="AL40">
+        <v>1.87</v>
+      </c>
+      <c r="AM40">
+        <v>1.89</v>
+      </c>
+      <c r="AN40">
+        <v>1.4</v>
+      </c>
+      <c r="AO40">
+        <v>1.37</v>
+      </c>
+      <c r="AP40">
+        <v>1.47</v>
+      </c>
+      <c r="AQ40">
+        <v>1.5</v>
+      </c>
+      <c r="AR40">
+        <v>2</v>
+      </c>
+      <c r="AS40">
+        <v>1</v>
+      </c>
+      <c r="AT40">
+        <v>2.33</v>
+      </c>
+      <c r="AU40">
+        <v>2.03</v>
+      </c>
+      <c r="AV40">
+        <v>0.89</v>
+      </c>
+      <c r="AW40">
+        <v>2.92</v>
+      </c>
+      <c r="AX40">
+        <v>2.05</v>
+      </c>
+      <c r="AY40">
+        <v>7</v>
+      </c>
+      <c r="AZ40">
+        <v>2.15</v>
+      </c>
+      <c r="BA40">
+        <v>1.24</v>
+      </c>
+      <c r="BB40">
+        <v>1.46</v>
+      </c>
+      <c r="BC40">
+        <v>1.88</v>
+      </c>
+      <c r="BD40">
+        <v>2.37</v>
+      </c>
+      <c r="BE40">
+        <v>3.3</v>
+      </c>
+      <c r="BF40">
+        <v>3</v>
+      </c>
+      <c r="BG40">
+        <v>4</v>
+      </c>
+      <c r="BH40">
+        <v>6</v>
+      </c>
+      <c r="BI40">
+        <v>3</v>
+      </c>
+      <c r="BJ40">
+        <v>9</v>
+      </c>
+      <c r="BK40">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:63">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>6948868</v>
+      </c>
+      <c r="C41" t="s">
+        <v>63</v>
+      </c>
+      <c r="D41" t="s">
+        <v>64</v>
+      </c>
+      <c r="E41" s="2">
+        <v>45132.67708333334</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41" t="s">
+        <v>90</v>
+      </c>
+      <c r="H41" t="s">
+        <v>106</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>2</v>
+      </c>
+      <c r="K41">
+        <v>2</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <v>2</v>
+      </c>
+      <c r="N41">
+        <v>2</v>
+      </c>
+      <c r="O41" t="s">
+        <v>107</v>
+      </c>
+      <c r="P41" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q41">
+        <v>7</v>
+      </c>
+      <c r="R41">
+        <v>6</v>
+      </c>
+      <c r="S41">
+        <v>13</v>
+      </c>
+      <c r="T41">
+        <v>5.57</v>
+      </c>
+      <c r="U41">
+        <v>2.15</v>
+      </c>
+      <c r="V41">
+        <v>2.27</v>
+      </c>
+      <c r="W41">
+        <v>1.42</v>
+      </c>
+      <c r="X41">
+        <v>2.75</v>
+      </c>
+      <c r="Y41">
+        <v>2.95</v>
+      </c>
+      <c r="Z41">
+        <v>1.37</v>
+      </c>
+      <c r="AA41">
+        <v>7.6</v>
+      </c>
+      <c r="AB41">
+        <v>1.07</v>
+      </c>
+      <c r="AC41">
+        <v>6</v>
+      </c>
+      <c r="AD41">
+        <v>3.75</v>
+      </c>
+      <c r="AE41">
+        <v>1.57</v>
+      </c>
+      <c r="AF41">
+        <v>1.06</v>
+      </c>
+      <c r="AG41">
+        <v>9.5</v>
+      </c>
+      <c r="AH41">
+        <v>1.31</v>
+      </c>
+      <c r="AI41">
+        <v>3.2</v>
+      </c>
+      <c r="AJ41">
+        <v>2</v>
+      </c>
+      <c r="AK41">
+        <v>1.75</v>
+      </c>
+      <c r="AL41">
+        <v>1.96</v>
+      </c>
+      <c r="AM41">
+        <v>1.8</v>
+      </c>
+      <c r="AN41">
+        <v>2.15</v>
+      </c>
+      <c r="AO41">
+        <v>1.27</v>
+      </c>
+      <c r="AP41">
+        <v>1.17</v>
+      </c>
+      <c r="AQ41">
+        <v>3</v>
+      </c>
+      <c r="AR41">
+        <v>0</v>
+      </c>
+      <c r="AS41">
+        <v>2.4</v>
+      </c>
+      <c r="AT41">
+        <v>3</v>
+      </c>
+      <c r="AU41">
+        <v>1.42</v>
+      </c>
+      <c r="AV41">
+        <v>0</v>
+      </c>
+      <c r="AW41">
+        <v>1.42</v>
+      </c>
+      <c r="AX41">
+        <v>4</v>
+      </c>
+      <c r="AY41">
+        <v>8</v>
+      </c>
+      <c r="AZ41">
+        <v>1.38</v>
+      </c>
+      <c r="BA41">
+        <v>1.21</v>
+      </c>
+      <c r="BB41">
+        <v>1.4</v>
+      </c>
+      <c r="BC41">
+        <v>1.71</v>
+      </c>
+      <c r="BD41">
+        <v>2.2</v>
+      </c>
+      <c r="BE41">
+        <v>3</v>
+      </c>
+      <c r="BF41">
+        <v>4</v>
+      </c>
+      <c r="BG41">
+        <v>3</v>
+      </c>
+      <c r="BH41">
+        <v>4</v>
+      </c>
+      <c r="BI41">
+        <v>5</v>
+      </c>
+      <c r="BJ41">
+        <v>8</v>
+      </c>
+      <c r="BK41">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:63">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>6948869</v>
+      </c>
+      <c r="C42" t="s">
+        <v>63</v>
+      </c>
+      <c r="D42" t="s">
+        <v>64</v>
+      </c>
+      <c r="E42" s="2">
+        <v>45133.58333333334</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42" t="s">
+        <v>85</v>
+      </c>
+      <c r="H42" t="s">
+        <v>84</v>
+      </c>
+      <c r="I42">
+        <v>1</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>1</v>
+      </c>
+      <c r="L42">
+        <v>1</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42" t="s">
+        <v>133</v>
+      </c>
+      <c r="P42" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q42">
+        <v>3</v>
+      </c>
+      <c r="R42">
+        <v>8</v>
+      </c>
+      <c r="S42">
+        <v>11</v>
+      </c>
+      <c r="T42">
+        <v>3.7</v>
+      </c>
+      <c r="U42">
+        <v>1.87</v>
+      </c>
+      <c r="V42">
+        <v>3.48</v>
+      </c>
+      <c r="W42">
+        <v>1.57</v>
+      </c>
+      <c r="X42">
+        <v>2.32</v>
+      </c>
+      <c r="Y42">
+        <v>3.48</v>
+      </c>
+      <c r="Z42">
+        <v>1.28</v>
+      </c>
+      <c r="AA42">
+        <v>9.6</v>
+      </c>
+      <c r="AB42">
+        <v>1.04</v>
+      </c>
+      <c r="AC42">
+        <v>2.65</v>
+      </c>
+      <c r="AD42">
+        <v>3.1</v>
+      </c>
+      <c r="AE42">
+        <v>2.7</v>
+      </c>
+      <c r="AF42">
+        <v>1.09</v>
+      </c>
+      <c r="AG42">
+        <v>7</v>
+      </c>
+      <c r="AH42">
+        <v>1.44</v>
+      </c>
+      <c r="AI42">
+        <v>2.6</v>
+      </c>
+      <c r="AJ42">
+        <v>2.1</v>
+      </c>
+      <c r="AK42">
+        <v>1.67</v>
+      </c>
+      <c r="AL42">
+        <v>2.01</v>
+      </c>
+      <c r="AM42">
+        <v>1.76</v>
+      </c>
+      <c r="AN42">
+        <v>1.46</v>
+      </c>
+      <c r="AO42">
+        <v>1.4</v>
+      </c>
+      <c r="AP42">
+        <v>1.42</v>
+      </c>
+      <c r="AQ42">
+        <v>1.5</v>
+      </c>
+      <c r="AR42">
+        <v>3</v>
+      </c>
+      <c r="AS42">
+        <v>2</v>
+      </c>
+      <c r="AT42">
+        <v>2</v>
+      </c>
+      <c r="AU42">
+        <v>1.39</v>
+      </c>
+      <c r="AV42">
+        <v>1.6</v>
+      </c>
+      <c r="AW42">
+        <v>2.99</v>
+      </c>
+      <c r="AX42">
+        <v>2.05</v>
+      </c>
+      <c r="AY42">
+        <v>7.5</v>
+      </c>
+      <c r="AZ42">
+        <v>2.12</v>
+      </c>
+      <c r="BA42">
+        <v>1.26</v>
+      </c>
+      <c r="BB42">
+        <v>1.5</v>
+      </c>
+      <c r="BC42">
+        <v>2</v>
+      </c>
+      <c r="BD42">
+        <v>2.5</v>
+      </c>
+      <c r="BE42">
+        <v>3.5</v>
+      </c>
+      <c r="BF42">
+        <v>2</v>
+      </c>
+      <c r="BG42">
+        <v>0</v>
+      </c>
+      <c r="BH42">
+        <v>0</v>
+      </c>
+      <c r="BI42">
+        <v>2</v>
+      </c>
+      <c r="BJ42">
+        <v>2</v>
+      </c>
+      <c r="BK42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:63">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>6960588</v>
+      </c>
+      <c r="C43" t="s">
+        <v>63</v>
+      </c>
+      <c r="D43" t="s">
+        <v>64</v>
+      </c>
+      <c r="E43" s="2">
+        <v>45133.58333333334</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43" t="s">
+        <v>101</v>
+      </c>
+      <c r="H43" t="s">
+        <v>89</v>
+      </c>
+      <c r="I43">
+        <v>3</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>3</v>
+      </c>
+      <c r="L43">
+        <v>6</v>
+      </c>
+      <c r="M43">
+        <v>2</v>
+      </c>
+      <c r="N43">
+        <v>8</v>
+      </c>
+      <c r="O43" t="s">
+        <v>134</v>
+      </c>
+      <c r="P43" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q43">
+        <v>7</v>
+      </c>
+      <c r="R43">
+        <v>5</v>
+      </c>
+      <c r="S43">
+        <v>12</v>
+      </c>
+      <c r="T43">
+        <v>2.25</v>
+      </c>
+      <c r="U43">
+        <v>2.05</v>
+      </c>
+      <c r="V43">
+        <v>5.5</v>
+      </c>
+      <c r="W43">
+        <v>1.44</v>
+      </c>
+      <c r="X43">
+        <v>2.63</v>
+      </c>
+      <c r="Y43">
+        <v>3.25</v>
+      </c>
+      <c r="Z43">
+        <v>1.33</v>
+      </c>
+      <c r="AA43">
+        <v>7.5</v>
+      </c>
+      <c r="AB43">
+        <v>1.07</v>
+      </c>
+      <c r="AC43">
+        <v>1.61</v>
+      </c>
+      <c r="AD43">
+        <v>3.8</v>
+      </c>
+      <c r="AE43">
+        <v>5.5</v>
+      </c>
+      <c r="AF43">
+        <v>0</v>
+      </c>
+      <c r="AG43">
+        <v>0</v>
+      </c>
+      <c r="AH43">
+        <v>0</v>
+      </c>
+      <c r="AI43">
+        <v>0</v>
+      </c>
+      <c r="AJ43">
+        <v>2.14</v>
+      </c>
+      <c r="AK43">
+        <v>1.71</v>
+      </c>
+      <c r="AL43">
+        <v>2.1</v>
+      </c>
+      <c r="AM43">
+        <v>1.67</v>
+      </c>
+      <c r="AN43">
+        <v>0</v>
+      </c>
+      <c r="AO43">
+        <v>0</v>
+      </c>
+      <c r="AP43">
+        <v>0</v>
+      </c>
+      <c r="AQ43">
+        <v>0</v>
+      </c>
+      <c r="AR43">
+        <v>2</v>
+      </c>
+      <c r="AS43">
+        <v>3</v>
+      </c>
+      <c r="AT43">
+        <v>1.33</v>
+      </c>
+      <c r="AU43">
+        <v>0</v>
+      </c>
+      <c r="AV43">
+        <v>1.26</v>
+      </c>
+      <c r="AW43">
+        <v>1.26</v>
+      </c>
+      <c r="AX43">
+        <v>0</v>
+      </c>
+      <c r="AY43">
+        <v>0</v>
+      </c>
+      <c r="AZ43">
+        <v>0</v>
+      </c>
+      <c r="BA43">
+        <v>0</v>
+      </c>
+      <c r="BB43">
+        <v>0</v>
+      </c>
+      <c r="BC43">
+        <v>0</v>
+      </c>
+      <c r="BD43">
+        <v>0</v>
+      </c>
+      <c r="BE43">
+        <v>0</v>
+      </c>
+      <c r="BF43">
+        <v>12</v>
+      </c>
+      <c r="BG43">
+        <v>3</v>
+      </c>
+      <c r="BH43">
+        <v>6</v>
+      </c>
+      <c r="BI43">
+        <v>2</v>
+      </c>
+      <c r="BJ43">
+        <v>18</v>
+      </c>
+      <c r="BK43">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:63">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>6960590</v>
+      </c>
+      <c r="C44" t="s">
+        <v>63</v>
+      </c>
+      <c r="D44" t="s">
+        <v>64</v>
+      </c>
+      <c r="E44" s="2">
+        <v>45133.63541666666</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44" t="s">
+        <v>73</v>
+      </c>
+      <c r="H44" t="s">
+        <v>92</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>3</v>
+      </c>
+      <c r="M44">
+        <v>2</v>
+      </c>
+      <c r="N44">
+        <v>5</v>
+      </c>
+      <c r="O44" t="s">
+        <v>135</v>
+      </c>
+      <c r="P44" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q44">
+        <v>3</v>
+      </c>
+      <c r="R44">
+        <v>8</v>
+      </c>
+      <c r="S44">
+        <v>11</v>
+      </c>
+      <c r="T44">
+        <v>2.76</v>
+      </c>
+      <c r="U44">
+        <v>2.01</v>
+      </c>
+      <c r="V44">
+        <v>4.44</v>
+      </c>
+      <c r="W44">
+        <v>1.49</v>
+      </c>
+      <c r="X44">
+        <v>2.52</v>
+      </c>
+      <c r="Y44">
+        <v>3.28</v>
+      </c>
+      <c r="Z44">
+        <v>1.31</v>
+      </c>
+      <c r="AA44">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AB44">
+        <v>1.05</v>
+      </c>
+      <c r="AC44">
+        <v>2.06</v>
+      </c>
+      <c r="AD44">
+        <v>3.2</v>
+      </c>
+      <c r="AE44">
+        <v>3.8</v>
+      </c>
+      <c r="AF44">
+        <v>1.07</v>
+      </c>
+      <c r="AG44">
+        <v>7.75</v>
+      </c>
+      <c r="AH44">
+        <v>1.39</v>
+      </c>
+      <c r="AI44">
+        <v>2.8</v>
+      </c>
+      <c r="AJ44">
+        <v>2.4</v>
+      </c>
+      <c r="AK44">
+        <v>1.56</v>
+      </c>
+      <c r="AL44">
+        <v>1.98</v>
+      </c>
+      <c r="AM44">
+        <v>1.79</v>
+      </c>
+      <c r="AN44">
+        <v>1.29</v>
+      </c>
+      <c r="AO44">
+        <v>1.33</v>
+      </c>
+      <c r="AP44">
+        <v>1.73</v>
+      </c>
+      <c r="AQ44">
+        <v>3</v>
+      </c>
+      <c r="AR44">
+        <v>3</v>
+      </c>
+      <c r="AS44">
+        <v>3</v>
+      </c>
+      <c r="AT44">
+        <v>2</v>
+      </c>
+      <c r="AU44">
+        <v>2.27</v>
+      </c>
+      <c r="AV44">
+        <v>1.92</v>
+      </c>
+      <c r="AW44">
+        <v>4.19</v>
+      </c>
+      <c r="AX44">
+        <v>1.61</v>
+      </c>
+      <c r="AY44">
+        <v>7.5</v>
+      </c>
+      <c r="AZ44">
+        <v>2.9</v>
+      </c>
+      <c r="BA44">
+        <v>1.3</v>
+      </c>
+      <c r="BB44">
+        <v>1.57</v>
+      </c>
+      <c r="BC44">
+        <v>1.98</v>
+      </c>
+      <c r="BD44">
+        <v>2.7</v>
+      </c>
+      <c r="BE44">
+        <v>3.8</v>
+      </c>
+      <c r="BF44">
+        <v>7</v>
+      </c>
+      <c r="BG44">
+        <v>4</v>
+      </c>
+      <c r="BH44">
+        <v>3</v>
+      </c>
+      <c r="BI44">
+        <v>6</v>
+      </c>
+      <c r="BJ44">
+        <v>10</v>
+      </c>
+      <c r="BK44">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:63">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>6960591</v>
+      </c>
+      <c r="C45" t="s">
+        <v>63</v>
+      </c>
+      <c r="D45" t="s">
+        <v>64</v>
+      </c>
+      <c r="E45" s="2">
+        <v>45133.65625</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45" t="s">
+        <v>76</v>
+      </c>
+      <c r="H45" t="s">
+        <v>80</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>0</v>
+      </c>
+      <c r="O45" t="s">
+        <v>107</v>
+      </c>
+      <c r="P45" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q45">
+        <v>5</v>
+      </c>
+      <c r="R45">
+        <v>6</v>
+      </c>
+      <c r="S45">
+        <v>11</v>
+      </c>
+      <c r="T45">
+        <v>4.75</v>
+      </c>
+      <c r="U45">
+        <v>2.1</v>
+      </c>
+      <c r="V45">
+        <v>2.35</v>
+      </c>
+      <c r="W45">
+        <v>1.44</v>
+      </c>
+      <c r="X45">
+        <v>2.68</v>
+      </c>
+      <c r="Y45">
+        <v>3.05</v>
+      </c>
+      <c r="Z45">
+        <v>1.35</v>
+      </c>
+      <c r="AA45">
+        <v>8</v>
+      </c>
+      <c r="AB45">
+        <v>1.06</v>
+      </c>
+      <c r="AC45">
+        <v>4.63</v>
+      </c>
+      <c r="AD45">
+        <v>3.42</v>
+      </c>
+      <c r="AE45">
+        <v>1.85</v>
+      </c>
+      <c r="AF45">
+        <v>1.07</v>
+      </c>
+      <c r="AG45">
+        <v>8.25</v>
+      </c>
+      <c r="AH45">
+        <v>1.36</v>
+      </c>
+      <c r="AI45">
+        <v>3</v>
+      </c>
+      <c r="AJ45">
+        <v>2.09</v>
+      </c>
+      <c r="AK45">
+        <v>1.66</v>
+      </c>
+      <c r="AL45">
+        <v>2</v>
+      </c>
+      <c r="AM45">
+        <v>1.8</v>
+      </c>
+      <c r="AN45">
+        <v>2</v>
+      </c>
+      <c r="AO45">
+        <v>1.22</v>
+      </c>
+      <c r="AP45">
+        <v>1.18</v>
+      </c>
+      <c r="AQ45">
+        <v>2</v>
+      </c>
+      <c r="AR45">
+        <v>3</v>
+      </c>
+      <c r="AS45">
+        <v>1.67</v>
+      </c>
+      <c r="AT45">
+        <v>2.33</v>
+      </c>
+      <c r="AU45">
+        <v>1.48</v>
+      </c>
+      <c r="AV45">
+        <v>1.32</v>
+      </c>
+      <c r="AW45">
+        <v>2.8</v>
+      </c>
+      <c r="AX45">
+        <v>3.75</v>
+      </c>
+      <c r="AY45">
+        <v>7.5</v>
+      </c>
+      <c r="AZ45">
+        <v>1.43</v>
+      </c>
+      <c r="BA45">
+        <v>1.21</v>
+      </c>
+      <c r="BB45">
+        <v>1.43</v>
+      </c>
+      <c r="BC45">
+        <v>1.75</v>
+      </c>
+      <c r="BD45">
+        <v>2.25</v>
+      </c>
+      <c r="BE45">
+        <v>3</v>
+      </c>
+      <c r="BF45">
+        <v>3</v>
+      </c>
+      <c r="BG45">
+        <v>5</v>
+      </c>
+      <c r="BH45">
+        <v>3</v>
+      </c>
+      <c r="BI45">
+        <v>5</v>
+      </c>
+      <c r="BJ45">
+        <v>6</v>
+      </c>
+      <c r="BK45">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:63">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>6960589</v>
+      </c>
+      <c r="C46" t="s">
+        <v>63</v>
+      </c>
+      <c r="D46" t="s">
+        <v>64</v>
+      </c>
+      <c r="E46" s="2">
+        <v>45133.65625</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46" t="s">
+        <v>96</v>
+      </c>
+      <c r="H46" t="s">
+        <v>71</v>
+      </c>
+      <c r="I46">
+        <v>1</v>
+      </c>
+      <c r="J46">
+        <v>1</v>
+      </c>
+      <c r="K46">
+        <v>2</v>
+      </c>
+      <c r="L46">
+        <v>1</v>
+      </c>
+      <c r="M46">
+        <v>1</v>
+      </c>
+      <c r="N46">
+        <v>2</v>
+      </c>
+      <c r="O46" t="s">
+        <v>136</v>
+      </c>
+      <c r="P46" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q46">
+        <v>3</v>
+      </c>
+      <c r="R46">
+        <v>3</v>
+      </c>
+      <c r="S46">
+        <v>6</v>
+      </c>
+      <c r="T46">
+        <v>2.3</v>
+      </c>
+      <c r="U46">
+        <v>2.1</v>
+      </c>
+      <c r="V46">
+        <v>4.6</v>
+      </c>
+      <c r="W46">
+        <v>1.4</v>
+      </c>
+      <c r="X46">
+        <v>2.7</v>
+      </c>
+      <c r="Y46">
+        <v>2.8</v>
+      </c>
+      <c r="Z46">
+        <v>1.37</v>
+      </c>
+      <c r="AA46">
+        <v>7.25</v>
+      </c>
+      <c r="AB46">
+        <v>1.08</v>
+      </c>
+      <c r="AC46">
+        <v>1.63</v>
+      </c>
+      <c r="AD46">
+        <v>3.65</v>
+      </c>
+      <c r="AE46">
+        <v>6.1</v>
+      </c>
+      <c r="AF46">
+        <v>1.06</v>
+      </c>
+      <c r="AG46">
+        <v>9.25</v>
+      </c>
+      <c r="AH46">
+        <v>1.31</v>
+      </c>
+      <c r="AI46">
+        <v>3.2</v>
+      </c>
+      <c r="AJ46">
+        <v>1.85</v>
+      </c>
+      <c r="AK46">
+        <v>1.85</v>
+      </c>
+      <c r="AL46">
+        <v>1.88</v>
+      </c>
+      <c r="AM46">
+        <v>1.8</v>
+      </c>
+      <c r="AN46">
+        <v>1.19</v>
+      </c>
+      <c r="AO46">
+        <v>1.26</v>
+      </c>
+      <c r="AP46">
+        <v>2.05</v>
+      </c>
+      <c r="AQ46">
+        <v>1.5</v>
+      </c>
+      <c r="AR46">
+        <v>3</v>
+      </c>
+      <c r="AS46">
+        <v>1.33</v>
+      </c>
+      <c r="AT46">
+        <v>2.33</v>
+      </c>
+      <c r="AU46">
+        <v>2.27</v>
+      </c>
+      <c r="AV46">
+        <v>2.37</v>
+      </c>
+      <c r="AW46">
+        <v>4.64</v>
+      </c>
+      <c r="AX46">
+        <v>1.3</v>
+      </c>
+      <c r="AY46">
+        <v>9</v>
+      </c>
+      <c r="AZ46">
+        <v>4.5</v>
+      </c>
+      <c r="BA46">
+        <v>1.22</v>
+      </c>
+      <c r="BB46">
+        <v>1.42</v>
+      </c>
+      <c r="BC46">
+        <v>1.75</v>
+      </c>
+      <c r="BD46">
+        <v>2.23</v>
+      </c>
+      <c r="BE46">
+        <v>3</v>
+      </c>
+      <c r="BF46">
+        <v>7</v>
+      </c>
+      <c r="BG46">
+        <v>3</v>
+      </c>
+      <c r="BH46">
+        <v>5</v>
+      </c>
+      <c r="BI46">
+        <v>9</v>
+      </c>
+      <c r="BJ46">
+        <v>12</v>
+      </c>
+      <c r="BK46">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Europe UEFA Champions League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Europe UEFA Champions League_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="186">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -232,24 +232,24 @@
     <t>Olimpija</t>
   </si>
   <si>
+    <t>Raków Częstochowa</t>
+  </si>
+  <si>
     <t>Hamrun Spartans</t>
   </si>
   <si>
-    <t>Raków Częstochowa</t>
+    <t>KÍ</t>
+  </si>
+  <si>
+    <t>Shamrock Rovers</t>
+  </si>
+  <si>
+    <t>Ballkani</t>
   </si>
   <si>
     <t>Partizani Tirana</t>
   </si>
   <si>
-    <t>Shamrock Rovers</t>
-  </si>
-  <si>
-    <t>KÍ</t>
-  </si>
-  <si>
-    <t>Ballkani</t>
-  </si>
-  <si>
     <t>Astana</t>
   </si>
   <si>
@@ -268,75 +268,75 @@
     <t>Struga</t>
   </si>
   <si>
+    <t>Tallinna FC Flora</t>
+  </si>
+  <si>
+    <t>Sheriff</t>
+  </si>
+  <si>
     <t>Maccabi Haifa</t>
   </si>
   <si>
-    <t>Sheriff</t>
-  </si>
-  <si>
-    <t>Tallinna FC Flora</t>
-  </si>
-  <si>
     <t>The New Saints</t>
   </si>
   <si>
+    <t>BATE</t>
+  </si>
+  <si>
     <t>Zrinjski</t>
   </si>
   <si>
-    <t>BATE</t>
-  </si>
-  <si>
     <t>Breidablik</t>
   </si>
   <si>
     <t>Valmiera / BSS</t>
   </si>
   <si>
+    <t>Dinamo Tbilisi</t>
+  </si>
+  <si>
+    <t>Ferencváros</t>
+  </si>
+  <si>
     <t>Qarabağ</t>
   </si>
   <si>
-    <t>Ferencváros</t>
-  </si>
-  <si>
-    <t>Dinamo Tbilisi</t>
+    <t>Ludogorets</t>
   </si>
   <si>
     <t>Swift Hesperange</t>
   </si>
   <si>
-    <t>Ludogorets</t>
-  </si>
-  <si>
     <t>Larne</t>
   </si>
   <si>
+    <t>Dnipro-1</t>
+  </si>
+  <si>
     <t>Dinamo Zagreb</t>
   </si>
   <si>
-    <t>Dnipro-1</t>
-  </si>
-  <si>
     <t>Servette</t>
   </si>
   <si>
     <t>Aris</t>
   </si>
   <si>
+    <t>Panathinaikos</t>
+  </si>
+  <si>
     <t>Molde</t>
   </si>
   <si>
+    <t>KRC Genk</t>
+  </si>
+  <si>
+    <t>København</t>
+  </si>
+  <si>
     <t>Galatasaray</t>
   </si>
   <si>
-    <t>Panathinaikos</t>
-  </si>
-  <si>
-    <t>KRC Genk</t>
-  </si>
-  <si>
-    <t>København</t>
-  </si>
-  <si>
     <t>[]</t>
   </si>
   <si>
@@ -352,12 +352,12 @@
     <t>['54']</t>
   </si>
   <si>
+    <t>['45+1', '55']</t>
+  </si>
+  <si>
     <t>['66']</t>
   </si>
   <si>
-    <t>['45+1', '55']</t>
-  </si>
-  <si>
     <t>['11']</t>
   </si>
   <si>
@@ -373,30 +373,30 @@
     <t>['75']</t>
   </si>
   <si>
+    <t>['45+1', '99', '105+1']</t>
+  </si>
+  <si>
     <t>['69', '84']</t>
   </si>
   <si>
-    <t>['45+1', '99', '105+1']</t>
+    <t>['71', '90+12']</t>
   </si>
   <si>
     <t>['27', '94']</t>
   </si>
   <si>
-    <t>['71', '90+12']</t>
-  </si>
-  <si>
     <t>['16', '57']</t>
   </si>
   <si>
     <t>['82']</t>
   </si>
   <si>
+    <t>['22']</t>
+  </si>
+  <si>
     <t>['7', '45+1', '49', '62']</t>
   </si>
   <si>
-    <t>['22']</t>
-  </si>
-  <si>
     <t>['4', '45', '49', '78']</t>
   </si>
   <si>
@@ -406,12 +406,12 @@
     <t>['47', '90+1']</t>
   </si>
   <si>
+    <t>['90']</t>
+  </si>
+  <si>
     <t>['35', '41', '43', '56']</t>
   </si>
   <si>
-    <t>['90']</t>
-  </si>
-  <si>
     <t>['77']</t>
   </si>
   <si>
@@ -427,6 +427,36 @@
     <t>['44']</t>
   </si>
   <si>
+    <t>['15', '69']</t>
+  </si>
+  <si>
+    <t>['18', '90+2']</t>
+  </si>
+  <si>
+    <t>['25', '48', '90+3']</t>
+  </si>
+  <si>
+    <t>['5', '66']</t>
+  </si>
+  <si>
+    <t>['60']</t>
+  </si>
+  <si>
+    <t>['74', '89']</t>
+  </si>
+  <si>
+    <t>['24', '48', '105+1']</t>
+  </si>
+  <si>
+    <t>['28', '51']</t>
+  </si>
+  <si>
+    <t>['33', '85', '105+2', '107']</t>
+  </si>
+  <si>
+    <t>['33', '35', '37', '45+1', '47', '56']</t>
+  </si>
+  <si>
     <t>['13', '21', '60']</t>
   </si>
   <si>
@@ -448,12 +478,12 @@
     <t>['41', '45+3', '58', '80']</t>
   </si>
   <si>
+    <t>['39']</t>
+  </si>
+  <si>
     <t>['58']</t>
   </si>
   <si>
-    <t>['39']</t>
-  </si>
-  <si>
     <t>['57']</t>
   </si>
   <si>
@@ -478,12 +508,12 @@
     <t>['33', '64']</t>
   </si>
   <si>
+    <t>['50', '51']</t>
+  </si>
+  <si>
     <t>['8', '32', '45+1']</t>
   </si>
   <si>
-    <t>['50', '51']</t>
-  </si>
-  <si>
     <t>['55', '62']</t>
   </si>
   <si>
@@ -512,6 +542,36 @@
   </si>
   <si>
     <t>['14']</t>
+  </si>
+  <si>
+    <t>['23', '54']</t>
+  </si>
+  <si>
+    <t>['15']</t>
+  </si>
+  <si>
+    <t>['8', '26', '35', '56', '74']</t>
+  </si>
+  <si>
+    <t>['75', '90+3']</t>
+  </si>
+  <si>
+    <t>['24', '89']</t>
+  </si>
+  <si>
+    <t>['51']</t>
+  </si>
+  <si>
+    <t>['17', '52', '109']</t>
+  </si>
+  <si>
+    <t>['36', '63']</t>
+  </si>
+  <si>
+    <t>['20']</t>
+  </si>
+  <si>
+    <t>['9', '51', '74']</t>
   </si>
 </sst>
 </file>
@@ -873,7 +933,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK46"/>
+  <dimension ref="A1:BK58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1117,7 +1177,7 @@
         <v>107</v>
       </c>
       <c r="P2" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="Q2">
         <v>2</v>
@@ -1308,7 +1368,7 @@
         <v>108</v>
       </c>
       <c r="P3" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -1398,7 +1458,7 @@
         <v>0</v>
       </c>
       <c r="AT3">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1499,7 +1559,7 @@
         <v>107</v>
       </c>
       <c r="P4" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="Q4">
         <v>-1</v>
@@ -1589,7 +1649,7 @@
         <v>1.5</v>
       </c>
       <c r="AT4">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -1666,7 +1726,7 @@
         <v>68</v>
       </c>
       <c r="H5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -1690,7 +1750,7 @@
         <v>107</v>
       </c>
       <c r="P5" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="Q5">
         <v>2</v>
@@ -1857,7 +1917,7 @@
         <v>69</v>
       </c>
       <c r="H6" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -1881,7 +1941,7 @@
         <v>109</v>
       </c>
       <c r="P6" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="Q6">
         <v>1</v>
@@ -1971,7 +2031,7 @@
         <v>0</v>
       </c>
       <c r="AT6">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2159,7 +2219,7 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AT7">
         <v>0.5</v>
@@ -2263,7 +2323,7 @@
         <v>110</v>
       </c>
       <c r="P8" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="Q8">
         <v>5</v>
@@ -2350,7 +2410,7 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AT8">
         <v>0</v>
@@ -2412,7 +2472,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>6527476</v>
+        <v>6527473</v>
       </c>
       <c r="C9" t="s">
         <v>63</v>
@@ -2436,43 +2496,43 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O9" t="s">
+        <v>111</v>
+      </c>
+      <c r="P9" t="s">
         <v>107</v>
       </c>
-      <c r="P9" t="s">
-        <v>143</v>
-      </c>
       <c r="Q9">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="R9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S9">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="T9">
-        <v>6</v>
+        <v>1.63</v>
       </c>
       <c r="U9">
-        <v>2.4</v>
+        <v>2.55</v>
       </c>
       <c r="V9">
-        <v>1.9</v>
+        <v>9.5</v>
       </c>
       <c r="W9">
         <v>1.3</v>
@@ -2493,19 +2553,19 @@
         <v>1.12</v>
       </c>
       <c r="AC9">
-        <v>6.5</v>
+        <v>1.18</v>
       </c>
       <c r="AD9">
-        <v>4.33</v>
+        <v>5.5</v>
       </c>
       <c r="AE9">
-        <v>1.36</v>
+        <v>11</v>
       </c>
       <c r="AF9">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="AG9">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH9">
         <v>1.2</v>
@@ -2514,25 +2574,25 @@
         <v>4.2</v>
       </c>
       <c r="AJ9">
-        <v>1.71</v>
+        <v>1.62</v>
       </c>
       <c r="AK9">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AL9">
-        <v>1.83</v>
+        <v>2.35</v>
       </c>
       <c r="AM9">
-        <v>1.9</v>
+        <v>1.55</v>
       </c>
       <c r="AN9">
-        <v>2.55</v>
+        <v>1.01</v>
       </c>
       <c r="AO9">
-        <v>1.15</v>
+        <v>1.08</v>
       </c>
       <c r="AP9">
-        <v>1.08</v>
+        <v>3.75</v>
       </c>
       <c r="AQ9">
         <v>0</v>
@@ -2541,10 +2601,10 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AT9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -2556,46 +2616,46 @@
         <v>0</v>
       </c>
       <c r="AX9">
-        <v>5.07</v>
+        <v>1.09</v>
       </c>
       <c r="AY9">
-        <v>8.5</v>
+        <v>14</v>
       </c>
       <c r="AZ9">
-        <v>1.29</v>
+        <v>9.9</v>
       </c>
       <c r="BA9">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="BB9">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="BC9">
-        <v>1.76</v>
+        <v>1.85</v>
       </c>
       <c r="BD9">
-        <v>2.25</v>
+        <v>2.37</v>
       </c>
       <c r="BE9">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="BF9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BG9">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="BH9">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="BI9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BJ9">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="BK9">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:63">
@@ -2603,7 +2663,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>6527473</v>
+        <v>6527476</v>
       </c>
       <c r="C10" t="s">
         <v>63</v>
@@ -2627,43 +2687,43 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O10" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="P10" t="s">
-        <v>107</v>
+        <v>153</v>
       </c>
       <c r="Q10">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="R10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S10">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="T10">
-        <v>1.63</v>
+        <v>6</v>
       </c>
       <c r="U10">
-        <v>2.55</v>
+        <v>2.4</v>
       </c>
       <c r="V10">
-        <v>9.5</v>
+        <v>1.9</v>
       </c>
       <c r="W10">
         <v>1.3</v>
@@ -2684,19 +2744,19 @@
         <v>1.12</v>
       </c>
       <c r="AC10">
-        <v>1.18</v>
+        <v>6.5</v>
       </c>
       <c r="AD10">
-        <v>5.5</v>
+        <v>4.33</v>
       </c>
       <c r="AE10">
-        <v>11</v>
+        <v>1.36</v>
       </c>
       <c r="AF10">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="AG10">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH10">
         <v>1.2</v>
@@ -2705,26 +2765,26 @@
         <v>4.2</v>
       </c>
       <c r="AJ10">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AK10">
-        <v>2.2</v>
+        <v>2.14</v>
       </c>
       <c r="AL10">
-        <v>2.35</v>
+        <v>1.83</v>
       </c>
       <c r="AM10">
-        <v>1.55</v>
+        <v>1.9</v>
       </c>
       <c r="AN10">
-        <v>1.01</v>
+        <v>2.55</v>
       </c>
       <c r="AO10">
+        <v>1.15</v>
+      </c>
+      <c r="AP10">
         <v>1.08</v>
       </c>
-      <c r="AP10">
-        <v>3.75</v>
-      </c>
       <c r="AQ10">
         <v>0</v>
       </c>
@@ -2732,10 +2792,10 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AT10">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -2747,46 +2807,46 @@
         <v>0</v>
       </c>
       <c r="AX10">
-        <v>1.09</v>
+        <v>5.07</v>
       </c>
       <c r="AY10">
-        <v>14</v>
+        <v>8.5</v>
       </c>
       <c r="AZ10">
-        <v>9.9</v>
+        <v>1.29</v>
       </c>
       <c r="BA10">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="BB10">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="BC10">
-        <v>1.85</v>
+        <v>1.76</v>
       </c>
       <c r="BD10">
-        <v>2.37</v>
+        <v>2.25</v>
       </c>
       <c r="BE10">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="BF10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BG10">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="BH10">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="BI10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BJ10">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="BK10">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:63">
@@ -2794,7 +2854,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>6527478</v>
+        <v>6527469</v>
       </c>
       <c r="C11" t="s">
         <v>63</v>
@@ -2812,7 +2872,7 @@
         <v>74</v>
       </c>
       <c r="H11" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -2824,157 +2884,157 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O11" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="P11" t="s">
-        <v>144</v>
+        <v>107</v>
       </c>
       <c r="Q11">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S11">
         <v>8</v>
       </c>
       <c r="T11">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="U11">
+        <v>2.4</v>
+      </c>
+      <c r="V11">
+        <v>1.9</v>
+      </c>
+      <c r="W11">
+        <v>1.33</v>
+      </c>
+      <c r="X11">
+        <v>3.05</v>
+      </c>
+      <c r="Y11">
+        <v>2.5</v>
+      </c>
+      <c r="Z11">
+        <v>1.47</v>
+      </c>
+      <c r="AA11">
+        <v>5.95</v>
+      </c>
+      <c r="AB11">
+        <v>1.1</v>
+      </c>
+      <c r="AC11">
+        <v>5.5</v>
+      </c>
+      <c r="AD11">
+        <v>4.2</v>
+      </c>
+      <c r="AE11">
+        <v>1.44</v>
+      </c>
+      <c r="AF11">
+        <v>1.04</v>
+      </c>
+      <c r="AG11">
+        <v>10</v>
+      </c>
+      <c r="AH11">
+        <v>1.22</v>
+      </c>
+      <c r="AI11">
+        <v>4</v>
+      </c>
+      <c r="AJ11">
+        <v>1.71</v>
+      </c>
+      <c r="AK11">
         <v>2.05</v>
       </c>
-      <c r="V11">
-        <v>2.95</v>
-      </c>
-      <c r="W11">
-        <v>1.41</v>
-      </c>
-      <c r="X11">
-        <v>2.7</v>
-      </c>
-      <c r="Y11">
-        <v>2.85</v>
-      </c>
-      <c r="Z11">
-        <v>1.37</v>
-      </c>
-      <c r="AA11">
-        <v>6.95</v>
-      </c>
-      <c r="AB11">
-        <v>1.07</v>
-      </c>
-      <c r="AC11">
+      <c r="AL11">
+        <v>1.9</v>
+      </c>
+      <c r="AM11">
+        <v>1.83</v>
+      </c>
+      <c r="AN11">
+        <v>2.8</v>
+      </c>
+      <c r="AO11">
+        <v>1.15</v>
+      </c>
+      <c r="AP11">
+        <v>1.06</v>
+      </c>
+      <c r="AQ11">
+        <v>0</v>
+      </c>
+      <c r="AR11">
+        <v>0</v>
+      </c>
+      <c r="AS11">
+        <v>1.5</v>
+      </c>
+      <c r="AT11">
+        <v>0.5</v>
+      </c>
+      <c r="AU11">
+        <v>0</v>
+      </c>
+      <c r="AV11">
+        <v>0</v>
+      </c>
+      <c r="AW11">
+        <v>0</v>
+      </c>
+      <c r="AX11">
+        <v>5.27</v>
+      </c>
+      <c r="AY11">
+        <v>8.4</v>
+      </c>
+      <c r="AZ11">
+        <v>1.28</v>
+      </c>
+      <c r="BA11">
+        <v>1.29</v>
+      </c>
+      <c r="BB11">
+        <v>1.54</v>
+      </c>
+      <c r="BC11">
+        <v>1.9</v>
+      </c>
+      <c r="BD11">
+        <v>2.37</v>
+      </c>
+      <c r="BE11">
+        <v>3.2</v>
+      </c>
+      <c r="BF11">
+        <v>4</v>
+      </c>
+      <c r="BG11">
+        <v>4</v>
+      </c>
+      <c r="BH11">
         <v>5</v>
       </c>
-      <c r="AD11">
-        <v>3.9</v>
-      </c>
-      <c r="AE11">
-        <v>1.53</v>
-      </c>
-      <c r="AF11">
-        <v>1.03</v>
-      </c>
-      <c r="AG11">
-        <v>8.4</v>
-      </c>
-      <c r="AH11">
-        <v>1.3</v>
-      </c>
-      <c r="AI11">
-        <v>3.3</v>
-      </c>
-      <c r="AJ11">
-        <v>1.81</v>
-      </c>
-      <c r="AK11">
-        <v>2</v>
-      </c>
-      <c r="AL11">
-        <v>1.75</v>
-      </c>
-      <c r="AM11">
-        <v>2</v>
-      </c>
-      <c r="AN11">
-        <v>1.57</v>
-      </c>
-      <c r="AO11">
-        <v>1.28</v>
-      </c>
-      <c r="AP11">
-        <v>1.38</v>
-      </c>
-      <c r="AQ11">
-        <v>0</v>
-      </c>
-      <c r="AR11">
-        <v>0</v>
-      </c>
-      <c r="AS11">
-        <v>0.5</v>
-      </c>
-      <c r="AT11">
-        <v>1.33</v>
-      </c>
-      <c r="AU11">
-        <v>0</v>
-      </c>
-      <c r="AV11">
-        <v>0</v>
-      </c>
-      <c r="AW11">
-        <v>0</v>
-      </c>
-      <c r="AX11">
-        <v>1.93</v>
-      </c>
-      <c r="AY11">
-        <v>6.9</v>
-      </c>
-      <c r="AZ11">
-        <v>2.3</v>
-      </c>
-      <c r="BA11">
-        <v>1.31</v>
-      </c>
-      <c r="BB11">
-        <v>1.56</v>
-      </c>
-      <c r="BC11">
-        <v>1.93</v>
-      </c>
-      <c r="BD11">
-        <v>2.41</v>
-      </c>
-      <c r="BE11">
-        <v>3.4</v>
-      </c>
-      <c r="BF11">
-        <v>5</v>
-      </c>
-      <c r="BG11">
-        <v>5</v>
-      </c>
-      <c r="BH11">
-        <v>15</v>
-      </c>
       <c r="BI11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BJ11">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="BK11">
         <v>10</v>
@@ -3027,7 +3087,7 @@
         <v>107</v>
       </c>
       <c r="P12" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="Q12">
         <v>3</v>
@@ -3117,7 +3177,7 @@
         <v>0</v>
       </c>
       <c r="AT12">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3176,7 +3236,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>6527469</v>
+        <v>6527467</v>
       </c>
       <c r="C13" t="s">
         <v>63</v>
@@ -3194,172 +3254,172 @@
         <v>76</v>
       </c>
       <c r="H13" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O13" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="P13" t="s">
         <v>107</v>
       </c>
       <c r="Q13">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S13">
+        <v>10</v>
+      </c>
+      <c r="T13">
+        <v>4.5</v>
+      </c>
+      <c r="U13">
+        <v>2</v>
+      </c>
+      <c r="V13">
+        <v>2.55</v>
+      </c>
+      <c r="W13">
+        <v>1.48</v>
+      </c>
+      <c r="X13">
+        <v>2.5</v>
+      </c>
+      <c r="Y13">
+        <v>3.2</v>
+      </c>
+      <c r="Z13">
+        <v>1.31</v>
+      </c>
+      <c r="AA13">
         <v>8</v>
       </c>
-      <c r="T13">
+      <c r="AB13">
+        <v>1.05</v>
+      </c>
+      <c r="AC13">
+        <v>3.75</v>
+      </c>
+      <c r="AD13">
+        <v>3.1</v>
+      </c>
+      <c r="AE13">
+        <v>1.91</v>
+      </c>
+      <c r="AF13">
+        <v>1.08</v>
+      </c>
+      <c r="AG13">
+        <v>7</v>
+      </c>
+      <c r="AH13">
+        <v>1.4</v>
+      </c>
+      <c r="AI13">
+        <v>2.8</v>
+      </c>
+      <c r="AJ13">
+        <v>2.1</v>
+      </c>
+      <c r="AK13">
+        <v>1.74</v>
+      </c>
+      <c r="AL13">
+        <v>2</v>
+      </c>
+      <c r="AM13">
+        <v>1.75</v>
+      </c>
+      <c r="AN13">
+        <v>1.87</v>
+      </c>
+      <c r="AO13">
+        <v>1.25</v>
+      </c>
+      <c r="AP13">
+        <v>1.18</v>
+      </c>
+      <c r="AQ13">
+        <v>0</v>
+      </c>
+      <c r="AR13">
+        <v>0</v>
+      </c>
+      <c r="AS13">
+        <v>1.5</v>
+      </c>
+      <c r="AT13">
+        <v>1</v>
+      </c>
+      <c r="AU13">
+        <v>0</v>
+      </c>
+      <c r="AV13">
+        <v>0</v>
+      </c>
+      <c r="AW13">
+        <v>0</v>
+      </c>
+      <c r="AX13">
+        <v>3.01</v>
+      </c>
+      <c r="AY13">
+        <v>7.1</v>
+      </c>
+      <c r="AZ13">
+        <v>1.62</v>
+      </c>
+      <c r="BA13">
+        <v>1.25</v>
+      </c>
+      <c r="BB13">
+        <v>1.53</v>
+      </c>
+      <c r="BC13">
+        <v>1.75</v>
+      </c>
+      <c r="BD13">
+        <v>2.2</v>
+      </c>
+      <c r="BE13">
+        <v>2.9</v>
+      </c>
+      <c r="BF13">
         <v>6</v>
       </c>
-      <c r="U13">
-        <v>2.4</v>
-      </c>
-      <c r="V13">
-        <v>1.9</v>
-      </c>
-      <c r="W13">
-        <v>1.33</v>
-      </c>
-      <c r="X13">
-        <v>3.05</v>
-      </c>
-      <c r="Y13">
-        <v>2.5</v>
-      </c>
-      <c r="Z13">
-        <v>1.47</v>
-      </c>
-      <c r="AA13">
-        <v>5.95</v>
-      </c>
-      <c r="AB13">
-        <v>1.1</v>
-      </c>
-      <c r="AC13">
-        <v>5.5</v>
-      </c>
-      <c r="AD13">
-        <v>4.2</v>
-      </c>
-      <c r="AE13">
-        <v>1.44</v>
-      </c>
-      <c r="AF13">
-        <v>1.04</v>
-      </c>
-      <c r="AG13">
-        <v>10</v>
-      </c>
-      <c r="AH13">
-        <v>1.22</v>
-      </c>
-      <c r="AI13">
-        <v>4</v>
-      </c>
-      <c r="AJ13">
-        <v>1.71</v>
-      </c>
-      <c r="AK13">
-        <v>2.05</v>
-      </c>
-      <c r="AL13">
-        <v>1.9</v>
-      </c>
-      <c r="AM13">
-        <v>1.83</v>
-      </c>
-      <c r="AN13">
-        <v>2.8</v>
-      </c>
-      <c r="AO13">
-        <v>1.15</v>
-      </c>
-      <c r="AP13">
-        <v>1.06</v>
-      </c>
-      <c r="AQ13">
-        <v>0</v>
-      </c>
-      <c r="AR13">
-        <v>0</v>
-      </c>
-      <c r="AS13">
-        <v>1.67</v>
-      </c>
-      <c r="AT13">
-        <v>0.5</v>
-      </c>
-      <c r="AU13">
-        <v>0</v>
-      </c>
-      <c r="AV13">
-        <v>0</v>
-      </c>
-      <c r="AW13">
-        <v>0</v>
-      </c>
-      <c r="AX13">
-        <v>5.27</v>
-      </c>
-      <c r="AY13">
-        <v>8.4</v>
-      </c>
-      <c r="AZ13">
-        <v>1.28</v>
-      </c>
-      <c r="BA13">
-        <v>1.29</v>
-      </c>
-      <c r="BB13">
-        <v>1.54</v>
-      </c>
-      <c r="BC13">
-        <v>1.9</v>
-      </c>
-      <c r="BD13">
-        <v>2.37</v>
-      </c>
-      <c r="BE13">
-        <v>3.2</v>
-      </c>
-      <c r="BF13">
-        <v>4</v>
-      </c>
       <c r="BG13">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BH13">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BI13">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BJ13">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="BK13">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:63">
@@ -3367,7 +3427,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>6527467</v>
+        <v>6527478</v>
       </c>
       <c r="C14" t="s">
         <v>63</v>
@@ -3385,22 +3445,22 @@
         <v>77</v>
       </c>
       <c r="H14" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N14">
         <v>2</v>
@@ -3409,148 +3469,148 @@
         <v>113</v>
       </c>
       <c r="P14" t="s">
-        <v>107</v>
+        <v>155</v>
       </c>
       <c r="Q14">
         <v>6</v>
       </c>
       <c r="R14">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S14">
+        <v>8</v>
+      </c>
+      <c r="T14">
+        <v>3.5</v>
+      </c>
+      <c r="U14">
+        <v>2.05</v>
+      </c>
+      <c r="V14">
+        <v>2.95</v>
+      </c>
+      <c r="W14">
+        <v>1.41</v>
+      </c>
+      <c r="X14">
+        <v>2.7</v>
+      </c>
+      <c r="Y14">
+        <v>2.85</v>
+      </c>
+      <c r="Z14">
+        <v>1.37</v>
+      </c>
+      <c r="AA14">
+        <v>6.95</v>
+      </c>
+      <c r="AB14">
+        <v>1.07</v>
+      </c>
+      <c r="AC14">
+        <v>5</v>
+      </c>
+      <c r="AD14">
+        <v>3.9</v>
+      </c>
+      <c r="AE14">
+        <v>1.53</v>
+      </c>
+      <c r="AF14">
+        <v>1.03</v>
+      </c>
+      <c r="AG14">
+        <v>8.4</v>
+      </c>
+      <c r="AH14">
+        <v>1.3</v>
+      </c>
+      <c r="AI14">
+        <v>3.3</v>
+      </c>
+      <c r="AJ14">
+        <v>1.81</v>
+      </c>
+      <c r="AK14">
+        <v>2</v>
+      </c>
+      <c r="AL14">
+        <v>1.75</v>
+      </c>
+      <c r="AM14">
+        <v>2</v>
+      </c>
+      <c r="AN14">
+        <v>1.57</v>
+      </c>
+      <c r="AO14">
+        <v>1.28</v>
+      </c>
+      <c r="AP14">
+        <v>1.38</v>
+      </c>
+      <c r="AQ14">
+        <v>0</v>
+      </c>
+      <c r="AR14">
+        <v>0</v>
+      </c>
+      <c r="AS14">
+        <v>0.5</v>
+      </c>
+      <c r="AT14">
+        <v>1</v>
+      </c>
+      <c r="AU14">
+        <v>0</v>
+      </c>
+      <c r="AV14">
+        <v>0</v>
+      </c>
+      <c r="AW14">
+        <v>0</v>
+      </c>
+      <c r="AX14">
+        <v>1.93</v>
+      </c>
+      <c r="AY14">
+        <v>6.9</v>
+      </c>
+      <c r="AZ14">
+        <v>2.3</v>
+      </c>
+      <c r="BA14">
+        <v>1.31</v>
+      </c>
+      <c r="BB14">
+        <v>1.56</v>
+      </c>
+      <c r="BC14">
+        <v>1.93</v>
+      </c>
+      <c r="BD14">
+        <v>2.41</v>
+      </c>
+      <c r="BE14">
+        <v>3.4</v>
+      </c>
+      <c r="BF14">
+        <v>5</v>
+      </c>
+      <c r="BG14">
+        <v>5</v>
+      </c>
+      <c r="BH14">
+        <v>15</v>
+      </c>
+      <c r="BI14">
+        <v>5</v>
+      </c>
+      <c r="BJ14">
+        <v>20</v>
+      </c>
+      <c r="BK14">
         <v>10</v>
-      </c>
-      <c r="T14">
-        <v>4.5</v>
-      </c>
-      <c r="U14">
-        <v>2</v>
-      </c>
-      <c r="V14">
-        <v>2.55</v>
-      </c>
-      <c r="W14">
-        <v>1.48</v>
-      </c>
-      <c r="X14">
-        <v>2.5</v>
-      </c>
-      <c r="Y14">
-        <v>3.2</v>
-      </c>
-      <c r="Z14">
-        <v>1.31</v>
-      </c>
-      <c r="AA14">
-        <v>8</v>
-      </c>
-      <c r="AB14">
-        <v>1.05</v>
-      </c>
-      <c r="AC14">
-        <v>3.75</v>
-      </c>
-      <c r="AD14">
-        <v>3.1</v>
-      </c>
-      <c r="AE14">
-        <v>1.91</v>
-      </c>
-      <c r="AF14">
-        <v>1.08</v>
-      </c>
-      <c r="AG14">
-        <v>7</v>
-      </c>
-      <c r="AH14">
-        <v>1.4</v>
-      </c>
-      <c r="AI14">
-        <v>2.8</v>
-      </c>
-      <c r="AJ14">
-        <v>2.1</v>
-      </c>
-      <c r="AK14">
-        <v>1.74</v>
-      </c>
-      <c r="AL14">
-        <v>2</v>
-      </c>
-      <c r="AM14">
-        <v>1.75</v>
-      </c>
-      <c r="AN14">
-        <v>1.87</v>
-      </c>
-      <c r="AO14">
-        <v>1.25</v>
-      </c>
-      <c r="AP14">
-        <v>1.18</v>
-      </c>
-      <c r="AQ14">
-        <v>0</v>
-      </c>
-      <c r="AR14">
-        <v>0</v>
-      </c>
-      <c r="AS14">
-        <v>1.5</v>
-      </c>
-      <c r="AT14">
-        <v>1.33</v>
-      </c>
-      <c r="AU14">
-        <v>0</v>
-      </c>
-      <c r="AV14">
-        <v>0</v>
-      </c>
-      <c r="AW14">
-        <v>0</v>
-      </c>
-      <c r="AX14">
-        <v>3.01</v>
-      </c>
-      <c r="AY14">
-        <v>7.1</v>
-      </c>
-      <c r="AZ14">
-        <v>1.62</v>
-      </c>
-      <c r="BA14">
-        <v>1.25</v>
-      </c>
-      <c r="BB14">
-        <v>1.53</v>
-      </c>
-      <c r="BC14">
-        <v>1.75</v>
-      </c>
-      <c r="BD14">
-        <v>2.2</v>
-      </c>
-      <c r="BE14">
-        <v>2.9</v>
-      </c>
-      <c r="BF14">
-        <v>6</v>
-      </c>
-      <c r="BG14">
-        <v>6</v>
-      </c>
-      <c r="BH14">
-        <v>8</v>
-      </c>
-      <c r="BI14">
-        <v>9</v>
-      </c>
-      <c r="BJ14">
-        <v>14</v>
-      </c>
-      <c r="BK14">
-        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:63">
@@ -3576,7 +3636,7 @@
         <v>78</v>
       </c>
       <c r="H15" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -3600,7 +3660,7 @@
         <v>114</v>
       </c>
       <c r="P15" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="Q15">
         <v>6</v>
@@ -3687,7 +3747,7 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AT15">
         <v>0.5</v>
@@ -3878,7 +3938,7 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AT16">
         <v>0.5</v>
@@ -3982,7 +4042,7 @@
         <v>116</v>
       </c>
       <c r="P17" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="Q17">
         <v>10</v>
@@ -4069,7 +4129,7 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AT17">
         <v>0</v>
@@ -4263,7 +4323,7 @@
         <v>1.5</v>
       </c>
       <c r="AT18">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AU18">
         <v>0</v>
@@ -4340,7 +4400,7 @@
         <v>82</v>
       </c>
       <c r="H19" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I19">
         <v>1</v>
@@ -4364,7 +4424,7 @@
         <v>109</v>
       </c>
       <c r="P19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="Q19">
         <v>5</v>
@@ -4451,7 +4511,7 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AT19">
         <v>0.5</v>
@@ -4555,7 +4615,7 @@
         <v>118</v>
       </c>
       <c r="P20" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="Q20">
         <v>1</v>
@@ -4645,7 +4705,7 @@
         <v>0.5</v>
       </c>
       <c r="AT20">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AU20">
         <v>0</v>
@@ -4704,7 +4764,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>6527490</v>
+        <v>6527487</v>
       </c>
       <c r="C21" t="s">
         <v>63</v>
@@ -4728,166 +4788,166 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N21">
         <v>3</v>
       </c>
       <c r="O21" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="P21" t="s">
-        <v>108</v>
+        <v>159</v>
       </c>
       <c r="Q21">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R21">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="S21">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="T21">
-        <v>1.45</v>
+        <v>4.75</v>
       </c>
       <c r="U21">
-        <v>3.1</v>
+        <v>2.25</v>
       </c>
       <c r="V21">
-        <v>13.5</v>
+        <v>2.15</v>
       </c>
       <c r="W21">
+        <v>1.4</v>
+      </c>
+      <c r="X21">
+        <v>2.75</v>
+      </c>
+      <c r="Y21">
+        <v>2.75</v>
+      </c>
+      <c r="Z21">
+        <v>1.4</v>
+      </c>
+      <c r="AA21">
+        <v>6.5</v>
+      </c>
+      <c r="AB21">
+        <v>1.1</v>
+      </c>
+      <c r="AC21">
+        <v>5</v>
+      </c>
+      <c r="AD21">
+        <v>3.6</v>
+      </c>
+      <c r="AE21">
+        <v>1.62</v>
+      </c>
+      <c r="AF21">
+        <v>1.06</v>
+      </c>
+      <c r="AG21">
+        <v>8</v>
+      </c>
+      <c r="AH21">
+        <v>1.3</v>
+      </c>
+      <c r="AI21">
+        <v>3.4</v>
+      </c>
+      <c r="AJ21">
+        <v>1.85</v>
+      </c>
+      <c r="AK21">
+        <v>1.85</v>
+      </c>
+      <c r="AL21">
+        <v>1.85</v>
+      </c>
+      <c r="AM21">
+        <v>1.85</v>
+      </c>
+      <c r="AN21">
+        <v>2.1</v>
+      </c>
+      <c r="AO21">
         <v>1.25</v>
       </c>
-      <c r="X21">
-        <v>3.72</v>
-      </c>
-      <c r="Y21">
-        <v>2.18</v>
-      </c>
-      <c r="Z21">
-        <v>1.64</v>
-      </c>
-      <c r="AA21">
-        <v>4.75</v>
-      </c>
-      <c r="AB21">
+      <c r="AP21">
         <v>1.17</v>
       </c>
-      <c r="AC21">
-        <v>1.1</v>
-      </c>
-      <c r="AD21">
-        <v>9</v>
-      </c>
-      <c r="AE21">
-        <v>21</v>
-      </c>
-      <c r="AF21">
-        <v>1.02</v>
-      </c>
-      <c r="AG21">
+      <c r="AQ21">
+        <v>0</v>
+      </c>
+      <c r="AR21">
+        <v>3</v>
+      </c>
+      <c r="AS21">
+        <v>0</v>
+      </c>
+      <c r="AT21">
+        <v>2.5</v>
+      </c>
+      <c r="AU21">
+        <v>0</v>
+      </c>
+      <c r="AV21">
+        <v>0</v>
+      </c>
+      <c r="AW21">
+        <v>0</v>
+      </c>
+      <c r="AX21">
+        <v>2</v>
+      </c>
+      <c r="AY21">
+        <v>6.6</v>
+      </c>
+      <c r="AZ21">
+        <v>2.24</v>
+      </c>
+      <c r="BA21">
+        <v>1.32</v>
+      </c>
+      <c r="BB21">
+        <v>1.6</v>
+      </c>
+      <c r="BC21">
+        <v>1.97</v>
+      </c>
+      <c r="BD21">
+        <v>2.5</v>
+      </c>
+      <c r="BE21">
+        <v>3.35</v>
+      </c>
+      <c r="BF21">
+        <v>5</v>
+      </c>
+      <c r="BG21">
+        <v>11</v>
+      </c>
+      <c r="BH21">
+        <v>8</v>
+      </c>
+      <c r="BI21">
+        <v>7</v>
+      </c>
+      <c r="BJ21">
         <v>13</v>
       </c>
-      <c r="AH21">
-        <v>1.12</v>
-      </c>
-      <c r="AI21">
-        <v>5</v>
-      </c>
-      <c r="AJ21">
-        <v>1.44</v>
-      </c>
-      <c r="AK21">
-        <v>2.65</v>
-      </c>
-      <c r="AL21">
-        <v>2.7</v>
-      </c>
-      <c r="AM21">
-        <v>1.44</v>
-      </c>
-      <c r="AN21">
-        <v>1.01</v>
-      </c>
-      <c r="AO21">
-        <v>1.06</v>
-      </c>
-      <c r="AP21">
-        <v>6.35</v>
-      </c>
-      <c r="AQ21">
-        <v>3</v>
-      </c>
-      <c r="AR21">
-        <v>0</v>
-      </c>
-      <c r="AS21">
-        <v>2</v>
-      </c>
-      <c r="AT21">
-        <v>0</v>
-      </c>
-      <c r="AU21">
-        <v>0</v>
-      </c>
-      <c r="AV21">
-        <v>0</v>
-      </c>
-      <c r="AW21">
-        <v>0</v>
-      </c>
-      <c r="AX21">
-        <v>1.27</v>
-      </c>
-      <c r="AY21">
-        <v>8.9</v>
-      </c>
-      <c r="AZ21">
-        <v>5.27</v>
-      </c>
-      <c r="BA21">
-        <v>1.28</v>
-      </c>
-      <c r="BB21">
-        <v>1.5</v>
-      </c>
-      <c r="BC21">
-        <v>1.87</v>
-      </c>
-      <c r="BD21">
-        <v>2.3</v>
-      </c>
-      <c r="BE21">
-        <v>3.05</v>
-      </c>
-      <c r="BF21">
-        <v>9</v>
-      </c>
-      <c r="BG21">
-        <v>3</v>
-      </c>
-      <c r="BH21">
-        <v>3</v>
-      </c>
-      <c r="BI21">
-        <v>3</v>
-      </c>
-      <c r="BJ21">
-        <v>12</v>
-      </c>
       <c r="BK21">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:63">
@@ -4934,7 +4994,7 @@
         <v>3</v>
       </c>
       <c r="O22" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="P22" t="s">
         <v>107</v>
@@ -5024,7 +5084,7 @@
         <v>3</v>
       </c>
       <c r="AS22">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AT22">
         <v>1.5</v>
@@ -5086,7 +5146,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>6527487</v>
+        <v>6527490</v>
       </c>
       <c r="C23" t="s">
         <v>63</v>
@@ -5110,115 +5170,115 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N23">
         <v>3</v>
       </c>
       <c r="O23" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="P23" t="s">
-        <v>149</v>
+        <v>108</v>
       </c>
       <c r="Q23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R23">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="S23">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="T23">
+        <v>1.45</v>
+      </c>
+      <c r="U23">
+        <v>3.1</v>
+      </c>
+      <c r="V23">
+        <v>13.5</v>
+      </c>
+      <c r="W23">
+        <v>1.25</v>
+      </c>
+      <c r="X23">
+        <v>3.72</v>
+      </c>
+      <c r="Y23">
+        <v>2.18</v>
+      </c>
+      <c r="Z23">
+        <v>1.64</v>
+      </c>
+      <c r="AA23">
         <v>4.75</v>
       </c>
-      <c r="U23">
+      <c r="AB23">
+        <v>1.17</v>
+      </c>
+      <c r="AC23">
+        <v>1.1</v>
+      </c>
+      <c r="AD23">
+        <v>9</v>
+      </c>
+      <c r="AE23">
+        <v>21</v>
+      </c>
+      <c r="AF23">
+        <v>1.02</v>
+      </c>
+      <c r="AG23">
+        <v>13</v>
+      </c>
+      <c r="AH23">
+        <v>1.12</v>
+      </c>
+      <c r="AI23">
+        <v>5</v>
+      </c>
+      <c r="AJ23">
+        <v>1.44</v>
+      </c>
+      <c r="AK23">
+        <v>2.65</v>
+      </c>
+      <c r="AL23">
+        <v>2.7</v>
+      </c>
+      <c r="AM23">
+        <v>1.44</v>
+      </c>
+      <c r="AN23">
+        <v>1.01</v>
+      </c>
+      <c r="AO23">
+        <v>1.06</v>
+      </c>
+      <c r="AP23">
+        <v>6.35</v>
+      </c>
+      <c r="AQ23">
+        <v>3</v>
+      </c>
+      <c r="AR23">
+        <v>0</v>
+      </c>
+      <c r="AS23">
         <v>2.25</v>
       </c>
-      <c r="V23">
-        <v>2.15</v>
-      </c>
-      <c r="W23">
-        <v>1.4</v>
-      </c>
-      <c r="X23">
-        <v>2.75</v>
-      </c>
-      <c r="Y23">
-        <v>2.75</v>
-      </c>
-      <c r="Z23">
-        <v>1.4</v>
-      </c>
-      <c r="AA23">
-        <v>6.5</v>
-      </c>
-      <c r="AB23">
-        <v>1.1</v>
-      </c>
-      <c r="AC23">
-        <v>5</v>
-      </c>
-      <c r="AD23">
-        <v>3.6</v>
-      </c>
-      <c r="AE23">
-        <v>1.62</v>
-      </c>
-      <c r="AF23">
-        <v>1.06</v>
-      </c>
-      <c r="AG23">
-        <v>8</v>
-      </c>
-      <c r="AH23">
-        <v>1.3</v>
-      </c>
-      <c r="AI23">
-        <v>3.4</v>
-      </c>
-      <c r="AJ23">
-        <v>1.85</v>
-      </c>
-      <c r="AK23">
-        <v>1.85</v>
-      </c>
-      <c r="AL23">
-        <v>1.85</v>
-      </c>
-      <c r="AM23">
-        <v>1.85</v>
-      </c>
-      <c r="AN23">
-        <v>2.1</v>
-      </c>
-      <c r="AO23">
-        <v>1.25</v>
-      </c>
-      <c r="AP23">
-        <v>1.17</v>
-      </c>
-      <c r="AQ23">
-        <v>0</v>
-      </c>
-      <c r="AR23">
-        <v>3</v>
-      </c>
-      <c r="AS23">
-        <v>0</v>
-      </c>
       <c r="AT23">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AU23">
         <v>0</v>
@@ -5230,46 +5290,46 @@
         <v>0</v>
       </c>
       <c r="AX23">
-        <v>2</v>
+        <v>1.27</v>
       </c>
       <c r="AY23">
-        <v>6.6</v>
+        <v>8.9</v>
       </c>
       <c r="AZ23">
-        <v>2.24</v>
+        <v>5.27</v>
       </c>
       <c r="BA23">
-        <v>1.32</v>
+        <v>1.28</v>
       </c>
       <c r="BB23">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="BC23">
-        <v>1.97</v>
+        <v>1.87</v>
       </c>
       <c r="BD23">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="BE23">
-        <v>3.35</v>
+        <v>3.05</v>
       </c>
       <c r="BF23">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BG23">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="BH23">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="BI23">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="BJ23">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BK23">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:63">
@@ -5319,7 +5379,7 @@
         <v>107</v>
       </c>
       <c r="P24" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="Q24">
         <v>0</v>
@@ -5409,7 +5469,7 @@
         <v>0</v>
       </c>
       <c r="AT24">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AU24">
         <v>0</v>
@@ -5468,7 +5528,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>6527491</v>
+        <v>6527492</v>
       </c>
       <c r="C25" t="s">
         <v>63</v>
@@ -5486,121 +5546,121 @@
         <v>88</v>
       </c>
       <c r="H25" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="I25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L25">
         <v>2</v>
       </c>
       <c r="M25">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O25" t="s">
         <v>121</v>
       </c>
       <c r="P25" t="s">
-        <v>151</v>
+        <v>107</v>
       </c>
       <c r="Q25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R25">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S25">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="T25">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="U25">
-        <v>2.16</v>
+        <v>2</v>
       </c>
       <c r="V25">
+        <v>3.5</v>
+      </c>
+      <c r="W25">
+        <v>1.47</v>
+      </c>
+      <c r="X25">
+        <v>2.5</v>
+      </c>
+      <c r="Y25">
+        <v>3.25</v>
+      </c>
+      <c r="Z25">
+        <v>1.3</v>
+      </c>
+      <c r="AA25">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="AB25">
+        <v>1.04</v>
+      </c>
+      <c r="AC25">
+        <v>2.4</v>
+      </c>
+      <c r="AD25">
+        <v>2.95</v>
+      </c>
+      <c r="AE25">
+        <v>3</v>
+      </c>
+      <c r="AF25">
+        <v>1.1</v>
+      </c>
+      <c r="AG25">
         <v>6.5</v>
       </c>
-      <c r="W25">
-        <v>1.44</v>
-      </c>
-      <c r="X25">
-        <v>2.68</v>
-      </c>
-      <c r="Y25">
-        <v>3.05</v>
-      </c>
-      <c r="Z25">
-        <v>1.35</v>
-      </c>
-      <c r="AA25">
-        <v>8.1</v>
-      </c>
-      <c r="AB25">
-        <v>1.06</v>
-      </c>
-      <c r="AC25">
-        <v>1.48</v>
-      </c>
-      <c r="AD25">
-        <v>3.85</v>
-      </c>
-      <c r="AE25">
-        <v>6.5</v>
-      </c>
-      <c r="AF25">
-        <v>1.03</v>
-      </c>
-      <c r="AG25">
-        <v>8</v>
-      </c>
       <c r="AH25">
-        <v>1.34</v>
+        <v>1.4</v>
       </c>
       <c r="AI25">
-        <v>2.93</v>
+        <v>2.8</v>
       </c>
       <c r="AJ25">
-        <v>2.15</v>
+        <v>2.33</v>
       </c>
       <c r="AK25">
-        <v>1.65</v>
+        <v>1.55</v>
       </c>
       <c r="AL25">
-        <v>2.21</v>
+        <v>1.9</v>
       </c>
       <c r="AM25">
-        <v>1.62</v>
+        <v>1.83</v>
       </c>
       <c r="AN25">
-        <v>1.1</v>
+        <v>1.36</v>
       </c>
       <c r="AO25">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="AP25">
-        <v>2.51</v>
+        <v>1.53</v>
       </c>
       <c r="AQ25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AR25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS25">
         <v>1</v>
       </c>
       <c r="AT25">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="AU25">
         <v>0</v>
@@ -5612,46 +5672,46 @@
         <v>0</v>
       </c>
       <c r="AX25">
-        <v>1.59</v>
+        <v>1.84</v>
       </c>
       <c r="AY25">
-        <v>7.2</v>
+        <v>8.9</v>
       </c>
       <c r="AZ25">
-        <v>3.11</v>
+        <v>2.33</v>
       </c>
       <c r="BA25">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="BB25">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="BC25">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="BD25">
-        <v>2.35</v>
+        <v>2.46</v>
       </c>
       <c r="BE25">
-        <v>3.15</v>
+        <v>3.34</v>
       </c>
       <c r="BF25">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="BG25">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="BH25">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="BI25">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="BJ25">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="BK25">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:63">
@@ -5659,7 +5719,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>6527492</v>
+        <v>6527491</v>
       </c>
       <c r="C26" t="s">
         <v>63</v>
@@ -5677,172 +5737,172 @@
         <v>89</v>
       </c>
       <c r="H26" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26">
         <v>0</v>
       </c>
       <c r="K26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L26">
         <v>2</v>
       </c>
       <c r="M26">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N26">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O26" t="s">
         <v>122</v>
       </c>
       <c r="P26" t="s">
-        <v>107</v>
+        <v>161</v>
       </c>
       <c r="Q26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R26">
+        <v>6</v>
+      </c>
+      <c r="S26">
         <v>7</v>
       </c>
-      <c r="S26">
-        <v>9</v>
-      </c>
       <c r="T26">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="U26">
-        <v>2</v>
+        <v>2.16</v>
       </c>
       <c r="V26">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="W26">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="X26">
-        <v>2.5</v>
+        <v>2.68</v>
       </c>
       <c r="Y26">
-        <v>3.25</v>
+        <v>3.05</v>
       </c>
       <c r="Z26">
+        <v>1.35</v>
+      </c>
+      <c r="AA26">
+        <v>8.1</v>
+      </c>
+      <c r="AB26">
+        <v>1.06</v>
+      </c>
+      <c r="AC26">
+        <v>1.48</v>
+      </c>
+      <c r="AD26">
+        <v>3.85</v>
+      </c>
+      <c r="AE26">
+        <v>6.5</v>
+      </c>
+      <c r="AF26">
+        <v>1.03</v>
+      </c>
+      <c r="AG26">
+        <v>8</v>
+      </c>
+      <c r="AH26">
+        <v>1.34</v>
+      </c>
+      <c r="AI26">
+        <v>2.93</v>
+      </c>
+      <c r="AJ26">
+        <v>2.15</v>
+      </c>
+      <c r="AK26">
+        <v>1.65</v>
+      </c>
+      <c r="AL26">
+        <v>2.21</v>
+      </c>
+      <c r="AM26">
+        <v>1.62</v>
+      </c>
+      <c r="AN26">
+        <v>1.1</v>
+      </c>
+      <c r="AO26">
+        <v>1.24</v>
+      </c>
+      <c r="AP26">
+        <v>2.51</v>
+      </c>
+      <c r="AQ26">
+        <v>3</v>
+      </c>
+      <c r="AR26">
+        <v>0</v>
+      </c>
+      <c r="AS26">
+        <v>1</v>
+      </c>
+      <c r="AT26">
+        <v>1.5</v>
+      </c>
+      <c r="AU26">
+        <v>0</v>
+      </c>
+      <c r="AV26">
+        <v>0</v>
+      </c>
+      <c r="AW26">
+        <v>0</v>
+      </c>
+      <c r="AX26">
+        <v>1.59</v>
+      </c>
+      <c r="AY26">
+        <v>7.2</v>
+      </c>
+      <c r="AZ26">
+        <v>3.11</v>
+      </c>
+      <c r="BA26">
         <v>1.3</v>
       </c>
-      <c r="AA26">
-        <v>8.449999999999999</v>
-      </c>
-      <c r="AB26">
-        <v>1.04</v>
-      </c>
-      <c r="AC26">
-        <v>2.4</v>
-      </c>
-      <c r="AD26">
-        <v>2.95</v>
-      </c>
-      <c r="AE26">
-        <v>3</v>
-      </c>
-      <c r="AF26">
-        <v>1.1</v>
-      </c>
-      <c r="AG26">
-        <v>6.5</v>
-      </c>
-      <c r="AH26">
-        <v>1.4</v>
-      </c>
-      <c r="AI26">
-        <v>2.8</v>
-      </c>
-      <c r="AJ26">
-        <v>2.33</v>
-      </c>
-      <c r="AK26">
-        <v>1.55</v>
-      </c>
-      <c r="AL26">
+      <c r="BB26">
+        <v>1.5</v>
+      </c>
+      <c r="BC26">
         <v>1.9</v>
       </c>
-      <c r="AM26">
-        <v>1.83</v>
-      </c>
-      <c r="AN26">
-        <v>1.36</v>
-      </c>
-      <c r="AO26">
-        <v>1.25</v>
-      </c>
-      <c r="AP26">
-        <v>1.53</v>
-      </c>
-      <c r="AQ26">
-        <v>1</v>
-      </c>
-      <c r="AR26">
-        <v>1</v>
-      </c>
-      <c r="AS26">
-        <v>1.33</v>
-      </c>
-      <c r="AT26">
-        <v>0.5</v>
-      </c>
-      <c r="AU26">
-        <v>0</v>
-      </c>
-      <c r="AV26">
-        <v>0</v>
-      </c>
-      <c r="AW26">
-        <v>0</v>
-      </c>
-      <c r="AX26">
-        <v>1.84</v>
-      </c>
-      <c r="AY26">
-        <v>8.9</v>
-      </c>
-      <c r="AZ26">
-        <v>2.33</v>
-      </c>
-      <c r="BA26">
-        <v>1.27</v>
-      </c>
-      <c r="BB26">
-        <v>1.52</v>
-      </c>
-      <c r="BC26">
-        <v>2</v>
-      </c>
       <c r="BD26">
-        <v>2.46</v>
+        <v>2.35</v>
       </c>
       <c r="BE26">
-        <v>3.34</v>
+        <v>3.15</v>
       </c>
       <c r="BF26">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="BG26">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="BH26">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="BI26">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="BJ26">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="BK26">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:63">
@@ -5892,7 +5952,7 @@
         <v>123</v>
       </c>
       <c r="P27" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="Q27">
         <v>4</v>
@@ -5979,7 +6039,7 @@
         <v>0</v>
       </c>
       <c r="AS27">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AT27">
         <v>0</v>
@@ -6083,7 +6143,7 @@
         <v>124</v>
       </c>
       <c r="P28" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="Q28">
         <v>1</v>
@@ -6173,7 +6233,7 @@
         <v>0</v>
       </c>
       <c r="AT28">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AU28">
         <v>0</v>
@@ -6232,7 +6292,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>6527486</v>
+        <v>6527493</v>
       </c>
       <c r="C29" t="s">
         <v>63</v>
@@ -6250,172 +6310,172 @@
         <v>92</v>
       </c>
       <c r="H29" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="I29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J29">
         <v>0</v>
       </c>
       <c r="K29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L29">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N29">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O29" t="s">
         <v>125</v>
       </c>
       <c r="P29" t="s">
-        <v>107</v>
+        <v>164</v>
       </c>
       <c r="Q29">
+        <v>6</v>
+      </c>
+      <c r="R29">
+        <v>5</v>
+      </c>
+      <c r="S29">
         <v>11</v>
       </c>
-      <c r="R29">
-        <v>1</v>
-      </c>
-      <c r="S29">
+      <c r="T29">
+        <v>3</v>
+      </c>
+      <c r="U29">
+        <v>2</v>
+      </c>
+      <c r="V29">
+        <v>3.6</v>
+      </c>
+      <c r="W29">
+        <v>1.47</v>
+      </c>
+      <c r="X29">
+        <v>2.45</v>
+      </c>
+      <c r="Y29">
+        <v>3.25</v>
+      </c>
+      <c r="Z29">
+        <v>1.3</v>
+      </c>
+      <c r="AA29">
+        <v>9</v>
+      </c>
+      <c r="AB29">
+        <v>1.06</v>
+      </c>
+      <c r="AC29">
+        <v>2.4</v>
+      </c>
+      <c r="AD29">
+        <v>3.1</v>
+      </c>
+      <c r="AE29">
+        <v>3</v>
+      </c>
+      <c r="AF29">
+        <v>1.07</v>
+      </c>
+      <c r="AG29">
+        <v>7.5</v>
+      </c>
+      <c r="AH29">
+        <v>1.4</v>
+      </c>
+      <c r="AI29">
+        <v>2.85</v>
+      </c>
+      <c r="AJ29">
+        <v>2.3</v>
+      </c>
+      <c r="AK29">
+        <v>1.57</v>
+      </c>
+      <c r="AL29">
+        <v>1.95</v>
+      </c>
+      <c r="AM29">
+        <v>1.8</v>
+      </c>
+      <c r="AN29">
+        <v>1.3</v>
+      </c>
+      <c r="AO29">
+        <v>1.28</v>
+      </c>
+      <c r="AP29">
+        <v>1.57</v>
+      </c>
+      <c r="AQ29">
+        <v>1</v>
+      </c>
+      <c r="AR29">
+        <v>1</v>
+      </c>
+      <c r="AS29">
+        <v>0.5</v>
+      </c>
+      <c r="AT29">
+        <v>1</v>
+      </c>
+      <c r="AU29">
+        <v>0</v>
+      </c>
+      <c r="AV29">
+        <v>0</v>
+      </c>
+      <c r="AW29">
+        <v>0</v>
+      </c>
+      <c r="AX29">
+        <v>1.79</v>
+      </c>
+      <c r="AY29">
+        <v>7.7</v>
+      </c>
+      <c r="AZ29">
+        <v>2.51</v>
+      </c>
+      <c r="BA29">
+        <v>1.23</v>
+      </c>
+      <c r="BB29">
+        <v>1.44</v>
+      </c>
+      <c r="BC29">
+        <v>1.95</v>
+      </c>
+      <c r="BD29">
+        <v>2.35</v>
+      </c>
+      <c r="BE29">
+        <v>3.25</v>
+      </c>
+      <c r="BF29">
+        <v>9</v>
+      </c>
+      <c r="BG29">
+        <v>8</v>
+      </c>
+      <c r="BH29">
         <v>12</v>
       </c>
-      <c r="T29">
-        <v>1.46</v>
-      </c>
-      <c r="U29">
-        <v>3</v>
-      </c>
-      <c r="V29">
-        <v>10.5</v>
-      </c>
-      <c r="W29">
-        <v>1.23</v>
-      </c>
-      <c r="X29">
-        <v>3.8</v>
-      </c>
-      <c r="Y29">
-        <v>2.1</v>
-      </c>
-      <c r="Z29">
-        <v>1.62</v>
-      </c>
-      <c r="AA29">
-        <v>4.75</v>
-      </c>
-      <c r="AB29">
-        <v>1.16</v>
-      </c>
-      <c r="AC29">
-        <v>1.11</v>
-      </c>
-      <c r="AD29">
-        <v>7.5</v>
-      </c>
-      <c r="AE29">
-        <v>15.5</v>
-      </c>
-      <c r="AF29">
-        <v>1.02</v>
-      </c>
-      <c r="AG29">
+      <c r="BI29">
+        <v>5</v>
+      </c>
+      <c r="BJ29">
+        <v>21</v>
+      </c>
+      <c r="BK29">
         <v>13</v>
-      </c>
-      <c r="AH29">
-        <v>1.15</v>
-      </c>
-      <c r="AI29">
-        <v>4.75</v>
-      </c>
-      <c r="AJ29">
-        <v>1.44</v>
-      </c>
-      <c r="AK29">
-        <v>2.65</v>
-      </c>
-      <c r="AL29">
-        <v>2.55</v>
-      </c>
-      <c r="AM29">
-        <v>1.44</v>
-      </c>
-      <c r="AN29">
-        <v>1.02</v>
-      </c>
-      <c r="AO29">
-        <v>1.06</v>
-      </c>
-      <c r="AP29">
-        <v>6</v>
-      </c>
-      <c r="AQ29">
-        <v>3</v>
-      </c>
-      <c r="AR29">
-        <v>0</v>
-      </c>
-      <c r="AS29">
-        <v>2</v>
-      </c>
-      <c r="AT29">
-        <v>0</v>
-      </c>
-      <c r="AU29">
-        <v>0</v>
-      </c>
-      <c r="AV29">
-        <v>0</v>
-      </c>
-      <c r="AW29">
-        <v>0</v>
-      </c>
-      <c r="AX29">
-        <v>1.09</v>
-      </c>
-      <c r="AY29">
-        <v>15</v>
-      </c>
-      <c r="AZ29">
-        <v>9.9</v>
-      </c>
-      <c r="BA29">
-        <v>1.26</v>
-      </c>
-      <c r="BB29">
-        <v>1.5</v>
-      </c>
-      <c r="BC29">
-        <v>2</v>
-      </c>
-      <c r="BD29">
-        <v>2.5</v>
-      </c>
-      <c r="BE29">
-        <v>3.5</v>
-      </c>
-      <c r="BF29">
-        <v>13</v>
-      </c>
-      <c r="BG29">
-        <v>0</v>
-      </c>
-      <c r="BH29">
-        <v>6</v>
-      </c>
-      <c r="BI29">
-        <v>4</v>
-      </c>
-      <c r="BJ29">
-        <v>19</v>
-      </c>
-      <c r="BK29">
-        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:63">
@@ -6441,7 +6501,7 @@
         <v>93</v>
       </c>
       <c r="H30" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I30">
         <v>0</v>
@@ -6465,7 +6525,7 @@
         <v>107</v>
       </c>
       <c r="P30" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="Q30">
         <v>12</v>
@@ -6555,7 +6615,7 @@
         <v>0.5</v>
       </c>
       <c r="AT30">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AU30">
         <v>0</v>
@@ -6614,7 +6674,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>6527493</v>
+        <v>6527486</v>
       </c>
       <c r="C31" t="s">
         <v>63</v>
@@ -6632,121 +6692,121 @@
         <v>94</v>
       </c>
       <c r="H31" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="I31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J31">
         <v>0</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N31">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O31" t="s">
         <v>126</v>
       </c>
       <c r="P31" t="s">
-        <v>155</v>
+        <v>107</v>
       </c>
       <c r="Q31">
+        <v>11</v>
+      </c>
+      <c r="R31">
+        <v>1</v>
+      </c>
+      <c r="S31">
+        <v>12</v>
+      </c>
+      <c r="T31">
+        <v>1.46</v>
+      </c>
+      <c r="U31">
+        <v>3</v>
+      </c>
+      <c r="V31">
+        <v>10.5</v>
+      </c>
+      <c r="W31">
+        <v>1.23</v>
+      </c>
+      <c r="X31">
+        <v>3.8</v>
+      </c>
+      <c r="Y31">
+        <v>2.1</v>
+      </c>
+      <c r="Z31">
+        <v>1.62</v>
+      </c>
+      <c r="AA31">
+        <v>4.75</v>
+      </c>
+      <c r="AB31">
+        <v>1.16</v>
+      </c>
+      <c r="AC31">
+        <v>1.11</v>
+      </c>
+      <c r="AD31">
+        <v>7.5</v>
+      </c>
+      <c r="AE31">
+        <v>15.5</v>
+      </c>
+      <c r="AF31">
+        <v>1.02</v>
+      </c>
+      <c r="AG31">
+        <v>13</v>
+      </c>
+      <c r="AH31">
+        <v>1.15</v>
+      </c>
+      <c r="AI31">
+        <v>4.75</v>
+      </c>
+      <c r="AJ31">
+        <v>1.44</v>
+      </c>
+      <c r="AK31">
+        <v>2.65</v>
+      </c>
+      <c r="AL31">
+        <v>2.55</v>
+      </c>
+      <c r="AM31">
+        <v>1.44</v>
+      </c>
+      <c r="AN31">
+        <v>1.02</v>
+      </c>
+      <c r="AO31">
+        <v>1.06</v>
+      </c>
+      <c r="AP31">
         <v>6</v>
       </c>
-      <c r="R31">
-        <v>5</v>
-      </c>
-      <c r="S31">
-        <v>11</v>
-      </c>
-      <c r="T31">
-        <v>3</v>
-      </c>
-      <c r="U31">
-        <v>2</v>
-      </c>
-      <c r="V31">
-        <v>3.6</v>
-      </c>
-      <c r="W31">
-        <v>1.47</v>
-      </c>
-      <c r="X31">
-        <v>2.45</v>
-      </c>
-      <c r="Y31">
-        <v>3.25</v>
-      </c>
-      <c r="Z31">
-        <v>1.3</v>
-      </c>
-      <c r="AA31">
-        <v>9</v>
-      </c>
-      <c r="AB31">
-        <v>1.06</v>
-      </c>
-      <c r="AC31">
-        <v>2.4</v>
-      </c>
-      <c r="AD31">
-        <v>3.1</v>
-      </c>
-      <c r="AE31">
-        <v>3</v>
-      </c>
-      <c r="AF31">
-        <v>1.07</v>
-      </c>
-      <c r="AG31">
-        <v>7.5</v>
-      </c>
-      <c r="AH31">
-        <v>1.4</v>
-      </c>
-      <c r="AI31">
-        <v>2.85</v>
-      </c>
-      <c r="AJ31">
-        <v>2.3</v>
-      </c>
-      <c r="AK31">
-        <v>1.57</v>
-      </c>
-      <c r="AL31">
-        <v>1.95</v>
-      </c>
-      <c r="AM31">
-        <v>1.8</v>
-      </c>
-      <c r="AN31">
-        <v>1.3</v>
-      </c>
-      <c r="AO31">
-        <v>1.28</v>
-      </c>
-      <c r="AP31">
-        <v>1.57</v>
-      </c>
       <c r="AQ31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AR31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS31">
-        <v>0.5</v>
+        <v>1.75</v>
       </c>
       <c r="AT31">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="AU31">
         <v>0</v>
@@ -6758,46 +6818,46 @@
         <v>0</v>
       </c>
       <c r="AX31">
-        <v>1.79</v>
+        <v>1.09</v>
       </c>
       <c r="AY31">
-        <v>7.7</v>
+        <v>15</v>
       </c>
       <c r="AZ31">
-        <v>2.51</v>
+        <v>9.9</v>
       </c>
       <c r="BA31">
-        <v>1.23</v>
+        <v>1.26</v>
       </c>
       <c r="BB31">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="BC31">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="BD31">
-        <v>2.35</v>
+        <v>2.5</v>
       </c>
       <c r="BE31">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="BF31">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="BG31">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="BH31">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="BI31">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BJ31">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BK31">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:63">
@@ -6805,7 +6865,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>6527488</v>
+        <v>6527481</v>
       </c>
       <c r="C32" t="s">
         <v>63</v>
@@ -6823,31 +6883,31 @@
         <v>95</v>
       </c>
       <c r="H32" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J32">
         <v>0</v>
       </c>
       <c r="K32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L32">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M32">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N32">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O32" t="s">
+        <v>127</v>
+      </c>
+      <c r="P32" t="s">
         <v>107</v>
-      </c>
-      <c r="P32" t="s">
-        <v>156</v>
       </c>
       <c r="Q32">
         <v>8</v>
@@ -6859,85 +6919,85 @@
         <v>8</v>
       </c>
       <c r="T32">
-        <v>4.64</v>
+        <v>1.66</v>
       </c>
       <c r="U32">
-        <v>2.24</v>
+        <v>2.5</v>
       </c>
       <c r="V32">
-        <v>2.37</v>
+        <v>8.5</v>
       </c>
       <c r="W32">
-        <v>1.35</v>
+        <v>1.31</v>
       </c>
       <c r="X32">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="Y32">
-        <v>2.64</v>
+        <v>2.45</v>
       </c>
       <c r="Z32">
-        <v>1.45</v>
+        <v>1.49</v>
       </c>
       <c r="AA32">
-        <v>6.4</v>
+        <v>5.75</v>
       </c>
       <c r="AB32">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="AC32">
-        <v>4.25</v>
+        <v>1.28</v>
       </c>
       <c r="AD32">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="AE32">
-        <v>1.75</v>
+        <v>9</v>
       </c>
       <c r="AF32">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="AG32">
         <v>10</v>
       </c>
       <c r="AH32">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="AI32">
-        <v>3.64</v>
+        <v>4</v>
       </c>
       <c r="AJ32">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="AK32">
         <v>2.04</v>
       </c>
       <c r="AL32">
-        <v>1.72</v>
+        <v>2.35</v>
       </c>
       <c r="AM32">
-        <v>2.07</v>
+        <v>1.52</v>
       </c>
       <c r="AN32">
-        <v>1.98</v>
+        <v>1.05</v>
       </c>
       <c r="AO32">
-        <v>1.27</v>
+        <v>1.13</v>
       </c>
       <c r="AP32">
-        <v>1.23</v>
+        <v>3.8</v>
       </c>
       <c r="AQ32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AS32">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AT32">
-        <v>2.33</v>
+        <v>1.5</v>
       </c>
       <c r="AU32">
         <v>0</v>
@@ -6949,46 +7009,46 @@
         <v>0</v>
       </c>
       <c r="AX32">
-        <v>2.79</v>
+        <v>1.17</v>
       </c>
       <c r="AY32">
-        <v>9.4</v>
+        <v>13.25</v>
       </c>
       <c r="AZ32">
-        <v>1.59</v>
+        <v>6.25</v>
       </c>
       <c r="BA32">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="BB32">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="BC32">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="BD32">
-        <v>2.35</v>
+        <v>2.2</v>
       </c>
       <c r="BE32">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="BF32">
         <v>9</v>
       </c>
       <c r="BG32">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BH32">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="BI32">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BJ32">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="BK32">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:63">
@@ -6996,7 +7056,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>6527481</v>
+        <v>6527488</v>
       </c>
       <c r="C33" t="s">
         <v>63</v>
@@ -7014,31 +7074,31 @@
         <v>96</v>
       </c>
       <c r="H33" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="I33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J33">
         <v>0</v>
       </c>
       <c r="K33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L33">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N33">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O33" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="P33" t="s">
-        <v>107</v>
+        <v>166</v>
       </c>
       <c r="Q33">
         <v>8</v>
@@ -7050,136 +7110,136 @@
         <v>8</v>
       </c>
       <c r="T33">
-        <v>1.66</v>
+        <v>4.64</v>
       </c>
       <c r="U33">
-        <v>2.5</v>
+        <v>2.24</v>
       </c>
       <c r="V33">
-        <v>8.5</v>
+        <v>2.37</v>
       </c>
       <c r="W33">
-        <v>1.31</v>
+        <v>1.35</v>
       </c>
       <c r="X33">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="Y33">
-        <v>2.45</v>
+        <v>2.64</v>
       </c>
       <c r="Z33">
-        <v>1.49</v>
+        <v>1.45</v>
       </c>
       <c r="AA33">
-        <v>5.75</v>
+        <v>6.4</v>
       </c>
       <c r="AB33">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AC33">
-        <v>1.28</v>
+        <v>4.25</v>
       </c>
       <c r="AD33">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="AE33">
-        <v>9</v>
+        <v>1.75</v>
       </c>
       <c r="AF33">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="AG33">
         <v>10</v>
       </c>
       <c r="AH33">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="AI33">
-        <v>4</v>
+        <v>3.64</v>
       </c>
       <c r="AJ33">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="AK33">
         <v>2.04</v>
       </c>
       <c r="AL33">
+        <v>1.72</v>
+      </c>
+      <c r="AM33">
+        <v>2.07</v>
+      </c>
+      <c r="AN33">
+        <v>1.98</v>
+      </c>
+      <c r="AO33">
+        <v>1.27</v>
+      </c>
+      <c r="AP33">
+        <v>1.23</v>
+      </c>
+      <c r="AQ33">
+        <v>1</v>
+      </c>
+      <c r="AR33">
+        <v>1</v>
+      </c>
+      <c r="AS33">
+        <v>0.5</v>
+      </c>
+      <c r="AT33">
+        <v>2</v>
+      </c>
+      <c r="AU33">
+        <v>0</v>
+      </c>
+      <c r="AV33">
+        <v>0</v>
+      </c>
+      <c r="AW33">
+        <v>0</v>
+      </c>
+      <c r="AX33">
+        <v>2.79</v>
+      </c>
+      <c r="AY33">
+        <v>9.4</v>
+      </c>
+      <c r="AZ33">
+        <v>1.59</v>
+      </c>
+      <c r="BA33">
+        <v>1.23</v>
+      </c>
+      <c r="BB33">
+        <v>1.44</v>
+      </c>
+      <c r="BC33">
+        <v>1.83</v>
+      </c>
+      <c r="BD33">
         <v>2.35</v>
       </c>
-      <c r="AM33">
-        <v>1.52</v>
-      </c>
-      <c r="AN33">
-        <v>1.05</v>
-      </c>
-      <c r="AO33">
-        <v>1.13</v>
-      </c>
-      <c r="AP33">
-        <v>3.8</v>
-      </c>
-      <c r="AQ33">
-        <v>0</v>
-      </c>
-      <c r="AR33">
-        <v>3</v>
-      </c>
-      <c r="AS33">
-        <v>1.33</v>
-      </c>
-      <c r="AT33">
-        <v>1.5</v>
-      </c>
-      <c r="AU33">
-        <v>0</v>
-      </c>
-      <c r="AV33">
-        <v>0</v>
-      </c>
-      <c r="AW33">
-        <v>0</v>
-      </c>
-      <c r="AX33">
-        <v>1.17</v>
-      </c>
-      <c r="AY33">
-        <v>13.25</v>
-      </c>
-      <c r="AZ33">
-        <v>6.25</v>
-      </c>
-      <c r="BA33">
-        <v>1.21</v>
-      </c>
-      <c r="BB33">
-        <v>1.4</v>
-      </c>
-      <c r="BC33">
-        <v>1.75</v>
-      </c>
-      <c r="BD33">
-        <v>2.2</v>
-      </c>
       <c r="BE33">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="BF33">
         <v>9</v>
       </c>
       <c r="BG33">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BH33">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="BI33">
+        <v>1</v>
+      </c>
+      <c r="BJ33">
+        <v>12</v>
+      </c>
+      <c r="BK33">
         <v>4</v>
-      </c>
-      <c r="BJ33">
-        <v>18</v>
-      </c>
-      <c r="BK33">
-        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:63">
@@ -7229,7 +7289,7 @@
         <v>128</v>
       </c>
       <c r="P34" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="Q34">
         <v>8</v>
@@ -7319,7 +7379,7 @@
         <v>0.5</v>
       </c>
       <c r="AT34">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AU34">
         <v>0</v>
@@ -7378,7 +7438,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>6960585</v>
+        <v>6948867</v>
       </c>
       <c r="C35" t="s">
         <v>63</v>
@@ -7393,175 +7453,175 @@
         <v>0</v>
       </c>
       <c r="G35" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="H35" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="I35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35">
         <v>0</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N35">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O35" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="P35" t="s">
-        <v>107</v>
+        <v>168</v>
       </c>
       <c r="Q35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R35">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="S35">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="T35">
-        <v>4.2</v>
+        <v>5.6</v>
       </c>
       <c r="U35">
-        <v>2</v>
+        <v>2.31</v>
       </c>
       <c r="V35">
-        <v>2.65</v>
+        <v>2.11</v>
       </c>
       <c r="W35">
-        <v>1.47</v>
+        <v>1.35</v>
       </c>
       <c r="X35">
-        <v>2.5</v>
+        <v>3.05</v>
       </c>
       <c r="Y35">
-        <v>3.15</v>
+        <v>2.61</v>
       </c>
       <c r="Z35">
-        <v>1.32</v>
+        <v>1.46</v>
       </c>
       <c r="AA35">
-        <v>8.449999999999999</v>
+        <v>6.4</v>
       </c>
       <c r="AB35">
-        <v>1.04</v>
+        <v>1.1</v>
       </c>
       <c r="AC35">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="AD35">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="AE35">
-        <v>1.77</v>
+        <v>1.63</v>
       </c>
       <c r="AF35">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AG35">
-        <v>8</v>
+        <v>9.75</v>
       </c>
       <c r="AH35">
-        <v>1.38</v>
+        <v>1.28</v>
       </c>
       <c r="AI35">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="AJ35">
-        <v>2.06</v>
+        <v>1.93</v>
       </c>
       <c r="AK35">
-        <v>1.77</v>
+        <v>1.88</v>
       </c>
       <c r="AL35">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="AM35">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AN35">
-        <v>1.78</v>
+        <v>2.41</v>
       </c>
       <c r="AO35">
+        <v>1.22</v>
+      </c>
+      <c r="AP35">
+        <v>1.14</v>
+      </c>
+      <c r="AQ35">
+        <v>2</v>
+      </c>
+      <c r="AR35">
+        <v>0</v>
+      </c>
+      <c r="AS35">
         <v>1.25</v>
       </c>
-      <c r="AP35">
-        <v>1.25</v>
-      </c>
-      <c r="AQ35">
-        <v>2</v>
-      </c>
-      <c r="AR35">
-        <v>0</v>
-      </c>
-      <c r="AS35">
-        <v>2.33</v>
-      </c>
       <c r="AT35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AU35">
-        <v>1.26</v>
+        <v>1.51</v>
       </c>
       <c r="AV35">
         <v>0</v>
       </c>
       <c r="AW35">
-        <v>1.26</v>
+        <v>1.51</v>
       </c>
       <c r="AX35">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="AY35">
         <v>8</v>
       </c>
       <c r="AZ35">
-        <v>1.45</v>
+        <v>1.38</v>
       </c>
       <c r="BA35">
         <v>1.18</v>
       </c>
       <c r="BB35">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="BC35">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="BD35">
-        <v>1.94</v>
+        <v>2.03</v>
       </c>
       <c r="BE35">
-        <v>2.5</v>
+        <v>2.62</v>
       </c>
       <c r="BF35">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BG35">
+        <v>8</v>
+      </c>
+      <c r="BH35">
         <v>6</v>
       </c>
-      <c r="BH35">
-        <v>3</v>
-      </c>
       <c r="BI35">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="BJ35">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="BK35">
-        <v>11</v>
+        <v>24</v>
       </c>
     </row>
     <row r="36" spans="1:63">
@@ -7569,7 +7629,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>6948867</v>
+        <v>6960585</v>
       </c>
       <c r="C36" t="s">
         <v>63</v>
@@ -7584,112 +7644,112 @@
         <v>0</v>
       </c>
       <c r="G36" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="H36" t="s">
         <v>103</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36">
         <v>0</v>
       </c>
       <c r="K36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M36">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N36">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O36" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="P36" t="s">
-        <v>158</v>
+        <v>107</v>
       </c>
       <c r="Q36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R36">
+        <v>7</v>
+      </c>
+      <c r="S36">
+        <v>9</v>
+      </c>
+      <c r="T36">
+        <v>4.2</v>
+      </c>
+      <c r="U36">
+        <v>2</v>
+      </c>
+      <c r="V36">
+        <v>2.65</v>
+      </c>
+      <c r="W36">
+        <v>1.47</v>
+      </c>
+      <c r="X36">
+        <v>2.5</v>
+      </c>
+      <c r="Y36">
+        <v>3.15</v>
+      </c>
+      <c r="Z36">
+        <v>1.32</v>
+      </c>
+      <c r="AA36">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="AB36">
+        <v>1.04</v>
+      </c>
+      <c r="AC36">
+        <v>4.5</v>
+      </c>
+      <c r="AD36">
+        <v>3.7</v>
+      </c>
+      <c r="AE36">
+        <v>1.77</v>
+      </c>
+      <c r="AF36">
+        <v>1.06</v>
+      </c>
+      <c r="AG36">
         <v>8</v>
       </c>
-      <c r="S36">
-        <v>11</v>
-      </c>
-      <c r="T36">
-        <v>5.6</v>
-      </c>
-      <c r="U36">
-        <v>2.31</v>
-      </c>
-      <c r="V36">
-        <v>2.11</v>
-      </c>
-      <c r="W36">
-        <v>1.35</v>
-      </c>
-      <c r="X36">
-        <v>3.05</v>
-      </c>
-      <c r="Y36">
-        <v>2.61</v>
-      </c>
-      <c r="Z36">
-        <v>1.46</v>
-      </c>
-      <c r="AA36">
-        <v>6.4</v>
-      </c>
-      <c r="AB36">
-        <v>1.1</v>
-      </c>
-      <c r="AC36">
-        <v>5</v>
-      </c>
-      <c r="AD36">
-        <v>4</v>
-      </c>
-      <c r="AE36">
-        <v>1.63</v>
-      </c>
-      <c r="AF36">
-        <v>1.05</v>
-      </c>
-      <c r="AG36">
-        <v>9.75</v>
-      </c>
       <c r="AH36">
-        <v>1.28</v>
+        <v>1.38</v>
       </c>
       <c r="AI36">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="AJ36">
-        <v>1.93</v>
+        <v>2.06</v>
       </c>
       <c r="AK36">
-        <v>1.88</v>
+        <v>1.77</v>
       </c>
       <c r="AL36">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="AM36">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="AN36">
-        <v>2.41</v>
+        <v>1.78</v>
       </c>
       <c r="AO36">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="AP36">
-        <v>1.14</v>
+        <v>1.25</v>
       </c>
       <c r="AQ36">
         <v>2</v>
@@ -7698,61 +7758,61 @@
         <v>0</v>
       </c>
       <c r="AS36">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AT36">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AU36">
-        <v>1.51</v>
+        <v>1.26</v>
       </c>
       <c r="AV36">
         <v>0</v>
       </c>
       <c r="AW36">
-        <v>1.51</v>
+        <v>1.26</v>
       </c>
       <c r="AX36">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="AY36">
         <v>8</v>
       </c>
       <c r="AZ36">
-        <v>1.38</v>
+        <v>1.45</v>
       </c>
       <c r="BA36">
         <v>1.18</v>
       </c>
       <c r="BB36">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="BC36">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="BD36">
-        <v>2.03</v>
+        <v>1.94</v>
       </c>
       <c r="BE36">
-        <v>2.62</v>
+        <v>2.5</v>
       </c>
       <c r="BF36">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BG36">
+        <v>6</v>
+      </c>
+      <c r="BH36">
+        <v>3</v>
+      </c>
+      <c r="BI36">
+        <v>5</v>
+      </c>
+      <c r="BJ36">
         <v>8</v>
       </c>
-      <c r="BH36">
-        <v>6</v>
-      </c>
-      <c r="BI36">
-        <v>16</v>
-      </c>
-      <c r="BJ36">
-        <v>13</v>
-      </c>
       <c r="BK36">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37" spans="1:63">
@@ -7760,7 +7820,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>6960586</v>
+        <v>6534690</v>
       </c>
       <c r="C37" t="s">
         <v>63</v>
@@ -7778,22 +7838,22 @@
         <v>98</v>
       </c>
       <c r="H37" t="s">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="I37">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K37">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L37">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M37">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N37">
         <v>4</v>
@@ -7802,148 +7862,148 @@
         <v>130</v>
       </c>
       <c r="P37" t="s">
-        <v>107</v>
+        <v>169</v>
       </c>
       <c r="Q37">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="R37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S37">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="T37">
+        <v>3.65</v>
+      </c>
+      <c r="U37">
+        <v>1.98</v>
+      </c>
+      <c r="V37">
+        <v>3.15</v>
+      </c>
+      <c r="W37">
+        <v>1.43</v>
+      </c>
+      <c r="X37">
+        <v>2.6</v>
+      </c>
+      <c r="Y37">
+        <v>3.3</v>
+      </c>
+      <c r="Z37">
+        <v>1.28</v>
+      </c>
+      <c r="AA37">
+        <v>9.5</v>
+      </c>
+      <c r="AB37">
+        <v>1.04</v>
+      </c>
+      <c r="AC37">
+        <v>3.4</v>
+      </c>
+      <c r="AD37">
+        <v>3.1</v>
+      </c>
+      <c r="AE37">
         <v>2.1</v>
       </c>
-      <c r="U37">
-        <v>2.28</v>
-      </c>
-      <c r="V37">
-        <v>5.86</v>
-      </c>
-      <c r="W37">
-        <v>1.37</v>
-      </c>
-      <c r="X37">
-        <v>2.96</v>
-      </c>
-      <c r="Y37">
-        <v>2.71</v>
-      </c>
-      <c r="Z37">
-        <v>1.43</v>
-      </c>
-      <c r="AA37">
-        <v>6.75</v>
-      </c>
-      <c r="AB37">
-        <v>1.09</v>
-      </c>
-      <c r="AC37">
-        <v>1.42</v>
-      </c>
-      <c r="AD37">
-        <v>4.33</v>
-      </c>
-      <c r="AE37">
-        <v>7.5</v>
-      </c>
       <c r="AF37">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="AG37">
-        <v>9.75</v>
+        <v>8</v>
       </c>
       <c r="AH37">
-        <v>1.28</v>
+        <v>1.36</v>
       </c>
       <c r="AI37">
-        <v>3.4</v>
+        <v>2.95</v>
       </c>
       <c r="AJ37">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="AK37">
+        <v>1.68</v>
+      </c>
+      <c r="AL37">
+        <v>1.87</v>
+      </c>
+      <c r="AM37">
         <v>1.85</v>
       </c>
-      <c r="AL37">
-        <v>1.92</v>
-      </c>
-      <c r="AM37">
-        <v>1.84</v>
-      </c>
       <c r="AN37">
-        <v>1.12</v>
+        <v>1.5</v>
       </c>
       <c r="AO37">
-        <v>1.23</v>
+        <v>1.33</v>
       </c>
       <c r="AP37">
-        <v>2.46</v>
+        <v>1.35</v>
       </c>
       <c r="AQ37">
         <v>0</v>
       </c>
       <c r="AR37">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AS37">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="AT37">
-        <v>1.33</v>
+        <v>2</v>
       </c>
       <c r="AU37">
         <v>0</v>
       </c>
       <c r="AV37">
-        <v>1.86</v>
+        <v>0</v>
       </c>
       <c r="AW37">
-        <v>1.86</v>
+        <v>0</v>
       </c>
       <c r="AX37">
-        <v>1.3</v>
+        <v>2.4</v>
       </c>
       <c r="AY37">
+        <v>7</v>
+      </c>
+      <c r="AZ37">
+        <v>1.85</v>
+      </c>
+      <c r="BA37">
+        <v>1.32</v>
+      </c>
+      <c r="BB37">
+        <v>1.6</v>
+      </c>
+      <c r="BC37">
+        <v>2.05</v>
+      </c>
+      <c r="BD37">
+        <v>2.8</v>
+      </c>
+      <c r="BE37">
+        <v>4</v>
+      </c>
+      <c r="BF37">
+        <v>4</v>
+      </c>
+      <c r="BG37">
+        <v>4</v>
+      </c>
+      <c r="BH37">
+        <v>7</v>
+      </c>
+      <c r="BI37">
+        <v>4</v>
+      </c>
+      <c r="BJ37">
+        <v>11</v>
+      </c>
+      <c r="BK37">
         <v>8</v>
-      </c>
-      <c r="AZ37">
-        <v>4.75</v>
-      </c>
-      <c r="BA37">
-        <v>1.44</v>
-      </c>
-      <c r="BB37">
-        <v>1.9</v>
-      </c>
-      <c r="BC37">
-        <v>2.45</v>
-      </c>
-      <c r="BD37">
-        <v>3.4</v>
-      </c>
-      <c r="BE37">
-        <v>4.8</v>
-      </c>
-      <c r="BF37">
-        <v>10</v>
-      </c>
-      <c r="BG37">
-        <v>0</v>
-      </c>
-      <c r="BH37">
-        <v>5</v>
-      </c>
-      <c r="BI37">
-        <v>6</v>
-      </c>
-      <c r="BJ37">
-        <v>15</v>
-      </c>
-      <c r="BK37">
-        <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:63">
@@ -7951,7 +8011,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>6534690</v>
+        <v>6960586</v>
       </c>
       <c r="C38" t="s">
         <v>63</v>
@@ -7969,22 +8029,22 @@
         <v>99</v>
       </c>
       <c r="H38" t="s">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K38">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L38">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M38">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N38">
         <v>4</v>
@@ -7993,148 +8053,148 @@
         <v>131</v>
       </c>
       <c r="P38" t="s">
-        <v>159</v>
+        <v>107</v>
       </c>
       <c r="Q38">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="R38">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S38">
+        <v>18</v>
+      </c>
+      <c r="T38">
+        <v>2.1</v>
+      </c>
+      <c r="U38">
+        <v>2.28</v>
+      </c>
+      <c r="V38">
+        <v>5.86</v>
+      </c>
+      <c r="W38">
+        <v>1.37</v>
+      </c>
+      <c r="X38">
+        <v>2.96</v>
+      </c>
+      <c r="Y38">
+        <v>2.71</v>
+      </c>
+      <c r="Z38">
+        <v>1.43</v>
+      </c>
+      <c r="AA38">
+        <v>6.75</v>
+      </c>
+      <c r="AB38">
+        <v>1.09</v>
+      </c>
+      <c r="AC38">
+        <v>1.42</v>
+      </c>
+      <c r="AD38">
+        <v>4.33</v>
+      </c>
+      <c r="AE38">
+        <v>7.5</v>
+      </c>
+      <c r="AF38">
+        <v>1.05</v>
+      </c>
+      <c r="AG38">
+        <v>9.75</v>
+      </c>
+      <c r="AH38">
+        <v>1.28</v>
+      </c>
+      <c r="AI38">
+        <v>3.4</v>
+      </c>
+      <c r="AJ38">
+        <v>1.9</v>
+      </c>
+      <c r="AK38">
+        <v>1.85</v>
+      </c>
+      <c r="AL38">
+        <v>1.92</v>
+      </c>
+      <c r="AM38">
+        <v>1.84</v>
+      </c>
+      <c r="AN38">
+        <v>1.12</v>
+      </c>
+      <c r="AO38">
+        <v>1.23</v>
+      </c>
+      <c r="AP38">
+        <v>2.46</v>
+      </c>
+      <c r="AQ38">
+        <v>0</v>
+      </c>
+      <c r="AR38">
+        <v>2</v>
+      </c>
+      <c r="AS38">
+        <v>3</v>
+      </c>
+      <c r="AT38">
+        <v>1</v>
+      </c>
+      <c r="AU38">
+        <v>0</v>
+      </c>
+      <c r="AV38">
+        <v>1.86</v>
+      </c>
+      <c r="AW38">
+        <v>1.86</v>
+      </c>
+      <c r="AX38">
+        <v>1.3</v>
+      </c>
+      <c r="AY38">
+        <v>8</v>
+      </c>
+      <c r="AZ38">
+        <v>4.75</v>
+      </c>
+      <c r="BA38">
+        <v>1.44</v>
+      </c>
+      <c r="BB38">
+        <v>1.9</v>
+      </c>
+      <c r="BC38">
+        <v>2.45</v>
+      </c>
+      <c r="BD38">
+        <v>3.4</v>
+      </c>
+      <c r="BE38">
+        <v>4.8</v>
+      </c>
+      <c r="BF38">
+        <v>10</v>
+      </c>
+      <c r="BG38">
+        <v>0</v>
+      </c>
+      <c r="BH38">
+        <v>5</v>
+      </c>
+      <c r="BI38">
         <v>6</v>
       </c>
-      <c r="T38">
-        <v>3.65</v>
-      </c>
-      <c r="U38">
-        <v>1.98</v>
-      </c>
-      <c r="V38">
-        <v>3.15</v>
-      </c>
-      <c r="W38">
-        <v>1.43</v>
-      </c>
-      <c r="X38">
-        <v>2.6</v>
-      </c>
-      <c r="Y38">
-        <v>3.3</v>
-      </c>
-      <c r="Z38">
-        <v>1.28</v>
-      </c>
-      <c r="AA38">
-        <v>9.5</v>
-      </c>
-      <c r="AB38">
-        <v>1.04</v>
-      </c>
-      <c r="AC38">
-        <v>3.4</v>
-      </c>
-      <c r="AD38">
-        <v>3.1</v>
-      </c>
-      <c r="AE38">
-        <v>2.1</v>
-      </c>
-      <c r="AF38">
-        <v>1.07</v>
-      </c>
-      <c r="AG38">
-        <v>8</v>
-      </c>
-      <c r="AH38">
-        <v>1.36</v>
-      </c>
-      <c r="AI38">
-        <v>2.95</v>
-      </c>
-      <c r="AJ38">
-        <v>2.1</v>
-      </c>
-      <c r="AK38">
-        <v>1.68</v>
-      </c>
-      <c r="AL38">
-        <v>1.87</v>
-      </c>
-      <c r="AM38">
-        <v>1.85</v>
-      </c>
-      <c r="AN38">
-        <v>1.5</v>
-      </c>
-      <c r="AO38">
-        <v>1.33</v>
-      </c>
-      <c r="AP38">
-        <v>1.35</v>
-      </c>
-      <c r="AQ38">
-        <v>0</v>
-      </c>
-      <c r="AR38">
-        <v>0</v>
-      </c>
-      <c r="AS38">
-        <v>0</v>
-      </c>
-      <c r="AT38">
-        <v>3</v>
-      </c>
-      <c r="AU38">
-        <v>0</v>
-      </c>
-      <c r="AV38">
-        <v>0</v>
-      </c>
-      <c r="AW38">
-        <v>0</v>
-      </c>
-      <c r="AX38">
-        <v>2.4</v>
-      </c>
-      <c r="AY38">
-        <v>7</v>
-      </c>
-      <c r="AZ38">
-        <v>1.85</v>
-      </c>
-      <c r="BA38">
-        <v>1.32</v>
-      </c>
-      <c r="BB38">
-        <v>1.6</v>
-      </c>
-      <c r="BC38">
-        <v>2.05</v>
-      </c>
-      <c r="BD38">
-        <v>2.8</v>
-      </c>
-      <c r="BE38">
-        <v>4</v>
-      </c>
-      <c r="BF38">
-        <v>4</v>
-      </c>
-      <c r="BG38">
-        <v>4</v>
-      </c>
-      <c r="BH38">
-        <v>7</v>
-      </c>
-      <c r="BI38">
-        <v>4</v>
-      </c>
       <c r="BJ38">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="BK38">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:63">
@@ -8160,7 +8220,7 @@
         <v>100</v>
       </c>
       <c r="H39" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I39">
         <v>0</v>
@@ -8184,7 +8244,7 @@
         <v>132</v>
       </c>
       <c r="P39" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="Q39">
         <v>5</v>
@@ -8348,7 +8408,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H40" t="s">
         <v>82</v>
@@ -8375,7 +8435,7 @@
         <v>107</v>
       </c>
       <c r="P40" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="Q40">
         <v>6</v>
@@ -8465,7 +8525,7 @@
         <v>1</v>
       </c>
       <c r="AT40">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AU40">
         <v>2.03</v>
@@ -8542,7 +8602,7 @@
         <v>90</v>
       </c>
       <c r="H41" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I41">
         <v>0</v>
@@ -8566,7 +8626,7 @@
         <v>107</v>
       </c>
       <c r="P41" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="Q41">
         <v>7</v>
@@ -8653,7 +8713,7 @@
         <v>0</v>
       </c>
       <c r="AS41">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AT41">
         <v>3</v>
@@ -8733,7 +8793,7 @@
         <v>85</v>
       </c>
       <c r="H42" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I42">
         <v>1</v>
@@ -8844,10 +8904,10 @@
         <v>3</v>
       </c>
       <c r="AS42">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AT42">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AU42">
         <v>1.39</v>
@@ -8924,7 +8984,7 @@
         <v>101</v>
       </c>
       <c r="H43" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I43">
         <v>3</v>
@@ -8948,7 +9008,7 @@
         <v>134</v>
       </c>
       <c r="P43" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="Q43">
         <v>7</v>
@@ -9038,7 +9098,7 @@
         <v>3</v>
       </c>
       <c r="AT43">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AU43">
         <v>0</v>
@@ -9112,10 +9172,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H44" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="I44">
         <v>0</v>
@@ -9139,7 +9199,7 @@
         <v>135</v>
       </c>
       <c r="P44" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="Q44">
         <v>3</v>
@@ -9226,10 +9286,10 @@
         <v>3</v>
       </c>
       <c r="AS44">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AT44">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AU44">
         <v>2.27</v>
@@ -9288,7 +9348,7 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>6960591</v>
+        <v>6960589</v>
       </c>
       <c r="C45" t="s">
         <v>63</v>
@@ -9303,175 +9363,175 @@
         <v>0</v>
       </c>
       <c r="G45" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="H45" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O45" t="s">
-        <v>107</v>
+        <v>136</v>
       </c>
       <c r="P45" t="s">
-        <v>107</v>
+        <v>175</v>
       </c>
       <c r="Q45">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R45">
+        <v>3</v>
+      </c>
+      <c r="S45">
         <v>6</v>
       </c>
-      <c r="S45">
-        <v>11</v>
-      </c>
       <c r="T45">
-        <v>4.75</v>
+        <v>2.3</v>
       </c>
       <c r="U45">
         <v>2.1</v>
       </c>
       <c r="V45">
-        <v>2.35</v>
+        <v>4.6</v>
       </c>
       <c r="W45">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="X45">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="Y45">
-        <v>3.05</v>
+        <v>2.8</v>
       </c>
       <c r="Z45">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="AA45">
-        <v>8</v>
+        <v>7.25</v>
       </c>
       <c r="AB45">
+        <v>1.08</v>
+      </c>
+      <c r="AC45">
+        <v>1.63</v>
+      </c>
+      <c r="AD45">
+        <v>3.65</v>
+      </c>
+      <c r="AE45">
+        <v>6.1</v>
+      </c>
+      <c r="AF45">
         <v>1.06</v>
       </c>
-      <c r="AC45">
-        <v>4.63</v>
-      </c>
-      <c r="AD45">
-        <v>3.42</v>
-      </c>
-      <c r="AE45">
+      <c r="AG45">
+        <v>9.25</v>
+      </c>
+      <c r="AH45">
+        <v>1.31</v>
+      </c>
+      <c r="AI45">
+        <v>3.2</v>
+      </c>
+      <c r="AJ45">
         <v>1.85</v>
       </c>
-      <c r="AF45">
-        <v>1.07</v>
-      </c>
-      <c r="AG45">
-        <v>8.25</v>
-      </c>
-      <c r="AH45">
-        <v>1.36</v>
-      </c>
-      <c r="AI45">
-        <v>3</v>
-      </c>
-      <c r="AJ45">
-        <v>2.09</v>
-      </c>
       <c r="AK45">
-        <v>1.66</v>
+        <v>1.85</v>
       </c>
       <c r="AL45">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AM45">
         <v>1.8</v>
       </c>
       <c r="AN45">
-        <v>2</v>
+        <v>1.19</v>
       </c>
       <c r="AO45">
+        <v>1.26</v>
+      </c>
+      <c r="AP45">
+        <v>2.05</v>
+      </c>
+      <c r="AQ45">
+        <v>1.5</v>
+      </c>
+      <c r="AR45">
+        <v>3</v>
+      </c>
+      <c r="AS45">
+        <v>1</v>
+      </c>
+      <c r="AT45">
+        <v>2.5</v>
+      </c>
+      <c r="AU45">
+        <v>2.27</v>
+      </c>
+      <c r="AV45">
+        <v>2.37</v>
+      </c>
+      <c r="AW45">
+        <v>4.64</v>
+      </c>
+      <c r="AX45">
+        <v>1.3</v>
+      </c>
+      <c r="AY45">
+        <v>9</v>
+      </c>
+      <c r="AZ45">
+        <v>4.5</v>
+      </c>
+      <c r="BA45">
         <v>1.22</v>
       </c>
-      <c r="AP45">
-        <v>1.18</v>
-      </c>
-      <c r="AQ45">
-        <v>2</v>
-      </c>
-      <c r="AR45">
-        <v>3</v>
-      </c>
-      <c r="AS45">
-        <v>1.67</v>
-      </c>
-      <c r="AT45">
-        <v>2.33</v>
-      </c>
-      <c r="AU45">
-        <v>1.48</v>
-      </c>
-      <c r="AV45">
-        <v>1.32</v>
-      </c>
-      <c r="AW45">
-        <v>2.8</v>
-      </c>
-      <c r="AX45">
-        <v>3.75</v>
-      </c>
-      <c r="AY45">
-        <v>7.5</v>
-      </c>
-      <c r="AZ45">
-        <v>1.43</v>
-      </c>
-      <c r="BA45">
-        <v>1.21</v>
-      </c>
       <c r="BB45">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="BC45">
         <v>1.75</v>
       </c>
       <c r="BD45">
-        <v>2.25</v>
+        <v>2.23</v>
       </c>
       <c r="BE45">
         <v>3</v>
       </c>
       <c r="BF45">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="BG45">
+        <v>3</v>
+      </c>
+      <c r="BH45">
         <v>5</v>
       </c>
-      <c r="BH45">
-        <v>3</v>
-      </c>
       <c r="BI45">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BJ45">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="BK45">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" spans="1:63">
@@ -9479,7 +9539,7 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>6960589</v>
+        <v>6960591</v>
       </c>
       <c r="C46" t="s">
         <v>63</v>
@@ -9494,175 +9554,2467 @@
         <v>0</v>
       </c>
       <c r="G46" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="H46" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="I46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K46">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N46">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O46" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
       <c r="P46" t="s">
-        <v>165</v>
+        <v>107</v>
       </c>
       <c r="Q46">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R46">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="S46">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="T46">
-        <v>2.3</v>
+        <v>4.75</v>
       </c>
       <c r="U46">
         <v>2.1</v>
       </c>
       <c r="V46">
-        <v>4.6</v>
+        <v>2.35</v>
       </c>
       <c r="W46">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="X46">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="Y46">
-        <v>2.8</v>
+        <v>3.05</v>
       </c>
       <c r="Z46">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="AA46">
-        <v>7.25</v>
+        <v>8</v>
       </c>
       <c r="AB46">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="AC46">
-        <v>1.63</v>
+        <v>4.63</v>
       </c>
       <c r="AD46">
-        <v>3.65</v>
+        <v>3.42</v>
       </c>
       <c r="AE46">
-        <v>6.1</v>
+        <v>1.85</v>
       </c>
       <c r="AF46">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="AG46">
-        <v>9.25</v>
+        <v>8.25</v>
       </c>
       <c r="AH46">
-        <v>1.31</v>
+        <v>1.36</v>
       </c>
       <c r="AI46">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="AJ46">
-        <v>1.85</v>
+        <v>2.09</v>
       </c>
       <c r="AK46">
-        <v>1.85</v>
+        <v>1.66</v>
       </c>
       <c r="AL46">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AM46">
         <v>1.8</v>
       </c>
       <c r="AN46">
-        <v>1.19</v>
+        <v>2</v>
       </c>
       <c r="AO46">
-        <v>1.26</v>
+        <v>1.22</v>
       </c>
       <c r="AP46">
-        <v>2.05</v>
+        <v>1.18</v>
       </c>
       <c r="AQ46">
+        <v>2</v>
+      </c>
+      <c r="AR46">
+        <v>3</v>
+      </c>
+      <c r="AS46">
         <v>1.5</v>
       </c>
-      <c r="AR46">
-        <v>3</v>
-      </c>
-      <c r="AS46">
-        <v>1.33</v>
-      </c>
       <c r="AT46">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AU46">
-        <v>2.27</v>
+        <v>1.48</v>
       </c>
       <c r="AV46">
-        <v>2.37</v>
+        <v>1.32</v>
       </c>
       <c r="AW46">
-        <v>4.64</v>
+        <v>2.8</v>
       </c>
       <c r="AX46">
-        <v>1.3</v>
+        <v>3.75</v>
       </c>
       <c r="AY46">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="AZ46">
-        <v>4.5</v>
+        <v>1.43</v>
       </c>
       <c r="BA46">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="BB46">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="BC46">
         <v>1.75</v>
       </c>
       <c r="BD46">
-        <v>2.23</v>
+        <v>2.25</v>
       </c>
       <c r="BE46">
         <v>3</v>
       </c>
       <c r="BF46">
+        <v>3</v>
+      </c>
+      <c r="BG46">
+        <v>5</v>
+      </c>
+      <c r="BH46">
+        <v>3</v>
+      </c>
+      <c r="BI46">
+        <v>5</v>
+      </c>
+      <c r="BJ46">
+        <v>6</v>
+      </c>
+      <c r="BK46">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:63">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>6534692</v>
+      </c>
+      <c r="C47" t="s">
+        <v>63</v>
+      </c>
+      <c r="D47" t="s">
+        <v>64</v>
+      </c>
+      <c r="E47" s="2">
+        <v>45139.60416666666</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47" t="s">
+        <v>102</v>
+      </c>
+      <c r="H47" t="s">
+        <v>98</v>
+      </c>
+      <c r="I47">
+        <v>1</v>
+      </c>
+      <c r="J47">
+        <v>1</v>
+      </c>
+      <c r="K47">
+        <v>2</v>
+      </c>
+      <c r="L47">
+        <v>2</v>
+      </c>
+      <c r="M47">
+        <v>2</v>
+      </c>
+      <c r="N47">
+        <v>4</v>
+      </c>
+      <c r="O47" t="s">
+        <v>137</v>
+      </c>
+      <c r="P47" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q47">
+        <v>6</v>
+      </c>
+      <c r="R47">
+        <v>3</v>
+      </c>
+      <c r="S47">
+        <v>9</v>
+      </c>
+      <c r="T47">
+        <v>2.11</v>
+      </c>
+      <c r="U47">
+        <v>2.32</v>
+      </c>
+      <c r="V47">
+        <v>5.55</v>
+      </c>
+      <c r="W47">
+        <v>1.34</v>
+      </c>
+      <c r="X47">
+        <v>3.1</v>
+      </c>
+      <c r="Y47">
+        <v>2.58</v>
+      </c>
+      <c r="Z47">
+        <v>1.47</v>
+      </c>
+      <c r="AA47">
+        <v>6.3</v>
+      </c>
+      <c r="AB47">
+        <v>1.1</v>
+      </c>
+      <c r="AC47">
+        <v>1.6</v>
+      </c>
+      <c r="AD47">
+        <v>4</v>
+      </c>
+      <c r="AE47">
+        <v>5</v>
+      </c>
+      <c r="AF47">
+        <v>1</v>
+      </c>
+      <c r="AG47">
+        <v>10.25</v>
+      </c>
+      <c r="AH47">
+        <v>1.22</v>
+      </c>
+      <c r="AI47">
+        <v>3.72</v>
+      </c>
+      <c r="AJ47">
+        <v>1.75</v>
+      </c>
+      <c r="AK47">
+        <v>2</v>
+      </c>
+      <c r="AL47">
+        <v>1.83</v>
+      </c>
+      <c r="AM47">
+        <v>1.93</v>
+      </c>
+      <c r="AN47">
+        <v>1.11</v>
+      </c>
+      <c r="AO47">
+        <v>1.22</v>
+      </c>
+      <c r="AP47">
+        <v>2.45</v>
+      </c>
+      <c r="AQ47">
+        <v>3</v>
+      </c>
+      <c r="AR47">
+        <v>0</v>
+      </c>
+      <c r="AS47">
+        <v>2</v>
+      </c>
+      <c r="AT47">
+        <v>0.5</v>
+      </c>
+      <c r="AU47">
+        <v>0</v>
+      </c>
+      <c r="AV47">
+        <v>0</v>
+      </c>
+      <c r="AW47">
+        <v>0</v>
+      </c>
+      <c r="AX47">
+        <v>1.5</v>
+      </c>
+      <c r="AY47">
+        <v>7.5</v>
+      </c>
+      <c r="AZ47">
+        <v>3.3</v>
+      </c>
+      <c r="BA47">
+        <v>1.4</v>
+      </c>
+      <c r="BB47">
+        <v>1.74</v>
+      </c>
+      <c r="BC47">
+        <v>2.3</v>
+      </c>
+      <c r="BD47">
+        <v>2.98</v>
+      </c>
+      <c r="BE47">
+        <v>4.5</v>
+      </c>
+      <c r="BF47">
+        <v>5</v>
+      </c>
+      <c r="BG47">
+        <v>6</v>
+      </c>
+      <c r="BH47">
+        <v>4</v>
+      </c>
+      <c r="BI47">
+        <v>1</v>
+      </c>
+      <c r="BJ47">
+        <v>9</v>
+      </c>
+      <c r="BK47">
         <v>7</v>
       </c>
-      <c r="BG46">
-        <v>3</v>
-      </c>
-      <c r="BH46">
+    </row>
+    <row r="48" spans="1:63">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>6960592</v>
+      </c>
+      <c r="C48" t="s">
+        <v>63</v>
+      </c>
+      <c r="D48" t="s">
+        <v>64</v>
+      </c>
+      <c r="E48" s="2">
+        <v>45139.625</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48" t="s">
+        <v>71</v>
+      </c>
+      <c r="H48" t="s">
+        <v>95</v>
+      </c>
+      <c r="I48">
+        <v>1</v>
+      </c>
+      <c r="J48">
+        <v>1</v>
+      </c>
+      <c r="K48">
+        <v>2</v>
+      </c>
+      <c r="L48">
+        <v>2</v>
+      </c>
+      <c r="M48">
+        <v>1</v>
+      </c>
+      <c r="N48">
+        <v>3</v>
+      </c>
+      <c r="O48" t="s">
+        <v>138</v>
+      </c>
+      <c r="P48" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q48">
+        <v>11</v>
+      </c>
+      <c r="R48">
+        <v>7</v>
+      </c>
+      <c r="S48">
+        <v>18</v>
+      </c>
+      <c r="T48">
+        <v>3.6</v>
+      </c>
+      <c r="U48">
+        <v>2.1</v>
+      </c>
+      <c r="V48">
+        <v>2.8</v>
+      </c>
+      <c r="W48">
+        <v>1.41</v>
+      </c>
+      <c r="X48">
+        <v>2.7</v>
+      </c>
+      <c r="Y48">
+        <v>2.95</v>
+      </c>
+      <c r="Z48">
+        <v>1.35</v>
+      </c>
+      <c r="AA48">
+        <v>7.4</v>
+      </c>
+      <c r="AB48">
+        <v>1.06</v>
+      </c>
+      <c r="AC48">
+        <v>3.1</v>
+      </c>
+      <c r="AD48">
+        <v>3.25</v>
+      </c>
+      <c r="AE48">
+        <v>2.25</v>
+      </c>
+      <c r="AF48">
+        <v>1.03</v>
+      </c>
+      <c r="AG48">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AH48">
+        <v>1.32</v>
+      </c>
+      <c r="AI48">
+        <v>3.04</v>
+      </c>
+      <c r="AJ48">
+        <v>2.06</v>
+      </c>
+      <c r="AK48">
+        <v>1.7</v>
+      </c>
+      <c r="AL48">
+        <v>1.83</v>
+      </c>
+      <c r="AM48">
+        <v>1.9</v>
+      </c>
+      <c r="AN48">
+        <v>1.63</v>
+      </c>
+      <c r="AO48">
+        <v>1.25</v>
+      </c>
+      <c r="AP48">
+        <v>1.36</v>
+      </c>
+      <c r="AQ48">
+        <v>2.33</v>
+      </c>
+      <c r="AR48">
+        <v>1.33</v>
+      </c>
+      <c r="AS48">
+        <v>2.5</v>
+      </c>
+      <c r="AT48">
+        <v>1</v>
+      </c>
+      <c r="AU48">
+        <v>2.56</v>
+      </c>
+      <c r="AV48">
+        <v>1.79</v>
+      </c>
+      <c r="AW48">
+        <v>4.35</v>
+      </c>
+      <c r="AX48">
+        <v>1.95</v>
+      </c>
+      <c r="AY48">
+        <v>8</v>
+      </c>
+      <c r="AZ48">
+        <v>2.05</v>
+      </c>
+      <c r="BA48">
+        <v>1.38</v>
+      </c>
+      <c r="BB48">
+        <v>1.65</v>
+      </c>
+      <c r="BC48">
+        <v>2.05</v>
+      </c>
+      <c r="BD48">
+        <v>2.7</v>
+      </c>
+      <c r="BE48">
+        <v>3.75</v>
+      </c>
+      <c r="BF48">
+        <v>9</v>
+      </c>
+      <c r="BG48">
+        <v>4</v>
+      </c>
+      <c r="BH48">
+        <v>4</v>
+      </c>
+      <c r="BI48">
+        <v>4</v>
+      </c>
+      <c r="BJ48">
+        <v>13</v>
+      </c>
+      <c r="BK48">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:63">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>6960593</v>
+      </c>
+      <c r="C49" t="s">
+        <v>63</v>
+      </c>
+      <c r="D49" t="s">
+        <v>64</v>
+      </c>
+      <c r="E49" s="2">
+        <v>45139.625</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49" t="s">
+        <v>88</v>
+      </c>
+      <c r="H49" t="s">
+        <v>101</v>
+      </c>
+      <c r="I49">
+        <v>1</v>
+      </c>
+      <c r="J49">
+        <v>3</v>
+      </c>
+      <c r="K49">
+        <v>4</v>
+      </c>
+      <c r="L49">
+        <v>3</v>
+      </c>
+      <c r="M49">
         <v>5</v>
       </c>
-      <c r="BI46">
+      <c r="N49">
+        <v>8</v>
+      </c>
+      <c r="O49" t="s">
+        <v>139</v>
+      </c>
+      <c r="P49" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q49">
+        <v>7</v>
+      </c>
+      <c r="R49">
+        <v>4</v>
+      </c>
+      <c r="S49">
+        <v>11</v>
+      </c>
+      <c r="T49">
+        <v>4.5</v>
+      </c>
+      <c r="U49">
+        <v>2.1</v>
+      </c>
+      <c r="V49">
+        <v>2.4</v>
+      </c>
+      <c r="W49">
+        <v>1.4</v>
+      </c>
+      <c r="X49">
+        <v>2.75</v>
+      </c>
+      <c r="Y49">
+        <v>2.75</v>
+      </c>
+      <c r="Z49">
+        <v>1.4</v>
+      </c>
+      <c r="AA49">
+        <v>7</v>
+      </c>
+      <c r="AB49">
+        <v>1.08</v>
+      </c>
+      <c r="AC49">
+        <v>3.8</v>
+      </c>
+      <c r="AD49">
+        <v>3.45</v>
+      </c>
+      <c r="AE49">
+        <v>1.93</v>
+      </c>
+      <c r="AF49">
+        <v>0</v>
+      </c>
+      <c r="AG49">
+        <v>0</v>
+      </c>
+      <c r="AH49">
+        <v>0</v>
+      </c>
+      <c r="AI49">
+        <v>0</v>
+      </c>
+      <c r="AJ49">
+        <v>1.94</v>
+      </c>
+      <c r="AK49">
+        <v>1.79</v>
+      </c>
+      <c r="AL49">
+        <v>1.83</v>
+      </c>
+      <c r="AM49">
+        <v>1.83</v>
+      </c>
+      <c r="AN49">
+        <v>0</v>
+      </c>
+      <c r="AO49">
+        <v>0</v>
+      </c>
+      <c r="AP49">
+        <v>0</v>
+      </c>
+      <c r="AQ49">
+        <v>1.33</v>
+      </c>
+      <c r="AR49">
+        <v>3</v>
+      </c>
+      <c r="AS49">
+        <v>1</v>
+      </c>
+      <c r="AT49">
+        <v>3</v>
+      </c>
+      <c r="AU49">
+        <v>0.65</v>
+      </c>
+      <c r="AV49">
+        <v>0</v>
+      </c>
+      <c r="AW49">
+        <v>0.65</v>
+      </c>
+      <c r="AX49">
+        <v>0</v>
+      </c>
+      <c r="AY49">
+        <v>0</v>
+      </c>
+      <c r="AZ49">
+        <v>0</v>
+      </c>
+      <c r="BA49">
+        <v>0</v>
+      </c>
+      <c r="BB49">
+        <v>0</v>
+      </c>
+      <c r="BC49">
+        <v>0</v>
+      </c>
+      <c r="BD49">
+        <v>0</v>
+      </c>
+      <c r="BE49">
+        <v>0</v>
+      </c>
+      <c r="BF49">
+        <v>6</v>
+      </c>
+      <c r="BG49">
+        <v>10</v>
+      </c>
+      <c r="BH49">
+        <v>4</v>
+      </c>
+      <c r="BI49">
+        <v>4</v>
+      </c>
+      <c r="BJ49">
+        <v>10</v>
+      </c>
+      <c r="BK49">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="1:63">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>6960594</v>
+      </c>
+      <c r="C50" t="s">
+        <v>63</v>
+      </c>
+      <c r="D50" t="s">
+        <v>64</v>
+      </c>
+      <c r="E50" s="2">
+        <v>45139.64583333334</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50" t="s">
+        <v>82</v>
+      </c>
+      <c r="H50" t="s">
+        <v>89</v>
+      </c>
+      <c r="I50">
+        <v>1</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>1</v>
+      </c>
+      <c r="L50">
+        <v>2</v>
+      </c>
+      <c r="M50">
+        <v>2</v>
+      </c>
+      <c r="N50">
+        <v>4</v>
+      </c>
+      <c r="O50" t="s">
+        <v>140</v>
+      </c>
+      <c r="P50" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q50">
+        <v>7</v>
+      </c>
+      <c r="R50">
+        <v>2</v>
+      </c>
+      <c r="S50">
         <v>9</v>
       </c>
-      <c r="BJ46">
+      <c r="T50">
+        <v>2.58</v>
+      </c>
+      <c r="U50">
+        <v>2</v>
+      </c>
+      <c r="V50">
+        <v>5.07</v>
+      </c>
+      <c r="W50">
+        <v>1.51</v>
+      </c>
+      <c r="X50">
+        <v>2.46</v>
+      </c>
+      <c r="Y50">
+        <v>3.34</v>
+      </c>
+      <c r="Z50">
+        <v>1.3</v>
+      </c>
+      <c r="AA50">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AB50">
+        <v>1.04</v>
+      </c>
+      <c r="AC50">
+        <v>1.8</v>
+      </c>
+      <c r="AD50">
+        <v>3.4</v>
+      </c>
+      <c r="AE50">
+        <v>4.5</v>
+      </c>
+      <c r="AF50">
+        <v>1.05</v>
+      </c>
+      <c r="AG50">
+        <v>7</v>
+      </c>
+      <c r="AH50">
+        <v>1.42</v>
+      </c>
+      <c r="AI50">
+        <v>2.61</v>
+      </c>
+      <c r="AJ50">
+        <v>2.3</v>
+      </c>
+      <c r="AK50">
+        <v>1.57</v>
+      </c>
+      <c r="AL50">
+        <v>2.09</v>
+      </c>
+      <c r="AM50">
+        <v>1.71</v>
+      </c>
+      <c r="AN50">
+        <v>1.16</v>
+      </c>
+      <c r="AO50">
+        <v>1.35</v>
+      </c>
+      <c r="AP50">
+        <v>1.9</v>
+      </c>
+      <c r="AQ50">
+        <v>2.33</v>
+      </c>
+      <c r="AR50">
+        <v>1</v>
+      </c>
+      <c r="AS50">
+        <v>2</v>
+      </c>
+      <c r="AT50">
+        <v>1</v>
+      </c>
+      <c r="AU50">
+        <v>0.98</v>
+      </c>
+      <c r="AV50">
+        <v>1.12</v>
+      </c>
+      <c r="AW50">
+        <v>2.1</v>
+      </c>
+      <c r="AX50">
+        <v>1.6</v>
+      </c>
+      <c r="AY50">
+        <v>7</v>
+      </c>
+      <c r="AZ50">
+        <v>3</v>
+      </c>
+      <c r="BA50">
+        <v>1.47</v>
+      </c>
+      <c r="BB50">
+        <v>1.8</v>
+      </c>
+      <c r="BC50">
+        <v>2.3</v>
+      </c>
+      <c r="BD50">
+        <v>3</v>
+      </c>
+      <c r="BE50">
+        <v>3.4</v>
+      </c>
+      <c r="BF50">
+        <v>6</v>
+      </c>
+      <c r="BG50">
+        <v>6</v>
+      </c>
+      <c r="BH50">
+        <v>5</v>
+      </c>
+      <c r="BI50">
+        <v>7</v>
+      </c>
+      <c r="BJ50">
+        <v>11</v>
+      </c>
+      <c r="BK50">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="1:63">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>6960595</v>
+      </c>
+      <c r="C51" t="s">
+        <v>63</v>
+      </c>
+      <c r="D51" t="s">
+        <v>64</v>
+      </c>
+      <c r="E51" s="2">
+        <v>45140.45833333334</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51" t="s">
+        <v>78</v>
+      </c>
+      <c r="H51" t="s">
+        <v>99</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>1</v>
+      </c>
+      <c r="K51">
+        <v>1</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>2</v>
+      </c>
+      <c r="N51">
+        <v>2</v>
+      </c>
+      <c r="O51" t="s">
+        <v>107</v>
+      </c>
+      <c r="P51" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q51">
+        <v>8</v>
+      </c>
+      <c r="R51">
+        <v>4</v>
+      </c>
+      <c r="S51">
         <v>12</v>
       </c>
-      <c r="BK46">
+      <c r="T51">
+        <v>4.33</v>
+      </c>
+      <c r="U51">
+        <v>2.1</v>
+      </c>
+      <c r="V51">
+        <v>2.6</v>
+      </c>
+      <c r="W51">
+        <v>1.44</v>
+      </c>
+      <c r="X51">
+        <v>2.63</v>
+      </c>
+      <c r="Y51">
+        <v>3</v>
+      </c>
+      <c r="Z51">
+        <v>1.36</v>
+      </c>
+      <c r="AA51">
+        <v>7.5</v>
+      </c>
+      <c r="AB51">
+        <v>1.07</v>
+      </c>
+      <c r="AC51">
+        <v>3.09</v>
+      </c>
+      <c r="AD51">
+        <v>3.4</v>
+      </c>
+      <c r="AE51">
+        <v>2.29</v>
+      </c>
+      <c r="AF51">
+        <v>1.06</v>
+      </c>
+      <c r="AG51">
+        <v>8</v>
+      </c>
+      <c r="AH51">
+        <v>1.33</v>
+      </c>
+      <c r="AI51">
+        <v>3.2</v>
+      </c>
+      <c r="AJ51">
+        <v>1.98</v>
+      </c>
+      <c r="AK51">
+        <v>1.73</v>
+      </c>
+      <c r="AL51">
+        <v>1.83</v>
+      </c>
+      <c r="AM51">
+        <v>1.83</v>
+      </c>
+      <c r="AN51">
+        <v>1.82</v>
+      </c>
+      <c r="AO51">
+        <v>1.29</v>
+      </c>
+      <c r="AP51">
+        <v>1.25</v>
+      </c>
+      <c r="AQ51">
+        <v>1.33</v>
+      </c>
+      <c r="AR51">
+        <v>3</v>
+      </c>
+      <c r="AS51">
+        <v>1</v>
+      </c>
+      <c r="AT51">
+        <v>3</v>
+      </c>
+      <c r="AU51">
+        <v>2.25</v>
+      </c>
+      <c r="AV51">
+        <v>0</v>
+      </c>
+      <c r="AW51">
+        <v>2.25</v>
+      </c>
+      <c r="AX51">
+        <v>2.69</v>
+      </c>
+      <c r="AY51">
+        <v>8.6</v>
+      </c>
+      <c r="AZ51">
+        <v>1.72</v>
+      </c>
+      <c r="BA51">
+        <v>1.36</v>
+      </c>
+      <c r="BB51">
+        <v>1.62</v>
+      </c>
+      <c r="BC51">
+        <v>2</v>
+      </c>
+      <c r="BD51">
+        <v>2.65</v>
+      </c>
+      <c r="BE51">
+        <v>3.5</v>
+      </c>
+      <c r="BF51">
+        <v>3</v>
+      </c>
+      <c r="BG51">
+        <v>7</v>
+      </c>
+      <c r="BH51">
         <v>12</v>
+      </c>
+      <c r="BI51">
+        <v>2</v>
+      </c>
+      <c r="BJ51">
+        <v>15</v>
+      </c>
+      <c r="BK51">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:63">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>6960596</v>
+      </c>
+      <c r="C52" t="s">
+        <v>63</v>
+      </c>
+      <c r="D52" t="s">
+        <v>64</v>
+      </c>
+      <c r="E52" s="2">
+        <v>45140.54166666666</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52" t="s">
+        <v>94</v>
+      </c>
+      <c r="H52" t="s">
+        <v>72</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>1</v>
+      </c>
+      <c r="M52">
+        <v>1</v>
+      </c>
+      <c r="N52">
+        <v>2</v>
+      </c>
+      <c r="O52" t="s">
+        <v>141</v>
+      </c>
+      <c r="P52" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q52">
+        <v>6</v>
+      </c>
+      <c r="R52">
+        <v>2</v>
+      </c>
+      <c r="S52">
+        <v>8</v>
+      </c>
+      <c r="T52">
+        <v>2.65</v>
+      </c>
+      <c r="U52">
+        <v>1.98</v>
+      </c>
+      <c r="V52">
+        <v>4.1</v>
+      </c>
+      <c r="W52">
+        <v>1.48</v>
+      </c>
+      <c r="X52">
+        <v>2.45</v>
+      </c>
+      <c r="Y52">
+        <v>3.2</v>
+      </c>
+      <c r="Z52">
+        <v>1.3</v>
+      </c>
+      <c r="AA52">
+        <v>9.75</v>
+      </c>
+      <c r="AB52">
+        <v>1.06</v>
+      </c>
+      <c r="AC52">
+        <v>2.27</v>
+      </c>
+      <c r="AD52">
+        <v>3.24</v>
+      </c>
+      <c r="AE52">
+        <v>3.28</v>
+      </c>
+      <c r="AF52">
+        <v>1.06</v>
+      </c>
+      <c r="AG52">
+        <v>8</v>
+      </c>
+      <c r="AH52">
+        <v>1.4</v>
+      </c>
+      <c r="AI52">
+        <v>2.85</v>
+      </c>
+      <c r="AJ52">
+        <v>1.94</v>
+      </c>
+      <c r="AK52">
+        <v>1.76</v>
+      </c>
+      <c r="AL52">
+        <v>1.83</v>
+      </c>
+      <c r="AM52">
+        <v>1.85</v>
+      </c>
+      <c r="AN52">
+        <v>1.3</v>
+      </c>
+      <c r="AO52">
+        <v>1.32</v>
+      </c>
+      <c r="AP52">
+        <v>1.7</v>
+      </c>
+      <c r="AQ52">
+        <v>2</v>
+      </c>
+      <c r="AR52">
+        <v>3</v>
+      </c>
+      <c r="AS52">
+        <v>1.75</v>
+      </c>
+      <c r="AT52">
+        <v>2.5</v>
+      </c>
+      <c r="AU52">
+        <v>2.81</v>
+      </c>
+      <c r="AV52">
+        <v>2.47</v>
+      </c>
+      <c r="AW52">
+        <v>5.28</v>
+      </c>
+      <c r="AX52">
+        <v>1.62</v>
+      </c>
+      <c r="AY52">
+        <v>9.5</v>
+      </c>
+      <c r="AZ52">
+        <v>2.88</v>
+      </c>
+      <c r="BA52">
+        <v>1.33</v>
+      </c>
+      <c r="BB52">
+        <v>1.6</v>
+      </c>
+      <c r="BC52">
+        <v>1.95</v>
+      </c>
+      <c r="BD52">
+        <v>2.55</v>
+      </c>
+      <c r="BE52">
+        <v>3.4</v>
+      </c>
+      <c r="BF52">
+        <v>6</v>
+      </c>
+      <c r="BG52">
+        <v>3</v>
+      </c>
+      <c r="BH52">
+        <v>3</v>
+      </c>
+      <c r="BI52">
+        <v>2</v>
+      </c>
+      <c r="BJ52">
+        <v>9</v>
+      </c>
+      <c r="BK52">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:63">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>6960597</v>
+      </c>
+      <c r="C53" t="s">
+        <v>63</v>
+      </c>
+      <c r="D53" t="s">
+        <v>64</v>
+      </c>
+      <c r="E53" s="2">
+        <v>45140.58333333334</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53" t="s">
+        <v>103</v>
+      </c>
+      <c r="H53" t="s">
+        <v>79</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>2</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>2</v>
+      </c>
+      <c r="O53" t="s">
+        <v>142</v>
+      </c>
+      <c r="P53" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q53">
+        <v>10</v>
+      </c>
+      <c r="R53">
+        <v>1</v>
+      </c>
+      <c r="S53">
+        <v>11</v>
+      </c>
+      <c r="T53">
+        <v>1.67</v>
+      </c>
+      <c r="U53">
+        <v>2.5</v>
+      </c>
+      <c r="V53">
+        <v>10</v>
+      </c>
+      <c r="W53">
+        <v>1.3</v>
+      </c>
+      <c r="X53">
+        <v>3.2</v>
+      </c>
+      <c r="Y53">
+        <v>2.45</v>
+      </c>
+      <c r="Z53">
+        <v>1.5</v>
+      </c>
+      <c r="AA53">
+        <v>6</v>
+      </c>
+      <c r="AB53">
+        <v>1.12</v>
+      </c>
+      <c r="AC53">
+        <v>1.48</v>
+      </c>
+      <c r="AD53">
+        <v>4.4</v>
+      </c>
+      <c r="AE53">
+        <v>6.58</v>
+      </c>
+      <c r="AF53">
+        <v>1.03</v>
+      </c>
+      <c r="AG53">
+        <v>16.25</v>
+      </c>
+      <c r="AH53">
+        <v>1.23</v>
+      </c>
+      <c r="AI53">
+        <v>4.25</v>
+      </c>
+      <c r="AJ53">
+        <v>1.67</v>
+      </c>
+      <c r="AK53">
+        <v>2.1</v>
+      </c>
+      <c r="AL53">
+        <v>2.38</v>
+      </c>
+      <c r="AM53">
+        <v>1.53</v>
+      </c>
+      <c r="AN53">
+        <v>1.06</v>
+      </c>
+      <c r="AO53">
+        <v>1.13</v>
+      </c>
+      <c r="AP53">
+        <v>3.9</v>
+      </c>
+      <c r="AQ53">
+        <v>0</v>
+      </c>
+      <c r="AR53">
+        <v>2.33</v>
+      </c>
+      <c r="AS53">
+        <v>1.5</v>
+      </c>
+      <c r="AT53">
+        <v>1.75</v>
+      </c>
+      <c r="AU53">
+        <v>0</v>
+      </c>
+      <c r="AV53">
+        <v>1.42</v>
+      </c>
+      <c r="AW53">
+        <v>1.42</v>
+      </c>
+      <c r="AX53">
+        <v>1.15</v>
+      </c>
+      <c r="AY53">
+        <v>23</v>
+      </c>
+      <c r="AZ53">
+        <v>6.4</v>
+      </c>
+      <c r="BA53">
+        <v>1.23</v>
+      </c>
+      <c r="BB53">
+        <v>1.36</v>
+      </c>
+      <c r="BC53">
+        <v>1.62</v>
+      </c>
+      <c r="BD53">
+        <v>2</v>
+      </c>
+      <c r="BE53">
+        <v>2.55</v>
+      </c>
+      <c r="BF53">
+        <v>4</v>
+      </c>
+      <c r="BG53">
+        <v>2</v>
+      </c>
+      <c r="BH53">
+        <v>13</v>
+      </c>
+      <c r="BI53">
+        <v>0</v>
+      </c>
+      <c r="BJ53">
+        <v>17</v>
+      </c>
+      <c r="BK53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:63">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>6960598</v>
+      </c>
+      <c r="C54" t="s">
+        <v>63</v>
+      </c>
+      <c r="D54" t="s">
+        <v>64</v>
+      </c>
+      <c r="E54" s="2">
+        <v>45140.58333333334</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54" t="s">
+        <v>80</v>
+      </c>
+      <c r="H54" t="s">
+        <v>74</v>
+      </c>
+      <c r="I54">
+        <v>1</v>
+      </c>
+      <c r="J54">
+        <v>1</v>
+      </c>
+      <c r="K54">
+        <v>2</v>
+      </c>
+      <c r="L54">
+        <v>3</v>
+      </c>
+      <c r="M54">
+        <v>3</v>
+      </c>
+      <c r="N54">
+        <v>6</v>
+      </c>
+      <c r="O54" t="s">
+        <v>143</v>
+      </c>
+      <c r="P54" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q54">
+        <v>8</v>
+      </c>
+      <c r="R54">
+        <v>6</v>
+      </c>
+      <c r="S54">
+        <v>14</v>
+      </c>
+      <c r="T54">
+        <v>1.75</v>
+      </c>
+      <c r="U54">
+        <v>2.5</v>
+      </c>
+      <c r="V54">
+        <v>6.5</v>
+      </c>
+      <c r="W54">
+        <v>1.28</v>
+      </c>
+      <c r="X54">
+        <v>3.3</v>
+      </c>
+      <c r="Y54">
+        <v>2.3</v>
+      </c>
+      <c r="Z54">
+        <v>1.53</v>
+      </c>
+      <c r="AA54">
+        <v>5.25</v>
+      </c>
+      <c r="AB54">
+        <v>1.13</v>
+      </c>
+      <c r="AC54">
+        <v>1.33</v>
+      </c>
+      <c r="AD54">
+        <v>5.3</v>
+      </c>
+      <c r="AE54">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AF54">
+        <v>1.03</v>
+      </c>
+      <c r="AG54">
+        <v>14</v>
+      </c>
+      <c r="AH54">
+        <v>1.19</v>
+      </c>
+      <c r="AI54">
+        <v>4.33</v>
+      </c>
+      <c r="AJ54">
+        <v>1.59</v>
+      </c>
+      <c r="AK54">
+        <v>2.2</v>
+      </c>
+      <c r="AL54">
+        <v>1.95</v>
+      </c>
+      <c r="AM54">
+        <v>1.75</v>
+      </c>
+      <c r="AN54">
+        <v>1.08</v>
+      </c>
+      <c r="AO54">
+        <v>1.15</v>
+      </c>
+      <c r="AP54">
+        <v>3.2</v>
+      </c>
+      <c r="AQ54">
+        <v>2.33</v>
+      </c>
+      <c r="AR54">
+        <v>1.67</v>
+      </c>
+      <c r="AS54">
+        <v>2</v>
+      </c>
+      <c r="AT54">
+        <v>1.5</v>
+      </c>
+      <c r="AU54">
+        <v>2.9</v>
+      </c>
+      <c r="AV54">
+        <v>1.42</v>
+      </c>
+      <c r="AW54">
+        <v>4.32</v>
+      </c>
+      <c r="AX54">
+        <v>1.29</v>
+      </c>
+      <c r="AY54">
+        <v>13.5</v>
+      </c>
+      <c r="AZ54">
+        <v>4.49</v>
+      </c>
+      <c r="BA54">
+        <v>1.25</v>
+      </c>
+      <c r="BB54">
+        <v>1.47</v>
+      </c>
+      <c r="BC54">
+        <v>1.8</v>
+      </c>
+      <c r="BD54">
+        <v>2.25</v>
+      </c>
+      <c r="BE54">
+        <v>3</v>
+      </c>
+      <c r="BF54">
+        <v>9</v>
+      </c>
+      <c r="BG54">
+        <v>14</v>
+      </c>
+      <c r="BH54">
+        <v>10</v>
+      </c>
+      <c r="BI54">
+        <v>11</v>
+      </c>
+      <c r="BJ54">
+        <v>19</v>
+      </c>
+      <c r="BK54">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="55" spans="1:63">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>6534693</v>
+      </c>
+      <c r="C55" t="s">
+        <v>63</v>
+      </c>
+      <c r="D55" t="s">
+        <v>64</v>
+      </c>
+      <c r="E55" s="2">
+        <v>45140.58333333334</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55" t="s">
+        <v>104</v>
+      </c>
+      <c r="H55" t="s">
+        <v>100</v>
+      </c>
+      <c r="I55">
+        <v>1</v>
+      </c>
+      <c r="J55">
+        <v>1</v>
+      </c>
+      <c r="K55">
+        <v>2</v>
+      </c>
+      <c r="L55">
+        <v>2</v>
+      </c>
+      <c r="M55">
+        <v>2</v>
+      </c>
+      <c r="N55">
+        <v>4</v>
+      </c>
+      <c r="O55" t="s">
+        <v>144</v>
+      </c>
+      <c r="P55" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q55">
+        <v>11</v>
+      </c>
+      <c r="R55">
+        <v>0</v>
+      </c>
+      <c r="S55">
+        <v>11</v>
+      </c>
+      <c r="T55">
+        <v>2.15</v>
+      </c>
+      <c r="U55">
+        <v>2.25</v>
+      </c>
+      <c r="V55">
+        <v>4.8</v>
+      </c>
+      <c r="W55">
+        <v>1.32</v>
+      </c>
+      <c r="X55">
+        <v>3.1</v>
+      </c>
+      <c r="Y55">
+        <v>2.5</v>
+      </c>
+      <c r="Z55">
+        <v>1.48</v>
+      </c>
+      <c r="AA55">
+        <v>6.25</v>
+      </c>
+      <c r="AB55">
+        <v>1.11</v>
+      </c>
+      <c r="AC55">
+        <v>1.67</v>
+      </c>
+      <c r="AD55">
+        <v>3.95</v>
+      </c>
+      <c r="AE55">
+        <v>4.97</v>
+      </c>
+      <c r="AF55">
+        <v>1.04</v>
+      </c>
+      <c r="AG55">
+        <v>15</v>
+      </c>
+      <c r="AH55">
+        <v>1.24</v>
+      </c>
+      <c r="AI55">
+        <v>4.12</v>
+      </c>
+      <c r="AJ55">
+        <v>1.58</v>
+      </c>
+      <c r="AK55">
+        <v>2.22</v>
+      </c>
+      <c r="AL55">
+        <v>1.75</v>
+      </c>
+      <c r="AM55">
+        <v>2.05</v>
+      </c>
+      <c r="AN55">
+        <v>1.2</v>
+      </c>
+      <c r="AO55">
+        <v>1.24</v>
+      </c>
+      <c r="AP55">
+        <v>2.15</v>
+      </c>
+      <c r="AQ55">
+        <v>1</v>
+      </c>
+      <c r="AR55">
+        <v>1</v>
+      </c>
+      <c r="AS55">
+        <v>1</v>
+      </c>
+      <c r="AT55">
+        <v>1</v>
+      </c>
+      <c r="AU55">
+        <v>0</v>
+      </c>
+      <c r="AV55">
+        <v>0</v>
+      </c>
+      <c r="AW55">
+        <v>0</v>
+      </c>
+      <c r="AX55">
+        <v>1.45</v>
+      </c>
+      <c r="AY55">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AZ55">
+        <v>3.61</v>
+      </c>
+      <c r="BA55">
+        <v>1.38</v>
+      </c>
+      <c r="BB55">
+        <v>1.65</v>
+      </c>
+      <c r="BC55">
+        <v>2.05</v>
+      </c>
+      <c r="BD55">
+        <v>2.7</v>
+      </c>
+      <c r="BE55">
+        <v>3.75</v>
+      </c>
+      <c r="BF55">
+        <v>15</v>
+      </c>
+      <c r="BG55">
+        <v>5</v>
+      </c>
+      <c r="BH55">
+        <v>12</v>
+      </c>
+      <c r="BI55">
+        <v>2</v>
+      </c>
+      <c r="BJ55">
+        <v>27</v>
+      </c>
+      <c r="BK55">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:63">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>6948870</v>
+      </c>
+      <c r="C56" t="s">
+        <v>63</v>
+      </c>
+      <c r="D56" t="s">
+        <v>64</v>
+      </c>
+      <c r="E56" s="2">
+        <v>45140.58333333334</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56" t="s">
+        <v>86</v>
+      </c>
+      <c r="H56" t="s">
+        <v>85</v>
+      </c>
+      <c r="I56">
+        <v>1</v>
+      </c>
+      <c r="J56">
+        <v>1</v>
+      </c>
+      <c r="K56">
+        <v>2</v>
+      </c>
+      <c r="L56">
+        <v>4</v>
+      </c>
+      <c r="M56">
+        <v>1</v>
+      </c>
+      <c r="N56">
+        <v>5</v>
+      </c>
+      <c r="O56" t="s">
+        <v>145</v>
+      </c>
+      <c r="P56" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q56">
+        <v>14</v>
+      </c>
+      <c r="R56">
+        <v>6</v>
+      </c>
+      <c r="S56">
+        <v>20</v>
+      </c>
+      <c r="T56">
+        <v>1.95</v>
+      </c>
+      <c r="U56">
+        <v>2.2</v>
+      </c>
+      <c r="V56">
+        <v>6.5</v>
+      </c>
+      <c r="W56">
+        <v>1.4</v>
+      </c>
+      <c r="X56">
+        <v>2.75</v>
+      </c>
+      <c r="Y56">
+        <v>2.87</v>
+      </c>
+      <c r="Z56">
+        <v>1.36</v>
+      </c>
+      <c r="AA56">
+        <v>7.5</v>
+      </c>
+      <c r="AB56">
+        <v>1.07</v>
+      </c>
+      <c r="AC56">
+        <v>1.6</v>
+      </c>
+      <c r="AD56">
+        <v>3.86</v>
+      </c>
+      <c r="AE56">
+        <v>5.87</v>
+      </c>
+      <c r="AF56">
+        <v>1.02</v>
+      </c>
+      <c r="AG56">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AH56">
+        <v>1.3</v>
+      </c>
+      <c r="AI56">
+        <v>3.14</v>
+      </c>
+      <c r="AJ56">
+        <v>1.87</v>
+      </c>
+      <c r="AK56">
+        <v>1.83</v>
+      </c>
+      <c r="AL56">
+        <v>2.25</v>
+      </c>
+      <c r="AM56">
+        <v>1.55</v>
+      </c>
+      <c r="AN56">
+        <v>1.09</v>
+      </c>
+      <c r="AO56">
+        <v>1.2</v>
+      </c>
+      <c r="AP56">
+        <v>2.75</v>
+      </c>
+      <c r="AQ56">
+        <v>2</v>
+      </c>
+      <c r="AR56">
+        <v>2</v>
+      </c>
+      <c r="AS56">
+        <v>2.25</v>
+      </c>
+      <c r="AT56">
+        <v>1.5</v>
+      </c>
+      <c r="AU56">
+        <v>2.04</v>
+      </c>
+      <c r="AV56">
+        <v>1.68</v>
+      </c>
+      <c r="AW56">
+        <v>3.72</v>
+      </c>
+      <c r="AX56">
+        <v>1.24</v>
+      </c>
+      <c r="AY56">
+        <v>9.5</v>
+      </c>
+      <c r="AZ56">
+        <v>5.74</v>
+      </c>
+      <c r="BA56">
+        <v>1.28</v>
+      </c>
+      <c r="BB56">
+        <v>1.5</v>
+      </c>
+      <c r="BC56">
+        <v>1.83</v>
+      </c>
+      <c r="BD56">
+        <v>2.35</v>
+      </c>
+      <c r="BE56">
+        <v>3.1</v>
+      </c>
+      <c r="BF56">
+        <v>11</v>
+      </c>
+      <c r="BG56">
+        <v>6</v>
+      </c>
+      <c r="BH56">
+        <v>11</v>
+      </c>
+      <c r="BI56">
+        <v>8</v>
+      </c>
+      <c r="BJ56">
+        <v>22</v>
+      </c>
+      <c r="BK56">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="57" spans="1:63">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>6948871</v>
+      </c>
+      <c r="C57" t="s">
+        <v>63</v>
+      </c>
+      <c r="D57" t="s">
+        <v>64</v>
+      </c>
+      <c r="E57" s="2">
+        <v>45140.625</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57" t="s">
+        <v>105</v>
+      </c>
+      <c r="H57" t="s">
+        <v>90</v>
+      </c>
+      <c r="I57">
+        <v>4</v>
+      </c>
+      <c r="J57">
+        <v>1</v>
+      </c>
+      <c r="K57">
+        <v>5</v>
+      </c>
+      <c r="L57">
+        <v>6</v>
+      </c>
+      <c r="M57">
+        <v>3</v>
+      </c>
+      <c r="N57">
+        <v>9</v>
+      </c>
+      <c r="O57" t="s">
+        <v>146</v>
+      </c>
+      <c r="P57" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q57">
+        <v>3</v>
+      </c>
+      <c r="R57">
+        <v>3</v>
+      </c>
+      <c r="S57">
+        <v>6</v>
+      </c>
+      <c r="T57">
+        <v>1.68</v>
+      </c>
+      <c r="U57">
+        <v>2.55</v>
+      </c>
+      <c r="V57">
+        <v>8</v>
+      </c>
+      <c r="W57">
+        <v>1.28</v>
+      </c>
+      <c r="X57">
+        <v>3.3</v>
+      </c>
+      <c r="Y57">
+        <v>2.35</v>
+      </c>
+      <c r="Z57">
+        <v>1.52</v>
+      </c>
+      <c r="AA57">
+        <v>5.5</v>
+      </c>
+      <c r="AB57">
+        <v>1.13</v>
+      </c>
+      <c r="AC57">
+        <v>1.27</v>
+      </c>
+      <c r="AD57">
+        <v>5.7</v>
+      </c>
+      <c r="AE57">
+        <v>11</v>
+      </c>
+      <c r="AF57">
+        <v>1.03</v>
+      </c>
+      <c r="AG57">
+        <v>18.25</v>
+      </c>
+      <c r="AH57">
+        <v>1.2</v>
+      </c>
+      <c r="AI57">
+        <v>4.6</v>
+      </c>
+      <c r="AJ57">
+        <v>1.52</v>
+      </c>
+      <c r="AK57">
+        <v>2.35</v>
+      </c>
+      <c r="AL57">
+        <v>2.1</v>
+      </c>
+      <c r="AM57">
+        <v>1.7</v>
+      </c>
+      <c r="AN57">
+        <v>1.07</v>
+      </c>
+      <c r="AO57">
+        <v>1.14</v>
+      </c>
+      <c r="AP57">
+        <v>3.6</v>
+      </c>
+      <c r="AQ57">
+        <v>3</v>
+      </c>
+      <c r="AR57">
+        <v>2.4</v>
+      </c>
+      <c r="AS57">
+        <v>3</v>
+      </c>
+      <c r="AT57">
+        <v>2</v>
+      </c>
+      <c r="AU57">
+        <v>0</v>
+      </c>
+      <c r="AV57">
+        <v>2.18</v>
+      </c>
+      <c r="AW57">
+        <v>2.18</v>
+      </c>
+      <c r="AX57">
+        <v>1.36</v>
+      </c>
+      <c r="AY57">
+        <v>8.5</v>
+      </c>
+      <c r="AZ57">
+        <v>4.34</v>
+      </c>
+      <c r="BA57">
+        <v>1.3</v>
+      </c>
+      <c r="BB57">
+        <v>1.53</v>
+      </c>
+      <c r="BC57">
+        <v>1.87</v>
+      </c>
+      <c r="BD57">
+        <v>2.4</v>
+      </c>
+      <c r="BE57">
+        <v>3.2</v>
+      </c>
+      <c r="BF57">
+        <v>11</v>
+      </c>
+      <c r="BG57">
+        <v>4</v>
+      </c>
+      <c r="BH57">
+        <v>7</v>
+      </c>
+      <c r="BI57">
+        <v>3</v>
+      </c>
+      <c r="BJ57">
+        <v>18</v>
+      </c>
+      <c r="BK57">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:63">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>6948872</v>
+      </c>
+      <c r="C58" t="s">
+        <v>63</v>
+      </c>
+      <c r="D58" t="s">
+        <v>64</v>
+      </c>
+      <c r="E58" s="2">
+        <v>45140.64583333334</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58" t="s">
+        <v>106</v>
+      </c>
+      <c r="H58" t="s">
+        <v>70</v>
+      </c>
+      <c r="I58">
+        <v>1</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>1</v>
+      </c>
+      <c r="L58">
+        <v>1</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>1</v>
+      </c>
+      <c r="O58" t="s">
+        <v>108</v>
+      </c>
+      <c r="P58" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q58">
+        <v>9</v>
+      </c>
+      <c r="R58">
+        <v>1</v>
+      </c>
+      <c r="S58">
+        <v>10</v>
+      </c>
+      <c r="T58">
+        <v>1.45</v>
+      </c>
+      <c r="U58">
+        <v>2.95</v>
+      </c>
+      <c r="V58">
+        <v>13</v>
+      </c>
+      <c r="W58">
+        <v>1.25</v>
+      </c>
+      <c r="X58">
+        <v>3.6</v>
+      </c>
+      <c r="Y58">
+        <v>2.05</v>
+      </c>
+      <c r="Z58">
+        <v>1.67</v>
+      </c>
+      <c r="AA58">
+        <v>4.2</v>
+      </c>
+      <c r="AB58">
+        <v>1.18</v>
+      </c>
+      <c r="AC58">
+        <v>1.25</v>
+      </c>
+      <c r="AD58">
+        <v>6.05</v>
+      </c>
+      <c r="AE58">
+        <v>11.5</v>
+      </c>
+      <c r="AF58">
+        <v>1.02</v>
+      </c>
+      <c r="AG58">
+        <v>26</v>
+      </c>
+      <c r="AH58">
+        <v>1.14</v>
+      </c>
+      <c r="AI58">
+        <v>5.75</v>
+      </c>
+      <c r="AJ58">
+        <v>1.55</v>
+      </c>
+      <c r="AK58">
+        <v>2.35</v>
+      </c>
+      <c r="AL58">
+        <v>2.5</v>
+      </c>
+      <c r="AM58">
+        <v>1.5</v>
+      </c>
+      <c r="AN58">
+        <v>1.03</v>
+      </c>
+      <c r="AO58">
+        <v>1.07</v>
+      </c>
+      <c r="AP58">
+        <v>6</v>
+      </c>
+      <c r="AQ58">
+        <v>1</v>
+      </c>
+      <c r="AR58">
+        <v>1.67</v>
+      </c>
+      <c r="AS58">
+        <v>2</v>
+      </c>
+      <c r="AT58">
+        <v>1.25</v>
+      </c>
+      <c r="AU58">
+        <v>0</v>
+      </c>
+      <c r="AV58">
+        <v>2.05</v>
+      </c>
+      <c r="AW58">
+        <v>2.05</v>
+      </c>
+      <c r="AX58">
+        <v>1.04</v>
+      </c>
+      <c r="AY58">
+        <v>16</v>
+      </c>
+      <c r="AZ58">
+        <v>17.5</v>
+      </c>
+      <c r="BA58">
+        <v>1.25</v>
+      </c>
+      <c r="BB58">
+        <v>1.47</v>
+      </c>
+      <c r="BC58">
+        <v>1.8</v>
+      </c>
+      <c r="BD58">
+        <v>2.25</v>
+      </c>
+      <c r="BE58">
+        <v>3</v>
+      </c>
+      <c r="BF58">
+        <v>5</v>
+      </c>
+      <c r="BG58">
+        <v>3</v>
+      </c>
+      <c r="BH58">
+        <v>9</v>
+      </c>
+      <c r="BI58">
+        <v>3</v>
+      </c>
+      <c r="BJ58">
+        <v>14</v>
+      </c>
+      <c r="BK58">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Europe UEFA Champions League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Europe UEFA Champions League_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="199">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -337,6 +337,21 @@
     <t>Galatasaray</t>
   </si>
   <si>
+    <t>PSV</t>
+  </si>
+  <si>
+    <t>Sporting Braga</t>
+  </si>
+  <si>
+    <t>Sparta Praha</t>
+  </si>
+  <si>
+    <t>Sturm Graz</t>
+  </si>
+  <si>
+    <t>Bačka Topola</t>
+  </si>
+  <si>
     <t>[]</t>
   </si>
   <si>
@@ -457,6 +472,18 @@
     <t>['33', '35', '37', '45+1', '47', '56']</t>
   </si>
   <si>
+    <t>['7', '63']</t>
+  </si>
+  <si>
+    <t>['4', '22', '32', '73']</t>
+  </si>
+  <si>
+    <t>['64', '86']</t>
+  </si>
+  <si>
+    <t>['17', '19', '87']</t>
+  </si>
+  <si>
     <t>['13', '21', '60']</t>
   </si>
   <si>
@@ -572,6 +599,18 @@
   </si>
   <si>
     <t>['9', '51', '74']</t>
+  </si>
+  <si>
+    <t>['88']</t>
+  </si>
+  <si>
+    <t>['40']</t>
+  </si>
+  <si>
+    <t>['48']</t>
+  </si>
+  <si>
+    <t>['9', '48', '90+1']</t>
   </si>
 </sst>
 </file>
@@ -933,7 +972,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK58"/>
+  <dimension ref="A1:BK64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1174,10 +1213,10 @@
         <v>3</v>
       </c>
       <c r="O2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="P2" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="Q2">
         <v>2</v>
@@ -1365,10 +1404,10 @@
         <v>8</v>
       </c>
       <c r="O3" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="P3" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -1556,10 +1595,10 @@
         <v>5</v>
       </c>
       <c r="O4" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="P4" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="Q4">
         <v>-1</v>
@@ -1747,10 +1786,10 @@
         <v>1</v>
       </c>
       <c r="O5" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="P5" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="Q5">
         <v>2</v>
@@ -1938,10 +1977,10 @@
         <v>3</v>
       </c>
       <c r="O6" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="P6" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="Q6">
         <v>1</v>
@@ -2129,10 +2168,10 @@
         <v>0</v>
       </c>
       <c r="O7" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="P7" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="Q7">
         <v>8</v>
@@ -2320,10 +2359,10 @@
         <v>3</v>
       </c>
       <c r="O8" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="P8" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="Q8">
         <v>5</v>
@@ -2410,7 +2449,7 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AT8">
         <v>0</v>
@@ -2511,10 +2550,10 @@
         <v>1</v>
       </c>
       <c r="O9" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="P9" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="Q9">
         <v>11</v>
@@ -2601,7 +2640,7 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AT9">
         <v>0</v>
@@ -2702,10 +2741,10 @@
         <v>4</v>
       </c>
       <c r="O10" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="P10" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="Q10">
         <v>4</v>
@@ -2893,10 +2932,10 @@
         <v>0</v>
       </c>
       <c r="O11" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="P11" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="Q11">
         <v>5</v>
@@ -2983,7 +3022,7 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AT11">
         <v>0.5</v>
@@ -3084,10 +3123,10 @@
         <v>1</v>
       </c>
       <c r="O12" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="P12" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="Q12">
         <v>3</v>
@@ -3275,10 +3314,10 @@
         <v>2</v>
       </c>
       <c r="O13" t="s">
+        <v>117</v>
+      </c>
+      <c r="P13" t="s">
         <v>112</v>
-      </c>
-      <c r="P13" t="s">
-        <v>107</v>
       </c>
       <c r="Q13">
         <v>6</v>
@@ -3466,10 +3505,10 @@
         <v>2</v>
       </c>
       <c r="O14" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="P14" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="Q14">
         <v>6</v>
@@ -3657,10 +3696,10 @@
         <v>2</v>
       </c>
       <c r="O15" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="P15" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="Q15">
         <v>6</v>
@@ -3848,10 +3887,10 @@
         <v>1</v>
       </c>
       <c r="O16" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="P16" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="Q16">
         <v>4</v>
@@ -4039,10 +4078,10 @@
         <v>4</v>
       </c>
       <c r="O17" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="P17" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="Q17">
         <v>10</v>
@@ -4230,10 +4269,10 @@
         <v>1</v>
       </c>
       <c r="O18" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="P18" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="Q18">
         <v>3</v>
@@ -4421,10 +4460,10 @@
         <v>2</v>
       </c>
       <c r="O19" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="P19" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="Q19">
         <v>5</v>
@@ -4612,10 +4651,10 @@
         <v>3</v>
       </c>
       <c r="O20" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="P20" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="Q20">
         <v>1</v>
@@ -4803,10 +4842,10 @@
         <v>3</v>
       </c>
       <c r="O21" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="P21" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -4896,7 +4935,7 @@
         <v>0</v>
       </c>
       <c r="AT21">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AU21">
         <v>0</v>
@@ -4994,10 +5033,10 @@
         <v>3</v>
       </c>
       <c r="O22" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="P22" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="Q22">
         <v>10</v>
@@ -5185,10 +5224,10 @@
         <v>3</v>
       </c>
       <c r="O23" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="P23" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="Q23">
         <v>4</v>
@@ -5376,10 +5415,10 @@
         <v>2</v>
       </c>
       <c r="O24" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="P24" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="Q24">
         <v>0</v>
@@ -5567,10 +5606,10 @@
         <v>2</v>
       </c>
       <c r="O25" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="P25" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="Q25">
         <v>2</v>
@@ -5758,10 +5797,10 @@
         <v>5</v>
       </c>
       <c r="O26" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="P26" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="Q26">
         <v>1</v>
@@ -5949,10 +5988,10 @@
         <v>3</v>
       </c>
       <c r="O27" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="P27" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="Q27">
         <v>4</v>
@@ -6140,10 +6179,10 @@
         <v>3</v>
       </c>
       <c r="O28" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="P28" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="Q28">
         <v>1</v>
@@ -6233,7 +6272,7 @@
         <v>0</v>
       </c>
       <c r="AT28">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AU28">
         <v>0</v>
@@ -6331,10 +6370,10 @@
         <v>3</v>
       </c>
       <c r="O29" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="P29" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="Q29">
         <v>6</v>
@@ -6522,10 +6561,10 @@
         <v>3</v>
       </c>
       <c r="O30" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="P30" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="Q30">
         <v>12</v>
@@ -6615,7 +6654,7 @@
         <v>0.5</v>
       </c>
       <c r="AT30">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AU30">
         <v>0</v>
@@ -6713,10 +6752,10 @@
         <v>4</v>
       </c>
       <c r="O31" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="P31" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="Q31">
         <v>11</v>
@@ -6904,10 +6943,10 @@
         <v>4</v>
       </c>
       <c r="O32" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="P32" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="Q32">
         <v>8</v>
@@ -7095,10 +7134,10 @@
         <v>2</v>
       </c>
       <c r="O33" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="P33" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="Q33">
         <v>8</v>
@@ -7286,10 +7325,10 @@
         <v>4</v>
       </c>
       <c r="O34" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="P34" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="Q34">
         <v>8</v>
@@ -7477,10 +7516,10 @@
         <v>4</v>
       </c>
       <c r="O35" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="P35" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -7570,7 +7609,7 @@
         <v>1.25</v>
       </c>
       <c r="AT35">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AU35">
         <v>1.51</v>
@@ -7668,10 +7707,10 @@
         <v>1</v>
       </c>
       <c r="O36" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="P36" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="Q36">
         <v>2</v>
@@ -7761,7 +7800,7 @@
         <v>1.75</v>
       </c>
       <c r="AT36">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AU36">
         <v>1.26</v>
@@ -7859,10 +7898,10 @@
         <v>4</v>
       </c>
       <c r="O37" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="P37" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8050,10 +8089,10 @@
         <v>4</v>
       </c>
       <c r="O38" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="P38" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="Q38">
         <v>15</v>
@@ -8241,10 +8280,10 @@
         <v>2</v>
       </c>
       <c r="O39" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="P39" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="Q39">
         <v>5</v>
@@ -8432,10 +8471,10 @@
         <v>1</v>
       </c>
       <c r="O40" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="P40" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="Q40">
         <v>6</v>
@@ -8623,10 +8662,10 @@
         <v>2</v>
       </c>
       <c r="O41" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="P41" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="Q41">
         <v>7</v>
@@ -8716,7 +8755,7 @@
         <v>2</v>
       </c>
       <c r="AT41">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AU41">
         <v>1.42</v>
@@ -8814,10 +8853,10 @@
         <v>1</v>
       </c>
       <c r="O42" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="P42" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9005,10 +9044,10 @@
         <v>8</v>
       </c>
       <c r="O43" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="P43" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="Q43">
         <v>7</v>
@@ -9095,7 +9134,7 @@
         <v>2</v>
       </c>
       <c r="AS43">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT43">
         <v>1</v>
@@ -9196,10 +9235,10 @@
         <v>5</v>
       </c>
       <c r="O44" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="P44" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="Q44">
         <v>3</v>
@@ -9286,7 +9325,7 @@
         <v>3</v>
       </c>
       <c r="AS44">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AT44">
         <v>1.75</v>
@@ -9387,10 +9426,10 @@
         <v>2</v>
       </c>
       <c r="O45" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="P45" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="Q45">
         <v>3</v>
@@ -9480,7 +9519,7 @@
         <v>1</v>
       </c>
       <c r="AT45">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AU45">
         <v>2.27</v>
@@ -9578,10 +9617,10 @@
         <v>0</v>
       </c>
       <c r="O46" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="P46" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="Q46">
         <v>5</v>
@@ -9668,7 +9707,7 @@
         <v>3</v>
       </c>
       <c r="AS46">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AT46">
         <v>2</v>
@@ -9769,10 +9808,10 @@
         <v>4</v>
       </c>
       <c r="O47" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="P47" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="Q47">
         <v>6</v>
@@ -9960,10 +9999,10 @@
         <v>3</v>
       </c>
       <c r="O48" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="P48" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="Q48">
         <v>11</v>
@@ -10050,7 +10089,7 @@
         <v>1.33</v>
       </c>
       <c r="AS48">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AT48">
         <v>1</v>
@@ -10151,10 +10190,10 @@
         <v>8</v>
       </c>
       <c r="O49" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="P49" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="Q49">
         <v>7</v>
@@ -10244,7 +10283,7 @@
         <v>1</v>
       </c>
       <c r="AT49">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU49">
         <v>0.65</v>
@@ -10342,10 +10381,10 @@
         <v>4</v>
       </c>
       <c r="O50" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="P50" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="Q50">
         <v>7</v>
@@ -10533,10 +10572,10 @@
         <v>2</v>
       </c>
       <c r="O51" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="P51" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="Q51">
         <v>8</v>
@@ -10724,10 +10763,10 @@
         <v>2</v>
       </c>
       <c r="O52" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="P52" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="Q52">
         <v>6</v>
@@ -10817,7 +10856,7 @@
         <v>1.75</v>
       </c>
       <c r="AT52">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AU52">
         <v>2.81</v>
@@ -10915,10 +10954,10 @@
         <v>2</v>
       </c>
       <c r="O53" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="P53" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="Q53">
         <v>10</v>
@@ -11005,7 +11044,7 @@
         <v>2.33</v>
       </c>
       <c r="AS53">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AT53">
         <v>1.75</v>
@@ -11106,10 +11145,10 @@
         <v>6</v>
       </c>
       <c r="O54" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="P54" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="Q54">
         <v>8</v>
@@ -11199,7 +11238,7 @@
         <v>2</v>
       </c>
       <c r="AT54">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AU54">
         <v>2.9</v>
@@ -11297,10 +11336,10 @@
         <v>4</v>
       </c>
       <c r="O55" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="P55" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="Q55">
         <v>11</v>
@@ -11488,10 +11527,10 @@
         <v>5</v>
       </c>
       <c r="O56" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="P56" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="Q56">
         <v>14</v>
@@ -11679,10 +11718,10 @@
         <v>9</v>
       </c>
       <c r="O57" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="P57" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -11769,7 +11808,7 @@
         <v>2.4</v>
       </c>
       <c r="AS57">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AT57">
         <v>2</v>
@@ -11870,10 +11909,10 @@
         <v>1</v>
       </c>
       <c r="O58" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="P58" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="Q58">
         <v>9</v>
@@ -11960,7 +11999,7 @@
         <v>1.67</v>
       </c>
       <c r="AS58">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AT58">
         <v>1.25</v>
@@ -12015,6 +12054,1152 @@
       </c>
       <c r="BK58">
         <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:63">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>7140064</v>
+      </c>
+      <c r="C59" t="s">
+        <v>63</v>
+      </c>
+      <c r="D59" t="s">
+        <v>64</v>
+      </c>
+      <c r="E59" s="2">
+        <v>45146.625</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59" t="s">
+        <v>105</v>
+      </c>
+      <c r="H59" t="s">
+        <v>109</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>0</v>
+      </c>
+      <c r="O59" t="s">
+        <v>112</v>
+      </c>
+      <c r="P59" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q59">
+        <v>5</v>
+      </c>
+      <c r="R59">
+        <v>5</v>
+      </c>
+      <c r="S59">
+        <v>10</v>
+      </c>
+      <c r="T59">
+        <v>2.75</v>
+      </c>
+      <c r="U59">
+        <v>2.2</v>
+      </c>
+      <c r="V59">
+        <v>3.6</v>
+      </c>
+      <c r="W59">
+        <v>1.36</v>
+      </c>
+      <c r="X59">
+        <v>3</v>
+      </c>
+      <c r="Y59">
+        <v>2.75</v>
+      </c>
+      <c r="Z59">
+        <v>1.4</v>
+      </c>
+      <c r="AA59">
+        <v>6.5</v>
+      </c>
+      <c r="AB59">
+        <v>1.1</v>
+      </c>
+      <c r="AC59">
+        <v>2.1</v>
+      </c>
+      <c r="AD59">
+        <v>3.2</v>
+      </c>
+      <c r="AE59">
+        <v>3.05</v>
+      </c>
+      <c r="AF59">
+        <v>1.04</v>
+      </c>
+      <c r="AG59">
+        <v>12</v>
+      </c>
+      <c r="AH59">
+        <v>1.26</v>
+      </c>
+      <c r="AI59">
+        <v>3.5</v>
+      </c>
+      <c r="AJ59">
+        <v>1.9</v>
+      </c>
+      <c r="AK59">
+        <v>1.9</v>
+      </c>
+      <c r="AL59">
+        <v>1.73</v>
+      </c>
+      <c r="AM59">
+        <v>2</v>
+      </c>
+      <c r="AN59">
+        <v>1.32</v>
+      </c>
+      <c r="AO59">
+        <v>1.25</v>
+      </c>
+      <c r="AP59">
+        <v>1.7</v>
+      </c>
+      <c r="AQ59">
+        <v>3</v>
+      </c>
+      <c r="AR59">
+        <v>0</v>
+      </c>
+      <c r="AS59">
+        <v>2.33</v>
+      </c>
+      <c r="AT59">
+        <v>1</v>
+      </c>
+      <c r="AU59">
+        <v>2.27</v>
+      </c>
+      <c r="AV59">
+        <v>0</v>
+      </c>
+      <c r="AW59">
+        <v>2.27</v>
+      </c>
+      <c r="AX59">
+        <v>1.73</v>
+      </c>
+      <c r="AY59">
+        <v>7.5</v>
+      </c>
+      <c r="AZ59">
+        <v>2.63</v>
+      </c>
+      <c r="BA59">
+        <v>1.27</v>
+      </c>
+      <c r="BB59">
+        <v>1.46</v>
+      </c>
+      <c r="BC59">
+        <v>1.7</v>
+      </c>
+      <c r="BD59">
+        <v>2.15</v>
+      </c>
+      <c r="BE59">
+        <v>2.9</v>
+      </c>
+      <c r="BF59">
+        <v>4</v>
+      </c>
+      <c r="BG59">
+        <v>2</v>
+      </c>
+      <c r="BH59">
+        <v>10</v>
+      </c>
+      <c r="BI59">
+        <v>3</v>
+      </c>
+      <c r="BJ59">
+        <v>14</v>
+      </c>
+      <c r="BK59">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:63">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>7140063</v>
+      </c>
+      <c r="C60" t="s">
+        <v>63</v>
+      </c>
+      <c r="D60" t="s">
+        <v>64</v>
+      </c>
+      <c r="E60" s="2">
+        <v>45146.625</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60" t="s">
+        <v>72</v>
+      </c>
+      <c r="H60" t="s">
+        <v>101</v>
+      </c>
+      <c r="I60">
+        <v>1</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>1</v>
+      </c>
+      <c r="L60">
+        <v>2</v>
+      </c>
+      <c r="M60">
+        <v>1</v>
+      </c>
+      <c r="N60">
+        <v>3</v>
+      </c>
+      <c r="O60" t="s">
+        <v>152</v>
+      </c>
+      <c r="P60" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q60">
+        <v>6</v>
+      </c>
+      <c r="R60">
+        <v>1</v>
+      </c>
+      <c r="S60">
+        <v>7</v>
+      </c>
+      <c r="T60">
+        <v>2.2</v>
+      </c>
+      <c r="U60">
+        <v>2.1</v>
+      </c>
+      <c r="V60">
+        <v>5</v>
+      </c>
+      <c r="W60">
+        <v>1.4</v>
+      </c>
+      <c r="X60">
+        <v>2.75</v>
+      </c>
+      <c r="Y60">
+        <v>3</v>
+      </c>
+      <c r="Z60">
+        <v>1.36</v>
+      </c>
+      <c r="AA60">
+        <v>7</v>
+      </c>
+      <c r="AB60">
+        <v>1.08</v>
+      </c>
+      <c r="AC60">
+        <v>1.68</v>
+      </c>
+      <c r="AD60">
+        <v>3.75</v>
+      </c>
+      <c r="AE60">
+        <v>5</v>
+      </c>
+      <c r="AF60">
+        <v>1.05</v>
+      </c>
+      <c r="AG60">
+        <v>10.25</v>
+      </c>
+      <c r="AH60">
+        <v>1.32</v>
+      </c>
+      <c r="AI60">
+        <v>3.1</v>
+      </c>
+      <c r="AJ60">
+        <v>2</v>
+      </c>
+      <c r="AK60">
+        <v>1.8</v>
+      </c>
+      <c r="AL60">
+        <v>2</v>
+      </c>
+      <c r="AM60">
+        <v>1.73</v>
+      </c>
+      <c r="AN60">
+        <v>1.16</v>
+      </c>
+      <c r="AO60">
+        <v>1.24</v>
+      </c>
+      <c r="AP60">
+        <v>1.97</v>
+      </c>
+      <c r="AQ60">
+        <v>2.5</v>
+      </c>
+      <c r="AR60">
+        <v>3</v>
+      </c>
+      <c r="AS60">
+        <v>2.6</v>
+      </c>
+      <c r="AT60">
+        <v>2</v>
+      </c>
+      <c r="AU60">
+        <v>1.85</v>
+      </c>
+      <c r="AV60">
+        <v>2.12</v>
+      </c>
+      <c r="AW60">
+        <v>3.97</v>
+      </c>
+      <c r="AX60">
+        <v>1.69</v>
+      </c>
+      <c r="AY60">
+        <v>9.1</v>
+      </c>
+      <c r="AZ60">
+        <v>2.55</v>
+      </c>
+      <c r="BA60">
+        <v>1.23</v>
+      </c>
+      <c r="BB60">
+        <v>1.45</v>
+      </c>
+      <c r="BC60">
+        <v>1.75</v>
+      </c>
+      <c r="BD60">
+        <v>2.27</v>
+      </c>
+      <c r="BE60">
+        <v>3.04</v>
+      </c>
+      <c r="BF60">
+        <v>4</v>
+      </c>
+      <c r="BG60">
+        <v>2</v>
+      </c>
+      <c r="BH60">
+        <v>2</v>
+      </c>
+      <c r="BI60">
+        <v>2</v>
+      </c>
+      <c r="BJ60">
+        <v>6</v>
+      </c>
+      <c r="BK60">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:63">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>7033844</v>
+      </c>
+      <c r="C61" t="s">
+        <v>63</v>
+      </c>
+      <c r="D61" t="s">
+        <v>64</v>
+      </c>
+      <c r="E61" s="2">
+        <v>45146.64583333334</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61" t="s">
+        <v>107</v>
+      </c>
+      <c r="H61" t="s">
+        <v>110</v>
+      </c>
+      <c r="I61">
+        <v>3</v>
+      </c>
+      <c r="J61">
+        <v>1</v>
+      </c>
+      <c r="K61">
+        <v>4</v>
+      </c>
+      <c r="L61">
+        <v>4</v>
+      </c>
+      <c r="M61">
+        <v>1</v>
+      </c>
+      <c r="N61">
+        <v>5</v>
+      </c>
+      <c r="O61" t="s">
+        <v>153</v>
+      </c>
+      <c r="P61" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q61">
+        <v>5</v>
+      </c>
+      <c r="R61">
+        <v>4</v>
+      </c>
+      <c r="S61">
+        <v>9</v>
+      </c>
+      <c r="T61">
+        <v>1.88</v>
+      </c>
+      <c r="U61">
+        <v>2.53</v>
+      </c>
+      <c r="V61">
+        <v>6</v>
+      </c>
+      <c r="W61">
+        <v>1.28</v>
+      </c>
+      <c r="X61">
+        <v>3.48</v>
+      </c>
+      <c r="Y61">
+        <v>2.3</v>
+      </c>
+      <c r="Z61">
+        <v>1.58</v>
+      </c>
+      <c r="AA61">
+        <v>5.2</v>
+      </c>
+      <c r="AB61">
+        <v>1.14</v>
+      </c>
+      <c r="AC61">
+        <v>1.47</v>
+      </c>
+      <c r="AD61">
+        <v>4.75</v>
+      </c>
+      <c r="AE61">
+        <v>6</v>
+      </c>
+      <c r="AF61">
+        <v>1.02</v>
+      </c>
+      <c r="AG61">
+        <v>17</v>
+      </c>
+      <c r="AH61">
+        <v>1.15</v>
+      </c>
+      <c r="AI61">
+        <v>4.6</v>
+      </c>
+      <c r="AJ61">
+        <v>1.55</v>
+      </c>
+      <c r="AK61">
+        <v>2.4</v>
+      </c>
+      <c r="AL61">
+        <v>1.75</v>
+      </c>
+      <c r="AM61">
+        <v>2.01</v>
+      </c>
+      <c r="AN61">
+        <v>1.08</v>
+      </c>
+      <c r="AO61">
+        <v>1.2</v>
+      </c>
+      <c r="AP61">
+        <v>2.7</v>
+      </c>
+      <c r="AQ61">
+        <v>0</v>
+      </c>
+      <c r="AR61">
+        <v>0</v>
+      </c>
+      <c r="AS61">
+        <v>3</v>
+      </c>
+      <c r="AT61">
+        <v>0</v>
+      </c>
+      <c r="AU61">
+        <v>0</v>
+      </c>
+      <c r="AV61">
+        <v>0</v>
+      </c>
+      <c r="AW61">
+        <v>0</v>
+      </c>
+      <c r="AX61">
+        <v>1.25</v>
+      </c>
+      <c r="AY61">
+        <v>9</v>
+      </c>
+      <c r="AZ61">
+        <v>5.25</v>
+      </c>
+      <c r="BA61">
+        <v>1.23</v>
+      </c>
+      <c r="BB61">
+        <v>1.4</v>
+      </c>
+      <c r="BC61">
+        <v>1.8</v>
+      </c>
+      <c r="BD61">
+        <v>2.3</v>
+      </c>
+      <c r="BE61">
+        <v>3.2</v>
+      </c>
+      <c r="BF61">
+        <v>12</v>
+      </c>
+      <c r="BG61">
+        <v>3</v>
+      </c>
+      <c r="BH61">
+        <v>8</v>
+      </c>
+      <c r="BI61">
+        <v>5</v>
+      </c>
+      <c r="BJ61">
+        <v>20</v>
+      </c>
+      <c r="BK61">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:63">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>7140066</v>
+      </c>
+      <c r="C62" t="s">
+        <v>63</v>
+      </c>
+      <c r="D62" t="s">
+        <v>64</v>
+      </c>
+      <c r="E62" s="2">
+        <v>45146.65625</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62" t="s">
+        <v>74</v>
+      </c>
+      <c r="H62" t="s">
+        <v>103</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>2</v>
+      </c>
+      <c r="M62">
+        <v>1</v>
+      </c>
+      <c r="N62">
+        <v>3</v>
+      </c>
+      <c r="O62" t="s">
+        <v>154</v>
+      </c>
+      <c r="P62" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q62">
+        <v>3</v>
+      </c>
+      <c r="R62">
+        <v>3</v>
+      </c>
+      <c r="S62">
+        <v>6</v>
+      </c>
+      <c r="T62">
+        <v>4.75</v>
+      </c>
+      <c r="U62">
+        <v>2.2</v>
+      </c>
+      <c r="V62">
+        <v>2.25</v>
+      </c>
+      <c r="W62">
+        <v>1.36</v>
+      </c>
+      <c r="X62">
+        <v>3</v>
+      </c>
+      <c r="Y62">
+        <v>2.63</v>
+      </c>
+      <c r="Z62">
+        <v>1.44</v>
+      </c>
+      <c r="AA62">
+        <v>6.5</v>
+      </c>
+      <c r="AB62">
+        <v>1.1</v>
+      </c>
+      <c r="AC62">
+        <v>5.1</v>
+      </c>
+      <c r="AD62">
+        <v>3.87</v>
+      </c>
+      <c r="AE62">
+        <v>1.71</v>
+      </c>
+      <c r="AF62">
+        <v>1.04</v>
+      </c>
+      <c r="AG62">
+        <v>11.5</v>
+      </c>
+      <c r="AH62">
+        <v>1.24</v>
+      </c>
+      <c r="AI62">
+        <v>3.75</v>
+      </c>
+      <c r="AJ62">
+        <v>1.82</v>
+      </c>
+      <c r="AK62">
+        <v>1.98</v>
+      </c>
+      <c r="AL62">
+        <v>1.8</v>
+      </c>
+      <c r="AM62">
+        <v>1.91</v>
+      </c>
+      <c r="AN62">
+        <v>2.1</v>
+      </c>
+      <c r="AO62">
+        <v>1.28</v>
+      </c>
+      <c r="AP62">
+        <v>1.15</v>
+      </c>
+      <c r="AQ62">
+        <v>1.5</v>
+      </c>
+      <c r="AR62">
+        <v>1.5</v>
+      </c>
+      <c r="AS62">
+        <v>1.8</v>
+      </c>
+      <c r="AT62">
+        <v>1</v>
+      </c>
+      <c r="AU62">
+        <v>1.33</v>
+      </c>
+      <c r="AV62">
+        <v>1.58</v>
+      </c>
+      <c r="AW62">
+        <v>2.91</v>
+      </c>
+      <c r="AX62">
+        <v>3.8</v>
+      </c>
+      <c r="AY62">
+        <v>8</v>
+      </c>
+      <c r="AZ62">
+        <v>1.4</v>
+      </c>
+      <c r="BA62">
+        <v>1.22</v>
+      </c>
+      <c r="BB62">
+        <v>1.38</v>
+      </c>
+      <c r="BC62">
+        <v>1.44</v>
+      </c>
+      <c r="BD62">
+        <v>1.83</v>
+      </c>
+      <c r="BE62">
+        <v>2.3</v>
+      </c>
+      <c r="BF62">
+        <v>4</v>
+      </c>
+      <c r="BG62">
+        <v>4</v>
+      </c>
+      <c r="BH62">
+        <v>4</v>
+      </c>
+      <c r="BI62">
+        <v>7</v>
+      </c>
+      <c r="BJ62">
+        <v>8</v>
+      </c>
+      <c r="BK62">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="1:63">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>7033843</v>
+      </c>
+      <c r="C63" t="s">
+        <v>63</v>
+      </c>
+      <c r="D63" t="s">
+        <v>64</v>
+      </c>
+      <c r="E63" s="2">
+        <v>45146.66666666666</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63" t="s">
+        <v>108</v>
+      </c>
+      <c r="H63" t="s">
+        <v>111</v>
+      </c>
+      <c r="I63">
+        <v>2</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>2</v>
+      </c>
+      <c r="L63">
+        <v>3</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>3</v>
+      </c>
+      <c r="O63" t="s">
+        <v>155</v>
+      </c>
+      <c r="P63" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q63">
+        <v>9</v>
+      </c>
+      <c r="R63">
+        <v>0</v>
+      </c>
+      <c r="S63">
+        <v>9</v>
+      </c>
+      <c r="T63">
+        <v>1.55</v>
+      </c>
+      <c r="U63">
+        <v>2.75</v>
+      </c>
+      <c r="V63">
+        <v>9.25</v>
+      </c>
+      <c r="W63">
+        <v>1.26</v>
+      </c>
+      <c r="X63">
+        <v>3.5</v>
+      </c>
+      <c r="Y63">
+        <v>2.2</v>
+      </c>
+      <c r="Z63">
+        <v>1.58</v>
+      </c>
+      <c r="AA63">
+        <v>5</v>
+      </c>
+      <c r="AB63">
+        <v>1.15</v>
+      </c>
+      <c r="AC63">
+        <v>1.17</v>
+      </c>
+      <c r="AD63">
+        <v>6</v>
+      </c>
+      <c r="AE63">
+        <v>17</v>
+      </c>
+      <c r="AF63">
+        <v>1.02</v>
+      </c>
+      <c r="AG63">
+        <v>14.5</v>
+      </c>
+      <c r="AH63">
+        <v>1.17</v>
+      </c>
+      <c r="AI63">
+        <v>4.6</v>
+      </c>
+      <c r="AJ63">
+        <v>1.53</v>
+      </c>
+      <c r="AK63">
+        <v>2.35</v>
+      </c>
+      <c r="AL63">
+        <v>2.3</v>
+      </c>
+      <c r="AM63">
+        <v>1.53</v>
+      </c>
+      <c r="AN63">
+        <v>1.03</v>
+      </c>
+      <c r="AO63">
+        <v>1.1</v>
+      </c>
+      <c r="AP63">
+        <v>4.6</v>
+      </c>
+      <c r="AQ63">
+        <v>0</v>
+      </c>
+      <c r="AR63">
+        <v>0</v>
+      </c>
+      <c r="AS63">
+        <v>3</v>
+      </c>
+      <c r="AT63">
+        <v>0</v>
+      </c>
+      <c r="AU63">
+        <v>0</v>
+      </c>
+      <c r="AV63">
+        <v>0</v>
+      </c>
+      <c r="AW63">
+        <v>0</v>
+      </c>
+      <c r="AX63">
+        <v>1.17</v>
+      </c>
+      <c r="AY63">
+        <v>10</v>
+      </c>
+      <c r="AZ63">
+        <v>7</v>
+      </c>
+      <c r="BA63">
+        <v>1.3</v>
+      </c>
+      <c r="BB63">
+        <v>1.5</v>
+      </c>
+      <c r="BC63">
+        <v>1.67</v>
+      </c>
+      <c r="BD63">
+        <v>2.05</v>
+      </c>
+      <c r="BE63">
+        <v>2.8</v>
+      </c>
+      <c r="BF63">
+        <v>7</v>
+      </c>
+      <c r="BG63">
+        <v>2</v>
+      </c>
+      <c r="BH63">
+        <v>9</v>
+      </c>
+      <c r="BI63">
+        <v>2</v>
+      </c>
+      <c r="BJ63">
+        <v>16</v>
+      </c>
+      <c r="BK63">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:63">
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>7140067</v>
+      </c>
+      <c r="C64" t="s">
+        <v>63</v>
+      </c>
+      <c r="D64" t="s">
+        <v>64</v>
+      </c>
+      <c r="E64" s="2">
+        <v>45146.66666666666</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64" t="s">
+        <v>71</v>
+      </c>
+      <c r="H64" t="s">
+        <v>106</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>1</v>
+      </c>
+      <c r="K64">
+        <v>1</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>3</v>
+      </c>
+      <c r="N64">
+        <v>3</v>
+      </c>
+      <c r="O64" t="s">
+        <v>112</v>
+      </c>
+      <c r="P64" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q64">
+        <v>5</v>
+      </c>
+      <c r="R64">
+        <v>6</v>
+      </c>
+      <c r="S64">
+        <v>11</v>
+      </c>
+      <c r="T64">
+        <v>4.8</v>
+      </c>
+      <c r="U64">
+        <v>2.3</v>
+      </c>
+      <c r="V64">
+        <v>2.1</v>
+      </c>
+      <c r="W64">
+        <v>1.29</v>
+      </c>
+      <c r="X64">
+        <v>3.3</v>
+      </c>
+      <c r="Y64">
+        <v>2.45</v>
+      </c>
+      <c r="Z64">
+        <v>1.5</v>
+      </c>
+      <c r="AA64">
+        <v>6</v>
+      </c>
+      <c r="AB64">
+        <v>1.12</v>
+      </c>
+      <c r="AC64">
+        <v>5.25</v>
+      </c>
+      <c r="AD64">
+        <v>3.9</v>
+      </c>
+      <c r="AE64">
+        <v>1.5</v>
+      </c>
+      <c r="AF64">
+        <v>1.02</v>
+      </c>
+      <c r="AG64">
+        <v>15</v>
+      </c>
+      <c r="AH64">
+        <v>1.2</v>
+      </c>
+      <c r="AI64">
+        <v>4.33</v>
+      </c>
+      <c r="AJ64">
+        <v>1.61</v>
+      </c>
+      <c r="AK64">
+        <v>2.15</v>
+      </c>
+      <c r="AL64">
+        <v>1.73</v>
+      </c>
+      <c r="AM64">
+        <v>1.95</v>
+      </c>
+      <c r="AN64">
+        <v>2.3</v>
+      </c>
+      <c r="AO64">
+        <v>1.22</v>
+      </c>
+      <c r="AP64">
+        <v>1.16</v>
+      </c>
+      <c r="AQ64">
+        <v>2.5</v>
+      </c>
+      <c r="AR64">
+        <v>2</v>
+      </c>
+      <c r="AS64">
+        <v>2</v>
+      </c>
+      <c r="AT64">
+        <v>2.33</v>
+      </c>
+      <c r="AU64">
+        <v>2.29</v>
+      </c>
+      <c r="AV64">
+        <v>2.93</v>
+      </c>
+      <c r="AW64">
+        <v>5.22</v>
+      </c>
+      <c r="AX64">
+        <v>4.33</v>
+      </c>
+      <c r="AY64">
+        <v>8.5</v>
+      </c>
+      <c r="AZ64">
+        <v>1.33</v>
+      </c>
+      <c r="BA64">
+        <v>1.22</v>
+      </c>
+      <c r="BB64">
+        <v>1.38</v>
+      </c>
+      <c r="BC64">
+        <v>1.83</v>
+      </c>
+      <c r="BD64">
+        <v>2.38</v>
+      </c>
+      <c r="BE64">
+        <v>3.2</v>
+      </c>
+      <c r="BF64">
+        <v>5</v>
+      </c>
+      <c r="BG64">
+        <v>10</v>
+      </c>
+      <c r="BH64">
+        <v>7</v>
+      </c>
+      <c r="BI64">
+        <v>5</v>
+      </c>
+      <c r="BJ64">
+        <v>12</v>
+      </c>
+      <c r="BK64">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Europe UEFA Champions League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Europe UEFA Champions League_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="205">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -343,6 +343,9 @@
     <t>Sporting Braga</t>
   </si>
   <si>
+    <t>Rangers</t>
+  </si>
+  <si>
     <t>Sparta Praha</t>
   </si>
   <si>
@@ -352,6 +355,9 @@
     <t>Bačka Topola</t>
   </si>
   <si>
+    <t>Olympique Marseille</t>
+  </si>
+  <si>
     <t>[]</t>
   </si>
   <si>
@@ -484,6 +490,15 @@
     <t>['17', '19', '87']</t>
   </si>
   <si>
+    <t>['83']</t>
+  </si>
+  <si>
+    <t>['12']</t>
+  </si>
+  <si>
+    <t>['6', '15']</t>
+  </si>
+  <si>
     <t>['13', '21', '60']</t>
   </si>
   <si>
@@ -611,6 +626,9 @@
   </si>
   <si>
     <t>['9', '48', '90+1']</t>
+  </si>
+  <si>
+    <t>['5', '15']</t>
   </si>
 </sst>
 </file>
@@ -972,7 +990,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK64"/>
+  <dimension ref="A1:BK67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1213,10 +1231,10 @@
         <v>3</v>
       </c>
       <c r="O2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="P2" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="Q2">
         <v>2</v>
@@ -1404,10 +1422,10 @@
         <v>8</v>
       </c>
       <c r="O3" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="P3" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -1595,10 +1613,10 @@
         <v>5</v>
       </c>
       <c r="O4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="P4" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="Q4">
         <v>-1</v>
@@ -1786,10 +1804,10 @@
         <v>1</v>
       </c>
       <c r="O5" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="P5" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="Q5">
         <v>2</v>
@@ -1977,10 +1995,10 @@
         <v>3</v>
       </c>
       <c r="O6" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="P6" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="Q6">
         <v>1</v>
@@ -2168,10 +2186,10 @@
         <v>0</v>
       </c>
       <c r="O7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="P7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q7">
         <v>8</v>
@@ -2359,10 +2377,10 @@
         <v>3</v>
       </c>
       <c r="O8" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="P8" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="Q8">
         <v>5</v>
@@ -2550,10 +2568,10 @@
         <v>1</v>
       </c>
       <c r="O9" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="P9" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q9">
         <v>11</v>
@@ -2741,10 +2759,10 @@
         <v>4</v>
       </c>
       <c r="O10" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="P10" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="Q10">
         <v>4</v>
@@ -2834,7 +2852,7 @@
         <v>0</v>
       </c>
       <c r="AT10">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -2932,10 +2950,10 @@
         <v>0</v>
       </c>
       <c r="O11" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="P11" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q11">
         <v>5</v>
@@ -3123,10 +3141,10 @@
         <v>1</v>
       </c>
       <c r="O12" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="P12" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="Q12">
         <v>3</v>
@@ -3314,10 +3332,10 @@
         <v>2</v>
       </c>
       <c r="O13" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="P13" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q13">
         <v>6</v>
@@ -3505,10 +3523,10 @@
         <v>2</v>
       </c>
       <c r="O14" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="P14" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="Q14">
         <v>6</v>
@@ -3696,10 +3714,10 @@
         <v>2</v>
       </c>
       <c r="O15" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P15" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="Q15">
         <v>6</v>
@@ -3887,10 +3905,10 @@
         <v>1</v>
       </c>
       <c r="O16" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P16" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q16">
         <v>4</v>
@@ -4078,10 +4096,10 @@
         <v>4</v>
       </c>
       <c r="O17" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="P17" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="Q17">
         <v>10</v>
@@ -4269,10 +4287,10 @@
         <v>1</v>
       </c>
       <c r="O18" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="P18" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q18">
         <v>3</v>
@@ -4460,10 +4478,10 @@
         <v>2</v>
       </c>
       <c r="O19" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="P19" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q19">
         <v>5</v>
@@ -4550,7 +4568,7 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AT19">
         <v>0.5</v>
@@ -4651,10 +4669,10 @@
         <v>3</v>
       </c>
       <c r="O20" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="P20" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="Q20">
         <v>1</v>
@@ -4842,10 +4860,10 @@
         <v>3</v>
       </c>
       <c r="O21" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="P21" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5033,10 +5051,10 @@
         <v>3</v>
       </c>
       <c r="O22" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="P22" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q22">
         <v>10</v>
@@ -5224,10 +5242,10 @@
         <v>3</v>
       </c>
       <c r="O23" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="P23" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q23">
         <v>4</v>
@@ -5314,7 +5332,7 @@
         <v>0</v>
       </c>
       <c r="AS23">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AT23">
         <v>0</v>
@@ -5415,10 +5433,10 @@
         <v>2</v>
       </c>
       <c r="O24" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="P24" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="Q24">
         <v>0</v>
@@ -5606,10 +5624,10 @@
         <v>2</v>
       </c>
       <c r="O25" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="P25" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q25">
         <v>2</v>
@@ -5797,10 +5815,10 @@
         <v>5</v>
       </c>
       <c r="O26" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="P26" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="Q26">
         <v>1</v>
@@ -5988,10 +6006,10 @@
         <v>3</v>
       </c>
       <c r="O27" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="P27" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="Q27">
         <v>4</v>
@@ -6179,10 +6197,10 @@
         <v>3</v>
       </c>
       <c r="O28" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="P28" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="Q28">
         <v>1</v>
@@ -6370,10 +6388,10 @@
         <v>3</v>
       </c>
       <c r="O29" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="P29" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="Q29">
         <v>6</v>
@@ -6561,10 +6579,10 @@
         <v>3</v>
       </c>
       <c r="O30" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="P30" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="Q30">
         <v>12</v>
@@ -6752,10 +6770,10 @@
         <v>4</v>
       </c>
       <c r="O31" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="P31" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q31">
         <v>11</v>
@@ -6943,10 +6961,10 @@
         <v>4</v>
       </c>
       <c r="O32" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="P32" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q32">
         <v>8</v>
@@ -7134,10 +7152,10 @@
         <v>2</v>
       </c>
       <c r="O33" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="P33" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="Q33">
         <v>8</v>
@@ -7227,7 +7245,7 @@
         <v>0.5</v>
       </c>
       <c r="AT33">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AU33">
         <v>0</v>
@@ -7325,10 +7343,10 @@
         <v>4</v>
       </c>
       <c r="O34" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="P34" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="Q34">
         <v>8</v>
@@ -7516,10 +7534,10 @@
         <v>4</v>
       </c>
       <c r="O35" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="P35" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -7707,10 +7725,10 @@
         <v>1</v>
       </c>
       <c r="O36" t="s">
+        <v>116</v>
+      </c>
+      <c r="P36" t="s">
         <v>114</v>
-      </c>
-      <c r="P36" t="s">
-        <v>112</v>
       </c>
       <c r="Q36">
         <v>2</v>
@@ -7898,10 +7916,10 @@
         <v>4</v>
       </c>
       <c r="O37" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="P37" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -7991,7 +8009,7 @@
         <v>0.5</v>
       </c>
       <c r="AT37">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AU37">
         <v>0</v>
@@ -8089,10 +8107,10 @@
         <v>4</v>
       </c>
       <c r="O38" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="P38" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q38">
         <v>15</v>
@@ -8280,10 +8298,10 @@
         <v>2</v>
       </c>
       <c r="O39" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="P39" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="Q39">
         <v>5</v>
@@ -8370,7 +8388,7 @@
         <v>0</v>
       </c>
       <c r="AS39">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AT39">
         <v>1</v>
@@ -8471,10 +8489,10 @@
         <v>1</v>
       </c>
       <c r="O40" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="P40" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="Q40">
         <v>6</v>
@@ -8564,7 +8582,7 @@
         <v>1</v>
       </c>
       <c r="AT40">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AU40">
         <v>2.03</v>
@@ -8662,10 +8680,10 @@
         <v>2</v>
       </c>
       <c r="O41" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="P41" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="Q41">
         <v>7</v>
@@ -8853,10 +8871,10 @@
         <v>1</v>
       </c>
       <c r="O42" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P42" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -8946,7 +8964,7 @@
         <v>1.5</v>
       </c>
       <c r="AT42">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AU42">
         <v>1.39</v>
@@ -9044,10 +9062,10 @@
         <v>8</v>
       </c>
       <c r="O43" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P43" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="Q43">
         <v>7</v>
@@ -9235,10 +9253,10 @@
         <v>5</v>
       </c>
       <c r="O44" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P44" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="Q44">
         <v>3</v>
@@ -9426,10 +9444,10 @@
         <v>2</v>
       </c>
       <c r="O45" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="P45" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="Q45">
         <v>3</v>
@@ -9617,10 +9635,10 @@
         <v>0</v>
       </c>
       <c r="O46" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="P46" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q46">
         <v>5</v>
@@ -9808,10 +9826,10 @@
         <v>4</v>
       </c>
       <c r="O47" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="P47" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="Q47">
         <v>6</v>
@@ -9898,7 +9916,7 @@
         <v>0</v>
       </c>
       <c r="AS47">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AT47">
         <v>0.5</v>
@@ -9999,10 +10017,10 @@
         <v>3</v>
       </c>
       <c r="O48" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="P48" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="Q48">
         <v>11</v>
@@ -10190,10 +10208,10 @@
         <v>8</v>
       </c>
       <c r="O49" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="P49" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="Q49">
         <v>7</v>
@@ -10381,10 +10399,10 @@
         <v>4</v>
       </c>
       <c r="O50" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="P50" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="Q50">
         <v>7</v>
@@ -10471,7 +10489,7 @@
         <v>1</v>
       </c>
       <c r="AS50">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AT50">
         <v>1</v>
@@ -10572,10 +10590,10 @@
         <v>2</v>
       </c>
       <c r="O51" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="P51" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="Q51">
         <v>8</v>
@@ -10763,10 +10781,10 @@
         <v>2</v>
       </c>
       <c r="O52" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="P52" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="Q52">
         <v>6</v>
@@ -10954,10 +10972,10 @@
         <v>2</v>
       </c>
       <c r="O53" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="P53" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q53">
         <v>10</v>
@@ -11145,10 +11163,10 @@
         <v>6</v>
       </c>
       <c r="O54" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="P54" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="Q54">
         <v>8</v>
@@ -11336,10 +11354,10 @@
         <v>4</v>
       </c>
       <c r="O55" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="P55" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="Q55">
         <v>11</v>
@@ -11429,7 +11447,7 @@
         <v>1</v>
       </c>
       <c r="AT55">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AU55">
         <v>0</v>
@@ -11527,10 +11545,10 @@
         <v>5</v>
       </c>
       <c r="O56" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="P56" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="Q56">
         <v>14</v>
@@ -11617,7 +11635,7 @@
         <v>2</v>
       </c>
       <c r="AS56">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AT56">
         <v>1.5</v>
@@ -11718,10 +11736,10 @@
         <v>9</v>
       </c>
       <c r="O57" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="P57" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -11909,10 +11927,10 @@
         <v>1</v>
       </c>
       <c r="O58" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="P58" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q58">
         <v>9</v>
@@ -12079,7 +12097,7 @@
         <v>105</v>
       </c>
       <c r="H59" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I59">
         <v>0</v>
@@ -12100,10 +12118,10 @@
         <v>0</v>
       </c>
       <c r="O59" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="P59" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q59">
         <v>5</v>
@@ -12291,19 +12309,19 @@
         <v>3</v>
       </c>
       <c r="O60" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="P60" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="Q60">
         <v>6</v>
       </c>
       <c r="R60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S60">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="T60">
         <v>2.2</v>
@@ -12429,13 +12447,13 @@
         <v>2</v>
       </c>
       <c r="BI60">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BJ60">
         <v>6</v>
       </c>
       <c r="BK60">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="61" spans="1:63">
@@ -12461,7 +12479,7 @@
         <v>107</v>
       </c>
       <c r="H61" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I61">
         <v>3</v>
@@ -12482,10 +12500,10 @@
         <v>5</v>
       </c>
       <c r="O61" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="P61" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="Q61">
         <v>5</v>
@@ -12673,10 +12691,10 @@
         <v>3</v>
       </c>
       <c r="O62" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="P62" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="Q62">
         <v>3</v>
@@ -12843,7 +12861,7 @@
         <v>108</v>
       </c>
       <c r="H63" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I63">
         <v>2</v>
@@ -12864,10 +12882,10 @@
         <v>3</v>
       </c>
       <c r="O63" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="P63" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q63">
         <v>9</v>
@@ -13055,10 +13073,10 @@
         <v>3</v>
       </c>
       <c r="O64" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="P64" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="Q64">
         <v>5</v>
@@ -13200,6 +13218,579 @@
       </c>
       <c r="BK64">
         <v>15</v>
+      </c>
+    </row>
+    <row r="65" spans="1:63">
+      <c r="A65" s="1">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>7133191</v>
+      </c>
+      <c r="C65" t="s">
+        <v>63</v>
+      </c>
+      <c r="D65" t="s">
+        <v>64</v>
+      </c>
+      <c r="E65" s="2">
+        <v>45147.625</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65" t="s">
+        <v>102</v>
+      </c>
+      <c r="H65" t="s">
+        <v>113</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>1</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>1</v>
+      </c>
+      <c r="O65" t="s">
+        <v>158</v>
+      </c>
+      <c r="P65" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q65">
+        <v>3</v>
+      </c>
+      <c r="R65">
+        <v>1</v>
+      </c>
+      <c r="S65">
+        <v>4</v>
+      </c>
+      <c r="T65">
+        <v>4.33</v>
+      </c>
+      <c r="U65">
+        <v>2.11</v>
+      </c>
+      <c r="V65">
+        <v>2.57</v>
+      </c>
+      <c r="W65">
+        <v>1.41</v>
+      </c>
+      <c r="X65">
+        <v>2.79</v>
+      </c>
+      <c r="Y65">
+        <v>2.82</v>
+      </c>
+      <c r="Z65">
+        <v>1.4</v>
+      </c>
+      <c r="AA65">
+        <v>7.1</v>
+      </c>
+      <c r="AB65">
+        <v>1.08</v>
+      </c>
+      <c r="AC65">
+        <v>3.2</v>
+      </c>
+      <c r="AD65">
+        <v>3.2</v>
+      </c>
+      <c r="AE65">
+        <v>2.25</v>
+      </c>
+      <c r="AF65">
+        <v>1.02</v>
+      </c>
+      <c r="AG65">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AH65">
+        <v>1.28</v>
+      </c>
+      <c r="AI65">
+        <v>3.26</v>
+      </c>
+      <c r="AJ65">
+        <v>1.97</v>
+      </c>
+      <c r="AK65">
+        <v>1.77</v>
+      </c>
+      <c r="AL65">
+        <v>1.77</v>
+      </c>
+      <c r="AM65">
+        <v>1.98</v>
+      </c>
+      <c r="AN65">
+        <v>1.81</v>
+      </c>
+      <c r="AO65">
+        <v>1.31</v>
+      </c>
+      <c r="AP65">
+        <v>1.26</v>
+      </c>
+      <c r="AQ65">
+        <v>2</v>
+      </c>
+      <c r="AR65">
+        <v>0</v>
+      </c>
+      <c r="AS65">
+        <v>2.33</v>
+      </c>
+      <c r="AT65">
+        <v>0</v>
+      </c>
+      <c r="AU65">
+        <v>1.44</v>
+      </c>
+      <c r="AV65">
+        <v>0</v>
+      </c>
+      <c r="AW65">
+        <v>1.44</v>
+      </c>
+      <c r="AX65">
+        <v>2.69</v>
+      </c>
+      <c r="AY65">
+        <v>8.6</v>
+      </c>
+      <c r="AZ65">
+        <v>1.72</v>
+      </c>
+      <c r="BA65">
+        <v>1.32</v>
+      </c>
+      <c r="BB65">
+        <v>1.55</v>
+      </c>
+      <c r="BC65">
+        <v>1.95</v>
+      </c>
+      <c r="BD65">
+        <v>2.6</v>
+      </c>
+      <c r="BE65">
+        <v>3.6</v>
+      </c>
+      <c r="BF65">
+        <v>2</v>
+      </c>
+      <c r="BG65">
+        <v>2</v>
+      </c>
+      <c r="BH65">
+        <v>8</v>
+      </c>
+      <c r="BI65">
+        <v>2</v>
+      </c>
+      <c r="BJ65">
+        <v>10</v>
+      </c>
+      <c r="BK65">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:63">
+      <c r="A66" s="1">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>7140068</v>
+      </c>
+      <c r="C66" t="s">
+        <v>63</v>
+      </c>
+      <c r="D66" t="s">
+        <v>64</v>
+      </c>
+      <c r="E66" s="2">
+        <v>45147.64583333334</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66" t="s">
+        <v>82</v>
+      </c>
+      <c r="H66" t="s">
+        <v>86</v>
+      </c>
+      <c r="I66">
+        <v>1</v>
+      </c>
+      <c r="J66">
+        <v>2</v>
+      </c>
+      <c r="K66">
+        <v>3</v>
+      </c>
+      <c r="L66">
+        <v>1</v>
+      </c>
+      <c r="M66">
+        <v>2</v>
+      </c>
+      <c r="N66">
+        <v>3</v>
+      </c>
+      <c r="O66" t="s">
+        <v>159</v>
+      </c>
+      <c r="P66" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q66">
+        <v>8</v>
+      </c>
+      <c r="R66">
+        <v>4</v>
+      </c>
+      <c r="S66">
+        <v>12</v>
+      </c>
+      <c r="T66">
+        <v>3.5</v>
+      </c>
+      <c r="U66">
+        <v>2.05</v>
+      </c>
+      <c r="V66">
+        <v>3</v>
+      </c>
+      <c r="W66">
+        <v>1.47</v>
+      </c>
+      <c r="X66">
+        <v>2.58</v>
+      </c>
+      <c r="Y66">
+        <v>3.16</v>
+      </c>
+      <c r="Z66">
+        <v>1.33</v>
+      </c>
+      <c r="AA66">
+        <v>8.5</v>
+      </c>
+      <c r="AB66">
+        <v>1.05</v>
+      </c>
+      <c r="AC66">
+        <v>2.75</v>
+      </c>
+      <c r="AD66">
+        <v>3.2</v>
+      </c>
+      <c r="AE66">
+        <v>2.55</v>
+      </c>
+      <c r="AF66">
+        <v>1.06</v>
+      </c>
+      <c r="AG66">
+        <v>10</v>
+      </c>
+      <c r="AH66">
+        <v>1.35</v>
+      </c>
+      <c r="AI66">
+        <v>3.2</v>
+      </c>
+      <c r="AJ66">
+        <v>2.15</v>
+      </c>
+      <c r="AK66">
+        <v>1.65</v>
+      </c>
+      <c r="AL66">
+        <v>1.9</v>
+      </c>
+      <c r="AM66">
+        <v>1.86</v>
+      </c>
+      <c r="AN66">
+        <v>1.6</v>
+      </c>
+      <c r="AO66">
+        <v>1.33</v>
+      </c>
+      <c r="AP66">
+        <v>1.36</v>
+      </c>
+      <c r="AQ66">
+        <v>2</v>
+      </c>
+      <c r="AR66">
+        <v>2.25</v>
+      </c>
+      <c r="AS66">
+        <v>1.6</v>
+      </c>
+      <c r="AT66">
+        <v>2.4</v>
+      </c>
+      <c r="AU66">
+        <v>1.21</v>
+      </c>
+      <c r="AV66">
+        <v>1.18</v>
+      </c>
+      <c r="AW66">
+        <v>2.39</v>
+      </c>
+      <c r="AX66">
+        <v>2.4</v>
+      </c>
+      <c r="AY66">
+        <v>8.5</v>
+      </c>
+      <c r="AZ66">
+        <v>1.87</v>
+      </c>
+      <c r="BA66">
+        <v>1.3</v>
+      </c>
+      <c r="BB66">
+        <v>1.5</v>
+      </c>
+      <c r="BC66">
+        <v>1.8</v>
+      </c>
+      <c r="BD66">
+        <v>2.25</v>
+      </c>
+      <c r="BE66">
+        <v>3.2</v>
+      </c>
+      <c r="BF66">
+        <v>5</v>
+      </c>
+      <c r="BG66">
+        <v>6</v>
+      </c>
+      <c r="BH66">
+        <v>5</v>
+      </c>
+      <c r="BI66">
+        <v>1</v>
+      </c>
+      <c r="BJ66">
+        <v>10</v>
+      </c>
+      <c r="BK66">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:63">
+      <c r="A67" s="1">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>7140069</v>
+      </c>
+      <c r="C67" t="s">
+        <v>63</v>
+      </c>
+      <c r="D67" t="s">
+        <v>64</v>
+      </c>
+      <c r="E67" s="2">
+        <v>45147.65625</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67" t="s">
+        <v>109</v>
+      </c>
+      <c r="H67" t="s">
+        <v>100</v>
+      </c>
+      <c r="I67">
+        <v>2</v>
+      </c>
+      <c r="J67">
+        <v>1</v>
+      </c>
+      <c r="K67">
+        <v>3</v>
+      </c>
+      <c r="L67">
+        <v>2</v>
+      </c>
+      <c r="M67">
+        <v>1</v>
+      </c>
+      <c r="N67">
+        <v>3</v>
+      </c>
+      <c r="O67" t="s">
+        <v>160</v>
+      </c>
+      <c r="P67" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q67">
+        <v>2</v>
+      </c>
+      <c r="R67">
+        <v>5</v>
+      </c>
+      <c r="S67">
+        <v>7</v>
+      </c>
+      <c r="T67">
+        <v>1.95</v>
+      </c>
+      <c r="U67">
+        <v>2.38</v>
+      </c>
+      <c r="V67">
+        <v>5.5</v>
+      </c>
+      <c r="W67">
+        <v>1.31</v>
+      </c>
+      <c r="X67">
+        <v>3.1</v>
+      </c>
+      <c r="Y67">
+        <v>2.45</v>
+      </c>
+      <c r="Z67">
+        <v>1.49</v>
+      </c>
+      <c r="AA67">
+        <v>5.75</v>
+      </c>
+      <c r="AB67">
+        <v>1.11</v>
+      </c>
+      <c r="AC67">
+        <v>1.5</v>
+      </c>
+      <c r="AD67">
+        <v>4.25</v>
+      </c>
+      <c r="AE67">
+        <v>6.5</v>
+      </c>
+      <c r="AF67">
+        <v>1.02</v>
+      </c>
+      <c r="AG67">
+        <v>17</v>
+      </c>
+      <c r="AH67">
+        <v>1.2</v>
+      </c>
+      <c r="AI67">
+        <v>4.33</v>
+      </c>
+      <c r="AJ67">
+        <v>1.61</v>
+      </c>
+      <c r="AK67">
+        <v>2.15</v>
+      </c>
+      <c r="AL67">
+        <v>1.7</v>
+      </c>
+      <c r="AM67">
+        <v>2</v>
+      </c>
+      <c r="AN67">
+        <v>1.12</v>
+      </c>
+      <c r="AO67">
+        <v>1.2</v>
+      </c>
+      <c r="AP67">
+        <v>2.55</v>
+      </c>
+      <c r="AQ67">
+        <v>0</v>
+      </c>
+      <c r="AR67">
+        <v>1</v>
+      </c>
+      <c r="AS67">
+        <v>3</v>
+      </c>
+      <c r="AT67">
+        <v>0.67</v>
+      </c>
+      <c r="AU67">
+        <v>0</v>
+      </c>
+      <c r="AV67">
+        <v>0.99</v>
+      </c>
+      <c r="AW67">
+        <v>0.99</v>
+      </c>
+      <c r="AX67">
+        <v>1.33</v>
+      </c>
+      <c r="AY67">
+        <v>10</v>
+      </c>
+      <c r="AZ67">
+        <v>3.6</v>
+      </c>
+      <c r="BA67">
+        <v>1.2</v>
+      </c>
+      <c r="BB67">
+        <v>1.36</v>
+      </c>
+      <c r="BC67">
+        <v>1.8</v>
+      </c>
+      <c r="BD67">
+        <v>2.4</v>
+      </c>
+      <c r="BE67">
+        <v>3.3</v>
+      </c>
+      <c r="BF67">
+        <v>9</v>
+      </c>
+      <c r="BG67">
+        <v>5</v>
+      </c>
+      <c r="BH67">
+        <v>8</v>
+      </c>
+      <c r="BI67">
+        <v>2</v>
+      </c>
+      <c r="BJ67">
+        <v>17</v>
+      </c>
+      <c r="BK67">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Europe UEFA Champions League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Europe UEFA Champions League_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="220">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -238,18 +238,18 @@
     <t>Hamrun Spartans</t>
   </si>
   <si>
+    <t>Ballkani</t>
+  </si>
+  <si>
     <t>KÍ</t>
   </si>
   <si>
+    <t>Partizani Tirana</t>
+  </si>
+  <si>
     <t>Shamrock Rovers</t>
   </si>
   <si>
-    <t>Ballkani</t>
-  </si>
-  <si>
-    <t>Partizani Tirana</t>
-  </si>
-  <si>
     <t>Astana</t>
   </si>
   <si>
@@ -277,36 +277,36 @@
     <t>Maccabi Haifa</t>
   </si>
   <si>
+    <t>Zrinjski</t>
+  </si>
+  <si>
+    <t>BATE</t>
+  </si>
+  <si>
     <t>The New Saints</t>
   </si>
   <si>
-    <t>BATE</t>
-  </si>
-  <si>
-    <t>Zrinjski</t>
-  </si>
-  <si>
     <t>Breidablik</t>
   </si>
   <si>
     <t>Valmiera / BSS</t>
   </si>
   <si>
+    <t>Ferencváros</t>
+  </si>
+  <si>
+    <t>Qarabağ</t>
+  </si>
+  <si>
     <t>Dinamo Tbilisi</t>
   </si>
   <si>
-    <t>Ferencváros</t>
-  </si>
-  <si>
-    <t>Qarabağ</t>
+    <t>Swift Hesperange</t>
   </si>
   <si>
     <t>Ludogorets</t>
   </si>
   <si>
-    <t>Swift Hesperange</t>
-  </si>
-  <si>
     <t>Larne</t>
   </si>
   <si>
@@ -349,15 +349,18 @@
     <t>Sparta Praha</t>
   </si>
   <si>
+    <t>Bačka Topola</t>
+  </si>
+  <si>
     <t>Sturm Graz</t>
   </si>
   <si>
-    <t>Bačka Topola</t>
-  </si>
-  <si>
     <t>Olympique Marseille</t>
   </si>
   <si>
+    <t>AEK Athens</t>
+  </si>
+  <si>
     <t>[]</t>
   </si>
   <si>
@@ -400,24 +403,24 @@
     <t>['69', '84']</t>
   </si>
   <si>
+    <t>['27', '94']</t>
+  </si>
+  <si>
     <t>['71', '90+12']</t>
   </si>
   <si>
-    <t>['27', '94']</t>
-  </si>
-  <si>
     <t>['16', '57']</t>
   </si>
   <si>
     <t>['82']</t>
   </si>
   <si>
+    <t>['7', '45+1', '49', '62']</t>
+  </si>
+  <si>
     <t>['22']</t>
   </si>
   <si>
-    <t>['7', '45+1', '49', '62']</t>
-  </si>
-  <si>
     <t>['4', '45', '49', '78']</t>
   </si>
   <si>
@@ -451,18 +454,21 @@
     <t>['15', '69']</t>
   </si>
   <si>
+    <t>['25', '48', '90+3']</t>
+  </si>
+  <si>
     <t>['18', '90+2']</t>
   </si>
   <si>
-    <t>['25', '48', '90+3']</t>
-  </si>
-  <si>
     <t>['5', '66']</t>
   </si>
   <si>
     <t>['60']</t>
   </si>
   <si>
+    <t>['33', '85', '105+2', '107']</t>
+  </si>
+  <si>
     <t>['74', '89']</t>
   </si>
   <si>
@@ -472,9 +478,6 @@
     <t>['28', '51']</t>
   </si>
   <si>
-    <t>['33', '85', '105+2', '107']</t>
-  </si>
-  <si>
     <t>['33', '35', '37', '45+1', '47', '56']</t>
   </si>
   <si>
@@ -499,6 +502,30 @@
     <t>['6', '15']</t>
   </si>
   <si>
+    <t>['29', '45+2', '90+3']</t>
+  </si>
+  <si>
+    <t>['17', '112']</t>
+  </si>
+  <si>
+    <t>['80', '105', '107']</t>
+  </si>
+  <si>
+    <t>['40']</t>
+  </si>
+  <si>
+    <t>['39']</t>
+  </si>
+  <si>
+    <t>['24']</t>
+  </si>
+  <si>
+    <t>['26']</t>
+  </si>
+  <si>
+    <t>['2', '45+1']</t>
+  </si>
+  <si>
     <t>['13', '21', '60']</t>
   </si>
   <si>
@@ -520,9 +547,6 @@
     <t>['41', '45+3', '58', '80']</t>
   </si>
   <si>
-    <t>['39']</t>
-  </si>
-  <si>
     <t>['58']</t>
   </si>
   <si>
@@ -538,24 +562,24 @@
     <t>['47', '59', '85']</t>
   </si>
   <si>
+    <t>['74', '90+1', '105+3']</t>
+  </si>
+  <si>
     <t>['19', '90+1']</t>
   </si>
   <si>
-    <t>['74', '90+1', '105+3']</t>
-  </si>
-  <si>
     <t>['65']</t>
   </si>
   <si>
     <t>['33', '64']</t>
   </si>
   <si>
+    <t>['8', '32', '45+1']</t>
+  </si>
+  <si>
     <t>['50', '51']</t>
   </si>
   <si>
-    <t>['8', '32', '45+1']</t>
-  </si>
-  <si>
     <t>['55', '62']</t>
   </si>
   <si>
@@ -589,12 +613,12 @@
     <t>['23', '54']</t>
   </si>
   <si>
+    <t>['8', '26', '35', '56', '74']</t>
+  </si>
+  <si>
     <t>['15']</t>
   </si>
   <si>
-    <t>['8', '26', '35', '56', '74']</t>
-  </si>
-  <si>
     <t>['75', '90+3']</t>
   </si>
   <si>
@@ -604,24 +628,21 @@
     <t>['51']</t>
   </si>
   <si>
+    <t>['20']</t>
+  </si>
+  <si>
     <t>['17', '52', '109']</t>
   </si>
   <si>
     <t>['36', '63']</t>
   </si>
   <si>
-    <t>['20']</t>
-  </si>
-  <si>
     <t>['9', '51', '74']</t>
   </si>
   <si>
     <t>['88']</t>
   </si>
   <si>
-    <t>['40']</t>
-  </si>
-  <si>
     <t>['48']</t>
   </si>
   <si>
@@ -629,6 +650,30 @@
   </si>
   <si>
     <t>['5', '15']</t>
+  </si>
+  <si>
+    <t>['85']</t>
+  </si>
+  <si>
+    <t>['49']</t>
+  </si>
+  <si>
+    <t>['1', '105+3', '112']</t>
+  </si>
+  <si>
+    <t>['8', '12', '16', '20']</t>
+  </si>
+  <si>
+    <t>['59', '90']</t>
+  </si>
+  <si>
+    <t>['50']</t>
+  </si>
+  <si>
+    <t>['32', '39', '85']</t>
+  </si>
+  <si>
+    <t>['90+9']</t>
   </si>
 </sst>
 </file>
@@ -990,7 +1035,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK67"/>
+  <dimension ref="A1:BK77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1231,10 +1276,10 @@
         <v>3</v>
       </c>
       <c r="O2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="P2" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="Q2">
         <v>2</v>
@@ -1422,10 +1467,10 @@
         <v>8</v>
       </c>
       <c r="O3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P3" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -1613,10 +1658,10 @@
         <v>5</v>
       </c>
       <c r="O4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="P4" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="Q4">
         <v>-1</v>
@@ -1783,7 +1828,7 @@
         <v>68</v>
       </c>
       <c r="H5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -1804,10 +1849,10 @@
         <v>1</v>
       </c>
       <c r="O5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="P5" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="Q5">
         <v>2</v>
@@ -1974,7 +2019,7 @@
         <v>69</v>
       </c>
       <c r="H6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -1995,10 +2040,10 @@
         <v>3</v>
       </c>
       <c r="O6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="P6" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="Q6">
         <v>1</v>
@@ -2186,10 +2231,10 @@
         <v>0</v>
       </c>
       <c r="O7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="P7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q7">
         <v>8</v>
@@ -2377,10 +2422,10 @@
         <v>3</v>
       </c>
       <c r="O8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="P8" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="Q8">
         <v>5</v>
@@ -2467,7 +2512,7 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AT8">
         <v>0</v>
@@ -2568,10 +2613,10 @@
         <v>1</v>
       </c>
       <c r="O9" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P9" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q9">
         <v>11</v>
@@ -2658,7 +2703,7 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AT9">
         <v>0</v>
@@ -2759,10 +2804,10 @@
         <v>4</v>
       </c>
       <c r="O10" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="P10" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="Q10">
         <v>4</v>
@@ -2852,7 +2897,7 @@
         <v>0</v>
       </c>
       <c r="AT10">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -2911,7 +2956,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>6527469</v>
+        <v>6527467</v>
       </c>
       <c r="C11" t="s">
         <v>63</v>
@@ -2929,172 +2974,172 @@
         <v>74</v>
       </c>
       <c r="H11" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O11" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="P11" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S11">
+        <v>10</v>
+      </c>
+      <c r="T11">
+        <v>4.5</v>
+      </c>
+      <c r="U11">
+        <v>2</v>
+      </c>
+      <c r="V11">
+        <v>2.55</v>
+      </c>
+      <c r="W11">
+        <v>1.48</v>
+      </c>
+      <c r="X11">
+        <v>2.5</v>
+      </c>
+      <c r="Y11">
+        <v>3.2</v>
+      </c>
+      <c r="Z11">
+        <v>1.31</v>
+      </c>
+      <c r="AA11">
         <v>8</v>
       </c>
-      <c r="T11">
+      <c r="AB11">
+        <v>1.05</v>
+      </c>
+      <c r="AC11">
+        <v>3.75</v>
+      </c>
+      <c r="AD11">
+        <v>3.1</v>
+      </c>
+      <c r="AE11">
+        <v>1.91</v>
+      </c>
+      <c r="AF11">
+        <v>1.08</v>
+      </c>
+      <c r="AG11">
+        <v>7</v>
+      </c>
+      <c r="AH11">
+        <v>1.4</v>
+      </c>
+      <c r="AI11">
+        <v>2.8</v>
+      </c>
+      <c r="AJ11">
+        <v>2.1</v>
+      </c>
+      <c r="AK11">
+        <v>1.74</v>
+      </c>
+      <c r="AL11">
+        <v>2</v>
+      </c>
+      <c r="AM11">
+        <v>1.75</v>
+      </c>
+      <c r="AN11">
+        <v>1.87</v>
+      </c>
+      <c r="AO11">
+        <v>1.25</v>
+      </c>
+      <c r="AP11">
+        <v>1.18</v>
+      </c>
+      <c r="AQ11">
+        <v>0</v>
+      </c>
+      <c r="AR11">
+        <v>0</v>
+      </c>
+      <c r="AS11">
+        <v>1.5</v>
+      </c>
+      <c r="AT11">
+        <v>1</v>
+      </c>
+      <c r="AU11">
+        <v>0</v>
+      </c>
+      <c r="AV11">
+        <v>0</v>
+      </c>
+      <c r="AW11">
+        <v>0</v>
+      </c>
+      <c r="AX11">
+        <v>3.01</v>
+      </c>
+      <c r="AY11">
+        <v>7.1</v>
+      </c>
+      <c r="AZ11">
+        <v>1.62</v>
+      </c>
+      <c r="BA11">
+        <v>1.25</v>
+      </c>
+      <c r="BB11">
+        <v>1.53</v>
+      </c>
+      <c r="BC11">
+        <v>1.75</v>
+      </c>
+      <c r="BD11">
+        <v>2.2</v>
+      </c>
+      <c r="BE11">
+        <v>2.9</v>
+      </c>
+      <c r="BF11">
         <v>6</v>
       </c>
-      <c r="U11">
-        <v>2.4</v>
-      </c>
-      <c r="V11">
-        <v>1.9</v>
-      </c>
-      <c r="W11">
-        <v>1.33</v>
-      </c>
-      <c r="X11">
-        <v>3.05</v>
-      </c>
-      <c r="Y11">
-        <v>2.5</v>
-      </c>
-      <c r="Z11">
-        <v>1.47</v>
-      </c>
-      <c r="AA11">
-        <v>5.95</v>
-      </c>
-      <c r="AB11">
-        <v>1.1</v>
-      </c>
-      <c r="AC11">
-        <v>5.5</v>
-      </c>
-      <c r="AD11">
-        <v>4.2</v>
-      </c>
-      <c r="AE11">
-        <v>1.44</v>
-      </c>
-      <c r="AF11">
-        <v>1.04</v>
-      </c>
-      <c r="AG11">
-        <v>10</v>
-      </c>
-      <c r="AH11">
-        <v>1.22</v>
-      </c>
-      <c r="AI11">
-        <v>4</v>
-      </c>
-      <c r="AJ11">
-        <v>1.71</v>
-      </c>
-      <c r="AK11">
-        <v>2.05</v>
-      </c>
-      <c r="AL11">
-        <v>1.9</v>
-      </c>
-      <c r="AM11">
-        <v>1.83</v>
-      </c>
-      <c r="AN11">
-        <v>2.8</v>
-      </c>
-      <c r="AO11">
-        <v>1.15</v>
-      </c>
-      <c r="AP11">
-        <v>1.06</v>
-      </c>
-      <c r="AQ11">
-        <v>0</v>
-      </c>
-      <c r="AR11">
-        <v>0</v>
-      </c>
-      <c r="AS11">
-        <v>1.8</v>
-      </c>
-      <c r="AT11">
-        <v>0.5</v>
-      </c>
-      <c r="AU11">
-        <v>0</v>
-      </c>
-      <c r="AV11">
-        <v>0</v>
-      </c>
-      <c r="AW11">
-        <v>0</v>
-      </c>
-      <c r="AX11">
-        <v>5.27</v>
-      </c>
-      <c r="AY11">
-        <v>8.4</v>
-      </c>
-      <c r="AZ11">
-        <v>1.28</v>
-      </c>
-      <c r="BA11">
-        <v>1.29</v>
-      </c>
-      <c r="BB11">
-        <v>1.54</v>
-      </c>
-      <c r="BC11">
-        <v>1.9</v>
-      </c>
-      <c r="BD11">
-        <v>2.37</v>
-      </c>
-      <c r="BE11">
-        <v>3.2</v>
-      </c>
-      <c r="BF11">
-        <v>4</v>
-      </c>
       <c r="BG11">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BH11">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BI11">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BJ11">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="BK11">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:63">
@@ -3102,7 +3147,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>6671490</v>
+        <v>6527469</v>
       </c>
       <c r="C12" t="s">
         <v>63</v>
@@ -3120,172 +3165,172 @@
         <v>75</v>
       </c>
       <c r="H12" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O12" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="P12" t="s">
-        <v>168</v>
+        <v>115</v>
       </c>
       <c r="Q12">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R12">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="S12">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="T12">
-        <v>2.2</v>
+        <v>6</v>
       </c>
       <c r="U12">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="V12">
-        <v>5</v>
+        <v>1.9</v>
       </c>
       <c r="W12">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="X12">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="Y12">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="Z12">
-        <v>1.4</v>
+        <v>1.47</v>
       </c>
       <c r="AA12">
-        <v>6.5</v>
+        <v>5.95</v>
       </c>
       <c r="AB12">
         <v>1.1</v>
       </c>
       <c r="AC12">
-        <v>1.3</v>
+        <v>5.5</v>
       </c>
       <c r="AD12">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="AE12">
-        <v>8</v>
+        <v>1.44</v>
       </c>
       <c r="AF12">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="AG12">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AH12">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AI12">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="AJ12">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AK12">
-        <v>1.88</v>
+        <v>2.05</v>
       </c>
       <c r="AL12">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="AM12">
         <v>1.83</v>
       </c>
       <c r="AN12">
+        <v>2.8</v>
+      </c>
+      <c r="AO12">
         <v>1.15</v>
       </c>
-      <c r="AO12">
-        <v>1.2</v>
-      </c>
       <c r="AP12">
-        <v>2</v>
+        <v>1.06</v>
       </c>
       <c r="AQ12">
         <v>0</v>
       </c>
       <c r="AR12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AS12">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AT12">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="AU12">
         <v>0</v>
       </c>
       <c r="AV12">
-        <v>2.96</v>
+        <v>0</v>
       </c>
       <c r="AW12">
-        <v>2.96</v>
+        <v>0</v>
       </c>
       <c r="AX12">
-        <v>1.44</v>
+        <v>5.27</v>
       </c>
       <c r="AY12">
+        <v>8.4</v>
+      </c>
+      <c r="AZ12">
+        <v>1.28</v>
+      </c>
+      <c r="BA12">
+        <v>1.29</v>
+      </c>
+      <c r="BB12">
+        <v>1.54</v>
+      </c>
+      <c r="BC12">
+        <v>1.9</v>
+      </c>
+      <c r="BD12">
+        <v>2.37</v>
+      </c>
+      <c r="BE12">
+        <v>3.2</v>
+      </c>
+      <c r="BF12">
+        <v>4</v>
+      </c>
+      <c r="BG12">
+        <v>4</v>
+      </c>
+      <c r="BH12">
+        <v>5</v>
+      </c>
+      <c r="BI12">
+        <v>6</v>
+      </c>
+      <c r="BJ12">
+        <v>9</v>
+      </c>
+      <c r="BK12">
         <v>10</v>
-      </c>
-      <c r="AZ12">
-        <v>3.34</v>
-      </c>
-      <c r="BA12">
-        <v>1.22</v>
-      </c>
-      <c r="BB12">
-        <v>1.34</v>
-      </c>
-      <c r="BC12">
-        <v>1.62</v>
-      </c>
-      <c r="BD12">
-        <v>2.05</v>
-      </c>
-      <c r="BE12">
-        <v>2.65</v>
-      </c>
-      <c r="BF12">
-        <v>6</v>
-      </c>
-      <c r="BG12">
-        <v>5</v>
-      </c>
-      <c r="BH12">
-        <v>4</v>
-      </c>
-      <c r="BI12">
-        <v>4</v>
-      </c>
-      <c r="BJ12">
-        <v>10</v>
-      </c>
-      <c r="BK12">
-        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:63">
@@ -3293,7 +3338,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>6527467</v>
+        <v>6527478</v>
       </c>
       <c r="C13" t="s">
         <v>63</v>
@@ -3311,172 +3356,172 @@
         <v>76</v>
       </c>
       <c r="H13" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N13">
         <v>2</v>
       </c>
       <c r="O13" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P13" t="s">
-        <v>114</v>
+        <v>177</v>
       </c>
       <c r="Q13">
         <v>6</v>
       </c>
       <c r="R13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S13">
+        <v>8</v>
+      </c>
+      <c r="T13">
+        <v>3.5</v>
+      </c>
+      <c r="U13">
+        <v>2.05</v>
+      </c>
+      <c r="V13">
+        <v>2.95</v>
+      </c>
+      <c r="W13">
+        <v>1.41</v>
+      </c>
+      <c r="X13">
+        <v>2.7</v>
+      </c>
+      <c r="Y13">
+        <v>2.85</v>
+      </c>
+      <c r="Z13">
+        <v>1.37</v>
+      </c>
+      <c r="AA13">
+        <v>6.95</v>
+      </c>
+      <c r="AB13">
+        <v>1.07</v>
+      </c>
+      <c r="AC13">
+        <v>5</v>
+      </c>
+      <c r="AD13">
+        <v>3.9</v>
+      </c>
+      <c r="AE13">
+        <v>1.53</v>
+      </c>
+      <c r="AF13">
+        <v>1.03</v>
+      </c>
+      <c r="AG13">
+        <v>8.4</v>
+      </c>
+      <c r="AH13">
+        <v>1.3</v>
+      </c>
+      <c r="AI13">
+        <v>3.3</v>
+      </c>
+      <c r="AJ13">
+        <v>1.81</v>
+      </c>
+      <c r="AK13">
+        <v>2</v>
+      </c>
+      <c r="AL13">
+        <v>1.75</v>
+      </c>
+      <c r="AM13">
+        <v>2</v>
+      </c>
+      <c r="AN13">
+        <v>1.57</v>
+      </c>
+      <c r="AO13">
+        <v>1.28</v>
+      </c>
+      <c r="AP13">
+        <v>1.38</v>
+      </c>
+      <c r="AQ13">
+        <v>0</v>
+      </c>
+      <c r="AR13">
+        <v>0</v>
+      </c>
+      <c r="AS13">
+        <v>0.5</v>
+      </c>
+      <c r="AT13">
+        <v>1</v>
+      </c>
+      <c r="AU13">
+        <v>0</v>
+      </c>
+      <c r="AV13">
+        <v>0</v>
+      </c>
+      <c r="AW13">
+        <v>0</v>
+      </c>
+      <c r="AX13">
+        <v>1.93</v>
+      </c>
+      <c r="AY13">
+        <v>6.9</v>
+      </c>
+      <c r="AZ13">
+        <v>2.3</v>
+      </c>
+      <c r="BA13">
+        <v>1.31</v>
+      </c>
+      <c r="BB13">
+        <v>1.56</v>
+      </c>
+      <c r="BC13">
+        <v>1.93</v>
+      </c>
+      <c r="BD13">
+        <v>2.41</v>
+      </c>
+      <c r="BE13">
+        <v>3.4</v>
+      </c>
+      <c r="BF13">
+        <v>5</v>
+      </c>
+      <c r="BG13">
+        <v>5</v>
+      </c>
+      <c r="BH13">
+        <v>15</v>
+      </c>
+      <c r="BI13">
+        <v>5</v>
+      </c>
+      <c r="BJ13">
+        <v>20</v>
+      </c>
+      <c r="BK13">
         <v>10</v>
-      </c>
-      <c r="T13">
-        <v>4.5</v>
-      </c>
-      <c r="U13">
-        <v>2</v>
-      </c>
-      <c r="V13">
-        <v>2.55</v>
-      </c>
-      <c r="W13">
-        <v>1.48</v>
-      </c>
-      <c r="X13">
-        <v>2.5</v>
-      </c>
-      <c r="Y13">
-        <v>3.2</v>
-      </c>
-      <c r="Z13">
-        <v>1.31</v>
-      </c>
-      <c r="AA13">
-        <v>8</v>
-      </c>
-      <c r="AB13">
-        <v>1.05</v>
-      </c>
-      <c r="AC13">
-        <v>3.75</v>
-      </c>
-      <c r="AD13">
-        <v>3.1</v>
-      </c>
-      <c r="AE13">
-        <v>1.91</v>
-      </c>
-      <c r="AF13">
-        <v>1.08</v>
-      </c>
-      <c r="AG13">
-        <v>7</v>
-      </c>
-      <c r="AH13">
-        <v>1.4</v>
-      </c>
-      <c r="AI13">
-        <v>2.8</v>
-      </c>
-      <c r="AJ13">
-        <v>2.1</v>
-      </c>
-      <c r="AK13">
-        <v>1.74</v>
-      </c>
-      <c r="AL13">
-        <v>2</v>
-      </c>
-      <c r="AM13">
-        <v>1.75</v>
-      </c>
-      <c r="AN13">
-        <v>1.87</v>
-      </c>
-      <c r="AO13">
-        <v>1.25</v>
-      </c>
-      <c r="AP13">
-        <v>1.18</v>
-      </c>
-      <c r="AQ13">
-        <v>0</v>
-      </c>
-      <c r="AR13">
-        <v>0</v>
-      </c>
-      <c r="AS13">
-        <v>1.5</v>
-      </c>
-      <c r="AT13">
-        <v>1</v>
-      </c>
-      <c r="AU13">
-        <v>0</v>
-      </c>
-      <c r="AV13">
-        <v>0</v>
-      </c>
-      <c r="AW13">
-        <v>0</v>
-      </c>
-      <c r="AX13">
-        <v>3.01</v>
-      </c>
-      <c r="AY13">
-        <v>7.1</v>
-      </c>
-      <c r="AZ13">
-        <v>1.62</v>
-      </c>
-      <c r="BA13">
-        <v>1.25</v>
-      </c>
-      <c r="BB13">
-        <v>1.53</v>
-      </c>
-      <c r="BC13">
-        <v>1.75</v>
-      </c>
-      <c r="BD13">
-        <v>2.2</v>
-      </c>
-      <c r="BE13">
-        <v>2.9</v>
-      </c>
-      <c r="BF13">
-        <v>6</v>
-      </c>
-      <c r="BG13">
-        <v>6</v>
-      </c>
-      <c r="BH13">
-        <v>8</v>
-      </c>
-      <c r="BI13">
-        <v>9</v>
-      </c>
-      <c r="BJ13">
-        <v>14</v>
-      </c>
-      <c r="BK13">
-        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:63">
@@ -3484,7 +3529,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>6527478</v>
+        <v>6671490</v>
       </c>
       <c r="C14" t="s">
         <v>63</v>
@@ -3502,172 +3547,172 @@
         <v>77</v>
       </c>
       <c r="H14" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>1</v>
       </c>
       <c r="N14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O14" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="P14" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="Q14">
+        <v>3</v>
+      </c>
+      <c r="R14">
+        <v>10</v>
+      </c>
+      <c r="S14">
+        <v>13</v>
+      </c>
+      <c r="T14">
+        <v>2.2</v>
+      </c>
+      <c r="U14">
+        <v>2.2</v>
+      </c>
+      <c r="V14">
+        <v>5</v>
+      </c>
+      <c r="W14">
+        <v>1.36</v>
+      </c>
+      <c r="X14">
+        <v>3</v>
+      </c>
+      <c r="Y14">
+        <v>2.75</v>
+      </c>
+      <c r="Z14">
+        <v>1.4</v>
+      </c>
+      <c r="AA14">
+        <v>6.5</v>
+      </c>
+      <c r="AB14">
+        <v>1.1</v>
+      </c>
+      <c r="AC14">
+        <v>1.3</v>
+      </c>
+      <c r="AD14">
+        <v>4.75</v>
+      </c>
+      <c r="AE14">
+        <v>8</v>
+      </c>
+      <c r="AF14">
+        <v>1.05</v>
+      </c>
+      <c r="AG14">
+        <v>9</v>
+      </c>
+      <c r="AH14">
+        <v>1.29</v>
+      </c>
+      <c r="AI14">
+        <v>3.4</v>
+      </c>
+      <c r="AJ14">
+        <v>1.85</v>
+      </c>
+      <c r="AK14">
+        <v>1.88</v>
+      </c>
+      <c r="AL14">
+        <v>1.83</v>
+      </c>
+      <c r="AM14">
+        <v>1.83</v>
+      </c>
+      <c r="AN14">
+        <v>1.15</v>
+      </c>
+      <c r="AO14">
+        <v>1.2</v>
+      </c>
+      <c r="AP14">
+        <v>2</v>
+      </c>
+      <c r="AQ14">
+        <v>0</v>
+      </c>
+      <c r="AR14">
+        <v>3</v>
+      </c>
+      <c r="AS14">
+        <v>0</v>
+      </c>
+      <c r="AT14">
+        <v>2</v>
+      </c>
+      <c r="AU14">
+        <v>0</v>
+      </c>
+      <c r="AV14">
+        <v>2.96</v>
+      </c>
+      <c r="AW14">
+        <v>2.96</v>
+      </c>
+      <c r="AX14">
+        <v>1.44</v>
+      </c>
+      <c r="AY14">
+        <v>10</v>
+      </c>
+      <c r="AZ14">
+        <v>3.34</v>
+      </c>
+      <c r="BA14">
+        <v>1.22</v>
+      </c>
+      <c r="BB14">
+        <v>1.34</v>
+      </c>
+      <c r="BC14">
+        <v>1.62</v>
+      </c>
+      <c r="BD14">
+        <v>2.05</v>
+      </c>
+      <c r="BE14">
+        <v>2.65</v>
+      </c>
+      <c r="BF14">
         <v>6</v>
-      </c>
-      <c r="R14">
-        <v>2</v>
-      </c>
-      <c r="S14">
-        <v>8</v>
-      </c>
-      <c r="T14">
-        <v>3.5</v>
-      </c>
-      <c r="U14">
-        <v>2.05</v>
-      </c>
-      <c r="V14">
-        <v>2.95</v>
-      </c>
-      <c r="W14">
-        <v>1.41</v>
-      </c>
-      <c r="X14">
-        <v>2.7</v>
-      </c>
-      <c r="Y14">
-        <v>2.85</v>
-      </c>
-      <c r="Z14">
-        <v>1.37</v>
-      </c>
-      <c r="AA14">
-        <v>6.95</v>
-      </c>
-      <c r="AB14">
-        <v>1.07</v>
-      </c>
-      <c r="AC14">
-        <v>5</v>
-      </c>
-      <c r="AD14">
-        <v>3.9</v>
-      </c>
-      <c r="AE14">
-        <v>1.53</v>
-      </c>
-      <c r="AF14">
-        <v>1.03</v>
-      </c>
-      <c r="AG14">
-        <v>8.4</v>
-      </c>
-      <c r="AH14">
-        <v>1.3</v>
-      </c>
-      <c r="AI14">
-        <v>3.3</v>
-      </c>
-      <c r="AJ14">
-        <v>1.81</v>
-      </c>
-      <c r="AK14">
-        <v>2</v>
-      </c>
-      <c r="AL14">
-        <v>1.75</v>
-      </c>
-      <c r="AM14">
-        <v>2</v>
-      </c>
-      <c r="AN14">
-        <v>1.57</v>
-      </c>
-      <c r="AO14">
-        <v>1.28</v>
-      </c>
-      <c r="AP14">
-        <v>1.38</v>
-      </c>
-      <c r="AQ14">
-        <v>0</v>
-      </c>
-      <c r="AR14">
-        <v>0</v>
-      </c>
-      <c r="AS14">
-        <v>0.5</v>
-      </c>
-      <c r="AT14">
-        <v>1</v>
-      </c>
-      <c r="AU14">
-        <v>0</v>
-      </c>
-      <c r="AV14">
-        <v>0</v>
-      </c>
-      <c r="AW14">
-        <v>0</v>
-      </c>
-      <c r="AX14">
-        <v>1.93</v>
-      </c>
-      <c r="AY14">
-        <v>6.9</v>
-      </c>
-      <c r="AZ14">
-        <v>2.3</v>
-      </c>
-      <c r="BA14">
-        <v>1.31</v>
-      </c>
-      <c r="BB14">
-        <v>1.56</v>
-      </c>
-      <c r="BC14">
-        <v>1.93</v>
-      </c>
-      <c r="BD14">
-        <v>2.41</v>
-      </c>
-      <c r="BE14">
-        <v>3.4</v>
-      </c>
-      <c r="BF14">
-        <v>5</v>
       </c>
       <c r="BG14">
         <v>5</v>
       </c>
       <c r="BH14">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="BI14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BJ14">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="BK14">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:63">
@@ -3693,7 +3738,7 @@
         <v>78</v>
       </c>
       <c r="H15" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -3714,10 +3759,10 @@
         <v>2</v>
       </c>
       <c r="O15" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P15" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="Q15">
         <v>6</v>
@@ -3905,10 +3950,10 @@
         <v>1</v>
       </c>
       <c r="O16" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="P16" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q16">
         <v>4</v>
@@ -4075,7 +4120,7 @@
         <v>80</v>
       </c>
       <c r="H17" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I17">
         <v>3</v>
@@ -4096,10 +4141,10 @@
         <v>4</v>
       </c>
       <c r="O17" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="P17" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="Q17">
         <v>10</v>
@@ -4287,10 +4332,10 @@
         <v>1</v>
       </c>
       <c r="O18" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="P18" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q18">
         <v>3</v>
@@ -4457,7 +4502,7 @@
         <v>82</v>
       </c>
       <c r="H19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I19">
         <v>1</v>
@@ -4478,10 +4523,10 @@
         <v>2</v>
       </c>
       <c r="O19" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="P19" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q19">
         <v>5</v>
@@ -4568,7 +4613,7 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AT19">
         <v>0.5</v>
@@ -4669,10 +4714,10 @@
         <v>3</v>
       </c>
       <c r="O20" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P20" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="Q20">
         <v>1</v>
@@ -4860,10 +4905,10 @@
         <v>3</v>
       </c>
       <c r="O21" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="P21" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -4953,7 +4998,7 @@
         <v>0</v>
       </c>
       <c r="AT21">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AU21">
         <v>0</v>
@@ -5051,10 +5096,10 @@
         <v>3</v>
       </c>
       <c r="O22" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="P22" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q22">
         <v>10</v>
@@ -5242,10 +5287,10 @@
         <v>3</v>
       </c>
       <c r="O23" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="P23" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q23">
         <v>4</v>
@@ -5332,7 +5377,7 @@
         <v>0</v>
       </c>
       <c r="AS23">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AT23">
         <v>0</v>
@@ -5394,7 +5439,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>6527480</v>
+        <v>6527491</v>
       </c>
       <c r="C24" t="s">
         <v>63</v>
@@ -5412,121 +5457,121 @@
         <v>87</v>
       </c>
       <c r="H24" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K24">
         <v>1</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N24">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O24" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="P24" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="Q24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R24">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="S24">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="T24">
-        <v>5.65</v>
+        <v>2.1</v>
       </c>
       <c r="U24">
-        <v>2.38</v>
+        <v>2.16</v>
       </c>
       <c r="V24">
-        <v>2.05</v>
+        <v>6.5</v>
       </c>
       <c r="W24">
-        <v>1.32</v>
+        <v>1.44</v>
       </c>
       <c r="X24">
-        <v>3.22</v>
+        <v>2.68</v>
       </c>
       <c r="Y24">
-        <v>2.52</v>
+        <v>3.05</v>
       </c>
       <c r="Z24">
-        <v>1.49</v>
+        <v>1.35</v>
       </c>
       <c r="AA24">
-        <v>6</v>
+        <v>8.1</v>
       </c>
       <c r="AB24">
-        <v>1.11</v>
+        <v>1.06</v>
       </c>
       <c r="AC24">
-        <v>5.7</v>
+        <v>1.48</v>
       </c>
       <c r="AD24">
-        <v>4.1</v>
+        <v>3.85</v>
       </c>
       <c r="AE24">
-        <v>1.55</v>
+        <v>6.5</v>
       </c>
       <c r="AF24">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="AG24">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AH24">
-        <v>1.2</v>
+        <v>1.34</v>
       </c>
       <c r="AI24">
-        <v>3.95</v>
+        <v>2.93</v>
       </c>
       <c r="AJ24">
-        <v>1.73</v>
+        <v>2.15</v>
       </c>
       <c r="AK24">
-        <v>2.13</v>
+        <v>1.65</v>
       </c>
       <c r="AL24">
-        <v>1.8</v>
+        <v>2.21</v>
       </c>
       <c r="AM24">
-        <v>1.96</v>
+        <v>1.62</v>
       </c>
       <c r="AN24">
-        <v>2.48</v>
+        <v>1.1</v>
       </c>
       <c r="AO24">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="AP24">
-        <v>1.13</v>
+        <v>2.51</v>
       </c>
       <c r="AQ24">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AR24">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AS24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT24">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AU24">
         <v>0</v>
@@ -5538,46 +5583,46 @@
         <v>0</v>
       </c>
       <c r="AX24">
-        <v>4.04</v>
+        <v>1.59</v>
       </c>
       <c r="AY24">
-        <v>11</v>
+        <v>7.2</v>
       </c>
       <c r="AZ24">
-        <v>1.34</v>
+        <v>3.11</v>
       </c>
       <c r="BA24">
-        <v>1.15</v>
+        <v>1.3</v>
       </c>
       <c r="BB24">
-        <v>1.27</v>
+        <v>1.5</v>
       </c>
       <c r="BC24">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="BD24">
-        <v>1.95</v>
+        <v>2.35</v>
       </c>
       <c r="BE24">
-        <v>2.34</v>
+        <v>3.15</v>
       </c>
       <c r="BF24">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="BG24">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BH24">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="BI24">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BJ24">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="BK24">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:63">
@@ -5603,7 +5648,7 @@
         <v>88</v>
       </c>
       <c r="H25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -5624,10 +5669,10 @@
         <v>2</v>
       </c>
       <c r="O25" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="P25" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q25">
         <v>2</v>
@@ -5776,7 +5821,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>6527491</v>
+        <v>6527480</v>
       </c>
       <c r="C26" t="s">
         <v>63</v>
@@ -5794,172 +5839,172 @@
         <v>89</v>
       </c>
       <c r="H26" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="I26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K26">
         <v>1</v>
       </c>
       <c r="L26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N26">
+        <v>2</v>
+      </c>
+      <c r="O26" t="s">
+        <v>115</v>
+      </c>
+      <c r="P26" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <v>1</v>
+      </c>
+      <c r="S26">
+        <v>1</v>
+      </c>
+      <c r="T26">
+        <v>5.65</v>
+      </c>
+      <c r="U26">
+        <v>2.38</v>
+      </c>
+      <c r="V26">
+        <v>2.05</v>
+      </c>
+      <c r="W26">
+        <v>1.32</v>
+      </c>
+      <c r="X26">
+        <v>3.22</v>
+      </c>
+      <c r="Y26">
+        <v>2.52</v>
+      </c>
+      <c r="Z26">
+        <v>1.49</v>
+      </c>
+      <c r="AA26">
+        <v>6</v>
+      </c>
+      <c r="AB26">
+        <v>1.11</v>
+      </c>
+      <c r="AC26">
+        <v>5.7</v>
+      </c>
+      <c r="AD26">
+        <v>4.1</v>
+      </c>
+      <c r="AE26">
+        <v>1.55</v>
+      </c>
+      <c r="AF26">
+        <v>1.01</v>
+      </c>
+      <c r="AG26">
+        <v>10</v>
+      </c>
+      <c r="AH26">
+        <v>1.2</v>
+      </c>
+      <c r="AI26">
+        <v>3.95</v>
+      </c>
+      <c r="AJ26">
+        <v>1.73</v>
+      </c>
+      <c r="AK26">
+        <v>2.13</v>
+      </c>
+      <c r="AL26">
+        <v>1.8</v>
+      </c>
+      <c r="AM26">
+        <v>1.96</v>
+      </c>
+      <c r="AN26">
+        <v>2.48</v>
+      </c>
+      <c r="AO26">
+        <v>1.22</v>
+      </c>
+      <c r="AP26">
+        <v>1.13</v>
+      </c>
+      <c r="AQ26">
+        <v>0</v>
+      </c>
+      <c r="AR26">
+        <v>3</v>
+      </c>
+      <c r="AS26">
+        <v>0</v>
+      </c>
+      <c r="AT26">
+        <v>2</v>
+      </c>
+      <c r="AU26">
+        <v>0</v>
+      </c>
+      <c r="AV26">
+        <v>0</v>
+      </c>
+      <c r="AW26">
+        <v>0</v>
+      </c>
+      <c r="AX26">
+        <v>4.04</v>
+      </c>
+      <c r="AY26">
+        <v>11</v>
+      </c>
+      <c r="AZ26">
+        <v>1.34</v>
+      </c>
+      <c r="BA26">
+        <v>1.15</v>
+      </c>
+      <c r="BB26">
+        <v>1.27</v>
+      </c>
+      <c r="BC26">
+        <v>1.5</v>
+      </c>
+      <c r="BD26">
+        <v>1.95</v>
+      </c>
+      <c r="BE26">
+        <v>2.34</v>
+      </c>
+      <c r="BF26">
+        <v>2</v>
+      </c>
+      <c r="BG26">
         <v>5</v>
       </c>
-      <c r="O26" t="s">
-        <v>129</v>
-      </c>
-      <c r="P26" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q26">
-        <v>1</v>
-      </c>
-      <c r="R26">
+      <c r="BH26">
+        <v>4</v>
+      </c>
+      <c r="BI26">
         <v>6</v>
       </c>
-      <c r="S26">
-        <v>7</v>
-      </c>
-      <c r="T26">
-        <v>2.1</v>
-      </c>
-      <c r="U26">
-        <v>2.16</v>
-      </c>
-      <c r="V26">
-        <v>6.5</v>
-      </c>
-      <c r="W26">
-        <v>1.44</v>
-      </c>
-      <c r="X26">
-        <v>2.68</v>
-      </c>
-      <c r="Y26">
-        <v>3.05</v>
-      </c>
-      <c r="Z26">
-        <v>1.35</v>
-      </c>
-      <c r="AA26">
-        <v>8.1</v>
-      </c>
-      <c r="AB26">
-        <v>1.06</v>
-      </c>
-      <c r="AC26">
-        <v>1.48</v>
-      </c>
-      <c r="AD26">
-        <v>3.85</v>
-      </c>
-      <c r="AE26">
-        <v>6.5</v>
-      </c>
-      <c r="AF26">
-        <v>1.03</v>
-      </c>
-      <c r="AG26">
-        <v>8</v>
-      </c>
-      <c r="AH26">
-        <v>1.34</v>
-      </c>
-      <c r="AI26">
-        <v>2.93</v>
-      </c>
-      <c r="AJ26">
-        <v>2.15</v>
-      </c>
-      <c r="AK26">
-        <v>1.65</v>
-      </c>
-      <c r="AL26">
-        <v>2.21</v>
-      </c>
-      <c r="AM26">
-        <v>1.62</v>
-      </c>
-      <c r="AN26">
-        <v>1.1</v>
-      </c>
-      <c r="AO26">
-        <v>1.24</v>
-      </c>
-      <c r="AP26">
-        <v>2.51</v>
-      </c>
-      <c r="AQ26">
-        <v>3</v>
-      </c>
-      <c r="AR26">
-        <v>0</v>
-      </c>
-      <c r="AS26">
-        <v>1</v>
-      </c>
-      <c r="AT26">
-        <v>1.5</v>
-      </c>
-      <c r="AU26">
-        <v>0</v>
-      </c>
-      <c r="AV26">
-        <v>0</v>
-      </c>
-      <c r="AW26">
-        <v>0</v>
-      </c>
-      <c r="AX26">
-        <v>1.59</v>
-      </c>
-      <c r="AY26">
-        <v>7.2</v>
-      </c>
-      <c r="AZ26">
-        <v>3.11</v>
-      </c>
-      <c r="BA26">
-        <v>1.3</v>
-      </c>
-      <c r="BB26">
-        <v>1.5</v>
-      </c>
-      <c r="BC26">
-        <v>1.9</v>
-      </c>
-      <c r="BD26">
-        <v>2.35</v>
-      </c>
-      <c r="BE26">
-        <v>3.15</v>
-      </c>
-      <c r="BF26">
-        <v>7</v>
-      </c>
-      <c r="BG26">
-        <v>7</v>
-      </c>
-      <c r="BH26">
-        <v>8</v>
-      </c>
-      <c r="BI26">
-        <v>7</v>
-      </c>
       <c r="BJ26">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="BK26">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:63">
@@ -5985,7 +6030,7 @@
         <v>90</v>
       </c>
       <c r="H27" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I27">
         <v>1</v>
@@ -6006,10 +6051,10 @@
         <v>3</v>
       </c>
       <c r="O27" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P27" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="Q27">
         <v>4</v>
@@ -6197,10 +6242,10 @@
         <v>3</v>
       </c>
       <c r="O28" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P28" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="Q28">
         <v>1</v>
@@ -6290,7 +6335,7 @@
         <v>0</v>
       </c>
       <c r="AT28">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AU28">
         <v>0</v>
@@ -6349,7 +6394,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>6527493</v>
+        <v>6527483</v>
       </c>
       <c r="C29" t="s">
         <v>63</v>
@@ -6367,109 +6412,109 @@
         <v>92</v>
       </c>
       <c r="H29" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N29">
         <v>3</v>
       </c>
       <c r="O29" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="P29" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="Q29">
+        <v>12</v>
+      </c>
+      <c r="R29">
+        <v>3</v>
+      </c>
+      <c r="S29">
+        <v>15</v>
+      </c>
+      <c r="T29">
+        <v>1.65</v>
+      </c>
+      <c r="U29">
+        <v>2.5</v>
+      </c>
+      <c r="V29">
+        <v>9.5</v>
+      </c>
+      <c r="W29">
+        <v>1.33</v>
+      </c>
+      <c r="X29">
+        <v>3.05</v>
+      </c>
+      <c r="Y29">
+        <v>2.55</v>
+      </c>
+      <c r="Z29">
+        <v>1.45</v>
+      </c>
+      <c r="AA29">
         <v>6</v>
       </c>
-      <c r="R29">
-        <v>5</v>
-      </c>
-      <c r="S29">
+      <c r="AB29">
+        <v>1.1</v>
+      </c>
+      <c r="AC29">
+        <v>1.2</v>
+      </c>
+      <c r="AD29">
+        <v>5.6</v>
+      </c>
+      <c r="AE29">
         <v>11</v>
       </c>
-      <c r="T29">
-        <v>3</v>
-      </c>
-      <c r="U29">
-        <v>2</v>
-      </c>
-      <c r="V29">
+      <c r="AF29">
+        <v>1.05</v>
+      </c>
+      <c r="AG29">
+        <v>9</v>
+      </c>
+      <c r="AH29">
+        <v>1.25</v>
+      </c>
+      <c r="AI29">
+        <v>3.75</v>
+      </c>
+      <c r="AJ29">
+        <v>1.68</v>
+      </c>
+      <c r="AK29">
+        <v>2.1</v>
+      </c>
+      <c r="AL29">
+        <v>2.55</v>
+      </c>
+      <c r="AM29">
+        <v>1.46</v>
+      </c>
+      <c r="AN29">
+        <v>1.04</v>
+      </c>
+      <c r="AO29">
+        <v>1.09</v>
+      </c>
+      <c r="AP29">
         <v>3.6</v>
-      </c>
-      <c r="W29">
-        <v>1.47</v>
-      </c>
-      <c r="X29">
-        <v>2.45</v>
-      </c>
-      <c r="Y29">
-        <v>3.25</v>
-      </c>
-      <c r="Z29">
-        <v>1.3</v>
-      </c>
-      <c r="AA29">
-        <v>9</v>
-      </c>
-      <c r="AB29">
-        <v>1.06</v>
-      </c>
-      <c r="AC29">
-        <v>2.4</v>
-      </c>
-      <c r="AD29">
-        <v>3.1</v>
-      </c>
-      <c r="AE29">
-        <v>3</v>
-      </c>
-      <c r="AF29">
-        <v>1.07</v>
-      </c>
-      <c r="AG29">
-        <v>7.5</v>
-      </c>
-      <c r="AH29">
-        <v>1.4</v>
-      </c>
-      <c r="AI29">
-        <v>2.85</v>
-      </c>
-      <c r="AJ29">
-        <v>2.3</v>
-      </c>
-      <c r="AK29">
-        <v>1.57</v>
-      </c>
-      <c r="AL29">
-        <v>1.95</v>
-      </c>
-      <c r="AM29">
-        <v>1.8</v>
-      </c>
-      <c r="AN29">
-        <v>1.3</v>
-      </c>
-      <c r="AO29">
-        <v>1.28</v>
-      </c>
-      <c r="AP29">
-        <v>1.57</v>
       </c>
       <c r="AQ29">
         <v>1</v>
@@ -6481,7 +6526,7 @@
         <v>0.5</v>
       </c>
       <c r="AT29">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AU29">
         <v>0</v>
@@ -6493,46 +6538,46 @@
         <v>0</v>
       </c>
       <c r="AX29">
-        <v>1.79</v>
+        <v>1.13</v>
       </c>
       <c r="AY29">
-        <v>7.7</v>
+        <v>16</v>
       </c>
       <c r="AZ29">
-        <v>2.51</v>
+        <v>7.2</v>
       </c>
       <c r="BA29">
-        <v>1.23</v>
+        <v>1.26</v>
       </c>
       <c r="BB29">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="BC29">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="BD29">
-        <v>2.35</v>
+        <v>2.5</v>
       </c>
       <c r="BE29">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="BF29">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="BG29">
         <v>8</v>
       </c>
       <c r="BH29">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BI29">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BJ29">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="BK29">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:63">
@@ -6540,7 +6585,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>6527483</v>
+        <v>6527486</v>
       </c>
       <c r="C30" t="s">
         <v>63</v>
@@ -6558,139 +6603,139 @@
         <v>93</v>
       </c>
       <c r="H30" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J30">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L30">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M30">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N30">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O30" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="P30" t="s">
-        <v>179</v>
+        <v>115</v>
       </c>
       <c r="Q30">
+        <v>11</v>
+      </c>
+      <c r="R30">
+        <v>1</v>
+      </c>
+      <c r="S30">
         <v>12</v>
       </c>
-      <c r="R30">
-        <v>3</v>
-      </c>
-      <c r="S30">
-        <v>15</v>
-      </c>
       <c r="T30">
-        <v>1.65</v>
+        <v>1.46</v>
       </c>
       <c r="U30">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="V30">
-        <v>9.5</v>
+        <v>10.5</v>
       </c>
       <c r="W30">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="X30">
-        <v>3.05</v>
+        <v>3.8</v>
       </c>
       <c r="Y30">
-        <v>2.55</v>
+        <v>2.1</v>
       </c>
       <c r="Z30">
-        <v>1.45</v>
+        <v>1.62</v>
       </c>
       <c r="AA30">
-        <v>6</v>
+        <v>4.75</v>
       </c>
       <c r="AB30">
-        <v>1.1</v>
+        <v>1.16</v>
       </c>
       <c r="AC30">
-        <v>1.2</v>
+        <v>1.11</v>
       </c>
       <c r="AD30">
-        <v>5.6</v>
+        <v>7.5</v>
       </c>
       <c r="AE30">
-        <v>11</v>
+        <v>15.5</v>
       </c>
       <c r="AF30">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="AG30">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AH30">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AI30">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="AJ30">
-        <v>1.68</v>
+        <v>1.44</v>
       </c>
       <c r="AK30">
-        <v>2.1</v>
+        <v>2.65</v>
       </c>
       <c r="AL30">
         <v>2.55</v>
       </c>
       <c r="AM30">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="AN30">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="AO30">
+        <v>1.06</v>
+      </c>
+      <c r="AP30">
+        <v>6</v>
+      </c>
+      <c r="AQ30">
+        <v>3</v>
+      </c>
+      <c r="AR30">
+        <v>0</v>
+      </c>
+      <c r="AS30">
+        <v>1.75</v>
+      </c>
+      <c r="AT30">
+        <v>0</v>
+      </c>
+      <c r="AU30">
+        <v>0</v>
+      </c>
+      <c r="AV30">
+        <v>0</v>
+      </c>
+      <c r="AW30">
+        <v>0</v>
+      </c>
+      <c r="AX30">
         <v>1.09</v>
       </c>
-      <c r="AP30">
-        <v>3.6</v>
-      </c>
-      <c r="AQ30">
-        <v>1</v>
-      </c>
-      <c r="AR30">
-        <v>1</v>
-      </c>
-      <c r="AS30">
-        <v>0.5</v>
-      </c>
-      <c r="AT30">
-        <v>1.8</v>
-      </c>
-      <c r="AU30">
-        <v>0</v>
-      </c>
-      <c r="AV30">
-        <v>0</v>
-      </c>
-      <c r="AW30">
-        <v>0</v>
-      </c>
-      <c r="AX30">
-        <v>1.13</v>
-      </c>
       <c r="AY30">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AZ30">
-        <v>7.2</v>
+        <v>9.9</v>
       </c>
       <c r="BA30">
         <v>1.26</v>
@@ -6699,7 +6744,7 @@
         <v>1.5</v>
       </c>
       <c r="BC30">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="BD30">
         <v>2.5</v>
@@ -6708,22 +6753,22 @@
         <v>3.5</v>
       </c>
       <c r="BF30">
+        <v>13</v>
+      </c>
+      <c r="BG30">
+        <v>0</v>
+      </c>
+      <c r="BH30">
+        <v>6</v>
+      </c>
+      <c r="BI30">
         <v>4</v>
       </c>
-      <c r="BG30">
-        <v>8</v>
-      </c>
-      <c r="BH30">
-        <v>14</v>
-      </c>
-      <c r="BI30">
-        <v>2</v>
-      </c>
       <c r="BJ30">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BK30">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:63">
@@ -6731,7 +6776,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>6527486</v>
+        <v>6527493</v>
       </c>
       <c r="C31" t="s">
         <v>63</v>
@@ -6749,172 +6794,172 @@
         <v>94</v>
       </c>
       <c r="H31" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="I31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J31">
         <v>0</v>
       </c>
       <c r="K31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L31">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N31">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O31" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="P31" t="s">
-        <v>114</v>
+        <v>187</v>
       </c>
       <c r="Q31">
+        <v>6</v>
+      </c>
+      <c r="R31">
+        <v>5</v>
+      </c>
+      <c r="S31">
         <v>11</v>
       </c>
-      <c r="R31">
-        <v>1</v>
-      </c>
-      <c r="S31">
+      <c r="T31">
+        <v>3</v>
+      </c>
+      <c r="U31">
+        <v>2</v>
+      </c>
+      <c r="V31">
+        <v>3.6</v>
+      </c>
+      <c r="W31">
+        <v>1.47</v>
+      </c>
+      <c r="X31">
+        <v>2.45</v>
+      </c>
+      <c r="Y31">
+        <v>3.25</v>
+      </c>
+      <c r="Z31">
+        <v>1.3</v>
+      </c>
+      <c r="AA31">
+        <v>9</v>
+      </c>
+      <c r="AB31">
+        <v>1.06</v>
+      </c>
+      <c r="AC31">
+        <v>2.4</v>
+      </c>
+      <c r="AD31">
+        <v>3.1</v>
+      </c>
+      <c r="AE31">
+        <v>3</v>
+      </c>
+      <c r="AF31">
+        <v>1.07</v>
+      </c>
+      <c r="AG31">
+        <v>7.5</v>
+      </c>
+      <c r="AH31">
+        <v>1.4</v>
+      </c>
+      <c r="AI31">
+        <v>2.85</v>
+      </c>
+      <c r="AJ31">
+        <v>2.3</v>
+      </c>
+      <c r="AK31">
+        <v>1.57</v>
+      </c>
+      <c r="AL31">
+        <v>1.95</v>
+      </c>
+      <c r="AM31">
+        <v>1.8</v>
+      </c>
+      <c r="AN31">
+        <v>1.3</v>
+      </c>
+      <c r="AO31">
+        <v>1.28</v>
+      </c>
+      <c r="AP31">
+        <v>1.57</v>
+      </c>
+      <c r="AQ31">
+        <v>1</v>
+      </c>
+      <c r="AR31">
+        <v>1</v>
+      </c>
+      <c r="AS31">
+        <v>0.5</v>
+      </c>
+      <c r="AT31">
+        <v>1</v>
+      </c>
+      <c r="AU31">
+        <v>0</v>
+      </c>
+      <c r="AV31">
+        <v>0</v>
+      </c>
+      <c r="AW31">
+        <v>0</v>
+      </c>
+      <c r="AX31">
+        <v>1.79</v>
+      </c>
+      <c r="AY31">
+        <v>7.7</v>
+      </c>
+      <c r="AZ31">
+        <v>2.51</v>
+      </c>
+      <c r="BA31">
+        <v>1.23</v>
+      </c>
+      <c r="BB31">
+        <v>1.44</v>
+      </c>
+      <c r="BC31">
+        <v>1.95</v>
+      </c>
+      <c r="BD31">
+        <v>2.35</v>
+      </c>
+      <c r="BE31">
+        <v>3.25</v>
+      </c>
+      <c r="BF31">
+        <v>9</v>
+      </c>
+      <c r="BG31">
+        <v>8</v>
+      </c>
+      <c r="BH31">
         <v>12</v>
       </c>
-      <c r="T31">
-        <v>1.46</v>
-      </c>
-      <c r="U31">
-        <v>3</v>
-      </c>
-      <c r="V31">
-        <v>10.5</v>
-      </c>
-      <c r="W31">
-        <v>1.23</v>
-      </c>
-      <c r="X31">
-        <v>3.8</v>
-      </c>
-      <c r="Y31">
-        <v>2.1</v>
-      </c>
-      <c r="Z31">
-        <v>1.62</v>
-      </c>
-      <c r="AA31">
-        <v>4.75</v>
-      </c>
-      <c r="AB31">
-        <v>1.16</v>
-      </c>
-      <c r="AC31">
-        <v>1.11</v>
-      </c>
-      <c r="AD31">
-        <v>7.5</v>
-      </c>
-      <c r="AE31">
-        <v>15.5</v>
-      </c>
-      <c r="AF31">
-        <v>1.02</v>
-      </c>
-      <c r="AG31">
+      <c r="BI31">
+        <v>5</v>
+      </c>
+      <c r="BJ31">
+        <v>21</v>
+      </c>
+      <c r="BK31">
         <v>13</v>
-      </c>
-      <c r="AH31">
-        <v>1.15</v>
-      </c>
-      <c r="AI31">
-        <v>4.75</v>
-      </c>
-      <c r="AJ31">
-        <v>1.44</v>
-      </c>
-      <c r="AK31">
-        <v>2.65</v>
-      </c>
-      <c r="AL31">
-        <v>2.55</v>
-      </c>
-      <c r="AM31">
-        <v>1.44</v>
-      </c>
-      <c r="AN31">
-        <v>1.02</v>
-      </c>
-      <c r="AO31">
-        <v>1.06</v>
-      </c>
-      <c r="AP31">
-        <v>6</v>
-      </c>
-      <c r="AQ31">
-        <v>3</v>
-      </c>
-      <c r="AR31">
-        <v>0</v>
-      </c>
-      <c r="AS31">
-        <v>1.75</v>
-      </c>
-      <c r="AT31">
-        <v>0</v>
-      </c>
-      <c r="AU31">
-        <v>0</v>
-      </c>
-      <c r="AV31">
-        <v>0</v>
-      </c>
-      <c r="AW31">
-        <v>0</v>
-      </c>
-      <c r="AX31">
-        <v>1.09</v>
-      </c>
-      <c r="AY31">
-        <v>15</v>
-      </c>
-      <c r="AZ31">
-        <v>9.9</v>
-      </c>
-      <c r="BA31">
-        <v>1.26</v>
-      </c>
-      <c r="BB31">
-        <v>1.5</v>
-      </c>
-      <c r="BC31">
-        <v>2</v>
-      </c>
-      <c r="BD31">
-        <v>2.5</v>
-      </c>
-      <c r="BE31">
-        <v>3.5</v>
-      </c>
-      <c r="BF31">
-        <v>13</v>
-      </c>
-      <c r="BG31">
-        <v>0</v>
-      </c>
-      <c r="BH31">
-        <v>6</v>
-      </c>
-      <c r="BI31">
-        <v>4</v>
-      </c>
-      <c r="BJ31">
-        <v>19</v>
-      </c>
-      <c r="BK31">
-        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:63">
@@ -6922,7 +6967,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>6527481</v>
+        <v>6527488</v>
       </c>
       <c r="C32" t="s">
         <v>63</v>
@@ -6940,31 +6985,31 @@
         <v>95</v>
       </c>
       <c r="H32" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="I32">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J32">
         <v>0</v>
       </c>
       <c r="K32">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L32">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N32">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O32" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="P32" t="s">
-        <v>114</v>
+        <v>188</v>
       </c>
       <c r="Q32">
         <v>8</v>
@@ -6976,136 +7021,136 @@
         <v>8</v>
       </c>
       <c r="T32">
-        <v>1.66</v>
+        <v>4.64</v>
       </c>
       <c r="U32">
-        <v>2.5</v>
+        <v>2.24</v>
       </c>
       <c r="V32">
-        <v>8.5</v>
+        <v>2.37</v>
       </c>
       <c r="W32">
-        <v>1.31</v>
+        <v>1.35</v>
       </c>
       <c r="X32">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="Y32">
-        <v>2.45</v>
+        <v>2.64</v>
       </c>
       <c r="Z32">
-        <v>1.49</v>
+        <v>1.45</v>
       </c>
       <c r="AA32">
-        <v>5.75</v>
+        <v>6.4</v>
       </c>
       <c r="AB32">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AC32">
-        <v>1.28</v>
+        <v>4.25</v>
       </c>
       <c r="AD32">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="AE32">
-        <v>9</v>
+        <v>1.75</v>
       </c>
       <c r="AF32">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="AG32">
         <v>10</v>
       </c>
       <c r="AH32">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="AI32">
-        <v>4</v>
+        <v>3.64</v>
       </c>
       <c r="AJ32">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="AK32">
         <v>2.04</v>
       </c>
       <c r="AL32">
+        <v>1.72</v>
+      </c>
+      <c r="AM32">
+        <v>2.07</v>
+      </c>
+      <c r="AN32">
+        <v>1.98</v>
+      </c>
+      <c r="AO32">
+        <v>1.27</v>
+      </c>
+      <c r="AP32">
+        <v>1.23</v>
+      </c>
+      <c r="AQ32">
+        <v>1</v>
+      </c>
+      <c r="AR32">
+        <v>1</v>
+      </c>
+      <c r="AS32">
+        <v>0.5</v>
+      </c>
+      <c r="AT32">
+        <v>1.33</v>
+      </c>
+      <c r="AU32">
+        <v>0</v>
+      </c>
+      <c r="AV32">
+        <v>0</v>
+      </c>
+      <c r="AW32">
+        <v>0</v>
+      </c>
+      <c r="AX32">
+        <v>2.79</v>
+      </c>
+      <c r="AY32">
+        <v>9.4</v>
+      </c>
+      <c r="AZ32">
+        <v>1.59</v>
+      </c>
+      <c r="BA32">
+        <v>1.23</v>
+      </c>
+      <c r="BB32">
+        <v>1.44</v>
+      </c>
+      <c r="BC32">
+        <v>1.83</v>
+      </c>
+      <c r="BD32">
         <v>2.35</v>
       </c>
-      <c r="AM32">
-        <v>1.52</v>
-      </c>
-      <c r="AN32">
-        <v>1.05</v>
-      </c>
-      <c r="AO32">
-        <v>1.13</v>
-      </c>
-      <c r="AP32">
-        <v>3.8</v>
-      </c>
-      <c r="AQ32">
-        <v>0</v>
-      </c>
-      <c r="AR32">
-        <v>3</v>
-      </c>
-      <c r="AS32">
-        <v>1</v>
-      </c>
-      <c r="AT32">
-        <v>1.5</v>
-      </c>
-      <c r="AU32">
-        <v>0</v>
-      </c>
-      <c r="AV32">
-        <v>0</v>
-      </c>
-      <c r="AW32">
-        <v>0</v>
-      </c>
-      <c r="AX32">
-        <v>1.17</v>
-      </c>
-      <c r="AY32">
-        <v>13.25</v>
-      </c>
-      <c r="AZ32">
-        <v>6.25</v>
-      </c>
-      <c r="BA32">
-        <v>1.21</v>
-      </c>
-      <c r="BB32">
-        <v>1.4</v>
-      </c>
-      <c r="BC32">
-        <v>1.75</v>
-      </c>
-      <c r="BD32">
-        <v>2.2</v>
-      </c>
       <c r="BE32">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="BF32">
         <v>9</v>
       </c>
       <c r="BG32">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BH32">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="BI32">
+        <v>1</v>
+      </c>
+      <c r="BJ32">
+        <v>12</v>
+      </c>
+      <c r="BK32">
         <v>4</v>
-      </c>
-      <c r="BJ32">
-        <v>18</v>
-      </c>
-      <c r="BK32">
-        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:63">
@@ -7113,7 +7158,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>6527488</v>
+        <v>6527481</v>
       </c>
       <c r="C33" t="s">
         <v>63</v>
@@ -7131,31 +7176,31 @@
         <v>96</v>
       </c>
       <c r="H33" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J33">
         <v>0</v>
       </c>
       <c r="K33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L33">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N33">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O33" t="s">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="P33" t="s">
-        <v>180</v>
+        <v>115</v>
       </c>
       <c r="Q33">
         <v>8</v>
@@ -7167,85 +7212,85 @@
         <v>8</v>
       </c>
       <c r="T33">
-        <v>4.64</v>
+        <v>1.66</v>
       </c>
       <c r="U33">
-        <v>2.24</v>
+        <v>2.5</v>
       </c>
       <c r="V33">
-        <v>2.37</v>
+        <v>8.5</v>
       </c>
       <c r="W33">
-        <v>1.35</v>
+        <v>1.31</v>
       </c>
       <c r="X33">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="Y33">
-        <v>2.64</v>
+        <v>2.45</v>
       </c>
       <c r="Z33">
-        <v>1.45</v>
+        <v>1.49</v>
       </c>
       <c r="AA33">
-        <v>6.4</v>
+        <v>5.75</v>
       </c>
       <c r="AB33">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="AC33">
-        <v>4.25</v>
+        <v>1.28</v>
       </c>
       <c r="AD33">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="AE33">
-        <v>1.75</v>
+        <v>9</v>
       </c>
       <c r="AF33">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="AG33">
         <v>10</v>
       </c>
       <c r="AH33">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="AI33">
-        <v>3.64</v>
+        <v>4</v>
       </c>
       <c r="AJ33">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="AK33">
         <v>2.04</v>
       </c>
       <c r="AL33">
-        <v>1.72</v>
+        <v>2.35</v>
       </c>
       <c r="AM33">
-        <v>2.07</v>
+        <v>1.52</v>
       </c>
       <c r="AN33">
-        <v>1.98</v>
+        <v>1.05</v>
       </c>
       <c r="AO33">
-        <v>1.27</v>
+        <v>1.13</v>
       </c>
       <c r="AP33">
-        <v>1.23</v>
+        <v>3.8</v>
       </c>
       <c r="AQ33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AS33">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AT33">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AU33">
         <v>0</v>
@@ -7257,46 +7302,46 @@
         <v>0</v>
       </c>
       <c r="AX33">
-        <v>2.79</v>
+        <v>1.17</v>
       </c>
       <c r="AY33">
-        <v>9.4</v>
+        <v>13.25</v>
       </c>
       <c r="AZ33">
-        <v>1.59</v>
+        <v>6.25</v>
       </c>
       <c r="BA33">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="BB33">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="BC33">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="BD33">
-        <v>2.35</v>
+        <v>2.2</v>
       </c>
       <c r="BE33">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="BF33">
         <v>9</v>
       </c>
       <c r="BG33">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BH33">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="BI33">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BJ33">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="BK33">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:63">
@@ -7343,10 +7388,10 @@
         <v>4</v>
       </c>
       <c r="O34" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="P34" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="Q34">
         <v>8</v>
@@ -7534,10 +7579,10 @@
         <v>4</v>
       </c>
       <c r="O35" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="P35" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -7627,7 +7672,7 @@
         <v>1.25</v>
       </c>
       <c r="AT35">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AU35">
         <v>1.51</v>
@@ -7725,10 +7770,10 @@
         <v>1</v>
       </c>
       <c r="O36" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="P36" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q36">
         <v>2</v>
@@ -7818,7 +7863,7 @@
         <v>1.75</v>
       </c>
       <c r="AT36">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AU36">
         <v>1.26</v>
@@ -7916,10 +7961,10 @@
         <v>4</v>
       </c>
       <c r="O37" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="P37" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8009,7 +8054,7 @@
         <v>0.5</v>
       </c>
       <c r="AT37">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AU37">
         <v>0</v>
@@ -8107,10 +8152,10 @@
         <v>4</v>
       </c>
       <c r="O38" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P38" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q38">
         <v>15</v>
@@ -8197,7 +8242,7 @@
         <v>2</v>
       </c>
       <c r="AS38">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT38">
         <v>1</v>
@@ -8298,10 +8343,10 @@
         <v>2</v>
       </c>
       <c r="O39" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P39" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="Q39">
         <v>5</v>
@@ -8388,7 +8433,7 @@
         <v>0</v>
       </c>
       <c r="AS39">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="AT39">
         <v>1</v>
@@ -8465,7 +8510,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H40" t="s">
         <v>82</v>
@@ -8489,10 +8534,10 @@
         <v>1</v>
       </c>
       <c r="O40" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="Q40">
         <v>6</v>
@@ -8582,7 +8627,7 @@
         <v>1</v>
       </c>
       <c r="AT40">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AU40">
         <v>2.03</v>
@@ -8680,10 +8725,10 @@
         <v>2</v>
       </c>
       <c r="O41" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="P41" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="Q41">
         <v>7</v>
@@ -8773,7 +8818,7 @@
         <v>2</v>
       </c>
       <c r="AT41">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AU41">
         <v>1.42</v>
@@ -8871,10 +8916,10 @@
         <v>1</v>
       </c>
       <c r="O42" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="P42" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -8964,7 +9009,7 @@
         <v>1.5</v>
       </c>
       <c r="AT42">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AU42">
         <v>1.39</v>
@@ -9062,10 +9107,10 @@
         <v>8</v>
       </c>
       <c r="O43" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P43" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="Q43">
         <v>7</v>
@@ -9152,7 +9197,7 @@
         <v>2</v>
       </c>
       <c r="AS43">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AT43">
         <v>1</v>
@@ -9232,7 +9277,7 @@
         <v>72</v>
       </c>
       <c r="H44" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I44">
         <v>0</v>
@@ -9253,10 +9298,10 @@
         <v>5</v>
       </c>
       <c r="O44" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="P44" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="Q44">
         <v>3</v>
@@ -9343,7 +9388,7 @@
         <v>3</v>
       </c>
       <c r="AS44">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AT44">
         <v>1.75</v>
@@ -9420,7 +9465,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H45" t="s">
         <v>71</v>
@@ -9444,10 +9489,10 @@
         <v>2</v>
       </c>
       <c r="O45" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="P45" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="Q45">
         <v>3</v>
@@ -9537,7 +9582,7 @@
         <v>1</v>
       </c>
       <c r="AT45">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AU45">
         <v>2.27</v>
@@ -9611,7 +9656,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H46" t="s">
         <v>80</v>
@@ -9635,10 +9680,10 @@
         <v>0</v>
       </c>
       <c r="O46" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="P46" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q46">
         <v>5</v>
@@ -9725,7 +9770,7 @@
         <v>3</v>
       </c>
       <c r="AS46">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AT46">
         <v>2</v>
@@ -9826,10 +9871,10 @@
         <v>4</v>
       </c>
       <c r="O47" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="P47" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="Q47">
         <v>6</v>
@@ -9916,7 +9961,7 @@
         <v>0</v>
       </c>
       <c r="AS47">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AT47">
         <v>0.5</v>
@@ -9978,7 +10023,7 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>6960592</v>
+        <v>6960593</v>
       </c>
       <c r="C48" t="s">
         <v>63</v>
@@ -9993,163 +10038,163 @@
         <v>0</v>
       </c>
       <c r="G48" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="H48" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="I48">
         <v>1</v>
       </c>
       <c r="J48">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K48">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L48">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M48">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N48">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="O48" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="P48" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="Q48">
+        <v>7</v>
+      </c>
+      <c r="R48">
+        <v>4</v>
+      </c>
+      <c r="S48">
         <v>11</v>
       </c>
-      <c r="R48">
-        <v>7</v>
-      </c>
-      <c r="S48">
-        <v>18</v>
-      </c>
       <c r="T48">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="U48">
         <v>2.1</v>
       </c>
       <c r="V48">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="W48">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="X48">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="Y48">
-        <v>2.95</v>
+        <v>2.75</v>
       </c>
       <c r="Z48">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
       <c r="AA48">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="AB48">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="AC48">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="AD48">
-        <v>3.25</v>
+        <v>3.45</v>
       </c>
       <c r="AE48">
-        <v>2.25</v>
+        <v>1.93</v>
       </c>
       <c r="AF48">
-        <v>1.03</v>
+        <v>0</v>
       </c>
       <c r="AG48">
-        <v>8.300000000000001</v>
+        <v>0</v>
       </c>
       <c r="AH48">
-        <v>1.32</v>
+        <v>0</v>
       </c>
       <c r="AI48">
-        <v>3.04</v>
+        <v>0</v>
       </c>
       <c r="AJ48">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AK48">
-        <v>1.7</v>
+        <v>1.79</v>
       </c>
       <c r="AL48">
         <v>1.83</v>
       </c>
       <c r="AM48">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="AN48">
-        <v>1.63</v>
+        <v>0</v>
       </c>
       <c r="AO48">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="AP48">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="AQ48">
-        <v>2.33</v>
+        <v>1.33</v>
       </c>
       <c r="AR48">
-        <v>1.33</v>
+        <v>3</v>
       </c>
       <c r="AS48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AT48">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AU48">
-        <v>2.56</v>
+        <v>0.65</v>
       </c>
       <c r="AV48">
-        <v>1.79</v>
+        <v>0</v>
       </c>
       <c r="AW48">
-        <v>4.35</v>
+        <v>0.65</v>
       </c>
       <c r="AX48">
-        <v>1.95</v>
+        <v>0</v>
       </c>
       <c r="AY48">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AZ48">
-        <v>2.05</v>
+        <v>0</v>
       </c>
       <c r="BA48">
-        <v>1.38</v>
+        <v>0</v>
       </c>
       <c r="BB48">
-        <v>1.65</v>
+        <v>0</v>
       </c>
       <c r="BC48">
-        <v>2.05</v>
+        <v>0</v>
       </c>
       <c r="BD48">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="BE48">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="BF48">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="BG48">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="BH48">
         <v>4</v>
@@ -10158,10 +10203,10 @@
         <v>4</v>
       </c>
       <c r="BJ48">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="BK48">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="49" spans="1:63">
@@ -10169,7 +10214,7 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>6960593</v>
+        <v>6960592</v>
       </c>
       <c r="C49" t="s">
         <v>63</v>
@@ -10184,163 +10229,163 @@
         <v>0</v>
       </c>
       <c r="G49" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="H49" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="I49">
         <v>1</v>
       </c>
       <c r="J49">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K49">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L49">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M49">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N49">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="O49" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="P49" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="Q49">
+        <v>11</v>
+      </c>
+      <c r="R49">
         <v>7</v>
       </c>
-      <c r="R49">
-        <v>4</v>
-      </c>
       <c r="S49">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="T49">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="U49">
         <v>2.1</v>
       </c>
       <c r="V49">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="W49">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="X49">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="Y49">
-        <v>2.75</v>
+        <v>2.95</v>
       </c>
       <c r="Z49">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="AA49">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="AB49">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="AC49">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="AD49">
-        <v>3.45</v>
+        <v>3.25</v>
       </c>
       <c r="AE49">
-        <v>1.93</v>
+        <v>2.25</v>
       </c>
       <c r="AF49">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AG49">
-        <v>0</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AH49">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="AI49">
-        <v>0</v>
+        <v>3.04</v>
       </c>
       <c r="AJ49">
-        <v>1.94</v>
+        <v>2.06</v>
       </c>
       <c r="AK49">
-        <v>1.79</v>
+        <v>1.7</v>
       </c>
       <c r="AL49">
         <v>1.83</v>
       </c>
       <c r="AM49">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="AN49">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="AO49">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AP49">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AQ49">
+        <v>2.33</v>
+      </c>
+      <c r="AR49">
         <v>1.33</v>
       </c>
-      <c r="AR49">
-        <v>3</v>
-      </c>
       <c r="AS49">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AT49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AU49">
-        <v>0.65</v>
+        <v>2.56</v>
       </c>
       <c r="AV49">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="AW49">
-        <v>0.65</v>
+        <v>4.35</v>
       </c>
       <c r="AX49">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AY49">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AZ49">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="BA49">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="BB49">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="BC49">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="BD49">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="BE49">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="BF49">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BG49">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="BH49">
         <v>4</v>
@@ -10349,10 +10394,10 @@
         <v>4</v>
       </c>
       <c r="BJ49">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BK49">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50" spans="1:63">
@@ -10378,7 +10423,7 @@
         <v>82</v>
       </c>
       <c r="H50" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I50">
         <v>1</v>
@@ -10399,10 +10444,10 @@
         <v>4</v>
       </c>
       <c r="O50" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P50" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="Q50">
         <v>7</v>
@@ -10489,7 +10534,7 @@
         <v>1</v>
       </c>
       <c r="AS50">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AT50">
         <v>1</v>
@@ -10590,10 +10635,10 @@
         <v>2</v>
       </c>
       <c r="O51" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="P51" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="Q51">
         <v>8</v>
@@ -10683,7 +10728,7 @@
         <v>1</v>
       </c>
       <c r="AT51">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU51">
         <v>2.25</v>
@@ -10757,7 +10802,7 @@
         <v>0</v>
       </c>
       <c r="G52" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H52" t="s">
         <v>72</v>
@@ -10781,10 +10826,10 @@
         <v>2</v>
       </c>
       <c r="O52" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P52" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="Q52">
         <v>6</v>
@@ -10874,7 +10919,7 @@
         <v>1.75</v>
       </c>
       <c r="AT52">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AU52">
         <v>2.81</v>
@@ -10933,7 +10978,7 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>6960597</v>
+        <v>6948870</v>
       </c>
       <c r="C53" t="s">
         <v>63</v>
@@ -10948,175 +10993,175 @@
         <v>0</v>
       </c>
       <c r="G53" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="H53" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="I53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K53">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L53">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N53">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O53" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="P53" t="s">
-        <v>114</v>
+        <v>204</v>
       </c>
       <c r="Q53">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="R53">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="S53">
+        <v>20</v>
+      </c>
+      <c r="T53">
+        <v>1.95</v>
+      </c>
+      <c r="U53">
+        <v>2.2</v>
+      </c>
+      <c r="V53">
+        <v>6.5</v>
+      </c>
+      <c r="W53">
+        <v>1.4</v>
+      </c>
+      <c r="X53">
+        <v>2.75</v>
+      </c>
+      <c r="Y53">
+        <v>2.87</v>
+      </c>
+      <c r="Z53">
+        <v>1.36</v>
+      </c>
+      <c r="AA53">
+        <v>7.5</v>
+      </c>
+      <c r="AB53">
+        <v>1.07</v>
+      </c>
+      <c r="AC53">
+        <v>1.6</v>
+      </c>
+      <c r="AD53">
+        <v>3.86</v>
+      </c>
+      <c r="AE53">
+        <v>5.87</v>
+      </c>
+      <c r="AF53">
+        <v>1.02</v>
+      </c>
+      <c r="AG53">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AH53">
+        <v>1.3</v>
+      </c>
+      <c r="AI53">
+        <v>3.14</v>
+      </c>
+      <c r="AJ53">
+        <v>1.87</v>
+      </c>
+      <c r="AK53">
+        <v>1.83</v>
+      </c>
+      <c r="AL53">
+        <v>2.25</v>
+      </c>
+      <c r="AM53">
+        <v>1.55</v>
+      </c>
+      <c r="AN53">
+        <v>1.09</v>
+      </c>
+      <c r="AO53">
+        <v>1.2</v>
+      </c>
+      <c r="AP53">
+        <v>2.75</v>
+      </c>
+      <c r="AQ53">
+        <v>2</v>
+      </c>
+      <c r="AR53">
+        <v>2</v>
+      </c>
+      <c r="AS53">
+        <v>2.5</v>
+      </c>
+      <c r="AT53">
+        <v>1.5</v>
+      </c>
+      <c r="AU53">
+        <v>2.04</v>
+      </c>
+      <c r="AV53">
+        <v>1.68</v>
+      </c>
+      <c r="AW53">
+        <v>3.72</v>
+      </c>
+      <c r="AX53">
+        <v>1.24</v>
+      </c>
+      <c r="AY53">
+        <v>9.5</v>
+      </c>
+      <c r="AZ53">
+        <v>5.74</v>
+      </c>
+      <c r="BA53">
+        <v>1.28</v>
+      </c>
+      <c r="BB53">
+        <v>1.5</v>
+      </c>
+      <c r="BC53">
+        <v>1.83</v>
+      </c>
+      <c r="BD53">
+        <v>2.35</v>
+      </c>
+      <c r="BE53">
+        <v>3.1</v>
+      </c>
+      <c r="BF53">
         <v>11</v>
       </c>
-      <c r="T53">
-        <v>1.67</v>
-      </c>
-      <c r="U53">
-        <v>2.5</v>
-      </c>
-      <c r="V53">
-        <v>10</v>
-      </c>
-      <c r="W53">
-        <v>1.3</v>
-      </c>
-      <c r="X53">
-        <v>3.2</v>
-      </c>
-      <c r="Y53">
-        <v>2.45</v>
-      </c>
-      <c r="Z53">
-        <v>1.5</v>
-      </c>
-      <c r="AA53">
+      <c r="BG53">
         <v>6</v>
       </c>
-      <c r="AB53">
-        <v>1.12</v>
-      </c>
-      <c r="AC53">
-        <v>1.48</v>
-      </c>
-      <c r="AD53">
-        <v>4.4</v>
-      </c>
-      <c r="AE53">
-        <v>6.58</v>
-      </c>
-      <c r="AF53">
-        <v>1.03</v>
-      </c>
-      <c r="AG53">
-        <v>16.25</v>
-      </c>
-      <c r="AH53">
-        <v>1.23</v>
-      </c>
-      <c r="AI53">
-        <v>4.25</v>
-      </c>
-      <c r="AJ53">
-        <v>1.67</v>
-      </c>
-      <c r="AK53">
-        <v>2.1</v>
-      </c>
-      <c r="AL53">
-        <v>2.38</v>
-      </c>
-      <c r="AM53">
-        <v>1.53</v>
-      </c>
-      <c r="AN53">
-        <v>1.06</v>
-      </c>
-      <c r="AO53">
-        <v>1.13</v>
-      </c>
-      <c r="AP53">
-        <v>3.9</v>
-      </c>
-      <c r="AQ53">
-        <v>0</v>
-      </c>
-      <c r="AR53">
-        <v>2.33</v>
-      </c>
-      <c r="AS53">
-        <v>1</v>
-      </c>
-      <c r="AT53">
-        <v>1.75</v>
-      </c>
-      <c r="AU53">
-        <v>0</v>
-      </c>
-      <c r="AV53">
-        <v>1.42</v>
-      </c>
-      <c r="AW53">
-        <v>1.42</v>
-      </c>
-      <c r="AX53">
-        <v>1.15</v>
-      </c>
-      <c r="AY53">
-        <v>23</v>
-      </c>
-      <c r="AZ53">
-        <v>6.4</v>
-      </c>
-      <c r="BA53">
-        <v>1.23</v>
-      </c>
-      <c r="BB53">
-        <v>1.36</v>
-      </c>
-      <c r="BC53">
-        <v>1.62</v>
-      </c>
-      <c r="BD53">
-        <v>2</v>
-      </c>
-      <c r="BE53">
-        <v>2.55</v>
-      </c>
-      <c r="BF53">
-        <v>4</v>
-      </c>
-      <c r="BG53">
-        <v>2</v>
-      </c>
       <c r="BH53">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BI53">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="BJ53">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="BK53">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="54" spans="1:63">
@@ -11124,7 +11169,7 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>6960598</v>
+        <v>6960597</v>
       </c>
       <c r="C54" t="s">
         <v>63</v>
@@ -11139,175 +11184,175 @@
         <v>0</v>
       </c>
       <c r="G54" t="s">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="H54" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="I54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K54">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L54">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M54">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N54">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O54" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P54" t="s">
-        <v>196</v>
+        <v>115</v>
       </c>
       <c r="Q54">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="R54">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="S54">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="T54">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="U54">
         <v>2.5</v>
       </c>
       <c r="V54">
-        <v>6.5</v>
+        <v>10</v>
       </c>
       <c r="W54">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="X54">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="Y54">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="Z54">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AA54">
-        <v>5.25</v>
+        <v>6</v>
       </c>
       <c r="AB54">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AC54">
-        <v>1.33</v>
+        <v>1.48</v>
       </c>
       <c r="AD54">
-        <v>5.3</v>
+        <v>4.4</v>
       </c>
       <c r="AE54">
-        <v>8.800000000000001</v>
+        <v>6.58</v>
       </c>
       <c r="AF54">
         <v>1.03</v>
       </c>
       <c r="AG54">
-        <v>14</v>
+        <v>16.25</v>
       </c>
       <c r="AH54">
-        <v>1.19</v>
+        <v>1.23</v>
       </c>
       <c r="AI54">
-        <v>4.33</v>
+        <v>4.25</v>
       </c>
       <c r="AJ54">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AK54">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="AL54">
-        <v>1.95</v>
+        <v>2.38</v>
       </c>
       <c r="AM54">
+        <v>1.53</v>
+      </c>
+      <c r="AN54">
+        <v>1.06</v>
+      </c>
+      <c r="AO54">
+        <v>1.13</v>
+      </c>
+      <c r="AP54">
+        <v>3.9</v>
+      </c>
+      <c r="AQ54">
+        <v>0</v>
+      </c>
+      <c r="AR54">
+        <v>2.33</v>
+      </c>
+      <c r="AS54">
+        <v>1.5</v>
+      </c>
+      <c r="AT54">
         <v>1.75</v>
       </c>
-      <c r="AN54">
-        <v>1.08</v>
-      </c>
-      <c r="AO54">
-        <v>1.15</v>
-      </c>
-      <c r="AP54">
-        <v>3.2</v>
-      </c>
-      <c r="AQ54">
-        <v>2.33</v>
-      </c>
-      <c r="AR54">
-        <v>1.67</v>
-      </c>
-      <c r="AS54">
-        <v>2</v>
-      </c>
-      <c r="AT54">
-        <v>1.8</v>
-      </c>
       <c r="AU54">
-        <v>2.9</v>
+        <v>0</v>
       </c>
       <c r="AV54">
         <v>1.42</v>
       </c>
       <c r="AW54">
-        <v>4.32</v>
+        <v>1.42</v>
       </c>
       <c r="AX54">
-        <v>1.29</v>
+        <v>1.15</v>
       </c>
       <c r="AY54">
-        <v>13.5</v>
+        <v>23</v>
       </c>
       <c r="AZ54">
-        <v>4.49</v>
+        <v>6.4</v>
       </c>
       <c r="BA54">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="BB54">
-        <v>1.47</v>
+        <v>1.36</v>
       </c>
       <c r="BC54">
-        <v>1.8</v>
+        <v>1.62</v>
       </c>
       <c r="BD54">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="BE54">
-        <v>3</v>
+        <v>2.55</v>
       </c>
       <c r="BF54">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="BG54">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="BH54">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BI54">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="BJ54">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="BK54">
-        <v>25</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:63">
@@ -11315,7 +11360,7 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>6534693</v>
+        <v>6960598</v>
       </c>
       <c r="C55" t="s">
         <v>63</v>
@@ -11330,10 +11375,10 @@
         <v>0</v>
       </c>
       <c r="G55" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="H55" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="I55">
         <v>1</v>
@@ -11345,160 +11390,160 @@
         <v>2</v>
       </c>
       <c r="L55">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M55">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N55">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O55" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="P55" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="Q55">
+        <v>8</v>
+      </c>
+      <c r="R55">
+        <v>6</v>
+      </c>
+      <c r="S55">
+        <v>14</v>
+      </c>
+      <c r="T55">
+        <v>1.75</v>
+      </c>
+      <c r="U55">
+        <v>2.5</v>
+      </c>
+      <c r="V55">
+        <v>6.5</v>
+      </c>
+      <c r="W55">
+        <v>1.28</v>
+      </c>
+      <c r="X55">
+        <v>3.3</v>
+      </c>
+      <c r="Y55">
+        <v>2.3</v>
+      </c>
+      <c r="Z55">
+        <v>1.53</v>
+      </c>
+      <c r="AA55">
+        <v>5.25</v>
+      </c>
+      <c r="AB55">
+        <v>1.13</v>
+      </c>
+      <c r="AC55">
+        <v>1.33</v>
+      </c>
+      <c r="AD55">
+        <v>5.3</v>
+      </c>
+      <c r="AE55">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AF55">
+        <v>1.03</v>
+      </c>
+      <c r="AG55">
+        <v>14</v>
+      </c>
+      <c r="AH55">
+        <v>1.19</v>
+      </c>
+      <c r="AI55">
+        <v>4.33</v>
+      </c>
+      <c r="AJ55">
+        <v>1.59</v>
+      </c>
+      <c r="AK55">
+        <v>2.2</v>
+      </c>
+      <c r="AL55">
+        <v>1.95</v>
+      </c>
+      <c r="AM55">
+        <v>1.75</v>
+      </c>
+      <c r="AN55">
+        <v>1.08</v>
+      </c>
+      <c r="AO55">
+        <v>1.15</v>
+      </c>
+      <c r="AP55">
+        <v>3.2</v>
+      </c>
+      <c r="AQ55">
+        <v>2.33</v>
+      </c>
+      <c r="AR55">
+        <v>1.67</v>
+      </c>
+      <c r="AS55">
+        <v>2</v>
+      </c>
+      <c r="AT55">
+        <v>1.5</v>
+      </c>
+      <c r="AU55">
+        <v>2.9</v>
+      </c>
+      <c r="AV55">
+        <v>1.42</v>
+      </c>
+      <c r="AW55">
+        <v>4.32</v>
+      </c>
+      <c r="AX55">
+        <v>1.29</v>
+      </c>
+      <c r="AY55">
+        <v>13.5</v>
+      </c>
+      <c r="AZ55">
+        <v>4.49</v>
+      </c>
+      <c r="BA55">
+        <v>1.25</v>
+      </c>
+      <c r="BB55">
+        <v>1.47</v>
+      </c>
+      <c r="BC55">
+        <v>1.8</v>
+      </c>
+      <c r="BD55">
+        <v>2.25</v>
+      </c>
+      <c r="BE55">
+        <v>3</v>
+      </c>
+      <c r="BF55">
+        <v>9</v>
+      </c>
+      <c r="BG55">
+        <v>14</v>
+      </c>
+      <c r="BH55">
+        <v>10</v>
+      </c>
+      <c r="BI55">
         <v>11</v>
       </c>
-      <c r="R55">
-        <v>0</v>
-      </c>
-      <c r="S55">
-        <v>11</v>
-      </c>
-      <c r="T55">
-        <v>2.15</v>
-      </c>
-      <c r="U55">
-        <v>2.25</v>
-      </c>
-      <c r="V55">
-        <v>4.8</v>
-      </c>
-      <c r="W55">
-        <v>1.32</v>
-      </c>
-      <c r="X55">
-        <v>3.1</v>
-      </c>
-      <c r="Y55">
-        <v>2.5</v>
-      </c>
-      <c r="Z55">
-        <v>1.48</v>
-      </c>
-      <c r="AA55">
-        <v>6.25</v>
-      </c>
-      <c r="AB55">
-        <v>1.11</v>
-      </c>
-      <c r="AC55">
-        <v>1.67</v>
-      </c>
-      <c r="AD55">
-        <v>3.95</v>
-      </c>
-      <c r="AE55">
-        <v>4.97</v>
-      </c>
-      <c r="AF55">
-        <v>1.04</v>
-      </c>
-      <c r="AG55">
-        <v>15</v>
-      </c>
-      <c r="AH55">
-        <v>1.24</v>
-      </c>
-      <c r="AI55">
-        <v>4.12</v>
-      </c>
-      <c r="AJ55">
-        <v>1.58</v>
-      </c>
-      <c r="AK55">
-        <v>2.22</v>
-      </c>
-      <c r="AL55">
-        <v>1.75</v>
-      </c>
-      <c r="AM55">
-        <v>2.05</v>
-      </c>
-      <c r="AN55">
-        <v>1.2</v>
-      </c>
-      <c r="AO55">
-        <v>1.24</v>
-      </c>
-      <c r="AP55">
-        <v>2.15</v>
-      </c>
-      <c r="AQ55">
-        <v>1</v>
-      </c>
-      <c r="AR55">
-        <v>1</v>
-      </c>
-      <c r="AS55">
-        <v>1</v>
-      </c>
-      <c r="AT55">
-        <v>0.67</v>
-      </c>
-      <c r="AU55">
-        <v>0</v>
-      </c>
-      <c r="AV55">
-        <v>0</v>
-      </c>
-      <c r="AW55">
-        <v>0</v>
-      </c>
-      <c r="AX55">
-        <v>1.45</v>
-      </c>
-      <c r="AY55">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="AZ55">
-        <v>3.61</v>
-      </c>
-      <c r="BA55">
-        <v>1.38</v>
-      </c>
-      <c r="BB55">
-        <v>1.65</v>
-      </c>
-      <c r="BC55">
-        <v>2.05</v>
-      </c>
-      <c r="BD55">
-        <v>2.7</v>
-      </c>
-      <c r="BE55">
-        <v>3.75</v>
-      </c>
-      <c r="BF55">
-        <v>15</v>
-      </c>
-      <c r="BG55">
-        <v>5</v>
-      </c>
-      <c r="BH55">
-        <v>12</v>
-      </c>
-      <c r="BI55">
-        <v>2</v>
-      </c>
       <c r="BJ55">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="BK55">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56" spans="1:63">
@@ -11506,7 +11551,7 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>6948870</v>
+        <v>6534693</v>
       </c>
       <c r="C56" t="s">
         <v>63</v>
@@ -11521,10 +11566,10 @@
         <v>0</v>
       </c>
       <c r="G56" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="H56" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="I56">
         <v>1</v>
@@ -11536,160 +11581,160 @@
         <v>2</v>
       </c>
       <c r="L56">
+        <v>2</v>
+      </c>
+      <c r="M56">
+        <v>2</v>
+      </c>
+      <c r="N56">
         <v>4</v>
       </c>
-      <c r="M56">
-        <v>1</v>
-      </c>
-      <c r="N56">
+      <c r="O56" t="s">
+        <v>153</v>
+      </c>
+      <c r="P56" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q56">
+        <v>11</v>
+      </c>
+      <c r="R56">
+        <v>0</v>
+      </c>
+      <c r="S56">
+        <v>11</v>
+      </c>
+      <c r="T56">
+        <v>2.15</v>
+      </c>
+      <c r="U56">
+        <v>2.25</v>
+      </c>
+      <c r="V56">
+        <v>4.8</v>
+      </c>
+      <c r="W56">
+        <v>1.32</v>
+      </c>
+      <c r="X56">
+        <v>3.1</v>
+      </c>
+      <c r="Y56">
+        <v>2.5</v>
+      </c>
+      <c r="Z56">
+        <v>1.48</v>
+      </c>
+      <c r="AA56">
+        <v>6.25</v>
+      </c>
+      <c r="AB56">
+        <v>1.11</v>
+      </c>
+      <c r="AC56">
+        <v>1.67</v>
+      </c>
+      <c r="AD56">
+        <v>3.95</v>
+      </c>
+      <c r="AE56">
+        <v>4.97</v>
+      </c>
+      <c r="AF56">
+        <v>1.04</v>
+      </c>
+      <c r="AG56">
+        <v>15</v>
+      </c>
+      <c r="AH56">
+        <v>1.24</v>
+      </c>
+      <c r="AI56">
+        <v>4.12</v>
+      </c>
+      <c r="AJ56">
+        <v>1.58</v>
+      </c>
+      <c r="AK56">
+        <v>2.22</v>
+      </c>
+      <c r="AL56">
+        <v>1.75</v>
+      </c>
+      <c r="AM56">
+        <v>2.05</v>
+      </c>
+      <c r="AN56">
+        <v>1.2</v>
+      </c>
+      <c r="AO56">
+        <v>1.24</v>
+      </c>
+      <c r="AP56">
+        <v>2.15</v>
+      </c>
+      <c r="AQ56">
+        <v>1</v>
+      </c>
+      <c r="AR56">
+        <v>1</v>
+      </c>
+      <c r="AS56">
+        <v>1</v>
+      </c>
+      <c r="AT56">
+        <v>0.75</v>
+      </c>
+      <c r="AU56">
+        <v>0</v>
+      </c>
+      <c r="AV56">
+        <v>0</v>
+      </c>
+      <c r="AW56">
+        <v>0</v>
+      </c>
+      <c r="AX56">
+        <v>1.45</v>
+      </c>
+      <c r="AY56">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AZ56">
+        <v>3.61</v>
+      </c>
+      <c r="BA56">
+        <v>1.38</v>
+      </c>
+      <c r="BB56">
+        <v>1.65</v>
+      </c>
+      <c r="BC56">
+        <v>2.05</v>
+      </c>
+      <c r="BD56">
+        <v>2.7</v>
+      </c>
+      <c r="BE56">
+        <v>3.75</v>
+      </c>
+      <c r="BF56">
+        <v>15</v>
+      </c>
+      <c r="BG56">
         <v>5</v>
       </c>
-      <c r="O56" t="s">
-        <v>152</v>
-      </c>
-      <c r="P56" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q56">
-        <v>14</v>
-      </c>
-      <c r="R56">
-        <v>6</v>
-      </c>
-      <c r="S56">
-        <v>20</v>
-      </c>
-      <c r="T56">
-        <v>1.95</v>
-      </c>
-      <c r="U56">
-        <v>2.2</v>
-      </c>
-      <c r="V56">
-        <v>6.5</v>
-      </c>
-      <c r="W56">
-        <v>1.4</v>
-      </c>
-      <c r="X56">
-        <v>2.75</v>
-      </c>
-      <c r="Y56">
-        <v>2.87</v>
-      </c>
-      <c r="Z56">
-        <v>1.36</v>
-      </c>
-      <c r="AA56">
-        <v>7.5</v>
-      </c>
-      <c r="AB56">
-        <v>1.07</v>
-      </c>
-      <c r="AC56">
-        <v>1.6</v>
-      </c>
-      <c r="AD56">
-        <v>3.86</v>
-      </c>
-      <c r="AE56">
-        <v>5.87</v>
-      </c>
-      <c r="AF56">
-        <v>1.02</v>
-      </c>
-      <c r="AG56">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="AH56">
-        <v>1.3</v>
-      </c>
-      <c r="AI56">
-        <v>3.14</v>
-      </c>
-      <c r="AJ56">
-        <v>1.87</v>
-      </c>
-      <c r="AK56">
-        <v>1.83</v>
-      </c>
-      <c r="AL56">
-        <v>2.25</v>
-      </c>
-      <c r="AM56">
-        <v>1.55</v>
-      </c>
-      <c r="AN56">
-        <v>1.09</v>
-      </c>
-      <c r="AO56">
-        <v>1.2</v>
-      </c>
-      <c r="AP56">
-        <v>2.75</v>
-      </c>
-      <c r="AQ56">
-        <v>2</v>
-      </c>
-      <c r="AR56">
-        <v>2</v>
-      </c>
-      <c r="AS56">
-        <v>2.4</v>
-      </c>
-      <c r="AT56">
-        <v>1.5</v>
-      </c>
-      <c r="AU56">
-        <v>2.04</v>
-      </c>
-      <c r="AV56">
-        <v>1.68</v>
-      </c>
-      <c r="AW56">
-        <v>3.72</v>
-      </c>
-      <c r="AX56">
-        <v>1.24</v>
-      </c>
-      <c r="AY56">
-        <v>9.5</v>
-      </c>
-      <c r="AZ56">
-        <v>5.74</v>
-      </c>
-      <c r="BA56">
-        <v>1.28</v>
-      </c>
-      <c r="BB56">
-        <v>1.5</v>
-      </c>
-      <c r="BC56">
-        <v>1.83</v>
-      </c>
-      <c r="BD56">
-        <v>2.35</v>
-      </c>
-      <c r="BE56">
-        <v>3.1</v>
-      </c>
-      <c r="BF56">
-        <v>11</v>
-      </c>
-      <c r="BG56">
-        <v>6</v>
-      </c>
       <c r="BH56">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BI56">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="BJ56">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="BK56">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="57" spans="1:63">
@@ -11736,10 +11781,10 @@
         <v>9</v>
       </c>
       <c r="O57" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="P57" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -11826,7 +11871,7 @@
         <v>2.4</v>
       </c>
       <c r="AS57">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AT57">
         <v>2</v>
@@ -11927,10 +11972,10 @@
         <v>1</v>
       </c>
       <c r="O58" t="s">
+        <v>116</v>
+      </c>
+      <c r="P58" t="s">
         <v>115</v>
-      </c>
-      <c r="P58" t="s">
-        <v>114</v>
       </c>
       <c r="Q58">
         <v>9</v>
@@ -12017,7 +12062,7 @@
         <v>1.67</v>
       </c>
       <c r="AS58">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AT58">
         <v>1.25</v>
@@ -12118,10 +12163,10 @@
         <v>0</v>
       </c>
       <c r="O59" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="P59" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q59">
         <v>5</v>
@@ -12208,7 +12253,7 @@
         <v>0</v>
       </c>
       <c r="AS59">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AT59">
         <v>1</v>
@@ -12309,10 +12354,10 @@
         <v>3</v>
       </c>
       <c r="O60" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="P60" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="Q60">
         <v>6</v>
@@ -12399,10 +12444,10 @@
         <v>3</v>
       </c>
       <c r="AS60">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AT60">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AU60">
         <v>1.85</v>
@@ -12479,7 +12524,7 @@
         <v>107</v>
       </c>
       <c r="H61" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I61">
         <v>3</v>
@@ -12500,10 +12545,10 @@
         <v>5</v>
       </c>
       <c r="O61" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="P61" t="s">
-        <v>201</v>
+        <v>165</v>
       </c>
       <c r="Q61">
         <v>5</v>
@@ -12667,7 +12712,7 @@
         <v>0</v>
       </c>
       <c r="G62" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H62" t="s">
         <v>103</v>
@@ -12691,10 +12736,10 @@
         <v>3</v>
       </c>
       <c r="O62" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="P62" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="Q62">
         <v>3</v>
@@ -12781,10 +12826,10 @@
         <v>1.5</v>
       </c>
       <c r="AS62">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AT62">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AU62">
         <v>1.33</v>
@@ -12843,7 +12888,7 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>7033843</v>
+        <v>7140067</v>
       </c>
       <c r="C63" t="s">
         <v>63</v>
@@ -12858,175 +12903,175 @@
         <v>0</v>
       </c>
       <c r="G63" t="s">
-        <v>108</v>
+        <v>71</v>
       </c>
       <c r="H63" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="I63">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L63">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M63">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N63">
         <v>3</v>
       </c>
       <c r="O63" t="s">
-        <v>157</v>
+        <v>115</v>
       </c>
       <c r="P63" t="s">
-        <v>114</v>
+        <v>210</v>
       </c>
       <c r="Q63">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="R63">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="S63">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="T63">
-        <v>1.55</v>
+        <v>4.8</v>
       </c>
       <c r="U63">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="V63">
-        <v>9.25</v>
+        <v>2.1</v>
       </c>
       <c r="W63">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="X63">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="Y63">
-        <v>2.2</v>
+        <v>2.45</v>
       </c>
       <c r="Z63">
-        <v>1.58</v>
+        <v>1.5</v>
       </c>
       <c r="AA63">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AB63">
-        <v>1.15</v>
+        <v>1.12</v>
       </c>
       <c r="AC63">
-        <v>1.17</v>
+        <v>5.25</v>
       </c>
       <c r="AD63">
-        <v>6</v>
+        <v>3.9</v>
       </c>
       <c r="AE63">
-        <v>17</v>
+        <v>1.5</v>
       </c>
       <c r="AF63">
         <v>1.02</v>
       </c>
       <c r="AG63">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AH63">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="AI63">
-        <v>4.6</v>
+        <v>4.33</v>
       </c>
       <c r="AJ63">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AK63">
-        <v>2.35</v>
+        <v>2.15</v>
       </c>
       <c r="AL63">
+        <v>1.73</v>
+      </c>
+      <c r="AM63">
+        <v>1.95</v>
+      </c>
+      <c r="AN63">
         <v>2.3</v>
       </c>
-      <c r="AM63">
-        <v>1.53</v>
-      </c>
-      <c r="AN63">
-        <v>1.03</v>
-      </c>
       <c r="AO63">
-        <v>1.1</v>
+        <v>1.22</v>
       </c>
       <c r="AP63">
-        <v>4.6</v>
+        <v>1.16</v>
       </c>
       <c r="AQ63">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AR63">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AS63">
-        <v>3</v>
+        <v>1.67</v>
       </c>
       <c r="AT63">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AU63">
-        <v>0</v>
+        <v>2.29</v>
       </c>
       <c r="AV63">
-        <v>0</v>
+        <v>2.93</v>
       </c>
       <c r="AW63">
-        <v>0</v>
+        <v>5.22</v>
       </c>
       <c r="AX63">
-        <v>1.17</v>
+        <v>4.33</v>
       </c>
       <c r="AY63">
+        <v>8.5</v>
+      </c>
+      <c r="AZ63">
+        <v>1.33</v>
+      </c>
+      <c r="BA63">
+        <v>1.22</v>
+      </c>
+      <c r="BB63">
+        <v>1.38</v>
+      </c>
+      <c r="BC63">
+        <v>1.83</v>
+      </c>
+      <c r="BD63">
+        <v>2.38</v>
+      </c>
+      <c r="BE63">
+        <v>3.2</v>
+      </c>
+      <c r="BF63">
+        <v>5</v>
+      </c>
+      <c r="BG63">
         <v>10</v>
       </c>
-      <c r="AZ63">
+      <c r="BH63">
         <v>7</v>
       </c>
-      <c r="BA63">
-        <v>1.3</v>
-      </c>
-      <c r="BB63">
-        <v>1.5</v>
-      </c>
-      <c r="BC63">
-        <v>1.67</v>
-      </c>
-      <c r="BD63">
-        <v>2.05</v>
-      </c>
-      <c r="BE63">
-        <v>2.8</v>
-      </c>
-      <c r="BF63">
-        <v>7</v>
-      </c>
-      <c r="BG63">
-        <v>2</v>
-      </c>
-      <c r="BH63">
-        <v>9</v>
-      </c>
       <c r="BI63">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BJ63">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="BK63">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="64" spans="1:63">
@@ -13034,7 +13079,7 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>7140067</v>
+        <v>7033843</v>
       </c>
       <c r="C64" t="s">
         <v>63</v>
@@ -13049,175 +13094,175 @@
         <v>0</v>
       </c>
       <c r="G64" t="s">
-        <v>71</v>
+        <v>108</v>
       </c>
       <c r="H64" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="I64">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K64">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L64">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M64">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N64">
         <v>3</v>
       </c>
       <c r="O64" t="s">
-        <v>114</v>
+        <v>158</v>
       </c>
       <c r="P64" t="s">
-        <v>203</v>
+        <v>115</v>
       </c>
       <c r="Q64">
+        <v>9</v>
+      </c>
+      <c r="R64">
+        <v>0</v>
+      </c>
+      <c r="S64">
+        <v>9</v>
+      </c>
+      <c r="T64">
+        <v>1.55</v>
+      </c>
+      <c r="U64">
+        <v>2.75</v>
+      </c>
+      <c r="V64">
+        <v>9.25</v>
+      </c>
+      <c r="W64">
+        <v>1.26</v>
+      </c>
+      <c r="X64">
+        <v>3.5</v>
+      </c>
+      <c r="Y64">
+        <v>2.2</v>
+      </c>
+      <c r="Z64">
+        <v>1.58</v>
+      </c>
+      <c r="AA64">
         <v>5</v>
       </c>
-      <c r="R64">
+      <c r="AB64">
+        <v>1.15</v>
+      </c>
+      <c r="AC64">
+        <v>1.17</v>
+      </c>
+      <c r="AD64">
         <v>6</v>
       </c>
-      <c r="S64">
-        <v>11</v>
-      </c>
-      <c r="T64">
-        <v>4.8</v>
-      </c>
-      <c r="U64">
-        <v>2.3</v>
-      </c>
-      <c r="V64">
-        <v>2.1</v>
-      </c>
-      <c r="W64">
-        <v>1.29</v>
-      </c>
-      <c r="X64">
-        <v>3.3</v>
-      </c>
-      <c r="Y64">
-        <v>2.45</v>
-      </c>
-      <c r="Z64">
-        <v>1.5</v>
-      </c>
-      <c r="AA64">
-        <v>6</v>
-      </c>
-      <c r="AB64">
-        <v>1.12</v>
-      </c>
-      <c r="AC64">
-        <v>5.25</v>
-      </c>
-      <c r="AD64">
-        <v>3.9</v>
-      </c>
       <c r="AE64">
-        <v>1.5</v>
+        <v>17</v>
       </c>
       <c r="AF64">
         <v>1.02</v>
       </c>
       <c r="AG64">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AH64">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AI64">
-        <v>4.33</v>
+        <v>4.6</v>
       </c>
       <c r="AJ64">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="AK64">
-        <v>2.15</v>
+        <v>2.35</v>
       </c>
       <c r="AL64">
-        <v>1.73</v>
+        <v>2.3</v>
       </c>
       <c r="AM64">
-        <v>1.95</v>
+        <v>1.53</v>
       </c>
       <c r="AN64">
-        <v>2.3</v>
+        <v>1.03</v>
       </c>
       <c r="AO64">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AP64">
-        <v>1.16</v>
+        <v>4.6</v>
       </c>
       <c r="AQ64">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="AR64">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AS64">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AT64">
-        <v>2.33</v>
+        <v>0</v>
       </c>
       <c r="AU64">
-        <v>2.29</v>
+        <v>0</v>
       </c>
       <c r="AV64">
-        <v>2.93</v>
+        <v>0</v>
       </c>
       <c r="AW64">
-        <v>5.22</v>
+        <v>0</v>
       </c>
       <c r="AX64">
-        <v>4.33</v>
+        <v>1.17</v>
       </c>
       <c r="AY64">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AZ64">
-        <v>1.33</v>
+        <v>7</v>
       </c>
       <c r="BA64">
-        <v>1.22</v>
+        <v>1.3</v>
       </c>
       <c r="BB64">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="BC64">
-        <v>1.83</v>
+        <v>1.67</v>
       </c>
       <c r="BD64">
-        <v>2.38</v>
+        <v>2.05</v>
       </c>
       <c r="BE64">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="BF64">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BG64">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="BH64">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BI64">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BJ64">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="BK64">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="65" spans="1:63">
@@ -13264,10 +13309,10 @@
         <v>1</v>
       </c>
       <c r="O65" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="P65" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q65">
         <v>3</v>
@@ -13354,10 +13399,10 @@
         <v>0</v>
       </c>
       <c r="AS65">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AT65">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AU65">
         <v>1.44</v>
@@ -13455,10 +13500,10 @@
         <v>3</v>
       </c>
       <c r="O66" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="P66" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="Q66">
         <v>8</v>
@@ -13545,10 +13590,10 @@
         <v>2.25</v>
       </c>
       <c r="AS66">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AT66">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AU66">
         <v>1.21</v>
@@ -13646,10 +13691,10 @@
         <v>3</v>
       </c>
       <c r="O67" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="P67" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q67">
         <v>2</v>
@@ -13736,10 +13781,10 @@
         <v>1</v>
       </c>
       <c r="AS67">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT67">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="AU67">
         <v>0</v>
@@ -13791,6 +13836,1916 @@
       </c>
       <c r="BK67">
         <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:63">
+      <c r="A68" s="1">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>7140071</v>
+      </c>
+      <c r="C68" t="s">
+        <v>63</v>
+      </c>
+      <c r="D68" t="s">
+        <v>64</v>
+      </c>
+      <c r="E68" s="2">
+        <v>45153.58333333334</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68" t="s">
+        <v>86</v>
+      </c>
+      <c r="H68" t="s">
+        <v>82</v>
+      </c>
+      <c r="I68">
+        <v>2</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>2</v>
+      </c>
+      <c r="L68">
+        <v>3</v>
+      </c>
+      <c r="M68">
+        <v>1</v>
+      </c>
+      <c r="N68">
+        <v>4</v>
+      </c>
+      <c r="O68" t="s">
+        <v>162</v>
+      </c>
+      <c r="P68" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q68">
+        <v>4</v>
+      </c>
+      <c r="R68">
+        <v>8</v>
+      </c>
+      <c r="S68">
+        <v>12</v>
+      </c>
+      <c r="T68">
+        <v>2.06</v>
+      </c>
+      <c r="U68">
+        <v>2.43</v>
+      </c>
+      <c r="V68">
+        <v>5.29</v>
+      </c>
+      <c r="W68">
+        <v>1.29</v>
+      </c>
+      <c r="X68">
+        <v>3.42</v>
+      </c>
+      <c r="Y68">
+        <v>2.36</v>
+      </c>
+      <c r="Z68">
+        <v>1.55</v>
+      </c>
+      <c r="AA68">
+        <v>5.45</v>
+      </c>
+      <c r="AB68">
+        <v>1.13</v>
+      </c>
+      <c r="AC68">
+        <v>1.45</v>
+      </c>
+      <c r="AD68">
+        <v>4.1</v>
+      </c>
+      <c r="AE68">
+        <v>5.25</v>
+      </c>
+      <c r="AF68">
+        <v>1.03</v>
+      </c>
+      <c r="AG68">
+        <v>12.5</v>
+      </c>
+      <c r="AH68">
+        <v>1.21</v>
+      </c>
+      <c r="AI68">
+        <v>4.1</v>
+      </c>
+      <c r="AJ68">
+        <v>1.6</v>
+      </c>
+      <c r="AK68">
+        <v>2.2</v>
+      </c>
+      <c r="AL68">
+        <v>1.69</v>
+      </c>
+      <c r="AM68">
+        <v>2.11</v>
+      </c>
+      <c r="AN68">
+        <v>1.15</v>
+      </c>
+      <c r="AO68">
+        <v>1.21</v>
+      </c>
+      <c r="AP68">
+        <v>2.43</v>
+      </c>
+      <c r="AQ68">
+        <v>2.4</v>
+      </c>
+      <c r="AR68">
+        <v>1.6</v>
+      </c>
+      <c r="AS68">
+        <v>2.5</v>
+      </c>
+      <c r="AT68">
+        <v>1.33</v>
+      </c>
+      <c r="AU68">
+        <v>2.51</v>
+      </c>
+      <c r="AV68">
+        <v>0.99</v>
+      </c>
+      <c r="AW68">
+        <v>3.5</v>
+      </c>
+      <c r="AX68">
+        <v>1.22</v>
+      </c>
+      <c r="AY68">
+        <v>10</v>
+      </c>
+      <c r="AZ68">
+        <v>5.5</v>
+      </c>
+      <c r="BA68">
+        <v>1.16</v>
+      </c>
+      <c r="BB68">
+        <v>1.29</v>
+      </c>
+      <c r="BC68">
+        <v>1.43</v>
+      </c>
+      <c r="BD68">
+        <v>1.75</v>
+      </c>
+      <c r="BE68">
+        <v>2.22</v>
+      </c>
+      <c r="BF68">
+        <v>5</v>
+      </c>
+      <c r="BG68">
+        <v>7</v>
+      </c>
+      <c r="BH68">
+        <v>3</v>
+      </c>
+      <c r="BI68">
+        <v>3</v>
+      </c>
+      <c r="BJ68">
+        <v>8</v>
+      </c>
+      <c r="BK68">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" spans="1:63">
+      <c r="A69" s="1">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>7140070</v>
+      </c>
+      <c r="C69" t="s">
+        <v>63</v>
+      </c>
+      <c r="D69" t="s">
+        <v>64</v>
+      </c>
+      <c r="E69" s="2">
+        <v>45153.58333333334</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69" t="s">
+        <v>101</v>
+      </c>
+      <c r="H69" t="s">
+        <v>72</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>1</v>
+      </c>
+      <c r="N69">
+        <v>1</v>
+      </c>
+      <c r="O69" t="s">
+        <v>115</v>
+      </c>
+      <c r="P69" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q69">
+        <v>9</v>
+      </c>
+      <c r="R69">
+        <v>0</v>
+      </c>
+      <c r="S69">
+        <v>9</v>
+      </c>
+      <c r="T69">
+        <v>3</v>
+      </c>
+      <c r="U69">
+        <v>2.05</v>
+      </c>
+      <c r="V69">
+        <v>3.5</v>
+      </c>
+      <c r="W69">
+        <v>1.44</v>
+      </c>
+      <c r="X69">
+        <v>2.63</v>
+      </c>
+      <c r="Y69">
+        <v>3.25</v>
+      </c>
+      <c r="Z69">
+        <v>1.33</v>
+      </c>
+      <c r="AA69">
+        <v>7.5</v>
+      </c>
+      <c r="AB69">
+        <v>1.07</v>
+      </c>
+      <c r="AC69">
+        <v>2.2</v>
+      </c>
+      <c r="AD69">
+        <v>3.05</v>
+      </c>
+      <c r="AE69">
+        <v>3</v>
+      </c>
+      <c r="AF69">
+        <v>1.07</v>
+      </c>
+      <c r="AG69">
+        <v>10.25</v>
+      </c>
+      <c r="AH69">
+        <v>1.34</v>
+      </c>
+      <c r="AI69">
+        <v>3.27</v>
+      </c>
+      <c r="AJ69">
+        <v>1.95</v>
+      </c>
+      <c r="AK69">
+        <v>1.75</v>
+      </c>
+      <c r="AL69">
+        <v>1.83</v>
+      </c>
+      <c r="AM69">
+        <v>1.83</v>
+      </c>
+      <c r="AN69">
+        <v>1.35</v>
+      </c>
+      <c r="AO69">
+        <v>1.3</v>
+      </c>
+      <c r="AP69">
+        <v>1.6</v>
+      </c>
+      <c r="AQ69">
+        <v>2</v>
+      </c>
+      <c r="AR69">
+        <v>2.6</v>
+      </c>
+      <c r="AS69">
+        <v>1.5</v>
+      </c>
+      <c r="AT69">
+        <v>2.67</v>
+      </c>
+      <c r="AU69">
+        <v>2.45</v>
+      </c>
+      <c r="AV69">
+        <v>1.68</v>
+      </c>
+      <c r="AW69">
+        <v>4.13</v>
+      </c>
+      <c r="AX69">
+        <v>1.8</v>
+      </c>
+      <c r="AY69">
+        <v>8.6</v>
+      </c>
+      <c r="AZ69">
+        <v>2.38</v>
+      </c>
+      <c r="BA69">
+        <v>1.36</v>
+      </c>
+      <c r="BB69">
+        <v>1.65</v>
+      </c>
+      <c r="BC69">
+        <v>2</v>
+      </c>
+      <c r="BD69">
+        <v>2.5</v>
+      </c>
+      <c r="BE69">
+        <v>3.3</v>
+      </c>
+      <c r="BF69">
+        <v>7</v>
+      </c>
+      <c r="BG69">
+        <v>4</v>
+      </c>
+      <c r="BH69">
+        <v>10</v>
+      </c>
+      <c r="BI69">
+        <v>1</v>
+      </c>
+      <c r="BJ69">
+        <v>17</v>
+      </c>
+      <c r="BK69">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:63">
+      <c r="A70" s="1">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>7140073</v>
+      </c>
+      <c r="C70" t="s">
+        <v>63</v>
+      </c>
+      <c r="D70" t="s">
+        <v>64</v>
+      </c>
+      <c r="E70" s="2">
+        <v>45153.58333333334</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70" t="s">
+        <v>103</v>
+      </c>
+      <c r="H70" t="s">
+        <v>75</v>
+      </c>
+      <c r="I70">
+        <v>1</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>1</v>
+      </c>
+      <c r="L70">
+        <v>2</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>2</v>
+      </c>
+      <c r="O70" t="s">
+        <v>163</v>
+      </c>
+      <c r="P70" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q70">
+        <v>13</v>
+      </c>
+      <c r="R70">
+        <v>3</v>
+      </c>
+      <c r="S70">
+        <v>16</v>
+      </c>
+      <c r="T70">
+        <v>1.63</v>
+      </c>
+      <c r="U70">
+        <v>2.88</v>
+      </c>
+      <c r="V70">
+        <v>8</v>
+      </c>
+      <c r="W70">
+        <v>1.22</v>
+      </c>
+      <c r="X70">
+        <v>4</v>
+      </c>
+      <c r="Y70">
+        <v>2.09</v>
+      </c>
+      <c r="Z70">
+        <v>1.7</v>
+      </c>
+      <c r="AA70">
+        <v>4.45</v>
+      </c>
+      <c r="AB70">
+        <v>1.19</v>
+      </c>
+      <c r="AC70">
+        <v>1.2</v>
+      </c>
+      <c r="AD70">
+        <v>5.5</v>
+      </c>
+      <c r="AE70">
+        <v>9.5</v>
+      </c>
+      <c r="AF70">
+        <v>1.02</v>
+      </c>
+      <c r="AG70">
+        <v>21</v>
+      </c>
+      <c r="AH70">
+        <v>1.1</v>
+      </c>
+      <c r="AI70">
+        <v>5.5</v>
+      </c>
+      <c r="AJ70">
+        <v>1.4</v>
+      </c>
+      <c r="AK70">
+        <v>2.75</v>
+      </c>
+      <c r="AL70">
+        <v>1.87</v>
+      </c>
+      <c r="AM70">
+        <v>1.89</v>
+      </c>
+      <c r="AN70">
+        <v>1.04</v>
+      </c>
+      <c r="AO70">
+        <v>1.12</v>
+      </c>
+      <c r="AP70">
+        <v>4</v>
+      </c>
+      <c r="AQ70">
+        <v>1</v>
+      </c>
+      <c r="AR70">
+        <v>1.8</v>
+      </c>
+      <c r="AS70">
+        <v>1.5</v>
+      </c>
+      <c r="AT70">
+        <v>1.5</v>
+      </c>
+      <c r="AU70">
+        <v>2.22</v>
+      </c>
+      <c r="AV70">
+        <v>2.25</v>
+      </c>
+      <c r="AW70">
+        <v>4.47</v>
+      </c>
+      <c r="AX70">
+        <v>1.13</v>
+      </c>
+      <c r="AY70">
+        <v>11</v>
+      </c>
+      <c r="AZ70">
+        <v>8</v>
+      </c>
+      <c r="BA70">
+        <v>1.2</v>
+      </c>
+      <c r="BB70">
+        <v>1.33</v>
+      </c>
+      <c r="BC70">
+        <v>1.61</v>
+      </c>
+      <c r="BD70">
+        <v>2.03</v>
+      </c>
+      <c r="BE70">
+        <v>2.62</v>
+      </c>
+      <c r="BF70">
+        <v>8</v>
+      </c>
+      <c r="BG70">
+        <v>4</v>
+      </c>
+      <c r="BH70">
+        <v>10</v>
+      </c>
+      <c r="BI70">
+        <v>5</v>
+      </c>
+      <c r="BJ70">
+        <v>18</v>
+      </c>
+      <c r="BK70">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71" spans="1:63">
+      <c r="A71" s="1">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>7140072</v>
+      </c>
+      <c r="C71" t="s">
+        <v>63</v>
+      </c>
+      <c r="D71" t="s">
+        <v>64</v>
+      </c>
+      <c r="E71" s="2">
+        <v>45153.58333333334</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71" t="s">
+        <v>110</v>
+      </c>
+      <c r="H71" t="s">
+        <v>105</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>1</v>
+      </c>
+      <c r="K71">
+        <v>1</v>
+      </c>
+      <c r="L71">
+        <v>3</v>
+      </c>
+      <c r="M71">
+        <v>3</v>
+      </c>
+      <c r="N71">
+        <v>6</v>
+      </c>
+      <c r="O71" t="s">
+        <v>164</v>
+      </c>
+      <c r="P71" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q71">
+        <v>8</v>
+      </c>
+      <c r="R71">
+        <v>4</v>
+      </c>
+      <c r="S71">
+        <v>12</v>
+      </c>
+      <c r="T71">
+        <v>2.78</v>
+      </c>
+      <c r="U71">
+        <v>2.12</v>
+      </c>
+      <c r="V71">
+        <v>3.94</v>
+      </c>
+      <c r="W71">
+        <v>1.4</v>
+      </c>
+      <c r="X71">
+        <v>2.83</v>
+      </c>
+      <c r="Y71">
+        <v>2.88</v>
+      </c>
+      <c r="Z71">
+        <v>1.39</v>
+      </c>
+      <c r="AA71">
+        <v>7.3</v>
+      </c>
+      <c r="AB71">
+        <v>1.07</v>
+      </c>
+      <c r="AC71">
+        <v>2.15</v>
+      </c>
+      <c r="AD71">
+        <v>3.05</v>
+      </c>
+      <c r="AE71">
+        <v>3.1</v>
+      </c>
+      <c r="AF71">
+        <v>1.05</v>
+      </c>
+      <c r="AG71">
+        <v>10.5</v>
+      </c>
+      <c r="AH71">
+        <v>1.25</v>
+      </c>
+      <c r="AI71">
+        <v>3.6</v>
+      </c>
+      <c r="AJ71">
+        <v>1.85</v>
+      </c>
+      <c r="AK71">
+        <v>1.85</v>
+      </c>
+      <c r="AL71">
+        <v>1.77</v>
+      </c>
+      <c r="AM71">
+        <v>2</v>
+      </c>
+      <c r="AN71">
+        <v>1.34</v>
+      </c>
+      <c r="AO71">
+        <v>1.31</v>
+      </c>
+      <c r="AP71">
+        <v>1.68</v>
+      </c>
+      <c r="AQ71">
+        <v>1</v>
+      </c>
+      <c r="AR71">
+        <v>2.33</v>
+      </c>
+      <c r="AS71">
+        <v>1</v>
+      </c>
+      <c r="AT71">
+        <v>2</v>
+      </c>
+      <c r="AU71">
+        <v>0</v>
+      </c>
+      <c r="AV71">
+        <v>1.38</v>
+      </c>
+      <c r="AW71">
+        <v>1.38</v>
+      </c>
+      <c r="AX71">
+        <v>1.55</v>
+      </c>
+      <c r="AY71">
+        <v>7</v>
+      </c>
+      <c r="AZ71">
+        <v>3.2</v>
+      </c>
+      <c r="BA71">
+        <v>1.31</v>
+      </c>
+      <c r="BB71">
+        <v>1.52</v>
+      </c>
+      <c r="BC71">
+        <v>1.94</v>
+      </c>
+      <c r="BD71">
+        <v>2.52</v>
+      </c>
+      <c r="BE71">
+        <v>3.2</v>
+      </c>
+      <c r="BF71">
+        <v>14</v>
+      </c>
+      <c r="BG71">
+        <v>7</v>
+      </c>
+      <c r="BH71">
+        <v>8</v>
+      </c>
+      <c r="BI71">
+        <v>4</v>
+      </c>
+      <c r="BJ71">
+        <v>22</v>
+      </c>
+      <c r="BK71">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="72" spans="1:63">
+      <c r="A72" s="1">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>7033845</v>
+      </c>
+      <c r="C72" t="s">
+        <v>63</v>
+      </c>
+      <c r="D72" t="s">
+        <v>64</v>
+      </c>
+      <c r="E72" s="2">
+        <v>45153.625</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72" t="s">
+        <v>111</v>
+      </c>
+      <c r="H72" t="s">
+        <v>108</v>
+      </c>
+      <c r="I72">
+        <v>1</v>
+      </c>
+      <c r="J72">
+        <v>4</v>
+      </c>
+      <c r="K72">
+        <v>5</v>
+      </c>
+      <c r="L72">
+        <v>1</v>
+      </c>
+      <c r="M72">
+        <v>4</v>
+      </c>
+      <c r="N72">
+        <v>5</v>
+      </c>
+      <c r="O72" t="s">
+        <v>165</v>
+      </c>
+      <c r="P72" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q72">
+        <v>1</v>
+      </c>
+      <c r="R72">
+        <v>3</v>
+      </c>
+      <c r="S72">
+        <v>4</v>
+      </c>
+      <c r="T72">
+        <v>5.19</v>
+      </c>
+      <c r="U72">
+        <v>2.38</v>
+      </c>
+      <c r="V72">
+        <v>2.12</v>
+      </c>
+      <c r="W72">
+        <v>1.31</v>
+      </c>
+      <c r="X72">
+        <v>3.28</v>
+      </c>
+      <c r="Y72">
+        <v>2.46</v>
+      </c>
+      <c r="Z72">
+        <v>1.51</v>
+      </c>
+      <c r="AA72">
+        <v>5.8</v>
+      </c>
+      <c r="AB72">
+        <v>1.12</v>
+      </c>
+      <c r="AC72">
+        <v>4.25</v>
+      </c>
+      <c r="AD72">
+        <v>3.71</v>
+      </c>
+      <c r="AE72">
+        <v>1.6</v>
+      </c>
+      <c r="AF72">
+        <v>1.04</v>
+      </c>
+      <c r="AG72">
+        <v>11.5</v>
+      </c>
+      <c r="AH72">
+        <v>1.23</v>
+      </c>
+      <c r="AI72">
+        <v>3.8</v>
+      </c>
+      <c r="AJ72">
+        <v>1.66</v>
+      </c>
+      <c r="AK72">
+        <v>2.14</v>
+      </c>
+      <c r="AL72">
+        <v>1.72</v>
+      </c>
+      <c r="AM72">
+        <v>2.07</v>
+      </c>
+      <c r="AN72">
+        <v>2.34</v>
+      </c>
+      <c r="AO72">
+        <v>1.22</v>
+      </c>
+      <c r="AP72">
+        <v>1.16</v>
+      </c>
+      <c r="AQ72">
+        <v>0</v>
+      </c>
+      <c r="AR72">
+        <v>3</v>
+      </c>
+      <c r="AS72">
+        <v>0</v>
+      </c>
+      <c r="AT72">
+        <v>3</v>
+      </c>
+      <c r="AU72">
+        <v>0</v>
+      </c>
+      <c r="AV72">
+        <v>0</v>
+      </c>
+      <c r="AW72">
+        <v>0</v>
+      </c>
+      <c r="AX72">
+        <v>3</v>
+      </c>
+      <c r="AY72">
+        <v>7</v>
+      </c>
+      <c r="AZ72">
+        <v>1.6</v>
+      </c>
+      <c r="BA72">
+        <v>1.29</v>
+      </c>
+      <c r="BB72">
+        <v>1.5</v>
+      </c>
+      <c r="BC72">
+        <v>1.8</v>
+      </c>
+      <c r="BD72">
+        <v>2.25</v>
+      </c>
+      <c r="BE72">
+        <v>2.8</v>
+      </c>
+      <c r="BF72">
+        <v>3</v>
+      </c>
+      <c r="BG72">
+        <v>12</v>
+      </c>
+      <c r="BH72">
+        <v>4</v>
+      </c>
+      <c r="BI72">
+        <v>7</v>
+      </c>
+      <c r="BJ72">
+        <v>7</v>
+      </c>
+      <c r="BK72">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="73" spans="1:63">
+      <c r="A73" s="1">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>7140074</v>
+      </c>
+      <c r="C73" t="s">
+        <v>63</v>
+      </c>
+      <c r="D73" t="s">
+        <v>64</v>
+      </c>
+      <c r="E73" s="2">
+        <v>45153.625</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73" t="s">
+        <v>99</v>
+      </c>
+      <c r="H73" t="s">
+        <v>114</v>
+      </c>
+      <c r="I73">
+        <v>1</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <v>1</v>
+      </c>
+      <c r="L73">
+        <v>1</v>
+      </c>
+      <c r="M73">
+        <v>2</v>
+      </c>
+      <c r="N73">
+        <v>3</v>
+      </c>
+      <c r="O73" t="s">
+        <v>166</v>
+      </c>
+      <c r="P73" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q73">
+        <v>6</v>
+      </c>
+      <c r="R73">
+        <v>12</v>
+      </c>
+      <c r="S73">
+        <v>18</v>
+      </c>
+      <c r="T73">
+        <v>2.78</v>
+      </c>
+      <c r="U73">
+        <v>2.06</v>
+      </c>
+      <c r="V73">
+        <v>4.05</v>
+      </c>
+      <c r="W73">
+        <v>1.44</v>
+      </c>
+      <c r="X73">
+        <v>2.55</v>
+      </c>
+      <c r="Y73">
+        <v>3</v>
+      </c>
+      <c r="Z73">
+        <v>1.33</v>
+      </c>
+      <c r="AA73">
+        <v>8.25</v>
+      </c>
+      <c r="AB73">
+        <v>1.06</v>
+      </c>
+      <c r="AC73">
+        <v>2</v>
+      </c>
+      <c r="AD73">
+        <v>3.25</v>
+      </c>
+      <c r="AE73">
+        <v>3.25</v>
+      </c>
+      <c r="AF73">
+        <v>1.07</v>
+      </c>
+      <c r="AG73">
+        <v>8</v>
+      </c>
+      <c r="AH73">
+        <v>1.35</v>
+      </c>
+      <c r="AI73">
+        <v>2.95</v>
+      </c>
+      <c r="AJ73">
+        <v>2</v>
+      </c>
+      <c r="AK73">
+        <v>1.7</v>
+      </c>
+      <c r="AL73">
+        <v>1.87</v>
+      </c>
+      <c r="AM73">
+        <v>1.87</v>
+      </c>
+      <c r="AN73">
+        <v>1.25</v>
+      </c>
+      <c r="AO73">
+        <v>1.35</v>
+      </c>
+      <c r="AP73">
+        <v>1.7</v>
+      </c>
+      <c r="AQ73">
+        <v>3</v>
+      </c>
+      <c r="AR73">
+        <v>0</v>
+      </c>
+      <c r="AS73">
+        <v>2</v>
+      </c>
+      <c r="AT73">
+        <v>3</v>
+      </c>
+      <c r="AU73">
+        <v>2.41</v>
+      </c>
+      <c r="AV73">
+        <v>0</v>
+      </c>
+      <c r="AW73">
+        <v>2.41</v>
+      </c>
+      <c r="AX73">
+        <v>1.95</v>
+      </c>
+      <c r="AY73">
+        <v>6</v>
+      </c>
+      <c r="AZ73">
+        <v>2.38</v>
+      </c>
+      <c r="BA73">
+        <v>1.64</v>
+      </c>
+      <c r="BB73">
+        <v>1.9</v>
+      </c>
+      <c r="BC73">
+        <v>2.9</v>
+      </c>
+      <c r="BD73">
+        <v>3.6</v>
+      </c>
+      <c r="BE73">
+        <v>5.3</v>
+      </c>
+      <c r="BF73">
+        <v>6</v>
+      </c>
+      <c r="BG73">
+        <v>8</v>
+      </c>
+      <c r="BH73">
+        <v>6</v>
+      </c>
+      <c r="BI73">
+        <v>2</v>
+      </c>
+      <c r="BJ73">
+        <v>12</v>
+      </c>
+      <c r="BK73">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" spans="1:63">
+      <c r="A74" s="1">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>7140075</v>
+      </c>
+      <c r="C74" t="s">
+        <v>63</v>
+      </c>
+      <c r="D74" t="s">
+        <v>64</v>
+      </c>
+      <c r="E74" s="2">
+        <v>45153.625</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74" t="s">
+        <v>106</v>
+      </c>
+      <c r="H74" t="s">
+        <v>71</v>
+      </c>
+      <c r="I74">
+        <v>1</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <v>1</v>
+      </c>
+      <c r="L74">
+        <v>1</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>1</v>
+      </c>
+      <c r="O74" t="s">
+        <v>167</v>
+      </c>
+      <c r="P74" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q74">
+        <v>5</v>
+      </c>
+      <c r="R74">
+        <v>6</v>
+      </c>
+      <c r="S74">
+        <v>11</v>
+      </c>
+      <c r="T74">
+        <v>1.72</v>
+      </c>
+      <c r="U74">
+        <v>2.64</v>
+      </c>
+      <c r="V74">
+        <v>7.95</v>
+      </c>
+      <c r="W74">
+        <v>1.28</v>
+      </c>
+      <c r="X74">
+        <v>3.48</v>
+      </c>
+      <c r="Y74">
+        <v>2.32</v>
+      </c>
+      <c r="Z74">
+        <v>1.57</v>
+      </c>
+      <c r="AA74">
+        <v>5.3</v>
+      </c>
+      <c r="AB74">
+        <v>1.14</v>
+      </c>
+      <c r="AC74">
+        <v>1.3</v>
+      </c>
+      <c r="AD74">
+        <v>4.6</v>
+      </c>
+      <c r="AE74">
+        <v>7</v>
+      </c>
+      <c r="AF74">
+        <v>1.03</v>
+      </c>
+      <c r="AG74">
+        <v>11</v>
+      </c>
+      <c r="AH74">
+        <v>1.16</v>
+      </c>
+      <c r="AI74">
+        <v>4.5</v>
+      </c>
+      <c r="AJ74">
+        <v>1.55</v>
+      </c>
+      <c r="AK74">
+        <v>2.3</v>
+      </c>
+      <c r="AL74">
+        <v>2.01</v>
+      </c>
+      <c r="AM74">
+        <v>1.76</v>
+      </c>
+      <c r="AN74">
+        <v>1.04</v>
+      </c>
+      <c r="AO74">
+        <v>1.14</v>
+      </c>
+      <c r="AP74">
+        <v>3.64</v>
+      </c>
+      <c r="AQ74">
+        <v>2.33</v>
+      </c>
+      <c r="AR74">
+        <v>2</v>
+      </c>
+      <c r="AS74">
+        <v>2.5</v>
+      </c>
+      <c r="AT74">
+        <v>1.67</v>
+      </c>
+      <c r="AU74">
+        <v>1.89</v>
+      </c>
+      <c r="AV74">
+        <v>1.93</v>
+      </c>
+      <c r="AW74">
+        <v>3.82</v>
+      </c>
+      <c r="AX74">
+        <v>1.15</v>
+      </c>
+      <c r="AY74">
+        <v>10</v>
+      </c>
+      <c r="AZ74">
+        <v>7.5</v>
+      </c>
+      <c r="BA74">
+        <v>1.17</v>
+      </c>
+      <c r="BB74">
+        <v>1.3</v>
+      </c>
+      <c r="BC74">
+        <v>1.48</v>
+      </c>
+      <c r="BD74">
+        <v>1.8</v>
+      </c>
+      <c r="BE74">
+        <v>2.27</v>
+      </c>
+      <c r="BF74">
+        <v>4</v>
+      </c>
+      <c r="BG74">
+        <v>2</v>
+      </c>
+      <c r="BH74">
+        <v>3</v>
+      </c>
+      <c r="BI74">
+        <v>3</v>
+      </c>
+      <c r="BJ74">
+        <v>7</v>
+      </c>
+      <c r="BK74">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:63">
+      <c r="A75" s="1">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>7140076</v>
+      </c>
+      <c r="C75" t="s">
+        <v>63</v>
+      </c>
+      <c r="D75" t="s">
+        <v>64</v>
+      </c>
+      <c r="E75" s="2">
+        <v>45153.64583333334</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75" t="s">
+        <v>100</v>
+      </c>
+      <c r="H75" t="s">
+        <v>109</v>
+      </c>
+      <c r="I75">
+        <v>1</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>1</v>
+      </c>
+      <c r="L75">
+        <v>1</v>
+      </c>
+      <c r="M75">
+        <v>1</v>
+      </c>
+      <c r="N75">
+        <v>2</v>
+      </c>
+      <c r="O75" t="s">
+        <v>134</v>
+      </c>
+      <c r="P75" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q75">
+        <v>9</v>
+      </c>
+      <c r="R75">
+        <v>3</v>
+      </c>
+      <c r="S75">
+        <v>12</v>
+      </c>
+      <c r="T75">
+        <v>3.96</v>
+      </c>
+      <c r="U75">
+        <v>2.26</v>
+      </c>
+      <c r="V75">
+        <v>2.56</v>
+      </c>
+      <c r="W75">
+        <v>1.33</v>
+      </c>
+      <c r="X75">
+        <v>3.16</v>
+      </c>
+      <c r="Y75">
+        <v>2.52</v>
+      </c>
+      <c r="Z75">
+        <v>1.49</v>
+      </c>
+      <c r="AA75">
+        <v>6.05</v>
+      </c>
+      <c r="AB75">
+        <v>1.11</v>
+      </c>
+      <c r="AC75">
+        <v>3.05</v>
+      </c>
+      <c r="AD75">
+        <v>3.4</v>
+      </c>
+      <c r="AE75">
+        <v>2</v>
+      </c>
+      <c r="AF75">
+        <v>1.05</v>
+      </c>
+      <c r="AG75">
+        <v>10.5</v>
+      </c>
+      <c r="AH75">
+        <v>1.25</v>
+      </c>
+      <c r="AI75">
+        <v>3.6</v>
+      </c>
+      <c r="AJ75">
+        <v>1.7</v>
+      </c>
+      <c r="AK75">
+        <v>2</v>
+      </c>
+      <c r="AL75">
+        <v>1.63</v>
+      </c>
+      <c r="AM75">
+        <v>2.22</v>
+      </c>
+      <c r="AN75">
+        <v>1.78</v>
+      </c>
+      <c r="AO75">
+        <v>1.28</v>
+      </c>
+      <c r="AP75">
+        <v>1.31</v>
+      </c>
+      <c r="AQ75">
+        <v>0.67</v>
+      </c>
+      <c r="AR75">
+        <v>3</v>
+      </c>
+      <c r="AS75">
+        <v>0.75</v>
+      </c>
+      <c r="AT75">
+        <v>2</v>
+      </c>
+      <c r="AU75">
+        <v>2.06</v>
+      </c>
+      <c r="AV75">
+        <v>0</v>
+      </c>
+      <c r="AW75">
+        <v>2.06</v>
+      </c>
+      <c r="AX75">
+        <v>2.25</v>
+      </c>
+      <c r="AY75">
+        <v>7</v>
+      </c>
+      <c r="AZ75">
+        <v>1.95</v>
+      </c>
+      <c r="BA75">
+        <v>1.29</v>
+      </c>
+      <c r="BB75">
+        <v>1.42</v>
+      </c>
+      <c r="BC75">
+        <v>1.73</v>
+      </c>
+      <c r="BD75">
+        <v>2</v>
+      </c>
+      <c r="BE75">
+        <v>2.95</v>
+      </c>
+      <c r="BF75">
+        <v>6</v>
+      </c>
+      <c r="BG75">
+        <v>5</v>
+      </c>
+      <c r="BH75">
+        <v>4</v>
+      </c>
+      <c r="BI75">
+        <v>8</v>
+      </c>
+      <c r="BJ75">
+        <v>10</v>
+      </c>
+      <c r="BK75">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="76" spans="1:63">
+      <c r="A76" s="1">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>7033846</v>
+      </c>
+      <c r="C76" t="s">
+        <v>63</v>
+      </c>
+      <c r="D76" t="s">
+        <v>64</v>
+      </c>
+      <c r="E76" s="2">
+        <v>45153.64583333334</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76" t="s">
+        <v>112</v>
+      </c>
+      <c r="H76" t="s">
+        <v>107</v>
+      </c>
+      <c r="I76">
+        <v>1</v>
+      </c>
+      <c r="J76">
+        <v>2</v>
+      </c>
+      <c r="K76">
+        <v>3</v>
+      </c>
+      <c r="L76">
+        <v>1</v>
+      </c>
+      <c r="M76">
+        <v>3</v>
+      </c>
+      <c r="N76">
+        <v>4</v>
+      </c>
+      <c r="O76" t="s">
+        <v>168</v>
+      </c>
+      <c r="P76" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q76">
+        <v>7</v>
+      </c>
+      <c r="R76">
+        <v>7</v>
+      </c>
+      <c r="S76">
+        <v>14</v>
+      </c>
+      <c r="T76">
+        <v>3.82</v>
+      </c>
+      <c r="U76">
+        <v>2.3</v>
+      </c>
+      <c r="V76">
+        <v>2.58</v>
+      </c>
+      <c r="W76">
+        <v>1.3</v>
+      </c>
+      <c r="X76">
+        <v>3.34</v>
+      </c>
+      <c r="Y76">
+        <v>2.41</v>
+      </c>
+      <c r="Z76">
+        <v>1.53</v>
+      </c>
+      <c r="AA76">
+        <v>5.65</v>
+      </c>
+      <c r="AB76">
+        <v>1.12</v>
+      </c>
+      <c r="AC76">
+        <v>3.1</v>
+      </c>
+      <c r="AD76">
+        <v>3.35</v>
+      </c>
+      <c r="AE76">
+        <v>2</v>
+      </c>
+      <c r="AF76">
+        <v>1.03</v>
+      </c>
+      <c r="AG76">
+        <v>12.5</v>
+      </c>
+      <c r="AH76">
+        <v>1.2</v>
+      </c>
+      <c r="AI76">
+        <v>4.2</v>
+      </c>
+      <c r="AJ76">
+        <v>1.62</v>
+      </c>
+      <c r="AK76">
+        <v>2.15</v>
+      </c>
+      <c r="AL76">
+        <v>1.56</v>
+      </c>
+      <c r="AM76">
+        <v>2.36</v>
+      </c>
+      <c r="AN76">
+        <v>1.75</v>
+      </c>
+      <c r="AO76">
+        <v>1.27</v>
+      </c>
+      <c r="AP76">
+        <v>1.33</v>
+      </c>
+      <c r="AQ76">
+        <v>0</v>
+      </c>
+      <c r="AR76">
+        <v>3</v>
+      </c>
+      <c r="AS76">
+        <v>0</v>
+      </c>
+      <c r="AT76">
+        <v>3</v>
+      </c>
+      <c r="AU76">
+        <v>0</v>
+      </c>
+      <c r="AV76">
+        <v>0</v>
+      </c>
+      <c r="AW76">
+        <v>0</v>
+      </c>
+      <c r="AX76">
+        <v>2.15</v>
+      </c>
+      <c r="AY76">
+        <v>7</v>
+      </c>
+      <c r="AZ76">
+        <v>2.05</v>
+      </c>
+      <c r="BA76">
+        <v>1.3</v>
+      </c>
+      <c r="BB76">
+        <v>1.5</v>
+      </c>
+      <c r="BC76">
+        <v>1.8</v>
+      </c>
+      <c r="BD76">
+        <v>2.25</v>
+      </c>
+      <c r="BE76">
+        <v>2.9</v>
+      </c>
+      <c r="BF76">
+        <v>4</v>
+      </c>
+      <c r="BG76">
+        <v>9</v>
+      </c>
+      <c r="BH76">
+        <v>7</v>
+      </c>
+      <c r="BI76">
+        <v>9</v>
+      </c>
+      <c r="BJ76">
+        <v>11</v>
+      </c>
+      <c r="BK76">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="77" spans="1:63">
+      <c r="A77" s="1">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>7133192</v>
+      </c>
+      <c r="C77" t="s">
+        <v>63</v>
+      </c>
+      <c r="D77" t="s">
+        <v>64</v>
+      </c>
+      <c r="E77" s="2">
+        <v>45153.66666666666</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77" t="s">
+        <v>113</v>
+      </c>
+      <c r="H77" t="s">
+        <v>102</v>
+      </c>
+      <c r="I77">
+        <v>2</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <v>2</v>
+      </c>
+      <c r="L77">
+        <v>2</v>
+      </c>
+      <c r="M77">
+        <v>1</v>
+      </c>
+      <c r="N77">
+        <v>3</v>
+      </c>
+      <c r="O77" t="s">
+        <v>169</v>
+      </c>
+      <c r="P77" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q77">
+        <v>10</v>
+      </c>
+      <c r="R77">
+        <v>7</v>
+      </c>
+      <c r="S77">
+        <v>17</v>
+      </c>
+      <c r="T77">
+        <v>2.12</v>
+      </c>
+      <c r="U77">
+        <v>2.26</v>
+      </c>
+      <c r="V77">
+        <v>5.86</v>
+      </c>
+      <c r="W77">
+        <v>1.37</v>
+      </c>
+      <c r="X77">
+        <v>2.96</v>
+      </c>
+      <c r="Y77">
+        <v>2.75</v>
+      </c>
+      <c r="Z77">
+        <v>1.42</v>
+      </c>
+      <c r="AA77">
+        <v>6.8</v>
+      </c>
+      <c r="AB77">
+        <v>1.09</v>
+      </c>
+      <c r="AC77">
+        <v>1.5</v>
+      </c>
+      <c r="AD77">
+        <v>3.85</v>
+      </c>
+      <c r="AE77">
+        <v>5.25</v>
+      </c>
+      <c r="AF77">
+        <v>1.01</v>
+      </c>
+      <c r="AG77">
+        <v>9.5</v>
+      </c>
+      <c r="AH77">
+        <v>1.26</v>
+      </c>
+      <c r="AI77">
+        <v>3.4</v>
+      </c>
+      <c r="AJ77">
+        <v>1.85</v>
+      </c>
+      <c r="AK77">
+        <v>1.85</v>
+      </c>
+      <c r="AL77">
+        <v>1.92</v>
+      </c>
+      <c r="AM77">
+        <v>1.84</v>
+      </c>
+      <c r="AN77">
+        <v>1.13</v>
+      </c>
+      <c r="AO77">
+        <v>1.23</v>
+      </c>
+      <c r="AP77">
+        <v>2.41</v>
+      </c>
+      <c r="AQ77">
+        <v>0</v>
+      </c>
+      <c r="AR77">
+        <v>2.33</v>
+      </c>
+      <c r="AS77">
+        <v>1.5</v>
+      </c>
+      <c r="AT77">
+        <v>1.75</v>
+      </c>
+      <c r="AU77">
+        <v>0</v>
+      </c>
+      <c r="AV77">
+        <v>1.18</v>
+      </c>
+      <c r="AW77">
+        <v>1.18</v>
+      </c>
+      <c r="AX77">
+        <v>1.25</v>
+      </c>
+      <c r="AY77">
+        <v>9</v>
+      </c>
+      <c r="AZ77">
+        <v>5.25</v>
+      </c>
+      <c r="BA77">
+        <v>1.32</v>
+      </c>
+      <c r="BB77">
+        <v>1.59</v>
+      </c>
+      <c r="BC77">
+        <v>2.07</v>
+      </c>
+      <c r="BD77">
+        <v>2.75</v>
+      </c>
+      <c r="BE77">
+        <v>3.3</v>
+      </c>
+      <c r="BF77">
+        <v>11</v>
+      </c>
+      <c r="BG77">
+        <v>4</v>
+      </c>
+      <c r="BH77">
+        <v>12</v>
+      </c>
+      <c r="BI77">
+        <v>4</v>
+      </c>
+      <c r="BJ77">
+        <v>23</v>
+      </c>
+      <c r="BK77">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Europe UEFA Champions League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Europe UEFA Champions League_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="222">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -310,12 +310,12 @@
     <t>Larne</t>
   </si>
   <si>
+    <t>Dinamo Zagreb</t>
+  </si>
+  <si>
     <t>Dnipro-1</t>
   </si>
   <si>
-    <t>Dinamo Zagreb</t>
-  </si>
-  <si>
     <t>Servette</t>
   </si>
   <si>
@@ -325,12 +325,12 @@
     <t>Panathinaikos</t>
   </si>
   <si>
+    <t>KRC Genk</t>
+  </si>
+  <si>
     <t>Molde</t>
   </si>
   <si>
-    <t>KRC Genk</t>
-  </si>
-  <si>
     <t>København</t>
   </si>
   <si>
@@ -430,12 +430,12 @@
     <t>['47', '90+1']</t>
   </si>
   <si>
+    <t>['35', '41', '43', '56']</t>
+  </si>
+  <si>
     <t>['90']</t>
   </si>
   <si>
-    <t>['35', '41', '43', '56']</t>
-  </si>
-  <si>
     <t>['77']</t>
   </si>
   <si>
@@ -454,30 +454,30 @@
     <t>['15', '69']</t>
   </si>
   <si>
+    <t>['18', '90+2']</t>
+  </si>
+  <si>
     <t>['25', '48', '90+3']</t>
   </si>
   <si>
-    <t>['18', '90+2']</t>
-  </si>
-  <si>
     <t>['5', '66']</t>
   </si>
   <si>
     <t>['60']</t>
   </si>
   <si>
+    <t>['24', '48', '105+1']</t>
+  </si>
+  <si>
+    <t>['28', '51']</t>
+  </si>
+  <si>
+    <t>['74', '89']</t>
+  </si>
+  <si>
     <t>['33', '85', '105+2', '107']</t>
   </si>
   <si>
-    <t>['74', '89']</t>
-  </si>
-  <si>
-    <t>['24', '48', '105+1']</t>
-  </si>
-  <si>
-    <t>['28', '51']</t>
-  </si>
-  <si>
     <t>['33', '35', '37', '45+1', '47', '56']</t>
   </si>
   <si>
@@ -502,30 +502,33 @@
     <t>['6', '15']</t>
   </si>
   <si>
+    <t>['17', '112']</t>
+  </si>
+  <si>
     <t>['29', '45+2', '90+3']</t>
   </si>
   <si>
-    <t>['17', '112']</t>
-  </si>
-  <si>
     <t>['80', '105', '107']</t>
   </si>
   <si>
     <t>['40']</t>
   </si>
   <si>
+    <t>['24']</t>
+  </si>
+  <si>
     <t>['39']</t>
   </si>
   <si>
-    <t>['24']</t>
-  </si>
-  <si>
     <t>['26']</t>
   </si>
   <si>
     <t>['2', '45+1']</t>
   </si>
   <si>
+    <t>['90+2', '90+11']</t>
+  </si>
+  <si>
     <t>['13', '21', '60']</t>
   </si>
   <si>
@@ -613,12 +616,12 @@
     <t>['23', '54']</t>
   </si>
   <si>
+    <t>['15']</t>
+  </si>
+  <si>
     <t>['8', '26', '35', '56', '74']</t>
   </si>
   <si>
-    <t>['15']</t>
-  </si>
-  <si>
     <t>['75', '90+3']</t>
   </si>
   <si>
@@ -628,15 +631,15 @@
     <t>['51']</t>
   </si>
   <si>
+    <t>['17', '52', '109']</t>
+  </si>
+  <si>
+    <t>['36', '63']</t>
+  </si>
+  <si>
     <t>['20']</t>
   </si>
   <si>
-    <t>['17', '52', '109']</t>
-  </si>
-  <si>
-    <t>['36', '63']</t>
-  </si>
-  <si>
     <t>['9', '51', '74']</t>
   </si>
   <si>
@@ -652,12 +655,12 @@
     <t>['5', '15']</t>
   </si>
   <si>
+    <t>['49']</t>
+  </si>
+  <si>
     <t>['85']</t>
   </si>
   <si>
-    <t>['49']</t>
-  </si>
-  <si>
     <t>['1', '105+3', '112']</t>
   </si>
   <si>
@@ -667,13 +670,16 @@
     <t>['59', '90']</t>
   </si>
   <si>
+    <t>['32', '39', '85']</t>
+  </si>
+  <si>
     <t>['50']</t>
   </si>
   <si>
-    <t>['32', '39', '85']</t>
-  </si>
-  <si>
     <t>['90+9']</t>
+  </si>
+  <si>
+    <t>['45+1', '65']</t>
   </si>
 </sst>
 </file>
@@ -1035,7 +1041,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK77"/>
+  <dimension ref="A1:BK78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1279,7 +1285,7 @@
         <v>115</v>
       </c>
       <c r="P2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q2">
         <v>2</v>
@@ -1470,7 +1476,7 @@
         <v>116</v>
       </c>
       <c r="P3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -1661,7 +1667,7 @@
         <v>115</v>
       </c>
       <c r="P4" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q4">
         <v>-1</v>
@@ -1852,7 +1858,7 @@
         <v>115</v>
       </c>
       <c r="P5" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q5">
         <v>2</v>
@@ -2043,7 +2049,7 @@
         <v>117</v>
       </c>
       <c r="P6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q6">
         <v>1</v>
@@ -2425,7 +2431,7 @@
         <v>118</v>
       </c>
       <c r="P8" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q8">
         <v>5</v>
@@ -2807,7 +2813,7 @@
         <v>115</v>
       </c>
       <c r="P10" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q10">
         <v>4</v>
@@ -3380,7 +3386,7 @@
         <v>121</v>
       </c>
       <c r="P13" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q13">
         <v>6</v>
@@ -3571,7 +3577,7 @@
         <v>115</v>
       </c>
       <c r="P14" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q14">
         <v>3</v>
@@ -3762,7 +3768,7 @@
         <v>122</v>
       </c>
       <c r="P15" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q15">
         <v>6</v>
@@ -4144,7 +4150,7 @@
         <v>124</v>
       </c>
       <c r="P17" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q17">
         <v>10</v>
@@ -4717,7 +4723,7 @@
         <v>126</v>
       </c>
       <c r="P20" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q20">
         <v>1</v>
@@ -4908,7 +4914,7 @@
         <v>115</v>
       </c>
       <c r="P21" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5481,7 +5487,7 @@
         <v>129</v>
       </c>
       <c r="P24" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q24">
         <v>1</v>
@@ -5863,7 +5869,7 @@
         <v>115</v>
       </c>
       <c r="P26" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q26">
         <v>0</v>
@@ -6054,7 +6060,7 @@
         <v>131</v>
       </c>
       <c r="P27" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q27">
         <v>4</v>
@@ -6245,7 +6251,7 @@
         <v>132</v>
       </c>
       <c r="P28" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q28">
         <v>1</v>
@@ -6436,7 +6442,7 @@
         <v>115</v>
       </c>
       <c r="P29" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q29">
         <v>12</v>
@@ -6818,7 +6824,7 @@
         <v>134</v>
       </c>
       <c r="P31" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q31">
         <v>6</v>
@@ -7009,7 +7015,7 @@
         <v>115</v>
       </c>
       <c r="P32" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q32">
         <v>8</v>
@@ -7391,7 +7397,7 @@
         <v>136</v>
       </c>
       <c r="P34" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q34">
         <v>8</v>
@@ -7540,7 +7546,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>6948867</v>
+        <v>6960585</v>
       </c>
       <c r="C35" t="s">
         <v>63</v>
@@ -7555,112 +7561,112 @@
         <v>0</v>
       </c>
       <c r="G35" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="H35" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35">
         <v>0</v>
       </c>
       <c r="K35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M35">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N35">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O35" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="P35" t="s">
-        <v>190</v>
+        <v>115</v>
       </c>
       <c r="Q35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R35">
+        <v>7</v>
+      </c>
+      <c r="S35">
+        <v>9</v>
+      </c>
+      <c r="T35">
+        <v>4.2</v>
+      </c>
+      <c r="U35">
+        <v>2</v>
+      </c>
+      <c r="V35">
+        <v>2.65</v>
+      </c>
+      <c r="W35">
+        <v>1.47</v>
+      </c>
+      <c r="X35">
+        <v>2.5</v>
+      </c>
+      <c r="Y35">
+        <v>3.15</v>
+      </c>
+      <c r="Z35">
+        <v>1.32</v>
+      </c>
+      <c r="AA35">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="AB35">
+        <v>1.04</v>
+      </c>
+      <c r="AC35">
+        <v>4.5</v>
+      </c>
+      <c r="AD35">
+        <v>3.7</v>
+      </c>
+      <c r="AE35">
+        <v>1.77</v>
+      </c>
+      <c r="AF35">
+        <v>1.06</v>
+      </c>
+      <c r="AG35">
         <v>8</v>
       </c>
-      <c r="S35">
-        <v>11</v>
-      </c>
-      <c r="T35">
-        <v>5.6</v>
-      </c>
-      <c r="U35">
-        <v>2.31</v>
-      </c>
-      <c r="V35">
-        <v>2.11</v>
-      </c>
-      <c r="W35">
-        <v>1.35</v>
-      </c>
-      <c r="X35">
-        <v>3.05</v>
-      </c>
-      <c r="Y35">
-        <v>2.61</v>
-      </c>
-      <c r="Z35">
-        <v>1.46</v>
-      </c>
-      <c r="AA35">
-        <v>6.4</v>
-      </c>
-      <c r="AB35">
-        <v>1.1</v>
-      </c>
-      <c r="AC35">
-        <v>5</v>
-      </c>
-      <c r="AD35">
-        <v>4</v>
-      </c>
-      <c r="AE35">
-        <v>1.63</v>
-      </c>
-      <c r="AF35">
-        <v>1.05</v>
-      </c>
-      <c r="AG35">
-        <v>9.75</v>
-      </c>
       <c r="AH35">
-        <v>1.28</v>
+        <v>1.38</v>
       </c>
       <c r="AI35">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="AJ35">
-        <v>1.93</v>
+        <v>2.06</v>
       </c>
       <c r="AK35">
-        <v>1.88</v>
+        <v>1.77</v>
       </c>
       <c r="AL35">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="AM35">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="AN35">
-        <v>2.41</v>
+        <v>1.78</v>
       </c>
       <c r="AO35">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="AP35">
-        <v>1.14</v>
+        <v>1.25</v>
       </c>
       <c r="AQ35">
         <v>2</v>
@@ -7669,61 +7675,61 @@
         <v>0</v>
       </c>
       <c r="AS35">
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
       <c r="AT35">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="AU35">
-        <v>1.51</v>
+        <v>1.26</v>
       </c>
       <c r="AV35">
         <v>0</v>
       </c>
       <c r="AW35">
-        <v>1.51</v>
+        <v>1.26</v>
       </c>
       <c r="AX35">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="AY35">
         <v>8</v>
       </c>
       <c r="AZ35">
-        <v>1.38</v>
+        <v>1.45</v>
       </c>
       <c r="BA35">
         <v>1.18</v>
       </c>
       <c r="BB35">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="BC35">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="BD35">
-        <v>2.03</v>
+        <v>1.94</v>
       </c>
       <c r="BE35">
-        <v>2.62</v>
+        <v>2.5</v>
       </c>
       <c r="BF35">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BG35">
+        <v>6</v>
+      </c>
+      <c r="BH35">
+        <v>3</v>
+      </c>
+      <c r="BI35">
+        <v>5</v>
+      </c>
+      <c r="BJ35">
         <v>8</v>
       </c>
-      <c r="BH35">
-        <v>6</v>
-      </c>
-      <c r="BI35">
-        <v>16</v>
-      </c>
-      <c r="BJ35">
-        <v>13</v>
-      </c>
       <c r="BK35">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36" spans="1:63">
@@ -7731,7 +7737,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>6960585</v>
+        <v>6948867</v>
       </c>
       <c r="C36" t="s">
         <v>63</v>
@@ -7746,175 +7752,175 @@
         <v>0</v>
       </c>
       <c r="G36" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="H36" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="I36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36">
         <v>0</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M36">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N36">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O36" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="P36" t="s">
-        <v>115</v>
+        <v>191</v>
       </c>
       <c r="Q36">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R36">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="S36">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="T36">
-        <v>4.2</v>
+        <v>5.6</v>
       </c>
       <c r="U36">
-        <v>2</v>
+        <v>2.31</v>
       </c>
       <c r="V36">
-        <v>2.65</v>
+        <v>2.11</v>
       </c>
       <c r="W36">
-        <v>1.47</v>
+        <v>1.35</v>
       </c>
       <c r="X36">
+        <v>3.05</v>
+      </c>
+      <c r="Y36">
+        <v>2.61</v>
+      </c>
+      <c r="Z36">
+        <v>1.46</v>
+      </c>
+      <c r="AA36">
+        <v>6.4</v>
+      </c>
+      <c r="AB36">
+        <v>1.1</v>
+      </c>
+      <c r="AC36">
+        <v>5</v>
+      </c>
+      <c r="AD36">
+        <v>4</v>
+      </c>
+      <c r="AE36">
+        <v>1.63</v>
+      </c>
+      <c r="AF36">
+        <v>1.05</v>
+      </c>
+      <c r="AG36">
+        <v>9.75</v>
+      </c>
+      <c r="AH36">
+        <v>1.28</v>
+      </c>
+      <c r="AI36">
+        <v>3.4</v>
+      </c>
+      <c r="AJ36">
+        <v>1.93</v>
+      </c>
+      <c r="AK36">
+        <v>1.88</v>
+      </c>
+      <c r="AL36">
+        <v>1.85</v>
+      </c>
+      <c r="AM36">
+        <v>1.91</v>
+      </c>
+      <c r="AN36">
+        <v>2.41</v>
+      </c>
+      <c r="AO36">
+        <v>1.22</v>
+      </c>
+      <c r="AP36">
+        <v>1.14</v>
+      </c>
+      <c r="AQ36">
+        <v>2</v>
+      </c>
+      <c r="AR36">
+        <v>0</v>
+      </c>
+      <c r="AS36">
+        <v>1.25</v>
+      </c>
+      <c r="AT36">
         <v>2.5</v>
       </c>
-      <c r="Y36">
-        <v>3.15</v>
-      </c>
-      <c r="Z36">
-        <v>1.32</v>
-      </c>
-      <c r="AA36">
-        <v>8.449999999999999</v>
-      </c>
-      <c r="AB36">
-        <v>1.04</v>
-      </c>
-      <c r="AC36">
-        <v>4.5</v>
-      </c>
-      <c r="AD36">
-        <v>3.7</v>
-      </c>
-      <c r="AE36">
-        <v>1.77</v>
-      </c>
-      <c r="AF36">
-        <v>1.06</v>
-      </c>
-      <c r="AG36">
-        <v>8</v>
-      </c>
-      <c r="AH36">
-        <v>1.38</v>
-      </c>
-      <c r="AI36">
-        <v>2.9</v>
-      </c>
-      <c r="AJ36">
-        <v>2.06</v>
-      </c>
-      <c r="AK36">
-        <v>1.77</v>
-      </c>
-      <c r="AL36">
-        <v>1.95</v>
-      </c>
-      <c r="AM36">
-        <v>1.8</v>
-      </c>
-      <c r="AN36">
-        <v>1.78</v>
-      </c>
-      <c r="AO36">
-        <v>1.25</v>
-      </c>
-      <c r="AP36">
-        <v>1.25</v>
-      </c>
-      <c r="AQ36">
-        <v>2</v>
-      </c>
-      <c r="AR36">
-        <v>0</v>
-      </c>
-      <c r="AS36">
-        <v>1.75</v>
-      </c>
-      <c r="AT36">
-        <v>1.5</v>
-      </c>
       <c r="AU36">
-        <v>1.26</v>
+        <v>1.51</v>
       </c>
       <c r="AV36">
         <v>0</v>
       </c>
       <c r="AW36">
-        <v>1.26</v>
+        <v>1.51</v>
       </c>
       <c r="AX36">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="AY36">
         <v>8</v>
       </c>
       <c r="AZ36">
-        <v>1.45</v>
+        <v>1.38</v>
       </c>
       <c r="BA36">
         <v>1.18</v>
       </c>
       <c r="BB36">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="BC36">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="BD36">
-        <v>1.94</v>
+        <v>2.03</v>
       </c>
       <c r="BE36">
-        <v>2.5</v>
+        <v>2.62</v>
       </c>
       <c r="BF36">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BG36">
+        <v>8</v>
+      </c>
+      <c r="BH36">
         <v>6</v>
       </c>
-      <c r="BH36">
-        <v>3</v>
-      </c>
       <c r="BI36">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="BJ36">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="BK36">
-        <v>11</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37" spans="1:63">
@@ -7922,7 +7928,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>6534690</v>
+        <v>6960586</v>
       </c>
       <c r="C37" t="s">
         <v>63</v>
@@ -7940,22 +7946,22 @@
         <v>98</v>
       </c>
       <c r="H37" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L37">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M37">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N37">
         <v>4</v>
@@ -7964,148 +7970,148 @@
         <v>138</v>
       </c>
       <c r="P37" t="s">
-        <v>191</v>
+        <v>115</v>
       </c>
       <c r="Q37">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="R37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S37">
+        <v>18</v>
+      </c>
+      <c r="T37">
+        <v>2.1</v>
+      </c>
+      <c r="U37">
+        <v>2.28</v>
+      </c>
+      <c r="V37">
+        <v>5.86</v>
+      </c>
+      <c r="W37">
+        <v>1.37</v>
+      </c>
+      <c r="X37">
+        <v>2.96</v>
+      </c>
+      <c r="Y37">
+        <v>2.71</v>
+      </c>
+      <c r="Z37">
+        <v>1.43</v>
+      </c>
+      <c r="AA37">
+        <v>6.75</v>
+      </c>
+      <c r="AB37">
+        <v>1.09</v>
+      </c>
+      <c r="AC37">
+        <v>1.42</v>
+      </c>
+      <c r="AD37">
+        <v>4.33</v>
+      </c>
+      <c r="AE37">
+        <v>7.5</v>
+      </c>
+      <c r="AF37">
+        <v>1.05</v>
+      </c>
+      <c r="AG37">
+        <v>9.75</v>
+      </c>
+      <c r="AH37">
+        <v>1.28</v>
+      </c>
+      <c r="AI37">
+        <v>3.4</v>
+      </c>
+      <c r="AJ37">
+        <v>1.9</v>
+      </c>
+      <c r="AK37">
+        <v>1.85</v>
+      </c>
+      <c r="AL37">
+        <v>1.92</v>
+      </c>
+      <c r="AM37">
+        <v>1.84</v>
+      </c>
+      <c r="AN37">
+        <v>1.12</v>
+      </c>
+      <c r="AO37">
+        <v>1.23</v>
+      </c>
+      <c r="AP37">
+        <v>2.46</v>
+      </c>
+      <c r="AQ37">
+        <v>0</v>
+      </c>
+      <c r="AR37">
+        <v>2</v>
+      </c>
+      <c r="AS37">
+        <v>1.75</v>
+      </c>
+      <c r="AT37">
+        <v>1</v>
+      </c>
+      <c r="AU37">
+        <v>0</v>
+      </c>
+      <c r="AV37">
+        <v>1.86</v>
+      </c>
+      <c r="AW37">
+        <v>1.86</v>
+      </c>
+      <c r="AX37">
+        <v>1.3</v>
+      </c>
+      <c r="AY37">
+        <v>8</v>
+      </c>
+      <c r="AZ37">
+        <v>4.75</v>
+      </c>
+      <c r="BA37">
+        <v>1.44</v>
+      </c>
+      <c r="BB37">
+        <v>1.9</v>
+      </c>
+      <c r="BC37">
+        <v>2.45</v>
+      </c>
+      <c r="BD37">
+        <v>3.4</v>
+      </c>
+      <c r="BE37">
+        <v>4.8</v>
+      </c>
+      <c r="BF37">
+        <v>10</v>
+      </c>
+      <c r="BG37">
+        <v>0</v>
+      </c>
+      <c r="BH37">
+        <v>5</v>
+      </c>
+      <c r="BI37">
         <v>6</v>
       </c>
-      <c r="T37">
-        <v>3.65</v>
-      </c>
-      <c r="U37">
-        <v>1.98</v>
-      </c>
-      <c r="V37">
-        <v>3.15</v>
-      </c>
-      <c r="W37">
-        <v>1.43</v>
-      </c>
-      <c r="X37">
-        <v>2.6</v>
-      </c>
-      <c r="Y37">
-        <v>3.3</v>
-      </c>
-      <c r="Z37">
-        <v>1.28</v>
-      </c>
-      <c r="AA37">
-        <v>9.5</v>
-      </c>
-      <c r="AB37">
-        <v>1.04</v>
-      </c>
-      <c r="AC37">
-        <v>3.4</v>
-      </c>
-      <c r="AD37">
-        <v>3.1</v>
-      </c>
-      <c r="AE37">
-        <v>2.1</v>
-      </c>
-      <c r="AF37">
-        <v>1.07</v>
-      </c>
-      <c r="AG37">
-        <v>8</v>
-      </c>
-      <c r="AH37">
-        <v>1.36</v>
-      </c>
-      <c r="AI37">
-        <v>2.95</v>
-      </c>
-      <c r="AJ37">
-        <v>2.1</v>
-      </c>
-      <c r="AK37">
-        <v>1.68</v>
-      </c>
-      <c r="AL37">
-        <v>1.87</v>
-      </c>
-      <c r="AM37">
-        <v>1.85</v>
-      </c>
-      <c r="AN37">
-        <v>1.5</v>
-      </c>
-      <c r="AO37">
-        <v>1.33</v>
-      </c>
-      <c r="AP37">
-        <v>1.35</v>
-      </c>
-      <c r="AQ37">
-        <v>0</v>
-      </c>
-      <c r="AR37">
-        <v>0</v>
-      </c>
-      <c r="AS37">
-        <v>0.5</v>
-      </c>
-      <c r="AT37">
-        <v>1.75</v>
-      </c>
-      <c r="AU37">
-        <v>0</v>
-      </c>
-      <c r="AV37">
-        <v>0</v>
-      </c>
-      <c r="AW37">
-        <v>0</v>
-      </c>
-      <c r="AX37">
-        <v>2.4</v>
-      </c>
-      <c r="AY37">
-        <v>7</v>
-      </c>
-      <c r="AZ37">
-        <v>1.85</v>
-      </c>
-      <c r="BA37">
-        <v>1.32</v>
-      </c>
-      <c r="BB37">
-        <v>1.6</v>
-      </c>
-      <c r="BC37">
-        <v>2.05</v>
-      </c>
-      <c r="BD37">
-        <v>2.8</v>
-      </c>
-      <c r="BE37">
-        <v>4</v>
-      </c>
-      <c r="BF37">
-        <v>4</v>
-      </c>
-      <c r="BG37">
-        <v>4</v>
-      </c>
-      <c r="BH37">
-        <v>7</v>
-      </c>
-      <c r="BI37">
-        <v>4</v>
-      </c>
       <c r="BJ37">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="BK37">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:63">
@@ -8113,7 +8119,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>6960586</v>
+        <v>6534690</v>
       </c>
       <c r="C38" t="s">
         <v>63</v>
@@ -8131,22 +8137,22 @@
         <v>99</v>
       </c>
       <c r="H38" t="s">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="I38">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K38">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L38">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M38">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N38">
         <v>4</v>
@@ -8155,148 +8161,148 @@
         <v>139</v>
       </c>
       <c r="P38" t="s">
-        <v>115</v>
+        <v>192</v>
       </c>
       <c r="Q38">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="R38">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S38">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="T38">
+        <v>3.65</v>
+      </c>
+      <c r="U38">
+        <v>1.98</v>
+      </c>
+      <c r="V38">
+        <v>3.15</v>
+      </c>
+      <c r="W38">
+        <v>1.43</v>
+      </c>
+      <c r="X38">
+        <v>2.6</v>
+      </c>
+      <c r="Y38">
+        <v>3.3</v>
+      </c>
+      <c r="Z38">
+        <v>1.28</v>
+      </c>
+      <c r="AA38">
+        <v>9.5</v>
+      </c>
+      <c r="AB38">
+        <v>1.04</v>
+      </c>
+      <c r="AC38">
+        <v>3.4</v>
+      </c>
+      <c r="AD38">
+        <v>3.1</v>
+      </c>
+      <c r="AE38">
         <v>2.1</v>
       </c>
-      <c r="U38">
-        <v>2.28</v>
-      </c>
-      <c r="V38">
-        <v>5.86</v>
-      </c>
-      <c r="W38">
-        <v>1.37</v>
-      </c>
-      <c r="X38">
-        <v>2.96</v>
-      </c>
-      <c r="Y38">
-        <v>2.71</v>
-      </c>
-      <c r="Z38">
-        <v>1.43</v>
-      </c>
-      <c r="AA38">
-        <v>6.75</v>
-      </c>
-      <c r="AB38">
-        <v>1.09</v>
-      </c>
-      <c r="AC38">
-        <v>1.42</v>
-      </c>
-      <c r="AD38">
-        <v>4.33</v>
-      </c>
-      <c r="AE38">
-        <v>7.5</v>
-      </c>
       <c r="AF38">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="AG38">
-        <v>9.75</v>
+        <v>8</v>
       </c>
       <c r="AH38">
-        <v>1.28</v>
+        <v>1.36</v>
       </c>
       <c r="AI38">
-        <v>3.4</v>
+        <v>2.95</v>
       </c>
       <c r="AJ38">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="AK38">
+        <v>1.68</v>
+      </c>
+      <c r="AL38">
+        <v>1.87</v>
+      </c>
+      <c r="AM38">
         <v>1.85</v>
       </c>
-      <c r="AL38">
-        <v>1.92</v>
-      </c>
-      <c r="AM38">
-        <v>1.84</v>
-      </c>
       <c r="AN38">
-        <v>1.12</v>
+        <v>1.5</v>
       </c>
       <c r="AO38">
-        <v>1.23</v>
+        <v>1.33</v>
       </c>
       <c r="AP38">
-        <v>2.46</v>
+        <v>1.35</v>
       </c>
       <c r="AQ38">
         <v>0</v>
       </c>
       <c r="AR38">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AS38">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="AT38">
-        <v>1</v>
+        <v>1.75</v>
       </c>
       <c r="AU38">
         <v>0</v>
       </c>
       <c r="AV38">
-        <v>1.86</v>
+        <v>0</v>
       </c>
       <c r="AW38">
-        <v>1.86</v>
+        <v>0</v>
       </c>
       <c r="AX38">
-        <v>1.3</v>
+        <v>2.4</v>
       </c>
       <c r="AY38">
+        <v>7</v>
+      </c>
+      <c r="AZ38">
+        <v>1.85</v>
+      </c>
+      <c r="BA38">
+        <v>1.32</v>
+      </c>
+      <c r="BB38">
+        <v>1.6</v>
+      </c>
+      <c r="BC38">
+        <v>2.05</v>
+      </c>
+      <c r="BD38">
+        <v>2.8</v>
+      </c>
+      <c r="BE38">
+        <v>4</v>
+      </c>
+      <c r="BF38">
+        <v>4</v>
+      </c>
+      <c r="BG38">
+        <v>4</v>
+      </c>
+      <c r="BH38">
+        <v>7</v>
+      </c>
+      <c r="BI38">
+        <v>4</v>
+      </c>
+      <c r="BJ38">
+        <v>11</v>
+      </c>
+      <c r="BK38">
         <v>8</v>
-      </c>
-      <c r="AZ38">
-        <v>4.75</v>
-      </c>
-      <c r="BA38">
-        <v>1.44</v>
-      </c>
-      <c r="BB38">
-        <v>1.9</v>
-      </c>
-      <c r="BC38">
-        <v>2.45</v>
-      </c>
-      <c r="BD38">
-        <v>3.4</v>
-      </c>
-      <c r="BE38">
-        <v>4.8</v>
-      </c>
-      <c r="BF38">
-        <v>10</v>
-      </c>
-      <c r="BG38">
-        <v>0</v>
-      </c>
-      <c r="BH38">
-        <v>5</v>
-      </c>
-      <c r="BI38">
-        <v>6</v>
-      </c>
-      <c r="BJ38">
-        <v>15</v>
-      </c>
-      <c r="BK38">
-        <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:63">
@@ -8322,7 +8328,7 @@
         <v>100</v>
       </c>
       <c r="H39" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I39">
         <v>0</v>
@@ -8346,7 +8352,7 @@
         <v>140</v>
       </c>
       <c r="P39" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q39">
         <v>5</v>
@@ -8537,7 +8543,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q40">
         <v>6</v>
@@ -8728,7 +8734,7 @@
         <v>115</v>
       </c>
       <c r="P41" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q41">
         <v>7</v>
@@ -9110,7 +9116,7 @@
         <v>142</v>
       </c>
       <c r="P43" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q43">
         <v>7</v>
@@ -9301,7 +9307,7 @@
         <v>143</v>
       </c>
       <c r="P44" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q44">
         <v>3</v>
@@ -9450,7 +9456,7 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>6960589</v>
+        <v>6960591</v>
       </c>
       <c r="C45" t="s">
         <v>63</v>
@@ -9465,175 +9471,175 @@
         <v>0</v>
       </c>
       <c r="G45" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="H45" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="I45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O45" t="s">
-        <v>144</v>
+        <v>115</v>
       </c>
       <c r="P45" t="s">
-        <v>197</v>
+        <v>115</v>
       </c>
       <c r="Q45">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R45">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="S45">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="T45">
-        <v>2.3</v>
+        <v>4.75</v>
       </c>
       <c r="U45">
         <v>2.1</v>
       </c>
       <c r="V45">
-        <v>4.6</v>
+        <v>2.35</v>
       </c>
       <c r="W45">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="X45">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="Y45">
-        <v>2.8</v>
+        <v>3.05</v>
       </c>
       <c r="Z45">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="AA45">
-        <v>7.25</v>
+        <v>8</v>
       </c>
       <c r="AB45">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="AC45">
-        <v>1.63</v>
+        <v>4.63</v>
       </c>
       <c r="AD45">
-        <v>3.65</v>
+        <v>3.42</v>
       </c>
       <c r="AE45">
-        <v>6.1</v>
+        <v>1.85</v>
       </c>
       <c r="AF45">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="AG45">
-        <v>9.25</v>
+        <v>8.25</v>
       </c>
       <c r="AH45">
-        <v>1.31</v>
+        <v>1.36</v>
       </c>
       <c r="AI45">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="AJ45">
-        <v>1.85</v>
+        <v>2.09</v>
       </c>
       <c r="AK45">
-        <v>1.85</v>
+        <v>1.66</v>
       </c>
       <c r="AL45">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AM45">
         <v>1.8</v>
       </c>
       <c r="AN45">
-        <v>1.19</v>
+        <v>2</v>
       </c>
       <c r="AO45">
-        <v>1.26</v>
+        <v>1.22</v>
       </c>
       <c r="AP45">
-        <v>2.05</v>
+        <v>1.18</v>
       </c>
       <c r="AQ45">
+        <v>2</v>
+      </c>
+      <c r="AR45">
+        <v>3</v>
+      </c>
+      <c r="AS45">
         <v>1.5</v>
       </c>
-      <c r="AR45">
-        <v>3</v>
-      </c>
-      <c r="AS45">
-        <v>1</v>
-      </c>
       <c r="AT45">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AU45">
-        <v>2.27</v>
+        <v>1.48</v>
       </c>
       <c r="AV45">
-        <v>2.37</v>
+        <v>1.32</v>
       </c>
       <c r="AW45">
-        <v>4.64</v>
+        <v>2.8</v>
       </c>
       <c r="AX45">
-        <v>1.3</v>
+        <v>3.75</v>
       </c>
       <c r="AY45">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="AZ45">
-        <v>4.5</v>
+        <v>1.43</v>
       </c>
       <c r="BA45">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="BB45">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="BC45">
         <v>1.75</v>
       </c>
       <c r="BD45">
-        <v>2.23</v>
+        <v>2.25</v>
       </c>
       <c r="BE45">
         <v>3</v>
       </c>
       <c r="BF45">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="BG45">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BH45">
+        <v>3</v>
+      </c>
+      <c r="BI45">
         <v>5</v>
       </c>
-      <c r="BI45">
-        <v>9</v>
-      </c>
       <c r="BJ45">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="BK45">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46" spans="1:63">
@@ -9641,7 +9647,7 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>6960591</v>
+        <v>6960589</v>
       </c>
       <c r="C46" t="s">
         <v>63</v>
@@ -9656,175 +9662,175 @@
         <v>0</v>
       </c>
       <c r="G46" t="s">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="H46" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="I46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K46">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N46">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O46" t="s">
-        <v>115</v>
+        <v>144</v>
       </c>
       <c r="P46" t="s">
-        <v>115</v>
+        <v>198</v>
       </c>
       <c r="Q46">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R46">
+        <v>3</v>
+      </c>
+      <c r="S46">
         <v>6</v>
       </c>
-      <c r="S46">
-        <v>11</v>
-      </c>
       <c r="T46">
-        <v>4.75</v>
+        <v>2.3</v>
       </c>
       <c r="U46">
         <v>2.1</v>
       </c>
       <c r="V46">
-        <v>2.35</v>
+        <v>4.6</v>
       </c>
       <c r="W46">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="X46">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="Y46">
-        <v>3.05</v>
+        <v>2.8</v>
       </c>
       <c r="Z46">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="AA46">
-        <v>8</v>
+        <v>7.25</v>
       </c>
       <c r="AB46">
+        <v>1.08</v>
+      </c>
+      <c r="AC46">
+        <v>1.63</v>
+      </c>
+      <c r="AD46">
+        <v>3.65</v>
+      </c>
+      <c r="AE46">
+        <v>6.1</v>
+      </c>
+      <c r="AF46">
         <v>1.06</v>
       </c>
-      <c r="AC46">
-        <v>4.63</v>
-      </c>
-      <c r="AD46">
-        <v>3.42</v>
-      </c>
-      <c r="AE46">
+      <c r="AG46">
+        <v>9.25</v>
+      </c>
+      <c r="AH46">
+        <v>1.31</v>
+      </c>
+      <c r="AI46">
+        <v>3.2</v>
+      </c>
+      <c r="AJ46">
         <v>1.85</v>
       </c>
-      <c r="AF46">
-        <v>1.07</v>
-      </c>
-      <c r="AG46">
-        <v>8.25</v>
-      </c>
-      <c r="AH46">
-        <v>1.36</v>
-      </c>
-      <c r="AI46">
-        <v>3</v>
-      </c>
-      <c r="AJ46">
-        <v>2.09</v>
-      </c>
       <c r="AK46">
-        <v>1.66</v>
+        <v>1.85</v>
       </c>
       <c r="AL46">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AM46">
         <v>1.8</v>
       </c>
       <c r="AN46">
-        <v>2</v>
+        <v>1.19</v>
       </c>
       <c r="AO46">
+        <v>1.26</v>
+      </c>
+      <c r="AP46">
+        <v>2.05</v>
+      </c>
+      <c r="AQ46">
+        <v>1.5</v>
+      </c>
+      <c r="AR46">
+        <v>3</v>
+      </c>
+      <c r="AS46">
+        <v>1</v>
+      </c>
+      <c r="AT46">
+        <v>1.67</v>
+      </c>
+      <c r="AU46">
+        <v>2.27</v>
+      </c>
+      <c r="AV46">
+        <v>2.37</v>
+      </c>
+      <c r="AW46">
+        <v>4.64</v>
+      </c>
+      <c r="AX46">
+        <v>1.3</v>
+      </c>
+      <c r="AY46">
+        <v>9</v>
+      </c>
+      <c r="AZ46">
+        <v>4.5</v>
+      </c>
+      <c r="BA46">
         <v>1.22</v>
       </c>
-      <c r="AP46">
-        <v>1.18</v>
-      </c>
-      <c r="AQ46">
-        <v>2</v>
-      </c>
-      <c r="AR46">
-        <v>3</v>
-      </c>
-      <c r="AS46">
-        <v>1.5</v>
-      </c>
-      <c r="AT46">
-        <v>2</v>
-      </c>
-      <c r="AU46">
-        <v>1.48</v>
-      </c>
-      <c r="AV46">
-        <v>1.32</v>
-      </c>
-      <c r="AW46">
-        <v>2.8</v>
-      </c>
-      <c r="AX46">
-        <v>3.75</v>
-      </c>
-      <c r="AY46">
-        <v>7.5</v>
-      </c>
-      <c r="AZ46">
-        <v>1.43</v>
-      </c>
-      <c r="BA46">
-        <v>1.21</v>
-      </c>
       <c r="BB46">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="BC46">
         <v>1.75</v>
       </c>
       <c r="BD46">
-        <v>2.25</v>
+        <v>2.23</v>
       </c>
       <c r="BE46">
         <v>3</v>
       </c>
       <c r="BF46">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="BG46">
+        <v>3</v>
+      </c>
+      <c r="BH46">
         <v>5</v>
       </c>
-      <c r="BH46">
-        <v>3</v>
-      </c>
       <c r="BI46">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BJ46">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="BK46">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" spans="1:63">
@@ -9850,7 +9856,7 @@
         <v>102</v>
       </c>
       <c r="H47" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I47">
         <v>1</v>
@@ -9874,7 +9880,7 @@
         <v>145</v>
       </c>
       <c r="P47" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q47">
         <v>6</v>
@@ -10023,7 +10029,7 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>6960593</v>
+        <v>6960592</v>
       </c>
       <c r="C48" t="s">
         <v>63</v>
@@ -10038,163 +10044,163 @@
         <v>0</v>
       </c>
       <c r="G48" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="H48" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="I48">
         <v>1</v>
       </c>
       <c r="J48">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K48">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L48">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M48">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N48">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="O48" t="s">
         <v>146</v>
       </c>
       <c r="P48" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q48">
+        <v>11</v>
+      </c>
+      <c r="R48">
         <v>7</v>
       </c>
-      <c r="R48">
-        <v>4</v>
-      </c>
       <c r="S48">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="T48">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="U48">
         <v>2.1</v>
       </c>
       <c r="V48">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="W48">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="X48">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="Y48">
-        <v>2.75</v>
+        <v>2.95</v>
       </c>
       <c r="Z48">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="AA48">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="AB48">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="AC48">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="AD48">
-        <v>3.45</v>
+        <v>3.25</v>
       </c>
       <c r="AE48">
-        <v>1.93</v>
+        <v>2.25</v>
       </c>
       <c r="AF48">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AG48">
-        <v>0</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AH48">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="AI48">
-        <v>0</v>
+        <v>3.04</v>
       </c>
       <c r="AJ48">
-        <v>1.94</v>
+        <v>2.06</v>
       </c>
       <c r="AK48">
-        <v>1.79</v>
+        <v>1.7</v>
       </c>
       <c r="AL48">
         <v>1.83</v>
       </c>
       <c r="AM48">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="AN48">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="AO48">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AP48">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AQ48">
+        <v>2.33</v>
+      </c>
+      <c r="AR48">
         <v>1.33</v>
       </c>
-      <c r="AR48">
-        <v>3</v>
-      </c>
       <c r="AS48">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AT48">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AU48">
-        <v>0.65</v>
+        <v>2.56</v>
       </c>
       <c r="AV48">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="AW48">
-        <v>0.65</v>
+        <v>4.35</v>
       </c>
       <c r="AX48">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AY48">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AZ48">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="BA48">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="BB48">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="BC48">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="BD48">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="BE48">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="BF48">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BG48">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="BH48">
         <v>4</v>
@@ -10203,10 +10209,10 @@
         <v>4</v>
       </c>
       <c r="BJ48">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BK48">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49" spans="1:63">
@@ -10214,7 +10220,7 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>6960592</v>
+        <v>6960593</v>
       </c>
       <c r="C49" t="s">
         <v>63</v>
@@ -10229,163 +10235,163 @@
         <v>0</v>
       </c>
       <c r="G49" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="H49" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="I49">
         <v>1</v>
       </c>
       <c r="J49">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K49">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L49">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M49">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N49">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="O49" t="s">
         <v>147</v>
       </c>
       <c r="P49" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q49">
+        <v>7</v>
+      </c>
+      <c r="R49">
+        <v>4</v>
+      </c>
+      <c r="S49">
         <v>11</v>
       </c>
-      <c r="R49">
-        <v>7</v>
-      </c>
-      <c r="S49">
-        <v>18</v>
-      </c>
       <c r="T49">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="U49">
         <v>2.1</v>
       </c>
       <c r="V49">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="W49">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="X49">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="Y49">
-        <v>2.95</v>
+        <v>2.75</v>
       </c>
       <c r="Z49">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
       <c r="AA49">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="AB49">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="AC49">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="AD49">
-        <v>3.25</v>
+        <v>3.45</v>
       </c>
       <c r="AE49">
-        <v>2.25</v>
+        <v>1.93</v>
       </c>
       <c r="AF49">
-        <v>1.03</v>
+        <v>0</v>
       </c>
       <c r="AG49">
-        <v>8.300000000000001</v>
+        <v>0</v>
       </c>
       <c r="AH49">
-        <v>1.32</v>
+        <v>0</v>
       </c>
       <c r="AI49">
-        <v>3.04</v>
+        <v>0</v>
       </c>
       <c r="AJ49">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AK49">
-        <v>1.7</v>
+        <v>1.79</v>
       </c>
       <c r="AL49">
         <v>1.83</v>
       </c>
       <c r="AM49">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="AN49">
-        <v>1.63</v>
+        <v>0</v>
       </c>
       <c r="AO49">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="AP49">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="AQ49">
-        <v>2.33</v>
+        <v>1.33</v>
       </c>
       <c r="AR49">
-        <v>1.33</v>
+        <v>3</v>
       </c>
       <c r="AS49">
-        <v>1.67</v>
+        <v>1</v>
       </c>
       <c r="AT49">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AU49">
-        <v>2.56</v>
+        <v>0.65</v>
       </c>
       <c r="AV49">
-        <v>1.79</v>
+        <v>0</v>
       </c>
       <c r="AW49">
-        <v>4.35</v>
+        <v>0.65</v>
       </c>
       <c r="AX49">
-        <v>1.95</v>
+        <v>0</v>
       </c>
       <c r="AY49">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AZ49">
-        <v>2.05</v>
+        <v>0</v>
       </c>
       <c r="BA49">
-        <v>1.38</v>
+        <v>0</v>
       </c>
       <c r="BB49">
-        <v>1.65</v>
+        <v>0</v>
       </c>
       <c r="BC49">
-        <v>2.05</v>
+        <v>0</v>
       </c>
       <c r="BD49">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="BE49">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="BF49">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="BG49">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="BH49">
         <v>4</v>
@@ -10394,10 +10400,10 @@
         <v>4</v>
       </c>
       <c r="BJ49">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="BK49">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="50" spans="1:63">
@@ -10447,7 +10453,7 @@
         <v>148</v>
       </c>
       <c r="P50" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q50">
         <v>7</v>
@@ -10614,7 +10620,7 @@
         <v>78</v>
       </c>
       <c r="H51" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I51">
         <v>0</v>
@@ -10638,7 +10644,7 @@
         <v>115</v>
       </c>
       <c r="P51" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q51">
         <v>8</v>
@@ -10728,7 +10734,7 @@
         <v>1</v>
       </c>
       <c r="AT51">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AU51">
         <v>2.25</v>
@@ -10829,7 +10835,7 @@
         <v>149</v>
       </c>
       <c r="P52" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q52">
         <v>6</v>
@@ -10978,7 +10984,7 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>6948870</v>
+        <v>6960598</v>
       </c>
       <c r="C53" t="s">
         <v>63</v>
@@ -10993,10 +10999,10 @@
         <v>0</v>
       </c>
       <c r="G53" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="H53" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="I53">
         <v>1</v>
@@ -11008,160 +11014,160 @@
         <v>2</v>
       </c>
       <c r="L53">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M53">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N53">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O53" t="s">
         <v>150</v>
       </c>
       <c r="P53" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q53">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="R53">
         <v>6</v>
       </c>
       <c r="S53">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="T53">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="U53">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="V53">
         <v>6.5</v>
       </c>
       <c r="W53">
-        <v>1.4</v>
+        <v>1.28</v>
       </c>
       <c r="X53">
-        <v>2.75</v>
+        <v>3.3</v>
       </c>
       <c r="Y53">
-        <v>2.87</v>
+        <v>2.3</v>
       </c>
       <c r="Z53">
-        <v>1.36</v>
+        <v>1.53</v>
       </c>
       <c r="AA53">
-        <v>7.5</v>
+        <v>5.25</v>
       </c>
       <c r="AB53">
-        <v>1.07</v>
+        <v>1.13</v>
       </c>
       <c r="AC53">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AD53">
-        <v>3.86</v>
+        <v>5.3</v>
       </c>
       <c r="AE53">
-        <v>5.87</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AF53">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="AG53">
-        <v>8.699999999999999</v>
+        <v>14</v>
       </c>
       <c r="AH53">
-        <v>1.3</v>
+        <v>1.19</v>
       </c>
       <c r="AI53">
-        <v>3.14</v>
+        <v>4.33</v>
       </c>
       <c r="AJ53">
-        <v>1.87</v>
+        <v>1.59</v>
       </c>
       <c r="AK53">
-        <v>1.83</v>
+        <v>2.2</v>
       </c>
       <c r="AL53">
-        <v>2.25</v>
+        <v>1.95</v>
       </c>
       <c r="AM53">
-        <v>1.55</v>
+        <v>1.75</v>
       </c>
       <c r="AN53">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AO53">
-        <v>1.2</v>
+        <v>1.15</v>
       </c>
       <c r="AP53">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="AQ53">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AR53">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AS53">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AT53">
         <v>1.5</v>
       </c>
       <c r="AU53">
-        <v>2.04</v>
+        <v>2.9</v>
       </c>
       <c r="AV53">
-        <v>1.68</v>
+        <v>1.42</v>
       </c>
       <c r="AW53">
-        <v>3.72</v>
+        <v>4.32</v>
       </c>
       <c r="AX53">
-        <v>1.24</v>
+        <v>1.29</v>
       </c>
       <c r="AY53">
-        <v>9.5</v>
+        <v>13.5</v>
       </c>
       <c r="AZ53">
-        <v>5.74</v>
+        <v>4.49</v>
       </c>
       <c r="BA53">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="BB53">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="BC53">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="BD53">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="BE53">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="BF53">
+        <v>9</v>
+      </c>
+      <c r="BG53">
+        <v>14</v>
+      </c>
+      <c r="BH53">
+        <v>10</v>
+      </c>
+      <c r="BI53">
         <v>11</v>
       </c>
-      <c r="BG53">
-        <v>6</v>
-      </c>
-      <c r="BH53">
-        <v>11</v>
-      </c>
-      <c r="BI53">
-        <v>8</v>
-      </c>
       <c r="BJ53">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="BK53">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="54" spans="1:63">
@@ -11169,7 +11175,7 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>6960597</v>
+        <v>6534693</v>
       </c>
       <c r="C54" t="s">
         <v>63</v>
@@ -11187,172 +11193,172 @@
         <v>103</v>
       </c>
       <c r="H54" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="I54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K54">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L54">
         <v>2</v>
       </c>
       <c r="M54">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N54">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O54" t="s">
         <v>151</v>
       </c>
       <c r="P54" t="s">
-        <v>115</v>
+        <v>206</v>
       </c>
       <c r="Q54">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="R54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S54">
         <v>11</v>
       </c>
       <c r="T54">
+        <v>2.15</v>
+      </c>
+      <c r="U54">
+        <v>2.25</v>
+      </c>
+      <c r="V54">
+        <v>4.8</v>
+      </c>
+      <c r="W54">
+        <v>1.32</v>
+      </c>
+      <c r="X54">
+        <v>3.1</v>
+      </c>
+      <c r="Y54">
+        <v>2.5</v>
+      </c>
+      <c r="Z54">
+        <v>1.48</v>
+      </c>
+      <c r="AA54">
+        <v>6.25</v>
+      </c>
+      <c r="AB54">
+        <v>1.11</v>
+      </c>
+      <c r="AC54">
         <v>1.67</v>
       </c>
-      <c r="U54">
-        <v>2.5</v>
-      </c>
-      <c r="V54">
-        <v>10</v>
-      </c>
-      <c r="W54">
-        <v>1.3</v>
-      </c>
-      <c r="X54">
-        <v>3.2</v>
-      </c>
-      <c r="Y54">
-        <v>2.45</v>
-      </c>
-      <c r="Z54">
-        <v>1.5</v>
-      </c>
-      <c r="AA54">
-        <v>6</v>
-      </c>
-      <c r="AB54">
-        <v>1.12</v>
-      </c>
-      <c r="AC54">
-        <v>1.48</v>
-      </c>
       <c r="AD54">
-        <v>4.4</v>
+        <v>3.95</v>
       </c>
       <c r="AE54">
-        <v>6.58</v>
+        <v>4.97</v>
       </c>
       <c r="AF54">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="AG54">
-        <v>16.25</v>
+        <v>15</v>
       </c>
       <c r="AH54">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="AI54">
-        <v>4.25</v>
+        <v>4.12</v>
       </c>
       <c r="AJ54">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="AK54">
-        <v>2.1</v>
+        <v>2.22</v>
       </c>
       <c r="AL54">
-        <v>2.38</v>
+        <v>1.75</v>
       </c>
       <c r="AM54">
-        <v>1.53</v>
+        <v>2.05</v>
       </c>
       <c r="AN54">
-        <v>1.06</v>
+        <v>1.2</v>
       </c>
       <c r="AO54">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AP54">
-        <v>3.9</v>
+        <v>2.15</v>
       </c>
       <c r="AQ54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR54">
-        <v>2.33</v>
+        <v>1</v>
       </c>
       <c r="AS54">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AT54">
-        <v>1.75</v>
+        <v>0.75</v>
       </c>
       <c r="AU54">
         <v>0</v>
       </c>
       <c r="AV54">
-        <v>1.42</v>
+        <v>0</v>
       </c>
       <c r="AW54">
-        <v>1.42</v>
+        <v>0</v>
       </c>
       <c r="AX54">
-        <v>1.15</v>
+        <v>1.45</v>
       </c>
       <c r="AY54">
-        <v>23</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="AZ54">
-        <v>6.4</v>
+        <v>3.61</v>
       </c>
       <c r="BA54">
-        <v>1.23</v>
+        <v>1.38</v>
       </c>
       <c r="BB54">
-        <v>1.36</v>
+        <v>1.65</v>
       </c>
       <c r="BC54">
-        <v>1.62</v>
+        <v>2.05</v>
       </c>
       <c r="BD54">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="BE54">
-        <v>2.55</v>
+        <v>3.75</v>
       </c>
       <c r="BF54">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="BG54">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BH54">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BI54">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BJ54">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="BK54">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55" spans="1:63">
@@ -11360,7 +11366,7 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>6960598</v>
+        <v>6960597</v>
       </c>
       <c r="C55" t="s">
         <v>63</v>
@@ -11375,175 +11381,175 @@
         <v>0</v>
       </c>
       <c r="G55" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="H55" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K55">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L55">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M55">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N55">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O55" t="s">
         <v>152</v>
       </c>
       <c r="P55" t="s">
-        <v>205</v>
+        <v>115</v>
       </c>
       <c r="Q55">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="R55">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="S55">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="T55">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="U55">
         <v>2.5</v>
       </c>
       <c r="V55">
-        <v>6.5</v>
+        <v>10</v>
       </c>
       <c r="W55">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="X55">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="Y55">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="Z55">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AA55">
-        <v>5.25</v>
+        <v>6</v>
       </c>
       <c r="AB55">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AC55">
-        <v>1.33</v>
+        <v>1.48</v>
       </c>
       <c r="AD55">
-        <v>5.3</v>
+        <v>4.4</v>
       </c>
       <c r="AE55">
-        <v>8.800000000000001</v>
+        <v>6.58</v>
       </c>
       <c r="AF55">
         <v>1.03</v>
       </c>
       <c r="AG55">
-        <v>14</v>
+        <v>16.25</v>
       </c>
       <c r="AH55">
-        <v>1.19</v>
+        <v>1.23</v>
       </c>
       <c r="AI55">
-        <v>4.33</v>
+        <v>4.25</v>
       </c>
       <c r="AJ55">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AK55">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="AL55">
-        <v>1.95</v>
+        <v>2.38</v>
       </c>
       <c r="AM55">
+        <v>1.53</v>
+      </c>
+      <c r="AN55">
+        <v>1.06</v>
+      </c>
+      <c r="AO55">
+        <v>1.13</v>
+      </c>
+      <c r="AP55">
+        <v>3.9</v>
+      </c>
+      <c r="AQ55">
+        <v>0</v>
+      </c>
+      <c r="AR55">
+        <v>2.33</v>
+      </c>
+      <c r="AS55">
+        <v>1.5</v>
+      </c>
+      <c r="AT55">
         <v>1.75</v>
       </c>
-      <c r="AN55">
-        <v>1.08</v>
-      </c>
-      <c r="AO55">
-        <v>1.15</v>
-      </c>
-      <c r="AP55">
-        <v>3.2</v>
-      </c>
-      <c r="AQ55">
-        <v>2.33</v>
-      </c>
-      <c r="AR55">
-        <v>1.67</v>
-      </c>
-      <c r="AS55">
-        <v>2</v>
-      </c>
-      <c r="AT55">
-        <v>1.5</v>
-      </c>
       <c r="AU55">
-        <v>2.9</v>
+        <v>0</v>
       </c>
       <c r="AV55">
         <v>1.42</v>
       </c>
       <c r="AW55">
-        <v>4.32</v>
+        <v>1.42</v>
       </c>
       <c r="AX55">
-        <v>1.29</v>
+        <v>1.15</v>
       </c>
       <c r="AY55">
-        <v>13.5</v>
+        <v>23</v>
       </c>
       <c r="AZ55">
-        <v>4.49</v>
+        <v>6.4</v>
       </c>
       <c r="BA55">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="BB55">
-        <v>1.47</v>
+        <v>1.36</v>
       </c>
       <c r="BC55">
-        <v>1.8</v>
+        <v>1.62</v>
       </c>
       <c r="BD55">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="BE55">
-        <v>3</v>
+        <v>2.55</v>
       </c>
       <c r="BF55">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="BG55">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="BH55">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BI55">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="BJ55">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="BK55">
-        <v>25</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:63">
@@ -11551,7 +11557,7 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>6534693</v>
+        <v>6948870</v>
       </c>
       <c r="C56" t="s">
         <v>63</v>
@@ -11566,10 +11572,10 @@
         <v>0</v>
       </c>
       <c r="G56" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="H56" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="I56">
         <v>1</v>
@@ -11581,160 +11587,160 @@
         <v>2</v>
       </c>
       <c r="L56">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N56">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O56" t="s">
         <v>153</v>
       </c>
       <c r="P56" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q56">
+        <v>14</v>
+      </c>
+      <c r="R56">
+        <v>6</v>
+      </c>
+      <c r="S56">
+        <v>20</v>
+      </c>
+      <c r="T56">
+        <v>1.95</v>
+      </c>
+      <c r="U56">
+        <v>2.2</v>
+      </c>
+      <c r="V56">
+        <v>6.5</v>
+      </c>
+      <c r="W56">
+        <v>1.4</v>
+      </c>
+      <c r="X56">
+        <v>2.75</v>
+      </c>
+      <c r="Y56">
+        <v>2.87</v>
+      </c>
+      <c r="Z56">
+        <v>1.36</v>
+      </c>
+      <c r="AA56">
+        <v>7.5</v>
+      </c>
+      <c r="AB56">
+        <v>1.07</v>
+      </c>
+      <c r="AC56">
+        <v>1.6</v>
+      </c>
+      <c r="AD56">
+        <v>3.86</v>
+      </c>
+      <c r="AE56">
+        <v>5.87</v>
+      </c>
+      <c r="AF56">
+        <v>1.02</v>
+      </c>
+      <c r="AG56">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AH56">
+        <v>1.3</v>
+      </c>
+      <c r="AI56">
+        <v>3.14</v>
+      </c>
+      <c r="AJ56">
+        <v>1.87</v>
+      </c>
+      <c r="AK56">
+        <v>1.83</v>
+      </c>
+      <c r="AL56">
+        <v>2.25</v>
+      </c>
+      <c r="AM56">
+        <v>1.55</v>
+      </c>
+      <c r="AN56">
+        <v>1.09</v>
+      </c>
+      <c r="AO56">
+        <v>1.2</v>
+      </c>
+      <c r="AP56">
+        <v>2.75</v>
+      </c>
+      <c r="AQ56">
+        <v>2</v>
+      </c>
+      <c r="AR56">
+        <v>2</v>
+      </c>
+      <c r="AS56">
+        <v>2.5</v>
+      </c>
+      <c r="AT56">
+        <v>1.5</v>
+      </c>
+      <c r="AU56">
+        <v>2.04</v>
+      </c>
+      <c r="AV56">
+        <v>1.68</v>
+      </c>
+      <c r="AW56">
+        <v>3.72</v>
+      </c>
+      <c r="AX56">
+        <v>1.24</v>
+      </c>
+      <c r="AY56">
+        <v>9.5</v>
+      </c>
+      <c r="AZ56">
+        <v>5.74</v>
+      </c>
+      <c r="BA56">
+        <v>1.28</v>
+      </c>
+      <c r="BB56">
+        <v>1.5</v>
+      </c>
+      <c r="BC56">
+        <v>1.83</v>
+      </c>
+      <c r="BD56">
+        <v>2.35</v>
+      </c>
+      <c r="BE56">
+        <v>3.1</v>
+      </c>
+      <c r="BF56">
         <v>11</v>
       </c>
-      <c r="R56">
-        <v>0</v>
-      </c>
-      <c r="S56">
+      <c r="BG56">
+        <v>6</v>
+      </c>
+      <c r="BH56">
         <v>11</v>
       </c>
-      <c r="T56">
-        <v>2.15</v>
-      </c>
-      <c r="U56">
-        <v>2.25</v>
-      </c>
-      <c r="V56">
-        <v>4.8</v>
-      </c>
-      <c r="W56">
-        <v>1.32</v>
-      </c>
-      <c r="X56">
-        <v>3.1</v>
-      </c>
-      <c r="Y56">
-        <v>2.5</v>
-      </c>
-      <c r="Z56">
-        <v>1.48</v>
-      </c>
-      <c r="AA56">
-        <v>6.25</v>
-      </c>
-      <c r="AB56">
-        <v>1.11</v>
-      </c>
-      <c r="AC56">
-        <v>1.67</v>
-      </c>
-      <c r="AD56">
-        <v>3.95</v>
-      </c>
-      <c r="AE56">
-        <v>4.97</v>
-      </c>
-      <c r="AF56">
-        <v>1.04</v>
-      </c>
-      <c r="AG56">
-        <v>15</v>
-      </c>
-      <c r="AH56">
-        <v>1.24</v>
-      </c>
-      <c r="AI56">
-        <v>4.12</v>
-      </c>
-      <c r="AJ56">
-        <v>1.58</v>
-      </c>
-      <c r="AK56">
-        <v>2.22</v>
-      </c>
-      <c r="AL56">
-        <v>1.75</v>
-      </c>
-      <c r="AM56">
-        <v>2.05</v>
-      </c>
-      <c r="AN56">
-        <v>1.2</v>
-      </c>
-      <c r="AO56">
-        <v>1.24</v>
-      </c>
-      <c r="AP56">
-        <v>2.15</v>
-      </c>
-      <c r="AQ56">
-        <v>1</v>
-      </c>
-      <c r="AR56">
-        <v>1</v>
-      </c>
-      <c r="AS56">
-        <v>1</v>
-      </c>
-      <c r="AT56">
-        <v>0.75</v>
-      </c>
-      <c r="AU56">
-        <v>0</v>
-      </c>
-      <c r="AV56">
-        <v>0</v>
-      </c>
-      <c r="AW56">
-        <v>0</v>
-      </c>
-      <c r="AX56">
-        <v>1.45</v>
-      </c>
-      <c r="AY56">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="AZ56">
-        <v>3.61</v>
-      </c>
-      <c r="BA56">
-        <v>1.38</v>
-      </c>
-      <c r="BB56">
-        <v>1.65</v>
-      </c>
-      <c r="BC56">
-        <v>2.05</v>
-      </c>
-      <c r="BD56">
-        <v>2.7</v>
-      </c>
-      <c r="BE56">
-        <v>3.75</v>
-      </c>
-      <c r="BF56">
-        <v>15</v>
-      </c>
-      <c r="BG56">
-        <v>5</v>
-      </c>
-      <c r="BH56">
-        <v>12</v>
-      </c>
       <c r="BI56">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="BJ56">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="BK56">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="57" spans="1:63">
@@ -11784,7 +11790,7 @@
         <v>154</v>
       </c>
       <c r="P57" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -12124,7 +12130,7 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>7140064</v>
+        <v>7140063</v>
       </c>
       <c r="C59" t="s">
         <v>63</v>
@@ -12139,157 +12145,157 @@
         <v>0</v>
       </c>
       <c r="G59" t="s">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="H59" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="I59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J59">
         <v>0</v>
       </c>
       <c r="K59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L59">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N59">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O59" t="s">
-        <v>115</v>
+        <v>155</v>
       </c>
       <c r="P59" t="s">
-        <v>115</v>
+        <v>209</v>
       </c>
       <c r="Q59">
+        <v>6</v>
+      </c>
+      <c r="R59">
+        <v>2</v>
+      </c>
+      <c r="S59">
+        <v>8</v>
+      </c>
+      <c r="T59">
+        <v>2.2</v>
+      </c>
+      <c r="U59">
+        <v>2.1</v>
+      </c>
+      <c r="V59">
         <v>5</v>
       </c>
-      <c r="R59">
+      <c r="W59">
+        <v>1.4</v>
+      </c>
+      <c r="X59">
+        <v>2.75</v>
+      </c>
+      <c r="Y59">
+        <v>3</v>
+      </c>
+      <c r="Z59">
+        <v>1.36</v>
+      </c>
+      <c r="AA59">
+        <v>7</v>
+      </c>
+      <c r="AB59">
+        <v>1.08</v>
+      </c>
+      <c r="AC59">
+        <v>1.68</v>
+      </c>
+      <c r="AD59">
+        <v>3.75</v>
+      </c>
+      <c r="AE59">
         <v>5</v>
       </c>
-      <c r="S59">
-        <v>10</v>
-      </c>
-      <c r="T59">
-        <v>2.75</v>
-      </c>
-      <c r="U59">
-        <v>2.2</v>
-      </c>
-      <c r="V59">
-        <v>3.6</v>
-      </c>
-      <c r="W59">
-        <v>1.36</v>
-      </c>
-      <c r="X59">
-        <v>3</v>
-      </c>
-      <c r="Y59">
-        <v>2.75</v>
-      </c>
-      <c r="Z59">
-        <v>1.4</v>
-      </c>
-      <c r="AA59">
-        <v>6.5</v>
-      </c>
-      <c r="AB59">
-        <v>1.1</v>
-      </c>
-      <c r="AC59">
-        <v>2.1</v>
-      </c>
-      <c r="AD59">
-        <v>3.2</v>
-      </c>
-      <c r="AE59">
-        <v>3.05</v>
-      </c>
       <c r="AF59">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="AG59">
-        <v>12</v>
+        <v>10.25</v>
       </c>
       <c r="AH59">
-        <v>1.26</v>
+        <v>1.32</v>
       </c>
       <c r="AI59">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="AJ59">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AK59">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="AL59">
+        <v>2</v>
+      </c>
+      <c r="AM59">
         <v>1.73</v>
       </c>
-      <c r="AM59">
-        <v>2</v>
-      </c>
       <c r="AN59">
-        <v>1.32</v>
+        <v>1.16</v>
       </c>
       <c r="AO59">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AP59">
-        <v>1.7</v>
+        <v>1.97</v>
       </c>
       <c r="AQ59">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AR59">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AS59">
-        <v>2</v>
+        <v>2.67</v>
       </c>
       <c r="AT59">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AU59">
+        <v>1.85</v>
+      </c>
+      <c r="AV59">
+        <v>2.12</v>
+      </c>
+      <c r="AW59">
+        <v>3.97</v>
+      </c>
+      <c r="AX59">
+        <v>1.69</v>
+      </c>
+      <c r="AY59">
+        <v>9.1</v>
+      </c>
+      <c r="AZ59">
+        <v>2.55</v>
+      </c>
+      <c r="BA59">
+        <v>1.23</v>
+      </c>
+      <c r="BB59">
+        <v>1.45</v>
+      </c>
+      <c r="BC59">
+        <v>1.75</v>
+      </c>
+      <c r="BD59">
         <v>2.27</v>
       </c>
-      <c r="AV59">
-        <v>0</v>
-      </c>
-      <c r="AW59">
-        <v>2.27</v>
-      </c>
-      <c r="AX59">
-        <v>1.73</v>
-      </c>
-      <c r="AY59">
-        <v>7.5</v>
-      </c>
-      <c r="AZ59">
-        <v>2.63</v>
-      </c>
-      <c r="BA59">
-        <v>1.27</v>
-      </c>
-      <c r="BB59">
-        <v>1.46</v>
-      </c>
-      <c r="BC59">
-        <v>1.7</v>
-      </c>
-      <c r="BD59">
-        <v>2.15</v>
-      </c>
       <c r="BE59">
-        <v>2.9</v>
+        <v>3.04</v>
       </c>
       <c r="BF59">
         <v>4</v>
@@ -12298,13 +12304,13 @@
         <v>2</v>
       </c>
       <c r="BH59">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="BI59">
         <v>3</v>
       </c>
       <c r="BJ59">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="BK59">
         <v>5</v>
@@ -12315,7 +12321,7 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>7140063</v>
+        <v>7140064</v>
       </c>
       <c r="C60" t="s">
         <v>63</v>
@@ -12330,157 +12336,157 @@
         <v>0</v>
       </c>
       <c r="G60" t="s">
-        <v>72</v>
+        <v>105</v>
       </c>
       <c r="H60" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="I60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J60">
         <v>0</v>
       </c>
       <c r="K60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L60">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N60">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O60" t="s">
-        <v>155</v>
+        <v>115</v>
       </c>
       <c r="P60" t="s">
-        <v>208</v>
+        <v>115</v>
       </c>
       <c r="Q60">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R60">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S60">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="T60">
+        <v>2.75</v>
+      </c>
+      <c r="U60">
         <v>2.2</v>
       </c>
-      <c r="U60">
+      <c r="V60">
+        <v>3.6</v>
+      </c>
+      <c r="W60">
+        <v>1.36</v>
+      </c>
+      <c r="X60">
+        <v>3</v>
+      </c>
+      <c r="Y60">
+        <v>2.75</v>
+      </c>
+      <c r="Z60">
+        <v>1.4</v>
+      </c>
+      <c r="AA60">
+        <v>6.5</v>
+      </c>
+      <c r="AB60">
+        <v>1.1</v>
+      </c>
+      <c r="AC60">
         <v>2.1</v>
       </c>
-      <c r="V60">
-        <v>5</v>
-      </c>
-      <c r="W60">
-        <v>1.4</v>
-      </c>
-      <c r="X60">
-        <v>2.75</v>
-      </c>
-      <c r="Y60">
-        <v>3</v>
-      </c>
-      <c r="Z60">
-        <v>1.36</v>
-      </c>
-      <c r="AA60">
-        <v>7</v>
-      </c>
-      <c r="AB60">
-        <v>1.08</v>
-      </c>
-      <c r="AC60">
-        <v>1.68</v>
-      </c>
       <c r="AD60">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="AE60">
-        <v>5</v>
+        <v>3.05</v>
       </c>
       <c r="AF60">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="AG60">
-        <v>10.25</v>
+        <v>12</v>
       </c>
       <c r="AH60">
+        <v>1.26</v>
+      </c>
+      <c r="AI60">
+        <v>3.5</v>
+      </c>
+      <c r="AJ60">
+        <v>1.9</v>
+      </c>
+      <c r="AK60">
+        <v>1.9</v>
+      </c>
+      <c r="AL60">
+        <v>1.73</v>
+      </c>
+      <c r="AM60">
+        <v>2</v>
+      </c>
+      <c r="AN60">
         <v>1.32</v>
       </c>
-      <c r="AI60">
-        <v>3.1</v>
-      </c>
-      <c r="AJ60">
-        <v>2</v>
-      </c>
-      <c r="AK60">
-        <v>1.8</v>
-      </c>
-      <c r="AL60">
-        <v>2</v>
-      </c>
-      <c r="AM60">
+      <c r="AO60">
+        <v>1.25</v>
+      </c>
+      <c r="AP60">
+        <v>1.7</v>
+      </c>
+      <c r="AQ60">
+        <v>3</v>
+      </c>
+      <c r="AR60">
+        <v>0</v>
+      </c>
+      <c r="AS60">
+        <v>2</v>
+      </c>
+      <c r="AT60">
+        <v>1</v>
+      </c>
+      <c r="AU60">
+        <v>2.27</v>
+      </c>
+      <c r="AV60">
+        <v>0</v>
+      </c>
+      <c r="AW60">
+        <v>2.27</v>
+      </c>
+      <c r="AX60">
         <v>1.73</v>
       </c>
-      <c r="AN60">
-        <v>1.16</v>
-      </c>
-      <c r="AO60">
-        <v>1.24</v>
-      </c>
-      <c r="AP60">
-        <v>1.97</v>
-      </c>
-      <c r="AQ60">
-        <v>2.5</v>
-      </c>
-      <c r="AR60">
-        <v>3</v>
-      </c>
-      <c r="AS60">
-        <v>2.67</v>
-      </c>
-      <c r="AT60">
-        <v>1.5</v>
-      </c>
-      <c r="AU60">
-        <v>1.85</v>
-      </c>
-      <c r="AV60">
-        <v>2.12</v>
-      </c>
-      <c r="AW60">
-        <v>3.97</v>
-      </c>
-      <c r="AX60">
-        <v>1.69</v>
-      </c>
       <c r="AY60">
-        <v>9.1</v>
+        <v>7.5</v>
       </c>
       <c r="AZ60">
-        <v>2.55</v>
+        <v>2.63</v>
       </c>
       <c r="BA60">
-        <v>1.23</v>
+        <v>1.27</v>
       </c>
       <c r="BB60">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="BC60">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="BD60">
-        <v>2.27</v>
+        <v>2.15</v>
       </c>
       <c r="BE60">
-        <v>3.04</v>
+        <v>2.9</v>
       </c>
       <c r="BF60">
         <v>4</v>
@@ -12489,13 +12495,13 @@
         <v>2</v>
       </c>
       <c r="BH60">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="BI60">
         <v>3</v>
       </c>
       <c r="BJ60">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="BK60">
         <v>5</v>
@@ -12715,7 +12721,7 @@
         <v>75</v>
       </c>
       <c r="H62" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I62">
         <v>0</v>
@@ -12739,7 +12745,7 @@
         <v>157</v>
       </c>
       <c r="P62" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q62">
         <v>3</v>
@@ -12888,7 +12894,7 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>7140067</v>
+        <v>7033843</v>
       </c>
       <c r="C63" t="s">
         <v>63</v>
@@ -12903,175 +12909,175 @@
         <v>0</v>
       </c>
       <c r="G63" t="s">
-        <v>71</v>
+        <v>108</v>
       </c>
       <c r="H63" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="I63">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K63">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L63">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M63">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N63">
         <v>3</v>
       </c>
       <c r="O63" t="s">
+        <v>158</v>
+      </c>
+      <c r="P63" t="s">
         <v>115</v>
       </c>
-      <c r="P63" t="s">
-        <v>210</v>
-      </c>
       <c r="Q63">
+        <v>9</v>
+      </c>
+      <c r="R63">
+        <v>0</v>
+      </c>
+      <c r="S63">
+        <v>9</v>
+      </c>
+      <c r="T63">
+        <v>1.55</v>
+      </c>
+      <c r="U63">
+        <v>2.75</v>
+      </c>
+      <c r="V63">
+        <v>9.25</v>
+      </c>
+      <c r="W63">
+        <v>1.26</v>
+      </c>
+      <c r="X63">
+        <v>3.5</v>
+      </c>
+      <c r="Y63">
+        <v>2.2</v>
+      </c>
+      <c r="Z63">
+        <v>1.58</v>
+      </c>
+      <c r="AA63">
         <v>5</v>
       </c>
-      <c r="R63">
+      <c r="AB63">
+        <v>1.15</v>
+      </c>
+      <c r="AC63">
+        <v>1.17</v>
+      </c>
+      <c r="AD63">
         <v>6</v>
       </c>
-      <c r="S63">
-        <v>11</v>
-      </c>
-      <c r="T63">
-        <v>4.8</v>
-      </c>
-      <c r="U63">
-        <v>2.3</v>
-      </c>
-      <c r="V63">
-        <v>2.1</v>
-      </c>
-      <c r="W63">
-        <v>1.29</v>
-      </c>
-      <c r="X63">
-        <v>3.3</v>
-      </c>
-      <c r="Y63">
-        <v>2.45</v>
-      </c>
-      <c r="Z63">
-        <v>1.5</v>
-      </c>
-      <c r="AA63">
-        <v>6</v>
-      </c>
-      <c r="AB63">
-        <v>1.12</v>
-      </c>
-      <c r="AC63">
-        <v>5.25</v>
-      </c>
-      <c r="AD63">
-        <v>3.9</v>
-      </c>
       <c r="AE63">
-        <v>1.5</v>
+        <v>17</v>
       </c>
       <c r="AF63">
         <v>1.02</v>
       </c>
       <c r="AG63">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AH63">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AI63">
-        <v>4.33</v>
+        <v>4.6</v>
       </c>
       <c r="AJ63">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="AK63">
-        <v>2.15</v>
+        <v>2.35</v>
       </c>
       <c r="AL63">
-        <v>1.73</v>
+        <v>2.3</v>
       </c>
       <c r="AM63">
-        <v>1.95</v>
+        <v>1.53</v>
       </c>
       <c r="AN63">
-        <v>2.3</v>
+        <v>1.03</v>
       </c>
       <c r="AO63">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AP63">
-        <v>1.16</v>
+        <v>4.6</v>
       </c>
       <c r="AQ63">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="AR63">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AS63">
+        <v>3</v>
+      </c>
+      <c r="AT63">
+        <v>0</v>
+      </c>
+      <c r="AU63">
+        <v>0</v>
+      </c>
+      <c r="AV63">
+        <v>0</v>
+      </c>
+      <c r="AW63">
+        <v>0</v>
+      </c>
+      <c r="AX63">
+        <v>1.17</v>
+      </c>
+      <c r="AY63">
+        <v>10</v>
+      </c>
+      <c r="AZ63">
+        <v>7</v>
+      </c>
+      <c r="BA63">
+        <v>1.3</v>
+      </c>
+      <c r="BB63">
+        <v>1.5</v>
+      </c>
+      <c r="BC63">
         <v>1.67</v>
       </c>
-      <c r="AT63">
-        <v>2.5</v>
-      </c>
-      <c r="AU63">
-        <v>2.29</v>
-      </c>
-      <c r="AV63">
-        <v>2.93</v>
-      </c>
-      <c r="AW63">
-        <v>5.22</v>
-      </c>
-      <c r="AX63">
-        <v>4.33</v>
-      </c>
-      <c r="AY63">
-        <v>8.5</v>
-      </c>
-      <c r="AZ63">
-        <v>1.33</v>
-      </c>
-      <c r="BA63">
-        <v>1.22</v>
-      </c>
-      <c r="BB63">
-        <v>1.38</v>
-      </c>
-      <c r="BC63">
-        <v>1.83</v>
-      </c>
       <c r="BD63">
-        <v>2.38</v>
+        <v>2.05</v>
       </c>
       <c r="BE63">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="BF63">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BG63">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="BH63">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BI63">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BJ63">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="BK63">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="64" spans="1:63">
@@ -13079,7 +13085,7 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>7033843</v>
+        <v>7140067</v>
       </c>
       <c r="C64" t="s">
         <v>63</v>
@@ -13094,175 +13100,175 @@
         <v>0</v>
       </c>
       <c r="G64" t="s">
-        <v>108</v>
+        <v>71</v>
       </c>
       <c r="H64" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="I64">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L64">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M64">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N64">
         <v>3</v>
       </c>
       <c r="O64" t="s">
-        <v>158</v>
+        <v>115</v>
       </c>
       <c r="P64" t="s">
-        <v>115</v>
+        <v>211</v>
       </c>
       <c r="Q64">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="R64">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="S64">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="T64">
-        <v>1.55</v>
+        <v>4.8</v>
       </c>
       <c r="U64">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="V64">
-        <v>9.25</v>
+        <v>2.1</v>
       </c>
       <c r="W64">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="X64">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="Y64">
-        <v>2.2</v>
+        <v>2.45</v>
       </c>
       <c r="Z64">
-        <v>1.58</v>
+        <v>1.5</v>
       </c>
       <c r="AA64">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AB64">
-        <v>1.15</v>
+        <v>1.12</v>
       </c>
       <c r="AC64">
-        <v>1.17</v>
+        <v>5.25</v>
       </c>
       <c r="AD64">
-        <v>6</v>
+        <v>3.9</v>
       </c>
       <c r="AE64">
-        <v>17</v>
+        <v>1.5</v>
       </c>
       <c r="AF64">
         <v>1.02</v>
       </c>
       <c r="AG64">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AH64">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="AI64">
-        <v>4.6</v>
+        <v>4.33</v>
       </c>
       <c r="AJ64">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AK64">
-        <v>2.35</v>
+        <v>2.15</v>
       </c>
       <c r="AL64">
+        <v>1.73</v>
+      </c>
+      <c r="AM64">
+        <v>1.95</v>
+      </c>
+      <c r="AN64">
         <v>2.3</v>
       </c>
-      <c r="AM64">
-        <v>1.53</v>
-      </c>
-      <c r="AN64">
-        <v>1.03</v>
-      </c>
       <c r="AO64">
-        <v>1.1</v>
+        <v>1.22</v>
       </c>
       <c r="AP64">
-        <v>4.6</v>
+        <v>1.16</v>
       </c>
       <c r="AQ64">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AR64">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AS64">
-        <v>3</v>
+        <v>1.67</v>
       </c>
       <c r="AT64">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AU64">
-        <v>0</v>
+        <v>2.29</v>
       </c>
       <c r="AV64">
-        <v>0</v>
+        <v>2.93</v>
       </c>
       <c r="AW64">
-        <v>0</v>
+        <v>5.22</v>
       </c>
       <c r="AX64">
-        <v>1.17</v>
+        <v>4.33</v>
       </c>
       <c r="AY64">
+        <v>8.5</v>
+      </c>
+      <c r="AZ64">
+        <v>1.33</v>
+      </c>
+      <c r="BA64">
+        <v>1.22</v>
+      </c>
+      <c r="BB64">
+        <v>1.38</v>
+      </c>
+      <c r="BC64">
+        <v>1.83</v>
+      </c>
+      <c r="BD64">
+        <v>2.38</v>
+      </c>
+      <c r="BE64">
+        <v>3.2</v>
+      </c>
+      <c r="BF64">
+        <v>5</v>
+      </c>
+      <c r="BG64">
         <v>10</v>
       </c>
-      <c r="AZ64">
+      <c r="BH64">
         <v>7</v>
       </c>
-      <c r="BA64">
-        <v>1.3</v>
-      </c>
-      <c r="BB64">
-        <v>1.5</v>
-      </c>
-      <c r="BC64">
-        <v>1.67</v>
-      </c>
-      <c r="BD64">
-        <v>2.05</v>
-      </c>
-      <c r="BE64">
-        <v>2.8</v>
-      </c>
-      <c r="BF64">
-        <v>7</v>
-      </c>
-      <c r="BG64">
-        <v>2</v>
-      </c>
-      <c r="BH64">
-        <v>9</v>
-      </c>
       <c r="BI64">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BJ64">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="BK64">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="65" spans="1:63">
@@ -13503,7 +13509,7 @@
         <v>160</v>
       </c>
       <c r="P66" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q66">
         <v>8</v>
@@ -13843,7 +13849,7 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>7140071</v>
+        <v>7140073</v>
       </c>
       <c r="C68" t="s">
         <v>63</v>
@@ -13858,175 +13864,175 @@
         <v>0</v>
       </c>
       <c r="G68" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="H68" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="I68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J68">
         <v>0</v>
       </c>
       <c r="K68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L68">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N68">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O68" t="s">
         <v>162</v>
       </c>
       <c r="P68" t="s">
-        <v>212</v>
+        <v>115</v>
       </c>
       <c r="Q68">
+        <v>13</v>
+      </c>
+      <c r="R68">
+        <v>3</v>
+      </c>
+      <c r="S68">
+        <v>16</v>
+      </c>
+      <c r="T68">
+        <v>1.63</v>
+      </c>
+      <c r="U68">
+        <v>2.88</v>
+      </c>
+      <c r="V68">
+        <v>8</v>
+      </c>
+      <c r="W68">
+        <v>1.22</v>
+      </c>
+      <c r="X68">
         <v>4</v>
       </c>
-      <c r="R68">
+      <c r="Y68">
+        <v>2.09</v>
+      </c>
+      <c r="Z68">
+        <v>1.7</v>
+      </c>
+      <c r="AA68">
+        <v>4.45</v>
+      </c>
+      <c r="AB68">
+        <v>1.19</v>
+      </c>
+      <c r="AC68">
+        <v>1.2</v>
+      </c>
+      <c r="AD68">
+        <v>5.5</v>
+      </c>
+      <c r="AE68">
+        <v>9.5</v>
+      </c>
+      <c r="AF68">
+        <v>1.02</v>
+      </c>
+      <c r="AG68">
+        <v>21</v>
+      </c>
+      <c r="AH68">
+        <v>1.1</v>
+      </c>
+      <c r="AI68">
+        <v>5.5</v>
+      </c>
+      <c r="AJ68">
+        <v>1.4</v>
+      </c>
+      <c r="AK68">
+        <v>2.75</v>
+      </c>
+      <c r="AL68">
+        <v>1.87</v>
+      </c>
+      <c r="AM68">
+        <v>1.89</v>
+      </c>
+      <c r="AN68">
+        <v>1.04</v>
+      </c>
+      <c r="AO68">
+        <v>1.12</v>
+      </c>
+      <c r="AP68">
+        <v>4</v>
+      </c>
+      <c r="AQ68">
+        <v>1</v>
+      </c>
+      <c r="AR68">
+        <v>1.8</v>
+      </c>
+      <c r="AS68">
+        <v>1.5</v>
+      </c>
+      <c r="AT68">
+        <v>1.5</v>
+      </c>
+      <c r="AU68">
+        <v>2.22</v>
+      </c>
+      <c r="AV68">
+        <v>2.25</v>
+      </c>
+      <c r="AW68">
+        <v>4.47</v>
+      </c>
+      <c r="AX68">
+        <v>1.13</v>
+      </c>
+      <c r="AY68">
+        <v>11</v>
+      </c>
+      <c r="AZ68">
         <v>8</v>
       </c>
-      <c r="S68">
-        <v>12</v>
-      </c>
-      <c r="T68">
-        <v>2.06</v>
-      </c>
-      <c r="U68">
-        <v>2.43</v>
-      </c>
-      <c r="V68">
-        <v>5.29</v>
-      </c>
-      <c r="W68">
-        <v>1.29</v>
-      </c>
-      <c r="X68">
-        <v>3.42</v>
-      </c>
-      <c r="Y68">
-        <v>2.36</v>
-      </c>
-      <c r="Z68">
-        <v>1.55</v>
-      </c>
-      <c r="AA68">
-        <v>5.45</v>
-      </c>
-      <c r="AB68">
-        <v>1.13</v>
-      </c>
-      <c r="AC68">
-        <v>1.45</v>
-      </c>
-      <c r="AD68">
-        <v>4.1</v>
-      </c>
-      <c r="AE68">
-        <v>5.25</v>
-      </c>
-      <c r="AF68">
-        <v>1.03</v>
-      </c>
-      <c r="AG68">
-        <v>12.5</v>
-      </c>
-      <c r="AH68">
-        <v>1.21</v>
-      </c>
-      <c r="AI68">
-        <v>4.1</v>
-      </c>
-      <c r="AJ68">
-        <v>1.6</v>
-      </c>
-      <c r="AK68">
-        <v>2.2</v>
-      </c>
-      <c r="AL68">
-        <v>1.69</v>
-      </c>
-      <c r="AM68">
-        <v>2.11</v>
-      </c>
-      <c r="AN68">
-        <v>1.15</v>
-      </c>
-      <c r="AO68">
-        <v>1.21</v>
-      </c>
-      <c r="AP68">
-        <v>2.43</v>
-      </c>
-      <c r="AQ68">
-        <v>2.4</v>
-      </c>
-      <c r="AR68">
-        <v>1.6</v>
-      </c>
-      <c r="AS68">
-        <v>2.5</v>
-      </c>
-      <c r="AT68">
+      <c r="BA68">
+        <v>1.2</v>
+      </c>
+      <c r="BB68">
         <v>1.33</v>
       </c>
-      <c r="AU68">
-        <v>2.51</v>
-      </c>
-      <c r="AV68">
-        <v>0.99</v>
-      </c>
-      <c r="AW68">
-        <v>3.5</v>
-      </c>
-      <c r="AX68">
-        <v>1.22</v>
-      </c>
-      <c r="AY68">
+      <c r="BC68">
+        <v>1.61</v>
+      </c>
+      <c r="BD68">
+        <v>2.03</v>
+      </c>
+      <c r="BE68">
+        <v>2.62</v>
+      </c>
+      <c r="BF68">
+        <v>8</v>
+      </c>
+      <c r="BG68">
+        <v>4</v>
+      </c>
+      <c r="BH68">
         <v>10</v>
       </c>
-      <c r="AZ68">
-        <v>5.5</v>
-      </c>
-      <c r="BA68">
-        <v>1.16</v>
-      </c>
-      <c r="BB68">
-        <v>1.29</v>
-      </c>
-      <c r="BC68">
-        <v>1.43</v>
-      </c>
-      <c r="BD68">
-        <v>1.75</v>
-      </c>
-      <c r="BE68">
-        <v>2.22</v>
-      </c>
-      <c r="BF68">
+      <c r="BI68">
         <v>5</v>
       </c>
-      <c r="BG68">
-        <v>7</v>
-      </c>
-      <c r="BH68">
-        <v>3</v>
-      </c>
-      <c r="BI68">
-        <v>3</v>
-      </c>
       <c r="BJ68">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="BK68">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="69" spans="1:63">
@@ -14225,7 +14231,7 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>7140073</v>
+        <v>7140071</v>
       </c>
       <c r="C70" t="s">
         <v>63</v>
@@ -14240,175 +14246,175 @@
         <v>0</v>
       </c>
       <c r="G70" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="H70" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="I70">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J70">
         <v>0</v>
       </c>
       <c r="K70">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L70">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N70">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O70" t="s">
         <v>163</v>
       </c>
       <c r="P70" t="s">
-        <v>115</v>
+        <v>214</v>
       </c>
       <c r="Q70">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="R70">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="S70">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="T70">
-        <v>1.63</v>
+        <v>2.06</v>
       </c>
       <c r="U70">
-        <v>2.88</v>
+        <v>2.43</v>
       </c>
       <c r="V70">
+        <v>5.29</v>
+      </c>
+      <c r="W70">
+        <v>1.29</v>
+      </c>
+      <c r="X70">
+        <v>3.42</v>
+      </c>
+      <c r="Y70">
+        <v>2.36</v>
+      </c>
+      <c r="Z70">
+        <v>1.55</v>
+      </c>
+      <c r="AA70">
+        <v>5.45</v>
+      </c>
+      <c r="AB70">
+        <v>1.13</v>
+      </c>
+      <c r="AC70">
+        <v>1.45</v>
+      </c>
+      <c r="AD70">
+        <v>4.1</v>
+      </c>
+      <c r="AE70">
+        <v>5.25</v>
+      </c>
+      <c r="AF70">
+        <v>1.03</v>
+      </c>
+      <c r="AG70">
+        <v>12.5</v>
+      </c>
+      <c r="AH70">
+        <v>1.21</v>
+      </c>
+      <c r="AI70">
+        <v>4.1</v>
+      </c>
+      <c r="AJ70">
+        <v>1.6</v>
+      </c>
+      <c r="AK70">
+        <v>2.2</v>
+      </c>
+      <c r="AL70">
+        <v>1.69</v>
+      </c>
+      <c r="AM70">
+        <v>2.11</v>
+      </c>
+      <c r="AN70">
+        <v>1.15</v>
+      </c>
+      <c r="AO70">
+        <v>1.21</v>
+      </c>
+      <c r="AP70">
+        <v>2.43</v>
+      </c>
+      <c r="AQ70">
+        <v>2.4</v>
+      </c>
+      <c r="AR70">
+        <v>1.6</v>
+      </c>
+      <c r="AS70">
+        <v>2.5</v>
+      </c>
+      <c r="AT70">
+        <v>1.33</v>
+      </c>
+      <c r="AU70">
+        <v>2.51</v>
+      </c>
+      <c r="AV70">
+        <v>0.99</v>
+      </c>
+      <c r="AW70">
+        <v>3.5</v>
+      </c>
+      <c r="AX70">
+        <v>1.22</v>
+      </c>
+      <c r="AY70">
+        <v>10</v>
+      </c>
+      <c r="AZ70">
+        <v>5.5</v>
+      </c>
+      <c r="BA70">
+        <v>1.16</v>
+      </c>
+      <c r="BB70">
+        <v>1.29</v>
+      </c>
+      <c r="BC70">
+        <v>1.43</v>
+      </c>
+      <c r="BD70">
+        <v>1.75</v>
+      </c>
+      <c r="BE70">
+        <v>2.22</v>
+      </c>
+      <c r="BF70">
+        <v>5</v>
+      </c>
+      <c r="BG70">
+        <v>7</v>
+      </c>
+      <c r="BH70">
+        <v>3</v>
+      </c>
+      <c r="BI70">
+        <v>3</v>
+      </c>
+      <c r="BJ70">
         <v>8</v>
       </c>
-      <c r="W70">
-        <v>1.22</v>
-      </c>
-      <c r="X70">
-        <v>4</v>
-      </c>
-      <c r="Y70">
-        <v>2.09</v>
-      </c>
-      <c r="Z70">
-        <v>1.7</v>
-      </c>
-      <c r="AA70">
-        <v>4.45</v>
-      </c>
-      <c r="AB70">
-        <v>1.19</v>
-      </c>
-      <c r="AC70">
-        <v>1.2</v>
-      </c>
-      <c r="AD70">
-        <v>5.5</v>
-      </c>
-      <c r="AE70">
-        <v>9.5</v>
-      </c>
-      <c r="AF70">
-        <v>1.02</v>
-      </c>
-      <c r="AG70">
-        <v>21</v>
-      </c>
-      <c r="AH70">
-        <v>1.1</v>
-      </c>
-      <c r="AI70">
-        <v>5.5</v>
-      </c>
-      <c r="AJ70">
-        <v>1.4</v>
-      </c>
-      <c r="AK70">
-        <v>2.75</v>
-      </c>
-      <c r="AL70">
-        <v>1.87</v>
-      </c>
-      <c r="AM70">
-        <v>1.89</v>
-      </c>
-      <c r="AN70">
-        <v>1.04</v>
-      </c>
-      <c r="AO70">
-        <v>1.12</v>
-      </c>
-      <c r="AP70">
-        <v>4</v>
-      </c>
-      <c r="AQ70">
-        <v>1</v>
-      </c>
-      <c r="AR70">
-        <v>1.8</v>
-      </c>
-      <c r="AS70">
-        <v>1.5</v>
-      </c>
-      <c r="AT70">
-        <v>1.5</v>
-      </c>
-      <c r="AU70">
-        <v>2.22</v>
-      </c>
-      <c r="AV70">
-        <v>2.25</v>
-      </c>
-      <c r="AW70">
-        <v>4.47</v>
-      </c>
-      <c r="AX70">
-        <v>1.13</v>
-      </c>
-      <c r="AY70">
-        <v>11</v>
-      </c>
-      <c r="AZ70">
-        <v>8</v>
-      </c>
-      <c r="BA70">
-        <v>1.2</v>
-      </c>
-      <c r="BB70">
-        <v>1.33</v>
-      </c>
-      <c r="BC70">
-        <v>1.61</v>
-      </c>
-      <c r="BD70">
-        <v>2.03</v>
-      </c>
-      <c r="BE70">
-        <v>2.62</v>
-      </c>
-      <c r="BF70">
-        <v>8</v>
-      </c>
-      <c r="BG70">
-        <v>4</v>
-      </c>
-      <c r="BH70">
+      <c r="BK70">
         <v>10</v>
-      </c>
-      <c r="BI70">
-        <v>5</v>
-      </c>
-      <c r="BJ70">
-        <v>18</v>
-      </c>
-      <c r="BK70">
-        <v>9</v>
       </c>
     </row>
     <row r="71" spans="1:63">
@@ -14458,7 +14464,7 @@
         <v>164</v>
       </c>
       <c r="P71" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q71">
         <v>8</v>
@@ -14649,7 +14655,7 @@
         <v>165</v>
       </c>
       <c r="P72" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q72">
         <v>1</v>
@@ -14798,7 +14804,7 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>7140074</v>
+        <v>7140075</v>
       </c>
       <c r="C73" t="s">
         <v>63</v>
@@ -14813,10 +14819,10 @@
         <v>0</v>
       </c>
       <c r="G73" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="H73" t="s">
-        <v>114</v>
+        <v>71</v>
       </c>
       <c r="I73">
         <v>1</v>
@@ -14831,157 +14837,157 @@
         <v>1</v>
       </c>
       <c r="M73">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N73">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O73" t="s">
         <v>166</v>
       </c>
       <c r="P73" t="s">
-        <v>216</v>
+        <v>115</v>
       </c>
       <c r="Q73">
+        <v>5</v>
+      </c>
+      <c r="R73">
         <v>6</v>
       </c>
-      <c r="R73">
-        <v>12</v>
-      </c>
       <c r="S73">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="T73">
-        <v>2.78</v>
+        <v>1.72</v>
       </c>
       <c r="U73">
-        <v>2.06</v>
+        <v>2.64</v>
       </c>
       <c r="V73">
-        <v>4.05</v>
+        <v>7.95</v>
       </c>
       <c r="W73">
-        <v>1.44</v>
+        <v>1.28</v>
       </c>
       <c r="X73">
-        <v>2.55</v>
+        <v>3.48</v>
       </c>
       <c r="Y73">
-        <v>3</v>
+        <v>2.32</v>
       </c>
       <c r="Z73">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AA73">
-        <v>8.25</v>
+        <v>5.3</v>
       </c>
       <c r="AB73">
-        <v>1.06</v>
+        <v>1.14</v>
       </c>
       <c r="AC73">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="AD73">
-        <v>3.25</v>
+        <v>4.6</v>
       </c>
       <c r="AE73">
-        <v>3.25</v>
+        <v>7</v>
       </c>
       <c r="AF73">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="AG73">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AH73">
-        <v>1.35</v>
+        <v>1.16</v>
       </c>
       <c r="AI73">
-        <v>2.95</v>
+        <v>4.5</v>
       </c>
       <c r="AJ73">
-        <v>2</v>
+        <v>1.55</v>
       </c>
       <c r="AK73">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
       <c r="AL73">
-        <v>1.87</v>
+        <v>2.01</v>
       </c>
       <c r="AM73">
-        <v>1.87</v>
+        <v>1.76</v>
       </c>
       <c r="AN73">
-        <v>1.25</v>
+        <v>1.04</v>
       </c>
       <c r="AO73">
-        <v>1.35</v>
+        <v>1.14</v>
       </c>
       <c r="AP73">
-        <v>1.7</v>
+        <v>3.64</v>
       </c>
       <c r="AQ73">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AR73">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AS73">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="AT73">
-        <v>3</v>
+        <v>1.67</v>
       </c>
       <c r="AU73">
-        <v>2.41</v>
+        <v>1.89</v>
       </c>
       <c r="AV73">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="AW73">
-        <v>2.41</v>
+        <v>3.82</v>
       </c>
       <c r="AX73">
-        <v>1.95</v>
+        <v>1.15</v>
       </c>
       <c r="AY73">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AZ73">
-        <v>2.38</v>
+        <v>7.5</v>
       </c>
       <c r="BA73">
-        <v>1.64</v>
+        <v>1.17</v>
       </c>
       <c r="BB73">
-        <v>1.9</v>
+        <v>1.3</v>
       </c>
       <c r="BC73">
-        <v>2.9</v>
+        <v>1.48</v>
       </c>
       <c r="BD73">
-        <v>3.6</v>
+        <v>1.8</v>
       </c>
       <c r="BE73">
-        <v>5.3</v>
+        <v>2.27</v>
       </c>
       <c r="BF73">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BG73">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="BH73">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BI73">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BJ73">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="BK73">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="74" spans="1:63">
@@ -14989,7 +14995,7 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>7140075</v>
+        <v>7140074</v>
       </c>
       <c r="C74" t="s">
         <v>63</v>
@@ -15004,10 +15010,10 @@
         <v>0</v>
       </c>
       <c r="G74" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="H74" t="s">
-        <v>71</v>
+        <v>114</v>
       </c>
       <c r="I74">
         <v>1</v>
@@ -15022,157 +15028,157 @@
         <v>1</v>
       </c>
       <c r="M74">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N74">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O74" t="s">
         <v>167</v>
       </c>
       <c r="P74" t="s">
-        <v>115</v>
+        <v>217</v>
       </c>
       <c r="Q74">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R74">
+        <v>12</v>
+      </c>
+      <c r="S74">
+        <v>18</v>
+      </c>
+      <c r="T74">
+        <v>2.78</v>
+      </c>
+      <c r="U74">
+        <v>2.06</v>
+      </c>
+      <c r="V74">
+        <v>4.05</v>
+      </c>
+      <c r="W74">
+        <v>1.44</v>
+      </c>
+      <c r="X74">
+        <v>2.55</v>
+      </c>
+      <c r="Y74">
+        <v>3</v>
+      </c>
+      <c r="Z74">
+        <v>1.33</v>
+      </c>
+      <c r="AA74">
+        <v>8.25</v>
+      </c>
+      <c r="AB74">
+        <v>1.06</v>
+      </c>
+      <c r="AC74">
+        <v>2</v>
+      </c>
+      <c r="AD74">
+        <v>3.25</v>
+      </c>
+      <c r="AE74">
+        <v>3.25</v>
+      </c>
+      <c r="AF74">
+        <v>1.07</v>
+      </c>
+      <c r="AG74">
+        <v>8</v>
+      </c>
+      <c r="AH74">
+        <v>1.35</v>
+      </c>
+      <c r="AI74">
+        <v>2.95</v>
+      </c>
+      <c r="AJ74">
+        <v>2</v>
+      </c>
+      <c r="AK74">
+        <v>1.7</v>
+      </c>
+      <c r="AL74">
+        <v>1.87</v>
+      </c>
+      <c r="AM74">
+        <v>1.87</v>
+      </c>
+      <c r="AN74">
+        <v>1.25</v>
+      </c>
+      <c r="AO74">
+        <v>1.35</v>
+      </c>
+      <c r="AP74">
+        <v>1.7</v>
+      </c>
+      <c r="AQ74">
+        <v>3</v>
+      </c>
+      <c r="AR74">
+        <v>0</v>
+      </c>
+      <c r="AS74">
+        <v>1.75</v>
+      </c>
+      <c r="AT74">
+        <v>2</v>
+      </c>
+      <c r="AU74">
+        <v>2.41</v>
+      </c>
+      <c r="AV74">
+        <v>0</v>
+      </c>
+      <c r="AW74">
+        <v>2.41</v>
+      </c>
+      <c r="AX74">
+        <v>1.95</v>
+      </c>
+      <c r="AY74">
         <v>6</v>
       </c>
-      <c r="S74">
-        <v>11</v>
-      </c>
-      <c r="T74">
-        <v>1.72</v>
-      </c>
-      <c r="U74">
-        <v>2.64</v>
-      </c>
-      <c r="V74">
-        <v>7.95</v>
-      </c>
-      <c r="W74">
-        <v>1.28</v>
-      </c>
-      <c r="X74">
-        <v>3.48</v>
-      </c>
-      <c r="Y74">
-        <v>2.32</v>
-      </c>
-      <c r="Z74">
-        <v>1.57</v>
-      </c>
-      <c r="AA74">
+      <c r="AZ74">
+        <v>2.38</v>
+      </c>
+      <c r="BA74">
+        <v>1.64</v>
+      </c>
+      <c r="BB74">
+        <v>1.9</v>
+      </c>
+      <c r="BC74">
+        <v>2.9</v>
+      </c>
+      <c r="BD74">
+        <v>3.6</v>
+      </c>
+      <c r="BE74">
         <v>5.3</v>
       </c>
-      <c r="AB74">
-        <v>1.14</v>
-      </c>
-      <c r="AC74">
-        <v>1.3</v>
-      </c>
-      <c r="AD74">
-        <v>4.6</v>
-      </c>
-      <c r="AE74">
-        <v>7</v>
-      </c>
-      <c r="AF74">
-        <v>1.03</v>
-      </c>
-      <c r="AG74">
-        <v>11</v>
-      </c>
-      <c r="AH74">
-        <v>1.16</v>
-      </c>
-      <c r="AI74">
-        <v>4.5</v>
-      </c>
-      <c r="AJ74">
-        <v>1.55</v>
-      </c>
-      <c r="AK74">
-        <v>2.3</v>
-      </c>
-      <c r="AL74">
-        <v>2.01</v>
-      </c>
-      <c r="AM74">
-        <v>1.76</v>
-      </c>
-      <c r="AN74">
-        <v>1.04</v>
-      </c>
-      <c r="AO74">
-        <v>1.14</v>
-      </c>
-      <c r="AP74">
-        <v>3.64</v>
-      </c>
-      <c r="AQ74">
-        <v>2.33</v>
-      </c>
-      <c r="AR74">
-        <v>2</v>
-      </c>
-      <c r="AS74">
-        <v>2.5</v>
-      </c>
-      <c r="AT74">
-        <v>1.67</v>
-      </c>
-      <c r="AU74">
-        <v>1.89</v>
-      </c>
-      <c r="AV74">
-        <v>1.93</v>
-      </c>
-      <c r="AW74">
-        <v>3.82</v>
-      </c>
-      <c r="AX74">
-        <v>1.15</v>
-      </c>
-      <c r="AY74">
+      <c r="BF74">
+        <v>6</v>
+      </c>
+      <c r="BG74">
+        <v>8</v>
+      </c>
+      <c r="BH74">
+        <v>6</v>
+      </c>
+      <c r="BI74">
+        <v>2</v>
+      </c>
+      <c r="BJ74">
+        <v>12</v>
+      </c>
+      <c r="BK74">
         <v>10</v>
-      </c>
-      <c r="AZ74">
-        <v>7.5</v>
-      </c>
-      <c r="BA74">
-        <v>1.17</v>
-      </c>
-      <c r="BB74">
-        <v>1.3</v>
-      </c>
-      <c r="BC74">
-        <v>1.48</v>
-      </c>
-      <c r="BD74">
-        <v>1.8</v>
-      </c>
-      <c r="BE74">
-        <v>2.27</v>
-      </c>
-      <c r="BF74">
-        <v>4</v>
-      </c>
-      <c r="BG74">
-        <v>2</v>
-      </c>
-      <c r="BH74">
-        <v>3</v>
-      </c>
-      <c r="BI74">
-        <v>3</v>
-      </c>
-      <c r="BJ74">
-        <v>7</v>
-      </c>
-      <c r="BK74">
-        <v>5</v>
       </c>
     </row>
     <row r="75" spans="1:63">
@@ -15180,7 +15186,7 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>7140076</v>
+        <v>7033846</v>
       </c>
       <c r="C75" t="s">
         <v>63</v>
@@ -15195,175 +15201,175 @@
         <v>0</v>
       </c>
       <c r="G75" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="H75" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I75">
         <v>1</v>
       </c>
       <c r="J75">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K75">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L75">
         <v>1</v>
       </c>
       <c r="M75">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N75">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O75" t="s">
-        <v>134</v>
+        <v>168</v>
       </c>
       <c r="P75" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q75">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="R75">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="S75">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="T75">
-        <v>3.96</v>
+        <v>3.82</v>
       </c>
       <c r="U75">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="V75">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="W75">
+        <v>1.3</v>
+      </c>
+      <c r="X75">
+        <v>3.34</v>
+      </c>
+      <c r="Y75">
+        <v>2.41</v>
+      </c>
+      <c r="Z75">
+        <v>1.53</v>
+      </c>
+      <c r="AA75">
+        <v>5.65</v>
+      </c>
+      <c r="AB75">
+        <v>1.12</v>
+      </c>
+      <c r="AC75">
+        <v>3.1</v>
+      </c>
+      <c r="AD75">
+        <v>3.35</v>
+      </c>
+      <c r="AE75">
+        <v>2</v>
+      </c>
+      <c r="AF75">
+        <v>1.03</v>
+      </c>
+      <c r="AG75">
+        <v>12.5</v>
+      </c>
+      <c r="AH75">
+        <v>1.2</v>
+      </c>
+      <c r="AI75">
+        <v>4.2</v>
+      </c>
+      <c r="AJ75">
+        <v>1.62</v>
+      </c>
+      <c r="AK75">
+        <v>2.15</v>
+      </c>
+      <c r="AL75">
+        <v>1.56</v>
+      </c>
+      <c r="AM75">
+        <v>2.36</v>
+      </c>
+      <c r="AN75">
+        <v>1.75</v>
+      </c>
+      <c r="AO75">
+        <v>1.27</v>
+      </c>
+      <c r="AP75">
         <v>1.33</v>
       </c>
-      <c r="X75">
-        <v>3.16</v>
-      </c>
-      <c r="Y75">
-        <v>2.52</v>
-      </c>
-      <c r="Z75">
-        <v>1.49</v>
-      </c>
-      <c r="AA75">
-        <v>6.05</v>
-      </c>
-      <c r="AB75">
-        <v>1.11</v>
-      </c>
-      <c r="AC75">
-        <v>3.05</v>
-      </c>
-      <c r="AD75">
-        <v>3.4</v>
-      </c>
-      <c r="AE75">
-        <v>2</v>
-      </c>
-      <c r="AF75">
-        <v>1.05</v>
-      </c>
-      <c r="AG75">
-        <v>10.5</v>
-      </c>
-      <c r="AH75">
-        <v>1.25</v>
-      </c>
-      <c r="AI75">
-        <v>3.6</v>
-      </c>
-      <c r="AJ75">
-        <v>1.7</v>
-      </c>
-      <c r="AK75">
-        <v>2</v>
-      </c>
-      <c r="AL75">
-        <v>1.63</v>
-      </c>
-      <c r="AM75">
-        <v>2.22</v>
-      </c>
-      <c r="AN75">
-        <v>1.78</v>
-      </c>
-      <c r="AO75">
-        <v>1.28</v>
-      </c>
-      <c r="AP75">
-        <v>1.31</v>
-      </c>
       <c r="AQ75">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="AR75">
         <v>3</v>
       </c>
       <c r="AS75">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="AT75">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AU75">
-        <v>2.06</v>
+        <v>0</v>
       </c>
       <c r="AV75">
         <v>0</v>
       </c>
       <c r="AW75">
-        <v>2.06</v>
+        <v>0</v>
       </c>
       <c r="AX75">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="AY75">
         <v>7</v>
       </c>
       <c r="AZ75">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="BA75">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="BB75">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="BC75">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="BD75">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="BE75">
-        <v>2.95</v>
+        <v>2.9</v>
       </c>
       <c r="BF75">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BG75">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BH75">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BI75">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BJ75">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BK75">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="76" spans="1:63">
@@ -15371,7 +15377,7 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>7033846</v>
+        <v>7140076</v>
       </c>
       <c r="C76" t="s">
         <v>63</v>
@@ -15386,175 +15392,175 @@
         <v>0</v>
       </c>
       <c r="G76" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="H76" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="I76">
         <v>1</v>
       </c>
       <c r="J76">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K76">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L76">
         <v>1</v>
       </c>
       <c r="M76">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N76">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O76" t="s">
-        <v>168</v>
+        <v>134</v>
       </c>
       <c r="P76" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q76">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="R76">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="S76">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="T76">
-        <v>3.82</v>
+        <v>3.96</v>
       </c>
       <c r="U76">
-        <v>2.3</v>
+        <v>2.26</v>
       </c>
       <c r="V76">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="W76">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="X76">
-        <v>3.34</v>
+        <v>3.16</v>
       </c>
       <c r="Y76">
-        <v>2.41</v>
+        <v>2.52</v>
       </c>
       <c r="Z76">
-        <v>1.53</v>
+        <v>1.49</v>
       </c>
       <c r="AA76">
-        <v>5.65</v>
+        <v>6.05</v>
       </c>
       <c r="AB76">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AC76">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="AD76">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="AE76">
         <v>2</v>
       </c>
       <c r="AF76">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="AG76">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="AH76">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="AI76">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="AJ76">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="AK76">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="AL76">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AM76">
-        <v>2.36</v>
+        <v>2.22</v>
       </c>
       <c r="AN76">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="AO76">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="AP76">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AQ76">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="AR76">
         <v>3</v>
       </c>
       <c r="AS76">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AT76">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU76">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="AV76">
         <v>0</v>
       </c>
       <c r="AW76">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="AX76">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="AY76">
         <v>7</v>
       </c>
       <c r="AZ76">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="BA76">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="BB76">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="BC76">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="BD76">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="BE76">
-        <v>2.9</v>
+        <v>2.95</v>
       </c>
       <c r="BF76">
+        <v>6</v>
+      </c>
+      <c r="BG76">
+        <v>5</v>
+      </c>
+      <c r="BH76">
         <v>4</v>
       </c>
-      <c r="BG76">
-        <v>9</v>
-      </c>
-      <c r="BH76">
-        <v>7</v>
-      </c>
       <c r="BI76">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BJ76">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BK76">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="77" spans="1:63">
@@ -15604,7 +15610,7 @@
         <v>169</v>
       </c>
       <c r="P77" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q77">
         <v>10</v>
@@ -15746,6 +15752,197 @@
       </c>
       <c r="BK77">
         <v>8</v>
+      </c>
+    </row>
+    <row r="78" spans="1:63">
+      <c r="A78" s="1">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>7140065</v>
+      </c>
+      <c r="C78" t="s">
+        <v>63</v>
+      </c>
+      <c r="D78" t="s">
+        <v>64</v>
+      </c>
+      <c r="E78" s="2">
+        <v>45157.65625</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78" t="s">
+        <v>114</v>
+      </c>
+      <c r="H78" t="s">
+        <v>98</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>1</v>
+      </c>
+      <c r="K78">
+        <v>1</v>
+      </c>
+      <c r="L78">
+        <v>2</v>
+      </c>
+      <c r="M78">
+        <v>2</v>
+      </c>
+      <c r="N78">
+        <v>4</v>
+      </c>
+      <c r="O78" t="s">
+        <v>170</v>
+      </c>
+      <c r="P78" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q78">
+        <v>4</v>
+      </c>
+      <c r="R78">
+        <v>0</v>
+      </c>
+      <c r="S78">
+        <v>4</v>
+      </c>
+      <c r="T78">
+        <v>2.63</v>
+      </c>
+      <c r="U78">
+        <v>2.1</v>
+      </c>
+      <c r="V78">
+        <v>3.75</v>
+      </c>
+      <c r="W78">
+        <v>1.4</v>
+      </c>
+      <c r="X78">
+        <v>2.75</v>
+      </c>
+      <c r="Y78">
+        <v>3</v>
+      </c>
+      <c r="Z78">
+        <v>1.36</v>
+      </c>
+      <c r="AA78">
+        <v>7</v>
+      </c>
+      <c r="AB78">
+        <v>1.08</v>
+      </c>
+      <c r="AC78">
+        <v>1.87</v>
+      </c>
+      <c r="AD78">
+        <v>3.5</v>
+      </c>
+      <c r="AE78">
+        <v>4.09</v>
+      </c>
+      <c r="AF78">
+        <v>1.05</v>
+      </c>
+      <c r="AG78">
+        <v>10</v>
+      </c>
+      <c r="AH78">
+        <v>1.33</v>
+      </c>
+      <c r="AI78">
+        <v>3.25</v>
+      </c>
+      <c r="AJ78">
+        <v>1.95</v>
+      </c>
+      <c r="AK78">
+        <v>1.8</v>
+      </c>
+      <c r="AL78">
+        <v>1.8</v>
+      </c>
+      <c r="AM78">
+        <v>1.91</v>
+      </c>
+      <c r="AN78">
+        <v>1.3</v>
+      </c>
+      <c r="AO78">
+        <v>1.3</v>
+      </c>
+      <c r="AP78">
+        <v>1.7</v>
+      </c>
+      <c r="AQ78">
+        <v>3</v>
+      </c>
+      <c r="AR78">
+        <v>2</v>
+      </c>
+      <c r="AS78">
+        <v>2</v>
+      </c>
+      <c r="AT78">
+        <v>1.75</v>
+      </c>
+      <c r="AU78">
+        <v>0</v>
+      </c>
+      <c r="AV78">
+        <v>1.4</v>
+      </c>
+      <c r="AW78">
+        <v>1.4</v>
+      </c>
+      <c r="AX78">
+        <v>1.75</v>
+      </c>
+      <c r="AY78">
+        <v>7</v>
+      </c>
+      <c r="AZ78">
+        <v>2.63</v>
+      </c>
+      <c r="BA78">
+        <v>1.42</v>
+      </c>
+      <c r="BB78">
+        <v>1.78</v>
+      </c>
+      <c r="BC78">
+        <v>1.8</v>
+      </c>
+      <c r="BD78">
+        <v>2.3</v>
+      </c>
+      <c r="BE78">
+        <v>3.2</v>
+      </c>
+      <c r="BF78">
+        <v>11</v>
+      </c>
+      <c r="BG78">
+        <v>5</v>
+      </c>
+      <c r="BH78">
+        <v>6</v>
+      </c>
+      <c r="BI78">
+        <v>4</v>
+      </c>
+      <c r="BJ78">
+        <v>17</v>
+      </c>
+      <c r="BK78">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Europe UEFA Champions League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Europe UEFA Champions League_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="232">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -361,6 +361,12 @@
     <t>AEK Athens</t>
   </si>
   <si>
+    <t>Royal Antwerp FC</t>
+  </si>
+  <si>
+    <t>Young Boys</t>
+  </si>
+  <si>
     <t>[]</t>
   </si>
   <si>
@@ -529,6 +535,18 @@
     <t>['90+2', '90+11']</t>
   </si>
   <si>
+    <t>['16']</t>
+  </si>
+  <si>
+    <t>['45', '76']</t>
+  </si>
+  <si>
+    <t>['51', '73']</t>
+  </si>
+  <si>
+    <t>['8', '56']</t>
+  </si>
+  <si>
     <t>['13', '21', '60']</t>
   </si>
   <si>
@@ -680,6 +698,18 @@
   </si>
   <si>
     <t>['45+1', '65']</t>
+  </si>
+  <si>
+    <t>['61', '80']</t>
+  </si>
+  <si>
+    <t>['9']</t>
+  </si>
+  <si>
+    <t>['90+5']</t>
+  </si>
+  <si>
+    <t>['25', '29', '90+3']</t>
   </si>
 </sst>
 </file>
@@ -1041,7 +1071,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK78"/>
+  <dimension ref="A1:BK84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1282,10 +1312,10 @@
         <v>3</v>
       </c>
       <c r="O2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="P2" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="Q2">
         <v>2</v>
@@ -1473,10 +1503,10 @@
         <v>8</v>
       </c>
       <c r="O3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="P3" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -1664,10 +1694,10 @@
         <v>5</v>
       </c>
       <c r="O4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="P4" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="Q4">
         <v>-1</v>
@@ -1855,10 +1885,10 @@
         <v>1</v>
       </c>
       <c r="O5" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="P5" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="Q5">
         <v>2</v>
@@ -2046,10 +2076,10 @@
         <v>3</v>
       </c>
       <c r="O6" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="P6" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="Q6">
         <v>1</v>
@@ -2237,10 +2267,10 @@
         <v>0</v>
       </c>
       <c r="O7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="P7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q7">
         <v>8</v>
@@ -2428,10 +2458,10 @@
         <v>3</v>
       </c>
       <c r="O8" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="P8" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="Q8">
         <v>5</v>
@@ -2619,10 +2649,10 @@
         <v>1</v>
       </c>
       <c r="O9" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P9" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q9">
         <v>11</v>
@@ -2709,7 +2739,7 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>2.67</v>
+        <v>2.29</v>
       </c>
       <c r="AT9">
         <v>0</v>
@@ -2810,10 +2840,10 @@
         <v>4</v>
       </c>
       <c r="O10" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="P10" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="Q10">
         <v>4</v>
@@ -2903,7 +2933,7 @@
         <v>0</v>
       </c>
       <c r="AT10">
-        <v>2.5</v>
+        <v>2.29</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3001,10 +3031,10 @@
         <v>2</v>
       </c>
       <c r="O11" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P11" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q11">
         <v>6</v>
@@ -3192,10 +3222,10 @@
         <v>0</v>
       </c>
       <c r="O12" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="P12" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q12">
         <v>5</v>
@@ -3383,10 +3413,10 @@
         <v>2</v>
       </c>
       <c r="O13" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="P13" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="Q13">
         <v>6</v>
@@ -3574,10 +3604,10 @@
         <v>1</v>
       </c>
       <c r="O14" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="P14" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q14">
         <v>3</v>
@@ -3765,10 +3795,10 @@
         <v>2</v>
       </c>
       <c r="O15" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="P15" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="Q15">
         <v>6</v>
@@ -3956,10 +3986,10 @@
         <v>1</v>
       </c>
       <c r="O16" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="P16" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q16">
         <v>4</v>
@@ -4147,10 +4177,10 @@
         <v>4</v>
       </c>
       <c r="O17" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="P17" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="Q17">
         <v>10</v>
@@ -4338,10 +4368,10 @@
         <v>1</v>
       </c>
       <c r="O18" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="P18" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q18">
         <v>3</v>
@@ -4529,10 +4559,10 @@
         <v>2</v>
       </c>
       <c r="O19" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="P19" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q19">
         <v>5</v>
@@ -4720,10 +4750,10 @@
         <v>3</v>
       </c>
       <c r="O20" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="P20" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="Q20">
         <v>1</v>
@@ -4911,10 +4941,10 @@
         <v>3</v>
       </c>
       <c r="O21" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="P21" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5004,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="AT21">
-        <v>2.67</v>
+        <v>2.29</v>
       </c>
       <c r="AU21">
         <v>0</v>
@@ -5102,10 +5132,10 @@
         <v>3</v>
       </c>
       <c r="O22" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="P22" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q22">
         <v>10</v>
@@ -5293,10 +5323,10 @@
         <v>3</v>
       </c>
       <c r="O23" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="P23" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="Q23">
         <v>4</v>
@@ -5383,7 +5413,7 @@
         <v>0</v>
       </c>
       <c r="AS23">
-        <v>2.5</v>
+        <v>2.29</v>
       </c>
       <c r="AT23">
         <v>0</v>
@@ -5484,10 +5514,10 @@
         <v>5</v>
       </c>
       <c r="O24" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="P24" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="Q24">
         <v>1</v>
@@ -5675,10 +5705,10 @@
         <v>2</v>
       </c>
       <c r="O25" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="P25" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q25">
         <v>2</v>
@@ -5866,10 +5896,10 @@
         <v>2</v>
       </c>
       <c r="O26" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="P26" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="Q26">
         <v>0</v>
@@ -6057,10 +6087,10 @@
         <v>3</v>
       </c>
       <c r="O27" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="P27" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="Q27">
         <v>4</v>
@@ -6248,10 +6278,10 @@
         <v>3</v>
       </c>
       <c r="O28" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="P28" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="Q28">
         <v>1</v>
@@ -6439,10 +6469,10 @@
         <v>3</v>
       </c>
       <c r="O29" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="P29" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="Q29">
         <v>12</v>
@@ -6630,10 +6660,10 @@
         <v>4</v>
       </c>
       <c r="O30" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="P30" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q30">
         <v>11</v>
@@ -6821,10 +6851,10 @@
         <v>3</v>
       </c>
       <c r="O31" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="P31" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="Q31">
         <v>6</v>
@@ -7012,10 +7042,10 @@
         <v>2</v>
       </c>
       <c r="O32" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="P32" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="Q32">
         <v>8</v>
@@ -7203,10 +7233,10 @@
         <v>4</v>
       </c>
       <c r="O33" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="P33" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q33">
         <v>8</v>
@@ -7394,10 +7424,10 @@
         <v>4</v>
       </c>
       <c r="O34" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="P34" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="Q34">
         <v>8</v>
@@ -7585,10 +7615,10 @@
         <v>1</v>
       </c>
       <c r="O35" t="s">
+        <v>119</v>
+      </c>
+      <c r="P35" t="s">
         <v>117</v>
-      </c>
-      <c r="P35" t="s">
-        <v>115</v>
       </c>
       <c r="Q35">
         <v>2</v>
@@ -7678,7 +7708,7 @@
         <v>1.75</v>
       </c>
       <c r="AT35">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AU35">
         <v>1.26</v>
@@ -7776,10 +7806,10 @@
         <v>4</v>
       </c>
       <c r="O36" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="P36" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="Q36">
         <v>3</v>
@@ -7869,7 +7899,7 @@
         <v>1.25</v>
       </c>
       <c r="AT36">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AU36">
         <v>1.51</v>
@@ -7967,10 +7997,10 @@
         <v>4</v>
       </c>
       <c r="O37" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P37" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q37">
         <v>15</v>
@@ -8158,10 +8188,10 @@
         <v>4</v>
       </c>
       <c r="O38" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P38" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="Q38">
         <v>4</v>
@@ -8251,7 +8281,7 @@
         <v>0.5</v>
       </c>
       <c r="AT38">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AU38">
         <v>0</v>
@@ -8349,10 +8379,10 @@
         <v>2</v>
       </c>
       <c r="O39" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P39" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="Q39">
         <v>5</v>
@@ -8540,10 +8570,10 @@
         <v>1</v>
       </c>
       <c r="O40" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="P40" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="Q40">
         <v>6</v>
@@ -8731,10 +8761,10 @@
         <v>2</v>
       </c>
       <c r="O41" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="Q41">
         <v>7</v>
@@ -8824,7 +8854,7 @@
         <v>2</v>
       </c>
       <c r="AT41">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AU41">
         <v>1.42</v>
@@ -8922,10 +8952,10 @@
         <v>1</v>
       </c>
       <c r="O42" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="P42" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9015,7 +9045,7 @@
         <v>1.5</v>
       </c>
       <c r="AT42">
-        <v>2.5</v>
+        <v>2.29</v>
       </c>
       <c r="AU42">
         <v>1.39</v>
@@ -9113,10 +9143,10 @@
         <v>8</v>
       </c>
       <c r="O43" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="P43" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="Q43">
         <v>7</v>
@@ -9304,10 +9334,10 @@
         <v>5</v>
       </c>
       <c r="O44" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="P44" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="Q44">
         <v>3</v>
@@ -9394,7 +9424,7 @@
         <v>3</v>
       </c>
       <c r="AS44">
-        <v>2.67</v>
+        <v>2.29</v>
       </c>
       <c r="AT44">
         <v>1.75</v>
@@ -9495,10 +9525,10 @@
         <v>0</v>
       </c>
       <c r="O45" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="P45" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q45">
         <v>5</v>
@@ -9686,10 +9716,10 @@
         <v>2</v>
       </c>
       <c r="O46" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="P46" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -9877,10 +9907,10 @@
         <v>4</v>
       </c>
       <c r="O47" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="P47" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="Q47">
         <v>6</v>
@@ -9967,7 +9997,7 @@
         <v>0</v>
       </c>
       <c r="AS47">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AT47">
         <v>0.5</v>
@@ -10068,10 +10098,10 @@
         <v>3</v>
       </c>
       <c r="O48" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="P48" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="Q48">
         <v>11</v>
@@ -10259,10 +10289,10 @@
         <v>8</v>
       </c>
       <c r="O49" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="P49" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="Q49">
         <v>7</v>
@@ -10450,10 +10480,10 @@
         <v>4</v>
       </c>
       <c r="O50" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="P50" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="Q50">
         <v>7</v>
@@ -10641,10 +10671,10 @@
         <v>2</v>
       </c>
       <c r="O51" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="P51" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="Q51">
         <v>8</v>
@@ -10832,10 +10862,10 @@
         <v>2</v>
       </c>
       <c r="O52" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="P52" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="Q52">
         <v>6</v>
@@ -10925,7 +10955,7 @@
         <v>1.75</v>
       </c>
       <c r="AT52">
-        <v>2.67</v>
+        <v>2.29</v>
       </c>
       <c r="AU52">
         <v>2.81</v>
@@ -11023,10 +11053,10 @@
         <v>6</v>
       </c>
       <c r="O53" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="P53" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="Q53">
         <v>8</v>
@@ -11214,10 +11244,10 @@
         <v>4</v>
       </c>
       <c r="O54" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="P54" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="Q54">
         <v>11</v>
@@ -11405,10 +11435,10 @@
         <v>2</v>
       </c>
       <c r="O55" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="P55" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q55">
         <v>10</v>
@@ -11495,7 +11525,7 @@
         <v>2.33</v>
       </c>
       <c r="AS55">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AT55">
         <v>1.75</v>
@@ -11596,10 +11626,10 @@
         <v>5</v>
       </c>
       <c r="O56" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="P56" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="Q56">
         <v>14</v>
@@ -11686,7 +11716,7 @@
         <v>2</v>
       </c>
       <c r="AS56">
-        <v>2.5</v>
+        <v>2.29</v>
       </c>
       <c r="AT56">
         <v>1.5</v>
@@ -11787,10 +11817,10 @@
         <v>9</v>
       </c>
       <c r="O57" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="P57" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -11877,7 +11907,7 @@
         <v>2.4</v>
       </c>
       <c r="AS57">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AT57">
         <v>2</v>
@@ -11978,10 +12008,10 @@
         <v>1</v>
       </c>
       <c r="O58" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="P58" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q58">
         <v>9</v>
@@ -12068,7 +12098,7 @@
         <v>1.67</v>
       </c>
       <c r="AS58">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AT58">
         <v>1.25</v>
@@ -12169,10 +12199,10 @@
         <v>3</v>
       </c>
       <c r="O59" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="P59" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="Q59">
         <v>6</v>
@@ -12259,7 +12289,7 @@
         <v>3</v>
       </c>
       <c r="AS59">
-        <v>2.67</v>
+        <v>2.29</v>
       </c>
       <c r="AT59">
         <v>1.5</v>
@@ -12360,10 +12390,10 @@
         <v>0</v>
       </c>
       <c r="O60" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="P60" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q60">
         <v>5</v>
@@ -12450,7 +12480,7 @@
         <v>0</v>
       </c>
       <c r="AS60">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AT60">
         <v>1</v>
@@ -12551,10 +12581,10 @@
         <v>5</v>
       </c>
       <c r="O61" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="P61" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q61">
         <v>5</v>
@@ -12641,7 +12671,7 @@
         <v>0</v>
       </c>
       <c r="AS61">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AT61">
         <v>0</v>
@@ -12742,10 +12772,10 @@
         <v>3</v>
       </c>
       <c r="O62" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="P62" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="Q62">
         <v>3</v>
@@ -12835,7 +12865,7 @@
         <v>1.5</v>
       </c>
       <c r="AT62">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AU62">
         <v>1.33</v>
@@ -12933,10 +12963,10 @@
         <v>3</v>
       </c>
       <c r="O63" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="P63" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q63">
         <v>9</v>
@@ -13124,10 +13154,10 @@
         <v>3</v>
       </c>
       <c r="O64" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="P64" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="Q64">
         <v>5</v>
@@ -13217,7 +13247,7 @@
         <v>1.67</v>
       </c>
       <c r="AT64">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AU64">
         <v>2.29</v>
@@ -13315,10 +13345,10 @@
         <v>1</v>
       </c>
       <c r="O65" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="P65" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q65">
         <v>3</v>
@@ -13405,7 +13435,7 @@
         <v>0</v>
       </c>
       <c r="AS65">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AT65">
         <v>1.5</v>
@@ -13506,10 +13536,10 @@
         <v>3</v>
       </c>
       <c r="O66" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="P66" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="Q66">
         <v>8</v>
@@ -13599,7 +13629,7 @@
         <v>1.33</v>
       </c>
       <c r="AT66">
-        <v>2.5</v>
+        <v>2.29</v>
       </c>
       <c r="AU66">
         <v>1.21</v>
@@ -13697,10 +13727,10 @@
         <v>3</v>
       </c>
       <c r="O67" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="P67" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q67">
         <v>2</v>
@@ -13787,7 +13817,7 @@
         <v>1</v>
       </c>
       <c r="AS67">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AT67">
         <v>0.75</v>
@@ -13888,10 +13918,10 @@
         <v>2</v>
       </c>
       <c r="O68" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="P68" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q68">
         <v>13</v>
@@ -13978,7 +14008,7 @@
         <v>1.8</v>
       </c>
       <c r="AS68">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AT68">
         <v>1.5</v>
@@ -14079,10 +14109,10 @@
         <v>1</v>
       </c>
       <c r="O69" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="P69" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="Q69">
         <v>9</v>
@@ -14172,7 +14202,7 @@
         <v>1.5</v>
       </c>
       <c r="AT69">
-        <v>2.67</v>
+        <v>2.29</v>
       </c>
       <c r="AU69">
         <v>2.45</v>
@@ -14270,10 +14300,10 @@
         <v>4</v>
       </c>
       <c r="O70" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="P70" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="Q70">
         <v>4</v>
@@ -14360,7 +14390,7 @@
         <v>1.6</v>
       </c>
       <c r="AS70">
-        <v>2.5</v>
+        <v>2.29</v>
       </c>
       <c r="AT70">
         <v>1.33</v>
@@ -14461,10 +14491,10 @@
         <v>6</v>
       </c>
       <c r="O71" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="P71" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="Q71">
         <v>8</v>
@@ -14554,7 +14584,7 @@
         <v>1</v>
       </c>
       <c r="AT71">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AU71">
         <v>0</v>
@@ -14652,10 +14682,10 @@
         <v>5</v>
       </c>
       <c r="O72" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="P72" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="Q72">
         <v>1</v>
@@ -14843,10 +14873,10 @@
         <v>1</v>
       </c>
       <c r="O73" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="P73" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q73">
         <v>5</v>
@@ -14933,7 +14963,7 @@
         <v>2</v>
       </c>
       <c r="AS73">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AT73">
         <v>1.67</v>
@@ -15034,10 +15064,10 @@
         <v>3</v>
       </c>
       <c r="O74" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="P74" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="Q74">
         <v>6</v>
@@ -15127,7 +15157,7 @@
         <v>1.75</v>
       </c>
       <c r="AT74">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AU74">
         <v>2.41</v>
@@ -15225,10 +15255,10 @@
         <v>4</v>
       </c>
       <c r="O75" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="P75" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="Q75">
         <v>7</v>
@@ -15318,7 +15348,7 @@
         <v>0</v>
       </c>
       <c r="AT75">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AU75">
         <v>0</v>
@@ -15416,10 +15446,10 @@
         <v>2</v>
       </c>
       <c r="O76" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="P76" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="Q76">
         <v>9</v>
@@ -15509,7 +15539,7 @@
         <v>0.75</v>
       </c>
       <c r="AT76">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AU76">
         <v>2.06</v>
@@ -15607,10 +15637,10 @@
         <v>3</v>
       </c>
       <c r="O77" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="P77" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="Q77">
         <v>10</v>
@@ -15700,7 +15730,7 @@
         <v>1.5</v>
       </c>
       <c r="AT77">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AU77">
         <v>0</v>
@@ -15798,10 +15828,10 @@
         <v>4</v>
       </c>
       <c r="O78" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="P78" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="Q78">
         <v>4</v>
@@ -15888,7 +15918,7 @@
         <v>2</v>
       </c>
       <c r="AS78">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AT78">
         <v>1.75</v>
@@ -15943,6 +15973,1152 @@
       </c>
       <c r="BK78">
         <v>9</v>
+      </c>
+    </row>
+    <row r="79" spans="1:63">
+      <c r="A79" s="1">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>7181926</v>
+      </c>
+      <c r="C79" t="s">
+        <v>63</v>
+      </c>
+      <c r="D79" t="s">
+        <v>64</v>
+      </c>
+      <c r="E79" s="2">
+        <v>45160.66666666666</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79" t="s">
+        <v>115</v>
+      </c>
+      <c r="H79" t="s">
+        <v>114</v>
+      </c>
+      <c r="I79">
+        <v>1</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <v>1</v>
+      </c>
+      <c r="L79">
+        <v>1</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <v>1</v>
+      </c>
+      <c r="O79" t="s">
+        <v>173</v>
+      </c>
+      <c r="P79" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q79">
+        <v>2</v>
+      </c>
+      <c r="R79">
+        <v>11</v>
+      </c>
+      <c r="S79">
+        <v>13</v>
+      </c>
+      <c r="T79">
+        <v>2.7</v>
+      </c>
+      <c r="U79">
+        <v>2.15</v>
+      </c>
+      <c r="V79">
+        <v>3.6</v>
+      </c>
+      <c r="W79">
+        <v>1.37</v>
+      </c>
+      <c r="X79">
+        <v>2.8</v>
+      </c>
+      <c r="Y79">
+        <v>2.65</v>
+      </c>
+      <c r="Z79">
+        <v>1.42</v>
+      </c>
+      <c r="AA79">
+        <v>5.8</v>
+      </c>
+      <c r="AB79">
+        <v>1.1</v>
+      </c>
+      <c r="AC79">
+        <v>2.15</v>
+      </c>
+      <c r="AD79">
+        <v>3.5</v>
+      </c>
+      <c r="AE79">
+        <v>3.29</v>
+      </c>
+      <c r="AF79">
+        <v>1.03</v>
+      </c>
+      <c r="AG79">
+        <v>10.5</v>
+      </c>
+      <c r="AH79">
+        <v>1.25</v>
+      </c>
+      <c r="AI79">
+        <v>3.8</v>
+      </c>
+      <c r="AJ79">
+        <v>1.82</v>
+      </c>
+      <c r="AK79">
+        <v>1.92</v>
+      </c>
+      <c r="AL79">
+        <v>1.74</v>
+      </c>
+      <c r="AM79">
+        <v>2.06</v>
+      </c>
+      <c r="AN79">
+        <v>1.35</v>
+      </c>
+      <c r="AO79">
+        <v>1.29</v>
+      </c>
+      <c r="AP79">
+        <v>1.65</v>
+      </c>
+      <c r="AQ79">
+        <v>0</v>
+      </c>
+      <c r="AR79">
+        <v>2</v>
+      </c>
+      <c r="AS79">
+        <v>3</v>
+      </c>
+      <c r="AT79">
+        <v>1.33</v>
+      </c>
+      <c r="AU79">
+        <v>0</v>
+      </c>
+      <c r="AV79">
+        <v>1.58</v>
+      </c>
+      <c r="AW79">
+        <v>1.58</v>
+      </c>
+      <c r="AX79">
+        <v>1.79</v>
+      </c>
+      <c r="AY79">
+        <v>9.1</v>
+      </c>
+      <c r="AZ79">
+        <v>2.49</v>
+      </c>
+      <c r="BA79">
+        <v>1.2</v>
+      </c>
+      <c r="BB79">
+        <v>1.36</v>
+      </c>
+      <c r="BC79">
+        <v>1.5</v>
+      </c>
+      <c r="BD79">
+        <v>1.83</v>
+      </c>
+      <c r="BE79">
+        <v>2.38</v>
+      </c>
+      <c r="BF79">
+        <v>5</v>
+      </c>
+      <c r="BG79">
+        <v>5</v>
+      </c>
+      <c r="BH79">
+        <v>2</v>
+      </c>
+      <c r="BI79">
+        <v>11</v>
+      </c>
+      <c r="BJ79">
+        <v>7</v>
+      </c>
+      <c r="BK79">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="80" spans="1:63">
+      <c r="A80" s="1">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>7172910</v>
+      </c>
+      <c r="C80" t="s">
+        <v>63</v>
+      </c>
+      <c r="D80" t="s">
+        <v>64</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45160.66666666666</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+      <c r="G80" t="s">
+        <v>109</v>
+      </c>
+      <c r="H80" t="s">
+        <v>107</v>
+      </c>
+      <c r="I80">
+        <v>1</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80">
+        <v>1</v>
+      </c>
+      <c r="L80">
+        <v>2</v>
+      </c>
+      <c r="M80">
+        <v>2</v>
+      </c>
+      <c r="N80">
+        <v>4</v>
+      </c>
+      <c r="O80" t="s">
+        <v>174</v>
+      </c>
+      <c r="P80" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q80">
+        <v>5</v>
+      </c>
+      <c r="R80">
+        <v>10</v>
+      </c>
+      <c r="S80">
+        <v>15</v>
+      </c>
+      <c r="T80">
+        <v>3.22</v>
+      </c>
+      <c r="U80">
+        <v>2.24</v>
+      </c>
+      <c r="V80">
+        <v>2.98</v>
+      </c>
+      <c r="W80">
+        <v>1.33</v>
+      </c>
+      <c r="X80">
+        <v>3.16</v>
+      </c>
+      <c r="Y80">
+        <v>2.52</v>
+      </c>
+      <c r="Z80">
+        <v>1.49</v>
+      </c>
+      <c r="AA80">
+        <v>6.05</v>
+      </c>
+      <c r="AB80">
+        <v>1.11</v>
+      </c>
+      <c r="AC80">
+        <v>2.55</v>
+      </c>
+      <c r="AD80">
+        <v>3.37</v>
+      </c>
+      <c r="AE80">
+        <v>2.66</v>
+      </c>
+      <c r="AF80">
+        <v>1</v>
+      </c>
+      <c r="AG80">
+        <v>10.5</v>
+      </c>
+      <c r="AH80">
+        <v>1.21</v>
+      </c>
+      <c r="AI80">
+        <v>3.82</v>
+      </c>
+      <c r="AJ80">
+        <v>1.7</v>
+      </c>
+      <c r="AK80">
+        <v>2.08</v>
+      </c>
+      <c r="AL80">
+        <v>1.59</v>
+      </c>
+      <c r="AM80">
+        <v>2.27</v>
+      </c>
+      <c r="AN80">
+        <v>1.53</v>
+      </c>
+      <c r="AO80">
+        <v>1.29</v>
+      </c>
+      <c r="AP80">
+        <v>1.47</v>
+      </c>
+      <c r="AQ80">
+        <v>2</v>
+      </c>
+      <c r="AR80">
+        <v>3</v>
+      </c>
+      <c r="AS80">
+        <v>1.67</v>
+      </c>
+      <c r="AT80">
+        <v>2.33</v>
+      </c>
+      <c r="AU80">
+        <v>2.19</v>
+      </c>
+      <c r="AV80">
+        <v>2.17</v>
+      </c>
+      <c r="AW80">
+        <v>4.36</v>
+      </c>
+      <c r="AX80">
+        <v>2.15</v>
+      </c>
+      <c r="AY80">
+        <v>7.5</v>
+      </c>
+      <c r="AZ80">
+        <v>2</v>
+      </c>
+      <c r="BA80">
+        <v>1.19</v>
+      </c>
+      <c r="BB80">
+        <v>1.32</v>
+      </c>
+      <c r="BC80">
+        <v>1.58</v>
+      </c>
+      <c r="BD80">
+        <v>2</v>
+      </c>
+      <c r="BE80">
+        <v>2.65</v>
+      </c>
+      <c r="BF80">
+        <v>6</v>
+      </c>
+      <c r="BG80">
+        <v>6</v>
+      </c>
+      <c r="BH80">
+        <v>2</v>
+      </c>
+      <c r="BI80">
+        <v>5</v>
+      </c>
+      <c r="BJ80">
+        <v>8</v>
+      </c>
+      <c r="BK80">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="81" spans="1:63">
+      <c r="A81" s="1">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>7172911</v>
+      </c>
+      <c r="C81" t="s">
+        <v>63</v>
+      </c>
+      <c r="D81" t="s">
+        <v>64</v>
+      </c>
+      <c r="E81" s="2">
+        <v>45160.66666666666</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+      <c r="G81" t="s">
+        <v>72</v>
+      </c>
+      <c r="H81" t="s">
+        <v>105</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>1</v>
+      </c>
+      <c r="K81">
+        <v>1</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>1</v>
+      </c>
+      <c r="N81">
+        <v>1</v>
+      </c>
+      <c r="O81" t="s">
+        <v>117</v>
+      </c>
+      <c r="P81" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q81">
+        <v>3</v>
+      </c>
+      <c r="R81">
+        <v>0</v>
+      </c>
+      <c r="S81">
+        <v>3</v>
+      </c>
+      <c r="T81">
+        <v>3.08</v>
+      </c>
+      <c r="U81">
+        <v>2.04</v>
+      </c>
+      <c r="V81">
+        <v>3.6</v>
+      </c>
+      <c r="W81">
+        <v>1.47</v>
+      </c>
+      <c r="X81">
+        <v>2.7</v>
+      </c>
+      <c r="Y81">
+        <v>3.1</v>
+      </c>
+      <c r="Z81">
+        <v>1.36</v>
+      </c>
+      <c r="AA81">
+        <v>8</v>
+      </c>
+      <c r="AB81">
+        <v>1.07</v>
+      </c>
+      <c r="AC81">
+        <v>2.55</v>
+      </c>
+      <c r="AD81">
+        <v>3.37</v>
+      </c>
+      <c r="AE81">
+        <v>2.66</v>
+      </c>
+      <c r="AF81">
+        <v>1.07</v>
+      </c>
+      <c r="AG81">
+        <v>9.5</v>
+      </c>
+      <c r="AH81">
+        <v>1.38</v>
+      </c>
+      <c r="AI81">
+        <v>3.1</v>
+      </c>
+      <c r="AJ81">
+        <v>2.05</v>
+      </c>
+      <c r="AK81">
+        <v>1.72</v>
+      </c>
+      <c r="AL81">
+        <v>1.87</v>
+      </c>
+      <c r="AM81">
+        <v>1.87</v>
+      </c>
+      <c r="AN81">
+        <v>1.41</v>
+      </c>
+      <c r="AO81">
+        <v>1.33</v>
+      </c>
+      <c r="AP81">
+        <v>1.55</v>
+      </c>
+      <c r="AQ81">
+        <v>2.67</v>
+      </c>
+      <c r="AR81">
+        <v>2</v>
+      </c>
+      <c r="AS81">
+        <v>2.29</v>
+      </c>
+      <c r="AT81">
+        <v>2.2</v>
+      </c>
+      <c r="AU81">
+        <v>1.54</v>
+      </c>
+      <c r="AV81">
+        <v>1.51</v>
+      </c>
+      <c r="AW81">
+        <v>3.05</v>
+      </c>
+      <c r="AX81">
+        <v>1.8</v>
+      </c>
+      <c r="AY81">
+        <v>7</v>
+      </c>
+      <c r="AZ81">
+        <v>2.5</v>
+      </c>
+      <c r="BA81">
+        <v>1.24</v>
+      </c>
+      <c r="BB81">
+        <v>1.46</v>
+      </c>
+      <c r="BC81">
+        <v>1.85</v>
+      </c>
+      <c r="BD81">
+        <v>2.37</v>
+      </c>
+      <c r="BE81">
+        <v>3.3</v>
+      </c>
+      <c r="BF81">
+        <v>3</v>
+      </c>
+      <c r="BG81">
+        <v>2</v>
+      </c>
+      <c r="BH81">
+        <v>6</v>
+      </c>
+      <c r="BI81">
+        <v>2</v>
+      </c>
+      <c r="BJ81">
+        <v>9</v>
+      </c>
+      <c r="BK81">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:63">
+      <c r="A82" s="1">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>7172912</v>
+      </c>
+      <c r="C82" t="s">
+        <v>63</v>
+      </c>
+      <c r="D82" t="s">
+        <v>64</v>
+      </c>
+      <c r="E82" s="2">
+        <v>45161.66666666666</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+      <c r="G82" t="s">
+        <v>86</v>
+      </c>
+      <c r="H82" t="s">
+        <v>116</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
+        <v>0</v>
+      </c>
+      <c r="O82" t="s">
+        <v>117</v>
+      </c>
+      <c r="P82" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q82">
+        <v>6</v>
+      </c>
+      <c r="R82">
+        <v>2</v>
+      </c>
+      <c r="S82">
+        <v>8</v>
+      </c>
+      <c r="T82">
+        <v>2.75</v>
+      </c>
+      <c r="U82">
+        <v>2.25</v>
+      </c>
+      <c r="V82">
+        <v>3.25</v>
+      </c>
+      <c r="W82">
+        <v>1.33</v>
+      </c>
+      <c r="X82">
+        <v>3.25</v>
+      </c>
+      <c r="Y82">
+        <v>2.5</v>
+      </c>
+      <c r="Z82">
+        <v>1.5</v>
+      </c>
+      <c r="AA82">
+        <v>6</v>
+      </c>
+      <c r="AB82">
+        <v>1.11</v>
+      </c>
+      <c r="AC82">
+        <v>2.1</v>
+      </c>
+      <c r="AD82">
+        <v>3.2</v>
+      </c>
+      <c r="AE82">
+        <v>3</v>
+      </c>
+      <c r="AF82">
+        <v>1.04</v>
+      </c>
+      <c r="AG82">
+        <v>11</v>
+      </c>
+      <c r="AH82">
+        <v>1.22</v>
+      </c>
+      <c r="AI82">
+        <v>3.9</v>
+      </c>
+      <c r="AJ82">
+        <v>1.7</v>
+      </c>
+      <c r="AK82">
+        <v>2</v>
+      </c>
+      <c r="AL82">
+        <v>1.57</v>
+      </c>
+      <c r="AM82">
+        <v>2.25</v>
+      </c>
+      <c r="AN82">
+        <v>1.41</v>
+      </c>
+      <c r="AO82">
+        <v>1.29</v>
+      </c>
+      <c r="AP82">
+        <v>1.57</v>
+      </c>
+      <c r="AQ82">
+        <v>2.5</v>
+      </c>
+      <c r="AR82">
+        <v>0</v>
+      </c>
+      <c r="AS82">
+        <v>2.29</v>
+      </c>
+      <c r="AT82">
+        <v>1</v>
+      </c>
+      <c r="AU82">
+        <v>2.11</v>
+      </c>
+      <c r="AV82">
+        <v>0</v>
+      </c>
+      <c r="AW82">
+        <v>2.11</v>
+      </c>
+      <c r="AX82">
+        <v>1.7</v>
+      </c>
+      <c r="AY82">
+        <v>7</v>
+      </c>
+      <c r="AZ82">
+        <v>2.7</v>
+      </c>
+      <c r="BA82">
+        <v>1.2</v>
+      </c>
+      <c r="BB82">
+        <v>1.28</v>
+      </c>
+      <c r="BC82">
+        <v>1.51</v>
+      </c>
+      <c r="BD82">
+        <v>2</v>
+      </c>
+      <c r="BE82">
+        <v>2.45</v>
+      </c>
+      <c r="BF82">
+        <v>3</v>
+      </c>
+      <c r="BG82">
+        <v>0</v>
+      </c>
+      <c r="BH82">
+        <v>3</v>
+      </c>
+      <c r="BI82">
+        <v>8</v>
+      </c>
+      <c r="BJ82">
+        <v>6</v>
+      </c>
+      <c r="BK82">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83" spans="1:63">
+      <c r="A83" s="1">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>7172913</v>
+      </c>
+      <c r="C83" t="s">
+        <v>63</v>
+      </c>
+      <c r="D83" t="s">
+        <v>64</v>
+      </c>
+      <c r="E83" s="2">
+        <v>45161.66666666666</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
+      </c>
+      <c r="G83" t="s">
+        <v>108</v>
+      </c>
+      <c r="H83" t="s">
+        <v>102</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83">
+        <v>0</v>
+      </c>
+      <c r="L83">
+        <v>2</v>
+      </c>
+      <c r="M83">
+        <v>1</v>
+      </c>
+      <c r="N83">
+        <v>3</v>
+      </c>
+      <c r="O83" t="s">
+        <v>175</v>
+      </c>
+      <c r="P83" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q83">
+        <v>5</v>
+      </c>
+      <c r="R83">
+        <v>1</v>
+      </c>
+      <c r="S83">
+        <v>6</v>
+      </c>
+      <c r="T83">
+        <v>2.3</v>
+      </c>
+      <c r="U83">
+        <v>2.1</v>
+      </c>
+      <c r="V83">
+        <v>5.5</v>
+      </c>
+      <c r="W83">
+        <v>1.44</v>
+      </c>
+      <c r="X83">
+        <v>2.63</v>
+      </c>
+      <c r="Y83">
+        <v>3.25</v>
+      </c>
+      <c r="Z83">
+        <v>1.33</v>
+      </c>
+      <c r="AA83">
+        <v>7.5</v>
+      </c>
+      <c r="AB83">
+        <v>1.07</v>
+      </c>
+      <c r="AC83">
+        <v>1.65</v>
+      </c>
+      <c r="AD83">
+        <v>3.3</v>
+      </c>
+      <c r="AE83">
+        <v>4.75</v>
+      </c>
+      <c r="AF83">
+        <v>1.07</v>
+      </c>
+      <c r="AG83">
+        <v>10</v>
+      </c>
+      <c r="AH83">
+        <v>1.36</v>
+      </c>
+      <c r="AI83">
+        <v>3.2</v>
+      </c>
+      <c r="AJ83">
+        <v>1.75</v>
+      </c>
+      <c r="AK83">
+        <v>1.95</v>
+      </c>
+      <c r="AL83">
+        <v>2.1</v>
+      </c>
+      <c r="AM83">
+        <v>1.67</v>
+      </c>
+      <c r="AN83">
+        <v>1.17</v>
+      </c>
+      <c r="AO83">
+        <v>1.28</v>
+      </c>
+      <c r="AP83">
+        <v>2.05</v>
+      </c>
+      <c r="AQ83">
+        <v>3</v>
+      </c>
+      <c r="AR83">
+        <v>1.75</v>
+      </c>
+      <c r="AS83">
+        <v>3</v>
+      </c>
+      <c r="AT83">
+        <v>1.4</v>
+      </c>
+      <c r="AU83">
+        <v>1.85</v>
+      </c>
+      <c r="AV83">
+        <v>1.13</v>
+      </c>
+      <c r="AW83">
+        <v>2.98</v>
+      </c>
+      <c r="AX83">
+        <v>1.43</v>
+      </c>
+      <c r="AY83">
+        <v>7.5</v>
+      </c>
+      <c r="AZ83">
+        <v>3.75</v>
+      </c>
+      <c r="BA83">
+        <v>1.25</v>
+      </c>
+      <c r="BB83">
+        <v>1.47</v>
+      </c>
+      <c r="BC83">
+        <v>2</v>
+      </c>
+      <c r="BD83">
+        <v>2.45</v>
+      </c>
+      <c r="BE83">
+        <v>3.4</v>
+      </c>
+      <c r="BF83">
+        <v>6</v>
+      </c>
+      <c r="BG83">
+        <v>3</v>
+      </c>
+      <c r="BH83">
+        <v>7</v>
+      </c>
+      <c r="BI83">
+        <v>6</v>
+      </c>
+      <c r="BJ83">
+        <v>13</v>
+      </c>
+      <c r="BK83">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84" spans="1:63">
+      <c r="A84" s="1">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>7172914</v>
+      </c>
+      <c r="C84" t="s">
+        <v>63</v>
+      </c>
+      <c r="D84" t="s">
+        <v>64</v>
+      </c>
+      <c r="E84" s="2">
+        <v>45161.66666666666</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84" t="s">
+        <v>104</v>
+      </c>
+      <c r="H84" t="s">
+        <v>106</v>
+      </c>
+      <c r="I84">
+        <v>1</v>
+      </c>
+      <c r="J84">
+        <v>2</v>
+      </c>
+      <c r="K84">
+        <v>3</v>
+      </c>
+      <c r="L84">
+        <v>2</v>
+      </c>
+      <c r="M84">
+        <v>3</v>
+      </c>
+      <c r="N84">
+        <v>5</v>
+      </c>
+      <c r="O84" t="s">
+        <v>176</v>
+      </c>
+      <c r="P84" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q84">
+        <v>7</v>
+      </c>
+      <c r="R84">
+        <v>3</v>
+      </c>
+      <c r="S84">
+        <v>10</v>
+      </c>
+      <c r="T84">
+        <v>3.25</v>
+      </c>
+      <c r="U84">
+        <v>2.2</v>
+      </c>
+      <c r="V84">
+        <v>3</v>
+      </c>
+      <c r="W84">
+        <v>1.36</v>
+      </c>
+      <c r="X84">
+        <v>3</v>
+      </c>
+      <c r="Y84">
+        <v>2.75</v>
+      </c>
+      <c r="Z84">
+        <v>1.4</v>
+      </c>
+      <c r="AA84">
+        <v>6.5</v>
+      </c>
+      <c r="AB84">
+        <v>1.1</v>
+      </c>
+      <c r="AC84">
+        <v>2.75</v>
+      </c>
+      <c r="AD84">
+        <v>3.2</v>
+      </c>
+      <c r="AE84">
+        <v>2.25</v>
+      </c>
+      <c r="AF84">
+        <v>1.04</v>
+      </c>
+      <c r="AG84">
+        <v>12</v>
+      </c>
+      <c r="AH84">
+        <v>1.28</v>
+      </c>
+      <c r="AI84">
+        <v>3.75</v>
+      </c>
+      <c r="AJ84">
+        <v>1.8</v>
+      </c>
+      <c r="AK84">
+        <v>1.9</v>
+      </c>
+      <c r="AL84">
+        <v>1.67</v>
+      </c>
+      <c r="AM84">
+        <v>2.1</v>
+      </c>
+      <c r="AN84">
+        <v>1.58</v>
+      </c>
+      <c r="AO84">
+        <v>1.29</v>
+      </c>
+      <c r="AP84">
+        <v>1.39</v>
+      </c>
+      <c r="AQ84">
+        <v>1.5</v>
+      </c>
+      <c r="AR84">
+        <v>2.5</v>
+      </c>
+      <c r="AS84">
+        <v>1.2</v>
+      </c>
+      <c r="AT84">
+        <v>2.6</v>
+      </c>
+      <c r="AU84">
+        <v>2.47</v>
+      </c>
+      <c r="AV84">
+        <v>2.47</v>
+      </c>
+      <c r="AW84">
+        <v>4.94</v>
+      </c>
+      <c r="AX84">
+        <v>2.05</v>
+      </c>
+      <c r="AY84">
+        <v>7.5</v>
+      </c>
+      <c r="AZ84">
+        <v>2.1</v>
+      </c>
+      <c r="BA84">
+        <v>1.16</v>
+      </c>
+      <c r="BB84">
+        <v>1.23</v>
+      </c>
+      <c r="BC84">
+        <v>1.42</v>
+      </c>
+      <c r="BD84">
+        <v>1.73</v>
+      </c>
+      <c r="BE84">
+        <v>2.2</v>
+      </c>
+      <c r="BF84">
+        <v>7</v>
+      </c>
+      <c r="BG84">
+        <v>4</v>
+      </c>
+      <c r="BH84">
+        <v>9</v>
+      </c>
+      <c r="BI84">
+        <v>2</v>
+      </c>
+      <c r="BJ84">
+        <v>16</v>
+      </c>
+      <c r="BK84">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Europe UEFA Champions League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Europe UEFA Champions League_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="238">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -547,6 +547,18 @@
     <t>['8', '56']</t>
   </si>
   <si>
+    <t>['23', '28', '46']</t>
+  </si>
+  <si>
+    <t>['7', '90+3']</t>
+  </si>
+  <si>
+    <t>['35', '53', '66', '78', '81']</t>
+  </si>
+  <si>
+    <t>['35']</t>
+  </si>
+  <si>
     <t>['13', '21', '60']</t>
   </si>
   <si>
@@ -710,6 +722,12 @@
   </si>
   <si>
     <t>['25', '29', '90+3']</t>
+  </si>
+  <si>
+    <t>['64']</t>
+  </si>
+  <si>
+    <t>['73', '90+5']</t>
   </si>
 </sst>
 </file>
@@ -1071,7 +1089,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK84"/>
+  <dimension ref="A1:BK90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1315,7 +1333,7 @@
         <v>117</v>
       </c>
       <c r="P2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="Q2">
         <v>2</v>
@@ -1506,7 +1524,7 @@
         <v>118</v>
       </c>
       <c r="P3" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -1697,7 +1715,7 @@
         <v>117</v>
       </c>
       <c r="P4" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="Q4">
         <v>-1</v>
@@ -1888,7 +1906,7 @@
         <v>117</v>
       </c>
       <c r="P5" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Q5">
         <v>2</v>
@@ -2079,7 +2097,7 @@
         <v>119</v>
       </c>
       <c r="P6" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="Q6">
         <v>1</v>
@@ -2461,7 +2479,7 @@
         <v>120</v>
       </c>
       <c r="P8" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="Q8">
         <v>5</v>
@@ -2739,7 +2757,7 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AT9">
         <v>0</v>
@@ -2843,7 +2861,7 @@
         <v>117</v>
       </c>
       <c r="P10" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="Q10">
         <v>4</v>
@@ -2933,7 +2951,7 @@
         <v>0</v>
       </c>
       <c r="AT10">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3416,7 +3434,7 @@
         <v>123</v>
       </c>
       <c r="P13" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="Q13">
         <v>6</v>
@@ -3798,7 +3816,7 @@
         <v>124</v>
       </c>
       <c r="P15" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="Q15">
         <v>6</v>
@@ -4180,7 +4198,7 @@
         <v>126</v>
       </c>
       <c r="P17" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="Q17">
         <v>10</v>
@@ -4753,7 +4771,7 @@
         <v>128</v>
       </c>
       <c r="P20" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="Q20">
         <v>1</v>
@@ -4944,7 +4962,7 @@
         <v>117</v>
       </c>
       <c r="P21" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5034,7 +5052,7 @@
         <v>0</v>
       </c>
       <c r="AT21">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AU21">
         <v>0</v>
@@ -5413,7 +5431,7 @@
         <v>0</v>
       </c>
       <c r="AS23">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AT23">
         <v>0</v>
@@ -5517,7 +5535,7 @@
         <v>131</v>
       </c>
       <c r="P24" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="Q24">
         <v>1</v>
@@ -5899,7 +5917,7 @@
         <v>117</v>
       </c>
       <c r="P26" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="Q26">
         <v>0</v>
@@ -6090,7 +6108,7 @@
         <v>133</v>
       </c>
       <c r="P27" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="Q27">
         <v>4</v>
@@ -6281,7 +6299,7 @@
         <v>134</v>
       </c>
       <c r="P28" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="Q28">
         <v>1</v>
@@ -6472,7 +6490,7 @@
         <v>117</v>
       </c>
       <c r="P29" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Q29">
         <v>12</v>
@@ -6854,7 +6872,7 @@
         <v>136</v>
       </c>
       <c r="P31" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="Q31">
         <v>6</v>
@@ -7045,7 +7063,7 @@
         <v>117</v>
       </c>
       <c r="P32" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="Q32">
         <v>8</v>
@@ -7427,7 +7445,7 @@
         <v>138</v>
       </c>
       <c r="P34" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="Q34">
         <v>8</v>
@@ -7708,7 +7726,7 @@
         <v>1.75</v>
       </c>
       <c r="AT35">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AU35">
         <v>1.26</v>
@@ -7809,7 +7827,7 @@
         <v>139</v>
       </c>
       <c r="P36" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q36">
         <v>3</v>
@@ -7899,7 +7917,7 @@
         <v>1.25</v>
       </c>
       <c r="AT36">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AU36">
         <v>1.51</v>
@@ -8191,7 +8209,7 @@
         <v>141</v>
       </c>
       <c r="P38" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="Q38">
         <v>4</v>
@@ -8281,7 +8299,7 @@
         <v>0.5</v>
       </c>
       <c r="AT38">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AU38">
         <v>0</v>
@@ -8382,7 +8400,7 @@
         <v>142</v>
       </c>
       <c r="P39" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="Q39">
         <v>5</v>
@@ -8573,7 +8591,7 @@
         <v>117</v>
       </c>
       <c r="P40" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Q40">
         <v>6</v>
@@ -8764,7 +8782,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="Q41">
         <v>7</v>
@@ -8854,7 +8872,7 @@
         <v>2</v>
       </c>
       <c r="AT41">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AU41">
         <v>1.42</v>
@@ -9045,7 +9063,7 @@
         <v>1.5</v>
       </c>
       <c r="AT42">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AU42">
         <v>1.39</v>
@@ -9146,7 +9164,7 @@
         <v>144</v>
       </c>
       <c r="P43" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="Q43">
         <v>7</v>
@@ -9337,7 +9355,7 @@
         <v>145</v>
       </c>
       <c r="P44" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Q44">
         <v>3</v>
@@ -9424,7 +9442,7 @@
         <v>3</v>
       </c>
       <c r="AS44">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AT44">
         <v>1.75</v>
@@ -9719,7 +9737,7 @@
         <v>146</v>
       </c>
       <c r="P46" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -9910,7 +9928,7 @@
         <v>147</v>
       </c>
       <c r="P47" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="Q47">
         <v>6</v>
@@ -9997,7 +10015,7 @@
         <v>0</v>
       </c>
       <c r="AS47">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AT47">
         <v>0.5</v>
@@ -10101,7 +10119,7 @@
         <v>148</v>
       </c>
       <c r="P48" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="Q48">
         <v>11</v>
@@ -10292,7 +10310,7 @@
         <v>149</v>
       </c>
       <c r="P49" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="Q49">
         <v>7</v>
@@ -10483,7 +10501,7 @@
         <v>150</v>
       </c>
       <c r="P50" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="Q50">
         <v>7</v>
@@ -10674,7 +10692,7 @@
         <v>117</v>
       </c>
       <c r="P51" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q51">
         <v>8</v>
@@ -10865,7 +10883,7 @@
         <v>151</v>
       </c>
       <c r="P52" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="Q52">
         <v>6</v>
@@ -10955,7 +10973,7 @@
         <v>1.75</v>
       </c>
       <c r="AT52">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AU52">
         <v>2.81</v>
@@ -11056,7 +11074,7 @@
         <v>152</v>
       </c>
       <c r="P53" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="Q53">
         <v>8</v>
@@ -11247,7 +11265,7 @@
         <v>153</v>
       </c>
       <c r="P54" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="Q54">
         <v>11</v>
@@ -11525,7 +11543,7 @@
         <v>2.33</v>
       </c>
       <c r="AS55">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AT55">
         <v>1.75</v>
@@ -11629,7 +11647,7 @@
         <v>155</v>
       </c>
       <c r="P56" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="Q56">
         <v>14</v>
@@ -11716,7 +11734,7 @@
         <v>2</v>
       </c>
       <c r="AS56">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AT56">
         <v>1.5</v>
@@ -11820,7 +11838,7 @@
         <v>156</v>
       </c>
       <c r="P57" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -11907,7 +11925,7 @@
         <v>2.4</v>
       </c>
       <c r="AS57">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AT57">
         <v>2</v>
@@ -12098,7 +12116,7 @@
         <v>1.67</v>
       </c>
       <c r="AS58">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AT58">
         <v>1.25</v>
@@ -12202,7 +12220,7 @@
         <v>157</v>
       </c>
       <c r="P59" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="Q59">
         <v>6</v>
@@ -12289,7 +12307,7 @@
         <v>3</v>
       </c>
       <c r="AS59">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AT59">
         <v>1.5</v>
@@ -12480,7 +12498,7 @@
         <v>0</v>
       </c>
       <c r="AS60">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AT60">
         <v>1</v>
@@ -12671,7 +12689,7 @@
         <v>0</v>
       </c>
       <c r="AS61">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AT61">
         <v>0</v>
@@ -12775,7 +12793,7 @@
         <v>159</v>
       </c>
       <c r="P62" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="Q62">
         <v>3</v>
@@ -12865,7 +12883,7 @@
         <v>1.5</v>
       </c>
       <c r="AT62">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AU62">
         <v>1.33</v>
@@ -13157,7 +13175,7 @@
         <v>117</v>
       </c>
       <c r="P64" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="Q64">
         <v>5</v>
@@ -13247,7 +13265,7 @@
         <v>1.67</v>
       </c>
       <c r="AT64">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AU64">
         <v>2.29</v>
@@ -13435,7 +13453,7 @@
         <v>0</v>
       </c>
       <c r="AS65">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AT65">
         <v>1.5</v>
@@ -13539,7 +13557,7 @@
         <v>162</v>
       </c>
       <c r="P66" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Q66">
         <v>8</v>
@@ -13629,7 +13647,7 @@
         <v>1.33</v>
       </c>
       <c r="AT66">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AU66">
         <v>1.21</v>
@@ -13817,7 +13835,7 @@
         <v>1</v>
       </c>
       <c r="AS67">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AT67">
         <v>0.75</v>
@@ -14008,7 +14026,7 @@
         <v>1.8</v>
       </c>
       <c r="AS68">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AT68">
         <v>1.5</v>
@@ -14112,7 +14130,7 @@
         <v>117</v>
       </c>
       <c r="P69" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="Q69">
         <v>9</v>
@@ -14202,7 +14220,7 @@
         <v>1.5</v>
       </c>
       <c r="AT69">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AU69">
         <v>2.45</v>
@@ -14303,7 +14321,7 @@
         <v>165</v>
       </c>
       <c r="P70" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Q70">
         <v>4</v>
@@ -14390,7 +14408,7 @@
         <v>1.6</v>
       </c>
       <c r="AS70">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AT70">
         <v>1.33</v>
@@ -14494,7 +14512,7 @@
         <v>166</v>
       </c>
       <c r="P71" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Q71">
         <v>8</v>
@@ -14584,7 +14602,7 @@
         <v>1</v>
       </c>
       <c r="AT71">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AU71">
         <v>0</v>
@@ -14685,7 +14703,7 @@
         <v>167</v>
       </c>
       <c r="P72" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="Q72">
         <v>1</v>
@@ -14963,7 +14981,7 @@
         <v>2</v>
       </c>
       <c r="AS73">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AT73">
         <v>1.67</v>
@@ -15067,7 +15085,7 @@
         <v>169</v>
       </c>
       <c r="P74" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="Q74">
         <v>6</v>
@@ -15157,7 +15175,7 @@
         <v>1.75</v>
       </c>
       <c r="AT74">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AU74">
         <v>2.41</v>
@@ -15258,7 +15276,7 @@
         <v>170</v>
       </c>
       <c r="P75" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="Q75">
         <v>7</v>
@@ -15348,7 +15366,7 @@
         <v>0</v>
       </c>
       <c r="AT75">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AU75">
         <v>0</v>
@@ -15449,7 +15467,7 @@
         <v>136</v>
       </c>
       <c r="P76" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="Q76">
         <v>9</v>
@@ -15539,7 +15557,7 @@
         <v>0.75</v>
       </c>
       <c r="AT76">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AU76">
         <v>2.06</v>
@@ -15640,7 +15658,7 @@
         <v>171</v>
       </c>
       <c r="P77" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="Q77">
         <v>10</v>
@@ -15730,7 +15748,7 @@
         <v>1.5</v>
       </c>
       <c r="AT77">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AU77">
         <v>0</v>
@@ -15831,7 +15849,7 @@
         <v>172</v>
       </c>
       <c r="P78" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Q78">
         <v>4</v>
@@ -15918,7 +15936,7 @@
         <v>2</v>
       </c>
       <c r="AS78">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AT78">
         <v>1.75</v>
@@ -16112,7 +16130,7 @@
         <v>3</v>
       </c>
       <c r="AT79">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AU79">
         <v>0</v>
@@ -16213,7 +16231,7 @@
         <v>174</v>
       </c>
       <c r="P80" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="Q80">
         <v>5</v>
@@ -16300,10 +16318,10 @@
         <v>3</v>
       </c>
       <c r="AS80">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AT80">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AU80">
         <v>2.19</v>
@@ -16404,7 +16422,7 @@
         <v>117</v>
       </c>
       <c r="P81" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="Q81">
         <v>3</v>
@@ -16491,10 +16509,10 @@
         <v>2</v>
       </c>
       <c r="AS81">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AT81">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AU81">
         <v>1.54</v>
@@ -16682,10 +16700,10 @@
         <v>0</v>
       </c>
       <c r="AS82">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AT82">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AU82">
         <v>2.11</v>
@@ -16786,7 +16804,7 @@
         <v>175</v>
       </c>
       <c r="P83" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Q83">
         <v>5</v>
@@ -16876,7 +16894,7 @@
         <v>3</v>
       </c>
       <c r="AT83">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AU83">
         <v>1.85</v>
@@ -16977,7 +16995,7 @@
         <v>176</v>
       </c>
       <c r="P84" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="Q84">
         <v>7</v>
@@ -17064,10 +17082,10 @@
         <v>2.5</v>
       </c>
       <c r="AS84">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AT84">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AU84">
         <v>2.47</v>
@@ -17119,6 +17137,1152 @@
       </c>
       <c r="BK84">
         <v>6</v>
+      </c>
+    </row>
+    <row r="85" spans="1:63">
+      <c r="A85" s="1">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>7172915</v>
+      </c>
+      <c r="C85" t="s">
+        <v>63</v>
+      </c>
+      <c r="D85" t="s">
+        <v>64</v>
+      </c>
+      <c r="E85" s="2">
+        <v>45167.66666666666</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+      <c r="G85" t="s">
+        <v>116</v>
+      </c>
+      <c r="H85" t="s">
+        <v>86</v>
+      </c>
+      <c r="I85">
+        <v>2</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+      <c r="K85">
+        <v>2</v>
+      </c>
+      <c r="L85">
+        <v>3</v>
+      </c>
+      <c r="M85">
+        <v>0</v>
+      </c>
+      <c r="N85">
+        <v>3</v>
+      </c>
+      <c r="O85" t="s">
+        <v>177</v>
+      </c>
+      <c r="P85" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q85">
+        <v>1</v>
+      </c>
+      <c r="R85">
+        <v>4</v>
+      </c>
+      <c r="S85">
+        <v>5</v>
+      </c>
+      <c r="T85">
+        <v>2.3</v>
+      </c>
+      <c r="U85">
+        <v>2.3</v>
+      </c>
+      <c r="V85">
+        <v>4.33</v>
+      </c>
+      <c r="W85">
+        <v>1.33</v>
+      </c>
+      <c r="X85">
+        <v>3.25</v>
+      </c>
+      <c r="Y85">
+        <v>2.5</v>
+      </c>
+      <c r="Z85">
+        <v>1.5</v>
+      </c>
+      <c r="AA85">
+        <v>6</v>
+      </c>
+      <c r="AB85">
+        <v>1.11</v>
+      </c>
+      <c r="AC85">
+        <v>1.83</v>
+      </c>
+      <c r="AD85">
+        <v>3.95</v>
+      </c>
+      <c r="AE85">
+        <v>4.34</v>
+      </c>
+      <c r="AF85">
+        <v>1.01</v>
+      </c>
+      <c r="AG85">
+        <v>10</v>
+      </c>
+      <c r="AH85">
+        <v>1.2</v>
+      </c>
+      <c r="AI85">
+        <v>3.94</v>
+      </c>
+      <c r="AJ85">
+        <v>1.75</v>
+      </c>
+      <c r="AK85">
+        <v>2</v>
+      </c>
+      <c r="AL85">
+        <v>1.67</v>
+      </c>
+      <c r="AM85">
+        <v>2.1</v>
+      </c>
+      <c r="AN85">
+        <v>1.23</v>
+      </c>
+      <c r="AO85">
+        <v>1.26</v>
+      </c>
+      <c r="AP85">
+        <v>2</v>
+      </c>
+      <c r="AQ85">
+        <v>1</v>
+      </c>
+      <c r="AR85">
+        <v>2.29</v>
+      </c>
+      <c r="AS85">
+        <v>2</v>
+      </c>
+      <c r="AT85">
+        <v>2</v>
+      </c>
+      <c r="AU85">
+        <v>0</v>
+      </c>
+      <c r="AV85">
+        <v>1.19</v>
+      </c>
+      <c r="AW85">
+        <v>1.19</v>
+      </c>
+      <c r="AX85">
+        <v>1.53</v>
+      </c>
+      <c r="AY85">
+        <v>7</v>
+      </c>
+      <c r="AZ85">
+        <v>3.3</v>
+      </c>
+      <c r="BA85">
+        <v>1.3</v>
+      </c>
+      <c r="BB85">
+        <v>1.53</v>
+      </c>
+      <c r="BC85">
+        <v>1.9</v>
+      </c>
+      <c r="BD85">
+        <v>2.4</v>
+      </c>
+      <c r="BE85">
+        <v>3.1</v>
+      </c>
+      <c r="BF85">
+        <v>4</v>
+      </c>
+      <c r="BG85">
+        <v>4</v>
+      </c>
+      <c r="BH85">
+        <v>2</v>
+      </c>
+      <c r="BI85">
+        <v>8</v>
+      </c>
+      <c r="BJ85">
+        <v>6</v>
+      </c>
+      <c r="BK85">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="86" spans="1:63">
+      <c r="A86" s="1">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>7172916</v>
+      </c>
+      <c r="C86" t="s">
+        <v>63</v>
+      </c>
+      <c r="D86" t="s">
+        <v>64</v>
+      </c>
+      <c r="E86" s="2">
+        <v>45167.66666666666</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
+      </c>
+      <c r="G86" t="s">
+        <v>102</v>
+      </c>
+      <c r="H86" t="s">
+        <v>108</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
+      <c r="K86">
+        <v>0</v>
+      </c>
+      <c r="L86">
+        <v>0</v>
+      </c>
+      <c r="M86">
+        <v>1</v>
+      </c>
+      <c r="N86">
+        <v>1</v>
+      </c>
+      <c r="O86" t="s">
+        <v>117</v>
+      </c>
+      <c r="P86" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q86">
+        <v>11</v>
+      </c>
+      <c r="R86">
+        <v>3</v>
+      </c>
+      <c r="S86">
+        <v>14</v>
+      </c>
+      <c r="T86">
+        <v>3</v>
+      </c>
+      <c r="U86">
+        <v>2.1</v>
+      </c>
+      <c r="V86">
+        <v>3.25</v>
+      </c>
+      <c r="W86">
+        <v>1.4</v>
+      </c>
+      <c r="X86">
+        <v>2.75</v>
+      </c>
+      <c r="Y86">
+        <v>2.75</v>
+      </c>
+      <c r="Z86">
+        <v>1.4</v>
+      </c>
+      <c r="AA86">
+        <v>7</v>
+      </c>
+      <c r="AB86">
+        <v>1.08</v>
+      </c>
+      <c r="AC86">
+        <v>2.63</v>
+      </c>
+      <c r="AD86">
+        <v>3.49</v>
+      </c>
+      <c r="AE86">
+        <v>2.77</v>
+      </c>
+      <c r="AF86">
+        <v>1.01</v>
+      </c>
+      <c r="AG86">
+        <v>9.4</v>
+      </c>
+      <c r="AH86">
+        <v>1.26</v>
+      </c>
+      <c r="AI86">
+        <v>3.4</v>
+      </c>
+      <c r="AJ86">
+        <v>1.98</v>
+      </c>
+      <c r="AK86">
+        <v>1.91</v>
+      </c>
+      <c r="AL86">
+        <v>1.73</v>
+      </c>
+      <c r="AM86">
+        <v>2</v>
+      </c>
+      <c r="AN86">
+        <v>1.42</v>
+      </c>
+      <c r="AO86">
+        <v>1.3</v>
+      </c>
+      <c r="AP86">
+        <v>1.57</v>
+      </c>
+      <c r="AQ86">
+        <v>1.4</v>
+      </c>
+      <c r="AR86">
+        <v>3</v>
+      </c>
+      <c r="AS86">
+        <v>1.17</v>
+      </c>
+      <c r="AT86">
+        <v>3</v>
+      </c>
+      <c r="AU86">
+        <v>1.32</v>
+      </c>
+      <c r="AV86">
+        <v>2.48</v>
+      </c>
+      <c r="AW86">
+        <v>3.8</v>
+      </c>
+      <c r="AX86">
+        <v>1.95</v>
+      </c>
+      <c r="AY86">
+        <v>6</v>
+      </c>
+      <c r="AZ86">
+        <v>2.35</v>
+      </c>
+      <c r="BA86">
+        <v>1.42</v>
+      </c>
+      <c r="BB86">
+        <v>1.72</v>
+      </c>
+      <c r="BC86">
+        <v>2.2</v>
+      </c>
+      <c r="BD86">
+        <v>2.9</v>
+      </c>
+      <c r="BE86">
+        <v>3.2</v>
+      </c>
+      <c r="BF86">
+        <v>3</v>
+      </c>
+      <c r="BG86">
+        <v>7</v>
+      </c>
+      <c r="BH86">
+        <v>7</v>
+      </c>
+      <c r="BI86">
+        <v>8</v>
+      </c>
+      <c r="BJ86">
+        <v>10</v>
+      </c>
+      <c r="BK86">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="87" spans="1:63">
+      <c r="A87" s="1">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>7172917</v>
+      </c>
+      <c r="C87" t="s">
+        <v>63</v>
+      </c>
+      <c r="D87" t="s">
+        <v>64</v>
+      </c>
+      <c r="E87" s="2">
+        <v>45167.66666666666</v>
+      </c>
+      <c r="F87">
+        <v>0</v>
+      </c>
+      <c r="G87" t="s">
+        <v>106</v>
+      </c>
+      <c r="H87" t="s">
+        <v>104</v>
+      </c>
+      <c r="I87">
+        <v>1</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+      <c r="K87">
+        <v>1</v>
+      </c>
+      <c r="L87">
+        <v>2</v>
+      </c>
+      <c r="M87">
+        <v>1</v>
+      </c>
+      <c r="N87">
+        <v>3</v>
+      </c>
+      <c r="O87" t="s">
+        <v>178</v>
+      </c>
+      <c r="P87" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q87">
+        <v>2</v>
+      </c>
+      <c r="R87">
+        <v>10</v>
+      </c>
+      <c r="S87">
+        <v>12</v>
+      </c>
+      <c r="T87">
+        <v>2.1</v>
+      </c>
+      <c r="U87">
+        <v>2.38</v>
+      </c>
+      <c r="V87">
+        <v>4.75</v>
+      </c>
+      <c r="W87">
+        <v>1.3</v>
+      </c>
+      <c r="X87">
+        <v>3.4</v>
+      </c>
+      <c r="Y87">
+        <v>2.5</v>
+      </c>
+      <c r="Z87">
+        <v>1.5</v>
+      </c>
+      <c r="AA87">
+        <v>5.5</v>
+      </c>
+      <c r="AB87">
+        <v>1.13</v>
+      </c>
+      <c r="AC87">
+        <v>1.6</v>
+      </c>
+      <c r="AD87">
+        <v>4.34</v>
+      </c>
+      <c r="AE87">
+        <v>5.67</v>
+      </c>
+      <c r="AF87">
+        <v>1.04</v>
+      </c>
+      <c r="AG87">
+        <v>12</v>
+      </c>
+      <c r="AH87">
+        <v>1.18</v>
+      </c>
+      <c r="AI87">
+        <v>4.2</v>
+      </c>
+      <c r="AJ87">
+        <v>1.67</v>
+      </c>
+      <c r="AK87">
+        <v>2.1</v>
+      </c>
+      <c r="AL87">
+        <v>1.67</v>
+      </c>
+      <c r="AM87">
+        <v>2.1</v>
+      </c>
+      <c r="AN87">
+        <v>1.17</v>
+      </c>
+      <c r="AO87">
+        <v>1.22</v>
+      </c>
+      <c r="AP87">
+        <v>2.3</v>
+      </c>
+      <c r="AQ87">
+        <v>2.6</v>
+      </c>
+      <c r="AR87">
+        <v>1.2</v>
+      </c>
+      <c r="AS87">
+        <v>2.67</v>
+      </c>
+      <c r="AT87">
+        <v>1</v>
+      </c>
+      <c r="AU87">
+        <v>1.47</v>
+      </c>
+      <c r="AV87">
+        <v>1.6</v>
+      </c>
+      <c r="AW87">
+        <v>3.07</v>
+      </c>
+      <c r="AX87">
+        <v>1.63</v>
+      </c>
+      <c r="AY87">
+        <v>7</v>
+      </c>
+      <c r="AZ87">
+        <v>2.95</v>
+      </c>
+      <c r="BA87">
+        <v>1.28</v>
+      </c>
+      <c r="BB87">
+        <v>1.48</v>
+      </c>
+      <c r="BC87">
+        <v>1.83</v>
+      </c>
+      <c r="BD87">
+        <v>2.25</v>
+      </c>
+      <c r="BE87">
+        <v>3</v>
+      </c>
+      <c r="BF87">
+        <v>4</v>
+      </c>
+      <c r="BG87">
+        <v>5</v>
+      </c>
+      <c r="BH87">
+        <v>3</v>
+      </c>
+      <c r="BI87">
+        <v>6</v>
+      </c>
+      <c r="BJ87">
+        <v>7</v>
+      </c>
+      <c r="BK87">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="88" spans="1:63">
+      <c r="A88" s="1">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>7172918</v>
+      </c>
+      <c r="C88" t="s">
+        <v>63</v>
+      </c>
+      <c r="D88" t="s">
+        <v>64</v>
+      </c>
+      <c r="E88" s="2">
+        <v>45168.66666666666</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+      <c r="G88" t="s">
+        <v>107</v>
+      </c>
+      <c r="H88" t="s">
+        <v>109</v>
+      </c>
+      <c r="I88">
+        <v>1</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="K88">
+        <v>1</v>
+      </c>
+      <c r="L88">
+        <v>5</v>
+      </c>
+      <c r="M88">
+        <v>1</v>
+      </c>
+      <c r="N88">
+        <v>6</v>
+      </c>
+      <c r="O88" t="s">
+        <v>179</v>
+      </c>
+      <c r="P88" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q88">
+        <v>5</v>
+      </c>
+      <c r="R88">
+        <v>4</v>
+      </c>
+      <c r="S88">
+        <v>9</v>
+      </c>
+      <c r="T88">
+        <v>1.95</v>
+      </c>
+      <c r="U88">
+        <v>2.4</v>
+      </c>
+      <c r="V88">
+        <v>5</v>
+      </c>
+      <c r="W88">
+        <v>1.29</v>
+      </c>
+      <c r="X88">
+        <v>3.5</v>
+      </c>
+      <c r="Y88">
+        <v>2.25</v>
+      </c>
+      <c r="Z88">
+        <v>1.57</v>
+      </c>
+      <c r="AA88">
+        <v>5</v>
+      </c>
+      <c r="AB88">
+        <v>1.14</v>
+      </c>
+      <c r="AC88">
+        <v>1.55</v>
+      </c>
+      <c r="AD88">
+        <v>4.4</v>
+      </c>
+      <c r="AE88">
+        <v>5.5</v>
+      </c>
+      <c r="AF88">
+        <v>1.02</v>
+      </c>
+      <c r="AG88">
+        <v>17</v>
+      </c>
+      <c r="AH88">
+        <v>1.19</v>
+      </c>
+      <c r="AI88">
+        <v>4.75</v>
+      </c>
+      <c r="AJ88">
+        <v>1.61</v>
+      </c>
+      <c r="AK88">
+        <v>2.05</v>
+      </c>
+      <c r="AL88">
+        <v>1.73</v>
+      </c>
+      <c r="AM88">
+        <v>2</v>
+      </c>
+      <c r="AN88">
+        <v>1.12</v>
+      </c>
+      <c r="AO88">
+        <v>1.17</v>
+      </c>
+      <c r="AP88">
+        <v>2.65</v>
+      </c>
+      <c r="AQ88">
+        <v>2.33</v>
+      </c>
+      <c r="AR88">
+        <v>1.67</v>
+      </c>
+      <c r="AS88">
+        <v>2.5</v>
+      </c>
+      <c r="AT88">
+        <v>1.25</v>
+      </c>
+      <c r="AU88">
+        <v>2.48</v>
+      </c>
+      <c r="AV88">
+        <v>1.58</v>
+      </c>
+      <c r="AW88">
+        <v>4.06</v>
+      </c>
+      <c r="AX88">
+        <v>1.36</v>
+      </c>
+      <c r="AY88">
+        <v>8</v>
+      </c>
+      <c r="AZ88">
+        <v>4.2</v>
+      </c>
+      <c r="BA88">
+        <v>1.2</v>
+      </c>
+      <c r="BB88">
+        <v>1.32</v>
+      </c>
+      <c r="BC88">
+        <v>1.61</v>
+      </c>
+      <c r="BD88">
+        <v>2</v>
+      </c>
+      <c r="BE88">
+        <v>2.62</v>
+      </c>
+      <c r="BF88">
+        <v>11</v>
+      </c>
+      <c r="BG88">
+        <v>4</v>
+      </c>
+      <c r="BH88">
+        <v>7</v>
+      </c>
+      <c r="BI88">
+        <v>5</v>
+      </c>
+      <c r="BJ88">
+        <v>18</v>
+      </c>
+      <c r="BK88">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89" spans="1:63">
+      <c r="A89" s="1">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>7172919</v>
+      </c>
+      <c r="C89" t="s">
+        <v>63</v>
+      </c>
+      <c r="D89" t="s">
+        <v>64</v>
+      </c>
+      <c r="E89" s="2">
+        <v>45168.66666666666</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+      <c r="G89" t="s">
+        <v>105</v>
+      </c>
+      <c r="H89" t="s">
+        <v>72</v>
+      </c>
+      <c r="I89">
+        <v>1</v>
+      </c>
+      <c r="J89">
+        <v>0</v>
+      </c>
+      <c r="K89">
+        <v>1</v>
+      </c>
+      <c r="L89">
+        <v>1</v>
+      </c>
+      <c r="M89">
+        <v>1</v>
+      </c>
+      <c r="N89">
+        <v>2</v>
+      </c>
+      <c r="O89" t="s">
+        <v>180</v>
+      </c>
+      <c r="P89" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q89">
+        <v>6</v>
+      </c>
+      <c r="R89">
+        <v>5</v>
+      </c>
+      <c r="S89">
+        <v>11</v>
+      </c>
+      <c r="T89">
+        <v>2.1</v>
+      </c>
+      <c r="U89">
+        <v>2.2</v>
+      </c>
+      <c r="V89">
+        <v>5.5</v>
+      </c>
+      <c r="W89">
+        <v>1.4</v>
+      </c>
+      <c r="X89">
+        <v>2.75</v>
+      </c>
+      <c r="Y89">
+        <v>2.75</v>
+      </c>
+      <c r="Z89">
+        <v>1.4</v>
+      </c>
+      <c r="AA89">
+        <v>6.5</v>
+      </c>
+      <c r="AB89">
+        <v>1.1</v>
+      </c>
+      <c r="AC89">
+        <v>1.63</v>
+      </c>
+      <c r="AD89">
+        <v>3.95</v>
+      </c>
+      <c r="AE89">
+        <v>5.5</v>
+      </c>
+      <c r="AF89">
+        <v>1.03</v>
+      </c>
+      <c r="AG89">
+        <v>9</v>
+      </c>
+      <c r="AH89">
+        <v>1.29</v>
+      </c>
+      <c r="AI89">
+        <v>3.3</v>
+      </c>
+      <c r="AJ89">
+        <v>1.71</v>
+      </c>
+      <c r="AK89">
+        <v>1.9</v>
+      </c>
+      <c r="AL89">
+        <v>1.91</v>
+      </c>
+      <c r="AM89">
+        <v>1.8</v>
+      </c>
+      <c r="AN89">
+        <v>1.16</v>
+      </c>
+      <c r="AO89">
+        <v>1.22</v>
+      </c>
+      <c r="AP89">
+        <v>2.3</v>
+      </c>
+      <c r="AQ89">
+        <v>2.2</v>
+      </c>
+      <c r="AR89">
+        <v>2.29</v>
+      </c>
+      <c r="AS89">
+        <v>2</v>
+      </c>
+      <c r="AT89">
+        <v>2.13</v>
+      </c>
+      <c r="AU89">
+        <v>1.86</v>
+      </c>
+      <c r="AV89">
+        <v>1.39</v>
+      </c>
+      <c r="AW89">
+        <v>3.25</v>
+      </c>
+      <c r="AX89">
+        <v>1.33</v>
+      </c>
+      <c r="AY89">
+        <v>8.5</v>
+      </c>
+      <c r="AZ89">
+        <v>4.33</v>
+      </c>
+      <c r="BA89">
+        <v>1.31</v>
+      </c>
+      <c r="BB89">
+        <v>1.58</v>
+      </c>
+      <c r="BC89">
+        <v>1.88</v>
+      </c>
+      <c r="BD89">
+        <v>2.65</v>
+      </c>
+      <c r="BE89">
+        <v>3.15</v>
+      </c>
+      <c r="BF89">
+        <v>2</v>
+      </c>
+      <c r="BG89">
+        <v>5</v>
+      </c>
+      <c r="BH89">
+        <v>7</v>
+      </c>
+      <c r="BI89">
+        <v>3</v>
+      </c>
+      <c r="BJ89">
+        <v>9</v>
+      </c>
+      <c r="BK89">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="1:63">
+      <c r="A90" s="1">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>7181927</v>
+      </c>
+      <c r="C90" t="s">
+        <v>63</v>
+      </c>
+      <c r="D90" t="s">
+        <v>64</v>
+      </c>
+      <c r="E90" s="2">
+        <v>45168.66666666666</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90" t="s">
+        <v>114</v>
+      </c>
+      <c r="H90" t="s">
+        <v>115</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+      <c r="K90">
+        <v>0</v>
+      </c>
+      <c r="L90">
+        <v>1</v>
+      </c>
+      <c r="M90">
+        <v>2</v>
+      </c>
+      <c r="N90">
+        <v>3</v>
+      </c>
+      <c r="O90" t="s">
+        <v>141</v>
+      </c>
+      <c r="P90" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q90">
+        <v>9</v>
+      </c>
+      <c r="R90">
+        <v>1</v>
+      </c>
+      <c r="S90">
+        <v>10</v>
+      </c>
+      <c r="T90">
+        <v>2.4</v>
+      </c>
+      <c r="U90">
+        <v>2.2</v>
+      </c>
+      <c r="V90">
+        <v>4.33</v>
+      </c>
+      <c r="W90">
+        <v>1.4</v>
+      </c>
+      <c r="X90">
+        <v>2.75</v>
+      </c>
+      <c r="Y90">
+        <v>2.75</v>
+      </c>
+      <c r="Z90">
+        <v>1.4</v>
+      </c>
+      <c r="AA90">
+        <v>7</v>
+      </c>
+      <c r="AB90">
+        <v>1.08</v>
+      </c>
+      <c r="AC90">
+        <v>1.75</v>
+      </c>
+      <c r="AD90">
+        <v>3.7</v>
+      </c>
+      <c r="AE90">
+        <v>4.8</v>
+      </c>
+      <c r="AF90">
+        <v>1.05</v>
+      </c>
+      <c r="AG90">
+        <v>11</v>
+      </c>
+      <c r="AH90">
+        <v>1.28</v>
+      </c>
+      <c r="AI90">
+        <v>3.78</v>
+      </c>
+      <c r="AJ90">
+        <v>1.79</v>
+      </c>
+      <c r="AK90">
+        <v>1.81</v>
+      </c>
+      <c r="AL90">
+        <v>1.8</v>
+      </c>
+      <c r="AM90">
+        <v>1.91</v>
+      </c>
+      <c r="AN90">
+        <v>1.23</v>
+      </c>
+      <c r="AO90">
+        <v>1.3</v>
+      </c>
+      <c r="AP90">
+        <v>1.95</v>
+      </c>
+      <c r="AQ90">
+        <v>1.33</v>
+      </c>
+      <c r="AR90">
+        <v>3</v>
+      </c>
+      <c r="AS90">
+        <v>1</v>
+      </c>
+      <c r="AT90">
+        <v>3</v>
+      </c>
+      <c r="AU90">
+        <v>2.4</v>
+      </c>
+      <c r="AV90">
+        <v>0</v>
+      </c>
+      <c r="AW90">
+        <v>2.4</v>
+      </c>
+      <c r="AX90">
+        <v>1.38</v>
+      </c>
+      <c r="AY90">
+        <v>8</v>
+      </c>
+      <c r="AZ90">
+        <v>4</v>
+      </c>
+      <c r="BA90">
+        <v>1.33</v>
+      </c>
+      <c r="BB90">
+        <v>1.67</v>
+      </c>
+      <c r="BC90">
+        <v>2</v>
+      </c>
+      <c r="BD90">
+        <v>2.85</v>
+      </c>
+      <c r="BE90">
+        <v>3.6</v>
+      </c>
+      <c r="BF90">
+        <v>4</v>
+      </c>
+      <c r="BG90">
+        <v>4</v>
+      </c>
+      <c r="BH90">
+        <v>11</v>
+      </c>
+      <c r="BI90">
+        <v>3</v>
+      </c>
+      <c r="BJ90">
+        <v>15</v>
+      </c>
+      <c r="BK90">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Europe UEFA Champions League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Europe UEFA Champions League_20232024.xlsx
@@ -238,18 +238,18 @@
     <t>Hamrun Spartans</t>
   </si>
   <si>
+    <t>KÍ</t>
+  </si>
+  <si>
+    <t>Shamrock Rovers</t>
+  </si>
+  <si>
     <t>Ballkani</t>
   </si>
   <si>
-    <t>KÍ</t>
-  </si>
-  <si>
     <t>Partizani Tirana</t>
   </si>
   <si>
-    <t>Shamrock Rovers</t>
-  </si>
-  <si>
     <t>Astana</t>
   </si>
   <si>
@@ -277,45 +277,45 @@
     <t>Maccabi Haifa</t>
   </si>
   <si>
+    <t>The New Saints</t>
+  </si>
+  <si>
+    <t>BATE</t>
+  </si>
+  <si>
     <t>Zrinjski</t>
   </si>
   <si>
-    <t>BATE</t>
-  </si>
-  <si>
-    <t>The New Saints</t>
-  </si>
-  <si>
     <t>Breidablik</t>
   </si>
   <si>
     <t>Valmiera / BSS</t>
   </si>
   <si>
+    <t>Dinamo Tbilisi</t>
+  </si>
+  <si>
     <t>Ferencváros</t>
   </si>
   <si>
     <t>Qarabağ</t>
   </si>
   <si>
-    <t>Dinamo Tbilisi</t>
+    <t>Ludogorets</t>
   </si>
   <si>
     <t>Swift Hesperange</t>
   </si>
   <si>
-    <t>Ludogorets</t>
-  </si>
-  <si>
     <t>Larne</t>
   </si>
   <si>
+    <t>Dnipro-1</t>
+  </si>
+  <si>
     <t>Dinamo Zagreb</t>
   </si>
   <si>
-    <t>Dnipro-1</t>
-  </si>
-  <si>
     <t>Servette</t>
   </si>
   <si>
@@ -409,24 +409,24 @@
     <t>['69', '84']</t>
   </si>
   <si>
+    <t>['71', '90+12']</t>
+  </si>
+  <si>
     <t>['27', '94']</t>
   </si>
   <si>
-    <t>['71', '90+12']</t>
-  </si>
-  <si>
     <t>['16', '57']</t>
   </si>
   <si>
     <t>['82']</t>
   </si>
   <si>
+    <t>['22']</t>
+  </si>
+  <si>
     <t>['7', '45+1', '49', '62']</t>
   </si>
   <si>
-    <t>['22']</t>
-  </si>
-  <si>
     <t>['4', '45', '49', '78']</t>
   </si>
   <si>
@@ -436,21 +436,21 @@
     <t>['47', '90+1']</t>
   </si>
   <si>
+    <t>['90']</t>
+  </si>
+  <si>
     <t>['35', '41', '43', '56']</t>
   </si>
   <si>
-    <t>['90']</t>
-  </si>
-  <si>
     <t>['77']</t>
   </si>
   <si>
+    <t>['17', '32', '39', '60', '83', '90+1']</t>
+  </si>
+  <si>
     <t>['28']</t>
   </si>
   <si>
-    <t>['17', '32', '39', '60', '83', '90+1']</t>
-  </si>
-  <si>
     <t>['55', '71', '90+1']</t>
   </si>
   <si>
@@ -478,12 +478,12 @@
     <t>['28', '51']</t>
   </si>
   <si>
+    <t>['33', '85', '105+2', '107']</t>
+  </si>
+  <si>
     <t>['74', '89']</t>
   </si>
   <si>
-    <t>['33', '85', '105+2', '107']</t>
-  </si>
-  <si>
     <t>['33', '35', '37', '45+1', '47', '56']</t>
   </si>
   <si>
@@ -508,24 +508,24 @@
     <t>['6', '15']</t>
   </si>
   <si>
+    <t>['29', '45+2', '90+3']</t>
+  </si>
+  <si>
+    <t>['80', '105', '107']</t>
+  </si>
+  <si>
     <t>['17', '112']</t>
   </si>
   <si>
-    <t>['29', '45+2', '90+3']</t>
-  </si>
-  <si>
-    <t>['80', '105', '107']</t>
-  </si>
-  <si>
     <t>['40']</t>
   </si>
   <si>
+    <t>['39']</t>
+  </si>
+  <si>
     <t>['24']</t>
   </si>
   <si>
-    <t>['39']</t>
-  </si>
-  <si>
     <t>['26']</t>
   </si>
   <si>
@@ -595,22 +595,22 @@
     <t>['47', '59', '85']</t>
   </si>
   <si>
+    <t>['19', '90+1']</t>
+  </si>
+  <si>
     <t>['74', '90+1', '105+3']</t>
   </si>
   <si>
-    <t>['19', '90+1']</t>
-  </si>
-  <si>
     <t>['65']</t>
   </si>
   <si>
     <t>['33', '64']</t>
   </si>
   <si>
+    <t>['50', '51']</t>
+  </si>
+  <si>
     <t>['8', '32', '45+1']</t>
-  </si>
-  <si>
-    <t>['50', '51']</t>
   </si>
   <si>
     <t>['55', '62']</t>
@@ -1882,7 +1882,7 @@
         <v>68</v>
       </c>
       <c r="H5" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -2073,7 +2073,7 @@
         <v>69</v>
       </c>
       <c r="H6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -3010,7 +3010,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>6527467</v>
+        <v>6527469</v>
       </c>
       <c r="C11" t="s">
         <v>63</v>
@@ -3028,109 +3028,109 @@
         <v>74</v>
       </c>
       <c r="H11" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O11" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="P11" t="s">
         <v>117</v>
       </c>
       <c r="Q11">
+        <v>5</v>
+      </c>
+      <c r="R11">
+        <v>3</v>
+      </c>
+      <c r="S11">
+        <v>8</v>
+      </c>
+      <c r="T11">
         <v>6</v>
       </c>
-      <c r="R11">
+      <c r="U11">
+        <v>2.4</v>
+      </c>
+      <c r="V11">
+        <v>1.9</v>
+      </c>
+      <c r="W11">
+        <v>1.33</v>
+      </c>
+      <c r="X11">
+        <v>3.05</v>
+      </c>
+      <c r="Y11">
+        <v>2.5</v>
+      </c>
+      <c r="Z11">
+        <v>1.47</v>
+      </c>
+      <c r="AA11">
+        <v>5.95</v>
+      </c>
+      <c r="AB11">
+        <v>1.1</v>
+      </c>
+      <c r="AC11">
+        <v>5.5</v>
+      </c>
+      <c r="AD11">
+        <v>4.2</v>
+      </c>
+      <c r="AE11">
+        <v>1.44</v>
+      </c>
+      <c r="AF11">
+        <v>1.04</v>
+      </c>
+      <c r="AG11">
+        <v>10</v>
+      </c>
+      <c r="AH11">
+        <v>1.22</v>
+      </c>
+      <c r="AI11">
         <v>4</v>
       </c>
-      <c r="S11">
-        <v>10</v>
-      </c>
-      <c r="T11">
-        <v>4.5</v>
-      </c>
-      <c r="U11">
-        <v>2</v>
-      </c>
-      <c r="V11">
-        <v>2.55</v>
-      </c>
-      <c r="W11">
-        <v>1.48</v>
-      </c>
-      <c r="X11">
-        <v>2.5</v>
-      </c>
-      <c r="Y11">
-        <v>3.2</v>
-      </c>
-      <c r="Z11">
-        <v>1.31</v>
-      </c>
-      <c r="AA11">
-        <v>8</v>
-      </c>
-      <c r="AB11">
-        <v>1.05</v>
-      </c>
-      <c r="AC11">
-        <v>3.75</v>
-      </c>
-      <c r="AD11">
-        <v>3.1</v>
-      </c>
-      <c r="AE11">
-        <v>1.91</v>
-      </c>
-      <c r="AF11">
-        <v>1.08</v>
-      </c>
-      <c r="AG11">
-        <v>7</v>
-      </c>
-      <c r="AH11">
-        <v>1.4</v>
-      </c>
-      <c r="AI11">
+      <c r="AJ11">
+        <v>1.71</v>
+      </c>
+      <c r="AK11">
+        <v>2.05</v>
+      </c>
+      <c r="AL11">
+        <v>1.9</v>
+      </c>
+      <c r="AM11">
+        <v>1.83</v>
+      </c>
+      <c r="AN11">
         <v>2.8</v>
       </c>
-      <c r="AJ11">
-        <v>2.1</v>
-      </c>
-      <c r="AK11">
-        <v>1.74</v>
-      </c>
-      <c r="AL11">
-        <v>2</v>
-      </c>
-      <c r="AM11">
-        <v>1.75</v>
-      </c>
-      <c r="AN11">
-        <v>1.87</v>
-      </c>
       <c r="AO11">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AP11">
-        <v>1.18</v>
+        <v>1.06</v>
       </c>
       <c r="AQ11">
         <v>0</v>
@@ -3142,7 +3142,7 @@
         <v>1.5</v>
       </c>
       <c r="AT11">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3154,46 +3154,46 @@
         <v>0</v>
       </c>
       <c r="AX11">
-        <v>3.01</v>
+        <v>5.27</v>
       </c>
       <c r="AY11">
-        <v>7.1</v>
+        <v>8.4</v>
       </c>
       <c r="AZ11">
-        <v>1.62</v>
+        <v>1.28</v>
       </c>
       <c r="BA11">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="BB11">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="BC11">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="BD11">
-        <v>2.2</v>
+        <v>2.37</v>
       </c>
       <c r="BE11">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="BF11">
+        <v>4</v>
+      </c>
+      <c r="BG11">
+        <v>4</v>
+      </c>
+      <c r="BH11">
+        <v>5</v>
+      </c>
+      <c r="BI11">
         <v>6</v>
       </c>
-      <c r="BG11">
-        <v>6</v>
-      </c>
-      <c r="BH11">
-        <v>8</v>
-      </c>
-      <c r="BI11">
+      <c r="BJ11">
         <v>9</v>
       </c>
-      <c r="BJ11">
-        <v>14</v>
-      </c>
       <c r="BK11">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:63">
@@ -3201,7 +3201,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>6527469</v>
+        <v>6671490</v>
       </c>
       <c r="C12" t="s">
         <v>63</v>
@@ -3219,172 +3219,172 @@
         <v>75</v>
       </c>
       <c r="H12" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O12" t="s">
         <v>117</v>
       </c>
       <c r="P12" t="s">
-        <v>117</v>
+        <v>168</v>
       </c>
       <c r="Q12">
+        <v>3</v>
+      </c>
+      <c r="R12">
+        <v>10</v>
+      </c>
+      <c r="S12">
+        <v>13</v>
+      </c>
+      <c r="T12">
+        <v>2.2</v>
+      </c>
+      <c r="U12">
+        <v>2.2</v>
+      </c>
+      <c r="V12">
         <v>5</v>
       </c>
-      <c r="R12">
-        <v>3</v>
-      </c>
-      <c r="S12">
-        <v>8</v>
-      </c>
-      <c r="T12">
-        <v>6</v>
-      </c>
-      <c r="U12">
-        <v>2.4</v>
-      </c>
-      <c r="V12">
-        <v>1.9</v>
-      </c>
       <c r="W12">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="X12">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="Y12">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="Z12">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="AA12">
-        <v>5.95</v>
+        <v>6.5</v>
       </c>
       <c r="AB12">
         <v>1.1</v>
       </c>
       <c r="AC12">
-        <v>5.5</v>
+        <v>1.3</v>
       </c>
       <c r="AD12">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="AE12">
-        <v>1.44</v>
+        <v>8</v>
       </c>
       <c r="AF12">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="AG12">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AH12">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="AI12">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="AJ12">
-        <v>1.71</v>
+        <v>1.85</v>
       </c>
       <c r="AK12">
-        <v>2.05</v>
+        <v>1.88</v>
       </c>
       <c r="AL12">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="AM12">
         <v>1.83</v>
       </c>
       <c r="AN12">
-        <v>2.8</v>
+        <v>1.15</v>
       </c>
       <c r="AO12">
-        <v>1.15</v>
+        <v>1.2</v>
       </c>
       <c r="AP12">
-        <v>1.06</v>
+        <v>2</v>
       </c>
       <c r="AQ12">
         <v>0</v>
       </c>
       <c r="AR12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AS12">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AT12">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="AU12">
         <v>0</v>
       </c>
       <c r="AV12">
-        <v>0</v>
+        <v>2.96</v>
       </c>
       <c r="AW12">
-        <v>0</v>
+        <v>2.96</v>
       </c>
       <c r="AX12">
-        <v>5.27</v>
+        <v>1.44</v>
       </c>
       <c r="AY12">
-        <v>8.4</v>
+        <v>10</v>
       </c>
       <c r="AZ12">
-        <v>1.28</v>
+        <v>3.34</v>
       </c>
       <c r="BA12">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="BB12">
-        <v>1.54</v>
+        <v>1.34</v>
       </c>
       <c r="BC12">
-        <v>1.9</v>
+        <v>1.62</v>
       </c>
       <c r="BD12">
-        <v>2.37</v>
+        <v>2.05</v>
       </c>
       <c r="BE12">
-        <v>3.2</v>
+        <v>2.65</v>
       </c>
       <c r="BF12">
+        <v>6</v>
+      </c>
+      <c r="BG12">
+        <v>5</v>
+      </c>
+      <c r="BH12">
         <v>4</v>
       </c>
-      <c r="BG12">
+      <c r="BI12">
         <v>4</v>
       </c>
-      <c r="BH12">
-        <v>5</v>
-      </c>
-      <c r="BI12">
-        <v>6</v>
-      </c>
       <c r="BJ12">
+        <v>10</v>
+      </c>
+      <c r="BK12">
         <v>9</v>
-      </c>
-      <c r="BK12">
-        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:63">
@@ -3392,7 +3392,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>6527478</v>
+        <v>6527467</v>
       </c>
       <c r="C13" t="s">
         <v>63</v>
@@ -3410,172 +3410,172 @@
         <v>76</v>
       </c>
       <c r="H13" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N13">
         <v>2</v>
       </c>
       <c r="O13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="P13" t="s">
-        <v>188</v>
+        <v>117</v>
       </c>
       <c r="Q13">
         <v>6</v>
       </c>
       <c r="R13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S13">
+        <v>10</v>
+      </c>
+      <c r="T13">
+        <v>4.5</v>
+      </c>
+      <c r="U13">
+        <v>2</v>
+      </c>
+      <c r="V13">
+        <v>2.55</v>
+      </c>
+      <c r="W13">
+        <v>1.48</v>
+      </c>
+      <c r="X13">
+        <v>2.5</v>
+      </c>
+      <c r="Y13">
+        <v>3.2</v>
+      </c>
+      <c r="Z13">
+        <v>1.31</v>
+      </c>
+      <c r="AA13">
         <v>8</v>
       </c>
-      <c r="T13">
-        <v>3.5</v>
-      </c>
-      <c r="U13">
-        <v>2.05</v>
-      </c>
-      <c r="V13">
-        <v>2.95</v>
-      </c>
-      <c r="W13">
-        <v>1.41</v>
-      </c>
-      <c r="X13">
-        <v>2.7</v>
-      </c>
-      <c r="Y13">
-        <v>2.85</v>
-      </c>
-      <c r="Z13">
-        <v>1.37</v>
-      </c>
-      <c r="AA13">
-        <v>6.95</v>
-      </c>
       <c r="AB13">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="AC13">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="AD13">
-        <v>3.9</v>
+        <v>3.1</v>
       </c>
       <c r="AE13">
+        <v>1.91</v>
+      </c>
+      <c r="AF13">
+        <v>1.08</v>
+      </c>
+      <c r="AG13">
+        <v>7</v>
+      </c>
+      <c r="AH13">
+        <v>1.4</v>
+      </c>
+      <c r="AI13">
+        <v>2.8</v>
+      </c>
+      <c r="AJ13">
+        <v>2.1</v>
+      </c>
+      <c r="AK13">
+        <v>1.74</v>
+      </c>
+      <c r="AL13">
+        <v>2</v>
+      </c>
+      <c r="AM13">
+        <v>1.75</v>
+      </c>
+      <c r="AN13">
+        <v>1.87</v>
+      </c>
+      <c r="AO13">
+        <v>1.25</v>
+      </c>
+      <c r="AP13">
+        <v>1.18</v>
+      </c>
+      <c r="AQ13">
+        <v>0</v>
+      </c>
+      <c r="AR13">
+        <v>0</v>
+      </c>
+      <c r="AS13">
+        <v>1.5</v>
+      </c>
+      <c r="AT13">
+        <v>1</v>
+      </c>
+      <c r="AU13">
+        <v>0</v>
+      </c>
+      <c r="AV13">
+        <v>0</v>
+      </c>
+      <c r="AW13">
+        <v>0</v>
+      </c>
+      <c r="AX13">
+        <v>3.01</v>
+      </c>
+      <c r="AY13">
+        <v>7.1</v>
+      </c>
+      <c r="AZ13">
+        <v>1.62</v>
+      </c>
+      <c r="BA13">
+        <v>1.25</v>
+      </c>
+      <c r="BB13">
         <v>1.53</v>
       </c>
-      <c r="AF13">
-        <v>1.03</v>
-      </c>
-      <c r="AG13">
-        <v>8.4</v>
-      </c>
-      <c r="AH13">
-        <v>1.3</v>
-      </c>
-      <c r="AI13">
-        <v>3.3</v>
-      </c>
-      <c r="AJ13">
-        <v>1.81</v>
-      </c>
-      <c r="AK13">
-        <v>2</v>
-      </c>
-      <c r="AL13">
+      <c r="BC13">
         <v>1.75</v>
       </c>
-      <c r="AM13">
-        <v>2</v>
-      </c>
-      <c r="AN13">
-        <v>1.57</v>
-      </c>
-      <c r="AO13">
-        <v>1.28</v>
-      </c>
-      <c r="AP13">
-        <v>1.38</v>
-      </c>
-      <c r="AQ13">
-        <v>0</v>
-      </c>
-      <c r="AR13">
-        <v>0</v>
-      </c>
-      <c r="AS13">
-        <v>0.5</v>
-      </c>
-      <c r="AT13">
-        <v>1</v>
-      </c>
-      <c r="AU13">
-        <v>0</v>
-      </c>
-      <c r="AV13">
-        <v>0</v>
-      </c>
-      <c r="AW13">
-        <v>0</v>
-      </c>
-      <c r="AX13">
-        <v>1.93</v>
-      </c>
-      <c r="AY13">
-        <v>6.9</v>
-      </c>
-      <c r="AZ13">
-        <v>2.3</v>
-      </c>
-      <c r="BA13">
-        <v>1.31</v>
-      </c>
-      <c r="BB13">
-        <v>1.56</v>
-      </c>
-      <c r="BC13">
-        <v>1.93</v>
-      </c>
       <c r="BD13">
-        <v>2.41</v>
+        <v>2.2</v>
       </c>
       <c r="BE13">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="BF13">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BG13">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BH13">
+        <v>8</v>
+      </c>
+      <c r="BI13">
+        <v>9</v>
+      </c>
+      <c r="BJ13">
+        <v>14</v>
+      </c>
+      <c r="BK13">
         <v>15</v>
-      </c>
-      <c r="BI13">
-        <v>5</v>
-      </c>
-      <c r="BJ13">
-        <v>20</v>
-      </c>
-      <c r="BK13">
-        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:63">
@@ -3583,7 +3583,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>6671490</v>
+        <v>6527478</v>
       </c>
       <c r="C14" t="s">
         <v>63</v>
@@ -3601,172 +3601,172 @@
         <v>77</v>
       </c>
       <c r="H14" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14">
         <v>1</v>
       </c>
       <c r="N14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O14" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="P14" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="Q14">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="R14">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="S14">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="T14">
-        <v>2.2</v>
+        <v>3.5</v>
       </c>
       <c r="U14">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="V14">
+        <v>2.95</v>
+      </c>
+      <c r="W14">
+        <v>1.41</v>
+      </c>
+      <c r="X14">
+        <v>2.7</v>
+      </c>
+      <c r="Y14">
+        <v>2.85</v>
+      </c>
+      <c r="Z14">
+        <v>1.37</v>
+      </c>
+      <c r="AA14">
+        <v>6.95</v>
+      </c>
+      <c r="AB14">
+        <v>1.07</v>
+      </c>
+      <c r="AC14">
         <v>5</v>
       </c>
-      <c r="W14">
-        <v>1.36</v>
-      </c>
-      <c r="X14">
-        <v>3</v>
-      </c>
-      <c r="Y14">
-        <v>2.75</v>
-      </c>
-      <c r="Z14">
-        <v>1.4</v>
-      </c>
-      <c r="AA14">
-        <v>6.5</v>
-      </c>
-      <c r="AB14">
-        <v>1.1</v>
-      </c>
-      <c r="AC14">
+      <c r="AD14">
+        <v>3.9</v>
+      </c>
+      <c r="AE14">
+        <v>1.53</v>
+      </c>
+      <c r="AF14">
+        <v>1.03</v>
+      </c>
+      <c r="AG14">
+        <v>8.4</v>
+      </c>
+      <c r="AH14">
         <v>1.3</v>
       </c>
-      <c r="AD14">
-        <v>4.75</v>
-      </c>
-      <c r="AE14">
-        <v>8</v>
-      </c>
-      <c r="AF14">
-        <v>1.05</v>
-      </c>
-      <c r="AG14">
-        <v>9</v>
-      </c>
-      <c r="AH14">
-        <v>1.29</v>
-      </c>
       <c r="AI14">
+        <v>3.3</v>
+      </c>
+      <c r="AJ14">
+        <v>1.81</v>
+      </c>
+      <c r="AK14">
+        <v>2</v>
+      </c>
+      <c r="AL14">
+        <v>1.75</v>
+      </c>
+      <c r="AM14">
+        <v>2</v>
+      </c>
+      <c r="AN14">
+        <v>1.57</v>
+      </c>
+      <c r="AO14">
+        <v>1.28</v>
+      </c>
+      <c r="AP14">
+        <v>1.38</v>
+      </c>
+      <c r="AQ14">
+        <v>0</v>
+      </c>
+      <c r="AR14">
+        <v>0</v>
+      </c>
+      <c r="AS14">
+        <v>0.5</v>
+      </c>
+      <c r="AT14">
+        <v>1</v>
+      </c>
+      <c r="AU14">
+        <v>0</v>
+      </c>
+      <c r="AV14">
+        <v>0</v>
+      </c>
+      <c r="AW14">
+        <v>0</v>
+      </c>
+      <c r="AX14">
+        <v>1.93</v>
+      </c>
+      <c r="AY14">
+        <v>6.9</v>
+      </c>
+      <c r="AZ14">
+        <v>2.3</v>
+      </c>
+      <c r="BA14">
+        <v>1.31</v>
+      </c>
+      <c r="BB14">
+        <v>1.56</v>
+      </c>
+      <c r="BC14">
+        <v>1.93</v>
+      </c>
+      <c r="BD14">
+        <v>2.41</v>
+      </c>
+      <c r="BE14">
         <v>3.4</v>
       </c>
-      <c r="AJ14">
-        <v>1.85</v>
-      </c>
-      <c r="AK14">
-        <v>1.88</v>
-      </c>
-      <c r="AL14">
-        <v>1.83</v>
-      </c>
-      <c r="AM14">
-        <v>1.83</v>
-      </c>
-      <c r="AN14">
-        <v>1.15</v>
-      </c>
-      <c r="AO14">
-        <v>1.2</v>
-      </c>
-      <c r="AP14">
-        <v>2</v>
-      </c>
-      <c r="AQ14">
-        <v>0</v>
-      </c>
-      <c r="AR14">
-        <v>3</v>
-      </c>
-      <c r="AS14">
-        <v>0</v>
-      </c>
-      <c r="AT14">
-        <v>2</v>
-      </c>
-      <c r="AU14">
-        <v>0</v>
-      </c>
-      <c r="AV14">
-        <v>2.96</v>
-      </c>
-      <c r="AW14">
-        <v>2.96</v>
-      </c>
-      <c r="AX14">
-        <v>1.44</v>
-      </c>
-      <c r="AY14">
-        <v>10</v>
-      </c>
-      <c r="AZ14">
-        <v>3.34</v>
-      </c>
-      <c r="BA14">
-        <v>1.22</v>
-      </c>
-      <c r="BB14">
-        <v>1.34</v>
-      </c>
-      <c r="BC14">
-        <v>1.62</v>
-      </c>
-      <c r="BD14">
-        <v>2.05</v>
-      </c>
-      <c r="BE14">
-        <v>2.65</v>
-      </c>
       <c r="BF14">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BG14">
         <v>5</v>
       </c>
       <c r="BH14">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="BI14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BJ14">
+        <v>20</v>
+      </c>
+      <c r="BK14">
         <v>10</v>
-      </c>
-      <c r="BK14">
-        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:63">
@@ -3792,7 +3792,7 @@
         <v>78</v>
       </c>
       <c r="H15" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -4174,7 +4174,7 @@
         <v>80</v>
       </c>
       <c r="H17" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I17">
         <v>3</v>
@@ -4556,7 +4556,7 @@
         <v>82</v>
       </c>
       <c r="H19" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I19">
         <v>1</v>
@@ -4580,7 +4580,7 @@
         <v>119</v>
       </c>
       <c r="P19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Q19">
         <v>5</v>
@@ -5493,7 +5493,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>6527491</v>
+        <v>6527480</v>
       </c>
       <c r="C24" t="s">
         <v>63</v>
@@ -5511,172 +5511,172 @@
         <v>87</v>
       </c>
       <c r="H24" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24">
         <v>1</v>
       </c>
       <c r="L24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N24">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O24" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="P24" t="s">
         <v>193</v>
       </c>
       <c r="Q24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R24">
+        <v>1</v>
+      </c>
+      <c r="S24">
+        <v>1</v>
+      </c>
+      <c r="T24">
+        <v>5.65</v>
+      </c>
+      <c r="U24">
+        <v>2.38</v>
+      </c>
+      <c r="V24">
+        <v>2.05</v>
+      </c>
+      <c r="W24">
+        <v>1.32</v>
+      </c>
+      <c r="X24">
+        <v>3.22</v>
+      </c>
+      <c r="Y24">
+        <v>2.52</v>
+      </c>
+      <c r="Z24">
+        <v>1.49</v>
+      </c>
+      <c r="AA24">
         <v>6</v>
       </c>
-      <c r="S24">
-        <v>7</v>
-      </c>
-      <c r="T24">
-        <v>2.1</v>
-      </c>
-      <c r="U24">
-        <v>2.16</v>
-      </c>
-      <c r="V24">
-        <v>6.5</v>
-      </c>
-      <c r="W24">
-        <v>1.44</v>
-      </c>
-      <c r="X24">
-        <v>2.68</v>
-      </c>
-      <c r="Y24">
-        <v>3.05</v>
-      </c>
-      <c r="Z24">
-        <v>1.35</v>
-      </c>
-      <c r="AA24">
-        <v>8.1</v>
-      </c>
       <c r="AB24">
-        <v>1.06</v>
+        <v>1.11</v>
       </c>
       <c r="AC24">
-        <v>1.48</v>
+        <v>5.7</v>
       </c>
       <c r="AD24">
-        <v>3.85</v>
+        <v>4.1</v>
       </c>
       <c r="AE24">
-        <v>6.5</v>
+        <v>1.55</v>
       </c>
       <c r="AF24">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AG24">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AH24">
+        <v>1.2</v>
+      </c>
+      <c r="AI24">
+        <v>3.95</v>
+      </c>
+      <c r="AJ24">
+        <v>1.73</v>
+      </c>
+      <c r="AK24">
+        <v>2.13</v>
+      </c>
+      <c r="AL24">
+        <v>1.8</v>
+      </c>
+      <c r="AM24">
+        <v>1.96</v>
+      </c>
+      <c r="AN24">
+        <v>2.48</v>
+      </c>
+      <c r="AO24">
+        <v>1.22</v>
+      </c>
+      <c r="AP24">
+        <v>1.13</v>
+      </c>
+      <c r="AQ24">
+        <v>0</v>
+      </c>
+      <c r="AR24">
+        <v>3</v>
+      </c>
+      <c r="AS24">
+        <v>0</v>
+      </c>
+      <c r="AT24">
+        <v>2</v>
+      </c>
+      <c r="AU24">
+        <v>0</v>
+      </c>
+      <c r="AV24">
+        <v>0</v>
+      </c>
+      <c r="AW24">
+        <v>0</v>
+      </c>
+      <c r="AX24">
+        <v>4.04</v>
+      </c>
+      <c r="AY24">
+        <v>11</v>
+      </c>
+      <c r="AZ24">
         <v>1.34</v>
       </c>
-      <c r="AI24">
-        <v>2.93</v>
-      </c>
-      <c r="AJ24">
-        <v>2.15</v>
-      </c>
-      <c r="AK24">
-        <v>1.65</v>
-      </c>
-      <c r="AL24">
-        <v>2.21</v>
-      </c>
-      <c r="AM24">
-        <v>1.62</v>
-      </c>
-      <c r="AN24">
-        <v>1.1</v>
-      </c>
-      <c r="AO24">
-        <v>1.24</v>
-      </c>
-      <c r="AP24">
-        <v>2.51</v>
-      </c>
-      <c r="AQ24">
-        <v>3</v>
-      </c>
-      <c r="AR24">
-        <v>0</v>
-      </c>
-      <c r="AS24">
-        <v>1</v>
-      </c>
-      <c r="AT24">
+      <c r="BA24">
+        <v>1.15</v>
+      </c>
+      <c r="BB24">
+        <v>1.27</v>
+      </c>
+      <c r="BC24">
         <v>1.5</v>
       </c>
-      <c r="AU24">
-        <v>0</v>
-      </c>
-      <c r="AV24">
-        <v>0</v>
-      </c>
-      <c r="AW24">
-        <v>0</v>
-      </c>
-      <c r="AX24">
-        <v>1.59</v>
-      </c>
-      <c r="AY24">
-        <v>7.2</v>
-      </c>
-      <c r="AZ24">
-        <v>3.11</v>
-      </c>
-      <c r="BA24">
-        <v>1.3</v>
-      </c>
-      <c r="BB24">
-        <v>1.5</v>
-      </c>
-      <c r="BC24">
-        <v>1.9</v>
-      </c>
       <c r="BD24">
-        <v>2.35</v>
+        <v>1.95</v>
       </c>
       <c r="BE24">
-        <v>3.15</v>
+        <v>2.34</v>
       </c>
       <c r="BF24">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="BG24">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BH24">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="BI24">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BJ24">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="BK24">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:63">
@@ -5702,7 +5702,7 @@
         <v>88</v>
       </c>
       <c r="H25" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -5723,7 +5723,7 @@
         <v>2</v>
       </c>
       <c r="O25" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P25" t="s">
         <v>117</v>
@@ -5875,7 +5875,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>6527480</v>
+        <v>6527491</v>
       </c>
       <c r="C26" t="s">
         <v>63</v>
@@ -5893,121 +5893,121 @@
         <v>89</v>
       </c>
       <c r="H26" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K26">
         <v>1</v>
       </c>
       <c r="L26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N26">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O26" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="P26" t="s">
         <v>194</v>
       </c>
       <c r="Q26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R26">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="S26">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="T26">
-        <v>5.65</v>
+        <v>2.1</v>
       </c>
       <c r="U26">
-        <v>2.38</v>
+        <v>2.16</v>
       </c>
       <c r="V26">
-        <v>2.05</v>
+        <v>6.5</v>
       </c>
       <c r="W26">
-        <v>1.32</v>
+        <v>1.44</v>
       </c>
       <c r="X26">
-        <v>3.22</v>
+        <v>2.68</v>
       </c>
       <c r="Y26">
-        <v>2.52</v>
+        <v>3.05</v>
       </c>
       <c r="Z26">
-        <v>1.49</v>
+        <v>1.35</v>
       </c>
       <c r="AA26">
-        <v>6</v>
+        <v>8.1</v>
       </c>
       <c r="AB26">
-        <v>1.11</v>
+        <v>1.06</v>
       </c>
       <c r="AC26">
-        <v>5.7</v>
+        <v>1.48</v>
       </c>
       <c r="AD26">
-        <v>4.1</v>
+        <v>3.85</v>
       </c>
       <c r="AE26">
-        <v>1.55</v>
+        <v>6.5</v>
       </c>
       <c r="AF26">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="AG26">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AH26">
-        <v>1.2</v>
+        <v>1.34</v>
       </c>
       <c r="AI26">
-        <v>3.95</v>
+        <v>2.93</v>
       </c>
       <c r="AJ26">
-        <v>1.73</v>
+        <v>2.15</v>
       </c>
       <c r="AK26">
-        <v>2.13</v>
+        <v>1.65</v>
       </c>
       <c r="AL26">
-        <v>1.8</v>
+        <v>2.21</v>
       </c>
       <c r="AM26">
-        <v>1.96</v>
+        <v>1.62</v>
       </c>
       <c r="AN26">
-        <v>2.48</v>
+        <v>1.1</v>
       </c>
       <c r="AO26">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="AP26">
-        <v>1.13</v>
+        <v>2.51</v>
       </c>
       <c r="AQ26">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AR26">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AS26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT26">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AU26">
         <v>0</v>
@@ -6019,46 +6019,46 @@
         <v>0</v>
       </c>
       <c r="AX26">
-        <v>4.04</v>
+        <v>1.59</v>
       </c>
       <c r="AY26">
-        <v>11</v>
+        <v>7.2</v>
       </c>
       <c r="AZ26">
-        <v>1.34</v>
+        <v>3.11</v>
       </c>
       <c r="BA26">
-        <v>1.15</v>
+        <v>1.3</v>
       </c>
       <c r="BB26">
-        <v>1.27</v>
+        <v>1.5</v>
       </c>
       <c r="BC26">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="BD26">
-        <v>1.95</v>
+        <v>2.35</v>
       </c>
       <c r="BE26">
-        <v>2.34</v>
+        <v>3.15</v>
       </c>
       <c r="BF26">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="BG26">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BH26">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="BI26">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BJ26">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="BK26">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:63">
@@ -6084,7 +6084,7 @@
         <v>90</v>
       </c>
       <c r="H27" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I27">
         <v>1</v>
@@ -6448,7 +6448,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>6527483</v>
+        <v>6527493</v>
       </c>
       <c r="C29" t="s">
         <v>63</v>
@@ -6466,109 +6466,109 @@
         <v>92</v>
       </c>
       <c r="H29" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N29">
         <v>3</v>
       </c>
       <c r="O29" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="P29" t="s">
         <v>197</v>
       </c>
       <c r="Q29">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="R29">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S29">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="T29">
-        <v>1.65</v>
+        <v>3</v>
       </c>
       <c r="U29">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="V29">
-        <v>9.5</v>
+        <v>3.6</v>
       </c>
       <c r="W29">
-        <v>1.33</v>
+        <v>1.47</v>
       </c>
       <c r="X29">
-        <v>3.05</v>
+        <v>2.45</v>
       </c>
       <c r="Y29">
-        <v>2.55</v>
+        <v>3.25</v>
       </c>
       <c r="Z29">
-        <v>1.45</v>
+        <v>1.3</v>
       </c>
       <c r="AA29">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AB29">
-        <v>1.1</v>
+        <v>1.06</v>
       </c>
       <c r="AC29">
-        <v>1.2</v>
+        <v>2.4</v>
       </c>
       <c r="AD29">
-        <v>5.6</v>
+        <v>3.1</v>
       </c>
       <c r="AE29">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="AF29">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="AG29">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="AH29">
-        <v>1.25</v>
+        <v>1.4</v>
       </c>
       <c r="AI29">
-        <v>3.75</v>
+        <v>2.85</v>
       </c>
       <c r="AJ29">
-        <v>1.68</v>
+        <v>2.3</v>
       </c>
       <c r="AK29">
-        <v>2.1</v>
+        <v>1.57</v>
       </c>
       <c r="AL29">
-        <v>2.55</v>
+        <v>1.95</v>
       </c>
       <c r="AM29">
-        <v>1.46</v>
+        <v>1.8</v>
       </c>
       <c r="AN29">
-        <v>1.04</v>
+        <v>1.3</v>
       </c>
       <c r="AO29">
-        <v>1.09</v>
+        <v>1.28</v>
       </c>
       <c r="AP29">
-        <v>3.6</v>
+        <v>1.57</v>
       </c>
       <c r="AQ29">
         <v>1</v>
@@ -6580,7 +6580,7 @@
         <v>0.5</v>
       </c>
       <c r="AT29">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AU29">
         <v>0</v>
@@ -6592,46 +6592,46 @@
         <v>0</v>
       </c>
       <c r="AX29">
-        <v>1.13</v>
+        <v>1.79</v>
       </c>
       <c r="AY29">
-        <v>16</v>
+        <v>7.7</v>
       </c>
       <c r="AZ29">
-        <v>7.2</v>
+        <v>2.51</v>
       </c>
       <c r="BA29">
-        <v>1.26</v>
+        <v>1.23</v>
       </c>
       <c r="BB29">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="BC29">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="BD29">
-        <v>2.5</v>
+        <v>2.35</v>
       </c>
       <c r="BE29">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="BF29">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="BG29">
         <v>8</v>
       </c>
       <c r="BH29">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BI29">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BJ29">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="BK29">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:63">
@@ -6639,7 +6639,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>6527486</v>
+        <v>6527483</v>
       </c>
       <c r="C30" t="s">
         <v>63</v>
@@ -6657,121 +6657,121 @@
         <v>93</v>
       </c>
       <c r="H30" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="I30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J30">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L30">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M30">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N30">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O30" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="P30" t="s">
-        <v>117</v>
+        <v>198</v>
       </c>
       <c r="Q30">
+        <v>12</v>
+      </c>
+      <c r="R30">
+        <v>3</v>
+      </c>
+      <c r="S30">
+        <v>15</v>
+      </c>
+      <c r="T30">
+        <v>1.65</v>
+      </c>
+      <c r="U30">
+        <v>2.5</v>
+      </c>
+      <c r="V30">
+        <v>9.5</v>
+      </c>
+      <c r="W30">
+        <v>1.33</v>
+      </c>
+      <c r="X30">
+        <v>3.05</v>
+      </c>
+      <c r="Y30">
+        <v>2.55</v>
+      </c>
+      <c r="Z30">
+        <v>1.45</v>
+      </c>
+      <c r="AA30">
+        <v>6</v>
+      </c>
+      <c r="AB30">
+        <v>1.1</v>
+      </c>
+      <c r="AC30">
+        <v>1.2</v>
+      </c>
+      <c r="AD30">
+        <v>5.6</v>
+      </c>
+      <c r="AE30">
         <v>11</v>
       </c>
-      <c r="R30">
-        <v>1</v>
-      </c>
-      <c r="S30">
-        <v>12</v>
-      </c>
-      <c r="T30">
-        <v>1.46</v>
-      </c>
-      <c r="U30">
-        <v>3</v>
-      </c>
-      <c r="V30">
-        <v>10.5</v>
-      </c>
-      <c r="W30">
-        <v>1.23</v>
-      </c>
-      <c r="X30">
-        <v>3.8</v>
-      </c>
-      <c r="Y30">
+      <c r="AF30">
+        <v>1.05</v>
+      </c>
+      <c r="AG30">
+        <v>9</v>
+      </c>
+      <c r="AH30">
+        <v>1.25</v>
+      </c>
+      <c r="AI30">
+        <v>3.75</v>
+      </c>
+      <c r="AJ30">
+        <v>1.68</v>
+      </c>
+      <c r="AK30">
         <v>2.1</v>
-      </c>
-      <c r="Z30">
-        <v>1.62</v>
-      </c>
-      <c r="AA30">
-        <v>4.75</v>
-      </c>
-      <c r="AB30">
-        <v>1.16</v>
-      </c>
-      <c r="AC30">
-        <v>1.11</v>
-      </c>
-      <c r="AD30">
-        <v>7.5</v>
-      </c>
-      <c r="AE30">
-        <v>15.5</v>
-      </c>
-      <c r="AF30">
-        <v>1.02</v>
-      </c>
-      <c r="AG30">
-        <v>13</v>
-      </c>
-      <c r="AH30">
-        <v>1.15</v>
-      </c>
-      <c r="AI30">
-        <v>4.75</v>
-      </c>
-      <c r="AJ30">
-        <v>1.44</v>
-      </c>
-      <c r="AK30">
-        <v>2.65</v>
       </c>
       <c r="AL30">
         <v>2.55</v>
       </c>
       <c r="AM30">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="AN30">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="AO30">
-        <v>1.06</v>
+        <v>1.09</v>
       </c>
       <c r="AP30">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="AQ30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AR30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS30">
-        <v>1.75</v>
+        <v>0.5</v>
       </c>
       <c r="AT30">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AU30">
         <v>0</v>
@@ -6783,13 +6783,13 @@
         <v>0</v>
       </c>
       <c r="AX30">
-        <v>1.09</v>
+        <v>1.13</v>
       </c>
       <c r="AY30">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AZ30">
-        <v>9.9</v>
+        <v>7.2</v>
       </c>
       <c r="BA30">
         <v>1.26</v>
@@ -6798,7 +6798,7 @@
         <v>1.5</v>
       </c>
       <c r="BC30">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="BD30">
         <v>2.5</v>
@@ -6807,22 +6807,22 @@
         <v>3.5</v>
       </c>
       <c r="BF30">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="BG30">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="BH30">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="BI30">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BJ30">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BK30">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:63">
@@ -6830,7 +6830,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>6527493</v>
+        <v>6527486</v>
       </c>
       <c r="C31" t="s">
         <v>63</v>
@@ -6848,121 +6848,121 @@
         <v>94</v>
       </c>
       <c r="H31" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="I31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J31">
         <v>0</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N31">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O31" t="s">
         <v>136</v>
       </c>
       <c r="P31" t="s">
-        <v>198</v>
+        <v>117</v>
       </c>
       <c r="Q31">
+        <v>11</v>
+      </c>
+      <c r="R31">
+        <v>1</v>
+      </c>
+      <c r="S31">
+        <v>12</v>
+      </c>
+      <c r="T31">
+        <v>1.46</v>
+      </c>
+      <c r="U31">
+        <v>3</v>
+      </c>
+      <c r="V31">
+        <v>10.5</v>
+      </c>
+      <c r="W31">
+        <v>1.23</v>
+      </c>
+      <c r="X31">
+        <v>3.8</v>
+      </c>
+      <c r="Y31">
+        <v>2.1</v>
+      </c>
+      <c r="Z31">
+        <v>1.62</v>
+      </c>
+      <c r="AA31">
+        <v>4.75</v>
+      </c>
+      <c r="AB31">
+        <v>1.16</v>
+      </c>
+      <c r="AC31">
+        <v>1.11</v>
+      </c>
+      <c r="AD31">
+        <v>7.5</v>
+      </c>
+      <c r="AE31">
+        <v>15.5</v>
+      </c>
+      <c r="AF31">
+        <v>1.02</v>
+      </c>
+      <c r="AG31">
+        <v>13</v>
+      </c>
+      <c r="AH31">
+        <v>1.15</v>
+      </c>
+      <c r="AI31">
+        <v>4.75</v>
+      </c>
+      <c r="AJ31">
+        <v>1.44</v>
+      </c>
+      <c r="AK31">
+        <v>2.65</v>
+      </c>
+      <c r="AL31">
+        <v>2.55</v>
+      </c>
+      <c r="AM31">
+        <v>1.44</v>
+      </c>
+      <c r="AN31">
+        <v>1.02</v>
+      </c>
+      <c r="AO31">
+        <v>1.06</v>
+      </c>
+      <c r="AP31">
         <v>6</v>
       </c>
-      <c r="R31">
-        <v>5</v>
-      </c>
-      <c r="S31">
-        <v>11</v>
-      </c>
-      <c r="T31">
-        <v>3</v>
-      </c>
-      <c r="U31">
-        <v>2</v>
-      </c>
-      <c r="V31">
-        <v>3.6</v>
-      </c>
-      <c r="W31">
-        <v>1.47</v>
-      </c>
-      <c r="X31">
-        <v>2.45</v>
-      </c>
-      <c r="Y31">
-        <v>3.25</v>
-      </c>
-      <c r="Z31">
-        <v>1.3</v>
-      </c>
-      <c r="AA31">
-        <v>9</v>
-      </c>
-      <c r="AB31">
-        <v>1.06</v>
-      </c>
-      <c r="AC31">
-        <v>2.4</v>
-      </c>
-      <c r="AD31">
-        <v>3.1</v>
-      </c>
-      <c r="AE31">
-        <v>3</v>
-      </c>
-      <c r="AF31">
-        <v>1.07</v>
-      </c>
-      <c r="AG31">
-        <v>7.5</v>
-      </c>
-      <c r="AH31">
-        <v>1.4</v>
-      </c>
-      <c r="AI31">
-        <v>2.85</v>
-      </c>
-      <c r="AJ31">
-        <v>2.3</v>
-      </c>
-      <c r="AK31">
-        <v>1.57</v>
-      </c>
-      <c r="AL31">
-        <v>1.95</v>
-      </c>
-      <c r="AM31">
-        <v>1.8</v>
-      </c>
-      <c r="AN31">
-        <v>1.3</v>
-      </c>
-      <c r="AO31">
-        <v>1.28</v>
-      </c>
-      <c r="AP31">
-        <v>1.57</v>
-      </c>
       <c r="AQ31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AR31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS31">
-        <v>0.5</v>
+        <v>1.75</v>
       </c>
       <c r="AT31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU31">
         <v>0</v>
@@ -6974,46 +6974,46 @@
         <v>0</v>
       </c>
       <c r="AX31">
-        <v>1.79</v>
+        <v>1.09</v>
       </c>
       <c r="AY31">
-        <v>7.7</v>
+        <v>15</v>
       </c>
       <c r="AZ31">
-        <v>2.51</v>
+        <v>9.9</v>
       </c>
       <c r="BA31">
-        <v>1.23</v>
+        <v>1.26</v>
       </c>
       <c r="BB31">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="BC31">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="BD31">
-        <v>2.35</v>
+        <v>2.5</v>
       </c>
       <c r="BE31">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="BF31">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="BG31">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="BH31">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="BI31">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BJ31">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BK31">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:63">
@@ -7021,7 +7021,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>6527488</v>
+        <v>6527481</v>
       </c>
       <c r="C32" t="s">
         <v>63</v>
@@ -7039,31 +7039,31 @@
         <v>95</v>
       </c>
       <c r="H32" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J32">
         <v>0</v>
       </c>
       <c r="K32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L32">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M32">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N32">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O32" t="s">
+        <v>137</v>
+      </c>
+      <c r="P32" t="s">
         <v>117</v>
-      </c>
-      <c r="P32" t="s">
-        <v>199</v>
       </c>
       <c r="Q32">
         <v>8</v>
@@ -7075,85 +7075,85 @@
         <v>8</v>
       </c>
       <c r="T32">
-        <v>4.64</v>
+        <v>1.66</v>
       </c>
       <c r="U32">
-        <v>2.24</v>
+        <v>2.5</v>
       </c>
       <c r="V32">
-        <v>2.37</v>
+        <v>8.5</v>
       </c>
       <c r="W32">
-        <v>1.35</v>
+        <v>1.31</v>
       </c>
       <c r="X32">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="Y32">
-        <v>2.64</v>
+        <v>2.45</v>
       </c>
       <c r="Z32">
-        <v>1.45</v>
+        <v>1.49</v>
       </c>
       <c r="AA32">
-        <v>6.4</v>
+        <v>5.75</v>
       </c>
       <c r="AB32">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="AC32">
-        <v>4.25</v>
+        <v>1.28</v>
       </c>
       <c r="AD32">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="AE32">
-        <v>1.75</v>
+        <v>9</v>
       </c>
       <c r="AF32">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="AG32">
         <v>10</v>
       </c>
       <c r="AH32">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="AI32">
-        <v>3.64</v>
+        <v>4</v>
       </c>
       <c r="AJ32">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="AK32">
         <v>2.04</v>
       </c>
       <c r="AL32">
-        <v>1.72</v>
+        <v>2.35</v>
       </c>
       <c r="AM32">
-        <v>2.07</v>
+        <v>1.52</v>
       </c>
       <c r="AN32">
-        <v>1.98</v>
+        <v>1.05</v>
       </c>
       <c r="AO32">
-        <v>1.27</v>
+        <v>1.13</v>
       </c>
       <c r="AP32">
-        <v>1.23</v>
+        <v>3.8</v>
       </c>
       <c r="AQ32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AS32">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AT32">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AU32">
         <v>0</v>
@@ -7165,46 +7165,46 @@
         <v>0</v>
       </c>
       <c r="AX32">
-        <v>2.79</v>
+        <v>1.17</v>
       </c>
       <c r="AY32">
-        <v>9.4</v>
+        <v>13.25</v>
       </c>
       <c r="AZ32">
-        <v>1.59</v>
+        <v>6.25</v>
       </c>
       <c r="BA32">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="BB32">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="BC32">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="BD32">
-        <v>2.35</v>
+        <v>2.2</v>
       </c>
       <c r="BE32">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="BF32">
         <v>9</v>
       </c>
       <c r="BG32">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BH32">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="BI32">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BJ32">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="BK32">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:63">
@@ -7212,7 +7212,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>6527481</v>
+        <v>6527488</v>
       </c>
       <c r="C33" t="s">
         <v>63</v>
@@ -7230,31 +7230,31 @@
         <v>96</v>
       </c>
       <c r="H33" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="I33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J33">
         <v>0</v>
       </c>
       <c r="K33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L33">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N33">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O33" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="P33" t="s">
-        <v>117</v>
+        <v>199</v>
       </c>
       <c r="Q33">
         <v>8</v>
@@ -7266,136 +7266,136 @@
         <v>8</v>
       </c>
       <c r="T33">
-        <v>1.66</v>
+        <v>4.64</v>
       </c>
       <c r="U33">
-        <v>2.5</v>
+        <v>2.24</v>
       </c>
       <c r="V33">
-        <v>8.5</v>
+        <v>2.37</v>
       </c>
       <c r="W33">
-        <v>1.31</v>
+        <v>1.35</v>
       </c>
       <c r="X33">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="Y33">
-        <v>2.45</v>
+        <v>2.64</v>
       </c>
       <c r="Z33">
-        <v>1.49</v>
+        <v>1.45</v>
       </c>
       <c r="AA33">
-        <v>5.75</v>
+        <v>6.4</v>
       </c>
       <c r="AB33">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AC33">
-        <v>1.28</v>
+        <v>4.25</v>
       </c>
       <c r="AD33">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="AE33">
-        <v>9</v>
+        <v>1.75</v>
       </c>
       <c r="AF33">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="AG33">
         <v>10</v>
       </c>
       <c r="AH33">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="AI33">
-        <v>4</v>
+        <v>3.64</v>
       </c>
       <c r="AJ33">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="AK33">
         <v>2.04</v>
       </c>
       <c r="AL33">
+        <v>1.72</v>
+      </c>
+      <c r="AM33">
+        <v>2.07</v>
+      </c>
+      <c r="AN33">
+        <v>1.98</v>
+      </c>
+      <c r="AO33">
+        <v>1.27</v>
+      </c>
+      <c r="AP33">
+        <v>1.23</v>
+      </c>
+      <c r="AQ33">
+        <v>1</v>
+      </c>
+      <c r="AR33">
+        <v>1</v>
+      </c>
+      <c r="AS33">
+        <v>0.5</v>
+      </c>
+      <c r="AT33">
+        <v>1.33</v>
+      </c>
+      <c r="AU33">
+        <v>0</v>
+      </c>
+      <c r="AV33">
+        <v>0</v>
+      </c>
+      <c r="AW33">
+        <v>0</v>
+      </c>
+      <c r="AX33">
+        <v>2.79</v>
+      </c>
+      <c r="AY33">
+        <v>9.4</v>
+      </c>
+      <c r="AZ33">
+        <v>1.59</v>
+      </c>
+      <c r="BA33">
+        <v>1.23</v>
+      </c>
+      <c r="BB33">
+        <v>1.44</v>
+      </c>
+      <c r="BC33">
+        <v>1.83</v>
+      </c>
+      <c r="BD33">
         <v>2.35</v>
       </c>
-      <c r="AM33">
-        <v>1.52</v>
-      </c>
-      <c r="AN33">
-        <v>1.05</v>
-      </c>
-      <c r="AO33">
-        <v>1.13</v>
-      </c>
-      <c r="AP33">
-        <v>3.8</v>
-      </c>
-      <c r="AQ33">
-        <v>0</v>
-      </c>
-      <c r="AR33">
-        <v>3</v>
-      </c>
-      <c r="AS33">
-        <v>1</v>
-      </c>
-      <c r="AT33">
-        <v>1.5</v>
-      </c>
-      <c r="AU33">
-        <v>0</v>
-      </c>
-      <c r="AV33">
-        <v>0</v>
-      </c>
-      <c r="AW33">
-        <v>0</v>
-      </c>
-      <c r="AX33">
-        <v>1.17</v>
-      </c>
-      <c r="AY33">
-        <v>13.25</v>
-      </c>
-      <c r="AZ33">
-        <v>6.25</v>
-      </c>
-      <c r="BA33">
-        <v>1.21</v>
-      </c>
-      <c r="BB33">
-        <v>1.4</v>
-      </c>
-      <c r="BC33">
-        <v>1.75</v>
-      </c>
-      <c r="BD33">
-        <v>2.2</v>
-      </c>
       <c r="BE33">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="BF33">
         <v>9</v>
       </c>
       <c r="BG33">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BH33">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="BI33">
+        <v>1</v>
+      </c>
+      <c r="BJ33">
+        <v>12</v>
+      </c>
+      <c r="BK33">
         <v>4</v>
-      </c>
-      <c r="BJ33">
-        <v>18</v>
-      </c>
-      <c r="BK33">
-        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:63">
@@ -7594,7 +7594,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>6960585</v>
+        <v>6948867</v>
       </c>
       <c r="C35" t="s">
         <v>63</v>
@@ -7609,175 +7609,175 @@
         <v>0</v>
       </c>
       <c r="G35" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="H35" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="I35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35">
         <v>0</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N35">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O35" t="s">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="P35" t="s">
-        <v>117</v>
+        <v>201</v>
       </c>
       <c r="Q35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R35">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="S35">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="T35">
-        <v>4.2</v>
+        <v>5.6</v>
       </c>
       <c r="U35">
-        <v>2</v>
+        <v>2.31</v>
       </c>
       <c r="V35">
-        <v>2.65</v>
+        <v>2.11</v>
       </c>
       <c r="W35">
-        <v>1.47</v>
+        <v>1.35</v>
       </c>
       <c r="X35">
-        <v>2.5</v>
+        <v>3.05</v>
       </c>
       <c r="Y35">
-        <v>3.15</v>
+        <v>2.61</v>
       </c>
       <c r="Z35">
-        <v>1.32</v>
+        <v>1.46</v>
       </c>
       <c r="AA35">
-        <v>8.449999999999999</v>
+        <v>6.4</v>
       </c>
       <c r="AB35">
-        <v>1.04</v>
+        <v>1.1</v>
       </c>
       <c r="AC35">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="AD35">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="AE35">
-        <v>1.77</v>
+        <v>1.63</v>
       </c>
       <c r="AF35">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AG35">
-        <v>8</v>
+        <v>9.75</v>
       </c>
       <c r="AH35">
-        <v>1.38</v>
+        <v>1.28</v>
       </c>
       <c r="AI35">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="AJ35">
-        <v>2.06</v>
+        <v>1.93</v>
       </c>
       <c r="AK35">
-        <v>1.77</v>
+        <v>1.88</v>
       </c>
       <c r="AL35">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="AM35">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AN35">
-        <v>1.78</v>
+        <v>2.41</v>
       </c>
       <c r="AO35">
+        <v>1.22</v>
+      </c>
+      <c r="AP35">
+        <v>1.14</v>
+      </c>
+      <c r="AQ35">
+        <v>2</v>
+      </c>
+      <c r="AR35">
+        <v>0</v>
+      </c>
+      <c r="AS35">
         <v>1.25</v>
       </c>
-      <c r="AP35">
-        <v>1.25</v>
-      </c>
-      <c r="AQ35">
-        <v>2</v>
-      </c>
-      <c r="AR35">
-        <v>0</v>
-      </c>
-      <c r="AS35">
-        <v>1.75</v>
-      </c>
       <c r="AT35">
-        <v>1</v>
+        <v>2.67</v>
       </c>
       <c r="AU35">
-        <v>1.26</v>
+        <v>1.51</v>
       </c>
       <c r="AV35">
         <v>0</v>
       </c>
       <c r="AW35">
-        <v>1.26</v>
+        <v>1.51</v>
       </c>
       <c r="AX35">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="AY35">
         <v>8</v>
       </c>
       <c r="AZ35">
-        <v>1.45</v>
+        <v>1.38</v>
       </c>
       <c r="BA35">
         <v>1.18</v>
       </c>
       <c r="BB35">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="BC35">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="BD35">
-        <v>1.94</v>
+        <v>2.03</v>
       </c>
       <c r="BE35">
-        <v>2.5</v>
+        <v>2.62</v>
       </c>
       <c r="BF35">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BG35">
+        <v>8</v>
+      </c>
+      <c r="BH35">
         <v>6</v>
       </c>
-      <c r="BH35">
-        <v>3</v>
-      </c>
       <c r="BI35">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="BJ35">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="BK35">
-        <v>11</v>
+        <v>24</v>
       </c>
     </row>
     <row r="36" spans="1:63">
@@ -7785,7 +7785,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>6948867</v>
+        <v>6960585</v>
       </c>
       <c r="C36" t="s">
         <v>63</v>
@@ -7800,112 +7800,112 @@
         <v>0</v>
       </c>
       <c r="G36" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="H36" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36">
         <v>0</v>
       </c>
       <c r="K36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M36">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N36">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O36" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="P36" t="s">
-        <v>201</v>
+        <v>117</v>
       </c>
       <c r="Q36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R36">
+        <v>7</v>
+      </c>
+      <c r="S36">
+        <v>9</v>
+      </c>
+      <c r="T36">
+        <v>4.2</v>
+      </c>
+      <c r="U36">
+        <v>2</v>
+      </c>
+      <c r="V36">
+        <v>2.65</v>
+      </c>
+      <c r="W36">
+        <v>1.47</v>
+      </c>
+      <c r="X36">
+        <v>2.5</v>
+      </c>
+      <c r="Y36">
+        <v>3.15</v>
+      </c>
+      <c r="Z36">
+        <v>1.32</v>
+      </c>
+      <c r="AA36">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="AB36">
+        <v>1.04</v>
+      </c>
+      <c r="AC36">
+        <v>4.5</v>
+      </c>
+      <c r="AD36">
+        <v>3.7</v>
+      </c>
+      <c r="AE36">
+        <v>1.77</v>
+      </c>
+      <c r="AF36">
+        <v>1.06</v>
+      </c>
+      <c r="AG36">
         <v>8</v>
       </c>
-      <c r="S36">
-        <v>11</v>
-      </c>
-      <c r="T36">
-        <v>5.6</v>
-      </c>
-      <c r="U36">
-        <v>2.31</v>
-      </c>
-      <c r="V36">
-        <v>2.11</v>
-      </c>
-      <c r="W36">
-        <v>1.35</v>
-      </c>
-      <c r="X36">
-        <v>3.05</v>
-      </c>
-      <c r="Y36">
-        <v>2.61</v>
-      </c>
-      <c r="Z36">
-        <v>1.46</v>
-      </c>
-      <c r="AA36">
-        <v>6.4</v>
-      </c>
-      <c r="AB36">
-        <v>1.1</v>
-      </c>
-      <c r="AC36">
-        <v>5</v>
-      </c>
-      <c r="AD36">
-        <v>4</v>
-      </c>
-      <c r="AE36">
-        <v>1.63</v>
-      </c>
-      <c r="AF36">
-        <v>1.05</v>
-      </c>
-      <c r="AG36">
-        <v>9.75</v>
-      </c>
       <c r="AH36">
-        <v>1.28</v>
+        <v>1.38</v>
       </c>
       <c r="AI36">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="AJ36">
-        <v>1.93</v>
+        <v>2.06</v>
       </c>
       <c r="AK36">
-        <v>1.88</v>
+        <v>1.77</v>
       </c>
       <c r="AL36">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="AM36">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="AN36">
-        <v>2.41</v>
+        <v>1.78</v>
       </c>
       <c r="AO36">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="AP36">
-        <v>1.14</v>
+        <v>1.25</v>
       </c>
       <c r="AQ36">
         <v>2</v>
@@ -7914,61 +7914,61 @@
         <v>0</v>
       </c>
       <c r="AS36">
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
       <c r="AT36">
-        <v>2.67</v>
+        <v>1</v>
       </c>
       <c r="AU36">
-        <v>1.51</v>
+        <v>1.26</v>
       </c>
       <c r="AV36">
         <v>0</v>
       </c>
       <c r="AW36">
-        <v>1.51</v>
+        <v>1.26</v>
       </c>
       <c r="AX36">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="AY36">
         <v>8</v>
       </c>
       <c r="AZ36">
-        <v>1.38</v>
+        <v>1.45</v>
       </c>
       <c r="BA36">
         <v>1.18</v>
       </c>
       <c r="BB36">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="BC36">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="BD36">
-        <v>2.03</v>
+        <v>1.94</v>
       </c>
       <c r="BE36">
-        <v>2.62</v>
+        <v>2.5</v>
       </c>
       <c r="BF36">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BG36">
+        <v>6</v>
+      </c>
+      <c r="BH36">
+        <v>3</v>
+      </c>
+      <c r="BI36">
+        <v>5</v>
+      </c>
+      <c r="BJ36">
         <v>8</v>
       </c>
-      <c r="BH36">
-        <v>6</v>
-      </c>
-      <c r="BI36">
-        <v>16</v>
-      </c>
-      <c r="BJ36">
-        <v>13</v>
-      </c>
       <c r="BK36">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37" spans="1:63">
@@ -7976,7 +7976,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>6960586</v>
+        <v>6534690</v>
       </c>
       <c r="C37" t="s">
         <v>63</v>
@@ -7994,22 +7994,22 @@
         <v>98</v>
       </c>
       <c r="H37" t="s">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="I37">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K37">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L37">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M37">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N37">
         <v>4</v>
@@ -8018,148 +8018,148 @@
         <v>140</v>
       </c>
       <c r="P37" t="s">
-        <v>117</v>
+        <v>202</v>
       </c>
       <c r="Q37">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="R37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S37">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="T37">
+        <v>3.65</v>
+      </c>
+      <c r="U37">
+        <v>1.98</v>
+      </c>
+      <c r="V37">
+        <v>3.15</v>
+      </c>
+      <c r="W37">
+        <v>1.43</v>
+      </c>
+      <c r="X37">
+        <v>2.6</v>
+      </c>
+      <c r="Y37">
+        <v>3.3</v>
+      </c>
+      <c r="Z37">
+        <v>1.28</v>
+      </c>
+      <c r="AA37">
+        <v>9.5</v>
+      </c>
+      <c r="AB37">
+        <v>1.04</v>
+      </c>
+      <c r="AC37">
+        <v>3.4</v>
+      </c>
+      <c r="AD37">
+        <v>3.1</v>
+      </c>
+      <c r="AE37">
         <v>2.1</v>
       </c>
-      <c r="U37">
-        <v>2.28</v>
-      </c>
-      <c r="V37">
-        <v>5.86</v>
-      </c>
-      <c r="W37">
-        <v>1.37</v>
-      </c>
-      <c r="X37">
-        <v>2.96</v>
-      </c>
-      <c r="Y37">
-        <v>2.71</v>
-      </c>
-      <c r="Z37">
-        <v>1.43</v>
-      </c>
-      <c r="AA37">
-        <v>6.75</v>
-      </c>
-      <c r="AB37">
-        <v>1.09</v>
-      </c>
-      <c r="AC37">
-        <v>1.42</v>
-      </c>
-      <c r="AD37">
-        <v>4.33</v>
-      </c>
-      <c r="AE37">
-        <v>7.5</v>
-      </c>
       <c r="AF37">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="AG37">
-        <v>9.75</v>
+        <v>8</v>
       </c>
       <c r="AH37">
-        <v>1.28</v>
+        <v>1.36</v>
       </c>
       <c r="AI37">
-        <v>3.4</v>
+        <v>2.95</v>
       </c>
       <c r="AJ37">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="AK37">
+        <v>1.68</v>
+      </c>
+      <c r="AL37">
+        <v>1.87</v>
+      </c>
+      <c r="AM37">
         <v>1.85</v>
       </c>
-      <c r="AL37">
-        <v>1.92</v>
-      </c>
-      <c r="AM37">
-        <v>1.84</v>
-      </c>
       <c r="AN37">
-        <v>1.12</v>
+        <v>1.5</v>
       </c>
       <c r="AO37">
-        <v>1.23</v>
+        <v>1.33</v>
       </c>
       <c r="AP37">
-        <v>2.46</v>
+        <v>1.35</v>
       </c>
       <c r="AQ37">
         <v>0</v>
       </c>
       <c r="AR37">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AS37">
-        <v>1.75</v>
+        <v>0.5</v>
       </c>
       <c r="AT37">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU37">
         <v>0</v>
       </c>
       <c r="AV37">
-        <v>1.86</v>
+        <v>0</v>
       </c>
       <c r="AW37">
-        <v>1.86</v>
+        <v>0</v>
       </c>
       <c r="AX37">
-        <v>1.3</v>
+        <v>2.4</v>
       </c>
       <c r="AY37">
+        <v>7</v>
+      </c>
+      <c r="AZ37">
+        <v>1.85</v>
+      </c>
+      <c r="BA37">
+        <v>1.32</v>
+      </c>
+      <c r="BB37">
+        <v>1.6</v>
+      </c>
+      <c r="BC37">
+        <v>2.05</v>
+      </c>
+      <c r="BD37">
+        <v>2.8</v>
+      </c>
+      <c r="BE37">
+        <v>4</v>
+      </c>
+      <c r="BF37">
+        <v>4</v>
+      </c>
+      <c r="BG37">
+        <v>4</v>
+      </c>
+      <c r="BH37">
+        <v>7</v>
+      </c>
+      <c r="BI37">
+        <v>4</v>
+      </c>
+      <c r="BJ37">
+        <v>11</v>
+      </c>
+      <c r="BK37">
         <v>8</v>
-      </c>
-      <c r="AZ37">
-        <v>4.75</v>
-      </c>
-      <c r="BA37">
-        <v>1.44</v>
-      </c>
-      <c r="BB37">
-        <v>1.9</v>
-      </c>
-      <c r="BC37">
-        <v>2.45</v>
-      </c>
-      <c r="BD37">
-        <v>3.4</v>
-      </c>
-      <c r="BE37">
-        <v>4.8</v>
-      </c>
-      <c r="BF37">
-        <v>10</v>
-      </c>
-      <c r="BG37">
-        <v>0</v>
-      </c>
-      <c r="BH37">
-        <v>5</v>
-      </c>
-      <c r="BI37">
-        <v>6</v>
-      </c>
-      <c r="BJ37">
-        <v>15</v>
-      </c>
-      <c r="BK37">
-        <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:63">
@@ -8167,7 +8167,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>6534690</v>
+        <v>6960586</v>
       </c>
       <c r="C38" t="s">
         <v>63</v>
@@ -8185,22 +8185,22 @@
         <v>99</v>
       </c>
       <c r="H38" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K38">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L38">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M38">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N38">
         <v>4</v>
@@ -8209,148 +8209,148 @@
         <v>141</v>
       </c>
       <c r="P38" t="s">
-        <v>202</v>
+        <v>117</v>
       </c>
       <c r="Q38">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="R38">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S38">
+        <v>18</v>
+      </c>
+      <c r="T38">
+        <v>2.1</v>
+      </c>
+      <c r="U38">
+        <v>2.28</v>
+      </c>
+      <c r="V38">
+        <v>5.86</v>
+      </c>
+      <c r="W38">
+        <v>1.37</v>
+      </c>
+      <c r="X38">
+        <v>2.96</v>
+      </c>
+      <c r="Y38">
+        <v>2.71</v>
+      </c>
+      <c r="Z38">
+        <v>1.43</v>
+      </c>
+      <c r="AA38">
+        <v>6.75</v>
+      </c>
+      <c r="AB38">
+        <v>1.09</v>
+      </c>
+      <c r="AC38">
+        <v>1.42</v>
+      </c>
+      <c r="AD38">
+        <v>4.33</v>
+      </c>
+      <c r="AE38">
+        <v>7.5</v>
+      </c>
+      <c r="AF38">
+        <v>1.05</v>
+      </c>
+      <c r="AG38">
+        <v>9.75</v>
+      </c>
+      <c r="AH38">
+        <v>1.28</v>
+      </c>
+      <c r="AI38">
+        <v>3.4</v>
+      </c>
+      <c r="AJ38">
+        <v>1.9</v>
+      </c>
+      <c r="AK38">
+        <v>1.85</v>
+      </c>
+      <c r="AL38">
+        <v>1.92</v>
+      </c>
+      <c r="AM38">
+        <v>1.84</v>
+      </c>
+      <c r="AN38">
+        <v>1.12</v>
+      </c>
+      <c r="AO38">
+        <v>1.23</v>
+      </c>
+      <c r="AP38">
+        <v>2.46</v>
+      </c>
+      <c r="AQ38">
+        <v>0</v>
+      </c>
+      <c r="AR38">
+        <v>2</v>
+      </c>
+      <c r="AS38">
+        <v>1.75</v>
+      </c>
+      <c r="AT38">
+        <v>1</v>
+      </c>
+      <c r="AU38">
+        <v>0</v>
+      </c>
+      <c r="AV38">
+        <v>1.86</v>
+      </c>
+      <c r="AW38">
+        <v>1.86</v>
+      </c>
+      <c r="AX38">
+        <v>1.3</v>
+      </c>
+      <c r="AY38">
+        <v>8</v>
+      </c>
+      <c r="AZ38">
+        <v>4.75</v>
+      </c>
+      <c r="BA38">
+        <v>1.44</v>
+      </c>
+      <c r="BB38">
+        <v>1.9</v>
+      </c>
+      <c r="BC38">
+        <v>2.45</v>
+      </c>
+      <c r="BD38">
+        <v>3.4</v>
+      </c>
+      <c r="BE38">
+        <v>4.8</v>
+      </c>
+      <c r="BF38">
+        <v>10</v>
+      </c>
+      <c r="BG38">
+        <v>0</v>
+      </c>
+      <c r="BH38">
+        <v>5</v>
+      </c>
+      <c r="BI38">
         <v>6</v>
       </c>
-      <c r="T38">
-        <v>3.65</v>
-      </c>
-      <c r="U38">
-        <v>1.98</v>
-      </c>
-      <c r="V38">
-        <v>3.15</v>
-      </c>
-      <c r="W38">
-        <v>1.43</v>
-      </c>
-      <c r="X38">
-        <v>2.6</v>
-      </c>
-      <c r="Y38">
-        <v>3.3</v>
-      </c>
-      <c r="Z38">
-        <v>1.28</v>
-      </c>
-      <c r="AA38">
-        <v>9.5</v>
-      </c>
-      <c r="AB38">
-        <v>1.04</v>
-      </c>
-      <c r="AC38">
-        <v>3.4</v>
-      </c>
-      <c r="AD38">
-        <v>3.1</v>
-      </c>
-      <c r="AE38">
-        <v>2.1</v>
-      </c>
-      <c r="AF38">
-        <v>1.07</v>
-      </c>
-      <c r="AG38">
-        <v>8</v>
-      </c>
-      <c r="AH38">
-        <v>1.36</v>
-      </c>
-      <c r="AI38">
-        <v>2.95</v>
-      </c>
-      <c r="AJ38">
-        <v>2.1</v>
-      </c>
-      <c r="AK38">
-        <v>1.68</v>
-      </c>
-      <c r="AL38">
-        <v>1.87</v>
-      </c>
-      <c r="AM38">
-        <v>1.85</v>
-      </c>
-      <c r="AN38">
-        <v>1.5</v>
-      </c>
-      <c r="AO38">
-        <v>1.33</v>
-      </c>
-      <c r="AP38">
-        <v>1.35</v>
-      </c>
-      <c r="AQ38">
-        <v>0</v>
-      </c>
-      <c r="AR38">
-        <v>0</v>
-      </c>
-      <c r="AS38">
-        <v>0.5</v>
-      </c>
-      <c r="AT38">
-        <v>1.17</v>
-      </c>
-      <c r="AU38">
-        <v>0</v>
-      </c>
-      <c r="AV38">
-        <v>0</v>
-      </c>
-      <c r="AW38">
-        <v>0</v>
-      </c>
-      <c r="AX38">
-        <v>2.4</v>
-      </c>
-      <c r="AY38">
-        <v>7</v>
-      </c>
-      <c r="AZ38">
-        <v>1.85</v>
-      </c>
-      <c r="BA38">
-        <v>1.32</v>
-      </c>
-      <c r="BB38">
-        <v>1.6</v>
-      </c>
-      <c r="BC38">
-        <v>2.05</v>
-      </c>
-      <c r="BD38">
-        <v>2.8</v>
-      </c>
-      <c r="BE38">
-        <v>4</v>
-      </c>
-      <c r="BF38">
-        <v>4</v>
-      </c>
-      <c r="BG38">
-        <v>4</v>
-      </c>
-      <c r="BH38">
-        <v>7</v>
-      </c>
-      <c r="BI38">
-        <v>4</v>
-      </c>
       <c r="BJ38">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="BK38">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:63">
@@ -8564,7 +8564,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H40" t="s">
         <v>82</v>
@@ -8931,7 +8931,7 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>6948869</v>
+        <v>6960588</v>
       </c>
       <c r="C42" t="s">
         <v>63</v>
@@ -8946,175 +8946,175 @@
         <v>0</v>
       </c>
       <c r="G42" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="H42" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I42">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J42">
         <v>0</v>
       </c>
       <c r="K42">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L42">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="M42">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N42">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="O42" t="s">
         <v>143</v>
       </c>
       <c r="P42" t="s">
-        <v>117</v>
+        <v>206</v>
       </c>
       <c r="Q42">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="R42">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="S42">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="T42">
-        <v>3.7</v>
+        <v>2.25</v>
       </c>
       <c r="U42">
-        <v>1.87</v>
+        <v>2.05</v>
       </c>
       <c r="V42">
-        <v>3.48</v>
+        <v>5.5</v>
       </c>
       <c r="W42">
-        <v>1.57</v>
+        <v>1.44</v>
       </c>
       <c r="X42">
-        <v>2.32</v>
+        <v>2.63</v>
       </c>
       <c r="Y42">
-        <v>3.48</v>
+        <v>3.25</v>
       </c>
       <c r="Z42">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
       <c r="AA42">
-        <v>9.6</v>
+        <v>7.5</v>
       </c>
       <c r="AB42">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="AC42">
-        <v>2.65</v>
+        <v>1.61</v>
       </c>
       <c r="AD42">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="AE42">
-        <v>2.7</v>
+        <v>5.5</v>
       </c>
       <c r="AF42">
-        <v>1.09</v>
+        <v>0</v>
       </c>
       <c r="AG42">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AH42">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="AI42">
-        <v>2.6</v>
+        <v>0</v>
       </c>
       <c r="AJ42">
+        <v>2.14</v>
+      </c>
+      <c r="AK42">
+        <v>1.71</v>
+      </c>
+      <c r="AL42">
         <v>2.1</v>
       </c>
-      <c r="AK42">
+      <c r="AM42">
         <v>1.67</v>
       </c>
-      <c r="AL42">
-        <v>2.01</v>
-      </c>
-      <c r="AM42">
-        <v>1.76</v>
-      </c>
       <c r="AN42">
-        <v>1.46</v>
+        <v>0</v>
       </c>
       <c r="AO42">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="AP42">
-        <v>1.42</v>
+        <v>0</v>
       </c>
       <c r="AQ42">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AR42">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AS42">
         <v>1.5</v>
       </c>
       <c r="AT42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AU42">
-        <v>1.39</v>
+        <v>0</v>
       </c>
       <c r="AV42">
-        <v>1.6</v>
+        <v>1.26</v>
       </c>
       <c r="AW42">
-        <v>2.99</v>
+        <v>1.26</v>
       </c>
       <c r="AX42">
-        <v>2.05</v>
+        <v>0</v>
       </c>
       <c r="AY42">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="AZ42">
-        <v>2.12</v>
+        <v>0</v>
       </c>
       <c r="BA42">
-        <v>1.26</v>
+        <v>0</v>
       </c>
       <c r="BB42">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="BC42">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BD42">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="BE42">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="BF42">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="BG42">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BH42">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BI42">
         <v>2</v>
       </c>
       <c r="BJ42">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="BK42">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:63">
@@ -9122,7 +9122,7 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>6960588</v>
+        <v>6948869</v>
       </c>
       <c r="C43" t="s">
         <v>63</v>
@@ -9137,175 +9137,175 @@
         <v>0</v>
       </c>
       <c r="G43" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="H43" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I43">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J43">
         <v>0</v>
       </c>
       <c r="K43">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L43">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="M43">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N43">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="O43" t="s">
         <v>144</v>
       </c>
       <c r="P43" t="s">
-        <v>206</v>
+        <v>117</v>
       </c>
       <c r="Q43">
+        <v>3</v>
+      </c>
+      <c r="R43">
+        <v>8</v>
+      </c>
+      <c r="S43">
+        <v>11</v>
+      </c>
+      <c r="T43">
+        <v>3.7</v>
+      </c>
+      <c r="U43">
+        <v>1.87</v>
+      </c>
+      <c r="V43">
+        <v>3.48</v>
+      </c>
+      <c r="W43">
+        <v>1.57</v>
+      </c>
+      <c r="X43">
+        <v>2.32</v>
+      </c>
+      <c r="Y43">
+        <v>3.48</v>
+      </c>
+      <c r="Z43">
+        <v>1.28</v>
+      </c>
+      <c r="AA43">
+        <v>9.6</v>
+      </c>
+      <c r="AB43">
+        <v>1.04</v>
+      </c>
+      <c r="AC43">
+        <v>2.65</v>
+      </c>
+      <c r="AD43">
+        <v>3.1</v>
+      </c>
+      <c r="AE43">
+        <v>2.7</v>
+      </c>
+      <c r="AF43">
+        <v>1.09</v>
+      </c>
+      <c r="AG43">
         <v>7</v>
       </c>
-      <c r="R43">
-        <v>5</v>
-      </c>
-      <c r="S43">
-        <v>12</v>
-      </c>
-      <c r="T43">
-        <v>2.25</v>
-      </c>
-      <c r="U43">
-        <v>2.05</v>
-      </c>
-      <c r="V43">
-        <v>5.5</v>
-      </c>
-      <c r="W43">
+      <c r="AH43">
         <v>1.44</v>
       </c>
-      <c r="X43">
-        <v>2.63</v>
-      </c>
-      <c r="Y43">
-        <v>3.25</v>
-      </c>
-      <c r="Z43">
-        <v>1.33</v>
-      </c>
-      <c r="AA43">
-        <v>7.5</v>
-      </c>
-      <c r="AB43">
-        <v>1.07</v>
-      </c>
-      <c r="AC43">
-        <v>1.61</v>
-      </c>
-      <c r="AD43">
-        <v>3.8</v>
-      </c>
-      <c r="AE43">
-        <v>5.5</v>
-      </c>
-      <c r="AF43">
-        <v>0</v>
-      </c>
-      <c r="AG43">
-        <v>0</v>
-      </c>
-      <c r="AH43">
-        <v>0</v>
-      </c>
       <c r="AI43">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="AJ43">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
       <c r="AK43">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AL43">
-        <v>2.1</v>
+        <v>2.01</v>
       </c>
       <c r="AM43">
-        <v>1.67</v>
+        <v>1.76</v>
       </c>
       <c r="AN43">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="AO43">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AP43">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="AQ43">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AR43">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AS43">
         <v>1.5</v>
       </c>
       <c r="AT43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AU43">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="AV43">
+        <v>1.6</v>
+      </c>
+      <c r="AW43">
+        <v>2.99</v>
+      </c>
+      <c r="AX43">
+        <v>2.05</v>
+      </c>
+      <c r="AY43">
+        <v>7.5</v>
+      </c>
+      <c r="AZ43">
+        <v>2.12</v>
+      </c>
+      <c r="BA43">
         <v>1.26</v>
       </c>
-      <c r="AW43">
-        <v>1.26</v>
-      </c>
-      <c r="AX43">
-        <v>0</v>
-      </c>
-      <c r="AY43">
-        <v>0</v>
-      </c>
-      <c r="AZ43">
-        <v>0</v>
-      </c>
-      <c r="BA43">
-        <v>0</v>
-      </c>
       <c r="BB43">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="BC43">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BD43">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="BE43">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="BF43">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="BG43">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BH43">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="BI43">
         <v>2</v>
       </c>
       <c r="BJ43">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="BK43">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:63">
@@ -9331,7 +9331,7 @@
         <v>72</v>
       </c>
       <c r="H44" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I44">
         <v>0</v>
@@ -9504,7 +9504,7 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>6960591</v>
+        <v>6960589</v>
       </c>
       <c r="C45" t="s">
         <v>63</v>
@@ -9519,175 +9519,175 @@
         <v>0</v>
       </c>
       <c r="G45" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="H45" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O45" t="s">
-        <v>117</v>
+        <v>146</v>
       </c>
       <c r="P45" t="s">
-        <v>117</v>
+        <v>208</v>
       </c>
       <c r="Q45">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R45">
+        <v>3</v>
+      </c>
+      <c r="S45">
         <v>6</v>
       </c>
-      <c r="S45">
-        <v>11</v>
-      </c>
       <c r="T45">
-        <v>4.75</v>
+        <v>2.3</v>
       </c>
       <c r="U45">
         <v>2.1</v>
       </c>
       <c r="V45">
-        <v>2.35</v>
+        <v>4.6</v>
       </c>
       <c r="W45">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="X45">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="Y45">
-        <v>3.05</v>
+        <v>2.8</v>
       </c>
       <c r="Z45">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="AA45">
-        <v>8</v>
+        <v>7.25</v>
       </c>
       <c r="AB45">
+        <v>1.08</v>
+      </c>
+      <c r="AC45">
+        <v>1.63</v>
+      </c>
+      <c r="AD45">
+        <v>3.65</v>
+      </c>
+      <c r="AE45">
+        <v>6.1</v>
+      </c>
+      <c r="AF45">
         <v>1.06</v>
       </c>
-      <c r="AC45">
-        <v>4.63</v>
-      </c>
-      <c r="AD45">
-        <v>3.42</v>
-      </c>
-      <c r="AE45">
+      <c r="AG45">
+        <v>9.25</v>
+      </c>
+      <c r="AH45">
+        <v>1.31</v>
+      </c>
+      <c r="AI45">
+        <v>3.2</v>
+      </c>
+      <c r="AJ45">
         <v>1.85</v>
       </c>
-      <c r="AF45">
-        <v>1.07</v>
-      </c>
-      <c r="AG45">
-        <v>8.25</v>
-      </c>
-      <c r="AH45">
-        <v>1.36</v>
-      </c>
-      <c r="AI45">
-        <v>3</v>
-      </c>
-      <c r="AJ45">
-        <v>2.09</v>
-      </c>
       <c r="AK45">
-        <v>1.66</v>
+        <v>1.85</v>
       </c>
       <c r="AL45">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AM45">
         <v>1.8</v>
       </c>
       <c r="AN45">
-        <v>2</v>
+        <v>1.19</v>
       </c>
       <c r="AO45">
+        <v>1.26</v>
+      </c>
+      <c r="AP45">
+        <v>2.05</v>
+      </c>
+      <c r="AQ45">
+        <v>1.5</v>
+      </c>
+      <c r="AR45">
+        <v>3</v>
+      </c>
+      <c r="AS45">
+        <v>1</v>
+      </c>
+      <c r="AT45">
+        <v>1.67</v>
+      </c>
+      <c r="AU45">
+        <v>2.27</v>
+      </c>
+      <c r="AV45">
+        <v>2.37</v>
+      </c>
+      <c r="AW45">
+        <v>4.64</v>
+      </c>
+      <c r="AX45">
+        <v>1.3</v>
+      </c>
+      <c r="AY45">
+        <v>9</v>
+      </c>
+      <c r="AZ45">
+        <v>4.5</v>
+      </c>
+      <c r="BA45">
         <v>1.22</v>
       </c>
-      <c r="AP45">
-        <v>1.18</v>
-      </c>
-      <c r="AQ45">
-        <v>2</v>
-      </c>
-      <c r="AR45">
-        <v>3</v>
-      </c>
-      <c r="AS45">
-        <v>1.5</v>
-      </c>
-      <c r="AT45">
-        <v>2</v>
-      </c>
-      <c r="AU45">
-        <v>1.48</v>
-      </c>
-      <c r="AV45">
-        <v>1.32</v>
-      </c>
-      <c r="AW45">
-        <v>2.8</v>
-      </c>
-      <c r="AX45">
-        <v>3.75</v>
-      </c>
-      <c r="AY45">
-        <v>7.5</v>
-      </c>
-      <c r="AZ45">
-        <v>1.43</v>
-      </c>
-      <c r="BA45">
-        <v>1.21</v>
-      </c>
       <c r="BB45">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="BC45">
         <v>1.75</v>
       </c>
       <c r="BD45">
-        <v>2.25</v>
+        <v>2.23</v>
       </c>
       <c r="BE45">
         <v>3</v>
       </c>
       <c r="BF45">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="BG45">
+        <v>3</v>
+      </c>
+      <c r="BH45">
         <v>5</v>
       </c>
-      <c r="BH45">
-        <v>3</v>
-      </c>
       <c r="BI45">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BJ45">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="BK45">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" spans="1:63">
@@ -9695,7 +9695,7 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>6960589</v>
+        <v>6960591</v>
       </c>
       <c r="C46" t="s">
         <v>63</v>
@@ -9710,175 +9710,175 @@
         <v>0</v>
       </c>
       <c r="G46" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="H46" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="I46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K46">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N46">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O46" t="s">
-        <v>146</v>
+        <v>117</v>
       </c>
       <c r="P46" t="s">
-        <v>208</v>
+        <v>117</v>
       </c>
       <c r="Q46">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R46">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="S46">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="T46">
-        <v>2.3</v>
+        <v>4.75</v>
       </c>
       <c r="U46">
         <v>2.1</v>
       </c>
       <c r="V46">
-        <v>4.6</v>
+        <v>2.35</v>
       </c>
       <c r="W46">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="X46">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="Y46">
-        <v>2.8</v>
+        <v>3.05</v>
       </c>
       <c r="Z46">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="AA46">
-        <v>7.25</v>
+        <v>8</v>
       </c>
       <c r="AB46">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="AC46">
-        <v>1.63</v>
+        <v>4.63</v>
       </c>
       <c r="AD46">
-        <v>3.65</v>
+        <v>3.42</v>
       </c>
       <c r="AE46">
-        <v>6.1</v>
+        <v>1.85</v>
       </c>
       <c r="AF46">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="AG46">
-        <v>9.25</v>
+        <v>8.25</v>
       </c>
       <c r="AH46">
-        <v>1.31</v>
+        <v>1.36</v>
       </c>
       <c r="AI46">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="AJ46">
-        <v>1.85</v>
+        <v>2.09</v>
       </c>
       <c r="AK46">
-        <v>1.85</v>
+        <v>1.66</v>
       </c>
       <c r="AL46">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AM46">
         <v>1.8</v>
       </c>
       <c r="AN46">
-        <v>1.19</v>
+        <v>2</v>
       </c>
       <c r="AO46">
-        <v>1.26</v>
+        <v>1.22</v>
       </c>
       <c r="AP46">
-        <v>2.05</v>
+        <v>1.18</v>
       </c>
       <c r="AQ46">
+        <v>2</v>
+      </c>
+      <c r="AR46">
+        <v>3</v>
+      </c>
+      <c r="AS46">
         <v>1.5</v>
       </c>
-      <c r="AR46">
-        <v>3</v>
-      </c>
-      <c r="AS46">
-        <v>1</v>
-      </c>
       <c r="AT46">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AU46">
-        <v>2.27</v>
+        <v>1.48</v>
       </c>
       <c r="AV46">
-        <v>2.37</v>
+        <v>1.32</v>
       </c>
       <c r="AW46">
-        <v>4.64</v>
+        <v>2.8</v>
       </c>
       <c r="AX46">
-        <v>1.3</v>
+        <v>3.75</v>
       </c>
       <c r="AY46">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="AZ46">
-        <v>4.5</v>
+        <v>1.43</v>
       </c>
       <c r="BA46">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="BB46">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="BC46">
         <v>1.75</v>
       </c>
       <c r="BD46">
-        <v>2.23</v>
+        <v>2.25</v>
       </c>
       <c r="BE46">
         <v>3</v>
       </c>
       <c r="BF46">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="BG46">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BH46">
+        <v>3</v>
+      </c>
+      <c r="BI46">
         <v>5</v>
       </c>
-      <c r="BI46">
-        <v>9</v>
-      </c>
       <c r="BJ46">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="BK46">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:63">
@@ -9904,7 +9904,7 @@
         <v>102</v>
       </c>
       <c r="H47" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I47">
         <v>1</v>
@@ -10095,7 +10095,7 @@
         <v>71</v>
       </c>
       <c r="H48" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I48">
         <v>1</v>
@@ -10477,7 +10477,7 @@
         <v>82</v>
       </c>
       <c r="H50" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I50">
         <v>1</v>
@@ -10668,7 +10668,7 @@
         <v>78</v>
       </c>
       <c r="H51" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I51">
         <v>0</v>
@@ -10856,7 +10856,7 @@
         <v>0</v>
       </c>
       <c r="G52" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H52" t="s">
         <v>72</v>
@@ -11050,7 +11050,7 @@
         <v>80</v>
       </c>
       <c r="H53" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I53">
         <v>1</v>
@@ -11414,7 +11414,7 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>6960597</v>
+        <v>6948870</v>
       </c>
       <c r="C55" t="s">
         <v>63</v>
@@ -11429,175 +11429,175 @@
         <v>0</v>
       </c>
       <c r="G55" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="H55" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="I55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K55">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L55">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N55">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O55" t="s">
         <v>154</v>
       </c>
       <c r="P55" t="s">
-        <v>117</v>
+        <v>217</v>
       </c>
       <c r="Q55">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="R55">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="S55">
+        <v>20</v>
+      </c>
+      <c r="T55">
+        <v>1.95</v>
+      </c>
+      <c r="U55">
+        <v>2.2</v>
+      </c>
+      <c r="V55">
+        <v>6.5</v>
+      </c>
+      <c r="W55">
+        <v>1.4</v>
+      </c>
+      <c r="X55">
+        <v>2.75</v>
+      </c>
+      <c r="Y55">
+        <v>2.87</v>
+      </c>
+      <c r="Z55">
+        <v>1.36</v>
+      </c>
+      <c r="AA55">
+        <v>7.5</v>
+      </c>
+      <c r="AB55">
+        <v>1.07</v>
+      </c>
+      <c r="AC55">
+        <v>1.6</v>
+      </c>
+      <c r="AD55">
+        <v>3.86</v>
+      </c>
+      <c r="AE55">
+        <v>5.87</v>
+      </c>
+      <c r="AF55">
+        <v>1.02</v>
+      </c>
+      <c r="AG55">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AH55">
+        <v>1.3</v>
+      </c>
+      <c r="AI55">
+        <v>3.14</v>
+      </c>
+      <c r="AJ55">
+        <v>1.87</v>
+      </c>
+      <c r="AK55">
+        <v>1.83</v>
+      </c>
+      <c r="AL55">
+        <v>2.25</v>
+      </c>
+      <c r="AM55">
+        <v>1.55</v>
+      </c>
+      <c r="AN55">
+        <v>1.09</v>
+      </c>
+      <c r="AO55">
+        <v>1.2</v>
+      </c>
+      <c r="AP55">
+        <v>2.75</v>
+      </c>
+      <c r="AQ55">
+        <v>2</v>
+      </c>
+      <c r="AR55">
+        <v>2</v>
+      </c>
+      <c r="AS55">
+        <v>2</v>
+      </c>
+      <c r="AT55">
+        <v>1.5</v>
+      </c>
+      <c r="AU55">
+        <v>2.04</v>
+      </c>
+      <c r="AV55">
+        <v>1.68</v>
+      </c>
+      <c r="AW55">
+        <v>3.72</v>
+      </c>
+      <c r="AX55">
+        <v>1.24</v>
+      </c>
+      <c r="AY55">
+        <v>9.5</v>
+      </c>
+      <c r="AZ55">
+        <v>5.74</v>
+      </c>
+      <c r="BA55">
+        <v>1.28</v>
+      </c>
+      <c r="BB55">
+        <v>1.5</v>
+      </c>
+      <c r="BC55">
+        <v>1.83</v>
+      </c>
+      <c r="BD55">
+        <v>2.35</v>
+      </c>
+      <c r="BE55">
+        <v>3.1</v>
+      </c>
+      <c r="BF55">
         <v>11</v>
       </c>
-      <c r="T55">
-        <v>1.67</v>
-      </c>
-      <c r="U55">
-        <v>2.5</v>
-      </c>
-      <c r="V55">
-        <v>10</v>
-      </c>
-      <c r="W55">
-        <v>1.3</v>
-      </c>
-      <c r="X55">
-        <v>3.2</v>
-      </c>
-      <c r="Y55">
-        <v>2.45</v>
-      </c>
-      <c r="Z55">
-        <v>1.5</v>
-      </c>
-      <c r="AA55">
+      <c r="BG55">
         <v>6</v>
       </c>
-      <c r="AB55">
-        <v>1.12</v>
-      </c>
-      <c r="AC55">
-        <v>1.48</v>
-      </c>
-      <c r="AD55">
-        <v>4.4</v>
-      </c>
-      <c r="AE55">
-        <v>6.58</v>
-      </c>
-      <c r="AF55">
-        <v>1.03</v>
-      </c>
-      <c r="AG55">
-        <v>16.25</v>
-      </c>
-      <c r="AH55">
-        <v>1.23</v>
-      </c>
-      <c r="AI55">
-        <v>4.25</v>
-      </c>
-      <c r="AJ55">
-        <v>1.67</v>
-      </c>
-      <c r="AK55">
-        <v>2.1</v>
-      </c>
-      <c r="AL55">
-        <v>2.38</v>
-      </c>
-      <c r="AM55">
-        <v>1.53</v>
-      </c>
-      <c r="AN55">
-        <v>1.06</v>
-      </c>
-      <c r="AO55">
-        <v>1.13</v>
-      </c>
-      <c r="AP55">
-        <v>3.9</v>
-      </c>
-      <c r="AQ55">
-        <v>0</v>
-      </c>
-      <c r="AR55">
-        <v>2.33</v>
-      </c>
-      <c r="AS55">
-        <v>1</v>
-      </c>
-      <c r="AT55">
-        <v>1.75</v>
-      </c>
-      <c r="AU55">
-        <v>0</v>
-      </c>
-      <c r="AV55">
-        <v>1.42</v>
-      </c>
-      <c r="AW55">
-        <v>1.42</v>
-      </c>
-      <c r="AX55">
-        <v>1.15</v>
-      </c>
-      <c r="AY55">
-        <v>23</v>
-      </c>
-      <c r="AZ55">
-        <v>6.4</v>
-      </c>
-      <c r="BA55">
-        <v>1.23</v>
-      </c>
-      <c r="BB55">
-        <v>1.36</v>
-      </c>
-      <c r="BC55">
-        <v>1.62</v>
-      </c>
-      <c r="BD55">
-        <v>2</v>
-      </c>
-      <c r="BE55">
-        <v>2.55</v>
-      </c>
-      <c r="BF55">
-        <v>4</v>
-      </c>
-      <c r="BG55">
-        <v>2</v>
-      </c>
       <c r="BH55">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BI55">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="BJ55">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="BK55">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="56" spans="1:63">
@@ -11605,7 +11605,7 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>6948870</v>
+        <v>6960597</v>
       </c>
       <c r="C56" t="s">
         <v>63</v>
@@ -11620,175 +11620,175 @@
         <v>0</v>
       </c>
       <c r="G56" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="H56" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="I56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K56">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L56">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N56">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O56" t="s">
         <v>155</v>
       </c>
       <c r="P56" t="s">
-        <v>217</v>
+        <v>117</v>
       </c>
       <c r="Q56">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="R56">
+        <v>1</v>
+      </c>
+      <c r="S56">
+        <v>11</v>
+      </c>
+      <c r="T56">
+        <v>1.67</v>
+      </c>
+      <c r="U56">
+        <v>2.5</v>
+      </c>
+      <c r="V56">
+        <v>10</v>
+      </c>
+      <c r="W56">
+        <v>1.3</v>
+      </c>
+      <c r="X56">
+        <v>3.2</v>
+      </c>
+      <c r="Y56">
+        <v>2.45</v>
+      </c>
+      <c r="Z56">
+        <v>1.5</v>
+      </c>
+      <c r="AA56">
         <v>6</v>
       </c>
-      <c r="S56">
-        <v>20</v>
-      </c>
-      <c r="T56">
-        <v>1.95</v>
-      </c>
-      <c r="U56">
-        <v>2.2</v>
-      </c>
-      <c r="V56">
-        <v>6.5</v>
-      </c>
-      <c r="W56">
-        <v>1.4</v>
-      </c>
-      <c r="X56">
-        <v>2.75</v>
-      </c>
-      <c r="Y56">
-        <v>2.87</v>
-      </c>
-      <c r="Z56">
+      <c r="AB56">
+        <v>1.12</v>
+      </c>
+      <c r="AC56">
+        <v>1.48</v>
+      </c>
+      <c r="AD56">
+        <v>4.4</v>
+      </c>
+      <c r="AE56">
+        <v>6.58</v>
+      </c>
+      <c r="AF56">
+        <v>1.03</v>
+      </c>
+      <c r="AG56">
+        <v>16.25</v>
+      </c>
+      <c r="AH56">
+        <v>1.23</v>
+      </c>
+      <c r="AI56">
+        <v>4.25</v>
+      </c>
+      <c r="AJ56">
+        <v>1.67</v>
+      </c>
+      <c r="AK56">
+        <v>2.1</v>
+      </c>
+      <c r="AL56">
+        <v>2.38</v>
+      </c>
+      <c r="AM56">
+        <v>1.53</v>
+      </c>
+      <c r="AN56">
+        <v>1.06</v>
+      </c>
+      <c r="AO56">
+        <v>1.13</v>
+      </c>
+      <c r="AP56">
+        <v>3.9</v>
+      </c>
+      <c r="AQ56">
+        <v>0</v>
+      </c>
+      <c r="AR56">
+        <v>2.33</v>
+      </c>
+      <c r="AS56">
+        <v>1</v>
+      </c>
+      <c r="AT56">
+        <v>1.75</v>
+      </c>
+      <c r="AU56">
+        <v>0</v>
+      </c>
+      <c r="AV56">
+        <v>1.42</v>
+      </c>
+      <c r="AW56">
+        <v>1.42</v>
+      </c>
+      <c r="AX56">
+        <v>1.15</v>
+      </c>
+      <c r="AY56">
+        <v>23</v>
+      </c>
+      <c r="AZ56">
+        <v>6.4</v>
+      </c>
+      <c r="BA56">
+        <v>1.23</v>
+      </c>
+      <c r="BB56">
         <v>1.36</v>
       </c>
-      <c r="AA56">
-        <v>7.5</v>
-      </c>
-      <c r="AB56">
-        <v>1.07</v>
-      </c>
-      <c r="AC56">
-        <v>1.6</v>
-      </c>
-      <c r="AD56">
-        <v>3.86</v>
-      </c>
-      <c r="AE56">
-        <v>5.87</v>
-      </c>
-      <c r="AF56">
-        <v>1.02</v>
-      </c>
-      <c r="AG56">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="AH56">
-        <v>1.3</v>
-      </c>
-      <c r="AI56">
-        <v>3.14</v>
-      </c>
-      <c r="AJ56">
-        <v>1.87</v>
-      </c>
-      <c r="AK56">
-        <v>1.83</v>
-      </c>
-      <c r="AL56">
-        <v>2.25</v>
-      </c>
-      <c r="AM56">
-        <v>1.55</v>
-      </c>
-      <c r="AN56">
-        <v>1.09</v>
-      </c>
-      <c r="AO56">
-        <v>1.2</v>
-      </c>
-      <c r="AP56">
-        <v>2.75</v>
-      </c>
-      <c r="AQ56">
-        <v>2</v>
-      </c>
-      <c r="AR56">
-        <v>2</v>
-      </c>
-      <c r="AS56">
-        <v>2</v>
-      </c>
-      <c r="AT56">
-        <v>1.5</v>
-      </c>
-      <c r="AU56">
-        <v>2.04</v>
-      </c>
-      <c r="AV56">
-        <v>1.68</v>
-      </c>
-      <c r="AW56">
-        <v>3.72</v>
-      </c>
-      <c r="AX56">
-        <v>1.24</v>
-      </c>
-      <c r="AY56">
-        <v>9.5</v>
-      </c>
-      <c r="AZ56">
-        <v>5.74</v>
-      </c>
-      <c r="BA56">
-        <v>1.28</v>
-      </c>
-      <c r="BB56">
-        <v>1.5</v>
-      </c>
       <c r="BC56">
-        <v>1.83</v>
+        <v>1.62</v>
       </c>
       <c r="BD56">
-        <v>2.35</v>
+        <v>2</v>
       </c>
       <c r="BE56">
-        <v>3.1</v>
+        <v>2.55</v>
       </c>
       <c r="BF56">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="BG56">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="BH56">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BI56">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="BJ56">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="BK56">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:63">
@@ -12178,7 +12178,7 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>7140063</v>
+        <v>7140064</v>
       </c>
       <c r="C59" t="s">
         <v>63</v>
@@ -12193,157 +12193,157 @@
         <v>0</v>
       </c>
       <c r="G59" t="s">
-        <v>72</v>
+        <v>105</v>
       </c>
       <c r="H59" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="I59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J59">
         <v>0</v>
       </c>
       <c r="K59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L59">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N59">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O59" t="s">
-        <v>157</v>
+        <v>117</v>
       </c>
       <c r="P59" t="s">
-        <v>219</v>
+        <v>117</v>
       </c>
       <c r="Q59">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R59">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S59">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="T59">
+        <v>2.75</v>
+      </c>
+      <c r="U59">
         <v>2.2</v>
       </c>
-      <c r="U59">
+      <c r="V59">
+        <v>3.6</v>
+      </c>
+      <c r="W59">
+        <v>1.36</v>
+      </c>
+      <c r="X59">
+        <v>3</v>
+      </c>
+      <c r="Y59">
+        <v>2.75</v>
+      </c>
+      <c r="Z59">
+        <v>1.4</v>
+      </c>
+      <c r="AA59">
+        <v>6.5</v>
+      </c>
+      <c r="AB59">
+        <v>1.1</v>
+      </c>
+      <c r="AC59">
         <v>2.1</v>
       </c>
-      <c r="V59">
-        <v>5</v>
-      </c>
-      <c r="W59">
-        <v>1.4</v>
-      </c>
-      <c r="X59">
-        <v>2.75</v>
-      </c>
-      <c r="Y59">
-        <v>3</v>
-      </c>
-      <c r="Z59">
-        <v>1.36</v>
-      </c>
-      <c r="AA59">
-        <v>7</v>
-      </c>
-      <c r="AB59">
-        <v>1.08</v>
-      </c>
-      <c r="AC59">
-        <v>1.68</v>
-      </c>
       <c r="AD59">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="AE59">
-        <v>5</v>
+        <v>3.05</v>
       </c>
       <c r="AF59">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="AG59">
-        <v>10.25</v>
+        <v>12</v>
       </c>
       <c r="AH59">
+        <v>1.26</v>
+      </c>
+      <c r="AI59">
+        <v>3.5</v>
+      </c>
+      <c r="AJ59">
+        <v>1.9</v>
+      </c>
+      <c r="AK59">
+        <v>1.9</v>
+      </c>
+      <c r="AL59">
+        <v>1.73</v>
+      </c>
+      <c r="AM59">
+        <v>2</v>
+      </c>
+      <c r="AN59">
         <v>1.32</v>
       </c>
-      <c r="AI59">
-        <v>3.1</v>
-      </c>
-      <c r="AJ59">
-        <v>2</v>
-      </c>
-      <c r="AK59">
-        <v>1.8</v>
-      </c>
-      <c r="AL59">
-        <v>2</v>
-      </c>
-      <c r="AM59">
+      <c r="AO59">
+        <v>1.25</v>
+      </c>
+      <c r="AP59">
+        <v>1.7</v>
+      </c>
+      <c r="AQ59">
+        <v>3</v>
+      </c>
+      <c r="AR59">
+        <v>0</v>
+      </c>
+      <c r="AS59">
+        <v>2</v>
+      </c>
+      <c r="AT59">
+        <v>1</v>
+      </c>
+      <c r="AU59">
+        <v>2.27</v>
+      </c>
+      <c r="AV59">
+        <v>0</v>
+      </c>
+      <c r="AW59">
+        <v>2.27</v>
+      </c>
+      <c r="AX59">
         <v>1.73</v>
       </c>
-      <c r="AN59">
-        <v>1.16</v>
-      </c>
-      <c r="AO59">
-        <v>1.24</v>
-      </c>
-      <c r="AP59">
-        <v>1.97</v>
-      </c>
-      <c r="AQ59">
-        <v>2.5</v>
-      </c>
-      <c r="AR59">
-        <v>3</v>
-      </c>
-      <c r="AS59">
-        <v>2.13</v>
-      </c>
-      <c r="AT59">
-        <v>1.5</v>
-      </c>
-      <c r="AU59">
-        <v>1.85</v>
-      </c>
-      <c r="AV59">
-        <v>2.12</v>
-      </c>
-      <c r="AW59">
-        <v>3.97</v>
-      </c>
-      <c r="AX59">
-        <v>1.69</v>
-      </c>
       <c r="AY59">
-        <v>9.1</v>
+        <v>7.5</v>
       </c>
       <c r="AZ59">
-        <v>2.55</v>
+        <v>2.63</v>
       </c>
       <c r="BA59">
-        <v>1.23</v>
+        <v>1.27</v>
       </c>
       <c r="BB59">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="BC59">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="BD59">
-        <v>2.27</v>
+        <v>2.15</v>
       </c>
       <c r="BE59">
-        <v>3.04</v>
+        <v>2.9</v>
       </c>
       <c r="BF59">
         <v>4</v>
@@ -12352,13 +12352,13 @@
         <v>2</v>
       </c>
       <c r="BH59">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="BI59">
         <v>3</v>
       </c>
       <c r="BJ59">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="BK59">
         <v>5</v>
@@ -12369,7 +12369,7 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>7140064</v>
+        <v>7140063</v>
       </c>
       <c r="C60" t="s">
         <v>63</v>
@@ -12384,157 +12384,157 @@
         <v>0</v>
       </c>
       <c r="G60" t="s">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="H60" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="I60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J60">
         <v>0</v>
       </c>
       <c r="K60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L60">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N60">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O60" t="s">
-        <v>117</v>
+        <v>157</v>
       </c>
       <c r="P60" t="s">
-        <v>117</v>
+        <v>219</v>
       </c>
       <c r="Q60">
+        <v>6</v>
+      </c>
+      <c r="R60">
+        <v>2</v>
+      </c>
+      <c r="S60">
+        <v>8</v>
+      </c>
+      <c r="T60">
+        <v>2.2</v>
+      </c>
+      <c r="U60">
+        <v>2.1</v>
+      </c>
+      <c r="V60">
         <v>5</v>
       </c>
-      <c r="R60">
+      <c r="W60">
+        <v>1.4</v>
+      </c>
+      <c r="X60">
+        <v>2.75</v>
+      </c>
+      <c r="Y60">
+        <v>3</v>
+      </c>
+      <c r="Z60">
+        <v>1.36</v>
+      </c>
+      <c r="AA60">
+        <v>7</v>
+      </c>
+      <c r="AB60">
+        <v>1.08</v>
+      </c>
+      <c r="AC60">
+        <v>1.68</v>
+      </c>
+      <c r="AD60">
+        <v>3.75</v>
+      </c>
+      <c r="AE60">
         <v>5</v>
       </c>
-      <c r="S60">
-        <v>10</v>
-      </c>
-      <c r="T60">
-        <v>2.75</v>
-      </c>
-      <c r="U60">
-        <v>2.2</v>
-      </c>
-      <c r="V60">
-        <v>3.6</v>
-      </c>
-      <c r="W60">
-        <v>1.36</v>
-      </c>
-      <c r="X60">
-        <v>3</v>
-      </c>
-      <c r="Y60">
-        <v>2.75</v>
-      </c>
-      <c r="Z60">
-        <v>1.4</v>
-      </c>
-      <c r="AA60">
-        <v>6.5</v>
-      </c>
-      <c r="AB60">
-        <v>1.1</v>
-      </c>
-      <c r="AC60">
-        <v>2.1</v>
-      </c>
-      <c r="AD60">
-        <v>3.2</v>
-      </c>
-      <c r="AE60">
-        <v>3.05</v>
-      </c>
       <c r="AF60">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="AG60">
-        <v>12</v>
+        <v>10.25</v>
       </c>
       <c r="AH60">
-        <v>1.26</v>
+        <v>1.32</v>
       </c>
       <c r="AI60">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="AJ60">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AK60">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="AL60">
+        <v>2</v>
+      </c>
+      <c r="AM60">
         <v>1.73</v>
       </c>
-      <c r="AM60">
-        <v>2</v>
-      </c>
       <c r="AN60">
-        <v>1.32</v>
+        <v>1.16</v>
       </c>
       <c r="AO60">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AP60">
-        <v>1.7</v>
+        <v>1.97</v>
       </c>
       <c r="AQ60">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AR60">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AS60">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AT60">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AU60">
+        <v>1.85</v>
+      </c>
+      <c r="AV60">
+        <v>2.12</v>
+      </c>
+      <c r="AW60">
+        <v>3.97</v>
+      </c>
+      <c r="AX60">
+        <v>1.69</v>
+      </c>
+      <c r="AY60">
+        <v>9.1</v>
+      </c>
+      <c r="AZ60">
+        <v>2.55</v>
+      </c>
+      <c r="BA60">
+        <v>1.23</v>
+      </c>
+      <c r="BB60">
+        <v>1.45</v>
+      </c>
+      <c r="BC60">
+        <v>1.75</v>
+      </c>
+      <c r="BD60">
         <v>2.27</v>
       </c>
-      <c r="AV60">
-        <v>0</v>
-      </c>
-      <c r="AW60">
-        <v>2.27</v>
-      </c>
-      <c r="AX60">
-        <v>1.73</v>
-      </c>
-      <c r="AY60">
-        <v>7.5</v>
-      </c>
-      <c r="AZ60">
-        <v>2.63</v>
-      </c>
-      <c r="BA60">
-        <v>1.27</v>
-      </c>
-      <c r="BB60">
-        <v>1.46</v>
-      </c>
-      <c r="BC60">
-        <v>1.7</v>
-      </c>
-      <c r="BD60">
-        <v>2.15</v>
-      </c>
       <c r="BE60">
-        <v>2.9</v>
+        <v>3.04</v>
       </c>
       <c r="BF60">
         <v>4</v>
@@ -12543,13 +12543,13 @@
         <v>2</v>
       </c>
       <c r="BH60">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="BI60">
         <v>3</v>
       </c>
       <c r="BJ60">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="BK60">
         <v>5</v>
@@ -12766,7 +12766,7 @@
         <v>0</v>
       </c>
       <c r="G62" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H62" t="s">
         <v>104</v>
@@ -12942,7 +12942,7 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>7033843</v>
+        <v>7140067</v>
       </c>
       <c r="C63" t="s">
         <v>63</v>
@@ -12957,175 +12957,175 @@
         <v>0</v>
       </c>
       <c r="G63" t="s">
-        <v>108</v>
+        <v>71</v>
       </c>
       <c r="H63" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="I63">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L63">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M63">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N63">
         <v>3</v>
       </c>
       <c r="O63" t="s">
-        <v>160</v>
+        <v>117</v>
       </c>
       <c r="P63" t="s">
-        <v>117</v>
+        <v>221</v>
       </c>
       <c r="Q63">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="R63">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="S63">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="T63">
-        <v>1.55</v>
+        <v>4.8</v>
       </c>
       <c r="U63">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="V63">
-        <v>9.25</v>
+        <v>2.1</v>
       </c>
       <c r="W63">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="X63">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="Y63">
-        <v>2.2</v>
+        <v>2.45</v>
       </c>
       <c r="Z63">
-        <v>1.58</v>
+        <v>1.5</v>
       </c>
       <c r="AA63">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AB63">
-        <v>1.15</v>
+        <v>1.12</v>
       </c>
       <c r="AC63">
-        <v>1.17</v>
+        <v>5.25</v>
       </c>
       <c r="AD63">
-        <v>6</v>
+        <v>3.9</v>
       </c>
       <c r="AE63">
-        <v>17</v>
+        <v>1.5</v>
       </c>
       <c r="AF63">
         <v>1.02</v>
       </c>
       <c r="AG63">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AH63">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="AI63">
-        <v>4.6</v>
+        <v>4.33</v>
       </c>
       <c r="AJ63">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AK63">
-        <v>2.35</v>
+        <v>2.15</v>
       </c>
       <c r="AL63">
+        <v>1.73</v>
+      </c>
+      <c r="AM63">
+        <v>1.95</v>
+      </c>
+      <c r="AN63">
         <v>2.3</v>
       </c>
-      <c r="AM63">
-        <v>1.53</v>
-      </c>
-      <c r="AN63">
-        <v>1.03</v>
-      </c>
       <c r="AO63">
-        <v>1.1</v>
+        <v>1.22</v>
       </c>
       <c r="AP63">
-        <v>4.6</v>
+        <v>1.16</v>
       </c>
       <c r="AQ63">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AR63">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AS63">
-        <v>3</v>
+        <v>1.67</v>
       </c>
       <c r="AT63">
-        <v>0</v>
+        <v>2.67</v>
       </c>
       <c r="AU63">
-        <v>0</v>
+        <v>2.29</v>
       </c>
       <c r="AV63">
-        <v>0</v>
+        <v>2.93</v>
       </c>
       <c r="AW63">
-        <v>0</v>
+        <v>5.22</v>
       </c>
       <c r="AX63">
-        <v>1.17</v>
+        <v>4.33</v>
       </c>
       <c r="AY63">
+        <v>8.5</v>
+      </c>
+      <c r="AZ63">
+        <v>1.33</v>
+      </c>
+      <c r="BA63">
+        <v>1.22</v>
+      </c>
+      <c r="BB63">
+        <v>1.38</v>
+      </c>
+      <c r="BC63">
+        <v>1.83</v>
+      </c>
+      <c r="BD63">
+        <v>2.38</v>
+      </c>
+      <c r="BE63">
+        <v>3.2</v>
+      </c>
+      <c r="BF63">
+        <v>5</v>
+      </c>
+      <c r="BG63">
         <v>10</v>
       </c>
-      <c r="AZ63">
+      <c r="BH63">
         <v>7</v>
       </c>
-      <c r="BA63">
-        <v>1.3</v>
-      </c>
-      <c r="BB63">
-        <v>1.5</v>
-      </c>
-      <c r="BC63">
-        <v>1.67</v>
-      </c>
-      <c r="BD63">
-        <v>2.05</v>
-      </c>
-      <c r="BE63">
-        <v>2.8</v>
-      </c>
-      <c r="BF63">
-        <v>7</v>
-      </c>
-      <c r="BG63">
-        <v>2</v>
-      </c>
-      <c r="BH63">
-        <v>9</v>
-      </c>
       <c r="BI63">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BJ63">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="BK63">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="64" spans="1:63">
@@ -13133,7 +13133,7 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>7140067</v>
+        <v>7033843</v>
       </c>
       <c r="C64" t="s">
         <v>63</v>
@@ -13148,175 +13148,175 @@
         <v>0</v>
       </c>
       <c r="G64" t="s">
-        <v>71</v>
+        <v>108</v>
       </c>
       <c r="H64" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="I64">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K64">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L64">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M64">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N64">
         <v>3</v>
       </c>
       <c r="O64" t="s">
+        <v>160</v>
+      </c>
+      <c r="P64" t="s">
         <v>117</v>
       </c>
-      <c r="P64" t="s">
-        <v>221</v>
-      </c>
       <c r="Q64">
+        <v>9</v>
+      </c>
+      <c r="R64">
+        <v>0</v>
+      </c>
+      <c r="S64">
+        <v>9</v>
+      </c>
+      <c r="T64">
+        <v>1.55</v>
+      </c>
+      <c r="U64">
+        <v>2.75</v>
+      </c>
+      <c r="V64">
+        <v>9.25</v>
+      </c>
+      <c r="W64">
+        <v>1.26</v>
+      </c>
+      <c r="X64">
+        <v>3.5</v>
+      </c>
+      <c r="Y64">
+        <v>2.2</v>
+      </c>
+      <c r="Z64">
+        <v>1.58</v>
+      </c>
+      <c r="AA64">
         <v>5</v>
       </c>
-      <c r="R64">
+      <c r="AB64">
+        <v>1.15</v>
+      </c>
+      <c r="AC64">
+        <v>1.17</v>
+      </c>
+      <c r="AD64">
         <v>6</v>
       </c>
-      <c r="S64">
-        <v>11</v>
-      </c>
-      <c r="T64">
-        <v>4.8</v>
-      </c>
-      <c r="U64">
-        <v>2.3</v>
-      </c>
-      <c r="V64">
-        <v>2.1</v>
-      </c>
-      <c r="W64">
-        <v>1.29</v>
-      </c>
-      <c r="X64">
-        <v>3.3</v>
-      </c>
-      <c r="Y64">
-        <v>2.45</v>
-      </c>
-      <c r="Z64">
-        <v>1.5</v>
-      </c>
-      <c r="AA64">
-        <v>6</v>
-      </c>
-      <c r="AB64">
-        <v>1.12</v>
-      </c>
-      <c r="AC64">
-        <v>5.25</v>
-      </c>
-      <c r="AD64">
-        <v>3.9</v>
-      </c>
       <c r="AE64">
-        <v>1.5</v>
+        <v>17</v>
       </c>
       <c r="AF64">
         <v>1.02</v>
       </c>
       <c r="AG64">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AH64">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AI64">
-        <v>4.33</v>
+        <v>4.6</v>
       </c>
       <c r="AJ64">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="AK64">
-        <v>2.15</v>
+        <v>2.35</v>
       </c>
       <c r="AL64">
-        <v>1.73</v>
+        <v>2.3</v>
       </c>
       <c r="AM64">
-        <v>1.95</v>
+        <v>1.53</v>
       </c>
       <c r="AN64">
-        <v>2.3</v>
+        <v>1.03</v>
       </c>
       <c r="AO64">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AP64">
-        <v>1.16</v>
+        <v>4.6</v>
       </c>
       <c r="AQ64">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="AR64">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AS64">
+        <v>3</v>
+      </c>
+      <c r="AT64">
+        <v>0</v>
+      </c>
+      <c r="AU64">
+        <v>0</v>
+      </c>
+      <c r="AV64">
+        <v>0</v>
+      </c>
+      <c r="AW64">
+        <v>0</v>
+      </c>
+      <c r="AX64">
+        <v>1.17</v>
+      </c>
+      <c r="AY64">
+        <v>10</v>
+      </c>
+      <c r="AZ64">
+        <v>7</v>
+      </c>
+      <c r="BA64">
+        <v>1.3</v>
+      </c>
+      <c r="BB64">
+        <v>1.5</v>
+      </c>
+      <c r="BC64">
         <v>1.67</v>
       </c>
-      <c r="AT64">
-        <v>2.67</v>
-      </c>
-      <c r="AU64">
-        <v>2.29</v>
-      </c>
-      <c r="AV64">
-        <v>2.93</v>
-      </c>
-      <c r="AW64">
-        <v>5.22</v>
-      </c>
-      <c r="AX64">
-        <v>4.33</v>
-      </c>
-      <c r="AY64">
-        <v>8.5</v>
-      </c>
-      <c r="AZ64">
-        <v>1.33</v>
-      </c>
-      <c r="BA64">
-        <v>1.22</v>
-      </c>
-      <c r="BB64">
-        <v>1.38</v>
-      </c>
-      <c r="BC64">
-        <v>1.83</v>
-      </c>
       <c r="BD64">
-        <v>2.38</v>
+        <v>2.05</v>
       </c>
       <c r="BE64">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="BF64">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BG64">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="BH64">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BI64">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BJ64">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="BK64">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="65" spans="1:63">
@@ -13897,7 +13897,7 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>7140073</v>
+        <v>7140070</v>
       </c>
       <c r="C68" t="s">
         <v>63</v>
@@ -13912,160 +13912,160 @@
         <v>0</v>
       </c>
       <c r="G68" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H68" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J68">
         <v>0</v>
       </c>
       <c r="K68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L68">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O68" t="s">
-        <v>164</v>
+        <v>117</v>
       </c>
       <c r="P68" t="s">
-        <v>117</v>
+        <v>223</v>
       </c>
       <c r="Q68">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="R68">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S68">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="T68">
-        <v>1.63</v>
+        <v>3</v>
       </c>
       <c r="U68">
-        <v>2.88</v>
+        <v>2.05</v>
       </c>
       <c r="V68">
-        <v>8</v>
+        <v>3.5</v>
       </c>
       <c r="W68">
-        <v>1.22</v>
+        <v>1.44</v>
       </c>
       <c r="X68">
-        <v>4</v>
+        <v>2.63</v>
       </c>
       <c r="Y68">
-        <v>2.09</v>
+        <v>3.25</v>
       </c>
       <c r="Z68">
-        <v>1.7</v>
+        <v>1.33</v>
       </c>
       <c r="AA68">
-        <v>4.45</v>
+        <v>7.5</v>
       </c>
       <c r="AB68">
-        <v>1.19</v>
+        <v>1.07</v>
       </c>
       <c r="AC68">
-        <v>1.2</v>
+        <v>2.2</v>
       </c>
       <c r="AD68">
-        <v>5.5</v>
+        <v>3.05</v>
       </c>
       <c r="AE68">
-        <v>9.5</v>
+        <v>3</v>
       </c>
       <c r="AF68">
-        <v>1.02</v>
+        <v>1.07</v>
       </c>
       <c r="AG68">
-        <v>21</v>
+        <v>10.25</v>
       </c>
       <c r="AH68">
-        <v>1.1</v>
+        <v>1.34</v>
       </c>
       <c r="AI68">
-        <v>5.5</v>
+        <v>3.27</v>
       </c>
       <c r="AJ68">
-        <v>1.4</v>
+        <v>1.95</v>
       </c>
       <c r="AK68">
-        <v>2.75</v>
+        <v>1.75</v>
       </c>
       <c r="AL68">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="AM68">
-        <v>1.89</v>
+        <v>1.83</v>
       </c>
       <c r="AN68">
-        <v>1.04</v>
+        <v>1.35</v>
       </c>
       <c r="AO68">
-        <v>1.12</v>
+        <v>1.3</v>
       </c>
       <c r="AP68">
-        <v>4</v>
+        <v>1.6</v>
       </c>
       <c r="AQ68">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR68">
+        <v>2.6</v>
+      </c>
+      <c r="AS68">
+        <v>1.5</v>
+      </c>
+      <c r="AT68">
+        <v>2.13</v>
+      </c>
+      <c r="AU68">
+        <v>2.45</v>
+      </c>
+      <c r="AV68">
+        <v>1.68</v>
+      </c>
+      <c r="AW68">
+        <v>4.13</v>
+      </c>
+      <c r="AX68">
         <v>1.8</v>
       </c>
-      <c r="AS68">
-        <v>1</v>
-      </c>
-      <c r="AT68">
-        <v>1.5</v>
-      </c>
-      <c r="AU68">
-        <v>2.22</v>
-      </c>
-      <c r="AV68">
-        <v>2.25</v>
-      </c>
-      <c r="AW68">
-        <v>4.47</v>
-      </c>
-      <c r="AX68">
-        <v>1.13</v>
-      </c>
       <c r="AY68">
-        <v>11</v>
+        <v>8.6</v>
       </c>
       <c r="AZ68">
-        <v>8</v>
+        <v>2.38</v>
       </c>
       <c r="BA68">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="BB68">
-        <v>1.33</v>
+        <v>1.65</v>
       </c>
       <c r="BC68">
-        <v>1.61</v>
+        <v>2</v>
       </c>
       <c r="BD68">
-        <v>2.03</v>
+        <v>2.5</v>
       </c>
       <c r="BE68">
-        <v>2.62</v>
+        <v>3.3</v>
       </c>
       <c r="BF68">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BG68">
         <v>4</v>
@@ -14074,13 +14074,13 @@
         <v>10</v>
       </c>
       <c r="BI68">
+        <v>1</v>
+      </c>
+      <c r="BJ68">
+        <v>17</v>
+      </c>
+      <c r="BK68">
         <v>5</v>
-      </c>
-      <c r="BJ68">
-        <v>18</v>
-      </c>
-      <c r="BK68">
-        <v>9</v>
       </c>
     </row>
     <row r="69" spans="1:63">
@@ -14088,7 +14088,7 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>7140070</v>
+        <v>7140071</v>
       </c>
       <c r="C69" t="s">
         <v>63</v>
@@ -14103,175 +14103,175 @@
         <v>0</v>
       </c>
       <c r="G69" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="H69" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="I69">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J69">
         <v>0</v>
       </c>
       <c r="K69">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L69">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M69">
         <v>1</v>
       </c>
       <c r="N69">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O69" t="s">
-        <v>117</v>
+        <v>164</v>
       </c>
       <c r="P69" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q69">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="R69">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="S69">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="T69">
-        <v>3</v>
+        <v>2.06</v>
       </c>
       <c r="U69">
-        <v>2.05</v>
+        <v>2.43</v>
       </c>
       <c r="V69">
+        <v>5.29</v>
+      </c>
+      <c r="W69">
+        <v>1.29</v>
+      </c>
+      <c r="X69">
+        <v>3.42</v>
+      </c>
+      <c r="Y69">
+        <v>2.36</v>
+      </c>
+      <c r="Z69">
+        <v>1.55</v>
+      </c>
+      <c r="AA69">
+        <v>5.45</v>
+      </c>
+      <c r="AB69">
+        <v>1.13</v>
+      </c>
+      <c r="AC69">
+        <v>1.45</v>
+      </c>
+      <c r="AD69">
+        <v>4.1</v>
+      </c>
+      <c r="AE69">
+        <v>5.25</v>
+      </c>
+      <c r="AF69">
+        <v>1.03</v>
+      </c>
+      <c r="AG69">
+        <v>12.5</v>
+      </c>
+      <c r="AH69">
+        <v>1.21</v>
+      </c>
+      <c r="AI69">
+        <v>4.1</v>
+      </c>
+      <c r="AJ69">
+        <v>1.6</v>
+      </c>
+      <c r="AK69">
+        <v>2.2</v>
+      </c>
+      <c r="AL69">
+        <v>1.69</v>
+      </c>
+      <c r="AM69">
+        <v>2.11</v>
+      </c>
+      <c r="AN69">
+        <v>1.15</v>
+      </c>
+      <c r="AO69">
+        <v>1.21</v>
+      </c>
+      <c r="AP69">
+        <v>2.43</v>
+      </c>
+      <c r="AQ69">
+        <v>2.4</v>
+      </c>
+      <c r="AR69">
+        <v>1.6</v>
+      </c>
+      <c r="AS69">
+        <v>2</v>
+      </c>
+      <c r="AT69">
+        <v>1.33</v>
+      </c>
+      <c r="AU69">
+        <v>2.51</v>
+      </c>
+      <c r="AV69">
+        <v>0.99</v>
+      </c>
+      <c r="AW69">
         <v>3.5</v>
       </c>
-      <c r="W69">
-        <v>1.44</v>
-      </c>
-      <c r="X69">
-        <v>2.63</v>
-      </c>
-      <c r="Y69">
-        <v>3.25</v>
-      </c>
-      <c r="Z69">
-        <v>1.33</v>
-      </c>
-      <c r="AA69">
-        <v>7.5</v>
-      </c>
-      <c r="AB69">
-        <v>1.07</v>
-      </c>
-      <c r="AC69">
-        <v>2.2</v>
-      </c>
-      <c r="AD69">
-        <v>3.05</v>
-      </c>
-      <c r="AE69">
-        <v>3</v>
-      </c>
-      <c r="AF69">
-        <v>1.07</v>
-      </c>
-      <c r="AG69">
-        <v>10.25</v>
-      </c>
-      <c r="AH69">
-        <v>1.34</v>
-      </c>
-      <c r="AI69">
-        <v>3.27</v>
-      </c>
-      <c r="AJ69">
-        <v>1.95</v>
-      </c>
-      <c r="AK69">
+      <c r="AX69">
+        <v>1.22</v>
+      </c>
+      <c r="AY69">
+        <v>10</v>
+      </c>
+      <c r="AZ69">
+        <v>5.5</v>
+      </c>
+      <c r="BA69">
+        <v>1.16</v>
+      </c>
+      <c r="BB69">
+        <v>1.29</v>
+      </c>
+      <c r="BC69">
+        <v>1.43</v>
+      </c>
+      <c r="BD69">
         <v>1.75</v>
       </c>
-      <c r="AL69">
-        <v>1.83</v>
-      </c>
-      <c r="AM69">
-        <v>1.83</v>
-      </c>
-      <c r="AN69">
-        <v>1.35</v>
-      </c>
-      <c r="AO69">
-        <v>1.3</v>
-      </c>
-      <c r="AP69">
-        <v>1.6</v>
-      </c>
-      <c r="AQ69">
-        <v>2</v>
-      </c>
-      <c r="AR69">
-        <v>2.6</v>
-      </c>
-      <c r="AS69">
-        <v>1.5</v>
-      </c>
-      <c r="AT69">
-        <v>2.13</v>
-      </c>
-      <c r="AU69">
-        <v>2.45</v>
-      </c>
-      <c r="AV69">
-        <v>1.68</v>
-      </c>
-      <c r="AW69">
-        <v>4.13</v>
-      </c>
-      <c r="AX69">
-        <v>1.8</v>
-      </c>
-      <c r="AY69">
-        <v>8.6</v>
-      </c>
-      <c r="AZ69">
-        <v>2.38</v>
-      </c>
-      <c r="BA69">
-        <v>1.36</v>
-      </c>
-      <c r="BB69">
-        <v>1.65</v>
-      </c>
-      <c r="BC69">
-        <v>2</v>
-      </c>
-      <c r="BD69">
-        <v>2.5</v>
-      </c>
       <c r="BE69">
-        <v>3.3</v>
+        <v>2.22</v>
       </c>
       <c r="BF69">
+        <v>5</v>
+      </c>
+      <c r="BG69">
         <v>7</v>
       </c>
-      <c r="BG69">
-        <v>4</v>
-      </c>
       <c r="BH69">
+        <v>3</v>
+      </c>
+      <c r="BI69">
+        <v>3</v>
+      </c>
+      <c r="BJ69">
+        <v>8</v>
+      </c>
+      <c r="BK69">
         <v>10</v>
-      </c>
-      <c r="BI69">
-        <v>1</v>
-      </c>
-      <c r="BJ69">
-        <v>17</v>
-      </c>
-      <c r="BK69">
-        <v>5</v>
       </c>
     </row>
     <row r="70" spans="1:63">
@@ -14279,7 +14279,7 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>7140071</v>
+        <v>7140072</v>
       </c>
       <c r="C70" t="s">
         <v>63</v>
@@ -14294,175 +14294,175 @@
         <v>0</v>
       </c>
       <c r="G70" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="H70" t="s">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="I70">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K70">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L70">
         <v>3</v>
       </c>
       <c r="M70">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N70">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O70" t="s">
         <v>165</v>
       </c>
       <c r="P70" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q70">
+        <v>8</v>
+      </c>
+      <c r="R70">
         <v>4</v>
-      </c>
-      <c r="R70">
-        <v>8</v>
       </c>
       <c r="S70">
         <v>12</v>
       </c>
       <c r="T70">
-        <v>2.06</v>
+        <v>2.78</v>
       </c>
       <c r="U70">
-        <v>2.43</v>
+        <v>2.12</v>
       </c>
       <c r="V70">
-        <v>5.29</v>
+        <v>3.94</v>
       </c>
       <c r="W70">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="X70">
-        <v>3.42</v>
+        <v>2.83</v>
       </c>
       <c r="Y70">
-        <v>2.36</v>
+        <v>2.88</v>
       </c>
       <c r="Z70">
+        <v>1.39</v>
+      </c>
+      <c r="AA70">
+        <v>7.3</v>
+      </c>
+      <c r="AB70">
+        <v>1.07</v>
+      </c>
+      <c r="AC70">
+        <v>2.15</v>
+      </c>
+      <c r="AD70">
+        <v>3.05</v>
+      </c>
+      <c r="AE70">
+        <v>3.1</v>
+      </c>
+      <c r="AF70">
+        <v>1.05</v>
+      </c>
+      <c r="AG70">
+        <v>10.5</v>
+      </c>
+      <c r="AH70">
+        <v>1.25</v>
+      </c>
+      <c r="AI70">
+        <v>3.6</v>
+      </c>
+      <c r="AJ70">
+        <v>1.85</v>
+      </c>
+      <c r="AK70">
+        <v>1.85</v>
+      </c>
+      <c r="AL70">
+        <v>1.77</v>
+      </c>
+      <c r="AM70">
+        <v>2</v>
+      </c>
+      <c r="AN70">
+        <v>1.34</v>
+      </c>
+      <c r="AO70">
+        <v>1.31</v>
+      </c>
+      <c r="AP70">
+        <v>1.68</v>
+      </c>
+      <c r="AQ70">
+        <v>1</v>
+      </c>
+      <c r="AR70">
+        <v>2.33</v>
+      </c>
+      <c r="AS70">
+        <v>1</v>
+      </c>
+      <c r="AT70">
+        <v>2</v>
+      </c>
+      <c r="AU70">
+        <v>0</v>
+      </c>
+      <c r="AV70">
+        <v>1.38</v>
+      </c>
+      <c r="AW70">
+        <v>1.38</v>
+      </c>
+      <c r="AX70">
         <v>1.55</v>
       </c>
-      <c r="AA70">
-        <v>5.45</v>
-      </c>
-      <c r="AB70">
-        <v>1.13</v>
-      </c>
-      <c r="AC70">
-        <v>1.45</v>
-      </c>
-      <c r="AD70">
-        <v>4.1</v>
-      </c>
-      <c r="AE70">
-        <v>5.25</v>
-      </c>
-      <c r="AF70">
-        <v>1.03</v>
-      </c>
-      <c r="AG70">
-        <v>12.5</v>
-      </c>
-      <c r="AH70">
-        <v>1.21</v>
-      </c>
-      <c r="AI70">
-        <v>4.1</v>
-      </c>
-      <c r="AJ70">
-        <v>1.6</v>
-      </c>
-      <c r="AK70">
-        <v>2.2</v>
-      </c>
-      <c r="AL70">
-        <v>1.69</v>
-      </c>
-      <c r="AM70">
-        <v>2.11</v>
-      </c>
-      <c r="AN70">
-        <v>1.15</v>
-      </c>
-      <c r="AO70">
-        <v>1.21</v>
-      </c>
-      <c r="AP70">
-        <v>2.43</v>
-      </c>
-      <c r="AQ70">
-        <v>2.4</v>
-      </c>
-      <c r="AR70">
-        <v>1.6</v>
-      </c>
-      <c r="AS70">
-        <v>2</v>
-      </c>
-      <c r="AT70">
-        <v>1.33</v>
-      </c>
-      <c r="AU70">
-        <v>2.51</v>
-      </c>
-      <c r="AV70">
-        <v>0.99</v>
-      </c>
-      <c r="AW70">
-        <v>3.5</v>
-      </c>
-      <c r="AX70">
-        <v>1.22</v>
-      </c>
       <c r="AY70">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AZ70">
-        <v>5.5</v>
+        <v>3.2</v>
       </c>
       <c r="BA70">
-        <v>1.16</v>
+        <v>1.31</v>
       </c>
       <c r="BB70">
-        <v>1.29</v>
+        <v>1.52</v>
       </c>
       <c r="BC70">
-        <v>1.43</v>
+        <v>1.94</v>
       </c>
       <c r="BD70">
-        <v>1.75</v>
+        <v>2.52</v>
       </c>
       <c r="BE70">
-        <v>2.22</v>
+        <v>3.2</v>
       </c>
       <c r="BF70">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="BG70">
         <v>7</v>
       </c>
       <c r="BH70">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="BI70">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BJ70">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="BK70">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="71" spans="1:63">
@@ -14470,7 +14470,7 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>7140072</v>
+        <v>7140073</v>
       </c>
       <c r="C71" t="s">
         <v>63</v>
@@ -14485,175 +14485,175 @@
         <v>0</v>
       </c>
       <c r="G71" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="H71" t="s">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="I71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K71">
         <v>1</v>
       </c>
       <c r="L71">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M71">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N71">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O71" t="s">
         <v>166</v>
       </c>
       <c r="P71" t="s">
-        <v>225</v>
+        <v>117</v>
       </c>
       <c r="Q71">
+        <v>13</v>
+      </c>
+      <c r="R71">
+        <v>3</v>
+      </c>
+      <c r="S71">
+        <v>16</v>
+      </c>
+      <c r="T71">
+        <v>1.63</v>
+      </c>
+      <c r="U71">
+        <v>2.88</v>
+      </c>
+      <c r="V71">
         <v>8</v>
       </c>
-      <c r="R71">
+      <c r="W71">
+        <v>1.22</v>
+      </c>
+      <c r="X71">
         <v>4</v>
       </c>
-      <c r="S71">
-        <v>12</v>
-      </c>
-      <c r="T71">
-        <v>2.78</v>
-      </c>
-      <c r="U71">
-        <v>2.12</v>
-      </c>
-      <c r="V71">
-        <v>3.94</v>
-      </c>
-      <c r="W71">
+      <c r="Y71">
+        <v>2.09</v>
+      </c>
+      <c r="Z71">
+        <v>1.7</v>
+      </c>
+      <c r="AA71">
+        <v>4.45</v>
+      </c>
+      <c r="AB71">
+        <v>1.19</v>
+      </c>
+      <c r="AC71">
+        <v>1.2</v>
+      </c>
+      <c r="AD71">
+        <v>5.5</v>
+      </c>
+      <c r="AE71">
+        <v>9.5</v>
+      </c>
+      <c r="AF71">
+        <v>1.02</v>
+      </c>
+      <c r="AG71">
+        <v>21</v>
+      </c>
+      <c r="AH71">
+        <v>1.1</v>
+      </c>
+      <c r="AI71">
+        <v>5.5</v>
+      </c>
+      <c r="AJ71">
         <v>1.4</v>
       </c>
-      <c r="X71">
-        <v>2.83</v>
-      </c>
-      <c r="Y71">
-        <v>2.88</v>
-      </c>
-      <c r="Z71">
-        <v>1.39</v>
-      </c>
-      <c r="AA71">
-        <v>7.3</v>
-      </c>
-      <c r="AB71">
-        <v>1.07</v>
-      </c>
-      <c r="AC71">
-        <v>2.15</v>
-      </c>
-      <c r="AD71">
-        <v>3.05</v>
-      </c>
-      <c r="AE71">
-        <v>3.1</v>
-      </c>
-      <c r="AF71">
-        <v>1.05</v>
-      </c>
-      <c r="AG71">
-        <v>10.5</v>
-      </c>
-      <c r="AH71">
-        <v>1.25</v>
-      </c>
-      <c r="AI71">
-        <v>3.6</v>
-      </c>
-      <c r="AJ71">
-        <v>1.85</v>
-      </c>
       <c r="AK71">
-        <v>1.85</v>
+        <v>2.75</v>
       </c>
       <c r="AL71">
-        <v>1.77</v>
+        <v>1.87</v>
       </c>
       <c r="AM71">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AN71">
-        <v>1.34</v>
+        <v>1.04</v>
       </c>
       <c r="AO71">
-        <v>1.31</v>
+        <v>1.12</v>
       </c>
       <c r="AP71">
-        <v>1.68</v>
+        <v>4</v>
       </c>
       <c r="AQ71">
         <v>1</v>
       </c>
       <c r="AR71">
-        <v>2.33</v>
+        <v>1.8</v>
       </c>
       <c r="AS71">
         <v>1</v>
       </c>
       <c r="AT71">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AU71">
-        <v>0</v>
+        <v>2.22</v>
       </c>
       <c r="AV71">
-        <v>1.38</v>
+        <v>2.25</v>
       </c>
       <c r="AW71">
-        <v>1.38</v>
+        <v>4.47</v>
       </c>
       <c r="AX71">
-        <v>1.55</v>
+        <v>1.13</v>
       </c>
       <c r="AY71">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AZ71">
-        <v>3.2</v>
+        <v>8</v>
       </c>
       <c r="BA71">
-        <v>1.31</v>
+        <v>1.2</v>
       </c>
       <c r="BB71">
-        <v>1.52</v>
+        <v>1.33</v>
       </c>
       <c r="BC71">
-        <v>1.94</v>
+        <v>1.61</v>
       </c>
       <c r="BD71">
-        <v>2.52</v>
+        <v>2.03</v>
       </c>
       <c r="BE71">
-        <v>3.2</v>
+        <v>2.62</v>
       </c>
       <c r="BF71">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="BG71">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="BH71">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BI71">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BJ71">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="BK71">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="72" spans="1:63">
@@ -14852,7 +14852,7 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>7140075</v>
+        <v>7140074</v>
       </c>
       <c r="C73" t="s">
         <v>63</v>
@@ -14867,10 +14867,10 @@
         <v>0</v>
       </c>
       <c r="G73" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="H73" t="s">
-        <v>71</v>
+        <v>114</v>
       </c>
       <c r="I73">
         <v>1</v>
@@ -14885,157 +14885,157 @@
         <v>1</v>
       </c>
       <c r="M73">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N73">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O73" t="s">
         <v>168</v>
       </c>
       <c r="P73" t="s">
-        <v>117</v>
+        <v>227</v>
       </c>
       <c r="Q73">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R73">
+        <v>12</v>
+      </c>
+      <c r="S73">
+        <v>18</v>
+      </c>
+      <c r="T73">
+        <v>2.78</v>
+      </c>
+      <c r="U73">
+        <v>2.06</v>
+      </c>
+      <c r="V73">
+        <v>4.05</v>
+      </c>
+      <c r="W73">
+        <v>1.44</v>
+      </c>
+      <c r="X73">
+        <v>2.55</v>
+      </c>
+      <c r="Y73">
+        <v>3</v>
+      </c>
+      <c r="Z73">
+        <v>1.33</v>
+      </c>
+      <c r="AA73">
+        <v>8.25</v>
+      </c>
+      <c r="AB73">
+        <v>1.06</v>
+      </c>
+      <c r="AC73">
+        <v>2</v>
+      </c>
+      <c r="AD73">
+        <v>3.25</v>
+      </c>
+      <c r="AE73">
+        <v>3.25</v>
+      </c>
+      <c r="AF73">
+        <v>1.07</v>
+      </c>
+      <c r="AG73">
+        <v>8</v>
+      </c>
+      <c r="AH73">
+        <v>1.35</v>
+      </c>
+      <c r="AI73">
+        <v>2.95</v>
+      </c>
+      <c r="AJ73">
+        <v>2</v>
+      </c>
+      <c r="AK73">
+        <v>1.7</v>
+      </c>
+      <c r="AL73">
+        <v>1.87</v>
+      </c>
+      <c r="AM73">
+        <v>1.87</v>
+      </c>
+      <c r="AN73">
+        <v>1.25</v>
+      </c>
+      <c r="AO73">
+        <v>1.35</v>
+      </c>
+      <c r="AP73">
+        <v>1.7</v>
+      </c>
+      <c r="AQ73">
+        <v>3</v>
+      </c>
+      <c r="AR73">
+        <v>0</v>
+      </c>
+      <c r="AS73">
+        <v>1.75</v>
+      </c>
+      <c r="AT73">
+        <v>1</v>
+      </c>
+      <c r="AU73">
+        <v>2.41</v>
+      </c>
+      <c r="AV73">
+        <v>0</v>
+      </c>
+      <c r="AW73">
+        <v>2.41</v>
+      </c>
+      <c r="AX73">
+        <v>1.95</v>
+      </c>
+      <c r="AY73">
         <v>6</v>
       </c>
-      <c r="S73">
-        <v>11</v>
-      </c>
-      <c r="T73">
-        <v>1.72</v>
-      </c>
-      <c r="U73">
-        <v>2.64</v>
-      </c>
-      <c r="V73">
-        <v>7.95</v>
-      </c>
-      <c r="W73">
-        <v>1.28</v>
-      </c>
-      <c r="X73">
-        <v>3.48</v>
-      </c>
-      <c r="Y73">
-        <v>2.32</v>
-      </c>
-      <c r="Z73">
-        <v>1.57</v>
-      </c>
-      <c r="AA73">
+      <c r="AZ73">
+        <v>2.38</v>
+      </c>
+      <c r="BA73">
+        <v>1.64</v>
+      </c>
+      <c r="BB73">
+        <v>1.9</v>
+      </c>
+      <c r="BC73">
+        <v>2.9</v>
+      </c>
+      <c r="BD73">
+        <v>3.6</v>
+      </c>
+      <c r="BE73">
         <v>5.3</v>
       </c>
-      <c r="AB73">
-        <v>1.14</v>
-      </c>
-      <c r="AC73">
-        <v>1.3</v>
-      </c>
-      <c r="AD73">
-        <v>4.6</v>
-      </c>
-      <c r="AE73">
-        <v>7</v>
-      </c>
-      <c r="AF73">
-        <v>1.03</v>
-      </c>
-      <c r="AG73">
-        <v>11</v>
-      </c>
-      <c r="AH73">
-        <v>1.16</v>
-      </c>
-      <c r="AI73">
-        <v>4.5</v>
-      </c>
-      <c r="AJ73">
-        <v>1.55</v>
-      </c>
-      <c r="AK73">
-        <v>2.3</v>
-      </c>
-      <c r="AL73">
-        <v>2.01</v>
-      </c>
-      <c r="AM73">
-        <v>1.76</v>
-      </c>
-      <c r="AN73">
-        <v>1.04</v>
-      </c>
-      <c r="AO73">
-        <v>1.14</v>
-      </c>
-      <c r="AP73">
-        <v>3.64</v>
-      </c>
-      <c r="AQ73">
-        <v>2.33</v>
-      </c>
-      <c r="AR73">
-        <v>2</v>
-      </c>
-      <c r="AS73">
-        <v>2.67</v>
-      </c>
-      <c r="AT73">
-        <v>1.67</v>
-      </c>
-      <c r="AU73">
-        <v>1.89</v>
-      </c>
-      <c r="AV73">
-        <v>1.93</v>
-      </c>
-      <c r="AW73">
-        <v>3.82</v>
-      </c>
-      <c r="AX73">
-        <v>1.15</v>
-      </c>
-      <c r="AY73">
+      <c r="BF73">
+        <v>6</v>
+      </c>
+      <c r="BG73">
+        <v>8</v>
+      </c>
+      <c r="BH73">
+        <v>6</v>
+      </c>
+      <c r="BI73">
+        <v>2</v>
+      </c>
+      <c r="BJ73">
+        <v>12</v>
+      </c>
+      <c r="BK73">
         <v>10</v>
-      </c>
-      <c r="AZ73">
-        <v>7.5</v>
-      </c>
-      <c r="BA73">
-        <v>1.17</v>
-      </c>
-      <c r="BB73">
-        <v>1.3</v>
-      </c>
-      <c r="BC73">
-        <v>1.48</v>
-      </c>
-      <c r="BD73">
-        <v>1.8</v>
-      </c>
-      <c r="BE73">
-        <v>2.27</v>
-      </c>
-      <c r="BF73">
-        <v>4</v>
-      </c>
-      <c r="BG73">
-        <v>2</v>
-      </c>
-      <c r="BH73">
-        <v>3</v>
-      </c>
-      <c r="BI73">
-        <v>3</v>
-      </c>
-      <c r="BJ73">
-        <v>7</v>
-      </c>
-      <c r="BK73">
-        <v>5</v>
       </c>
     </row>
     <row r="74" spans="1:63">
@@ -15043,7 +15043,7 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>7140074</v>
+        <v>7140075</v>
       </c>
       <c r="C74" t="s">
         <v>63</v>
@@ -15058,10 +15058,10 @@
         <v>0</v>
       </c>
       <c r="G74" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="H74" t="s">
-        <v>114</v>
+        <v>71</v>
       </c>
       <c r="I74">
         <v>1</v>
@@ -15076,157 +15076,157 @@
         <v>1</v>
       </c>
       <c r="M74">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N74">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O74" t="s">
         <v>169</v>
       </c>
       <c r="P74" t="s">
-        <v>227</v>
+        <v>117</v>
       </c>
       <c r="Q74">
+        <v>5</v>
+      </c>
+      <c r="R74">
         <v>6</v>
       </c>
-      <c r="R74">
-        <v>12</v>
-      </c>
       <c r="S74">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="T74">
-        <v>2.78</v>
+        <v>1.72</v>
       </c>
       <c r="U74">
-        <v>2.06</v>
+        <v>2.64</v>
       </c>
       <c r="V74">
-        <v>4.05</v>
+        <v>7.95</v>
       </c>
       <c r="W74">
-        <v>1.44</v>
+        <v>1.28</v>
       </c>
       <c r="X74">
-        <v>2.55</v>
+        <v>3.48</v>
       </c>
       <c r="Y74">
-        <v>3</v>
+        <v>2.32</v>
       </c>
       <c r="Z74">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AA74">
-        <v>8.25</v>
+        <v>5.3</v>
       </c>
       <c r="AB74">
-        <v>1.06</v>
+        <v>1.14</v>
       </c>
       <c r="AC74">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="AD74">
-        <v>3.25</v>
+        <v>4.6</v>
       </c>
       <c r="AE74">
-        <v>3.25</v>
+        <v>7</v>
       </c>
       <c r="AF74">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="AG74">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AH74">
-        <v>1.35</v>
+        <v>1.16</v>
       </c>
       <c r="AI74">
-        <v>2.95</v>
+        <v>4.5</v>
       </c>
       <c r="AJ74">
-        <v>2</v>
+        <v>1.55</v>
       </c>
       <c r="AK74">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
       <c r="AL74">
-        <v>1.87</v>
+        <v>2.01</v>
       </c>
       <c r="AM74">
-        <v>1.87</v>
+        <v>1.76</v>
       </c>
       <c r="AN74">
-        <v>1.25</v>
+        <v>1.04</v>
       </c>
       <c r="AO74">
-        <v>1.35</v>
+        <v>1.14</v>
       </c>
       <c r="AP74">
-        <v>1.7</v>
+        <v>3.64</v>
       </c>
       <c r="AQ74">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AR74">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AS74">
-        <v>1.75</v>
+        <v>2.67</v>
       </c>
       <c r="AT74">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AU74">
-        <v>2.41</v>
+        <v>1.89</v>
       </c>
       <c r="AV74">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="AW74">
-        <v>2.41</v>
+        <v>3.82</v>
       </c>
       <c r="AX74">
-        <v>1.95</v>
+        <v>1.15</v>
       </c>
       <c r="AY74">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AZ74">
-        <v>2.38</v>
+        <v>7.5</v>
       </c>
       <c r="BA74">
-        <v>1.64</v>
+        <v>1.17</v>
       </c>
       <c r="BB74">
-        <v>1.9</v>
+        <v>1.3</v>
       </c>
       <c r="BC74">
-        <v>2.9</v>
+        <v>1.48</v>
       </c>
       <c r="BD74">
-        <v>3.6</v>
+        <v>1.8</v>
       </c>
       <c r="BE74">
-        <v>5.3</v>
+        <v>2.27</v>
       </c>
       <c r="BF74">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BG74">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="BH74">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BI74">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BJ74">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="BK74">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="75" spans="1:63">
@@ -15464,7 +15464,7 @@
         <v>2</v>
       </c>
       <c r="O76" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="P76" t="s">
         <v>229</v>
@@ -15825,7 +15825,7 @@
         <v>114</v>
       </c>
       <c r="H78" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I78">
         <v>0</v>
@@ -18138,7 +18138,7 @@
         <v>3</v>
       </c>
       <c r="O90" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="P90" t="s">
         <v>237</v>
@@ -18267,13 +18267,13 @@
         <v>3.6</v>
       </c>
       <c r="BF90">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BG90">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BH90">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BI90">
         <v>3</v>
@@ -18282,7 +18282,7 @@
         <v>15</v>
       </c>
       <c r="BK90">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Europe UEFA Champions League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Europe UEFA Champions League_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK90"/>
+  <dimension ref="A1:BK106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7602,7 +7602,7 @@
         <v>1.25</v>
       </c>
       <c r="AT35" t="n">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AU35" t="n">
         <v>1.51</v>
@@ -8820,7 +8820,7 @@
         <v>2</v>
       </c>
       <c r="AT41" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AU41" t="n">
         <v>1.42</v>
@@ -12065,7 +12065,7 @@
         <v>2.4</v>
       </c>
       <c r="AS57" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AT57" t="n">
         <v>2</v>
@@ -12268,7 +12268,7 @@
         <v>1.67</v>
       </c>
       <c r="AS58" t="n">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AT58" t="n">
         <v>1.25</v>
@@ -12471,7 +12471,7 @@
         <v>0</v>
       </c>
       <c r="AS59" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AT59" t="n">
         <v>1</v>
@@ -12877,7 +12877,7 @@
         <v>0</v>
       </c>
       <c r="AS61" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AT61" t="n">
         <v>0</v>
@@ -13286,7 +13286,7 @@
         <v>1.67</v>
       </c>
       <c r="AT63" t="n">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AU63" t="n">
         <v>2.29</v>
@@ -13486,7 +13486,7 @@
         <v>0</v>
       </c>
       <c r="AS64" t="n">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="AT64" t="n">
         <v>0</v>
@@ -14707,7 +14707,7 @@
         <v>1</v>
       </c>
       <c r="AT70" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AU70" t="n">
         <v>0</v>
@@ -15113,7 +15113,7 @@
         <v>0</v>
       </c>
       <c r="AT72" t="n">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="AU72" t="n">
         <v>0</v>
@@ -15516,7 +15516,7 @@
         <v>2</v>
       </c>
       <c r="AS74" t="n">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AT74" t="n">
         <v>1.67</v>
@@ -15722,7 +15722,7 @@
         <v>0</v>
       </c>
       <c r="AT75" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AU75" t="n">
         <v>0</v>
@@ -16531,7 +16531,7 @@
         <v>2</v>
       </c>
       <c r="AS79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT79" t="n">
         <v>1</v>
@@ -16737,7 +16737,7 @@
         <v>1.25</v>
       </c>
       <c r="AT80" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AU80" t="n">
         <v>2.19</v>
@@ -16940,7 +16940,7 @@
         <v>2.13</v>
       </c>
       <c r="AT81" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AU81" t="n">
         <v>1.54</v>
@@ -17143,7 +17143,7 @@
         <v>2</v>
       </c>
       <c r="AT82" t="n">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AU82" t="n">
         <v>2.11</v>
@@ -17343,7 +17343,7 @@
         <v>1.75</v>
       </c>
       <c r="AS83" t="n">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="AT83" t="n">
         <v>1.17</v>
@@ -17549,7 +17549,7 @@
         <v>1</v>
       </c>
       <c r="AT84" t="n">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AU84" t="n">
         <v>2.47</v>
@@ -17749,7 +17749,7 @@
         <v>2.29</v>
       </c>
       <c r="AS85" t="n">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AT85" t="n">
         <v>2</v>
@@ -17955,7 +17955,7 @@
         <v>1.17</v>
       </c>
       <c r="AT86" t="n">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="AU86" t="n">
         <v>1.32</v>
@@ -18155,7 +18155,7 @@
         <v>1.2</v>
       </c>
       <c r="AS87" t="n">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AT87" t="n">
         <v>1</v>
@@ -18358,7 +18358,7 @@
         <v>1.67</v>
       </c>
       <c r="AS88" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AT88" t="n">
         <v>1.25</v>
@@ -18561,7 +18561,7 @@
         <v>2.29</v>
       </c>
       <c r="AS89" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AT89" t="n">
         <v>2.13</v>
@@ -18767,7 +18767,7 @@
         <v>1</v>
       </c>
       <c r="AT90" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU90" t="n">
         <v>2.4</v>
@@ -18819,6 +18819,3254 @@
       </c>
       <c r="BK90" t="n">
         <v>5</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="n">
+        <v>7197959</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Europe UEFA Champions League</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E91" s="2" t="n">
+        <v>45188.57291666666</v>
+      </c>
+      <c r="F91" t="n">
+        <v>1</v>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>AC Milan</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Newcastle United</t>
+        </is>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
+      <c r="K91" t="n">
+        <v>0</v>
+      </c>
+      <c r="L91" t="n">
+        <v>0</v>
+      </c>
+      <c r="M91" t="n">
+        <v>0</v>
+      </c>
+      <c r="N91" t="n">
+        <v>0</v>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P91" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q91" t="n">
+        <v>6</v>
+      </c>
+      <c r="R91" t="n">
+        <v>1</v>
+      </c>
+      <c r="S91" t="n">
+        <v>7</v>
+      </c>
+      <c r="T91" t="n">
+        <v>3</v>
+      </c>
+      <c r="U91" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V91" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W91" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X91" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y91" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z91" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA91" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB91" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC91" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AD91" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE91" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AF91" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG91" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH91" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI91" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AJ91" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AK91" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AL91" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AM91" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN91" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AO91" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP91" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AQ91" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR91" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS91" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT91" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU91" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV91" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW91" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX91" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AY91" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ91" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BA91" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BB91" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BC91" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="BD91" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BE91" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BF91" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG91" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH91" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI91" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ91" t="n">
+        <v>20</v>
+      </c>
+      <c r="BK91" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="n">
+        <v>7197960</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Europe UEFA Champions League</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E92" s="2" t="n">
+        <v>45188.57291666666</v>
+      </c>
+      <c r="F92" t="n">
+        <v>1</v>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>Young Boys</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>RB Leipzig</t>
+        </is>
+      </c>
+      <c r="I92" t="n">
+        <v>1</v>
+      </c>
+      <c r="J92" t="n">
+        <v>1</v>
+      </c>
+      <c r="K92" t="n">
+        <v>2</v>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="n">
+        <v>3</v>
+      </c>
+      <c r="N92" t="n">
+        <v>4</v>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>['33']</t>
+        </is>
+      </c>
+      <c r="P92" t="inlineStr">
+        <is>
+          <t>['3', '73', '90+2']</t>
+        </is>
+      </c>
+      <c r="Q92" t="n">
+        <v>3</v>
+      </c>
+      <c r="R92" t="n">
+        <v>7</v>
+      </c>
+      <c r="S92" t="n">
+        <v>10</v>
+      </c>
+      <c r="T92" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="U92" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V92" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W92" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X92" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y92" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Z92" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AA92" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB92" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC92" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD92" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AE92" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AF92" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG92" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH92" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AI92" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AJ92" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AK92" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AL92" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AM92" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN92" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="AO92" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP92" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AQ92" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR92" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS92" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT92" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU92" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="AV92" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW92" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="AX92" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AY92" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ92" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BA92" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB92" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BC92" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BD92" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BE92" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF92" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG92" t="n">
+        <v>10</v>
+      </c>
+      <c r="BH92" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI92" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ92" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK92" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="n">
+        <v>7197965</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Europe UEFA Champions League</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E93" s="2" t="n">
+        <v>45188.66666666666</v>
+      </c>
+      <c r="F93" t="n">
+        <v>1</v>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>FC Barcelona</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Royal Antwerp FC</t>
+        </is>
+      </c>
+      <c r="I93" t="n">
+        <v>3</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
+      <c r="K93" t="n">
+        <v>3</v>
+      </c>
+      <c r="L93" t="n">
+        <v>5</v>
+      </c>
+      <c r="M93" t="n">
+        <v>0</v>
+      </c>
+      <c r="N93" t="n">
+        <v>5</v>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>['11', '19', '22', '54', '66']</t>
+        </is>
+      </c>
+      <c r="P93" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q93" t="n">
+        <v>10</v>
+      </c>
+      <c r="R93" t="n">
+        <v>2</v>
+      </c>
+      <c r="S93" t="n">
+        <v>12</v>
+      </c>
+      <c r="T93" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="U93" t="n">
+        <v>3</v>
+      </c>
+      <c r="V93" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="W93" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="X93" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Y93" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="Z93" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AA93" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB93" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AC93" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AD93" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE93" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF93" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG93" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AH93" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AI93" t="n">
+        <v>6</v>
+      </c>
+      <c r="AJ93" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AK93" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="AL93" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM93" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN93" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AO93" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AP93" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AQ93" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR93" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS93" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT93" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU93" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV93" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW93" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX93" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AY93" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AZ93" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA93" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BB93" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BC93" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BD93" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="BE93" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BF93" t="n">
+        <v>11</v>
+      </c>
+      <c r="BG93" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH93" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI93" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ93" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK93" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="n">
+        <v>7197966</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Europe UEFA Champions League</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E94" s="2" t="n">
+        <v>45188.66666666666</v>
+      </c>
+      <c r="F94" t="n">
+        <v>1</v>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>Shakhtar Donetsk</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Porto</t>
+        </is>
+      </c>
+      <c r="I94" t="n">
+        <v>1</v>
+      </c>
+      <c r="J94" t="n">
+        <v>3</v>
+      </c>
+      <c r="K94" t="n">
+        <v>4</v>
+      </c>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="n">
+        <v>3</v>
+      </c>
+      <c r="N94" t="n">
+        <v>4</v>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>['13']</t>
+        </is>
+      </c>
+      <c r="P94" t="inlineStr">
+        <is>
+          <t>['8', '15', '29']</t>
+        </is>
+      </c>
+      <c r="Q94" t="n">
+        <v>4</v>
+      </c>
+      <c r="R94" t="n">
+        <v>3</v>
+      </c>
+      <c r="S94" t="n">
+        <v>7</v>
+      </c>
+      <c r="T94" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="U94" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V94" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="W94" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X94" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y94" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z94" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA94" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB94" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC94" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AD94" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AE94" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AF94" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG94" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH94" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI94" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ94" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK94" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL94" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM94" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN94" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AO94" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP94" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AQ94" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR94" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS94" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT94" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU94" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV94" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW94" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX94" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AY94" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ94" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BA94" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BB94" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BC94" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="BD94" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BE94" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BF94" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG94" t="n">
+        <v>10</v>
+      </c>
+      <c r="BH94" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI94" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ94" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK94" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="n">
+        <v>7197964</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Europe UEFA Champions League</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E95" s="2" t="n">
+        <v>45188.66666666666</v>
+      </c>
+      <c r="F95" t="n">
+        <v>1</v>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>Manchester City</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Red Star Belgrade</t>
+        </is>
+      </c>
+      <c r="I95" t="n">
+        <v>0</v>
+      </c>
+      <c r="J95" t="n">
+        <v>1</v>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="n">
+        <v>3</v>
+      </c>
+      <c r="M95" t="n">
+        <v>1</v>
+      </c>
+      <c r="N95" t="n">
+        <v>4</v>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>['47', '60', '73']</t>
+        </is>
+      </c>
+      <c r="P95" t="inlineStr">
+        <is>
+          <t>['45']</t>
+        </is>
+      </c>
+      <c r="Q95" t="n">
+        <v>12</v>
+      </c>
+      <c r="R95" t="n">
+        <v>0</v>
+      </c>
+      <c r="S95" t="n">
+        <v>12</v>
+      </c>
+      <c r="T95" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U95" t="n">
+        <v>4</v>
+      </c>
+      <c r="V95" t="n">
+        <v>17</v>
+      </c>
+      <c r="W95" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="X95" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y95" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="Z95" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AA95" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AB95" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AC95" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD95" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE95" t="n">
+        <v>46</v>
+      </c>
+      <c r="AF95" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG95" t="n">
+        <v>31</v>
+      </c>
+      <c r="AH95" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AI95" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AJ95" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AK95" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AL95" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AM95" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AN95" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO95" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AP95" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AQ95" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR95" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS95" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT95" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU95" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV95" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW95" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX95" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AY95" t="n">
+        <v>16</v>
+      </c>
+      <c r="AZ95" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="BA95" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BB95" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BC95" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BD95" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="BE95" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BF95" t="n">
+        <v>17</v>
+      </c>
+      <c r="BG95" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH95" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI95" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ95" t="n">
+        <v>28</v>
+      </c>
+      <c r="BK95" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="n">
+        <v>7197962</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Europe UEFA Champions League</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E96" s="2" t="n">
+        <v>45188.66666666666</v>
+      </c>
+      <c r="F96" t="n">
+        <v>1</v>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Atlético Madrid</t>
+        </is>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>1</v>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="n">
+        <v>1</v>
+      </c>
+      <c r="N96" t="n">
+        <v>2</v>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>['90+5']</t>
+        </is>
+      </c>
+      <c r="P96" t="inlineStr">
+        <is>
+          <t>['29']</t>
+        </is>
+      </c>
+      <c r="Q96" t="n">
+        <v>11</v>
+      </c>
+      <c r="R96" t="n">
+        <v>5</v>
+      </c>
+      <c r="S96" t="n">
+        <v>16</v>
+      </c>
+      <c r="T96" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U96" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V96" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W96" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X96" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y96" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z96" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA96" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB96" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC96" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AD96" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE96" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AF96" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG96" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AH96" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI96" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="AJ96" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK96" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AL96" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM96" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN96" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AO96" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP96" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AQ96" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR96" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS96" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT96" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU96" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV96" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW96" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX96" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AY96" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ96" t="n">
+        <v>2</v>
+      </c>
+      <c r="BA96" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BB96" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BC96" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD96" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BE96" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="BF96" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG96" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH96" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI96" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ96" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK96" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="n">
+        <v>7197963</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Europe UEFA Champions League</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E97" s="2" t="n">
+        <v>45188.66666666666</v>
+      </c>
+      <c r="F97" t="n">
+        <v>1</v>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>PSG</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>Borussia Dortmund</t>
+        </is>
+      </c>
+      <c r="I97" t="n">
+        <v>0</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
+      <c r="K97" t="n">
+        <v>0</v>
+      </c>
+      <c r="L97" t="n">
+        <v>2</v>
+      </c>
+      <c r="M97" t="n">
+        <v>0</v>
+      </c>
+      <c r="N97" t="n">
+        <v>2</v>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>['49', '58']</t>
+        </is>
+      </c>
+      <c r="P97" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q97" t="n">
+        <v>10</v>
+      </c>
+      <c r="R97" t="n">
+        <v>7</v>
+      </c>
+      <c r="S97" t="n">
+        <v>17</v>
+      </c>
+      <c r="T97" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U97" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V97" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W97" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X97" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y97" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Z97" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AA97" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB97" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC97" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AD97" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE97" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF97" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG97" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH97" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AI97" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AJ97" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AK97" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AL97" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AM97" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN97" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO97" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP97" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AQ97" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR97" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS97" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT97" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU97" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV97" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW97" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX97" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AY97" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ97" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BA97" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BB97" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BC97" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="BD97" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BE97" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BF97" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG97" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH97" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI97" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ97" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK97" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="n">
+        <v>7197961</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Europe UEFA Champions League</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E98" s="2" t="n">
+        <v>45188.66666666666</v>
+      </c>
+      <c r="F98" t="n">
+        <v>1</v>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>Feyenoord</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>Celtic</t>
+        </is>
+      </c>
+      <c r="I98" t="n">
+        <v>1</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="n">
+        <v>2</v>
+      </c>
+      <c r="M98" t="n">
+        <v>0</v>
+      </c>
+      <c r="N98" t="n">
+        <v>2</v>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>['45+2', '76']</t>
+        </is>
+      </c>
+      <c r="P98" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q98" t="n">
+        <v>4</v>
+      </c>
+      <c r="R98" t="n">
+        <v>1</v>
+      </c>
+      <c r="S98" t="n">
+        <v>5</v>
+      </c>
+      <c r="T98" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U98" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V98" t="n">
+        <v>5</v>
+      </c>
+      <c r="W98" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X98" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y98" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z98" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA98" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB98" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC98" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AD98" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE98" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AF98" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG98" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH98" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI98" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AJ98" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AK98" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AL98" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM98" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN98" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AO98" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AP98" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="AQ98" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR98" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS98" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT98" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU98" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV98" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW98" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX98" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AY98" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ98" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BA98" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB98" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BC98" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BD98" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BE98" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BF98" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG98" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH98" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI98" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ98" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK98" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="n">
+        <v>7197967</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Europe UEFA Champions League</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E99" s="2" t="n">
+        <v>45189.57291666666</v>
+      </c>
+      <c r="F99" t="n">
+        <v>1</v>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>Galatasaray</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>København</t>
+        </is>
+      </c>
+      <c r="I99" t="n">
+        <v>0</v>
+      </c>
+      <c r="J99" t="n">
+        <v>1</v>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="n">
+        <v>2</v>
+      </c>
+      <c r="M99" t="n">
+        <v>2</v>
+      </c>
+      <c r="N99" t="n">
+        <v>4</v>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>['86', '88']</t>
+        </is>
+      </c>
+      <c r="P99" t="inlineStr">
+        <is>
+          <t>['35', '58']</t>
+        </is>
+      </c>
+      <c r="Q99" t="n">
+        <v>9</v>
+      </c>
+      <c r="R99" t="n">
+        <v>1</v>
+      </c>
+      <c r="S99" t="n">
+        <v>10</v>
+      </c>
+      <c r="T99" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U99" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V99" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W99" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X99" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y99" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z99" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA99" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB99" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC99" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AD99" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AE99" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="AF99" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG99" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH99" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI99" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AJ99" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK99" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AL99" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM99" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN99" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AO99" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP99" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AQ99" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AR99" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS99" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AT99" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AU99" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AV99" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AW99" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AX99" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AY99" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ99" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BA99" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB99" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC99" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BD99" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BE99" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BF99" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG99" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH99" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI99" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ99" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK99" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="n">
+        <v>7197968</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Europe UEFA Champions League</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E100" s="2" t="n">
+        <v>45189.57291666666</v>
+      </c>
+      <c r="F100" t="n">
+        <v>1</v>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>Real Madrid</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>Union Berlin</t>
+        </is>
+      </c>
+      <c r="I100" t="n">
+        <v>0</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
+      <c r="K100" t="n">
+        <v>0</v>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="n">
+        <v>0</v>
+      </c>
+      <c r="N100" t="n">
+        <v>1</v>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>['90+4']</t>
+        </is>
+      </c>
+      <c r="P100" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q100" t="n">
+        <v>16</v>
+      </c>
+      <c r="R100" t="n">
+        <v>1</v>
+      </c>
+      <c r="S100" t="n">
+        <v>17</v>
+      </c>
+      <c r="T100" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="U100" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V100" t="n">
+        <v>7</v>
+      </c>
+      <c r="W100" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X100" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y100" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z100" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA100" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB100" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC100" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AD100" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AE100" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="AF100" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG100" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH100" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI100" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ100" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AK100" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AL100" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM100" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN100" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AO100" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AP100" t="n">
+        <v>3</v>
+      </c>
+      <c r="AQ100" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR100" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS100" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT100" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU100" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV100" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW100" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX100" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AY100" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AZ100" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="BA100" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB100" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC100" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BD100" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BE100" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BF100" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG100" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH100" t="n">
+        <v>14</v>
+      </c>
+      <c r="BI100" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ100" t="n">
+        <v>22</v>
+      </c>
+      <c r="BK100" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="n">
+        <v>7197969</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Europe UEFA Champions League</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E101" s="2" t="n">
+        <v>45189.66666666666</v>
+      </c>
+      <c r="F101" t="n">
+        <v>1</v>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>Bayern München</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>Manchester United</t>
+        </is>
+      </c>
+      <c r="I101" t="n">
+        <v>2</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
+      <c r="K101" t="n">
+        <v>2</v>
+      </c>
+      <c r="L101" t="n">
+        <v>4</v>
+      </c>
+      <c r="M101" t="n">
+        <v>3</v>
+      </c>
+      <c r="N101" t="n">
+        <v>7</v>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>['28', '32', '53', '90+2']</t>
+        </is>
+      </c>
+      <c r="P101" t="inlineStr">
+        <is>
+          <t>['49', '88', '90+5']</t>
+        </is>
+      </c>
+      <c r="Q101" t="n">
+        <v>7</v>
+      </c>
+      <c r="R101" t="n">
+        <v>3</v>
+      </c>
+      <c r="S101" t="n">
+        <v>10</v>
+      </c>
+      <c r="T101" t="n">
+        <v>2</v>
+      </c>
+      <c r="U101" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="V101" t="n">
+        <v>5</v>
+      </c>
+      <c r="W101" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X101" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Y101" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Z101" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AA101" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AB101" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AC101" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AD101" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="AE101" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AF101" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG101" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH101" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AI101" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ101" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AK101" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AL101" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AM101" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN101" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AO101" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP101" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AQ101" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR101" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS101" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT101" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU101" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV101" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW101" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX101" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AY101" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ101" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BA101" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BB101" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BC101" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="BD101" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BE101" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BF101" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG101" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH101" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI101" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ101" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK101" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B102" t="n">
+        <v>7197970</v>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Europe UEFA Champions League</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E102" s="2" t="n">
+        <v>45189.66666666666</v>
+      </c>
+      <c r="F102" t="n">
+        <v>1</v>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>Sevilla FC</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>Lens</t>
+        </is>
+      </c>
+      <c r="I102" t="n">
+        <v>1</v>
+      </c>
+      <c r="J102" t="n">
+        <v>1</v>
+      </c>
+      <c r="K102" t="n">
+        <v>2</v>
+      </c>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="n">
+        <v>1</v>
+      </c>
+      <c r="N102" t="n">
+        <v>2</v>
+      </c>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>['9']</t>
+        </is>
+      </c>
+      <c r="P102" t="inlineStr">
+        <is>
+          <t>['24']</t>
+        </is>
+      </c>
+      <c r="Q102" t="n">
+        <v>9</v>
+      </c>
+      <c r="R102" t="n">
+        <v>6</v>
+      </c>
+      <c r="S102" t="n">
+        <v>15</v>
+      </c>
+      <c r="T102" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U102" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V102" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W102" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X102" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y102" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z102" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA102" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB102" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC102" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD102" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE102" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AF102" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG102" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AH102" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AI102" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AJ102" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AK102" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AL102" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM102" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN102" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AO102" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP102" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AQ102" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR102" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS102" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT102" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU102" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV102" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW102" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX102" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AY102" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ102" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BA102" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BB102" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BC102" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD102" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BE102" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BF102" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG102" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH102" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI102" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ102" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK102" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B103" t="n">
+        <v>7197971</v>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Europe UEFA Champions League</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E103" s="2" t="n">
+        <v>45189.66666666666</v>
+      </c>
+      <c r="F103" t="n">
+        <v>1</v>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>PSV</t>
+        </is>
+      </c>
+      <c r="I103" t="n">
+        <v>3</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
+      <c r="K103" t="n">
+        <v>3</v>
+      </c>
+      <c r="L103" t="n">
+        <v>4</v>
+      </c>
+      <c r="M103" t="n">
+        <v>0</v>
+      </c>
+      <c r="N103" t="n">
+        <v>4</v>
+      </c>
+      <c r="O103" t="inlineStr">
+        <is>
+          <t>['8', '20', '38', '70']</t>
+        </is>
+      </c>
+      <c r="P103" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q103" t="n">
+        <v>4</v>
+      </c>
+      <c r="R103" t="n">
+        <v>4</v>
+      </c>
+      <c r="S103" t="n">
+        <v>8</v>
+      </c>
+      <c r="T103" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="U103" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V103" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="W103" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X103" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Y103" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Z103" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AA103" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB103" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AC103" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AD103" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AE103" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AF103" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG103" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH103" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AI103" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AJ103" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AK103" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="AL103" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM103" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN103" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AO103" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AP103" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AQ103" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR103" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AS103" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT103" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU103" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV103" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AW103" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AX103" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AY103" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AZ103" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BA103" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BB103" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BC103" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="BD103" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BE103" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BF103" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG103" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH103" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI103" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ103" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK103" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B104" t="n">
+        <v>7197972</v>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Europe UEFA Champions League</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E104" s="2" t="n">
+        <v>45189.66666666666</v>
+      </c>
+      <c r="F104" t="n">
+        <v>1</v>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>Sporting Braga</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>Napoli</t>
+        </is>
+      </c>
+      <c r="I104" t="n">
+        <v>0</v>
+      </c>
+      <c r="J104" t="n">
+        <v>1</v>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="n">
+        <v>2</v>
+      </c>
+      <c r="N104" t="n">
+        <v>3</v>
+      </c>
+      <c r="O104" t="inlineStr">
+        <is>
+          <t>['84']</t>
+        </is>
+      </c>
+      <c r="P104" t="inlineStr">
+        <is>
+          <t>['45+1', '88']</t>
+        </is>
+      </c>
+      <c r="Q104" t="n">
+        <v>11</v>
+      </c>
+      <c r="R104" t="n">
+        <v>10</v>
+      </c>
+      <c r="S104" t="n">
+        <v>21</v>
+      </c>
+      <c r="T104" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="U104" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V104" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="W104" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X104" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y104" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z104" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA104" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB104" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC104" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD104" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="AE104" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AF104" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG104" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH104" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI104" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="AJ104" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK104" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AL104" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM104" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN104" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AO104" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AP104" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AQ104" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR104" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS104" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AT104" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU104" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AV104" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW104" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AX104" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AY104" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ104" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BA104" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BB104" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BC104" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BD104" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BE104" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BF104" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG104" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH104" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI104" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ104" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK104" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B105" t="n">
+        <v>7197973</v>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Europe UEFA Champions League</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E105" s="2" t="n">
+        <v>45189.66666666666</v>
+      </c>
+      <c r="F105" t="n">
+        <v>1</v>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>Benfica</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>Salzburg</t>
+        </is>
+      </c>
+      <c r="I105" t="n">
+        <v>0</v>
+      </c>
+      <c r="J105" t="n">
+        <v>1</v>
+      </c>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="n">
+        <v>0</v>
+      </c>
+      <c r="M105" t="n">
+        <v>2</v>
+      </c>
+      <c r="N105" t="n">
+        <v>2</v>
+      </c>
+      <c r="O105" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P105" t="inlineStr">
+        <is>
+          <t>['15', '51']</t>
+        </is>
+      </c>
+      <c r="Q105" t="n">
+        <v>4</v>
+      </c>
+      <c r="R105" t="n">
+        <v>5</v>
+      </c>
+      <c r="S105" t="n">
+        <v>9</v>
+      </c>
+      <c r="T105" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="U105" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V105" t="n">
+        <v>6</v>
+      </c>
+      <c r="W105" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X105" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y105" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Z105" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AA105" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB105" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC105" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AD105" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AE105" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AF105" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG105" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH105" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI105" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="AJ105" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AK105" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AL105" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM105" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN105" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AO105" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AP105" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AQ105" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR105" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS105" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT105" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU105" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV105" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW105" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX105" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AY105" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ105" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BA105" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB105" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BC105" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BD105" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BE105" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BF105" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG105" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH105" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI105" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ105" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK105" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B106" t="n">
+        <v>7197974</v>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Europe UEFA Champions League</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E106" s="2" t="n">
+        <v>45189.66666666666</v>
+      </c>
+      <c r="F106" t="n">
+        <v>1</v>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>Real Sociedad</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>Inter Milan</t>
+        </is>
+      </c>
+      <c r="I106" t="n">
+        <v>1</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="n">
+        <v>1</v>
+      </c>
+      <c r="N106" t="n">
+        <v>2</v>
+      </c>
+      <c r="O106" t="inlineStr">
+        <is>
+          <t>['4']</t>
+        </is>
+      </c>
+      <c r="P106" t="inlineStr">
+        <is>
+          <t>['87']</t>
+        </is>
+      </c>
+      <c r="Q106" t="n">
+        <v>7</v>
+      </c>
+      <c r="R106" t="n">
+        <v>4</v>
+      </c>
+      <c r="S106" t="n">
+        <v>11</v>
+      </c>
+      <c r="T106" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="U106" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V106" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W106" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X106" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y106" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z106" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA106" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB106" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC106" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AD106" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE106" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AF106" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG106" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AH106" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AI106" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AJ106" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AK106" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AL106" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM106" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN106" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AO106" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP106" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AQ106" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR106" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS106" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT106" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU106" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV106" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW106" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX106" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AY106" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ106" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BA106" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BB106" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BC106" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD106" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BE106" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BF106" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG106" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH106" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI106" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ106" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK106" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Europe UEFA Champions League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Europe UEFA Champions League_20232024.xlsx
@@ -20630,10 +20630,10 @@
         <v>3.1</v>
       </c>
       <c r="BF99" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG99" t="n">
         <v>4</v>
-      </c>
-      <c r="BG99" t="n">
-        <v>2</v>
       </c>
       <c r="BH99" t="n">
         <v>6</v>
@@ -20642,10 +20642,10 @@
         <v>1</v>
       </c>
       <c r="BJ99" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BK99" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="100">
@@ -20836,16 +20836,16 @@
         <v>8</v>
       </c>
       <c r="BG100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BH100" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BI100" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BJ100" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BK100" t="n">
         <v>4</v>
